--- a/PS-VRP/Dati_output/euristico_post.xlsx
+++ b/PS-VRP/Dati_output/euristico_post.xlsx
@@ -416,7 +416,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S90"/>
+  <dimension ref="A1:S87"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -515,41 +515,41 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>251284</v>
+        <v>251547</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>40.5</v>
+        <v>34</v>
       </c>
       <c r="D2" t="n">
-        <v>297.0909090909091</v>
+        <v>184.9154929577465</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2025-05-09 07:00:00</t>
+          <t>2025-05-08 07:00:00</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2025-05-09 07:40:30</t>
+          <t>2025-05-08 07:34:00</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2025-05-09 07:40:30</t>
+          <t>2025-05-08 07:34:00</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2025-05-09 12:37:35</t>
+          <t>2025-05-08 10:38:54</t>
         </is>
       </c>
       <c r="I2" t="n">
-        <v>16340</v>
+        <v>13129</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
@@ -558,17 +558,17 @@
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>CASON ;R6</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L2" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="M2" t="n">
         <v>70</v>
       </c>
       <c r="N2" t="n">
-        <v>39747</v>
+        <v>39749</v>
       </c>
       <c r="O2" t="inlineStr">
         <is>
@@ -576,78 +576,76 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>39747</v>
+        <v>39749</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>2025-05-12 00:00:00</t>
+          <t>2025-05-06 00:00:00</t>
         </is>
       </c>
       <c r="R2" s="1" t="n">
-        <v>-1.526104797974537</v>
+        <v>-1.443691314548611</v>
       </c>
       <c r="S2" s="1" t="n">
-        <v>-1.526104797974537</v>
+        <v>-1.443691314548611</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>251706</v>
+        <v>250759</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>T3</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="D3" t="n">
-        <v>50.79365079365079</v>
+        <v>118.2816901408451</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2025-05-12 07:00:00</t>
+          <t>2025-05-08 10:38:54</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2025-05-12 07:00:00</t>
+          <t>2025-05-08 11:08:54</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>2025-05-12 07:00:00</t>
+          <t>2025-05-08 11:08:54</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2025-05-12 07:50:47</t>
+          <t>2025-05-08 13:07:11</t>
         </is>
       </c>
       <c r="I3" t="n">
-        <v>3200</v>
+        <v>8398</v>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>foglio</t>
+          <t>bobina</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>T3</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12</t>
         </is>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>39764 (esterno)</t>
-        </is>
+        <v>76</v>
+      </c>
+      <c r="N3" t="n">
+        <v>39747</v>
       </c>
       <c r="O3" t="inlineStr">
         <is>
@@ -655,57 +653,57 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>39764</v>
+        <v>39747</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>2025-05-14 00:00:00</t>
+          <t>2025-03-13 00:00:00</t>
         </is>
       </c>
       <c r="R3" s="1" t="n">
-        <v>0</v>
+        <v>-0.5466647104861111</v>
       </c>
       <c r="S3" s="1" t="n">
-        <v>0</v>
+        <v>-0.5466647104861111</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>251455</v>
+        <v>250894</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D4" t="n">
-        <v>82.765625</v>
+        <v>623.4084507042254</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2025-05-07 07:00:00</t>
+          <t>2025-05-08 13:07:11</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2025-05-07 07:19:00</t>
+          <t>2025-05-08 13:24:11</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>2025-05-07 07:19:00</t>
+          <t>2025-05-08 13:24:11</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>2025-05-07 08:41:45</t>
+          <t>2025-05-12 07:47:36</t>
         </is>
       </c>
       <c r="I4" t="n">
-        <v>5297</v>
+        <v>44262</v>
       </c>
       <c r="J4" t="inlineStr">
         <is>
@@ -714,75 +712,73 @@
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L4" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M4" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="N4" t="n">
-        <v>39749</v>
-      </c>
-      <c r="O4" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>39755</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>39749</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>2025-04-15 00:00:00</t>
+          <t>2025-05-05 00:00:00</t>
         </is>
       </c>
       <c r="R4" s="1" t="n">
-        <v>-0.3623372395833334</v>
+        <v>0</v>
       </c>
       <c r="S4" s="1" t="n">
-        <v>-0.3623372395833334</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>251391</v>
+        <v>251416</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="D5" t="n">
-        <v>91.640625</v>
+        <v>158.056338028169</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2025-05-07 08:41:45</t>
+          <t>2025-05-12 07:47:36</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2025-05-07 08:58:45</t>
+          <t>2025-05-12 08:23:36</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>2025-05-07 08:58:45</t>
+          <t>2025-05-12 08:23:36</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>2025-05-07 10:30:24</t>
+          <t>2025-05-12 11:01:39</t>
         </is>
       </c>
       <c r="I5" t="n">
-        <v>5865</v>
+        <v>11222</v>
       </c>
       <c r="J5" t="inlineStr">
         <is>
@@ -795,21 +791,19 @@
         </is>
       </c>
       <c r="L5" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="M5" t="n">
         <v>70</v>
       </c>
       <c r="N5" t="n">
-        <v>39749</v>
-      </c>
-      <c r="O5" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>39755</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>39749</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -817,49 +811,49 @@
         </is>
       </c>
       <c r="R5" s="1" t="n">
-        <v>-0.4377821180555556</v>
+        <v>0</v>
       </c>
       <c r="S5" s="1" t="n">
-        <v>-0.4377821180555556</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>251395</v>
+        <v>251742</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="D6" t="n">
-        <v>35.34375</v>
+        <v>134.8524590163935</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2025-05-07 10:30:24</t>
+          <t>2025-05-08 07:00:00</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2025-05-07 10:47:24</t>
+          <t>2025-05-08 07:30:00</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>2025-05-07 10:47:24</t>
+          <t>2025-05-08 07:30:00</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>2025-05-07 11:22:45</t>
+          <t>2025-05-08 09:44:51</t>
         </is>
       </c>
       <c r="I6" t="n">
-        <v>2262</v>
+        <v>8226</v>
       </c>
       <c r="J6" t="inlineStr">
         <is>
@@ -872,7 +866,7 @@
         </is>
       </c>
       <c r="L6" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M6" t="n">
         <v>70</v>
@@ -890,53 +884,53 @@
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>2025-04-23 00:00:00</t>
+          <t>2025-05-15 00:00:00</t>
         </is>
       </c>
       <c r="R6" s="1" t="n">
-        <v>-0.4741319444444445</v>
+        <v>-1.406147540983796</v>
       </c>
       <c r="S6" s="1" t="n">
-        <v>-0.4741319444444445</v>
+        <v>-1.406147540983796</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>251371</v>
+        <v>251840</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>93.67213114754098</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>2025-05-07 11:22:45</t>
+          <t>2025-05-08 09:44:51</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2025-05-07 11:41:45</t>
+          <t>2025-05-08 10:09:51</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>2025-05-07 11:41:45</t>
+          <t>2025-05-08 10:09:51</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>2025-05-07 11:41:45</t>
+          <t>2025-05-08 11:43:31</t>
         </is>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>5714</v>
       </c>
       <c r="J7" t="inlineStr">
         <is>
@@ -949,15 +943,13 @@
         </is>
       </c>
       <c r="L7" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M7" t="n">
         <v>70</v>
       </c>
-      <c r="N7" t="inlineStr">
-        <is>
-          <t>39666 (esterno)</t>
-        </is>
+      <c r="N7" t="n">
+        <v>39758</v>
       </c>
       <c r="O7" t="inlineStr">
         <is>
@@ -965,57 +957,57 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>39666</v>
+        <v>39758</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>2025-04-24 00:00:00</t>
+          <t>2025-05-09 00:00:00</t>
         </is>
       </c>
       <c r="R7" s="1" t="n">
-        <v>-13.48732638888889</v>
+        <v>-0.4885587431712963</v>
       </c>
       <c r="S7" s="1" t="n">
-        <v>-13.48732638888889</v>
+        <v>-0.4885587431712963</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>251453</v>
+        <v>251229</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="D8" t="n">
-        <v>78.125</v>
+        <v>307.1967213114754</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>2025-05-07 11:41:45</t>
+          <t>2025-05-08 11:43:31</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2025-05-07 11:58:45</t>
+          <t>2025-05-08 12:08:31</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>2025-05-07 11:58:45</t>
+          <t>2025-05-08 12:08:31</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>2025-05-07 13:16:52</t>
+          <t>2025-05-09 09:15:43</t>
         </is>
       </c>
       <c r="I8" t="n">
-        <v>5000</v>
+        <v>18739</v>
       </c>
       <c r="J8" t="inlineStr">
         <is>
@@ -1024,18 +1016,18 @@
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R9</t>
         </is>
       </c>
       <c r="L8" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="M8" t="n">
         <v>70</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>39742 (non in estrazione)</t>
+          <t>39723 (esterno)</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
@@ -1044,57 +1036,57 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>39742</v>
+        <v>39723</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>2025-04-28 00:00:00</t>
+          <t>2025-05-15 00:00:00</t>
         </is>
       </c>
       <c r="R8" s="1" t="n">
-        <v>-9.553385416666666</v>
+        <v>0</v>
       </c>
       <c r="S8" s="1" t="n">
-        <v>-9.553385416666666</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>251396</v>
+        <v>251225</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D9" t="n">
-        <v>35.34375</v>
+        <v>0</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>2025-05-07 13:16:52</t>
+          <t>2025-05-08 12:00:00</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>2025-05-07 13:37:52</t>
+          <t>2025-05-08 12:19:00</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>2025-05-07 13:37:52</t>
+          <t>2025-05-08 12:19:00</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>2025-05-07 14:13:13</t>
+          <t>2025-05-08 12:19:00</t>
         </is>
       </c>
       <c r="I9" t="n">
-        <v>2262</v>
+        <v>0</v>
       </c>
       <c r="J9" t="inlineStr">
         <is>
@@ -1103,17 +1095,17 @@
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L9" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M9" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="N9" t="n">
-        <v>39749</v>
+        <v>39747</v>
       </c>
       <c r="O9" t="inlineStr">
         <is>
@@ -1121,57 +1113,57 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>39749</v>
+        <v>39747</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>2025-05-02 00:00:00</t>
+          <t>2025-04-30 00:00:00</t>
         </is>
       </c>
       <c r="R9" s="1" t="n">
-        <v>-0.5925130208333333</v>
+        <v>-0.5131944444444444</v>
       </c>
       <c r="S9" s="1" t="n">
-        <v>-0.5925130208333333</v>
+        <v>-0.5131944444444444</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>251548</v>
+        <v>251227</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D10" t="n">
-        <v>206.90625</v>
+        <v>0</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>2025-05-07 14:13:13</t>
+          <t>2025-05-08 12:19:00</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>2025-05-07 14:32:13</t>
+          <t>2025-05-08 12:34:00</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>2025-05-07 14:32:13</t>
+          <t>2025-05-08 12:34:00</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>2025-05-08 09:59:07</t>
+          <t>2025-05-08 12:34:00</t>
         </is>
       </c>
       <c r="I10" t="n">
-        <v>13242</v>
+        <v>0</v>
       </c>
       <c r="J10" t="inlineStr">
         <is>
@@ -1180,17 +1172,17 @@
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L10" t="n">
         <v>4</v>
       </c>
       <c r="M10" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="N10" t="n">
-        <v>39749</v>
+        <v>39746</v>
       </c>
       <c r="O10" t="inlineStr">
         <is>
@@ -1198,57 +1190,57 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>39749</v>
+        <v>39746</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>2025-05-06 00:00:00</t>
+          <t>2025-05-05 00:00:00</t>
         </is>
       </c>
       <c r="R10" s="1" t="n">
-        <v>-1.416059027777778</v>
+        <v>-2.523611111111111</v>
       </c>
       <c r="S10" s="1" t="n">
-        <v>-1.416059027777778</v>
+        <v>-2.523611111111111</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>250923</v>
+        <v>251782</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="D11" t="n">
-        <v>109.46875</v>
+        <v>170.0422535211268</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>2025-05-08 09:59:07</t>
+          <t>2025-05-08 12:34:00</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>2025-05-08 10:31:07</t>
+          <t>2025-05-08 12:51:00</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>2025-05-08 10:31:07</t>
+          <t>2025-05-08 12:51:00</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>2025-05-08 12:20:35</t>
+          <t>2025-05-09 07:41:02</t>
         </is>
       </c>
       <c r="I11" t="n">
-        <v>7006</v>
+        <v>12073</v>
       </c>
       <c r="J11" t="inlineStr">
         <is>
@@ -1257,17 +1249,17 @@
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L11" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M11" t="n">
         <v>76</v>
       </c>
       <c r="N11" t="n">
-        <v>39749</v>
+        <v>39754</v>
       </c>
       <c r="O11" t="inlineStr">
         <is>
@@ -1275,57 +1267,57 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>39749</v>
+        <v>39754</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>2025-04-07 00:00:00</t>
+          <t>2025-05-16 00:00:00</t>
         </is>
       </c>
       <c r="R11" s="1" t="n">
-        <v>-1.514301215277778</v>
+        <v>-0.3201682316087963</v>
       </c>
       <c r="S11" s="1" t="n">
-        <v>-1.514301215277778</v>
+        <v>-0.3201682316087963</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>251225</v>
+        <v>251164</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>R3</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>17</v>
+        <v>55</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>204.0816326530612</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>2025-05-08 12:20:35</t>
+          <t>2025-05-08 07:00:00</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>2025-05-08 12:37:35</t>
+          <t>2025-05-08 07:55:00</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>2025-05-08 12:37:35</t>
+          <t>2025-05-08 07:55:00</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>2025-05-08 12:37:35</t>
+          <t>2025-05-08 11:19:04</t>
         </is>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="J12" t="inlineStr">
         <is>
@@ -1334,17 +1326,17 @@
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L12" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M12" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="N12" t="n">
-        <v>39747</v>
+        <v>39749</v>
       </c>
       <c r="O12" t="inlineStr">
         <is>
@@ -1352,57 +1344,57 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>39747</v>
+        <v>39749</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>2025-04-30 00:00:00</t>
+          <t>2025-04-22 00:00:00</t>
         </is>
       </c>
       <c r="R12" s="1" t="n">
-        <v>-0.5261067708333333</v>
+        <v>-1.471584467118056</v>
       </c>
       <c r="S12" s="1" t="n">
-        <v>-0.5261067708333333</v>
+        <v>-1.471584467118056</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>251227</v>
+        <v>251456</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>R3</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>183.6530612244898</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>2025-05-08 12:37:35</t>
+          <t>2025-05-08 11:19:04</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>2025-05-08 12:52:35</t>
+          <t>2025-05-08 12:09:04</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>2025-05-08 12:52:35</t>
+          <t>2025-05-08 12:09:04</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>2025-05-08 12:52:35</t>
+          <t>2025-05-09 07:12:44</t>
         </is>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>8999</v>
       </c>
       <c r="J13" t="inlineStr">
         <is>
@@ -1411,14 +1403,14 @@
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L13" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M13" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="N13" t="n">
         <v>39746</v>
@@ -1433,53 +1425,53 @@
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>2025-05-05 00:00:00</t>
+          <t>2025-05-09 00:00:00</t>
         </is>
       </c>
       <c r="R13" s="1" t="n">
-        <v>-2.5365234375</v>
+        <v>-3.300510204085648</v>
       </c>
       <c r="S13" s="1" t="n">
-        <v>-2.5365234375</v>
+        <v>-3.300510204085648</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>251421</v>
+        <v>251651</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>BIMEC 4</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="D14" t="n">
-        <v>81.9375</v>
+        <v>767.7049180327868</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>2025-05-08 12:52:35</t>
+          <t>2025-05-09 07:00:00</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>2025-05-08 13:09:35</t>
+          <t>2025-05-09 07:29:00</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>2025-05-08 13:09:35</t>
+          <t>2025-05-09 07:29:00</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>2025-05-08 14:31:31</t>
+          <t>2025-05-12 12:16:42</t>
         </is>
       </c>
       <c r="I14" t="n">
-        <v>5244</v>
+        <v>46830</v>
       </c>
       <c r="J14" t="inlineStr">
         <is>
@@ -1488,43 +1480,39 @@
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L14" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M14" t="n">
         <v>76</v>
       </c>
-      <c r="N14" t="inlineStr">
-        <is>
-          <t>39762 (non in estrazione)</t>
-        </is>
-      </c>
-      <c r="O14" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="N14" t="n">
+        <v>39755</v>
+      </c>
+      <c r="O14" t="n">
+        <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>39762</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>2025-05-08 00:00:00</t>
+          <t>2025-05-12 00:00:00</t>
         </is>
       </c>
       <c r="R14" s="1" t="n">
-        <v>-0.6052300347222223</v>
+        <v>0</v>
       </c>
       <c r="S14" s="1" t="n">
-        <v>-0.6052300347222223</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>251782</v>
+        <v>251455</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
@@ -1532,33 +1520,33 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D15" t="n">
-        <v>188.640625</v>
+        <v>82.765625</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>2025-05-08 14:31:31</t>
+          <t>2025-05-07 07:00:00</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>2025-05-08 14:46:31</t>
+          <t>2025-05-07 07:19:00</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>2025-05-08 14:46:31</t>
+          <t>2025-05-07 07:19:00</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>2025-05-09 09:55:10</t>
+          <t>2025-05-07 08:41:45</t>
         </is>
       </c>
       <c r="I15" t="n">
-        <v>12073</v>
+        <v>5297</v>
       </c>
       <c r="J15" t="inlineStr">
         <is>
@@ -1567,17 +1555,17 @@
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L15" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M15" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="N15" t="n">
-        <v>39754</v>
+        <v>39749</v>
       </c>
       <c r="O15" t="inlineStr">
         <is>
@@ -1585,23 +1573,23 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>39754</v>
+        <v>39749</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>2025-05-16 00:00:00</t>
+          <t>2025-04-15 00:00:00</t>
         </is>
       </c>
       <c r="R15" s="1" t="n">
-        <v>-0.4133138020833333</v>
+        <v>-0.3623372395833334</v>
       </c>
       <c r="S15" s="1" t="n">
-        <v>-0.4133138020833333</v>
+        <v>-0.3623372395833334</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>250894</v>
+        <v>251391</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
@@ -1609,33 +1597,33 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D16" t="n">
-        <v>691.59375</v>
+        <v>91.640625</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>2025-05-09 09:55:10</t>
+          <t>2025-05-07 08:41:45</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>2025-05-09 10:14:10</t>
+          <t>2025-05-07 08:58:45</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>2025-05-09 10:14:10</t>
+          <t>2025-05-07 08:58:45</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>2025-05-12 13:45:45</t>
+          <t>2025-05-07 10:30:24</t>
         </is>
       </c>
       <c r="I16" t="n">
-        <v>44262</v>
+        <v>5865</v>
       </c>
       <c r="J16" t="inlineStr">
         <is>
@@ -1644,73 +1632,75 @@
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L16" t="n">
         <v>5</v>
       </c>
       <c r="M16" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="N16" t="n">
-        <v>39755</v>
-      </c>
-      <c r="O16" t="n">
-        <v>0</v>
+        <v>39749</v>
+      </c>
+      <c r="O16" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>39749</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>2025-05-05 00:00:00</t>
+          <t>2025-04-23 00:00:00</t>
         </is>
       </c>
       <c r="R16" s="1" t="n">
-        <v>0</v>
+        <v>-0.4377821180555556</v>
       </c>
       <c r="S16" s="1" t="n">
-        <v>0</v>
+        <v>-0.4377821180555556</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>251050</v>
+        <v>251395</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>217</v>
+        <v>17</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>35.34375</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>2025-05-09 07:00:00</t>
+          <t>2025-05-07 10:30:24</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>2025-05-09 10:37:00</t>
+          <t>2025-05-07 10:47:24</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>2025-05-09 10:37:00</t>
+          <t>2025-05-07 10:47:24</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>2025-05-09 10:37:00</t>
+          <t>2025-05-07 11:22:45</t>
         </is>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>2262</v>
       </c>
       <c r="J17" t="inlineStr">
         <is>
@@ -1719,17 +1709,17 @@
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L17" t="n">
-        <v>38</v>
+        <v>6</v>
       </c>
       <c r="M17" t="n">
         <v>70</v>
       </c>
       <c r="N17" t="n">
-        <v>39747</v>
+        <v>39749</v>
       </c>
       <c r="O17" t="inlineStr">
         <is>
@@ -1737,53 +1727,53 @@
         </is>
       </c>
       <c r="P17" t="n">
-        <v>39747</v>
+        <v>39749</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>2025-04-16 00:00:00</t>
+          <t>2025-04-23 00:00:00</t>
         </is>
       </c>
       <c r="R17" s="1" t="n">
-        <v>-1.442361111111111</v>
+        <v>-0.4741319444444445</v>
       </c>
       <c r="S17" s="1" t="n">
-        <v>-1.442361111111111</v>
+        <v>-0.4741319444444445</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>251054</v>
+        <v>251371</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>2025-05-09 10:37:00</t>
+          <t>2025-05-07 11:22:45</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>2025-05-09 11:12:00</t>
+          <t>2025-05-07 11:41:45</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>2025-05-09 11:12:00</t>
+          <t>2025-05-07 11:41:45</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>2025-05-09 11:12:00</t>
+          <t>2025-05-07 11:41:45</t>
         </is>
       </c>
       <c r="I18" t="n">
@@ -1796,17 +1786,19 @@
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L18" t="n">
-        <v>38</v>
+        <v>4</v>
       </c>
       <c r="M18" t="n">
         <v>70</v>
       </c>
-      <c r="N18" t="n">
-        <v>39747</v>
+      <c r="N18" t="inlineStr">
+        <is>
+          <t>39666 (esterno)</t>
+        </is>
       </c>
       <c r="O18" t="inlineStr">
         <is>
@@ -1814,57 +1806,57 @@
         </is>
       </c>
       <c r="P18" t="n">
-        <v>39747</v>
+        <v>39666</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>2025-04-16 00:00:00</t>
+          <t>2025-04-24 00:00:00</t>
         </is>
       </c>
       <c r="R18" s="1" t="n">
-        <v>-1.466666666666667</v>
+        <v>-13.48732638888889</v>
       </c>
       <c r="S18" s="1" t="n">
-        <v>-1.466666666666667</v>
+        <v>-13.48732638888889</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>251081</v>
+        <v>251396</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>125</v>
+        <v>19</v>
       </c>
       <c r="D19" t="n">
-        <v>42.42253521126761</v>
+        <v>35.34375</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>2025-05-09 11:12:00</t>
+          <t>2025-05-07 11:41:45</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>2025-05-09 13:17:00</t>
+          <t>2025-05-07 12:00:45</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>2025-05-09 13:17:00</t>
+          <t>2025-05-07 12:00:45</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>2025-05-09 13:59:25</t>
+          <t>2025-05-07 12:36:05</t>
         </is>
       </c>
       <c r="I19" t="n">
-        <v>3012</v>
+        <v>2262</v>
       </c>
       <c r="J19" t="inlineStr">
         <is>
@@ -1873,19 +1865,17 @@
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L19" t="n">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="M19" t="n">
         <v>70</v>
       </c>
-      <c r="N19" t="inlineStr">
-        <is>
-          <t>39750 (esterno)</t>
-        </is>
+      <c r="N19" t="n">
+        <v>39749</v>
       </c>
       <c r="O19" t="inlineStr">
         <is>
@@ -1893,57 +1883,57 @@
         </is>
       </c>
       <c r="P19" t="n">
-        <v>39750</v>
+        <v>39749</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>2025-04-23 00:00:00</t>
+          <t>2025-05-02 00:00:00</t>
         </is>
       </c>
       <c r="R19" s="1" t="n">
-        <v>-16.58293231612268</v>
+        <v>-0.5250651041666666</v>
       </c>
       <c r="S19" s="1" t="n">
-        <v>-16.58293231612268</v>
+        <v>-0.5250651041666666</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>251547</v>
+        <v>251548</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="D20" t="n">
-        <v>184.9154929577465</v>
+        <v>206.90625</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>2025-05-08 07:00:00</t>
+          <t>2025-05-07 12:36:05</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>2025-05-08 07:34:00</t>
+          <t>2025-05-07 12:55:05</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>2025-05-08 07:34:00</t>
+          <t>2025-05-07 12:55:05</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>2025-05-08 10:38:54</t>
+          <t>2025-05-08 08:22:00</t>
         </is>
       </c>
       <c r="I20" t="n">
-        <v>13129</v>
+        <v>13242</v>
       </c>
       <c r="J20" t="inlineStr">
         <is>
@@ -1978,49 +1968,49 @@
         </is>
       </c>
       <c r="R20" s="1" t="n">
-        <v>-1.443691314548611</v>
+        <v>-1.348611111111111</v>
       </c>
       <c r="S20" s="1" t="n">
-        <v>-1.443691314548611</v>
+        <v>-1.348611111111111</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>250759</v>
+        <v>250923</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D21" t="n">
-        <v>118.2816901408451</v>
+        <v>109.46875</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>2025-05-08 10:38:54</t>
+          <t>2025-05-08 08:22:00</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>2025-05-08 11:08:54</t>
+          <t>2025-05-08 08:54:00</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>2025-05-08 11:08:54</t>
+          <t>2025-05-08 08:54:00</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>2025-05-08 13:07:11</t>
+          <t>2025-05-08 10:43:28</t>
         </is>
       </c>
       <c r="I21" t="n">
-        <v>8398</v>
+        <v>7006</v>
       </c>
       <c r="J21" t="inlineStr">
         <is>
@@ -2029,17 +2019,17 @@
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L21" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M21" t="n">
         <v>76</v>
       </c>
       <c r="N21" t="n">
-        <v>39747</v>
+        <v>39749</v>
       </c>
       <c r="O21" t="inlineStr">
         <is>
@@ -2047,57 +2037,57 @@
         </is>
       </c>
       <c r="P21" t="n">
-        <v>39747</v>
+        <v>39749</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>2025-03-13 00:00:00</t>
+          <t>2025-04-07 00:00:00</t>
         </is>
       </c>
       <c r="R21" s="1" t="n">
-        <v>-0.5466647104861111</v>
+        <v>-1.446853298611111</v>
       </c>
       <c r="S21" s="1" t="n">
-        <v>-0.5466647104861111</v>
+        <v>-1.446853298611111</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>251229</v>
+        <v>251477</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="D22" t="n">
-        <v>263.9295774647887</v>
+        <v>468.734375</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>2025-05-08 13:07:11</t>
+          <t>2025-05-08 10:43:28</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>2025-05-08 13:41:11</t>
+          <t>2025-05-08 11:02:28</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>2025-05-08 13:41:11</t>
+          <t>2025-05-08 11:02:28</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>2025-05-09 10:05:07</t>
+          <t>2025-05-09 10:51:12</t>
         </is>
       </c>
       <c r="I22" t="n">
-        <v>18739</v>
+        <v>29999</v>
       </c>
       <c r="J22" t="inlineStr">
         <is>
@@ -2106,19 +2096,17 @@
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L22" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="M22" t="n">
-        <v>70</v>
-      </c>
-      <c r="N22" t="inlineStr">
-        <is>
-          <t>39723 (esterno)</t>
-        </is>
+        <v>76</v>
+      </c>
+      <c r="N22" t="n">
+        <v>39760</v>
       </c>
       <c r="O22" t="inlineStr">
         <is>
@@ -2126,86 +2114,90 @@
         </is>
       </c>
       <c r="P22" t="n">
-        <v>39723</v>
+        <v>39760</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>2025-05-15 00:00:00</t>
+          <t>2025-04-28 00:00:00</t>
         </is>
       </c>
       <c r="R22" s="1" t="n">
-        <v>0</v>
+        <v>-2.452224392361111</v>
       </c>
       <c r="S22" s="1" t="n">
-        <v>0</v>
+        <v>-2.452224392361111</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>251416</v>
+        <v>251706</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>T3</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>158.056338028169</v>
+        <v>50.79365079365079</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>2025-05-09 10:05:07</t>
+          <t>2025-05-12 07:00:00</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>2025-05-09 10:28:07</t>
+          <t>2025-05-12 07:00:00</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>2025-05-09 10:28:07</t>
+          <t>2025-05-12 07:00:00</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>2025-05-09 13:06:10</t>
+          <t>2025-05-12 07:50:47</t>
         </is>
       </c>
       <c r="I23" t="n">
-        <v>11222</v>
+        <v>3200</v>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>bobina</t>
+          <t>foglio</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>T3</t>
         </is>
       </c>
       <c r="L23" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>70</v>
-      </c>
-      <c r="N23" t="n">
-        <v>39755</v>
-      </c>
-      <c r="O23" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="N23" t="inlineStr">
+        <is>
+          <t>39764 (esterno)</t>
+        </is>
+      </c>
+      <c r="O23" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>39764</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>2025-04-23 00:00:00</t>
+          <t>2025-05-14 00:00:00</t>
         </is>
       </c>
       <c r="R23" s="1" t="n">
@@ -2217,41 +2209,41 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>251742</v>
+        <v>251050</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>30</v>
+        <v>217</v>
       </c>
       <c r="D24" t="n">
-        <v>134.8524590163935</v>
+        <v>0</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>2025-05-08 07:00:00</t>
+          <t>2025-05-09 07:00:00</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>2025-05-08 07:30:00</t>
+          <t>2025-05-09 10:37:00</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>2025-05-08 07:30:00</t>
+          <t>2025-05-09 10:37:00</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>2025-05-08 09:44:51</t>
+          <t>2025-05-09 10:37:00</t>
         </is>
       </c>
       <c r="I24" t="n">
-        <v>8226</v>
+        <v>0</v>
       </c>
       <c r="J24" t="inlineStr">
         <is>
@@ -2260,17 +2252,17 @@
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="L24" t="n">
-        <v>4</v>
+        <v>38</v>
       </c>
       <c r="M24" t="n">
         <v>70</v>
       </c>
       <c r="N24" t="n">
-        <v>39749</v>
+        <v>39747</v>
       </c>
       <c r="O24" t="inlineStr">
         <is>
@@ -2278,57 +2270,57 @@
         </is>
       </c>
       <c r="P24" t="n">
-        <v>39749</v>
+        <v>39747</v>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>2025-05-15 00:00:00</t>
+          <t>2025-04-16 00:00:00</t>
         </is>
       </c>
       <c r="R24" s="1" t="n">
-        <v>-1.406147540983796</v>
+        <v>-1.442361111111111</v>
       </c>
       <c r="S24" s="1" t="n">
-        <v>-1.406147540983796</v>
+        <v>-1.442361111111111</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>251840</v>
+        <v>251054</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="D25" t="n">
-        <v>93.67213114754098</v>
+        <v>0</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>2025-05-08 09:44:51</t>
+          <t>2025-05-09 10:37:00</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>2025-05-08 10:09:51</t>
+          <t>2025-05-09 11:12:00</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>2025-05-08 10:09:51</t>
+          <t>2025-05-09 11:12:00</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>2025-05-08 11:43:31</t>
+          <t>2025-05-09 11:12:00</t>
         </is>
       </c>
       <c r="I25" t="n">
-        <v>5714</v>
+        <v>0</v>
       </c>
       <c r="J25" t="inlineStr">
         <is>
@@ -2337,17 +2329,17 @@
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="L25" t="n">
-        <v>5</v>
+        <v>38</v>
       </c>
       <c r="M25" t="n">
         <v>70</v>
       </c>
       <c r="N25" t="n">
-        <v>39758</v>
+        <v>39747</v>
       </c>
       <c r="O25" t="inlineStr">
         <is>
@@ -2355,57 +2347,57 @@
         </is>
       </c>
       <c r="P25" t="n">
-        <v>39758</v>
+        <v>39747</v>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>2025-05-09 00:00:00</t>
+          <t>2025-04-16 00:00:00</t>
         </is>
       </c>
       <c r="R25" s="1" t="n">
-        <v>-0.4885587431712963</v>
+        <v>-1.466666666666667</v>
       </c>
       <c r="S25" s="1" t="n">
-        <v>-0.4885587431712963</v>
+        <v>-1.466666666666667</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>251456</v>
+        <v>251081</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>30</v>
+        <v>125</v>
       </c>
       <c r="D26" t="n">
-        <v>147.5245901639344</v>
+        <v>42.42253521126761</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>2025-05-08 11:43:31</t>
+          <t>2025-05-09 11:12:00</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>2025-05-08 12:13:31</t>
+          <t>2025-05-09 13:17:00</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>2025-05-08 12:13:31</t>
+          <t>2025-05-09 13:17:00</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>2025-05-08 14:41:02</t>
+          <t>2025-05-09 13:59:25</t>
         </is>
       </c>
       <c r="I26" t="n">
-        <v>8999</v>
+        <v>3012</v>
       </c>
       <c r="J26" t="inlineStr">
         <is>
@@ -2414,17 +2406,19 @@
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="L26" t="n">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="M26" t="n">
         <v>70</v>
       </c>
-      <c r="N26" t="n">
-        <v>39746</v>
+      <c r="N26" t="inlineStr">
+        <is>
+          <t>39750 (esterno)</t>
+        </is>
       </c>
       <c r="O26" t="inlineStr">
         <is>
@@ -2432,34 +2426,34 @@
         </is>
       </c>
       <c r="P26" t="n">
-        <v>39746</v>
+        <v>39750</v>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
-          <t>2025-05-09 00:00:00</t>
+          <t>2025-04-23 00:00:00</t>
         </is>
       </c>
       <c r="R26" s="1" t="n">
-        <v>-2.611839708564815</v>
+        <v>-16.58293231612268</v>
       </c>
       <c r="S26" s="1" t="n">
-        <v>-2.611839708564815</v>
+        <v>-16.58293231612268</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>251651</v>
+        <v>251284</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>29</v>
+        <v>40.5</v>
       </c>
       <c r="D27" t="n">
-        <v>767.7049180327868</v>
+        <v>297.0909090909091</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
@@ -2468,21 +2462,21 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>2025-05-09 07:29:00</t>
+          <t>2025-05-09 07:40:30</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>2025-05-09 07:29:00</t>
+          <t>2025-05-09 07:40:30</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>2025-05-12 12:16:42</t>
+          <t>2025-05-09 12:37:35</t>
         </is>
       </c>
       <c r="I27" t="n">
-        <v>46830</v>
+        <v>16340</v>
       </c>
       <c r="J27" t="inlineStr">
         <is>
@@ -2491,23 +2485,25 @@
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
+          <t>CASON ;R6</t>
         </is>
       </c>
       <c r="L27" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="M27" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="N27" t="n">
-        <v>39755</v>
-      </c>
-      <c r="O27" t="n">
-        <v>0</v>
+        <v>39747</v>
+      </c>
+      <c r="O27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>39747</v>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
@@ -2515,15 +2511,15 @@
         </is>
       </c>
       <c r="R27" s="1" t="n">
-        <v>0</v>
+        <v>-1.526104797974537</v>
       </c>
       <c r="S27" s="1" t="n">
-        <v>0</v>
+        <v>-1.526104797974537</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>251477</v>
+        <v>251340</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
@@ -2534,30 +2530,30 @@
         <v>17</v>
       </c>
       <c r="D28" t="n">
-        <v>422.5211267605634</v>
+        <v>461.9718309859155</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>2025-05-08 12:00:00</t>
+          <t>2025-05-09 07:41:02</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>2025-05-08 12:17:00</t>
+          <t>2025-05-09 07:58:02</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>2025-05-08 12:17:00</t>
+          <t>2025-05-09 07:58:02</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>2025-05-09 11:19:31</t>
+          <t>2025-05-12 07:40:00</t>
         </is>
       </c>
       <c r="I28" t="n">
-        <v>29999</v>
+        <v>32800</v>
       </c>
       <c r="J28" t="inlineStr">
         <is>
@@ -2566,25 +2562,20 @@
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L28" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M28" t="n">
         <v>76</v>
       </c>
-      <c r="N28" t="n">
-        <v>39760</v>
-      </c>
-      <c r="O28" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="O28" t="n">
+        <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>39760</v>
+        <v>0</v>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
@@ -2592,49 +2583,46 @@
         </is>
       </c>
       <c r="R28" s="1" t="n">
-        <v>-2.471889671365741</v>
-      </c>
-      <c r="S28" s="1" t="n">
-        <v>-2.471889671365741</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>251268</v>
+        <v>251561</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>R3</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>47</v>
+        <v>25</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>89.09836065573771</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>2025-05-08 07:00:00</t>
+          <t>2025-05-09 09:15:43</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>2025-05-08 07:47:00</t>
+          <t>2025-05-09 09:40:43</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>2025-05-08 07:47:00</t>
+          <t>2025-05-09 09:40:43</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>2025-05-08 07:47:00</t>
+          <t>2025-05-09 11:09:49</t>
         </is>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>5435</v>
       </c>
       <c r="J29" t="inlineStr">
         <is>
@@ -2643,77 +2631,67 @@
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L29" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M29" t="n">
-        <v>76</v>
-      </c>
-      <c r="N29" t="inlineStr">
-        <is>
-          <t>39666 (non in estrazione)</t>
-        </is>
-      </c>
-      <c r="O29" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>70</v>
+      </c>
+      <c r="O29" t="n">
+        <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>39666</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
-          <t>2025-04-14 00:00:00</t>
+          <t>2025-05-07 00:00:00</t>
         </is>
       </c>
       <c r="R29" s="1" t="n">
-        <v>-24.32430555555555</v>
-      </c>
-      <c r="S29" s="1" t="n">
-        <v>-24.32430555555555</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>251164</v>
+        <v>251564</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>R3</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="D30" t="n">
-        <v>204.0816326530612</v>
+        <v>42.453125</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>2025-05-08 07:47:00</t>
+          <t>2025-05-09 10:51:12</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>2025-05-08 08:34:00</t>
+          <t>2025-05-09 11:21:12</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>2025-05-08 08:34:00</t>
+          <t>2025-05-09 11:21:12</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>2025-05-08 11:58:04</t>
+          <t>2025-05-09 12:03:39</t>
         </is>
       </c>
       <c r="I30" t="n">
-        <v>10000</v>
+        <v>2717</v>
       </c>
       <c r="J30" t="inlineStr">
         <is>
@@ -2726,71 +2704,63 @@
         </is>
       </c>
       <c r="L30" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="M30" t="n">
         <v>70</v>
       </c>
-      <c r="N30" t="n">
-        <v>39749</v>
-      </c>
-      <c r="O30" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="O30" t="n">
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>39749</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
-          <t>2025-04-22 00:00:00</t>
+          <t>2025-05-07 00:00:00</t>
         </is>
       </c>
       <c r="R30" s="1" t="n">
-        <v>-1.498667800451389</v>
-      </c>
-      <c r="S30" s="1" t="n">
-        <v>-1.498667800451389</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>251561</v>
+        <v>251566</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="D31" t="n">
-        <v>84.921875</v>
+        <v>112.9344262295082</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>2025-05-09 09:55:10</t>
+          <t>2025-05-09 11:09:49</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>2025-05-09 10:29:10</t>
+          <t>2025-05-09 11:34:49</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>2025-05-09 10:29:10</t>
+          <t>2025-05-09 11:34:49</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>2025-05-09 11:54:05</t>
+          <t>2025-05-09 13:27:45</t>
         </is>
       </c>
       <c r="I31" t="n">
-        <v>5435</v>
+        <v>6889</v>
       </c>
       <c r="J31" t="inlineStr">
         <is>
@@ -2803,7 +2773,7 @@
         </is>
       </c>
       <c r="L31" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M31" t="n">
         <v>70</v>
@@ -2825,41 +2795,41 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>251564</v>
+        <v>251626</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>R3</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="D32" t="n">
-        <v>38.26760563380282</v>
+        <v>255.1020408163265</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>2025-05-09 10:05:07</t>
+          <t>2025-05-09 11:41:45</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>2025-05-09 10:26:07</t>
+          <t>2025-05-09 12:21:45</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>2025-05-09 10:26:07</t>
+          <t>2025-05-09 12:21:45</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>2025-05-09 11:04:23</t>
+          <t>2025-05-12 08:36:51</t>
         </is>
       </c>
       <c r="I32" t="n">
-        <v>2717</v>
+        <v>12500</v>
       </c>
       <c r="J32" t="inlineStr">
         <is>
@@ -2885,7 +2855,7 @@
       </c>
       <c r="Q32" t="inlineStr">
         <is>
-          <t>2025-05-07 00:00:00</t>
+          <t>2025-04-30 00:00:00</t>
         </is>
       </c>
       <c r="R32" s="1" t="n">
@@ -2894,41 +2864,41 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>251566</v>
+        <v>251546</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="D33" t="n">
-        <v>112.9344262295082</v>
+        <v>101.03125</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>2025-05-09 10:10:00</t>
+          <t>2025-05-09 12:03:39</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>2025-05-09 10:40:00</t>
+          <t>2025-05-09 12:22:39</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>2025-05-09 10:40:00</t>
+          <t>2025-05-09 12:22:39</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>2025-05-09 12:32:57</t>
+          <t>2025-05-09 14:03:41</t>
         </is>
       </c>
       <c r="I33" t="n">
-        <v>6889</v>
+        <v>6466</v>
       </c>
       <c r="J33" t="inlineStr">
         <is>
@@ -2941,7 +2911,7 @@
         </is>
       </c>
       <c r="L33" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M33" t="n">
         <v>70</v>
@@ -2954,7 +2924,7 @@
       </c>
       <c r="Q33" t="inlineStr">
         <is>
-          <t>2025-05-07 00:00:00</t>
+          <t>2025-04-30 00:00:00</t>
         </is>
       </c>
       <c r="R33" s="1" t="n">
@@ -2963,41 +2933,41 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>251626</v>
+        <v>251505</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>15</v>
+        <v>34.5</v>
       </c>
       <c r="D34" t="n">
-        <v>176.056338028169</v>
+        <v>259.1818181818182</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>2025-05-09 11:04:23</t>
+          <t>2025-05-09 12:37:35</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>2025-05-09 11:19:23</t>
+          <t>2025-05-09 13:12:05</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>2025-05-09 11:19:23</t>
+          <t>2025-05-09 13:12:05</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>2025-05-09 14:15:27</t>
+          <t>2025-05-12 09:31:16</t>
         </is>
       </c>
       <c r="I34" t="n">
-        <v>12500</v>
+        <v>14255</v>
       </c>
       <c r="J34" t="inlineStr">
         <is>
@@ -3010,7 +2980,7 @@
         </is>
       </c>
       <c r="L34" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M34" t="n">
         <v>70</v>
@@ -3023,7 +2993,7 @@
       </c>
       <c r="Q34" t="inlineStr">
         <is>
-          <t>2025-04-30 00:00:00</t>
+          <t>2025-05-05 00:00:00</t>
         </is>
       </c>
       <c r="R34" s="1" t="n">
@@ -3032,41 +3002,41 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>251340</v>
+        <v>251846</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="D35" t="n">
-        <v>461.9718309859155</v>
+        <v>186.7540983606557</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>2025-05-09 11:19:31</t>
+          <t>2025-05-09 13:27:45</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>2025-05-09 11:36:31</t>
+          <t>2025-05-09 13:57:45</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>2025-05-09 11:36:31</t>
+          <t>2025-05-09 13:57:45</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>2025-05-12 11:18:29</t>
+          <t>2025-05-12 09:04:30</t>
         </is>
       </c>
       <c r="I35" t="n">
-        <v>32800</v>
+        <v>11392</v>
       </c>
       <c r="J35" t="inlineStr">
         <is>
@@ -3075,14 +3045,14 @@
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L35" t="n">
         <v>2</v>
       </c>
       <c r="M35" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="O35" t="n">
         <v>0</v>
@@ -3092,7 +3062,7 @@
       </c>
       <c r="Q35" t="inlineStr">
         <is>
-          <t>2025-04-28 00:00:00</t>
+          <t>2025-05-30 00:00:00</t>
         </is>
       </c>
       <c r="R35" s="1" t="n">
@@ -3101,41 +3071,41 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>251546</v>
+        <v>251519</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>15</v>
+        <v>125</v>
       </c>
       <c r="D36" t="n">
-        <v>101.03125</v>
+        <v>185.5633802816901</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>2025-05-09 11:54:05</t>
+          <t>2025-05-09 13:59:25</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>2025-05-09 12:09:05</t>
+          <t>2025-05-12 08:04:25</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>2025-05-09 12:09:05</t>
+          <t>2025-05-12 08:04:25</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>2025-05-09 13:50:07</t>
+          <t>2025-05-12 11:09:59</t>
         </is>
       </c>
       <c r="I36" t="n">
-        <v>6466</v>
+        <v>13175</v>
       </c>
       <c r="J36" t="inlineStr">
         <is>
@@ -3148,7 +3118,7 @@
         </is>
       </c>
       <c r="L36" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="M36" t="n">
         <v>70</v>
@@ -3161,7 +3131,7 @@
       </c>
       <c r="Q36" t="inlineStr">
         <is>
-          <t>2025-04-30 00:00:00</t>
+          <t>2025-06-10 00:00:00</t>
         </is>
       </c>
       <c r="R36" s="1" t="n">
@@ -3170,41 +3140,41 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>251505</v>
+        <v>245275</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="D37" t="n">
-        <v>233.6885245901639</v>
+        <v>379.59375</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>2025-05-09 12:32:57</t>
+          <t>2025-05-09 14:03:41</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>2025-05-09 12:57:57</t>
+          <t>2025-05-09 14:36:41</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>2025-05-09 12:57:57</t>
+          <t>2025-05-09 14:36:41</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>2025-05-12 08:51:38</t>
+          <t>2025-05-12 12:56:16</t>
         </is>
       </c>
       <c r="I37" t="n">
-        <v>14255</v>
+        <v>24294</v>
       </c>
       <c r="J37" t="inlineStr">
         <is>
@@ -3213,11 +3183,11 @@
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;CASON ;R6</t>
         </is>
       </c>
       <c r="L37" t="n">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="M37" t="n">
         <v>70</v>
@@ -3230,7 +3200,7 @@
       </c>
       <c r="Q37" t="inlineStr">
         <is>
-          <t>2025-05-05 00:00:00</t>
+          <t>2025-12-31 00:00:00</t>
         </is>
       </c>
       <c r="R37" s="1" t="n">
@@ -3239,41 +3209,41 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>251846</v>
+        <v>245350</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>R9</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>40.5</v>
+        <v>65</v>
       </c>
       <c r="D38" t="n">
-        <v>207.1272727272727</v>
+        <v>405.3623188405797</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>2025-05-09 12:37:35</t>
+          <t>2025-05-12 07:00:00</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>2025-05-09 13:18:05</t>
+          <t>2025-05-12 08:05:00</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>2025-05-09 13:18:05</t>
+          <t>2025-05-12 08:05:00</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>2025-05-12 08:45:13</t>
+          <t>2025-05-12 14:50:21</t>
         </is>
       </c>
       <c r="I38" t="n">
-        <v>11392</v>
+        <v>27970</v>
       </c>
       <c r="J38" t="inlineStr">
         <is>
@@ -3282,11 +3252,11 @@
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R6 ;R9</t>
         </is>
       </c>
       <c r="L38" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="M38" t="n">
         <v>70</v>
@@ -3299,7 +3269,7 @@
       </c>
       <c r="Q38" t="inlineStr">
         <is>
-          <t>2025-05-30 00:00:00</t>
+          <t>2025-12-31 00:00:00</t>
         </is>
       </c>
       <c r="R38" s="1" t="n">
@@ -3308,41 +3278,41 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>251519</v>
+        <v>243569</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D39" t="n">
-        <v>205.859375</v>
+        <v>36.63380281690141</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>2025-05-09 13:50:07</t>
+          <t>2025-05-12 07:40:00</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>2025-05-09 14:11:07</t>
+          <t>2025-05-12 07:57:00</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>2025-05-09 14:11:07</t>
+          <t>2025-05-12 07:57:00</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>2025-05-12 09:36:59</t>
+          <t>2025-05-12 08:33:38</t>
         </is>
       </c>
       <c r="I39" t="n">
-        <v>13175</v>
+        <v>2601</v>
       </c>
       <c r="J39" t="inlineStr">
         <is>
@@ -3351,14 +3321,14 @@
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L39" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M39" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
@@ -3368,7 +3338,7 @@
       </c>
       <c r="Q39" t="inlineStr">
         <is>
-          <t>2025-06-10 00:00:00</t>
+          <t>2024-09-16 00:00:00</t>
         </is>
       </c>
       <c r="R39" s="1" t="n">
@@ -3377,41 +3347,41 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>245275</v>
+        <v>235572</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>65</v>
+        <v>30</v>
       </c>
       <c r="D40" t="n">
-        <v>342.1690140845071</v>
+        <v>140.2535211267606</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>2025-05-09 13:59:25</t>
+          <t>2025-05-12 07:47:36</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>2025-05-12 07:04:25</t>
+          <t>2025-05-12 08:17:36</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>2025-05-12 07:04:25</t>
+          <t>2025-05-12 08:17:36</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>2025-05-12 12:46:35</t>
+          <t>2025-05-12 10:37:51</t>
         </is>
       </c>
       <c r="I40" t="n">
-        <v>24294</v>
+        <v>9958</v>
       </c>
       <c r="J40" t="inlineStr">
         <is>
@@ -3420,11 +3390,11 @@
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;CASON ;R6</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R6 ;R9</t>
         </is>
       </c>
       <c r="L40" t="n">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="M40" t="n">
         <v>70</v>
@@ -3437,7 +3407,7 @@
       </c>
       <c r="Q40" t="inlineStr">
         <is>
-          <t>2025-12-31 00:00:00</t>
+          <t>2023-11-06 00:00:00</t>
         </is>
       </c>
       <c r="R40" s="1" t="n">
@@ -3446,41 +3416,41 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>245350</v>
+        <v>245623</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D41" t="n">
-        <v>393.943661971831</v>
+        <v>372.0985915492957</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>2025-05-09 14:15:27</t>
+          <t>2025-05-12 08:33:38</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>2025-05-09 14:44:27</t>
+          <t>2025-05-12 09:05:38</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>2025-05-09 14:44:27</t>
+          <t>2025-05-12 09:05:38</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>2025-05-12 13:18:23</t>
+          <t>2025-05-13 07:17:44</t>
         </is>
       </c>
       <c r="I41" t="n">
-        <v>27970</v>
+        <v>26419</v>
       </c>
       <c r="J41" t="inlineStr">
         <is>
@@ -3489,14 +3459,14 @@
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L41" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="M41" t="n">
-        <v>70</v>
+        <v>152</v>
       </c>
       <c r="O41" t="n">
         <v>0</v>
@@ -3506,7 +3476,7 @@
       </c>
       <c r="Q41" t="inlineStr">
         <is>
-          <t>2025-12-31 00:00:00</t>
+          <t>2025-01-25 00:00:00</t>
         </is>
       </c>
       <c r="R41" s="1" t="n">
@@ -3515,41 +3485,41 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>235572</v>
+        <v>251373</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>R9</t>
+          <t>R3</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="D42" t="n">
-        <v>144.3188405797102</v>
+        <v>348.8571428571428</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>2025-05-12 07:00:00</t>
+          <t>2025-05-12 08:36:51</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>2025-05-12 07:40:00</t>
+          <t>2025-05-12 09:21:51</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>2025-05-12 07:40:00</t>
+          <t>2025-05-12 09:21:51</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>2025-05-12 10:04:19</t>
+          <t>2025-05-13 07:10:42</t>
         </is>
       </c>
       <c r="I42" t="n">
-        <v>9958</v>
+        <v>17094</v>
       </c>
       <c r="J42" t="inlineStr">
         <is>
@@ -3558,7 +3528,7 @@
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L42" t="n">
@@ -3575,7 +3545,7 @@
       </c>
       <c r="Q42" t="inlineStr">
         <is>
-          <t>2023-11-06 00:00:00</t>
+          <t>2025-04-28 00:00:00</t>
         </is>
       </c>
       <c r="R42" s="1" t="n">
@@ -3584,41 +3554,41 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>251373</v>
+        <v>251424</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>36.5</v>
+        <v>30</v>
       </c>
       <c r="D43" t="n">
-        <v>310.8</v>
+        <v>158.3934426229508</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>2025-05-12 08:45:13</t>
+          <t>2025-05-12 09:04:30</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>2025-05-12 09:21:43</t>
+          <t>2025-05-12 09:34:30</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>2025-05-12 09:21:43</t>
+          <t>2025-05-12 09:34:30</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>2025-05-12 14:32:31</t>
+          <t>2025-05-12 12:12:54</t>
         </is>
       </c>
       <c r="I43" t="n">
-        <v>17094</v>
+        <v>9662</v>
       </c>
       <c r="J43" t="inlineStr">
         <is>
@@ -3631,7 +3601,7 @@
         </is>
       </c>
       <c r="L43" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M43" t="n">
         <v>70</v>
@@ -3653,41 +3623,41 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>251424</v>
+        <v>251397</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>25</v>
+        <v>34.5</v>
       </c>
       <c r="D44" t="n">
-        <v>158.3934426229508</v>
+        <v>98.81818181818181</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>2025-05-12 08:51:38</t>
+          <t>2025-05-12 09:31:16</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>2025-05-12 09:16:38</t>
+          <t>2025-05-12 10:05:46</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>2025-05-12 09:16:38</t>
+          <t>2025-05-12 10:05:46</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>2025-05-12 11:55:01</t>
+          <t>2025-05-12 11:44:35</t>
         </is>
       </c>
       <c r="I44" t="n">
-        <v>9662</v>
+        <v>5435</v>
       </c>
       <c r="J44" t="inlineStr">
         <is>
@@ -3700,7 +3670,7 @@
         </is>
       </c>
       <c r="L44" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M44" t="n">
         <v>70</v>
@@ -3722,41 +3692,41 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>251397</v>
+        <v>251475</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C45" t="n">
         <v>17</v>
       </c>
       <c r="D45" t="n">
-        <v>84.921875</v>
+        <v>122.2676056338028</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>2025-05-12 09:36:59</t>
+          <t>2025-05-12 10:37:51</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>2025-05-12 09:53:59</t>
+          <t>2025-05-12 10:54:51</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>2025-05-12 09:53:59</t>
+          <t>2025-05-12 10:54:51</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>2025-05-12 11:18:54</t>
+          <t>2025-05-12 12:57:07</t>
         </is>
       </c>
       <c r="I45" t="n">
-        <v>5435</v>
+        <v>8681</v>
       </c>
       <c r="J45" t="inlineStr">
         <is>
@@ -3769,7 +3739,7 @@
         </is>
       </c>
       <c r="L45" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M45" t="n">
         <v>70</v>
@@ -3782,7 +3752,7 @@
       </c>
       <c r="Q45" t="inlineStr">
         <is>
-          <t>2025-04-28 00:00:00</t>
+          <t>2025-04-30 00:00:00</t>
         </is>
       </c>
       <c r="R45" s="1" t="n">
@@ -3791,41 +3761,41 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>251475</v>
+        <v>251594</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>R9</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="D46" t="n">
-        <v>125.8115942028985</v>
+        <v>91.07042253521126</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>2025-05-12 10:04:19</t>
+          <t>2025-05-12 11:09:59</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>2025-05-12 10:34:19</t>
+          <t>2025-05-12 11:54:59</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>2025-05-12 10:34:19</t>
+          <t>2025-05-12 11:54:59</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>2025-05-12 12:40:07</t>
+          <t>2025-05-12 13:26:03</t>
         </is>
       </c>
       <c r="I46" t="n">
-        <v>8681</v>
+        <v>6466</v>
       </c>
       <c r="J46" t="inlineStr">
         <is>
@@ -3851,7 +3821,7 @@
       </c>
       <c r="Q46" t="inlineStr">
         <is>
-          <t>2025-04-30 00:00:00</t>
+          <t>2025-05-07 00:00:00</t>
         </is>
       </c>
       <c r="R46" s="1" t="n">
@@ -3860,41 +3830,41 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>243569</v>
+        <v>244354</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>17</v>
+        <v>32.5</v>
       </c>
       <c r="D47" t="n">
-        <v>36.63380281690141</v>
+        <v>78.36363636363636</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>2025-05-12 11:18:29</t>
+          <t>2025-05-12 11:44:35</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>2025-05-12 11:35:29</t>
+          <t>2025-05-12 12:17:05</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>2025-05-12 11:35:29</t>
+          <t>2025-05-12 12:17:05</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>2025-05-12 12:12:07</t>
+          <t>2025-05-12 13:35:27</t>
         </is>
       </c>
       <c r="I47" t="n">
-        <v>2601</v>
+        <v>4310</v>
       </c>
       <c r="J47" t="inlineStr">
         <is>
@@ -3903,14 +3873,14 @@
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L47" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M47" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="O47" t="n">
         <v>0</v>
@@ -3920,7 +3890,7 @@
       </c>
       <c r="Q47" t="inlineStr">
         <is>
-          <t>2024-09-16 00:00:00</t>
+          <t>2025-05-08 00:00:00</t>
         </is>
       </c>
       <c r="R47" s="1" t="n">
@@ -3929,41 +3899,41 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>251594</v>
+        <v>244355</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D48" t="n">
-        <v>101.03125</v>
+        <v>70.65573770491804</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>2025-05-12 11:18:54</t>
+          <t>2025-05-12 12:12:54</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>2025-05-12 11:35:54</t>
+          <t>2025-05-12 12:32:54</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>2025-05-12 11:35:54</t>
+          <t>2025-05-12 12:32:54</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>2025-05-12 13:16:56</t>
+          <t>2025-05-12 13:43:33</t>
         </is>
       </c>
       <c r="I48" t="n">
-        <v>6466</v>
+        <v>4310</v>
       </c>
       <c r="J48" t="inlineStr">
         <is>
@@ -3989,7 +3959,7 @@
       </c>
       <c r="Q48" t="inlineStr">
         <is>
-          <t>2025-05-07 00:00:00</t>
+          <t>2025-05-08 00:00:00</t>
         </is>
       </c>
       <c r="R48" s="1" t="n">
@@ -3998,41 +3968,41 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>244354</v>
+        <v>244204</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>R3</t>
+          <t>BIMEC 4</t>
         </is>
       </c>
       <c r="C49" t="n">
         <v>42</v>
       </c>
       <c r="D49" t="n">
-        <v>87.95918367346938</v>
+        <v>56.91803278688525</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>2025-05-12 11:43:23</t>
+          <t>2025-05-12 12:16:42</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>2025-05-12 12:25:23</t>
+          <t>2025-05-12 12:58:42</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>2025-05-12 12:25:23</t>
+          <t>2025-05-12 12:58:42</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>2025-05-12 13:53:20</t>
+          <t>2025-05-12 13:55:37</t>
         </is>
       </c>
       <c r="I49" t="n">
-        <v>4310</v>
+        <v>3472</v>
       </c>
       <c r="J49" t="inlineStr">
         <is>
@@ -4067,41 +4037,41 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>244355</v>
+        <v>251743</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C50" t="n">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="D50" t="n">
-        <v>70.65573770491804</v>
+        <v>168.375</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>2025-05-12 11:55:01</t>
+          <t>2025-05-12 12:56:16</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>2025-05-12 12:15:01</t>
+          <t>2025-05-12 13:31:16</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>2025-05-12 12:15:01</t>
+          <t>2025-05-12 13:31:16</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>2025-05-12 13:25:41</t>
+          <t>2025-05-13 08:19:39</t>
         </is>
       </c>
       <c r="I50" t="n">
-        <v>4310</v>
+        <v>10776</v>
       </c>
       <c r="J50" t="inlineStr">
         <is>
@@ -4127,7 +4097,7 @@
       </c>
       <c r="Q50" t="inlineStr">
         <is>
-          <t>2025-05-08 00:00:00</t>
+          <t>2025-05-16 00:00:00</t>
         </is>
       </c>
       <c r="R50" s="1" t="n">
@@ -4136,41 +4106,41 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>245623</v>
+        <v>251809</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C51" t="n">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="D51" t="n">
-        <v>372.0985915492957</v>
+        <v>122.2676056338028</v>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>2025-05-12 12:12:07</t>
+          <t>2025-05-12 12:57:07</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>2025-05-12 12:44:07</t>
+          <t>2025-05-12 13:12:07</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>2025-05-12 12:44:07</t>
+          <t>2025-05-12 13:12:07</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>2025-05-13 10:56:13</t>
+          <t>2025-05-13 07:14:23</t>
         </is>
       </c>
       <c r="I51" t="n">
-        <v>26419</v>
+        <v>8681</v>
       </c>
       <c r="J51" t="inlineStr">
         <is>
@@ -4179,14 +4149,14 @@
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L51" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M51" t="n">
-        <v>152</v>
+        <v>70</v>
       </c>
       <c r="O51" t="n">
         <v>0</v>
@@ -4196,7 +4166,7 @@
       </c>
       <c r="Q51" t="inlineStr">
         <is>
-          <t>2025-01-25 00:00:00</t>
+          <t>2025-05-22 00:00:00</t>
         </is>
       </c>
       <c r="R51" s="1" t="n">
@@ -4205,41 +4175,41 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>244204</v>
+        <v>251109</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="C52" t="n">
-        <v>42</v>
+        <v>95</v>
       </c>
       <c r="D52" t="n">
-        <v>56.91803278688525</v>
+        <v>266.5915492957747</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>2025-05-12 12:16:42</t>
+          <t>2025-05-12 13:26:03</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>2025-05-12 12:58:42</t>
+          <t>2025-05-13 07:01:03</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>2025-05-12 12:58:42</t>
+          <t>2025-05-13 07:01:03</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>2025-05-12 13:55:37</t>
+          <t>2025-05-13 11:27:38</t>
         </is>
       </c>
       <c r="I52" t="n">
-        <v>3472</v>
+        <v>18928</v>
       </c>
       <c r="J52" t="inlineStr">
         <is>
@@ -4248,11 +4218,11 @@
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="L52" t="n">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="M52" t="n">
         <v>70</v>
@@ -4265,7 +4235,7 @@
       </c>
       <c r="Q52" t="inlineStr">
         <is>
-          <t>2025-05-08 00:00:00</t>
+          <t>2025-04-18 00:00:00</t>
         </is>
       </c>
       <c r="R52" s="1" t="n">
@@ -4274,41 +4244,41 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>251743</v>
+        <v>250819</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>R9</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C53" t="n">
-        <v>25</v>
+        <v>34.5</v>
       </c>
       <c r="D53" t="n">
-        <v>156.1739130434783</v>
+        <v>155.0363636363636</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>2025-05-12 12:40:07</t>
+          <t>2025-05-12 13:35:27</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>2025-05-12 13:05:07</t>
+          <t>2025-05-12 14:09:57</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>2025-05-12 13:05:07</t>
+          <t>2025-05-12 14:09:57</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>2025-05-13 07:41:18</t>
+          <t>2025-05-13 08:44:59</t>
         </is>
       </c>
       <c r="I53" t="n">
-        <v>10776</v>
+        <v>8527</v>
       </c>
       <c r="J53" t="inlineStr">
         <is>
@@ -4321,7 +4291,7 @@
         </is>
       </c>
       <c r="L53" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M53" t="n">
         <v>70</v>
@@ -4334,7 +4304,7 @@
       </c>
       <c r="Q53" t="inlineStr">
         <is>
-          <t>2025-05-16 00:00:00</t>
+          <t>2025-04-18 00:00:00</t>
         </is>
       </c>
       <c r="R53" s="1" t="n">
@@ -4343,41 +4313,41 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>251809</v>
+        <v>251485</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C54" t="n">
-        <v>85</v>
+        <v>25</v>
       </c>
       <c r="D54" t="n">
-        <v>122.2676056338028</v>
+        <v>78.81967213114754</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>2025-05-12 12:46:35</t>
+          <t>2025-05-12 13:43:33</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>2025-05-12 14:11:35</t>
+          <t>2025-05-12 14:08:33</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>2025-05-12 14:11:35</t>
+          <t>2025-05-12 14:08:33</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>2025-05-13 08:13:51</t>
+          <t>2025-05-13 07:27:22</t>
         </is>
       </c>
       <c r="I54" t="n">
-        <v>8681</v>
+        <v>4808</v>
       </c>
       <c r="J54" t="inlineStr">
         <is>
@@ -4390,7 +4360,7 @@
         </is>
       </c>
       <c r="L54" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M54" t="n">
         <v>70</v>
@@ -4403,7 +4373,7 @@
       </c>
       <c r="Q54" t="inlineStr">
         <is>
-          <t>2025-05-22 00:00:00</t>
+          <t>2025-04-23 00:00:00</t>
         </is>
       </c>
       <c r="R54" s="1" t="n">
@@ -4412,41 +4382,41 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>250819</v>
+        <v>251346</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>BIMEC 4</t>
         </is>
       </c>
       <c r="C55" t="n">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="D55" t="n">
-        <v>133.234375</v>
+        <v>63.26229508196721</v>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>2025-05-12 13:16:56</t>
+          <t>2025-05-12 13:55:37</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>2025-05-12 13:35:56</t>
+          <t>2025-05-12 14:28:37</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>2025-05-12 13:35:56</t>
+          <t>2025-05-12 14:28:37</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>2025-05-13 07:49:10</t>
+          <t>2025-05-13 07:31:53</t>
         </is>
       </c>
       <c r="I55" t="n">
-        <v>8527</v>
+        <v>3859</v>
       </c>
       <c r="J55" t="inlineStr">
         <is>
@@ -4459,7 +4429,7 @@
         </is>
       </c>
       <c r="L55" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="M55" t="n">
         <v>70</v>
@@ -4472,7 +4442,7 @@
       </c>
       <c r="Q55" t="inlineStr">
         <is>
-          <t>2025-04-18 00:00:00</t>
+          <t>2025-04-28 00:00:00</t>
         </is>
       </c>
       <c r="R55" s="1" t="n">
@@ -4481,41 +4451,41 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>251485</v>
+        <v>250641</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>R9</t>
         </is>
       </c>
       <c r="C56" t="n">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="D56" t="n">
-        <v>67.71830985915493</v>
+        <v>74.14492753623189</v>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>2025-05-12 13:18:23</t>
+          <t>2025-05-12 14:50:21</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>2025-05-12 13:43:23</t>
+          <t>2025-05-13 07:35:21</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>2025-05-12 13:43:23</t>
+          <t>2025-05-13 07:35:21</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>2025-05-12 14:51:06</t>
+          <t>2025-05-13 08:49:30</t>
         </is>
       </c>
       <c r="I56" t="n">
-        <v>4808</v>
+        <v>5116</v>
       </c>
       <c r="J56" t="inlineStr">
         <is>
@@ -4528,7 +4498,7 @@
         </is>
       </c>
       <c r="L56" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M56" t="n">
         <v>70</v>
@@ -4541,7 +4511,7 @@
       </c>
       <c r="Q56" t="inlineStr">
         <is>
-          <t>2025-04-23 00:00:00</t>
+          <t>2025-04-28 00:00:00</t>
         </is>
       </c>
       <c r="R56" s="1" t="n">
@@ -4550,41 +4520,41 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>251346</v>
+        <v>250670</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>R3</t>
         </is>
       </c>
       <c r="C57" t="n">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D57" t="n">
-        <v>63.26229508196721</v>
+        <v>31.89795918367347</v>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>2025-05-12 13:25:41</t>
+          <t>2025-05-13 07:10:42</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>2025-05-12 14:05:41</t>
+          <t>2025-05-13 07:52:42</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>2025-05-12 14:05:41</t>
+          <t>2025-05-13 07:52:42</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>2025-05-13 07:08:57</t>
+          <t>2025-05-13 08:24:36</t>
         </is>
       </c>
       <c r="I57" t="n">
-        <v>3859</v>
+        <v>1563</v>
       </c>
       <c r="J57" t="inlineStr">
         <is>
@@ -4593,14 +4563,14 @@
       </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L57" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="M57" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="O57" t="n">
         <v>0</v>
@@ -4610,7 +4580,7 @@
       </c>
       <c r="Q57" t="inlineStr">
         <is>
-          <t>2025-04-28 00:00:00</t>
+          <t>2025-05-05 00:00:00</t>
         </is>
       </c>
       <c r="R57" s="1" t="n">
@@ -4619,41 +4589,41 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>250641</v>
+        <v>251259</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>R3</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C58" t="n">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="D58" t="n">
-        <v>104.4081632653061</v>
+        <v>70.4225352112676</v>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>2025-05-12 13:53:20</t>
+          <t>2025-05-13 07:14:23</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>2025-05-12 14:38:20</t>
+          <t>2025-05-13 07:39:23</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>2025-05-12 14:38:20</t>
+          <t>2025-05-13 07:39:23</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>2025-05-13 08:22:45</t>
+          <t>2025-05-13 08:49:49</t>
         </is>
       </c>
       <c r="I58" t="n">
-        <v>5116</v>
+        <v>5000</v>
       </c>
       <c r="J58" t="inlineStr">
         <is>
@@ -4666,7 +4636,7 @@
         </is>
       </c>
       <c r="L58" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="M58" t="n">
         <v>70</v>
@@ -4679,7 +4649,7 @@
       </c>
       <c r="Q58" t="inlineStr">
         <is>
-          <t>2025-04-28 00:00:00</t>
+          <t>2025-05-06 00:00:00</t>
         </is>
       </c>
       <c r="R58" s="1" t="n">
@@ -4688,41 +4658,41 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>250670</v>
+        <v>243335</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C59" t="n">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="D59" t="n">
-        <v>25.62295081967213</v>
+        <v>464.8450704225352</v>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>2025-05-12 13:55:37</t>
+          <t>2025-05-13 07:17:44</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>2025-05-12 14:35:37</t>
+          <t>2025-05-13 07:36:44</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>2025-05-12 14:35:37</t>
+          <t>2025-05-13 07:36:44</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>2025-05-13 07:01:14</t>
+          <t>2025-05-14 07:21:35</t>
         </is>
       </c>
       <c r="I59" t="n">
-        <v>1563</v>
+        <v>33004</v>
       </c>
       <c r="J59" t="inlineStr">
         <is>
@@ -4731,14 +4701,14 @@
       </c>
       <c r="K59" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L59" t="n">
         <v>4</v>
       </c>
       <c r="M59" t="n">
-        <v>76</v>
+        <v>152</v>
       </c>
       <c r="O59" t="n">
         <v>0</v>
@@ -4748,7 +4718,7 @@
       </c>
       <c r="Q59" t="inlineStr">
         <is>
-          <t>2025-05-05 00:00:00</t>
+          <t>2024-08-02 00:00:00</t>
         </is>
       </c>
       <c r="R59" s="1" t="n">
@@ -4757,41 +4727,41 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>251259</v>
+        <v>251761</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C60" t="n">
-        <v>38.5</v>
+        <v>25</v>
       </c>
       <c r="D60" t="n">
-        <v>90.90909090909091</v>
+        <v>217.6885245901639</v>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>2025-05-12 14:32:31</t>
+          <t>2025-05-13 07:27:22</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>2025-05-13 07:11:01</t>
+          <t>2025-05-13 07:52:22</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>2025-05-13 07:11:01</t>
+          <t>2025-05-13 07:52:22</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>2025-05-13 08:41:55</t>
+          <t>2025-05-13 11:30:03</t>
         </is>
       </c>
       <c r="I60" t="n">
-        <v>5000</v>
+        <v>13279</v>
       </c>
       <c r="J60" t="inlineStr">
         <is>
@@ -4804,7 +4774,7 @@
         </is>
       </c>
       <c r="L60" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="M60" t="n">
         <v>70</v>
@@ -4817,7 +4787,7 @@
       </c>
       <c r="Q60" t="inlineStr">
         <is>
-          <t>2025-05-06 00:00:00</t>
+          <t>2025-05-19 00:00:00</t>
         </is>
       </c>
       <c r="R60" s="1" t="n">
@@ -4826,41 +4796,41 @@
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>251761</v>
+        <v>244023</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>BIMEC 4</t>
         </is>
       </c>
       <c r="C61" t="n">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="D61" t="n">
-        <v>187.0281690140845</v>
+        <v>16.34426229508197</v>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>2025-05-12 14:51:06</t>
+          <t>2025-05-13 07:31:53</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>2025-05-13 07:08:06</t>
+          <t>2025-05-13 08:00:53</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>2025-05-13 07:08:06</t>
+          <t>2025-05-13 08:00:53</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>2025-05-13 10:15:08</t>
+          <t>2025-05-13 08:17:13</t>
         </is>
       </c>
       <c r="I61" t="n">
-        <v>13279</v>
+        <v>997</v>
       </c>
       <c r="J61" t="inlineStr">
         <is>
@@ -4873,7 +4843,7 @@
         </is>
       </c>
       <c r="L61" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M61" t="n">
         <v>70</v>
@@ -4886,7 +4856,7 @@
       </c>
       <c r="Q61" t="inlineStr">
         <is>
-          <t>2025-05-19 00:00:00</t>
+          <t>2024-09-30 00:00:00</t>
         </is>
       </c>
       <c r="R61" s="1" t="n">
@@ -4895,7 +4865,7 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>243335</v>
+        <v>251283</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
@@ -4903,33 +4873,33 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="D62" t="n">
-        <v>541.0491803278688</v>
+        <v>12.36065573770492</v>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>2025-05-13 07:01:14</t>
+          <t>2025-05-13 08:17:13</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>2025-05-13 07:41:14</t>
+          <t>2025-05-13 08:42:13</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>2025-05-13 07:41:14</t>
+          <t>2025-05-13 08:42:13</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>2025-05-14 08:42:17</t>
+          <t>2025-05-13 08:54:35</t>
         </is>
       </c>
       <c r="I62" t="n">
-        <v>33004</v>
+        <v>754</v>
       </c>
       <c r="J62" t="inlineStr">
         <is>
@@ -4938,14 +4908,14 @@
       </c>
       <c r="K62" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
         </is>
       </c>
       <c r="L62" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M62" t="n">
-        <v>152</v>
+        <v>70</v>
       </c>
       <c r="O62" t="n">
         <v>0</v>
@@ -4955,7 +4925,7 @@
       </c>
       <c r="Q62" t="inlineStr">
         <is>
-          <t>2024-08-02 00:00:00</t>
+          <t>2025-03-18 00:00:00</t>
         </is>
       </c>
       <c r="R62" s="1" t="n">
@@ -4964,41 +4934,41 @@
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>244023</v>
+        <v>251245</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C63" t="n">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="D63" t="n">
-        <v>16.34426229508197</v>
+        <v>11.78125</v>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>2025-05-13 07:08:57</t>
+          <t>2025-05-13 08:19:39</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>2025-05-13 07:38:57</t>
+          <t>2025-05-13 08:38:39</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>2025-05-13 07:38:57</t>
+          <t>2025-05-13 08:38:39</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>2025-05-13 07:55:17</t>
+          <t>2025-05-13 08:50:26</t>
         </is>
       </c>
       <c r="I63" t="n">
-        <v>997</v>
+        <v>754</v>
       </c>
       <c r="J63" t="inlineStr">
         <is>
@@ -5007,7 +4977,7 @@
       </c>
       <c r="K63" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
         </is>
       </c>
       <c r="L63" t="n">
@@ -5024,7 +4994,7 @@
       </c>
       <c r="Q63" t="inlineStr">
         <is>
-          <t>2024-09-30 00:00:00</t>
+          <t>2025-03-28 00:00:00</t>
         </is>
       </c>
       <c r="R63" s="1" t="n">
@@ -5033,41 +5003,41 @@
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>251283</v>
+        <v>251061</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>R9</t>
+          <t>R3</t>
         </is>
       </c>
       <c r="C64" t="n">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="D64" t="n">
-        <v>10.92753623188406</v>
+        <v>489.734693877551</v>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>2025-05-13 07:41:18</t>
+          <t>2025-05-13 08:24:36</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>2025-05-13 08:16:18</t>
+          <t>2025-05-13 09:11:36</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>2025-05-13 08:16:18</t>
+          <t>2025-05-13 09:11:36</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>2025-05-13 08:27:13</t>
+          <t>2025-05-14 09:21:20</t>
         </is>
       </c>
       <c r="I64" t="n">
-        <v>754</v>
+        <v>23997</v>
       </c>
       <c r="J64" t="inlineStr">
         <is>
@@ -5093,7 +5063,7 @@
       </c>
       <c r="Q64" t="inlineStr">
         <is>
-          <t>2025-03-18 00:00:00</t>
+          <t>2025-05-05 00:00:00</t>
         </is>
       </c>
       <c r="R64" s="1" t="n">
@@ -5102,41 +5072,41 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>251245</v>
+        <v>251247</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C65" t="n">
-        <v>15</v>
+        <v>30.5</v>
       </c>
       <c r="D65" t="n">
-        <v>11.78125</v>
+        <v>489.7090909090909</v>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>2025-05-13 07:49:10</t>
+          <t>2025-05-13 08:44:59</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>2025-05-13 08:04:10</t>
+          <t>2025-05-13 09:15:29</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>2025-05-13 08:04:10</t>
+          <t>2025-05-13 09:15:29</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>2025-05-13 08:15:57</t>
+          <t>2025-05-14 09:25:12</t>
         </is>
       </c>
       <c r="I65" t="n">
-        <v>754</v>
+        <v>26934</v>
       </c>
       <c r="J65" t="inlineStr">
         <is>
@@ -5162,7 +5132,7 @@
       </c>
       <c r="Q65" t="inlineStr">
         <is>
-          <t>2025-03-28 00:00:00</t>
+          <t>2025-05-09 00:00:00</t>
         </is>
       </c>
       <c r="R65" s="1" t="n">
@@ -5171,41 +5141,41 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>251061</v>
+        <v>251246</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>R9</t>
         </is>
       </c>
       <c r="C66" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D66" t="n">
-        <v>393.3934426229508</v>
+        <v>173.9420289855072</v>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>2025-05-13 07:55:17</t>
+          <t>2025-05-13 08:49:30</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>2025-05-13 08:15:17</t>
+          <t>2025-05-13 09:14:30</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>2025-05-13 08:15:17</t>
+          <t>2025-05-13 09:14:30</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>2025-05-13 14:48:41</t>
+          <t>2025-05-13 12:08:26</t>
         </is>
       </c>
       <c r="I66" t="n">
-        <v>23997</v>
+        <v>12002</v>
       </c>
       <c r="J66" t="inlineStr">
         <is>
@@ -5231,7 +5201,7 @@
       </c>
       <c r="Q66" t="inlineStr">
         <is>
-          <t>2025-05-05 00:00:00</t>
+          <t>2025-05-09 00:00:00</t>
         </is>
       </c>
       <c r="R66" s="1" t="n">
@@ -5240,41 +5210,41 @@
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>251109</v>
+        <v>251466</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C67" t="n">
-        <v>95</v>
+        <v>27</v>
       </c>
       <c r="D67" t="n">
-        <v>266.5915492957747</v>
+        <v>78.40845070422536</v>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>2025-05-13 08:13:51</t>
+          <t>2025-05-13 08:49:49</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>2025-05-13 09:48:51</t>
+          <t>2025-05-13 09:16:49</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>2025-05-13 09:48:51</t>
+          <t>2025-05-13 09:16:49</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>2025-05-13 14:15:27</t>
+          <t>2025-05-13 10:35:13</t>
         </is>
       </c>
       <c r="I67" t="n">
-        <v>18928</v>
+        <v>5567</v>
       </c>
       <c r="J67" t="inlineStr">
         <is>
@@ -5283,11 +5253,11 @@
       </c>
       <c r="K67" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L67" t="n">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="M67" t="n">
         <v>70</v>
@@ -5300,7 +5270,7 @@
       </c>
       <c r="Q67" t="inlineStr">
         <is>
-          <t>2025-04-18 00:00:00</t>
+          <t>2025-05-09 00:00:00</t>
         </is>
       </c>
       <c r="R67" s="1" t="n">
@@ -5309,7 +5279,7 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>251247</v>
+        <v>251463</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
@@ -5317,33 +5287,33 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D68" t="n">
-        <v>420.84375</v>
+        <v>108.859375</v>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>2025-05-13 08:15:57</t>
+          <t>2025-05-13 08:50:26</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>2025-05-13 08:30:57</t>
+          <t>2025-05-13 09:09:26</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>2025-05-13 08:30:57</t>
+          <t>2025-05-13 09:09:26</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>2025-05-14 07:31:47</t>
+          <t>2025-05-13 10:58:17</t>
         </is>
       </c>
       <c r="I68" t="n">
-        <v>26934</v>
+        <v>6967</v>
       </c>
       <c r="J68" t="inlineStr">
         <is>
@@ -5352,11 +5322,11 @@
       </c>
       <c r="K68" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L68" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M68" t="n">
         <v>70</v>
@@ -5378,41 +5348,41 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>251246</v>
+        <v>251464</v>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>R3</t>
+          <t>BIMEC 4</t>
         </is>
       </c>
       <c r="C69" t="n">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="D69" t="n">
-        <v>244.9387755102041</v>
+        <v>117.2622950819672</v>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>2025-05-13 08:22:45</t>
+          <t>2025-05-13 08:54:35</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>2025-05-13 08:57:45</t>
+          <t>2025-05-13 09:23:35</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>2025-05-13 08:57:45</t>
+          <t>2025-05-13 09:23:35</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>2025-05-13 13:02:41</t>
+          <t>2025-05-13 11:20:51</t>
         </is>
       </c>
       <c r="I69" t="n">
-        <v>12002</v>
+        <v>7153</v>
       </c>
       <c r="J69" t="inlineStr">
         <is>
@@ -5421,11 +5391,11 @@
       </c>
       <c r="K69" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L69" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M69" t="n">
         <v>70</v>
@@ -5447,41 +5417,41 @@
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>251466</v>
+        <v>251465</v>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>R9</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C70" t="n">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="D70" t="n">
-        <v>80.68115942028986</v>
+        <v>87.69014084507042</v>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>2025-05-13 08:27:13</t>
+          <t>2025-05-13 10:35:13</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>2025-05-13 09:07:13</t>
+          <t>2025-05-13 10:52:13</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>2025-05-13 09:07:13</t>
+          <t>2025-05-13 10:52:13</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>2025-05-13 10:27:54</t>
+          <t>2025-05-13 12:19:54</t>
         </is>
       </c>
       <c r="I70" t="n">
-        <v>5567</v>
+        <v>6226</v>
       </c>
       <c r="J70" t="inlineStr">
         <is>
@@ -5494,7 +5464,7 @@
         </is>
       </c>
       <c r="L70" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M70" t="n">
         <v>70</v>
@@ -5516,41 +5486,41 @@
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>251463</v>
+        <v>251462</v>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C71" t="n">
-        <v>40.5</v>
+        <v>19</v>
       </c>
       <c r="D71" t="n">
-        <v>126.6727272727273</v>
+        <v>97.28125</v>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>2025-05-13 08:41:55</t>
+          <t>2025-05-13 10:58:17</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>2025-05-13 09:22:25</t>
+          <t>2025-05-13 11:17:17</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>2025-05-13 09:22:25</t>
+          <t>2025-05-13 11:17:17</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>2025-05-13 11:29:06</t>
+          <t>2025-05-13 12:54:34</t>
         </is>
       </c>
       <c r="I71" t="n">
-        <v>6967</v>
+        <v>6226</v>
       </c>
       <c r="J71" t="inlineStr">
         <is>
@@ -5563,7 +5533,7 @@
         </is>
       </c>
       <c r="L71" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M71" t="n">
         <v>70</v>
@@ -5585,41 +5555,41 @@
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>251464</v>
+        <v>251467</v>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>BIMEC 4</t>
         </is>
       </c>
       <c r="C72" t="n">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="D72" t="n">
-        <v>100.7464788732394</v>
+        <v>102.0655737704918</v>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>2025-05-13 10:15:08</t>
+          <t>2025-05-13 11:20:51</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>2025-05-13 10:30:08</t>
+          <t>2025-05-13 11:49:51</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>2025-05-13 10:30:08</t>
+          <t>2025-05-13 11:49:51</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>2025-05-13 12:10:53</t>
+          <t>2025-05-13 13:31:55</t>
         </is>
       </c>
       <c r="I72" t="n">
-        <v>7153</v>
+        <v>6226</v>
       </c>
       <c r="J72" t="inlineStr">
         <is>
@@ -5632,7 +5602,7 @@
         </is>
       </c>
       <c r="L72" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M72" t="n">
         <v>70</v>
@@ -5654,41 +5624,41 @@
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>251465</v>
+        <v>251520</v>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>R9</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="C73" t="n">
-        <v>30</v>
+        <v>80</v>
       </c>
       <c r="D73" t="n">
-        <v>90.23188405797102</v>
+        <v>230.1408450704225</v>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>2025-05-13 10:27:54</t>
+          <t>2025-05-13 11:27:38</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>2025-05-13 10:57:54</t>
+          <t>2025-05-13 12:47:38</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>2025-05-13 10:57:54</t>
+          <t>2025-05-13 12:47:38</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>2025-05-13 12:28:08</t>
+          <t>2025-05-14 08:37:47</t>
         </is>
       </c>
       <c r="I73" t="n">
-        <v>6226</v>
+        <v>16340</v>
       </c>
       <c r="J73" t="inlineStr">
         <is>
@@ -5697,11 +5667,11 @@
       </c>
       <c r="K73" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>CASON ;R6</t>
         </is>
       </c>
       <c r="L73" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="M73" t="n">
         <v>70</v>
@@ -5714,7 +5684,7 @@
       </c>
       <c r="Q73" t="inlineStr">
         <is>
-          <t>2025-05-09 00:00:00</t>
+          <t>2025-05-12 00:00:00</t>
         </is>
       </c>
       <c r="R73" s="1" t="n">
@@ -5723,41 +5693,41 @@
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>251750</v>
+        <v>251374</v>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C74" t="n">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="D74" t="n">
-        <v>54.80281690140845</v>
+        <v>448.2459016393443</v>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>2025-05-13 10:56:13</t>
+          <t>2025-05-13 11:30:03</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>2025-05-13 11:13:13</t>
+          <t>2025-05-13 12:05:03</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>2025-05-13 11:13:13</t>
+          <t>2025-05-13 12:05:03</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>2025-05-13 12:08:01</t>
+          <t>2025-05-14 11:33:18</t>
         </is>
       </c>
       <c r="I74" t="n">
-        <v>3891</v>
+        <v>27343</v>
       </c>
       <c r="J74" t="inlineStr">
         <is>
@@ -5766,14 +5736,14 @@
       </c>
       <c r="K74" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
         </is>
       </c>
       <c r="L74" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="M74" t="n">
-        <v>152</v>
+        <v>70</v>
       </c>
       <c r="O74" t="n">
         <v>0</v>
@@ -5783,7 +5753,7 @@
       </c>
       <c r="Q74" t="inlineStr">
         <is>
-          <t>2025-05-26 00:00:00</t>
+          <t>2025-05-15 00:00:00</t>
         </is>
       </c>
       <c r="R74" s="1" t="n">
@@ -5792,41 +5762,41 @@
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>251462</v>
+        <v>251580</v>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>R9</t>
         </is>
       </c>
       <c r="C75" t="n">
-        <v>34.5</v>
+        <v>35</v>
       </c>
       <c r="D75" t="n">
-        <v>113.2</v>
+        <v>103.6666666666667</v>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>2025-05-13 11:29:06</t>
+          <t>2025-05-13 12:08:26</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>2025-05-13 12:03:36</t>
+          <t>2025-05-13 12:43:26</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>2025-05-13 12:03:36</t>
+          <t>2025-05-13 12:43:26</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>2025-05-13 13:56:48</t>
+          <t>2025-05-13 14:27:06</t>
         </is>
       </c>
       <c r="I75" t="n">
-        <v>6226</v>
+        <v>7153</v>
       </c>
       <c r="J75" t="inlineStr">
         <is>
@@ -5839,7 +5809,7 @@
         </is>
       </c>
       <c r="L75" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M75" t="n">
         <v>70</v>
@@ -5852,7 +5822,7 @@
       </c>
       <c r="Q75" t="inlineStr">
         <is>
-          <t>2025-05-09 00:00:00</t>
+          <t>2025-05-15 00:00:00</t>
         </is>
       </c>
       <c r="R75" s="1" t="n">
@@ -5861,41 +5831,41 @@
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>251987</v>
+        <v>251557</v>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C76" t="n">
-        <v>36</v>
+        <v>15</v>
       </c>
       <c r="D76" t="n">
-        <v>2965.154929577465</v>
+        <v>94.43661971830986</v>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>2025-05-13 12:08:01</t>
+          <t>2025-05-13 12:19:54</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>2025-05-13 12:44:01</t>
+          <t>2025-05-13 12:34:54</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>2025-05-13 12:44:01</t>
+          <t>2025-05-13 12:34:54</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>2025-05-21 14:09:10</t>
+          <t>2025-05-13 14:09:21</t>
         </is>
       </c>
       <c r="I76" t="n">
-        <v>210526</v>
+        <v>6705</v>
       </c>
       <c r="J76" t="inlineStr">
         <is>
@@ -5904,14 +5874,14 @@
       </c>
       <c r="K76" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L76" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="M76" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="O76" t="n">
         <v>0</v>
@@ -5921,7 +5891,7 @@
       </c>
       <c r="Q76" t="inlineStr">
         <is>
-          <t>2025-09-01 00:00:00</t>
+          <t>2025-05-15 00:00:00</t>
         </is>
       </c>
       <c r="R76" s="1" t="n">
@@ -5930,41 +5900,41 @@
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>251467</v>
+        <v>251562</v>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C77" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D77" t="n">
-        <v>87.69014084507042</v>
+        <v>127.21875</v>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>2025-05-13 12:10:53</t>
+          <t>2025-05-13 12:54:34</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>2025-05-13 12:29:53</t>
+          <t>2025-05-13 13:09:34</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>2025-05-13 12:29:53</t>
+          <t>2025-05-13 13:09:34</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>2025-05-13 13:57:34</t>
+          <t>2025-05-14 07:16:47</t>
         </is>
       </c>
       <c r="I77" t="n">
-        <v>6226</v>
+        <v>8142</v>
       </c>
       <c r="J77" t="inlineStr">
         <is>
@@ -5990,7 +5960,7 @@
       </c>
       <c r="Q77" t="inlineStr">
         <is>
-          <t>2025-05-09 00:00:00</t>
+          <t>2025-05-15 00:00:00</t>
         </is>
       </c>
       <c r="R77" s="1" t="n">
@@ -5999,41 +5969,41 @@
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>251374</v>
+        <v>251260</v>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>R9</t>
+          <t>BIMEC 4</t>
         </is>
       </c>
       <c r="C78" t="n">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="D78" t="n">
-        <v>396.2753623188406</v>
+        <v>153.5901639344262</v>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>2025-05-13 12:28:08</t>
+          <t>2025-05-13 13:31:55</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>2025-05-13 13:18:08</t>
+          <t>2025-05-13 14:04:55</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>2025-05-13 13:18:08</t>
+          <t>2025-05-13 14:04:55</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>2025-05-14 11:54:25</t>
+          <t>2025-05-14 08:38:30</t>
         </is>
       </c>
       <c r="I78" t="n">
-        <v>27343</v>
+        <v>9369</v>
       </c>
       <c r="J78" t="inlineStr">
         <is>
@@ -6042,11 +6012,11 @@
       </c>
       <c r="K78" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R9</t>
         </is>
       </c>
       <c r="L78" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="M78" t="n">
         <v>70</v>
@@ -6059,7 +6029,7 @@
       </c>
       <c r="Q78" t="inlineStr">
         <is>
-          <t>2025-05-15 00:00:00</t>
+          <t>2025-05-22 00:00:00</t>
         </is>
       </c>
       <c r="R78" s="1" t="n">
@@ -6068,41 +6038,41 @@
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>251580</v>
+        <v>251062</v>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>R3</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C79" t="n">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="D79" t="n">
-        <v>145.9795918367347</v>
+        <v>318.6478873239437</v>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>2025-05-13 13:02:41</t>
+          <t>2025-05-13 14:09:21</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>2025-05-13 13:47:41</t>
+          <t>2025-05-13 14:32:21</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>2025-05-13 13:47:41</t>
+          <t>2025-05-13 14:32:21</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>2025-05-14 08:13:40</t>
+          <t>2025-05-14 11:51:00</t>
         </is>
       </c>
       <c r="I79" t="n">
-        <v>7153</v>
+        <v>22624</v>
       </c>
       <c r="J79" t="inlineStr">
         <is>
@@ -6111,11 +6081,11 @@
       </c>
       <c r="K79" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
         </is>
       </c>
       <c r="L79" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M79" t="n">
         <v>70</v>
@@ -6128,7 +6098,7 @@
       </c>
       <c r="Q79" t="inlineStr">
         <is>
-          <t>2025-05-15 00:00:00</t>
+          <t>2025-05-23 00:00:00</t>
         </is>
       </c>
       <c r="R79" s="1" t="n">
@@ -6137,41 +6107,41 @@
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>251520</v>
+        <v>251252</v>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>R9</t>
         </is>
       </c>
       <c r="C80" t="n">
-        <v>40.5</v>
+        <v>35</v>
       </c>
       <c r="D80" t="n">
-        <v>297.0909090909091</v>
+        <v>218.5942028985507</v>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>2025-05-13 13:56:48</t>
+          <t>2025-05-13 14:27:06</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>2025-05-13 14:37:18</t>
+          <t>2025-05-14 07:02:06</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>2025-05-13 14:37:18</t>
+          <t>2025-05-14 07:02:06</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>2025-05-14 11:34:23</t>
+          <t>2025-05-14 10:40:42</t>
         </is>
       </c>
       <c r="I80" t="n">
-        <v>16340</v>
+        <v>15083</v>
       </c>
       <c r="J80" t="inlineStr">
         <is>
@@ -6180,11 +6150,11 @@
       </c>
       <c r="K80" t="inlineStr">
         <is>
-          <t>CASON ;R6</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
         </is>
       </c>
       <c r="L80" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="M80" t="n">
         <v>70</v>
@@ -6197,7 +6167,7 @@
       </c>
       <c r="Q80" t="inlineStr">
         <is>
-          <t>2025-05-12 00:00:00</t>
+          <t>2025-05-23 00:00:00</t>
         </is>
       </c>
       <c r="R80" s="1" t="n">
@@ -6206,41 +6176,41 @@
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>251557</v>
+        <v>251251</v>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C81" t="n">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="D81" t="n">
-        <v>94.43661971830986</v>
+        <v>247.8125</v>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>2025-05-13 13:57:34</t>
+          <t>2025-05-14 07:16:47</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>2025-05-13 14:12:34</t>
+          <t>2025-05-14 07:39:47</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>2025-05-13 14:12:34</t>
+          <t>2025-05-14 07:39:47</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>2025-05-14 07:47:00</t>
+          <t>2025-05-14 11:47:36</t>
         </is>
       </c>
       <c r="I81" t="n">
-        <v>6705</v>
+        <v>15860</v>
       </c>
       <c r="J81" t="inlineStr">
         <is>
@@ -6249,11 +6219,11 @@
       </c>
       <c r="K81" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
         </is>
       </c>
       <c r="L81" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="M81" t="n">
         <v>70</v>
@@ -6266,7 +6236,7 @@
       </c>
       <c r="Q81" t="inlineStr">
         <is>
-          <t>2025-05-15 00:00:00</t>
+          <t>2025-05-23 00:00:00</t>
         </is>
       </c>
       <c r="R81" s="1" t="n">
@@ -6275,41 +6245,41 @@
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>251562</v>
+        <v>251750</v>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C82" t="n">
-        <v>105</v>
+        <v>17</v>
       </c>
       <c r="D82" t="n">
-        <v>114.6760563380282</v>
+        <v>54.80281690140845</v>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>2025-05-13 14:15:27</t>
+          <t>2025-05-14 07:21:35</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>2025-05-14 08:00:27</t>
+          <t>2025-05-14 07:38:35</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>2025-05-14 08:00:27</t>
+          <t>2025-05-14 07:38:35</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>2025-05-14 09:55:07</t>
+          <t>2025-05-14 08:33:23</t>
         </is>
       </c>
       <c r="I82" t="n">
-        <v>8142</v>
+        <v>3891</v>
       </c>
       <c r="J82" t="inlineStr">
         <is>
@@ -6318,14 +6288,14 @@
       </c>
       <c r="K82" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L82" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M82" t="n">
-        <v>70</v>
+        <v>152</v>
       </c>
       <c r="O82" t="n">
         <v>0</v>
@@ -6335,7 +6305,7 @@
       </c>
       <c r="Q82" t="inlineStr">
         <is>
-          <t>2025-05-15 00:00:00</t>
+          <t>2025-05-26 00:00:00</t>
         </is>
       </c>
       <c r="R82" s="1" t="n">
@@ -6344,41 +6314,41 @@
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>251260</v>
+        <v>251987</v>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C83" t="n">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="D83" t="n">
-        <v>153.5901639344262</v>
+        <v>2965.154929577465</v>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>2025-05-13 14:48:41</t>
+          <t>2025-05-14 08:33:23</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>2025-05-14 07:08:41</t>
+          <t>2025-05-14 09:09:23</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>2025-05-14 07:08:41</t>
+          <t>2025-05-14 09:09:23</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>2025-05-14 09:42:16</t>
+          <t>2025-05-22 10:34:32</t>
         </is>
       </c>
       <c r="I83" t="n">
-        <v>9369</v>
+        <v>210526</v>
       </c>
       <c r="J83" t="inlineStr">
         <is>
@@ -6387,14 +6357,14 @@
       </c>
       <c r="K83" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R9</t>
         </is>
       </c>
       <c r="L83" t="n">
         <v>6</v>
       </c>
       <c r="M83" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="O83" t="n">
         <v>0</v>
@@ -6404,7 +6374,7 @@
       </c>
       <c r="Q83" t="inlineStr">
         <is>
-          <t>2025-05-22 00:00:00</t>
+          <t>2025-09-01 00:00:00</t>
         </is>
       </c>
       <c r="R83" s="1" t="n">
@@ -6413,41 +6383,41 @@
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>251062</v>
+        <v>251249</v>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>BIMEC 4</t>
         </is>
       </c>
       <c r="C84" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="D84" t="n">
-        <v>353.5</v>
+        <v>78</v>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>2025-05-14 07:31:47</t>
+          <t>2025-05-14 08:38:30</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>2025-05-14 07:46:47</t>
+          <t>2025-05-14 09:03:30</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>2025-05-14 07:46:47</t>
+          <t>2025-05-14 09:03:30</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>2025-05-14 13:40:17</t>
+          <t>2025-05-14 10:21:30</t>
         </is>
       </c>
       <c r="I84" t="n">
-        <v>22624</v>
+        <v>4758</v>
       </c>
       <c r="J84" t="inlineStr">
         <is>
@@ -6473,7 +6443,7 @@
       </c>
       <c r="Q84" t="inlineStr">
         <is>
-          <t>2025-05-23 00:00:00</t>
+          <t>2025-06-06 00:00:00</t>
         </is>
       </c>
       <c r="R84" s="1" t="n">
@@ -6482,41 +6452,41 @@
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>251252</v>
+        <v>251795</v>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C85" t="n">
-        <v>23</v>
+        <v>30.5</v>
       </c>
       <c r="D85" t="n">
-        <v>212.4366197183099</v>
+        <v>340.7090909090909</v>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>2025-05-14 07:47:00</t>
+          <t>2025-05-14 09:25:12</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>2025-05-14 08:10:00</t>
+          <t>2025-05-14 09:55:42</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>2025-05-14 08:10:00</t>
+          <t>2025-05-14 09:55:42</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>2025-05-14 11:42:27</t>
+          <t>2025-05-15 07:36:24</t>
         </is>
       </c>
       <c r="I85" t="n">
-        <v>15083</v>
+        <v>18739</v>
       </c>
       <c r="J85" t="inlineStr">
         <is>
@@ -6525,7 +6495,7 @@
       </c>
       <c r="K85" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R9</t>
         </is>
       </c>
       <c r="L85" t="n">
@@ -6542,7 +6512,7 @@
       </c>
       <c r="Q85" t="inlineStr">
         <is>
-          <t>2025-05-23 00:00:00</t>
+          <t>2025-06-19 00:00:00</t>
         </is>
       </c>
       <c r="R85" s="1" t="n">
@@ -6551,41 +6521,41 @@
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>251251</v>
+        <v>245090</v>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>R3</t>
+          <t>BIMEC 4</t>
         </is>
       </c>
       <c r="C86" t="n">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D86" t="n">
-        <v>323.6734693877551</v>
+        <v>8470.786885245901</v>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>2025-05-14 08:13:40</t>
+          <t>2025-05-14 10:21:30</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>2025-05-14 08:58:40</t>
+          <t>2025-05-14 11:03:30</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>2025-05-14 08:58:40</t>
+          <t>2025-05-14 11:03:30</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>2025-05-14 14:22:20</t>
+          <t>2025-06-09 08:14:17</t>
         </is>
       </c>
       <c r="I86" t="n">
-        <v>15860</v>
+        <v>516718</v>
       </c>
       <c r="J86" t="inlineStr">
         <is>
@@ -6594,14 +6564,14 @@
       </c>
       <c r="K86" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L86" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="M86" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="O86" t="n">
         <v>0</v>
@@ -6611,7 +6581,7 @@
       </c>
       <c r="Q86" t="inlineStr">
         <is>
-          <t>2025-05-23 00:00:00</t>
+          <t>2025-12-31 00:00:00</t>
         </is>
       </c>
       <c r="R86" s="1" t="n">
@@ -6620,41 +6590,41 @@
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>251249</v>
+        <v>245089</v>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>R9</t>
         </is>
       </c>
       <c r="C87" t="n">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D87" t="n">
-        <v>78</v>
+        <v>1777.753623188406</v>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>2025-05-14 08:42:17</t>
+          <t>2025-05-14 10:40:42</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>2025-05-14 09:26:17</t>
+          <t>2025-05-14 11:20:42</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>2025-05-14 09:26:17</t>
+          <t>2025-05-14 11:20:42</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>2025-05-14 10:44:17</t>
+          <t>2025-05-20 08:58:27</t>
         </is>
       </c>
       <c r="I87" t="n">
-        <v>4758</v>
+        <v>122665</v>
       </c>
       <c r="J87" t="inlineStr">
         <is>
@@ -6663,14 +6633,14 @@
       </c>
       <c r="K87" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L87" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M87" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="O87" t="n">
         <v>0</v>
@@ -6680,217 +6650,10 @@
       </c>
       <c r="Q87" t="inlineStr">
         <is>
-          <t>2025-06-06 00:00:00</t>
+          <t>2025-12-31 00:00:00</t>
         </is>
       </c>
       <c r="R87" s="1" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" t="n">
-        <v>251795</v>
-      </c>
-      <c r="B88" t="inlineStr">
-        <is>
-          <t>R10</t>
-        </is>
-      </c>
-      <c r="C88" t="n">
-        <v>20</v>
-      </c>
-      <c r="D88" t="n">
-        <v>307.1967213114754</v>
-      </c>
-      <c r="E88" t="inlineStr">
-        <is>
-          <t>2025-05-14 09:42:16</t>
-        </is>
-      </c>
-      <c r="F88" t="inlineStr">
-        <is>
-          <t>2025-05-14 10:02:16</t>
-        </is>
-      </c>
-      <c r="G88" t="inlineStr">
-        <is>
-          <t>2025-05-14 10:02:16</t>
-        </is>
-      </c>
-      <c r="H88" t="inlineStr">
-        <is>
-          <t>2025-05-15 07:09:28</t>
-        </is>
-      </c>
-      <c r="I88" t="n">
-        <v>18739</v>
-      </c>
-      <c r="J88" t="inlineStr">
-        <is>
-          <t>bobina</t>
-        </is>
-      </c>
-      <c r="K88" t="inlineStr">
-        <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R9</t>
-        </is>
-      </c>
-      <c r="L88" t="n">
-        <v>6</v>
-      </c>
-      <c r="M88" t="n">
-        <v>70</v>
-      </c>
-      <c r="O88" t="n">
-        <v>0</v>
-      </c>
-      <c r="P88" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q88" t="inlineStr">
-        <is>
-          <t>2025-06-19 00:00:00</t>
-        </is>
-      </c>
-      <c r="R88" s="1" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" t="n">
-        <v>245090</v>
-      </c>
-      <c r="B89" t="inlineStr">
-        <is>
-          <t>BIMEC 4</t>
-        </is>
-      </c>
-      <c r="C89" t="n">
-        <v>42</v>
-      </c>
-      <c r="D89" t="n">
-        <v>8470.786885245901</v>
-      </c>
-      <c r="E89" t="inlineStr">
-        <is>
-          <t>2025-05-14 10:44:17</t>
-        </is>
-      </c>
-      <c r="F89" t="inlineStr">
-        <is>
-          <t>2025-05-14 11:26:17</t>
-        </is>
-      </c>
-      <c r="G89" t="inlineStr">
-        <is>
-          <t>2025-05-14 11:26:17</t>
-        </is>
-      </c>
-      <c r="H89" t="inlineStr">
-        <is>
-          <t>2025-06-09 08:37:04</t>
-        </is>
-      </c>
-      <c r="I89" t="n">
-        <v>516718</v>
-      </c>
-      <c r="J89" t="inlineStr">
-        <is>
-          <t>bobina</t>
-        </is>
-      </c>
-      <c r="K89" t="inlineStr">
-        <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
-        </is>
-      </c>
-      <c r="L89" t="n">
-        <v>5</v>
-      </c>
-      <c r="M89" t="n">
-        <v>76</v>
-      </c>
-      <c r="O89" t="n">
-        <v>0</v>
-      </c>
-      <c r="P89" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q89" t="inlineStr">
-        <is>
-          <t>2025-12-31 00:00:00</t>
-        </is>
-      </c>
-      <c r="R89" s="1" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" t="n">
-        <v>245089</v>
-      </c>
-      <c r="B90" t="inlineStr">
-        <is>
-          <t>BIMEC 5</t>
-        </is>
-      </c>
-      <c r="C90" t="n">
-        <v>34</v>
-      </c>
-      <c r="D90" t="n">
-        <v>1727.676056338028</v>
-      </c>
-      <c r="E90" t="inlineStr">
-        <is>
-          <t>2025-05-14 11:42:27</t>
-        </is>
-      </c>
-      <c r="F90" t="inlineStr">
-        <is>
-          <t>2025-05-14 12:16:27</t>
-        </is>
-      </c>
-      <c r="G90" t="inlineStr">
-        <is>
-          <t>2025-05-14 12:16:27</t>
-        </is>
-      </c>
-      <c r="H90" t="inlineStr">
-        <is>
-          <t>2025-05-20 09:04:07</t>
-        </is>
-      </c>
-      <c r="I90" t="n">
-        <v>122665</v>
-      </c>
-      <c r="J90" t="inlineStr">
-        <is>
-          <t>bobina</t>
-        </is>
-      </c>
-      <c r="K90" t="inlineStr">
-        <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
-        </is>
-      </c>
-      <c r="L90" t="n">
-        <v>4</v>
-      </c>
-      <c r="M90" t="n">
-        <v>76</v>
-      </c>
-      <c r="O90" t="n">
-        <v>0</v>
-      </c>
-      <c r="P90" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q90" t="inlineStr">
-        <is>
-          <t>2025-12-31 00:00:00</t>
-        </is>
-      </c>
-      <c r="R90" s="1" t="n">
         <v>0</v>
       </c>
     </row>

--- a/PS-VRP/Dati_output/euristico_post.xlsx
+++ b/PS-VRP/Dati_output/euristico_post.xlsx
@@ -515,41 +515,41 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>251547</v>
+        <v>251651</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>BIMEC 4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="D2" t="n">
-        <v>184.9154929577465</v>
+        <v>767.7049180327868</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2025-05-08 07:00:00</t>
+          <t>2025-05-09 07:00:00</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2025-05-08 07:34:00</t>
+          <t>2025-05-09 07:29:00</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2025-05-08 07:34:00</t>
+          <t>2025-05-09 07:29:00</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2025-05-08 10:38:54</t>
+          <t>2025-05-12 12:16:42</t>
         </is>
       </c>
       <c r="I2" t="n">
-        <v>13129</v>
+        <v>46830</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
@@ -558,75 +558,73 @@
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M2" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="N2" t="n">
-        <v>39749</v>
-      </c>
-      <c r="O2" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>39755</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>39749</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>2025-05-06 00:00:00</t>
+          <t>2025-05-12 00:00:00</t>
         </is>
       </c>
       <c r="R2" s="1" t="n">
-        <v>-1.443691314548611</v>
+        <v>0</v>
       </c>
       <c r="S2" s="1" t="n">
-        <v>-1.443691314548611</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>250759</v>
+        <v>251742</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>30</v>
       </c>
       <c r="D3" t="n">
-        <v>118.2816901408451</v>
+        <v>134.8524590163935</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2025-05-08 10:38:54</t>
+          <t>2025-05-08 07:00:00</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2025-05-08 11:08:54</t>
+          <t>2025-05-08 07:30:00</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>2025-05-08 11:08:54</t>
+          <t>2025-05-08 07:30:00</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2025-05-08 13:07:11</t>
+          <t>2025-05-08 09:44:51</t>
         </is>
       </c>
       <c r="I3" t="n">
-        <v>8398</v>
+        <v>8226</v>
       </c>
       <c r="J3" t="inlineStr">
         <is>
@@ -635,17 +633,17 @@
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L3" t="n">
         <v>4</v>
       </c>
       <c r="M3" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="N3" t="n">
-        <v>39747</v>
+        <v>39749</v>
       </c>
       <c r="O3" t="inlineStr">
         <is>
@@ -653,57 +651,57 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>39747</v>
+        <v>39749</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>2025-03-13 00:00:00</t>
+          <t>2025-05-15 00:00:00</t>
         </is>
       </c>
       <c r="R3" s="1" t="n">
-        <v>-0.5466647104861111</v>
+        <v>-1.406147540983796</v>
       </c>
       <c r="S3" s="1" t="n">
-        <v>-0.5466647104861111</v>
+        <v>-1.406147540983796</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>250894</v>
+        <v>251840</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="D4" t="n">
-        <v>623.4084507042254</v>
+        <v>93.67213114754098</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2025-05-08 13:07:11</t>
+          <t>2025-05-08 09:44:51</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2025-05-08 13:24:11</t>
+          <t>2025-05-08 10:09:51</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>2025-05-08 13:24:11</t>
+          <t>2025-05-08 10:09:51</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>2025-05-12 07:47:36</t>
+          <t>2025-05-08 11:43:31</t>
         </is>
       </c>
       <c r="I4" t="n">
-        <v>44262</v>
+        <v>5714</v>
       </c>
       <c r="J4" t="inlineStr">
         <is>
@@ -712,73 +710,75 @@
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L4" t="n">
         <v>5</v>
       </c>
       <c r="M4" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="N4" t="n">
-        <v>39755</v>
-      </c>
-      <c r="O4" t="n">
-        <v>0</v>
+        <v>39758</v>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>39758</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>2025-05-05 00:00:00</t>
+          <t>2025-05-09 00:00:00</t>
         </is>
       </c>
       <c r="R4" s="1" t="n">
-        <v>0</v>
+        <v>-0.4885587431712963</v>
       </c>
       <c r="S4" s="1" t="n">
-        <v>0</v>
+        <v>-0.4885587431712963</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>251416</v>
+        <v>251229</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="D5" t="n">
-        <v>158.056338028169</v>
+        <v>307.1967213114754</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2025-05-12 07:47:36</t>
+          <t>2025-05-08 11:43:31</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2025-05-12 08:23:36</t>
+          <t>2025-05-08 12:08:31</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>2025-05-12 08:23:36</t>
+          <t>2025-05-08 12:08:31</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>2025-05-12 11:01:39</t>
+          <t>2025-05-09 09:15:43</t>
         </is>
       </c>
       <c r="I5" t="n">
-        <v>11222</v>
+        <v>18739</v>
       </c>
       <c r="J5" t="inlineStr">
         <is>
@@ -787,27 +787,31 @@
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R9</t>
         </is>
       </c>
       <c r="L5" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="M5" t="n">
         <v>70</v>
       </c>
-      <c r="N5" t="n">
-        <v>39755</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0</v>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>39723 (esterno)</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>39723</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>2025-04-23 00:00:00</t>
+          <t>2025-05-15 00:00:00</t>
         </is>
       </c>
       <c r="R5" s="1" t="n">
@@ -819,41 +823,41 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>251742</v>
+        <v>251225</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="D6" t="n">
-        <v>134.8524590163935</v>
+        <v>0</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2025-05-08 07:00:00</t>
+          <t>2025-05-08 12:00:00</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2025-05-08 07:30:00</t>
+          <t>2025-05-08 12:19:00</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>2025-05-08 07:30:00</t>
+          <t>2025-05-08 12:19:00</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>2025-05-08 09:44:51</t>
+          <t>2025-05-08 12:19:00</t>
         </is>
       </c>
       <c r="I6" t="n">
-        <v>8226</v>
+        <v>0</v>
       </c>
       <c r="J6" t="inlineStr">
         <is>
@@ -862,17 +866,17 @@
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L6" t="n">
         <v>4</v>
       </c>
       <c r="M6" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="N6" t="n">
-        <v>39749</v>
+        <v>39747</v>
       </c>
       <c r="O6" t="inlineStr">
         <is>
@@ -880,57 +884,57 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>39749</v>
+        <v>39747</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>2025-05-15 00:00:00</t>
+          <t>2025-04-30 00:00:00</t>
         </is>
       </c>
       <c r="R6" s="1" t="n">
-        <v>-1.406147540983796</v>
+        <v>-0.5131944444444444</v>
       </c>
       <c r="S6" s="1" t="n">
-        <v>-1.406147540983796</v>
+        <v>-0.5131944444444444</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>251840</v>
+        <v>251227</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="D7" t="n">
-        <v>93.67213114754098</v>
+        <v>0</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>2025-05-08 09:44:51</t>
+          <t>2025-05-08 12:19:00</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2025-05-08 10:09:51</t>
+          <t>2025-05-08 12:34:00</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>2025-05-08 10:09:51</t>
+          <t>2025-05-08 12:34:00</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>2025-05-08 11:43:31</t>
+          <t>2025-05-08 12:34:00</t>
         </is>
       </c>
       <c r="I7" t="n">
-        <v>5714</v>
+        <v>0</v>
       </c>
       <c r="J7" t="inlineStr">
         <is>
@@ -939,17 +943,17 @@
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L7" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M7" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="N7" t="n">
-        <v>39758</v>
+        <v>39746</v>
       </c>
       <c r="O7" t="inlineStr">
         <is>
@@ -957,57 +961,57 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>39758</v>
+        <v>39746</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>2025-05-09 00:00:00</t>
+          <t>2025-05-05 00:00:00</t>
         </is>
       </c>
       <c r="R7" s="1" t="n">
-        <v>-0.4885587431712963</v>
+        <v>-2.523611111111111</v>
       </c>
       <c r="S7" s="1" t="n">
-        <v>-0.4885587431712963</v>
+        <v>-2.523611111111111</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>251229</v>
+        <v>251782</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="D8" t="n">
-        <v>307.1967213114754</v>
+        <v>170.0422535211268</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>2025-05-08 11:43:31</t>
+          <t>2025-05-08 12:34:00</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2025-05-08 12:08:31</t>
+          <t>2025-05-08 12:51:00</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>2025-05-08 12:08:31</t>
+          <t>2025-05-08 12:51:00</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>2025-05-09 09:15:43</t>
+          <t>2025-05-09 07:41:02</t>
         </is>
       </c>
       <c r="I8" t="n">
-        <v>18739</v>
+        <v>12073</v>
       </c>
       <c r="J8" t="inlineStr">
         <is>
@@ -1016,19 +1020,17 @@
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L8" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="M8" t="n">
-        <v>70</v>
-      </c>
-      <c r="N8" t="inlineStr">
-        <is>
-          <t>39723 (esterno)</t>
-        </is>
+        <v>76</v>
+      </c>
+      <c r="N8" t="n">
+        <v>39754</v>
       </c>
       <c r="O8" t="inlineStr">
         <is>
@@ -1036,53 +1038,53 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>39723</v>
+        <v>39754</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>2025-05-15 00:00:00</t>
+          <t>2025-05-16 00:00:00</t>
         </is>
       </c>
       <c r="R8" s="1" t="n">
-        <v>0</v>
+        <v>-0.3201682316087963</v>
       </c>
       <c r="S8" s="1" t="n">
-        <v>0</v>
+        <v>-0.3201682316087963</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>251225</v>
+        <v>251050</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>19</v>
+        <v>217</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>2025-05-08 12:00:00</t>
+          <t>2025-05-09 07:00:00</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>2025-05-08 12:19:00</t>
+          <t>2025-05-09 10:37:00</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>2025-05-08 12:19:00</t>
+          <t>2025-05-09 10:37:00</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>2025-05-08 12:19:00</t>
+          <t>2025-05-09 10:37:00</t>
         </is>
       </c>
       <c r="I9" t="n">
@@ -1095,14 +1097,14 @@
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="L9" t="n">
-        <v>4</v>
+        <v>38</v>
       </c>
       <c r="M9" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="N9" t="n">
         <v>39747</v>
@@ -1117,49 +1119,49 @@
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>2025-04-30 00:00:00</t>
+          <t>2025-04-16 00:00:00</t>
         </is>
       </c>
       <c r="R9" s="1" t="n">
-        <v>-0.5131944444444444</v>
+        <v>-1.442361111111111</v>
       </c>
       <c r="S9" s="1" t="n">
-        <v>-0.5131944444444444</v>
+        <v>-1.442361111111111</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>251227</v>
+        <v>251054</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>2025-05-08 12:19:00</t>
+          <t>2025-05-09 10:37:00</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>2025-05-08 12:34:00</t>
+          <t>2025-05-09 11:12:00</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>2025-05-08 12:34:00</t>
+          <t>2025-05-09 11:12:00</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>2025-05-08 12:34:00</t>
+          <t>2025-05-09 11:12:00</t>
         </is>
       </c>
       <c r="I10" t="n">
@@ -1172,17 +1174,17 @@
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="L10" t="n">
-        <v>4</v>
+        <v>38</v>
       </c>
       <c r="M10" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="N10" t="n">
-        <v>39746</v>
+        <v>39747</v>
       </c>
       <c r="O10" t="inlineStr">
         <is>
@@ -1190,57 +1192,57 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>39746</v>
+        <v>39747</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>2025-05-05 00:00:00</t>
+          <t>2025-04-16 00:00:00</t>
         </is>
       </c>
       <c r="R10" s="1" t="n">
-        <v>-2.523611111111111</v>
+        <v>-1.466666666666667</v>
       </c>
       <c r="S10" s="1" t="n">
-        <v>-2.523611111111111</v>
+        <v>-1.466666666666667</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>251782</v>
+        <v>251081</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>17</v>
+        <v>125</v>
       </c>
       <c r="D11" t="n">
-        <v>170.0422535211268</v>
+        <v>42.42253521126761</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>2025-05-08 12:34:00</t>
+          <t>2025-05-09 11:12:00</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>2025-05-08 12:51:00</t>
+          <t>2025-05-09 13:17:00</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>2025-05-08 12:51:00</t>
+          <t>2025-05-09 13:17:00</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>2025-05-09 07:41:02</t>
+          <t>2025-05-09 13:59:25</t>
         </is>
       </c>
       <c r="I11" t="n">
-        <v>12073</v>
+        <v>3012</v>
       </c>
       <c r="J11" t="inlineStr">
         <is>
@@ -1249,17 +1251,19 @@
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R6 ;R9</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="L11" t="n">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="M11" t="n">
-        <v>76</v>
-      </c>
-      <c r="N11" t="n">
-        <v>39754</v>
+        <v>70</v>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>39750 (esterno)</t>
+        </is>
       </c>
       <c r="O11" t="inlineStr">
         <is>
@@ -1267,57 +1271,57 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>39754</v>
+        <v>39750</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>2025-05-16 00:00:00</t>
+          <t>2025-04-23 00:00:00</t>
         </is>
       </c>
       <c r="R11" s="1" t="n">
-        <v>-0.3201682316087963</v>
+        <v>-16.58293231612268</v>
       </c>
       <c r="S11" s="1" t="n">
-        <v>-0.3201682316087963</v>
+        <v>-16.58293231612268</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>251164</v>
+        <v>251284</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>R3</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>55</v>
+        <v>40.5</v>
       </c>
       <c r="D12" t="n">
-        <v>204.0816326530612</v>
+        <v>297.0909090909091</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>2025-05-08 07:00:00</t>
+          <t>2025-05-09 07:00:00</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>2025-05-08 07:55:00</t>
+          <t>2025-05-09 07:40:30</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>2025-05-08 07:55:00</t>
+          <t>2025-05-09 07:40:30</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>2025-05-08 11:19:04</t>
+          <t>2025-05-09 12:37:35</t>
         </is>
       </c>
       <c r="I12" t="n">
-        <v>10000</v>
+        <v>16340</v>
       </c>
       <c r="J12" t="inlineStr">
         <is>
@@ -1326,17 +1330,17 @@
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>CASON ;R6</t>
         </is>
       </c>
       <c r="L12" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="M12" t="n">
         <v>70</v>
       </c>
       <c r="N12" t="n">
-        <v>39749</v>
+        <v>39747</v>
       </c>
       <c r="O12" t="inlineStr">
         <is>
@@ -1344,57 +1348,57 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>39749</v>
+        <v>39747</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>2025-04-22 00:00:00</t>
+          <t>2025-05-12 00:00:00</t>
         </is>
       </c>
       <c r="R12" s="1" t="n">
-        <v>-1.471584467118056</v>
+        <v>-1.526104797974537</v>
       </c>
       <c r="S12" s="1" t="n">
-        <v>-1.471584467118056</v>
+        <v>-1.526104797974537</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>251456</v>
+        <v>251547</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>R3</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="D13" t="n">
-        <v>183.6530612244898</v>
+        <v>184.9154929577465</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>2025-05-08 11:19:04</t>
+          <t>2025-05-08 07:00:00</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>2025-05-08 12:09:04</t>
+          <t>2025-05-08 07:34:00</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>2025-05-08 12:09:04</t>
+          <t>2025-05-08 07:34:00</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>2025-05-09 07:12:44</t>
+          <t>2025-05-08 10:38:54</t>
         </is>
       </c>
       <c r="I13" t="n">
-        <v>8999</v>
+        <v>13129</v>
       </c>
       <c r="J13" t="inlineStr">
         <is>
@@ -1407,13 +1411,13 @@
         </is>
       </c>
       <c r="L13" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M13" t="n">
         <v>70</v>
       </c>
       <c r="N13" t="n">
-        <v>39746</v>
+        <v>39749</v>
       </c>
       <c r="O13" t="inlineStr">
         <is>
@@ -1421,57 +1425,57 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>39746</v>
+        <v>39749</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>2025-05-09 00:00:00</t>
+          <t>2025-05-06 00:00:00</t>
         </is>
       </c>
       <c r="R13" s="1" t="n">
-        <v>-3.300510204085648</v>
+        <v>-1.443691314548611</v>
       </c>
       <c r="S13" s="1" t="n">
-        <v>-3.300510204085648</v>
+        <v>-1.443691314548611</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>251651</v>
+        <v>250759</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D14" t="n">
-        <v>767.7049180327868</v>
+        <v>118.2816901408451</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>2025-05-09 07:00:00</t>
+          <t>2025-05-08 10:38:54</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>2025-05-09 07:29:00</t>
+          <t>2025-05-08 11:08:54</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>2025-05-09 07:29:00</t>
+          <t>2025-05-08 11:08:54</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>2025-05-12 12:16:42</t>
+          <t>2025-05-08 13:07:11</t>
         </is>
       </c>
       <c r="I14" t="n">
-        <v>46830</v>
+        <v>8398</v>
       </c>
       <c r="J14" t="inlineStr">
         <is>
@@ -1480,73 +1484,75 @@
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12</t>
         </is>
       </c>
       <c r="L14" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M14" t="n">
         <v>76</v>
       </c>
       <c r="N14" t="n">
-        <v>39755</v>
-      </c>
-      <c r="O14" t="n">
-        <v>0</v>
+        <v>39747</v>
+      </c>
+      <c r="O14" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>39747</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>2025-05-12 00:00:00</t>
+          <t>2025-03-13 00:00:00</t>
         </is>
       </c>
       <c r="R14" s="1" t="n">
-        <v>0</v>
+        <v>-0.5466647104861111</v>
       </c>
       <c r="S14" s="1" t="n">
-        <v>0</v>
+        <v>-0.5466647104861111</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>251455</v>
+        <v>250894</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D15" t="n">
-        <v>82.765625</v>
+        <v>623.4084507042254</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>2025-05-07 07:00:00</t>
+          <t>2025-05-08 13:07:11</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>2025-05-07 07:19:00</t>
+          <t>2025-05-08 13:24:11</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>2025-05-07 07:19:00</t>
+          <t>2025-05-08 13:24:11</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>2025-05-07 08:41:45</t>
+          <t>2025-05-12 07:47:36</t>
         </is>
       </c>
       <c r="I15" t="n">
-        <v>5297</v>
+        <v>44262</v>
       </c>
       <c r="J15" t="inlineStr">
         <is>
@@ -1555,75 +1561,73 @@
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L15" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M15" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="N15" t="n">
-        <v>39749</v>
-      </c>
-      <c r="O15" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>39755</v>
+      </c>
+      <c r="O15" t="n">
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>39749</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>2025-04-15 00:00:00</t>
+          <t>2025-05-05 00:00:00</t>
         </is>
       </c>
       <c r="R15" s="1" t="n">
-        <v>-0.3623372395833334</v>
+        <v>0</v>
       </c>
       <c r="S15" s="1" t="n">
-        <v>-0.3623372395833334</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>251391</v>
+        <v>251416</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="D16" t="n">
-        <v>91.640625</v>
+        <v>158.056338028169</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>2025-05-07 08:41:45</t>
+          <t>2025-05-12 07:47:36</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>2025-05-07 08:58:45</t>
+          <t>2025-05-12 08:23:36</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>2025-05-07 08:58:45</t>
+          <t>2025-05-12 08:23:36</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>2025-05-07 10:30:24</t>
+          <t>2025-05-12 11:01:39</t>
         </is>
       </c>
       <c r="I16" t="n">
-        <v>5865</v>
+        <v>11222</v>
       </c>
       <c r="J16" t="inlineStr">
         <is>
@@ -1636,21 +1640,19 @@
         </is>
       </c>
       <c r="L16" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="M16" t="n">
         <v>70</v>
       </c>
       <c r="N16" t="n">
-        <v>39749</v>
-      </c>
-      <c r="O16" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>39755</v>
+      </c>
+      <c r="O16" t="n">
+        <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>39749</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
@@ -1658,15 +1660,15 @@
         </is>
       </c>
       <c r="R16" s="1" t="n">
-        <v>-0.4377821180555556</v>
+        <v>0</v>
       </c>
       <c r="S16" s="1" t="n">
-        <v>-0.4377821180555556</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>251395</v>
+        <v>251455</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
@@ -1674,33 +1676,33 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D17" t="n">
-        <v>35.34375</v>
+        <v>82.765625</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>2025-05-07 10:30:24</t>
+          <t>2025-05-07 07:00:00</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>2025-05-07 10:47:24</t>
+          <t>2025-05-07 07:19:00</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>2025-05-07 10:47:24</t>
+          <t>2025-05-07 07:19:00</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>2025-05-07 11:22:45</t>
+          <t>2025-05-07 08:41:45</t>
         </is>
       </c>
       <c r="I17" t="n">
-        <v>2262</v>
+        <v>5297</v>
       </c>
       <c r="J17" t="inlineStr">
         <is>
@@ -1713,7 +1715,7 @@
         </is>
       </c>
       <c r="L17" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M17" t="n">
         <v>70</v>
@@ -1731,19 +1733,19 @@
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>2025-04-23 00:00:00</t>
+          <t>2025-04-15 00:00:00</t>
         </is>
       </c>
       <c r="R17" s="1" t="n">
-        <v>-0.4741319444444445</v>
+        <v>-0.3623372395833334</v>
       </c>
       <c r="S17" s="1" t="n">
-        <v>-0.4741319444444445</v>
+        <v>-0.3623372395833334</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>251371</v>
+        <v>251391</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
@@ -1751,33 +1753,33 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>91.640625</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>2025-05-07 11:22:45</t>
+          <t>2025-05-07 08:41:45</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>2025-05-07 11:41:45</t>
+          <t>2025-05-07 08:58:45</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>2025-05-07 11:41:45</t>
+          <t>2025-05-07 08:58:45</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>2025-05-07 11:41:45</t>
+          <t>2025-05-07 10:30:24</t>
         </is>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>5865</v>
       </c>
       <c r="J18" t="inlineStr">
         <is>
@@ -1790,15 +1792,13 @@
         </is>
       </c>
       <c r="L18" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M18" t="n">
         <v>70</v>
       </c>
-      <c r="N18" t="inlineStr">
-        <is>
-          <t>39666 (esterno)</t>
-        </is>
+      <c r="N18" t="n">
+        <v>39749</v>
       </c>
       <c r="O18" t="inlineStr">
         <is>
@@ -1806,23 +1806,23 @@
         </is>
       </c>
       <c r="P18" t="n">
-        <v>39666</v>
+        <v>39749</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>2025-04-24 00:00:00</t>
+          <t>2025-04-23 00:00:00</t>
         </is>
       </c>
       <c r="R18" s="1" t="n">
-        <v>-13.48732638888889</v>
+        <v>-0.4377821180555556</v>
       </c>
       <c r="S18" s="1" t="n">
-        <v>-13.48732638888889</v>
+        <v>-0.4377821180555556</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>251396</v>
+        <v>251395</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
@@ -1830,29 +1830,29 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D19" t="n">
         <v>35.34375</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>2025-05-07 11:41:45</t>
+          <t>2025-05-07 10:30:24</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>2025-05-07 12:00:45</t>
+          <t>2025-05-07 10:47:24</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>2025-05-07 12:00:45</t>
+          <t>2025-05-07 10:47:24</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>2025-05-07 12:36:05</t>
+          <t>2025-05-07 11:22:45</t>
         </is>
       </c>
       <c r="I19" t="n">
@@ -1887,19 +1887,19 @@
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>2025-05-02 00:00:00</t>
+          <t>2025-04-23 00:00:00</t>
         </is>
       </c>
       <c r="R19" s="1" t="n">
-        <v>-0.5250651041666666</v>
+        <v>-0.4741319444444445</v>
       </c>
       <c r="S19" s="1" t="n">
-        <v>-0.5250651041666666</v>
+        <v>-0.4741319444444445</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>251548</v>
+        <v>251371</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
@@ -1910,30 +1910,30 @@
         <v>19</v>
       </c>
       <c r="D20" t="n">
-        <v>206.90625</v>
+        <v>0</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>2025-05-07 12:36:05</t>
+          <t>2025-05-07 11:22:45</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>2025-05-07 12:55:05</t>
+          <t>2025-05-07 11:41:45</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>2025-05-07 12:55:05</t>
+          <t>2025-05-07 11:41:45</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>2025-05-08 08:22:00</t>
+          <t>2025-05-07 11:41:45</t>
         </is>
       </c>
       <c r="I20" t="n">
-        <v>13242</v>
+        <v>0</v>
       </c>
       <c r="J20" t="inlineStr">
         <is>
@@ -1951,8 +1951,10 @@
       <c r="M20" t="n">
         <v>70</v>
       </c>
-      <c r="N20" t="n">
-        <v>39749</v>
+      <c r="N20" t="inlineStr">
+        <is>
+          <t>39666 (esterno)</t>
+        </is>
       </c>
       <c r="O20" t="inlineStr">
         <is>
@@ -1960,23 +1962,23 @@
         </is>
       </c>
       <c r="P20" t="n">
-        <v>39749</v>
+        <v>39666</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>2025-05-06 00:00:00</t>
+          <t>2025-04-24 00:00:00</t>
         </is>
       </c>
       <c r="R20" s="1" t="n">
-        <v>-1.348611111111111</v>
+        <v>-13.48732638888889</v>
       </c>
       <c r="S20" s="1" t="n">
-        <v>-1.348611111111111</v>
+        <v>-13.48732638888889</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>250923</v>
+        <v>251396</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
@@ -1984,33 +1986,33 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="D21" t="n">
-        <v>109.46875</v>
+        <v>35.34375</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>2025-05-08 08:22:00</t>
+          <t>2025-05-07 11:41:45</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>2025-05-08 08:54:00</t>
+          <t>2025-05-07 12:00:45</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>2025-05-08 08:54:00</t>
+          <t>2025-05-07 12:00:45</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>2025-05-08 10:43:28</t>
+          <t>2025-05-07 12:36:05</t>
         </is>
       </c>
       <c r="I21" t="n">
-        <v>7006</v>
+        <v>2262</v>
       </c>
       <c r="J21" t="inlineStr">
         <is>
@@ -2019,14 +2021,14 @@
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L21" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M21" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="N21" t="n">
         <v>39749</v>
@@ -2041,19 +2043,19 @@
       </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>2025-04-07 00:00:00</t>
+          <t>2025-05-02 00:00:00</t>
         </is>
       </c>
       <c r="R21" s="1" t="n">
-        <v>-1.446853298611111</v>
+        <v>-0.5250651041666666</v>
       </c>
       <c r="S21" s="1" t="n">
-        <v>-1.446853298611111</v>
+        <v>-0.5250651041666666</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>251477</v>
+        <v>251548</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
@@ -2064,30 +2066,30 @@
         <v>19</v>
       </c>
       <c r="D22" t="n">
-        <v>468.734375</v>
+        <v>206.90625</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>2025-05-08 10:43:28</t>
+          <t>2025-05-07 12:36:05</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>2025-05-08 11:02:28</t>
+          <t>2025-05-07 12:55:05</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>2025-05-08 11:02:28</t>
+          <t>2025-05-07 12:55:05</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>2025-05-09 10:51:12</t>
+          <t>2025-05-08 08:22:00</t>
         </is>
       </c>
       <c r="I22" t="n">
-        <v>29999</v>
+        <v>13242</v>
       </c>
       <c r="J22" t="inlineStr">
         <is>
@@ -2096,17 +2098,17 @@
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L22" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M22" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="N22" t="n">
-        <v>39760</v>
+        <v>39749</v>
       </c>
       <c r="O22" t="inlineStr">
         <is>
@@ -2114,78 +2116,76 @@
         </is>
       </c>
       <c r="P22" t="n">
-        <v>39760</v>
+        <v>39749</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>2025-04-28 00:00:00</t>
+          <t>2025-05-06 00:00:00</t>
         </is>
       </c>
       <c r="R22" s="1" t="n">
-        <v>-2.452224392361111</v>
+        <v>-1.348611111111111</v>
       </c>
       <c r="S22" s="1" t="n">
-        <v>-2.452224392361111</v>
+        <v>-1.348611111111111</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>251706</v>
+        <v>250923</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>T3</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="D23" t="n">
-        <v>50.79365079365079</v>
+        <v>109.46875</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>2025-05-12 07:00:00</t>
+          <t>2025-05-08 08:22:00</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>2025-05-12 07:00:00</t>
+          <t>2025-05-08 08:54:00</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>2025-05-12 07:00:00</t>
+          <t>2025-05-08 08:54:00</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>2025-05-12 07:50:47</t>
+          <t>2025-05-08 10:43:28</t>
         </is>
       </c>
       <c r="I23" t="n">
-        <v>3200</v>
+        <v>7006</v>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>foglio</t>
+          <t>bobina</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>T3</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
-      </c>
-      <c r="N23" t="inlineStr">
-        <is>
-          <t>39764 (esterno)</t>
-        </is>
+        <v>76</v>
+      </c>
+      <c r="N23" t="n">
+        <v>39749</v>
       </c>
       <c r="O23" t="inlineStr">
         <is>
@@ -2193,57 +2193,57 @@
         </is>
       </c>
       <c r="P23" t="n">
-        <v>39764</v>
+        <v>39749</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>2025-05-14 00:00:00</t>
+          <t>2025-04-07 00:00:00</t>
         </is>
       </c>
       <c r="R23" s="1" t="n">
-        <v>0</v>
+        <v>-1.446853298611111</v>
       </c>
       <c r="S23" s="1" t="n">
-        <v>0</v>
+        <v>-1.446853298611111</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>251050</v>
+        <v>251477</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>217</v>
+        <v>19</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>468.734375</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>2025-05-09 07:00:00</t>
+          <t>2025-05-08 10:43:28</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>2025-05-09 10:37:00</t>
+          <t>2025-05-08 11:02:28</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>2025-05-09 10:37:00</t>
+          <t>2025-05-08 11:02:28</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>2025-05-09 10:37:00</t>
+          <t>2025-05-09 10:51:12</t>
         </is>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>29999</v>
       </c>
       <c r="J24" t="inlineStr">
         <is>
@@ -2252,17 +2252,17 @@
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L24" t="n">
-        <v>38</v>
+        <v>3</v>
       </c>
       <c r="M24" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="N24" t="n">
-        <v>39747</v>
+        <v>39760</v>
       </c>
       <c r="O24" t="inlineStr">
         <is>
@@ -2270,76 +2270,78 @@
         </is>
       </c>
       <c r="P24" t="n">
-        <v>39747</v>
+        <v>39760</v>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>2025-04-16 00:00:00</t>
+          <t>2025-04-28 00:00:00</t>
         </is>
       </c>
       <c r="R24" s="1" t="n">
-        <v>-1.442361111111111</v>
+        <v>-2.452224392361111</v>
       </c>
       <c r="S24" s="1" t="n">
-        <v>-1.442361111111111</v>
+        <v>-2.452224392361111</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>251054</v>
+        <v>251706</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>T3</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>50.79365079365079</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>2025-05-09 10:37:00</t>
+          <t>2025-05-12 07:00:00</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>2025-05-09 11:12:00</t>
+          <t>2025-05-12 07:00:00</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>2025-05-09 11:12:00</t>
+          <t>2025-05-12 07:00:00</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>2025-05-09 11:12:00</t>
+          <t>2025-05-12 07:50:47</t>
         </is>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>3200</v>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>bobina</t>
+          <t>foglio</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>T3</t>
         </is>
       </c>
       <c r="L25" t="n">
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="M25" t="n">
-        <v>70</v>
-      </c>
-      <c r="N25" t="n">
-        <v>39747</v>
+        <v>0</v>
+      </c>
+      <c r="N25" t="inlineStr">
+        <is>
+          <t>39764 (esterno)</t>
+        </is>
       </c>
       <c r="O25" t="inlineStr">
         <is>
@@ -2347,57 +2349,57 @@
         </is>
       </c>
       <c r="P25" t="n">
-        <v>39747</v>
+        <v>39764</v>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>2025-04-16 00:00:00</t>
+          <t>2025-05-14 00:00:00</t>
         </is>
       </c>
       <c r="R25" s="1" t="n">
-        <v>-1.466666666666667</v>
+        <v>0</v>
       </c>
       <c r="S25" s="1" t="n">
-        <v>-1.466666666666667</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>251081</v>
+        <v>251164</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>R3</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>125</v>
+        <v>55</v>
       </c>
       <c r="D26" t="n">
-        <v>42.42253521126761</v>
+        <v>204.0816326530612</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>2025-05-09 11:12:00</t>
+          <t>2025-05-08 07:00:00</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>2025-05-09 13:17:00</t>
+          <t>2025-05-08 07:55:00</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>2025-05-09 13:17:00</t>
+          <t>2025-05-08 07:55:00</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>2025-05-09 13:59:25</t>
+          <t>2025-05-08 11:19:04</t>
         </is>
       </c>
       <c r="I26" t="n">
-        <v>3012</v>
+        <v>10000</v>
       </c>
       <c r="J26" t="inlineStr">
         <is>
@@ -2406,19 +2408,17 @@
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L26" t="n">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="M26" t="n">
         <v>70</v>
       </c>
-      <c r="N26" t="inlineStr">
-        <is>
-          <t>39750 (esterno)</t>
-        </is>
+      <c r="N26" t="n">
+        <v>39749</v>
       </c>
       <c r="O26" t="inlineStr">
         <is>
@@ -2426,57 +2426,57 @@
         </is>
       </c>
       <c r="P26" t="n">
-        <v>39750</v>
+        <v>39749</v>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
-          <t>2025-04-23 00:00:00</t>
+          <t>2025-04-22 00:00:00</t>
         </is>
       </c>
       <c r="R26" s="1" t="n">
-        <v>-16.58293231612268</v>
+        <v>-1.471584467118056</v>
       </c>
       <c r="S26" s="1" t="n">
-        <v>-16.58293231612268</v>
+        <v>-1.471584467118056</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>251284</v>
+        <v>251456</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>R3</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>40.5</v>
+        <v>50</v>
       </c>
       <c r="D27" t="n">
-        <v>297.0909090909091</v>
+        <v>183.6530612244898</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>2025-05-09 07:00:00</t>
+          <t>2025-05-08 11:19:04</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>2025-05-09 07:40:30</t>
+          <t>2025-05-08 12:09:04</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>2025-05-09 07:40:30</t>
+          <t>2025-05-08 12:09:04</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>2025-05-09 12:37:35</t>
+          <t>2025-05-09 07:12:44</t>
         </is>
       </c>
       <c r="I27" t="n">
-        <v>16340</v>
+        <v>8999</v>
       </c>
       <c r="J27" t="inlineStr">
         <is>
@@ -2485,17 +2485,17 @@
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>CASON ;R6</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L27" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="M27" t="n">
         <v>70</v>
       </c>
       <c r="N27" t="n">
-        <v>39747</v>
+        <v>39746</v>
       </c>
       <c r="O27" t="inlineStr">
         <is>
@@ -2503,18 +2503,18 @@
         </is>
       </c>
       <c r="P27" t="n">
-        <v>39747</v>
+        <v>39746</v>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
-          <t>2025-05-12 00:00:00</t>
+          <t>2025-05-09 00:00:00</t>
         </is>
       </c>
       <c r="R27" s="1" t="n">
-        <v>-1.526104797974537</v>
+        <v>-3.300510204085648</v>
       </c>
       <c r="S27" s="1" t="n">
-        <v>-1.526104797974537</v>
+        <v>-3.300510204085648</v>
       </c>
     </row>
     <row r="28">

--- a/PS-VRP/Dati_output/euristico_post.xlsx
+++ b/PS-VRP/Dati_output/euristico_post.xlsx
@@ -416,7 +416,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S87"/>
+  <dimension ref="A1:T87"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -515,41 +515,41 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>251651</v>
+        <v>251840</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="D2" t="n">
-        <v>767.7049180327868</v>
+        <v>93.67213114754098</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2025-05-09 07:00:00</t>
+          <t>2025-05-08 07:00:00</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2025-05-09 07:29:00</t>
+          <t>2025-05-08 07:35:00</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2025-05-09 07:29:00</t>
+          <t>2025-05-08 07:35:00</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2025-05-12 12:16:42</t>
+          <t>2025-05-08 09:08:40</t>
         </is>
       </c>
       <c r="I2" t="n">
-        <v>46830</v>
+        <v>5714</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
@@ -558,39 +558,44 @@
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L2" t="n">
         <v>5</v>
       </c>
       <c r="M2" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="N2" t="n">
-        <v>39755</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
+        <v>39758</v>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>39758</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>2025-05-12 00:00:00</t>
+          <t>2025-05-09 00:00:00</t>
         </is>
       </c>
       <c r="R2" s="1" t="n">
-        <v>0</v>
+        <v>-0.4885587431712963</v>
       </c>
       <c r="S2" s="1" t="n">
-        <v>0</v>
+        <v>-0.3810223132986111</v>
+      </c>
+      <c r="T2" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>251742</v>
+        <v>251229</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -598,33 +603,33 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D3" t="n">
-        <v>134.8524590163935</v>
+        <v>307.1967213114754</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2025-05-08 07:00:00</t>
+          <t>2025-05-08 09:08:40</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2025-05-08 07:30:00</t>
+          <t>2025-05-08 09:33:40</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>2025-05-08 07:30:00</t>
+          <t>2025-05-08 09:33:40</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2025-05-08 09:44:51</t>
+          <t>2025-05-08 14:40:52</t>
         </is>
       </c>
       <c r="I3" t="n">
-        <v>8226</v>
+        <v>18739</v>
       </c>
       <c r="J3" t="inlineStr">
         <is>
@@ -633,17 +638,19 @@
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R9</t>
         </is>
       </c>
       <c r="L3" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M3" t="n">
         <v>70</v>
       </c>
-      <c r="N3" t="n">
-        <v>39749</v>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>39723 (esterno)</t>
+        </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
@@ -651,7 +658,7 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>39749</v>
+        <v>39723</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -659,15 +666,18 @@
         </is>
       </c>
       <c r="R3" s="1" t="n">
-        <v>-1.406147540983796</v>
+        <v>0</v>
       </c>
       <c r="S3" s="1" t="n">
-        <v>-1.406147540983796</v>
+        <v>0</v>
+      </c>
+      <c r="T3" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>251840</v>
+        <v>251742</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -675,33 +685,33 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D4" t="n">
-        <v>93.67213114754098</v>
+        <v>134.8524590163935</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2025-05-08 09:44:51</t>
+          <t>2025-05-08 14:40:52</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2025-05-08 10:09:51</t>
+          <t>2025-05-09 07:10:52</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>2025-05-08 10:09:51</t>
+          <t>2025-05-09 07:10:52</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>2025-05-08 11:43:31</t>
+          <t>2025-05-09 09:25:43</t>
         </is>
       </c>
       <c r="I4" t="n">
-        <v>5714</v>
+        <v>8226</v>
       </c>
       <c r="J4" t="inlineStr">
         <is>
@@ -714,13 +724,13 @@
         </is>
       </c>
       <c r="L4" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M4" t="n">
         <v>70</v>
       </c>
       <c r="N4" t="n">
-        <v>39758</v>
+        <v>39749</v>
       </c>
       <c r="O4" t="inlineStr">
         <is>
@@ -728,57 +738,60 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>39758</v>
+        <v>39749</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>2025-05-09 00:00:00</t>
+          <t>2025-05-15 00:00:00</t>
         </is>
       </c>
       <c r="R4" s="1" t="n">
-        <v>-0.4885587431712963</v>
+        <v>-2.392862021863426</v>
       </c>
       <c r="S4" s="1" t="n">
-        <v>-0.4885587431712963</v>
+        <v>-2.392862021863426</v>
+      </c>
+      <c r="T4" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>251229</v>
+        <v>251455</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="D5" t="n">
-        <v>307.1967213114754</v>
+        <v>82.765625</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2025-05-08 11:43:31</t>
+          <t>2025-05-07 07:00:00</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2025-05-08 12:08:31</t>
+          <t>2025-05-07 07:19:00</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>2025-05-08 12:08:31</t>
+          <t>2025-05-07 07:19:00</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>2025-05-09 09:15:43</t>
+          <t>2025-05-07 08:41:45</t>
         </is>
       </c>
       <c r="I5" t="n">
-        <v>18739</v>
+        <v>5297</v>
       </c>
       <c r="J5" t="inlineStr">
         <is>
@@ -787,19 +800,17 @@
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L5" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M5" t="n">
         <v>70</v>
       </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>39723 (esterno)</t>
-        </is>
+      <c r="N5" t="n">
+        <v>39749</v>
       </c>
       <c r="O5" t="inlineStr">
         <is>
@@ -807,57 +818,60 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>39723</v>
+        <v>39749</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>2025-05-15 00:00:00</t>
+          <t>2025-04-15 00:00:00</t>
         </is>
       </c>
       <c r="R5" s="1" t="n">
-        <v>0</v>
+        <v>-0.3623372395833334</v>
       </c>
       <c r="S5" s="1" t="n">
-        <v>0</v>
+        <v>-0.3623372395833334</v>
+      </c>
+      <c r="T5" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>251225</v>
+        <v>251391</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>91.640625</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2025-05-08 12:00:00</t>
+          <t>2025-05-07 08:41:45</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2025-05-08 12:19:00</t>
+          <t>2025-05-07 08:58:45</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>2025-05-08 12:19:00</t>
+          <t>2025-05-07 08:58:45</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>2025-05-08 12:19:00</t>
+          <t>2025-05-07 10:30:24</t>
         </is>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>5865</v>
       </c>
       <c r="J6" t="inlineStr">
         <is>
@@ -866,17 +880,17 @@
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L6" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M6" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="N6" t="n">
-        <v>39747</v>
+        <v>39749</v>
       </c>
       <c r="O6" t="inlineStr">
         <is>
@@ -884,57 +898,60 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>39747</v>
+        <v>39749</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>2025-04-30 00:00:00</t>
+          <t>2025-04-23 00:00:00</t>
         </is>
       </c>
       <c r="R6" s="1" t="n">
-        <v>-0.5131944444444444</v>
+        <v>-0.4377821180555556</v>
       </c>
       <c r="S6" s="1" t="n">
-        <v>-0.5131944444444444</v>
+        <v>-0.4377821180555556</v>
+      </c>
+      <c r="T6" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>251227</v>
+        <v>251395</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>35.34375</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>2025-05-08 12:19:00</t>
+          <t>2025-05-07 10:30:24</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2025-05-08 12:34:00</t>
+          <t>2025-05-07 10:47:24</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>2025-05-08 12:34:00</t>
+          <t>2025-05-07 10:47:24</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>2025-05-08 12:34:00</t>
+          <t>2025-05-07 11:22:45</t>
         </is>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>2262</v>
       </c>
       <c r="J7" t="inlineStr">
         <is>
@@ -943,17 +960,17 @@
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L7" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M7" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="N7" t="n">
-        <v>39746</v>
+        <v>39749</v>
       </c>
       <c r="O7" t="inlineStr">
         <is>
@@ -961,57 +978,60 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>39746</v>
+        <v>39749</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>2025-05-05 00:00:00</t>
+          <t>2025-04-23 00:00:00</t>
         </is>
       </c>
       <c r="R7" s="1" t="n">
-        <v>-2.523611111111111</v>
+        <v>-0.4741319444444445</v>
       </c>
       <c r="S7" s="1" t="n">
-        <v>-2.523611111111111</v>
+        <v>-0.4741319444444445</v>
+      </c>
+      <c r="T7" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>251782</v>
+        <v>251371</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D8" t="n">
-        <v>170.0422535211268</v>
+        <v>0</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>2025-05-08 12:34:00</t>
+          <t>2025-05-07 11:22:45</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2025-05-08 12:51:00</t>
+          <t>2025-05-07 11:41:45</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>2025-05-08 12:51:00</t>
+          <t>2025-05-07 11:41:45</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>2025-05-09 07:41:02</t>
+          <t>2025-05-07 11:41:45</t>
         </is>
       </c>
       <c r="I8" t="n">
-        <v>12073</v>
+        <v>0</v>
       </c>
       <c r="J8" t="inlineStr">
         <is>
@@ -1020,17 +1040,19 @@
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L8" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M8" t="n">
-        <v>76</v>
-      </c>
-      <c r="N8" t="n">
-        <v>39754</v>
+        <v>70</v>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>39666 (esterno)</t>
+        </is>
       </c>
       <c r="O8" t="inlineStr">
         <is>
@@ -1038,57 +1060,60 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>39754</v>
+        <v>39666</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>2025-05-16 00:00:00</t>
+          <t>2025-04-24 00:00:00</t>
         </is>
       </c>
       <c r="R8" s="1" t="n">
-        <v>-0.3201682316087963</v>
+        <v>-13.48732638888889</v>
       </c>
       <c r="S8" s="1" t="n">
-        <v>-0.3201682316087963</v>
+        <v>-13.48732638888889</v>
+      </c>
+      <c r="T8" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>251050</v>
+        <v>251396</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>217</v>
+        <v>19</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>35.34375</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>2025-05-09 07:00:00</t>
+          <t>2025-05-07 11:41:45</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>2025-05-09 10:37:00</t>
+          <t>2025-05-07 12:00:45</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>2025-05-09 10:37:00</t>
+          <t>2025-05-07 12:00:45</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>2025-05-09 10:37:00</t>
+          <t>2025-05-07 12:36:05</t>
         </is>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>2262</v>
       </c>
       <c r="J9" t="inlineStr">
         <is>
@@ -1097,17 +1122,17 @@
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L9" t="n">
-        <v>38</v>
+        <v>6</v>
       </c>
       <c r="M9" t="n">
         <v>70</v>
       </c>
       <c r="N9" t="n">
-        <v>39747</v>
+        <v>39749</v>
       </c>
       <c r="O9" t="inlineStr">
         <is>
@@ -1115,57 +1140,60 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>39747</v>
+        <v>39749</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>2025-04-16 00:00:00</t>
+          <t>2025-05-02 00:00:00</t>
         </is>
       </c>
       <c r="R9" s="1" t="n">
-        <v>-1.442361111111111</v>
+        <v>-0.5250651041666666</v>
       </c>
       <c r="S9" s="1" t="n">
-        <v>-1.442361111111111</v>
+        <v>-0.5250651041666666</v>
+      </c>
+      <c r="T9" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>251054</v>
+        <v>251548</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>206.90625</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>2025-05-09 10:37:00</t>
+          <t>2025-05-07 12:36:05</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>2025-05-09 11:12:00</t>
+          <t>2025-05-07 12:55:05</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>2025-05-09 11:12:00</t>
+          <t>2025-05-07 12:55:05</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>2025-05-09 11:12:00</t>
+          <t>2025-05-08 08:22:00</t>
         </is>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>13242</v>
       </c>
       <c r="J10" t="inlineStr">
         <is>
@@ -1174,17 +1202,17 @@
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L10" t="n">
-        <v>38</v>
+        <v>4</v>
       </c>
       <c r="M10" t="n">
         <v>70</v>
       </c>
       <c r="N10" t="n">
-        <v>39747</v>
+        <v>39749</v>
       </c>
       <c r="O10" t="inlineStr">
         <is>
@@ -1192,57 +1220,60 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>39747</v>
+        <v>39749</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>2025-04-16 00:00:00</t>
+          <t>2025-05-06 00:00:00</t>
         </is>
       </c>
       <c r="R10" s="1" t="n">
-        <v>-1.466666666666667</v>
+        <v>-1.348611111111111</v>
       </c>
       <c r="S10" s="1" t="n">
-        <v>-1.466666666666667</v>
+        <v>-1.348611111111111</v>
+      </c>
+      <c r="T10" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>251081</v>
+        <v>250923</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>125</v>
+        <v>32</v>
       </c>
       <c r="D11" t="n">
-        <v>42.42253521126761</v>
+        <v>109.46875</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>2025-05-09 11:12:00</t>
+          <t>2025-05-08 08:22:00</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>2025-05-09 13:17:00</t>
+          <t>2025-05-08 08:54:00</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>2025-05-09 13:17:00</t>
+          <t>2025-05-08 08:54:00</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>2025-05-09 13:59:25</t>
+          <t>2025-05-08 10:43:28</t>
         </is>
       </c>
       <c r="I11" t="n">
-        <v>3012</v>
+        <v>7006</v>
       </c>
       <c r="J11" t="inlineStr">
         <is>
@@ -1251,19 +1282,17 @@
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L11" t="n">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="M11" t="n">
-        <v>70</v>
-      </c>
-      <c r="N11" t="inlineStr">
-        <is>
-          <t>39750 (esterno)</t>
-        </is>
+        <v>76</v>
+      </c>
+      <c r="N11" t="n">
+        <v>39749</v>
       </c>
       <c r="O11" t="inlineStr">
         <is>
@@ -1271,57 +1300,60 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>39750</v>
+        <v>39749</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>2025-04-23 00:00:00</t>
+          <t>2025-04-07 00:00:00</t>
         </is>
       </c>
       <c r="R11" s="1" t="n">
-        <v>-16.58293231612268</v>
+        <v>-1.446853298611111</v>
       </c>
       <c r="S11" s="1" t="n">
-        <v>-16.58293231612268</v>
+        <v>-1.446853298611111</v>
+      </c>
+      <c r="T11" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>251284</v>
+        <v>251477</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>40.5</v>
+        <v>19</v>
       </c>
       <c r="D12" t="n">
-        <v>297.0909090909091</v>
+        <v>468.734375</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>2025-05-09 07:00:00</t>
+          <t>2025-05-08 10:43:28</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>2025-05-09 07:40:30</t>
+          <t>2025-05-08 11:02:28</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>2025-05-09 07:40:30</t>
+          <t>2025-05-08 11:02:28</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>2025-05-09 12:37:35</t>
+          <t>2025-05-09 10:51:12</t>
         </is>
       </c>
       <c r="I12" t="n">
-        <v>16340</v>
+        <v>29999</v>
       </c>
       <c r="J12" t="inlineStr">
         <is>
@@ -1330,17 +1362,17 @@
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>CASON ;R6</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L12" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="M12" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="N12" t="n">
-        <v>39747</v>
+        <v>39760</v>
       </c>
       <c r="O12" t="inlineStr">
         <is>
@@ -1348,57 +1380,60 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>39747</v>
+        <v>39760</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>2025-05-12 00:00:00</t>
+          <t>2025-04-28 00:00:00</t>
         </is>
       </c>
       <c r="R12" s="1" t="n">
-        <v>-1.526104797974537</v>
+        <v>-2.452224392361111</v>
       </c>
       <c r="S12" s="1" t="n">
-        <v>-1.526104797974537</v>
+        <v>-2.452224392361111</v>
+      </c>
+      <c r="T12" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>251547</v>
+        <v>251416</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D13" t="n">
-        <v>184.9154929577465</v>
+        <v>175.34375</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>2025-05-08 07:00:00</t>
+          <t>2025-05-09 10:51:12</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>2025-05-08 07:34:00</t>
+          <t>2025-05-09 11:23:12</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>2025-05-08 07:34:00</t>
+          <t>2025-05-09 11:23:12</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>2025-05-08 10:38:54</t>
+          <t>2025-05-09 14:18:32</t>
         </is>
       </c>
       <c r="I13" t="n">
-        <v>13129</v>
+        <v>11222</v>
       </c>
       <c r="J13" t="inlineStr">
         <is>
@@ -1411,71 +1446,72 @@
         </is>
       </c>
       <c r="L13" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M13" t="n">
         <v>70</v>
       </c>
       <c r="N13" t="n">
-        <v>39749</v>
-      </c>
-      <c r="O13" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>39755</v>
+      </c>
+      <c r="O13" t="n">
+        <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>39749</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>2025-05-06 00:00:00</t>
+          <t>2025-04-23 00:00:00</t>
         </is>
       </c>
       <c r="R13" s="1" t="n">
-        <v>-1.443691314548611</v>
+        <v>0</v>
       </c>
       <c r="S13" s="1" t="n">
-        <v>-1.443691314548611</v>
+        <v>0</v>
+      </c>
+      <c r="T13" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>250759</v>
+        <v>251081</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>30</v>
+        <v>127</v>
       </c>
       <c r="D14" t="n">
-        <v>118.2816901408451</v>
+        <v>42.42253521126761</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>2025-05-08 10:38:54</t>
+          <t>2025-05-09 07:00:00</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>2025-05-08 11:08:54</t>
+          <t>2025-05-09 09:07:00</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>2025-05-08 11:08:54</t>
+          <t>2025-05-09 09:07:00</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>2025-05-08 13:07:11</t>
+          <t>2025-05-09 09:49:25</t>
         </is>
       </c>
       <c r="I14" t="n">
-        <v>8398</v>
+        <v>3012</v>
       </c>
       <c r="J14" t="inlineStr">
         <is>
@@ -1484,17 +1520,19 @@
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="L14" t="n">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="M14" t="n">
-        <v>76</v>
-      </c>
-      <c r="N14" t="n">
-        <v>39747</v>
+        <v>70</v>
+      </c>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>39750 (esterno)</t>
+        </is>
       </c>
       <c r="O14" t="inlineStr">
         <is>
@@ -1502,57 +1540,60 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>39747</v>
+        <v>39750</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>2025-03-13 00:00:00</t>
+          <t>2025-04-23 00:00:00</t>
         </is>
       </c>
       <c r="R14" s="1" t="n">
-        <v>-0.5466647104861111</v>
+        <v>-16.58293231612268</v>
       </c>
       <c r="S14" s="1" t="n">
-        <v>-0.5466647104861111</v>
+        <v>-16.40932120501157</v>
+      </c>
+      <c r="T14" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>250894</v>
+        <v>251050</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>17</v>
+        <v>125</v>
       </c>
       <c r="D15" t="n">
-        <v>623.4084507042254</v>
+        <v>0</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>2025-05-08 13:07:11</t>
+          <t>2025-05-09 09:49:25</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>2025-05-08 13:24:11</t>
+          <t>2025-05-09 11:54:25</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>2025-05-08 13:24:11</t>
+          <t>2025-05-09 11:54:25</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>2025-05-12 07:47:36</t>
+          <t>2025-05-09 11:54:25</t>
         </is>
       </c>
       <c r="I15" t="n">
-        <v>44262</v>
+        <v>0</v>
       </c>
       <c r="J15" t="inlineStr">
         <is>
@@ -1561,73 +1602,78 @@
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="L15" t="n">
-        <v>5</v>
+        <v>38</v>
       </c>
       <c r="M15" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="N15" t="n">
-        <v>39755</v>
-      </c>
-      <c r="O15" t="n">
-        <v>0</v>
+        <v>39747</v>
+      </c>
+      <c r="O15" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>39747</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>2025-05-05 00:00:00</t>
+          <t>2025-04-16 00:00:00</t>
         </is>
       </c>
       <c r="R15" s="1" t="n">
-        <v>0</v>
+        <v>-1.49612676056713</v>
       </c>
       <c r="S15" s="1" t="n">
-        <v>0</v>
+        <v>-1.49612676056713</v>
+      </c>
+      <c r="T15" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>251416</v>
+        <v>251054</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D16" t="n">
-        <v>158.056338028169</v>
+        <v>0</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>2025-05-12 07:47:36</t>
+          <t>2025-05-09 11:54:25</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>2025-05-12 08:23:36</t>
+          <t>2025-05-09 12:29:25</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>2025-05-12 08:23:36</t>
+          <t>2025-05-09 12:29:25</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>2025-05-12 11:01:39</t>
+          <t>2025-05-09 12:29:25</t>
         </is>
       </c>
       <c r="I16" t="n">
-        <v>11222</v>
+        <v>0</v>
       </c>
       <c r="J16" t="inlineStr">
         <is>
@@ -1636,73 +1682,78 @@
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="L16" t="n">
-        <v>2</v>
+        <v>38</v>
       </c>
       <c r="M16" t="n">
         <v>70</v>
       </c>
       <c r="N16" t="n">
-        <v>39755</v>
-      </c>
-      <c r="O16" t="n">
-        <v>0</v>
+        <v>39747</v>
+      </c>
+      <c r="O16" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>39747</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>2025-04-23 00:00:00</t>
+          <t>2025-04-16 00:00:00</t>
         </is>
       </c>
       <c r="R16" s="1" t="n">
-        <v>0</v>
+        <v>-1.520432316122685</v>
       </c>
       <c r="S16" s="1" t="n">
-        <v>0</v>
+        <v>-1.520432316122685</v>
+      </c>
+      <c r="T16" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>251455</v>
+        <v>251651</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>BIMEC 4</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="D17" t="n">
-        <v>82.765625</v>
+        <v>767.7049180327868</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>2025-05-07 07:00:00</t>
+          <t>2025-05-09 07:00:00</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>2025-05-07 07:19:00</t>
+          <t>2025-05-09 07:29:00</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>2025-05-07 07:19:00</t>
+          <t>2025-05-09 07:29:00</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>2025-05-07 08:41:45</t>
+          <t>2025-05-12 12:16:42</t>
         </is>
       </c>
       <c r="I17" t="n">
-        <v>5297</v>
+        <v>46830</v>
       </c>
       <c r="J17" t="inlineStr">
         <is>
@@ -1711,75 +1762,76 @@
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L17" t="n">
+        <v>5</v>
+      </c>
+      <c r="M17" t="n">
+        <v>76</v>
+      </c>
+      <c r="N17" t="n">
+        <v>39755</v>
+      </c>
+      <c r="O17" t="n">
+        <v>0</v>
+      </c>
+      <c r="P17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q17" t="inlineStr">
+        <is>
+          <t>2025-05-12 00:00:00</t>
+        </is>
+      </c>
+      <c r="R17" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S17" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T17" t="n">
         <v>4</v>
-      </c>
-      <c r="M17" t="n">
-        <v>70</v>
-      </c>
-      <c r="N17" t="n">
-        <v>39749</v>
-      </c>
-      <c r="O17" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="P17" t="n">
-        <v>39749</v>
-      </c>
-      <c r="Q17" t="inlineStr">
-        <is>
-          <t>2025-04-15 00:00:00</t>
-        </is>
-      </c>
-      <c r="R17" s="1" t="n">
-        <v>-0.3623372395833334</v>
-      </c>
-      <c r="S17" s="1" t="n">
-        <v>-0.3623372395833334</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>251391</v>
+        <v>251284</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>17</v>
+        <v>40.5</v>
       </c>
       <c r="D18" t="n">
-        <v>91.640625</v>
+        <v>297.0909090909091</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>2025-05-07 08:41:45</t>
+          <t>2025-05-09 07:00:00</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>2025-05-07 08:58:45</t>
+          <t>2025-05-09 07:40:30</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>2025-05-07 08:58:45</t>
+          <t>2025-05-09 07:40:30</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>2025-05-07 10:30:24</t>
+          <t>2025-05-09 12:37:35</t>
         </is>
       </c>
       <c r="I18" t="n">
-        <v>5865</v>
+        <v>16340</v>
       </c>
       <c r="J18" t="inlineStr">
         <is>
@@ -1788,17 +1840,17 @@
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>CASON ;R6</t>
         </is>
       </c>
       <c r="L18" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="M18" t="n">
         <v>70</v>
       </c>
       <c r="N18" t="n">
-        <v>39749</v>
+        <v>39747</v>
       </c>
       <c r="O18" t="inlineStr">
         <is>
@@ -1806,76 +1858,81 @@
         </is>
       </c>
       <c r="P18" t="n">
-        <v>39749</v>
+        <v>39747</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>2025-04-23 00:00:00</t>
+          <t>2025-05-12 00:00:00</t>
         </is>
       </c>
       <c r="R18" s="1" t="n">
-        <v>-0.4377821180555556</v>
+        <v>-1.526104797974537</v>
       </c>
       <c r="S18" s="1" t="n">
-        <v>-0.4377821180555556</v>
+        <v>-1.526104797974537</v>
+      </c>
+      <c r="T18" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>251395</v>
+        <v>251706</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>T3</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>35.34375</v>
+        <v>50.79365079365079</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>2025-05-07 10:30:24</t>
+          <t>2025-05-12 07:00:00</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>2025-05-07 10:47:24</t>
+          <t>2025-05-12 07:00:00</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>2025-05-07 10:47:24</t>
+          <t>2025-05-12 07:00:00</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>2025-05-07 11:22:45</t>
+          <t>2025-05-12 07:50:47</t>
         </is>
       </c>
       <c r="I19" t="n">
-        <v>2262</v>
+        <v>3200</v>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>bobina</t>
+          <t>foglio</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>T3</t>
         </is>
       </c>
       <c r="L19" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>70</v>
-      </c>
-      <c r="N19" t="n">
-        <v>39749</v>
+        <v>0</v>
+      </c>
+      <c r="N19" t="inlineStr">
+        <is>
+          <t>39764 (esterno)</t>
+        </is>
       </c>
       <c r="O19" t="inlineStr">
         <is>
@@ -1883,57 +1940,60 @@
         </is>
       </c>
       <c r="P19" t="n">
-        <v>39749</v>
+        <v>39764</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>2025-04-23 00:00:00</t>
+          <t>2025-05-14 00:00:00</t>
         </is>
       </c>
       <c r="R19" s="1" t="n">
-        <v>-0.4741319444444445</v>
+        <v>0</v>
       </c>
       <c r="S19" s="1" t="n">
-        <v>-0.4741319444444445</v>
+        <v>0</v>
+      </c>
+      <c r="T19" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>251371</v>
+        <v>251547</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>184.9154929577465</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>2025-05-07 11:22:45</t>
+          <t>2025-05-08 07:00:00</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>2025-05-07 11:41:45</t>
+          <t>2025-05-08 07:34:00</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>2025-05-07 11:41:45</t>
+          <t>2025-05-08 07:34:00</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>2025-05-07 11:41:45</t>
+          <t>2025-05-08 10:38:54</t>
         </is>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>13129</v>
       </c>
       <c r="J20" t="inlineStr">
         <is>
@@ -1951,10 +2011,8 @@
       <c r="M20" t="n">
         <v>70</v>
       </c>
-      <c r="N20" t="inlineStr">
-        <is>
-          <t>39666 (esterno)</t>
-        </is>
+      <c r="N20" t="n">
+        <v>39749</v>
       </c>
       <c r="O20" t="inlineStr">
         <is>
@@ -1962,57 +2020,60 @@
         </is>
       </c>
       <c r="P20" t="n">
-        <v>39666</v>
+        <v>39749</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>2025-04-24 00:00:00</t>
+          <t>2025-05-06 00:00:00</t>
         </is>
       </c>
       <c r="R20" s="1" t="n">
-        <v>-13.48732638888889</v>
+        <v>-1.443691314548611</v>
       </c>
       <c r="S20" s="1" t="n">
-        <v>-13.48732638888889</v>
+        <v>-1.443691314548611</v>
+      </c>
+      <c r="T20" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>251396</v>
+        <v>250759</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="D21" t="n">
-        <v>35.34375</v>
+        <v>118.2816901408451</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>2025-05-07 11:41:45</t>
+          <t>2025-05-08 10:38:54</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>2025-05-07 12:00:45</t>
+          <t>2025-05-08 11:08:54</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>2025-05-07 12:00:45</t>
+          <t>2025-05-08 11:08:54</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>2025-05-07 12:36:05</t>
+          <t>2025-05-08 13:07:11</t>
         </is>
       </c>
       <c r="I21" t="n">
-        <v>2262</v>
+        <v>8398</v>
       </c>
       <c r="J21" t="inlineStr">
         <is>
@@ -2021,17 +2082,17 @@
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12</t>
         </is>
       </c>
       <c r="L21" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M21" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="N21" t="n">
-        <v>39749</v>
+        <v>39747</v>
       </c>
       <c r="O21" t="inlineStr">
         <is>
@@ -2039,57 +2100,60 @@
         </is>
       </c>
       <c r="P21" t="n">
-        <v>39749</v>
+        <v>39747</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>2025-05-02 00:00:00</t>
+          <t>2025-03-13 00:00:00</t>
         </is>
       </c>
       <c r="R21" s="1" t="n">
-        <v>-0.5250651041666666</v>
+        <v>-0.5466647104861111</v>
       </c>
       <c r="S21" s="1" t="n">
-        <v>-0.5250651041666666</v>
+        <v>-0.5466647104861111</v>
+      </c>
+      <c r="T21" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>251548</v>
+        <v>250894</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D22" t="n">
-        <v>206.90625</v>
+        <v>623.4084507042254</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>2025-05-07 12:36:05</t>
+          <t>2025-05-08 13:07:11</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>2025-05-07 12:55:05</t>
+          <t>2025-05-08 13:24:11</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>2025-05-07 12:55:05</t>
+          <t>2025-05-08 13:24:11</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>2025-05-08 08:22:00</t>
+          <t>2025-05-12 07:47:36</t>
         </is>
       </c>
       <c r="I22" t="n">
-        <v>13242</v>
+        <v>44262</v>
       </c>
       <c r="J22" t="inlineStr">
         <is>
@@ -2098,75 +2162,76 @@
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L22" t="n">
+        <v>5</v>
+      </c>
+      <c r="M22" t="n">
+        <v>76</v>
+      </c>
+      <c r="N22" t="n">
+        <v>39755</v>
+      </c>
+      <c r="O22" t="n">
+        <v>0</v>
+      </c>
+      <c r="P22" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q22" t="inlineStr">
+        <is>
+          <t>2025-05-05 00:00:00</t>
+        </is>
+      </c>
+      <c r="R22" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S22" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T22" t="n">
         <v>4</v>
-      </c>
-      <c r="M22" t="n">
-        <v>70</v>
-      </c>
-      <c r="N22" t="n">
-        <v>39749</v>
-      </c>
-      <c r="O22" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="P22" t="n">
-        <v>39749</v>
-      </c>
-      <c r="Q22" t="inlineStr">
-        <is>
-          <t>2025-05-06 00:00:00</t>
-        </is>
-      </c>
-      <c r="R22" s="1" t="n">
-        <v>-1.348611111111111</v>
-      </c>
-      <c r="S22" s="1" t="n">
-        <v>-1.348611111111111</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>250923</v>
+        <v>251456</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>R3</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="D23" t="n">
-        <v>109.46875</v>
+        <v>183.6530612244898</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>2025-05-08 08:22:00</t>
+          <t>2025-05-08 07:00:00</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>2025-05-08 08:54:00</t>
+          <t>2025-05-08 07:40:00</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>2025-05-08 08:54:00</t>
+          <t>2025-05-08 07:40:00</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>2025-05-08 10:43:28</t>
+          <t>2025-05-08 10:43:39</t>
         </is>
       </c>
       <c r="I23" t="n">
-        <v>7006</v>
+        <v>8999</v>
       </c>
       <c r="J23" t="inlineStr">
         <is>
@@ -2175,17 +2240,17 @@
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L23" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M23" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="N23" t="n">
-        <v>39749</v>
+        <v>39746</v>
       </c>
       <c r="O23" t="inlineStr">
         <is>
@@ -2193,57 +2258,60 @@
         </is>
       </c>
       <c r="P23" t="n">
-        <v>39749</v>
+        <v>39746</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>2025-04-07 00:00:00</t>
+          <t>2025-05-09 00:00:00</t>
         </is>
       </c>
       <c r="R23" s="1" t="n">
-        <v>-1.446853298611111</v>
+        <v>-3.300510204085648</v>
       </c>
       <c r="S23" s="1" t="n">
-        <v>-1.446853298611111</v>
+        <v>-2.446981292511574</v>
+      </c>
+      <c r="T23" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>251477</v>
+        <v>251164</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>R3</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>19</v>
+        <v>50</v>
       </c>
       <c r="D24" t="n">
-        <v>468.734375</v>
+        <v>204.0816326530612</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>2025-05-08 10:43:28</t>
+          <t>2025-05-08 10:43:39</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>2025-05-08 11:02:28</t>
+          <t>2025-05-08 11:33:39</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>2025-05-08 11:02:28</t>
+          <t>2025-05-08 11:33:39</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>2025-05-09 10:51:12</t>
+          <t>2025-05-08 14:57:44</t>
         </is>
       </c>
       <c r="I24" t="n">
-        <v>29999</v>
+        <v>10000</v>
       </c>
       <c r="J24" t="inlineStr">
         <is>
@@ -2252,17 +2320,17 @@
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L24" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="M24" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="N24" t="n">
-        <v>39760</v>
+        <v>39749</v>
       </c>
       <c r="O24" t="inlineStr">
         <is>
@@ -2270,78 +2338,79 @@
         </is>
       </c>
       <c r="P24" t="n">
-        <v>39760</v>
+        <v>39749</v>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>2025-04-28 00:00:00</t>
+          <t>2025-04-22 00:00:00</t>
         </is>
       </c>
       <c r="R24" s="1" t="n">
-        <v>-2.452224392361111</v>
+        <v>-1.623426870752315</v>
       </c>
       <c r="S24" s="1" t="n">
-        <v>-2.452224392361111</v>
+        <v>-1.623426870752315</v>
+      </c>
+      <c r="T24" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>251706</v>
+        <v>251227</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>T3</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="D25" t="n">
-        <v>50.79365079365079</v>
+        <v>0</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>2025-05-12 07:00:00</t>
+          <t>2025-05-08 12:00:00</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>2025-05-12 07:00:00</t>
+          <t>2025-05-08 12:19:00</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>2025-05-12 07:00:00</t>
+          <t>2025-05-08 12:19:00</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>2025-05-12 07:50:47</t>
+          <t>2025-05-08 12:19:00</t>
         </is>
       </c>
       <c r="I25" t="n">
-        <v>3200</v>
+        <v>0</v>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>foglio</t>
+          <t>bobina</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>T3</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L25" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M25" t="n">
-        <v>0</v>
-      </c>
-      <c r="N25" t="inlineStr">
-        <is>
-          <t>39764 (esterno)</t>
-        </is>
+        <v>76</v>
+      </c>
+      <c r="N25" t="n">
+        <v>39746</v>
       </c>
       <c r="O25" t="inlineStr">
         <is>
@@ -2349,57 +2418,60 @@
         </is>
       </c>
       <c r="P25" t="n">
-        <v>39764</v>
+        <v>39746</v>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>2025-05-14 00:00:00</t>
+          <t>2025-05-05 00:00:00</t>
         </is>
       </c>
       <c r="R25" s="1" t="n">
-        <v>0</v>
+        <v>-2.523611111111111</v>
       </c>
       <c r="S25" s="1" t="n">
-        <v>0</v>
+        <v>-2.513194444444444</v>
+      </c>
+      <c r="T25" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>251164</v>
+        <v>251782</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>R3</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>55</v>
+        <v>17</v>
       </c>
       <c r="D26" t="n">
-        <v>204.0816326530612</v>
+        <v>170.0422535211268</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>2025-05-08 07:00:00</t>
+          <t>2025-05-08 12:19:00</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>2025-05-08 07:55:00</t>
+          <t>2025-05-08 12:36:00</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>2025-05-08 07:55:00</t>
+          <t>2025-05-08 12:36:00</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>2025-05-08 11:19:04</t>
+          <t>2025-05-09 07:26:02</t>
         </is>
       </c>
       <c r="I26" t="n">
-        <v>10000</v>
+        <v>12073</v>
       </c>
       <c r="J26" t="inlineStr">
         <is>
@@ -2408,17 +2480,17 @@
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L26" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="M26" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="N26" t="n">
-        <v>39749</v>
+        <v>39754</v>
       </c>
       <c r="O26" t="inlineStr">
         <is>
@@ -2426,57 +2498,60 @@
         </is>
       </c>
       <c r="P26" t="n">
-        <v>39749</v>
+        <v>39754</v>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
-          <t>2025-04-22 00:00:00</t>
+          <t>2025-05-16 00:00:00</t>
         </is>
       </c>
       <c r="R26" s="1" t="n">
-        <v>-1.471584467118056</v>
+        <v>-0.3097515649421296</v>
       </c>
       <c r="S26" s="1" t="n">
-        <v>-1.471584467118056</v>
+        <v>-0.3097515649421296</v>
+      </c>
+      <c r="T26" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>251456</v>
+        <v>251225</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>R3</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>50</v>
+        <v>17</v>
       </c>
       <c r="D27" t="n">
-        <v>183.6530612244898</v>
+        <v>0</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>2025-05-08 11:19:04</t>
+          <t>2025-05-09 07:26:02</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>2025-05-08 12:09:04</t>
+          <t>2025-05-09 07:43:02</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>2025-05-08 12:09:04</t>
+          <t>2025-05-09 07:43:02</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>2025-05-09 07:12:44</t>
+          <t>2025-05-09 07:43:02</t>
         </is>
       </c>
       <c r="I27" t="n">
-        <v>8999</v>
+        <v>0</v>
       </c>
       <c r="J27" t="inlineStr">
         <is>
@@ -2485,17 +2560,17 @@
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L27" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M27" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="N27" t="n">
-        <v>39746</v>
+        <v>39747</v>
       </c>
       <c r="O27" t="inlineStr">
         <is>
@@ -2503,18 +2578,21 @@
         </is>
       </c>
       <c r="P27" t="n">
-        <v>39746</v>
+        <v>39747</v>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
-          <t>2025-05-09 00:00:00</t>
+          <t>2025-04-30 00:00:00</t>
         </is>
       </c>
       <c r="R27" s="1" t="n">
-        <v>-3.300510204085648</v>
+        <v>-1.321557120497685</v>
       </c>
       <c r="S27" s="1" t="n">
-        <v>-3.300510204085648</v>
+        <v>-1.321557120497685</v>
+      </c>
+      <c r="T27" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -2585,6 +2663,9 @@
       <c r="R28" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="S28" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -2654,6 +2735,9 @@
       <c r="R29" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="S29" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -2723,6 +2807,9 @@
       <c r="R30" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="S30" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -2792,6 +2879,9 @@
       <c r="R31" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="S31" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -2861,6 +2951,9 @@
       <c r="R32" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="S32" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -2930,6 +3023,9 @@
       <c r="R33" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="S33" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -2999,6 +3095,9 @@
       <c r="R34" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="S34" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -3068,6 +3167,9 @@
       <c r="R35" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="S35" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -3137,6 +3239,9 @@
       <c r="R36" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="S36" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -3206,6 +3311,9 @@
       <c r="R37" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="S37" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -3275,6 +3383,9 @@
       <c r="R38" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="S38" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -3344,6 +3455,9 @@
       <c r="R39" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="S39" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -3413,6 +3527,9 @@
       <c r="R40" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="S40" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -3482,6 +3599,9 @@
       <c r="R41" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="S41" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -3551,6 +3671,9 @@
       <c r="R42" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="S42" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -3620,6 +3743,9 @@
       <c r="R43" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="S43" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -3689,6 +3815,9 @@
       <c r="R44" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="S44" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -3758,6 +3887,9 @@
       <c r="R45" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="S45" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -3827,6 +3959,9 @@
       <c r="R46" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="S46" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -3896,6 +4031,9 @@
       <c r="R47" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="S47" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -3965,6 +4103,9 @@
       <c r="R48" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="S48" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -4034,6 +4175,9 @@
       <c r="R49" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="S49" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -4103,6 +4247,9 @@
       <c r="R50" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="S50" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -4172,6 +4319,9 @@
       <c r="R51" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="S51" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -4241,6 +4391,9 @@
       <c r="R52" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="S52" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -4310,6 +4463,9 @@
       <c r="R53" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="S53" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -4379,6 +4535,9 @@
       <c r="R54" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="S54" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -4448,6 +4607,9 @@
       <c r="R55" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="S55" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -4517,6 +4679,9 @@
       <c r="R56" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="S56" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
@@ -4586,6 +4751,9 @@
       <c r="R57" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="S57" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
@@ -4655,6 +4823,9 @@
       <c r="R58" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="S58" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
@@ -4724,6 +4895,9 @@
       <c r="R59" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="S59" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
@@ -4793,6 +4967,9 @@
       <c r="R60" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="S60" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
@@ -4862,6 +5039,9 @@
       <c r="R61" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="S61" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
@@ -4931,6 +5111,9 @@
       <c r="R62" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="S62" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
@@ -5000,6 +5183,9 @@
       <c r="R63" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="S63" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
@@ -5069,6 +5255,9 @@
       <c r="R64" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="S64" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
@@ -5138,6 +5327,9 @@
       <c r="R65" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="S65" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
@@ -5207,6 +5399,9 @@
       <c r="R66" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="S66" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
@@ -5276,6 +5471,9 @@
       <c r="R67" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="S67" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
@@ -5345,6 +5543,9 @@
       <c r="R68" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="S68" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
@@ -5414,6 +5615,9 @@
       <c r="R69" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="S69" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
@@ -5483,6 +5687,9 @@
       <c r="R70" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="S70" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
@@ -5552,6 +5759,9 @@
       <c r="R71" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="S71" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
@@ -5621,6 +5831,9 @@
       <c r="R72" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="S72" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
@@ -5690,6 +5903,9 @@
       <c r="R73" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="S73" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
@@ -5759,6 +5975,9 @@
       <c r="R74" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="S74" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
@@ -5828,6 +6047,9 @@
       <c r="R75" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="S75" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
@@ -5897,6 +6119,9 @@
       <c r="R76" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="S76" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
@@ -5966,6 +6191,9 @@
       <c r="R77" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="S77" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
@@ -6035,6 +6263,9 @@
       <c r="R78" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="S78" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
@@ -6104,6 +6335,9 @@
       <c r="R79" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="S79" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
@@ -6173,6 +6407,9 @@
       <c r="R80" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="S80" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
@@ -6242,6 +6479,9 @@
       <c r="R81" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="S81" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
@@ -6311,6 +6551,9 @@
       <c r="R82" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="S82" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
@@ -6380,6 +6623,9 @@
       <c r="R83" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="S83" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
@@ -6449,6 +6695,9 @@
       <c r="R84" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="S84" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
@@ -6518,6 +6767,9 @@
       <c r="R85" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="S85" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
@@ -6587,6 +6839,9 @@
       <c r="R86" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="S86" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
@@ -6655,6 +6910,9 @@
       </c>
       <c r="R87" s="1" t="n">
         <v>0</v>
+      </c>
+      <c r="S87" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/PS-VRP/Dati_output/euristico_post.xlsx
+++ b/PS-VRP/Dati_output/euristico_post.xlsx
@@ -515,7 +515,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>251840</v>
+        <v>251742</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -523,10 +523,10 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="D2" t="n">
-        <v>93.67213114754098</v>
+        <v>134.8524590163935</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -535,21 +535,21 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2025-05-08 07:35:00</t>
+          <t>2025-05-08 07:30:00</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2025-05-08 07:35:00</t>
+          <t>2025-05-08 07:30:00</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2025-05-08 09:08:40</t>
+          <t>2025-05-08 09:44:51</t>
         </is>
       </c>
       <c r="I2" t="n">
-        <v>5714</v>
+        <v>8226</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
@@ -562,13 +562,13 @@
         </is>
       </c>
       <c r="L2" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M2" t="n">
         <v>70</v>
       </c>
       <c r="N2" t="n">
-        <v>39758</v>
+        <v>39749</v>
       </c>
       <c r="O2" t="inlineStr">
         <is>
@@ -576,26 +576,26 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>39758</v>
+        <v>39749</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>2025-05-09 00:00:00</t>
+          <t>2025-05-15 00:00:00</t>
         </is>
       </c>
       <c r="R2" s="1" t="n">
-        <v>-0.4885587431712963</v>
+        <v>-1.406147540983796</v>
       </c>
       <c r="S2" s="1" t="n">
-        <v>-0.3810223132986111</v>
+        <v>-1.406147540983796</v>
       </c>
       <c r="T2" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>251229</v>
+        <v>251840</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -606,30 +606,30 @@
         <v>25</v>
       </c>
       <c r="D3" t="n">
-        <v>307.1967213114754</v>
+        <v>93.67213114754098</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2025-05-08 09:08:40</t>
+          <t>2025-05-08 09:44:51</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2025-05-08 09:33:40</t>
+          <t>2025-05-08 10:09:51</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>2025-05-08 09:33:40</t>
+          <t>2025-05-08 10:09:51</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2025-05-08 14:40:52</t>
+          <t>2025-05-08 11:43:31</t>
         </is>
       </c>
       <c r="I3" t="n">
-        <v>18739</v>
+        <v>5714</v>
       </c>
       <c r="J3" t="inlineStr">
         <is>
@@ -638,19 +638,17 @@
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L3" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="M3" t="n">
         <v>70</v>
       </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>39723 (esterno)</t>
-        </is>
+      <c r="N3" t="n">
+        <v>39758</v>
       </c>
       <c r="O3" t="inlineStr">
         <is>
@@ -658,18 +656,18 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>39723</v>
+        <v>39758</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>2025-05-15 00:00:00</t>
+          <t>2025-05-09 00:00:00</t>
         </is>
       </c>
       <c r="R3" s="1" t="n">
-        <v>0</v>
+        <v>-0.4885587431712963</v>
       </c>
       <c r="S3" s="1" t="n">
-        <v>0</v>
+        <v>-0.4885587431712963</v>
       </c>
       <c r="T3" t="n">
         <v>1</v>
@@ -677,7 +675,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>251742</v>
+        <v>251229</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -685,33 +683,33 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D4" t="n">
-        <v>134.8524590163935</v>
+        <v>307.1967213114754</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2025-05-08 14:40:52</t>
+          <t>2025-05-08 11:43:31</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2025-05-09 07:10:52</t>
+          <t>2025-05-08 12:08:31</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>2025-05-09 07:10:52</t>
+          <t>2025-05-08 12:08:31</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>2025-05-09 09:25:43</t>
+          <t>2025-05-09 09:15:43</t>
         </is>
       </c>
       <c r="I4" t="n">
-        <v>8226</v>
+        <v>18739</v>
       </c>
       <c r="J4" t="inlineStr">
         <is>
@@ -720,17 +718,19 @@
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R9</t>
         </is>
       </c>
       <c r="L4" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M4" t="n">
         <v>70</v>
       </c>
-      <c r="N4" t="n">
-        <v>39749</v>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>39723 (esterno)</t>
+        </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
@@ -738,7 +738,7 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>39749</v>
+        <v>39723</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -746,52 +746,52 @@
         </is>
       </c>
       <c r="R4" s="1" t="n">
-        <v>-2.392862021863426</v>
+        <v>0</v>
       </c>
       <c r="S4" s="1" t="n">
-        <v>-2.392862021863426</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>251455</v>
+        <v>251164</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>R3</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>19</v>
+        <v>55</v>
       </c>
       <c r="D5" t="n">
-        <v>82.765625</v>
+        <v>204.0816326530612</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2025-05-07 07:00:00</t>
+          <t>2025-05-08 07:00:00</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2025-05-07 07:19:00</t>
+          <t>2025-05-08 07:55:00</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>2025-05-07 07:19:00</t>
+          <t>2025-05-08 07:55:00</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>2025-05-07 08:41:45</t>
+          <t>2025-05-08 11:19:04</t>
         </is>
       </c>
       <c r="I5" t="n">
-        <v>5297</v>
+        <v>10000</v>
       </c>
       <c r="J5" t="inlineStr">
         <is>
@@ -804,7 +804,7 @@
         </is>
       </c>
       <c r="L5" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M5" t="n">
         <v>70</v>
@@ -822,56 +822,56 @@
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>2025-04-15 00:00:00</t>
+          <t>2025-04-22 00:00:00</t>
         </is>
       </c>
       <c r="R5" s="1" t="n">
-        <v>-0.3623372395833334</v>
+        <v>-1.471584467118056</v>
       </c>
       <c r="S5" s="1" t="n">
-        <v>-0.3623372395833334</v>
+        <v>-1.471584467118056</v>
       </c>
       <c r="T5" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>251391</v>
+        <v>251456</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>R3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>17</v>
+        <v>50</v>
       </c>
       <c r="D6" t="n">
-        <v>91.640625</v>
+        <v>183.6530612244898</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2025-05-07 08:41:45</t>
+          <t>2025-05-08 11:19:04</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2025-05-07 08:58:45</t>
+          <t>2025-05-08 12:09:04</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>2025-05-07 08:58:45</t>
+          <t>2025-05-08 12:09:04</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>2025-05-07 10:30:24</t>
+          <t>2025-05-09 07:12:44</t>
         </is>
       </c>
       <c r="I6" t="n">
-        <v>5865</v>
+        <v>8999</v>
       </c>
       <c r="J6" t="inlineStr">
         <is>
@@ -884,13 +884,13 @@
         </is>
       </c>
       <c r="L6" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M6" t="n">
         <v>70</v>
       </c>
       <c r="N6" t="n">
-        <v>39749</v>
+        <v>39746</v>
       </c>
       <c r="O6" t="inlineStr">
         <is>
@@ -898,60 +898,60 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>39749</v>
+        <v>39746</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>2025-04-23 00:00:00</t>
+          <t>2025-05-09 00:00:00</t>
         </is>
       </c>
       <c r="R6" s="1" t="n">
-        <v>-0.4377821180555556</v>
+        <v>-3.300510204085648</v>
       </c>
       <c r="S6" s="1" t="n">
-        <v>-0.4377821180555556</v>
+        <v>-3.300510204085648</v>
       </c>
       <c r="T6" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>251395</v>
+        <v>251050</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>17</v>
+        <v>217</v>
       </c>
       <c r="D7" t="n">
-        <v>35.34375</v>
+        <v>0</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>2025-05-07 10:30:24</t>
+          <t>2025-05-09 07:00:00</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2025-05-07 10:47:24</t>
+          <t>2025-05-09 10:37:00</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>2025-05-07 10:47:24</t>
+          <t>2025-05-09 10:37:00</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>2025-05-07 11:22:45</t>
+          <t>2025-05-09 10:37:00</t>
         </is>
       </c>
       <c r="I7" t="n">
-        <v>2262</v>
+        <v>0</v>
       </c>
       <c r="J7" t="inlineStr">
         <is>
@@ -960,17 +960,17 @@
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="L7" t="n">
-        <v>6</v>
+        <v>38</v>
       </c>
       <c r="M7" t="n">
         <v>70</v>
       </c>
       <c r="N7" t="n">
-        <v>39749</v>
+        <v>39747</v>
       </c>
       <c r="O7" t="inlineStr">
         <is>
@@ -978,56 +978,56 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>39749</v>
+        <v>39747</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>2025-04-23 00:00:00</t>
+          <t>2025-04-16 00:00:00</t>
         </is>
       </c>
       <c r="R7" s="1" t="n">
-        <v>-0.4741319444444445</v>
+        <v>-1.442361111111111</v>
       </c>
       <c r="S7" s="1" t="n">
-        <v>-0.4741319444444445</v>
+        <v>-1.442361111111111</v>
       </c>
       <c r="T7" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>251371</v>
+        <v>251054</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>2025-05-07 11:22:45</t>
+          <t>2025-05-09 10:37:00</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2025-05-07 11:41:45</t>
+          <t>2025-05-09 11:12:00</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>2025-05-07 11:41:45</t>
+          <t>2025-05-09 11:12:00</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>2025-05-07 11:41:45</t>
+          <t>2025-05-09 11:12:00</t>
         </is>
       </c>
       <c r="I8" t="n">
@@ -1040,19 +1040,17 @@
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="L8" t="n">
-        <v>4</v>
+        <v>38</v>
       </c>
       <c r="M8" t="n">
         <v>70</v>
       </c>
-      <c r="N8" t="inlineStr">
-        <is>
-          <t>39666 (esterno)</t>
-        </is>
+      <c r="N8" t="n">
+        <v>39747</v>
       </c>
       <c r="O8" t="inlineStr">
         <is>
@@ -1060,60 +1058,60 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>39666</v>
+        <v>39747</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>2025-04-24 00:00:00</t>
+          <t>2025-04-16 00:00:00</t>
         </is>
       </c>
       <c r="R8" s="1" t="n">
-        <v>-13.48732638888889</v>
+        <v>-1.466666666666667</v>
       </c>
       <c r="S8" s="1" t="n">
-        <v>-13.48732638888889</v>
+        <v>-1.466666666666667</v>
       </c>
       <c r="T8" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>251396</v>
+        <v>251081</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>19</v>
+        <v>125</v>
       </c>
       <c r="D9" t="n">
-        <v>35.34375</v>
+        <v>42.42253521126761</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>2025-05-07 11:41:45</t>
+          <t>2025-05-09 11:12:00</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>2025-05-07 12:00:45</t>
+          <t>2025-05-09 13:17:00</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>2025-05-07 12:00:45</t>
+          <t>2025-05-09 13:17:00</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>2025-05-07 12:36:05</t>
+          <t>2025-05-09 13:59:25</t>
         </is>
       </c>
       <c r="I9" t="n">
-        <v>2262</v>
+        <v>3012</v>
       </c>
       <c r="J9" t="inlineStr">
         <is>
@@ -1122,17 +1120,19 @@
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="L9" t="n">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="M9" t="n">
         <v>70</v>
       </c>
-      <c r="N9" t="n">
-        <v>39749</v>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>39750 (esterno)</t>
+        </is>
       </c>
       <c r="O9" t="inlineStr">
         <is>
@@ -1140,60 +1140,60 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>39749</v>
+        <v>39750</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>2025-05-02 00:00:00</t>
+          <t>2025-04-23 00:00:00</t>
         </is>
       </c>
       <c r="R9" s="1" t="n">
-        <v>-0.5250651041666666</v>
+        <v>-16.58293231612268</v>
       </c>
       <c r="S9" s="1" t="n">
-        <v>-0.5250651041666666</v>
+        <v>-16.58293231612268</v>
       </c>
       <c r="T9" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>251548</v>
+        <v>251225</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C10" t="n">
         <v>19</v>
       </c>
       <c r="D10" t="n">
-        <v>206.90625</v>
+        <v>0</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>2025-05-07 12:36:05</t>
+          <t>2025-05-08 12:00:00</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>2025-05-07 12:55:05</t>
+          <t>2025-05-08 12:19:00</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>2025-05-07 12:55:05</t>
+          <t>2025-05-08 12:19:00</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>2025-05-08 08:22:00</t>
+          <t>2025-05-08 12:19:00</t>
         </is>
       </c>
       <c r="I10" t="n">
-        <v>13242</v>
+        <v>0</v>
       </c>
       <c r="J10" t="inlineStr">
         <is>
@@ -1202,17 +1202,17 @@
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L10" t="n">
         <v>4</v>
       </c>
       <c r="M10" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="N10" t="n">
-        <v>39749</v>
+        <v>39747</v>
       </c>
       <c r="O10" t="inlineStr">
         <is>
@@ -1220,60 +1220,60 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>39749</v>
+        <v>39747</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>2025-05-06 00:00:00</t>
+          <t>2025-04-30 00:00:00</t>
         </is>
       </c>
       <c r="R10" s="1" t="n">
-        <v>-1.348611111111111</v>
+        <v>-0.5131944444444444</v>
       </c>
       <c r="S10" s="1" t="n">
-        <v>-1.348611111111111</v>
+        <v>-0.5131944444444444</v>
       </c>
       <c r="T10" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>250923</v>
+        <v>251227</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="D11" t="n">
-        <v>109.46875</v>
+        <v>0</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>2025-05-08 08:22:00</t>
+          <t>2025-05-08 12:19:00</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>2025-05-08 08:54:00</t>
+          <t>2025-05-08 12:34:00</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>2025-05-08 08:54:00</t>
+          <t>2025-05-08 12:34:00</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>2025-05-08 10:43:28</t>
+          <t>2025-05-08 12:34:00</t>
         </is>
       </c>
       <c r="I11" t="n">
-        <v>7006</v>
+        <v>0</v>
       </c>
       <c r="J11" t="inlineStr">
         <is>
@@ -1286,13 +1286,13 @@
         </is>
       </c>
       <c r="L11" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M11" t="n">
         <v>76</v>
       </c>
       <c r="N11" t="n">
-        <v>39749</v>
+        <v>39746</v>
       </c>
       <c r="O11" t="inlineStr">
         <is>
@@ -1300,60 +1300,60 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>39749</v>
+        <v>39746</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>2025-04-07 00:00:00</t>
+          <t>2025-05-05 00:00:00</t>
         </is>
       </c>
       <c r="R11" s="1" t="n">
-        <v>-1.446853298611111</v>
+        <v>-2.523611111111111</v>
       </c>
       <c r="S11" s="1" t="n">
-        <v>-1.446853298611111</v>
+        <v>-2.523611111111111</v>
       </c>
       <c r="T11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>251477</v>
+        <v>251782</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D12" t="n">
-        <v>468.734375</v>
+        <v>170.0422535211268</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>2025-05-08 10:43:28</t>
+          <t>2025-05-08 12:34:00</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>2025-05-08 11:02:28</t>
+          <t>2025-05-08 12:51:00</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>2025-05-08 11:02:28</t>
+          <t>2025-05-08 12:51:00</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>2025-05-09 10:51:12</t>
+          <t>2025-05-09 07:41:02</t>
         </is>
       </c>
       <c r="I12" t="n">
-        <v>29999</v>
+        <v>12073</v>
       </c>
       <c r="J12" t="inlineStr">
         <is>
@@ -1372,7 +1372,7 @@
         <v>76</v>
       </c>
       <c r="N12" t="n">
-        <v>39760</v>
+        <v>39754</v>
       </c>
       <c r="O12" t="inlineStr">
         <is>
@@ -1380,18 +1380,18 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>39760</v>
+        <v>39754</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>2025-04-28 00:00:00</t>
+          <t>2025-05-16 00:00:00</t>
         </is>
       </c>
       <c r="R12" s="1" t="n">
-        <v>-2.452224392361111</v>
+        <v>-0.3201682316087963</v>
       </c>
       <c r="S12" s="1" t="n">
-        <v>-2.452224392361111</v>
+        <v>-0.3201682316087963</v>
       </c>
       <c r="T12" t="n">
         <v>1</v>
@@ -1399,41 +1399,41 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>251416</v>
+        <v>251284</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>32</v>
+        <v>40.5</v>
       </c>
       <c r="D13" t="n">
-        <v>175.34375</v>
+        <v>297.0909090909091</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>2025-05-09 10:51:12</t>
+          <t>2025-05-09 07:00:00</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>2025-05-09 11:23:12</t>
+          <t>2025-05-09 07:40:30</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>2025-05-09 11:23:12</t>
+          <t>2025-05-09 07:40:30</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>2025-05-09 14:18:32</t>
+          <t>2025-05-09 12:37:35</t>
         </is>
       </c>
       <c r="I13" t="n">
-        <v>11222</v>
+        <v>16340</v>
       </c>
       <c r="J13" t="inlineStr">
         <is>
@@ -1442,53 +1442,55 @@
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>CASON ;R6</t>
         </is>
       </c>
       <c r="L13" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="M13" t="n">
         <v>70</v>
       </c>
       <c r="N13" t="n">
-        <v>39755</v>
-      </c>
-      <c r="O13" t="n">
-        <v>0</v>
+        <v>39747</v>
+      </c>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>39747</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>2025-04-23 00:00:00</t>
+          <t>2025-05-12 00:00:00</t>
         </is>
       </c>
       <c r="R13" s="1" t="n">
-        <v>0</v>
+        <v>-1.526104797974537</v>
       </c>
       <c r="S13" s="1" t="n">
-        <v>0</v>
+        <v>-1.526104797974537</v>
       </c>
       <c r="T13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>251081</v>
+        <v>251651</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>BIMEC 4</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>127</v>
+        <v>29</v>
       </c>
       <c r="D14" t="n">
-        <v>42.42253521126761</v>
+        <v>767.7049180327868</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
@@ -1497,21 +1499,21 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>2025-05-09 09:07:00</t>
+          <t>2025-05-09 07:29:00</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>2025-05-09 09:07:00</t>
+          <t>2025-05-09 07:29:00</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>2025-05-09 09:49:25</t>
+          <t>2025-05-12 12:16:42</t>
         </is>
       </c>
       <c r="I14" t="n">
-        <v>3012</v>
+        <v>46830</v>
       </c>
       <c r="J14" t="inlineStr">
         <is>
@@ -1520,80 +1522,76 @@
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L14" t="n">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="M14" t="n">
-        <v>70</v>
-      </c>
-      <c r="N14" t="inlineStr">
-        <is>
-          <t>39750 (esterno)</t>
-        </is>
-      </c>
-      <c r="O14" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>76</v>
+      </c>
+      <c r="N14" t="n">
+        <v>39755</v>
+      </c>
+      <c r="O14" t="n">
+        <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>39750</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>2025-04-23 00:00:00</t>
+          <t>2025-05-12 00:00:00</t>
         </is>
       </c>
       <c r="R14" s="1" t="n">
-        <v>-16.58293231612268</v>
+        <v>0</v>
       </c>
       <c r="S14" s="1" t="n">
-        <v>-16.40932120501157</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>251050</v>
+        <v>251547</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>125</v>
+        <v>34</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>184.9154929577465</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>2025-05-09 09:49:25</t>
+          <t>2025-05-08 07:00:00</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>2025-05-09 11:54:25</t>
+          <t>2025-05-08 07:34:00</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>2025-05-09 11:54:25</t>
+          <t>2025-05-08 07:34:00</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>2025-05-09 11:54:25</t>
+          <t>2025-05-08 10:38:54</t>
         </is>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>13129</v>
       </c>
       <c r="J15" t="inlineStr">
         <is>
@@ -1602,17 +1600,17 @@
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L15" t="n">
-        <v>38</v>
+        <v>4</v>
       </c>
       <c r="M15" t="n">
         <v>70</v>
       </c>
       <c r="N15" t="n">
-        <v>39747</v>
+        <v>39749</v>
       </c>
       <c r="O15" t="inlineStr">
         <is>
@@ -1620,60 +1618,60 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>39747</v>
+        <v>39749</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>2025-04-16 00:00:00</t>
+          <t>2025-05-06 00:00:00</t>
         </is>
       </c>
       <c r="R15" s="1" t="n">
-        <v>-1.49612676056713</v>
+        <v>-1.443691314548611</v>
       </c>
       <c r="S15" s="1" t="n">
-        <v>-1.49612676056713</v>
+        <v>-1.443691314548611</v>
       </c>
       <c r="T15" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>251054</v>
+        <v>250759</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>118.2816901408451</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>2025-05-09 11:54:25</t>
+          <t>2025-05-08 10:38:54</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>2025-05-09 12:29:25</t>
+          <t>2025-05-08 11:08:54</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>2025-05-09 12:29:25</t>
+          <t>2025-05-08 11:08:54</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>2025-05-09 12:29:25</t>
+          <t>2025-05-08 13:07:11</t>
         </is>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>8398</v>
       </c>
       <c r="J16" t="inlineStr">
         <is>
@@ -1682,14 +1680,14 @@
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12</t>
         </is>
       </c>
       <c r="L16" t="n">
-        <v>38</v>
+        <v>4</v>
       </c>
       <c r="M16" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="N16" t="n">
         <v>39747</v>
@@ -1704,56 +1702,56 @@
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>2025-04-16 00:00:00</t>
+          <t>2025-03-13 00:00:00</t>
         </is>
       </c>
       <c r="R16" s="1" t="n">
-        <v>-1.520432316122685</v>
+        <v>-0.5466647104861111</v>
       </c>
       <c r="S16" s="1" t="n">
-        <v>-1.520432316122685</v>
+        <v>-0.5466647104861111</v>
       </c>
       <c r="T16" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>251651</v>
+        <v>250894</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="D17" t="n">
-        <v>767.7049180327868</v>
+        <v>623.4084507042254</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>2025-05-09 07:00:00</t>
+          <t>2025-05-08 13:07:11</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>2025-05-09 07:29:00</t>
+          <t>2025-05-08 13:24:11</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>2025-05-09 07:29:00</t>
+          <t>2025-05-08 13:24:11</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>2025-05-12 12:16:42</t>
+          <t>2025-05-12 07:47:36</t>
         </is>
       </c>
       <c r="I17" t="n">
-        <v>46830</v>
+        <v>44262</v>
       </c>
       <c r="J17" t="inlineStr">
         <is>
@@ -1782,7 +1780,7 @@
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>2025-05-12 00:00:00</t>
+          <t>2025-05-05 00:00:00</t>
         </is>
       </c>
       <c r="R17" s="1" t="n">
@@ -1797,142 +1795,142 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>251284</v>
+        <v>251706</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>T3</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>40.5</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>297.0909090909091</v>
+        <v>50.79365079365079</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>2025-05-09 07:00:00</t>
+          <t>2025-05-12 07:00:00</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>2025-05-09 07:40:30</t>
+          <t>2025-05-12 07:00:00</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>2025-05-09 07:40:30</t>
+          <t>2025-05-12 07:00:00</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>2025-05-09 12:37:35</t>
+          <t>2025-05-12 07:50:47</t>
         </is>
       </c>
       <c r="I18" t="n">
-        <v>16340</v>
+        <v>3200</v>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>bobina</t>
+          <t>foglio</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>CASON ;R6</t>
+          <t>T3</t>
         </is>
       </c>
       <c r="L18" t="n">
+        <v>0</v>
+      </c>
+      <c r="M18" t="n">
+        <v>0</v>
+      </c>
+      <c r="N18" t="inlineStr">
+        <is>
+          <t>39764 (esterno)</t>
+        </is>
+      </c>
+      <c r="O18" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="P18" t="n">
+        <v>39764</v>
+      </c>
+      <c r="Q18" t="inlineStr">
+        <is>
+          <t>2025-05-14 00:00:00</t>
+        </is>
+      </c>
+      <c r="R18" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S18" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T18" t="n">
         <v>7</v>
-      </c>
-      <c r="M18" t="n">
-        <v>70</v>
-      </c>
-      <c r="N18" t="n">
-        <v>39747</v>
-      </c>
-      <c r="O18" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="P18" t="n">
-        <v>39747</v>
-      </c>
-      <c r="Q18" t="inlineStr">
-        <is>
-          <t>2025-05-12 00:00:00</t>
-        </is>
-      </c>
-      <c r="R18" s="1" t="n">
-        <v>-1.526104797974537</v>
-      </c>
-      <c r="S18" s="1" t="n">
-        <v>-1.526104797974537</v>
-      </c>
-      <c r="T18" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>251706</v>
+        <v>251455</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>T3</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="D19" t="n">
-        <v>50.79365079365079</v>
+        <v>82.765625</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>2025-05-12 07:00:00</t>
+          <t>2025-05-07 07:00:00</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>2025-05-12 07:00:00</t>
+          <t>2025-05-07 07:19:00</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>2025-05-12 07:00:00</t>
+          <t>2025-05-07 07:19:00</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>2025-05-12 07:50:47</t>
+          <t>2025-05-07 08:41:45</t>
         </is>
       </c>
       <c r="I19" t="n">
-        <v>3200</v>
+        <v>5297</v>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>foglio</t>
+          <t>bobina</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>T3</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M19" t="n">
-        <v>0</v>
-      </c>
-      <c r="N19" t="inlineStr">
-        <is>
-          <t>39764 (esterno)</t>
-        </is>
+        <v>70</v>
+      </c>
+      <c r="N19" t="n">
+        <v>39749</v>
       </c>
       <c r="O19" t="inlineStr">
         <is>
@@ -1940,18 +1938,18 @@
         </is>
       </c>
       <c r="P19" t="n">
-        <v>39764</v>
+        <v>39749</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>2025-05-14 00:00:00</t>
+          <t>2025-04-15 00:00:00</t>
         </is>
       </c>
       <c r="R19" s="1" t="n">
-        <v>0</v>
+        <v>-0.3623372395833334</v>
       </c>
       <c r="S19" s="1" t="n">
-        <v>0</v>
+        <v>-0.3623372395833334</v>
       </c>
       <c r="T19" t="n">
         <v>7</v>
@@ -1959,41 +1957,41 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>251547</v>
+        <v>251391</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="D20" t="n">
-        <v>184.9154929577465</v>
+        <v>91.640625</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>2025-05-08 07:00:00</t>
+          <t>2025-05-07 08:41:45</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>2025-05-08 07:34:00</t>
+          <t>2025-05-07 08:58:45</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>2025-05-08 07:34:00</t>
+          <t>2025-05-07 08:58:45</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>2025-05-08 10:38:54</t>
+          <t>2025-05-07 10:30:24</t>
         </is>
       </c>
       <c r="I20" t="n">
-        <v>13129</v>
+        <v>5865</v>
       </c>
       <c r="J20" t="inlineStr">
         <is>
@@ -2006,7 +2004,7 @@
         </is>
       </c>
       <c r="L20" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M20" t="n">
         <v>70</v>
@@ -2024,14 +2022,14 @@
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>2025-05-06 00:00:00</t>
+          <t>2025-04-23 00:00:00</t>
         </is>
       </c>
       <c r="R20" s="1" t="n">
-        <v>-1.443691314548611</v>
+        <v>-0.4377821180555556</v>
       </c>
       <c r="S20" s="1" t="n">
-        <v>-1.443691314548611</v>
+        <v>-0.4377821180555556</v>
       </c>
       <c r="T20" t="n">
         <v>7</v>
@@ -2039,41 +2037,41 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>250759</v>
+        <v>251395</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="D21" t="n">
-        <v>118.2816901408451</v>
+        <v>35.34375</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>2025-05-08 10:38:54</t>
+          <t>2025-05-07 10:30:24</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>2025-05-08 11:08:54</t>
+          <t>2025-05-07 10:47:24</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>2025-05-08 11:08:54</t>
+          <t>2025-05-07 10:47:24</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>2025-05-08 13:07:11</t>
+          <t>2025-05-07 11:22:45</t>
         </is>
       </c>
       <c r="I21" t="n">
-        <v>8398</v>
+        <v>2262</v>
       </c>
       <c r="J21" t="inlineStr">
         <is>
@@ -2082,17 +2080,17 @@
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L21" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M21" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="N21" t="n">
-        <v>39747</v>
+        <v>39749</v>
       </c>
       <c r="O21" t="inlineStr">
         <is>
@@ -2100,60 +2098,60 @@
         </is>
       </c>
       <c r="P21" t="n">
-        <v>39747</v>
+        <v>39749</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>2025-03-13 00:00:00</t>
+          <t>2025-04-23 00:00:00</t>
         </is>
       </c>
       <c r="R21" s="1" t="n">
-        <v>-0.5466647104861111</v>
+        <v>-0.4741319444444445</v>
       </c>
       <c r="S21" s="1" t="n">
-        <v>-0.5466647104861111</v>
+        <v>-0.4741319444444445</v>
       </c>
       <c r="T21" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>250894</v>
+        <v>251371</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D22" t="n">
-        <v>623.4084507042254</v>
+        <v>0</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>2025-05-08 13:07:11</t>
+          <t>2025-05-07 11:22:45</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>2025-05-08 13:24:11</t>
+          <t>2025-05-07 11:41:45</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>2025-05-08 13:24:11</t>
+          <t>2025-05-07 11:41:45</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>2025-05-12 07:47:36</t>
+          <t>2025-05-07 11:41:45</t>
         </is>
       </c>
       <c r="I22" t="n">
-        <v>44262</v>
+        <v>0</v>
       </c>
       <c r="J22" t="inlineStr">
         <is>
@@ -2162,76 +2160,80 @@
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L22" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M22" t="n">
-        <v>76</v>
-      </c>
-      <c r="N22" t="n">
-        <v>39755</v>
-      </c>
-      <c r="O22" t="n">
-        <v>0</v>
+        <v>70</v>
+      </c>
+      <c r="N22" t="inlineStr">
+        <is>
+          <t>39666 (esterno)</t>
+        </is>
+      </c>
+      <c r="O22" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P22" t="n">
-        <v>0</v>
+        <v>39666</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>2025-05-05 00:00:00</t>
+          <t>2025-04-24 00:00:00</t>
         </is>
       </c>
       <c r="R22" s="1" t="n">
-        <v>0</v>
+        <v>-13.48732638888889</v>
       </c>
       <c r="S22" s="1" t="n">
-        <v>0</v>
+        <v>-13.48732638888889</v>
       </c>
       <c r="T22" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>251456</v>
+        <v>251396</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>R3</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="D23" t="n">
-        <v>183.6530612244898</v>
+        <v>35.34375</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>2025-05-08 07:00:00</t>
+          <t>2025-05-07 11:41:45</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>2025-05-08 07:40:00</t>
+          <t>2025-05-07 12:00:45</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>2025-05-08 07:40:00</t>
+          <t>2025-05-07 12:00:45</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>2025-05-08 10:43:39</t>
+          <t>2025-05-07 12:36:05</t>
         </is>
       </c>
       <c r="I23" t="n">
-        <v>8999</v>
+        <v>2262</v>
       </c>
       <c r="J23" t="inlineStr">
         <is>
@@ -2244,13 +2246,13 @@
         </is>
       </c>
       <c r="L23" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="M23" t="n">
         <v>70</v>
       </c>
       <c r="N23" t="n">
-        <v>39746</v>
+        <v>39749</v>
       </c>
       <c r="O23" t="inlineStr">
         <is>
@@ -2258,60 +2260,60 @@
         </is>
       </c>
       <c r="P23" t="n">
-        <v>39746</v>
+        <v>39749</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>2025-05-09 00:00:00</t>
+          <t>2025-05-02 00:00:00</t>
         </is>
       </c>
       <c r="R23" s="1" t="n">
-        <v>-3.300510204085648</v>
+        <v>-0.5250651041666666</v>
       </c>
       <c r="S23" s="1" t="n">
-        <v>-2.446981292511574</v>
+        <v>-0.5250651041666666</v>
       </c>
       <c r="T23" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>251164</v>
+        <v>251548</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>R3</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>50</v>
+        <v>19</v>
       </c>
       <c r="D24" t="n">
-        <v>204.0816326530612</v>
+        <v>206.90625</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>2025-05-08 10:43:39</t>
+          <t>2025-05-07 12:36:05</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>2025-05-08 11:33:39</t>
+          <t>2025-05-07 12:55:05</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>2025-05-08 11:33:39</t>
+          <t>2025-05-07 12:55:05</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>2025-05-08 14:57:44</t>
+          <t>2025-05-08 08:22:00</t>
         </is>
       </c>
       <c r="I24" t="n">
-        <v>10000</v>
+        <v>13242</v>
       </c>
       <c r="J24" t="inlineStr">
         <is>
@@ -2324,7 +2326,7 @@
         </is>
       </c>
       <c r="L24" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M24" t="n">
         <v>70</v>
@@ -2342,56 +2344,56 @@
       </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>2025-04-22 00:00:00</t>
+          <t>2025-05-06 00:00:00</t>
         </is>
       </c>
       <c r="R24" s="1" t="n">
-        <v>-1.623426870752315</v>
+        <v>-1.348611111111111</v>
       </c>
       <c r="S24" s="1" t="n">
-        <v>-1.623426870752315</v>
+        <v>-1.348611111111111</v>
       </c>
       <c r="T24" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>251227</v>
+        <v>250923</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>109.46875</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>2025-05-08 12:00:00</t>
+          <t>2025-05-08 08:22:00</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>2025-05-08 12:19:00</t>
+          <t>2025-05-08 08:54:00</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>2025-05-08 12:19:00</t>
+          <t>2025-05-08 08:54:00</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>2025-05-08 12:19:00</t>
+          <t>2025-05-08 10:43:28</t>
         </is>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>7006</v>
       </c>
       <c r="J25" t="inlineStr">
         <is>
@@ -2404,13 +2406,13 @@
         </is>
       </c>
       <c r="L25" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M25" t="n">
         <v>76</v>
       </c>
       <c r="N25" t="n">
-        <v>39746</v>
+        <v>39749</v>
       </c>
       <c r="O25" t="inlineStr">
         <is>
@@ -2418,60 +2420,60 @@
         </is>
       </c>
       <c r="P25" t="n">
-        <v>39746</v>
+        <v>39749</v>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>2025-05-05 00:00:00</t>
+          <t>2025-04-07 00:00:00</t>
         </is>
       </c>
       <c r="R25" s="1" t="n">
-        <v>-2.523611111111111</v>
+        <v>-1.446853298611111</v>
       </c>
       <c r="S25" s="1" t="n">
-        <v>-2.513194444444444</v>
+        <v>-1.446853298611111</v>
       </c>
       <c r="T25" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>251782</v>
+        <v>251477</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D26" t="n">
-        <v>170.0422535211268</v>
+        <v>468.734375</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>2025-05-08 12:19:00</t>
+          <t>2025-05-08 10:43:28</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>2025-05-08 12:36:00</t>
+          <t>2025-05-08 11:02:28</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>2025-05-08 12:36:00</t>
+          <t>2025-05-08 11:02:28</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>2025-05-09 07:26:02</t>
+          <t>2025-05-09 10:51:12</t>
         </is>
       </c>
       <c r="I26" t="n">
-        <v>12073</v>
+        <v>29999</v>
       </c>
       <c r="J26" t="inlineStr">
         <is>
@@ -2490,7 +2492,7 @@
         <v>76</v>
       </c>
       <c r="N26" t="n">
-        <v>39754</v>
+        <v>39760</v>
       </c>
       <c r="O26" t="inlineStr">
         <is>
@@ -2498,18 +2500,18 @@
         </is>
       </c>
       <c r="P26" t="n">
-        <v>39754</v>
+        <v>39760</v>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
-          <t>2025-05-16 00:00:00</t>
+          <t>2025-04-28 00:00:00</t>
         </is>
       </c>
       <c r="R26" s="1" t="n">
-        <v>-0.3097515649421296</v>
+        <v>-2.452224392361111</v>
       </c>
       <c r="S26" s="1" t="n">
-        <v>-0.3097515649421296</v>
+        <v>-2.452224392361111</v>
       </c>
       <c r="T26" t="n">
         <v>1</v>
@@ -2517,41 +2519,41 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>251225</v>
+        <v>251416</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>175.34375</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>2025-05-09 07:26:02</t>
+          <t>2025-05-09 10:51:12</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>2025-05-09 07:43:02</t>
+          <t>2025-05-09 11:23:12</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>2025-05-09 07:43:02</t>
+          <t>2025-05-09 11:23:12</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>2025-05-09 07:43:02</t>
+          <t>2025-05-09 14:18:32</t>
         </is>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>11222</v>
       </c>
       <c r="J27" t="inlineStr">
         <is>
@@ -2560,39 +2562,37 @@
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L27" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M27" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="N27" t="n">
-        <v>39747</v>
-      </c>
-      <c r="O27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>39755</v>
+      </c>
+      <c r="O27" t="n">
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>39747</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
-          <t>2025-04-30 00:00:00</t>
+          <t>2025-04-23 00:00:00</t>
         </is>
       </c>
       <c r="R27" s="1" t="n">
-        <v>-1.321557120497685</v>
+        <v>0</v>
       </c>
       <c r="S27" s="1" t="n">
-        <v>-1.321557120497685</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28">
@@ -2661,7 +2661,7 @@
         </is>
       </c>
       <c r="R28" s="1" t="n">
-        <v>0</v>
+        <v>-14.31945422534722</v>
       </c>
       <c r="S28" t="n">
         <v>4</v>
@@ -2733,7 +2733,7 @@
         </is>
       </c>
       <c r="R29" s="1" t="n">
-        <v>0</v>
+        <v>-2.465152550092593</v>
       </c>
       <c r="S29" t="n">
         <v>8</v>
@@ -2805,7 +2805,7 @@
         </is>
       </c>
       <c r="R30" s="1" t="n">
-        <v>0</v>
+        <v>-2.5025390625</v>
       </c>
       <c r="S30" t="n">
         <v>8</v>
@@ -2877,7 +2877,7 @@
         </is>
       </c>
       <c r="R31" s="1" t="n">
-        <v>0</v>
+        <v>-2.560940346087963</v>
       </c>
       <c r="S31" t="n">
         <v>8</v>
@@ -2949,7 +2949,7 @@
         </is>
       </c>
       <c r="R32" s="1" t="n">
-        <v>0</v>
+        <v>-12.35892857142361</v>
       </c>
       <c r="S32" t="n">
         <v>7</v>
@@ -3021,7 +3021,7 @@
         </is>
       </c>
       <c r="R33" s="1" t="n">
-        <v>0</v>
+        <v>-9.585894097222223</v>
       </c>
       <c r="S33" t="n">
         <v>7</v>
@@ -3093,7 +3093,7 @@
         </is>
       </c>
       <c r="R34" s="1" t="n">
-        <v>0</v>
+        <v>-7.396717171712963</v>
       </c>
       <c r="S34" t="n">
         <v>7</v>
@@ -3453,7 +3453,7 @@
         </is>
       </c>
       <c r="R39" s="1" t="n">
-        <v>0</v>
+        <v>-238.3566999217477</v>
       </c>
       <c r="S39" t="n">
         <v>2</v>
@@ -3525,7 +3525,7 @@
         </is>
       </c>
       <c r="R40" s="1" t="n">
-        <v>0</v>
+        <v>-553.4429577464815</v>
       </c>
       <c r="S40" t="n">
         <v>4</v>
@@ -3597,7 +3597,7 @@
         </is>
       </c>
       <c r="R41" s="1" t="n">
-        <v>0</v>
+        <v>-108.3039906103241</v>
       </c>
       <c r="S41" t="n">
         <v>2</v>
@@ -3669,7 +3669,7 @@
         </is>
       </c>
       <c r="R42" s="1" t="n">
-        <v>0</v>
+        <v>-15.2991071428588</v>
       </c>
       <c r="S42" t="n">
         <v>4</v>
@@ -3741,7 +3741,7 @@
         </is>
       </c>
       <c r="R43" s="1" t="n">
-        <v>0</v>
+        <v>-14.50895947177083</v>
       </c>
       <c r="S43" t="n">
         <v>4</v>
@@ -3813,7 +3813,7 @@
         </is>
       </c>
       <c r="R44" s="1" t="n">
-        <v>0</v>
+        <v>-14.48929924241898</v>
       </c>
       <c r="S44" t="n">
         <v>4</v>
@@ -3885,7 +3885,7 @@
         </is>
       </c>
       <c r="R45" s="1" t="n">
-        <v>0</v>
+        <v>-12.53967136150463</v>
       </c>
       <c r="S45" t="n">
         <v>4</v>
@@ -3957,7 +3957,7 @@
         </is>
       </c>
       <c r="R46" s="1" t="n">
-        <v>0</v>
+        <v>-5.559761345856481</v>
       </c>
       <c r="S46" t="n">
         <v>4</v>
@@ -4029,7 +4029,7 @@
         </is>
       </c>
       <c r="R47" s="1" t="n">
-        <v>0</v>
+        <v>-4.566287878784722</v>
       </c>
       <c r="S47" t="n">
         <v>4</v>
@@ -4101,7 +4101,7 @@
         </is>
       </c>
       <c r="R48" s="1" t="n">
-        <v>0</v>
+        <v>-4.571914845173612</v>
       </c>
       <c r="S48" t="n">
         <v>4</v>
@@ -4173,7 +4173,7 @@
         </is>
       </c>
       <c r="R49" s="1" t="n">
-        <v>0</v>
+        <v>-4.580293715844907</v>
       </c>
       <c r="S49" t="n">
         <v>4</v>
@@ -4389,7 +4389,7 @@
         </is>
       </c>
       <c r="R52" s="1" t="n">
-        <v>0</v>
+        <v>-25.47753325508102</v>
       </c>
       <c r="S52" t="n">
         <v>2</v>
@@ -4461,7 +4461,7 @@
         </is>
       </c>
       <c r="R53" s="1" t="n">
-        <v>0</v>
+        <v>-25.36457702019676</v>
       </c>
       <c r="S53" t="n">
         <v>2</v>
@@ -4533,7 +4533,7 @@
         </is>
       </c>
       <c r="R54" s="1" t="n">
-        <v>0</v>
+        <v>-20.31067850637731</v>
       </c>
       <c r="S54" t="n">
         <v>2</v>
@@ -4605,7 +4605,7 @@
         </is>
       </c>
       <c r="R55" s="1" t="n">
-        <v>0</v>
+        <v>-15.31380919854167</v>
       </c>
       <c r="S55" t="n">
         <v>2</v>
@@ -4677,7 +4677,7 @@
         </is>
       </c>
       <c r="R56" s="1" t="n">
-        <v>0</v>
+        <v>-15.36771336554398</v>
       </c>
       <c r="S56" t="n">
         <v>2</v>
@@ -4749,7 +4749,7 @@
         </is>
       </c>
       <c r="R57" s="1" t="n">
-        <v>0</v>
+        <v>-8.350425170069444</v>
       </c>
       <c r="S57" t="n">
         <v>2</v>
@@ -4821,7 +4821,7 @@
         </is>
       </c>
       <c r="R58" s="1" t="n">
-        <v>0</v>
+        <v>-7.367928403761574</v>
       </c>
       <c r="S58" t="n">
         <v>2</v>
@@ -4893,7 +4893,7 @@
         </is>
       </c>
       <c r="R59" s="1" t="n">
-        <v>0</v>
+        <v>-285.306660798125</v>
       </c>
       <c r="S59" t="n">
         <v>1</v>
@@ -5037,7 +5037,7 @@
         </is>
       </c>
       <c r="R61" s="1" t="n">
-        <v>0</v>
+        <v>-225.3452982695833</v>
       </c>
       <c r="S61" t="n">
         <v>1</v>
@@ -5109,7 +5109,7 @@
         </is>
       </c>
       <c r="R62" s="1" t="n">
-        <v>0</v>
+        <v>-56.37124316939815</v>
       </c>
       <c r="S62" t="n">
         <v>1</v>
@@ -5181,7 +5181,7 @@
         </is>
       </c>
       <c r="R63" s="1" t="n">
-        <v>0</v>
+        <v>-46.368359375</v>
       </c>
       <c r="S63" t="n">
         <v>1</v>
@@ -5253,7 +5253,7 @@
         </is>
       </c>
       <c r="R64" s="1" t="n">
-        <v>0</v>
+        <v>-9.389824263043982</v>
       </c>
       <c r="S64" t="n">
         <v>1</v>
@@ -5325,7 +5325,7 @@
         </is>
       </c>
       <c r="R65" s="1" t="n">
-        <v>0</v>
+        <v>-5.3925</v>
       </c>
       <c r="S65" t="n">
         <v>1</v>
@@ -5397,7 +5397,7 @@
         </is>
       </c>
       <c r="R66" s="1" t="n">
-        <v>0</v>
+        <v>-4.505867552337963</v>
       </c>
       <c r="S66" t="n">
         <v>1</v>
@@ -5469,7 +5469,7 @@
         </is>
       </c>
       <c r="R67" s="1" t="n">
-        <v>0</v>
+        <v>-4.441128716747685</v>
       </c>
       <c r="S67" t="n">
         <v>1</v>
@@ -5541,7 +5541,7 @@
         </is>
       </c>
       <c r="R68" s="1" t="n">
-        <v>0</v>
+        <v>-4.457150607638889</v>
       </c>
       <c r="S68" t="n">
         <v>1</v>
@@ -5613,7 +5613,7 @@
         </is>
       </c>
       <c r="R69" s="1" t="n">
-        <v>0</v>
+        <v>-4.472814207650463</v>
       </c>
       <c r="S69" t="n">
         <v>1</v>
@@ -5685,7 +5685,7 @@
         </is>
       </c>
       <c r="R70" s="1" t="n">
-        <v>0</v>
+        <v>-4.513830203437499</v>
       </c>
       <c r="S70" t="n">
         <v>1</v>
@@ -5757,7 +5757,7 @@
         </is>
       </c>
       <c r="R71" s="1" t="n">
-        <v>0</v>
+        <v>-4.537901475694444</v>
       </c>
       <c r="S71" t="n">
         <v>1</v>
@@ -5829,7 +5829,7 @@
         </is>
       </c>
       <c r="R72" s="1" t="n">
-        <v>0</v>
+        <v>-4.563831967210648</v>
       </c>
       <c r="S72" t="n">
         <v>1</v>
@@ -5901,7 +5901,7 @@
         </is>
       </c>
       <c r="R73" s="1" t="n">
-        <v>0</v>
+        <v>-2.359575508611111</v>
       </c>
       <c r="S73" t="n">
         <v>1</v>

--- a/PS-VRP/Dati_output/euristico_post.xlsx
+++ b/PS-VRP/Dati_output/euristico_post.xlsx
@@ -515,18 +515,18 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>251742</v>
+        <v>251547</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="D2" t="n">
-        <v>134.8524590163935</v>
+        <v>184.9154929577465</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -535,21 +535,21 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2025-05-08 07:30:00</t>
+          <t>2025-05-08 07:34:00</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2025-05-08 07:30:00</t>
+          <t>2025-05-08 07:34:00</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2025-05-08 09:44:51</t>
+          <t>2025-05-08 10:38:54</t>
         </is>
       </c>
       <c r="I2" t="n">
-        <v>8226</v>
+        <v>13129</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
@@ -580,14 +580,14 @@
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>2025-05-15 00:00:00</t>
+          <t>2025-05-06 00:00:00</t>
         </is>
       </c>
       <c r="R2" s="1" t="n">
-        <v>-1.406147540983796</v>
+        <v>-1.443691314548611</v>
       </c>
       <c r="S2" s="1" t="n">
-        <v>-1.406147540983796</v>
+        <v>-1.443691314548611</v>
       </c>
       <c r="T2" t="n">
         <v>7</v>
@@ -595,41 +595,41 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>251840</v>
+        <v>250759</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D3" t="n">
-        <v>93.67213114754098</v>
+        <v>118.2816901408451</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2025-05-08 09:44:51</t>
+          <t>2025-05-08 10:38:54</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2025-05-08 10:09:51</t>
+          <t>2025-05-08 11:08:54</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>2025-05-08 10:09:51</t>
+          <t>2025-05-08 11:08:54</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2025-05-08 11:43:31</t>
+          <t>2025-05-08 13:07:11</t>
         </is>
       </c>
       <c r="I3" t="n">
-        <v>5714</v>
+        <v>8398</v>
       </c>
       <c r="J3" t="inlineStr">
         <is>
@@ -638,17 +638,17 @@
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12</t>
         </is>
       </c>
       <c r="L3" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M3" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="N3" t="n">
-        <v>39758</v>
+        <v>39747</v>
       </c>
       <c r="O3" t="inlineStr">
         <is>
@@ -656,18 +656,18 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>39758</v>
+        <v>39747</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>2025-05-09 00:00:00</t>
+          <t>2025-03-13 00:00:00</t>
         </is>
       </c>
       <c r="R3" s="1" t="n">
-        <v>-0.4885587431712963</v>
+        <v>-0.5466647104861111</v>
       </c>
       <c r="S3" s="1" t="n">
-        <v>-0.4885587431712963</v>
+        <v>-0.5466647104861111</v>
       </c>
       <c r="T3" t="n">
         <v>1</v>
@@ -675,41 +675,41 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>251229</v>
+        <v>250894</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="D4" t="n">
-        <v>307.1967213114754</v>
+        <v>623.4084507042254</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2025-05-08 11:43:31</t>
+          <t>2025-05-08 13:07:11</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2025-05-08 12:08:31</t>
+          <t>2025-05-08 13:24:11</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>2025-05-08 12:08:31</t>
+          <t>2025-05-08 13:24:11</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>2025-05-09 09:15:43</t>
+          <t>2025-05-12 07:47:36</t>
         </is>
       </c>
       <c r="I4" t="n">
-        <v>18739</v>
+        <v>44262</v>
       </c>
       <c r="J4" t="inlineStr">
         <is>
@@ -718,31 +718,27 @@
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L4" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="M4" t="n">
-        <v>70</v>
-      </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>39723 (esterno)</t>
-        </is>
-      </c>
-      <c r="O4" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>76</v>
+      </c>
+      <c r="N4" t="n">
+        <v>39755</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>39723</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>2025-05-15 00:00:00</t>
+          <t>2025-05-05 00:00:00</t>
         </is>
       </c>
       <c r="R4" s="1" t="n">
@@ -752,46 +748,46 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>251164</v>
+        <v>251416</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>R3</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="D5" t="n">
-        <v>204.0816326530612</v>
+        <v>158.056338028169</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2025-05-08 07:00:00</t>
+          <t>2025-05-12 07:47:36</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2025-05-08 07:55:00</t>
+          <t>2025-05-12 08:23:36</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>2025-05-08 07:55:00</t>
+          <t>2025-05-12 08:23:36</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>2025-05-08 11:19:04</t>
+          <t>2025-05-12 11:01:39</t>
         </is>
       </c>
       <c r="I5" t="n">
-        <v>10000</v>
+        <v>11222</v>
       </c>
       <c r="J5" t="inlineStr">
         <is>
@@ -804,74 +800,72 @@
         </is>
       </c>
       <c r="L5" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="M5" t="n">
         <v>70</v>
       </c>
       <c r="N5" t="n">
-        <v>39749</v>
-      </c>
-      <c r="O5" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>39755</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>39749</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>2025-04-22 00:00:00</t>
+          <t>2025-04-23 00:00:00</t>
         </is>
       </c>
       <c r="R5" s="1" t="n">
-        <v>-1.471584467118056</v>
+        <v>0</v>
       </c>
       <c r="S5" s="1" t="n">
-        <v>-1.471584467118056</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>251456</v>
+        <v>251742</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>R3</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="D6" t="n">
-        <v>183.6530612244898</v>
+        <v>134.8524590163935</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2025-05-08 11:19:04</t>
+          <t>2025-05-08 07:00:00</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2025-05-08 12:09:04</t>
+          <t>2025-05-08 07:30:00</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>2025-05-08 12:09:04</t>
+          <t>2025-05-08 07:30:00</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>2025-05-09 07:12:44</t>
+          <t>2025-05-08 09:44:51</t>
         </is>
       </c>
       <c r="I6" t="n">
-        <v>8999</v>
+        <v>8226</v>
       </c>
       <c r="J6" t="inlineStr">
         <is>
@@ -884,13 +878,13 @@
         </is>
       </c>
       <c r="L6" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M6" t="n">
         <v>70</v>
       </c>
       <c r="N6" t="n">
-        <v>39746</v>
+        <v>39749</v>
       </c>
       <c r="O6" t="inlineStr">
         <is>
@@ -898,60 +892,60 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>39746</v>
+        <v>39749</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>2025-05-09 00:00:00</t>
+          <t>2025-05-15 00:00:00</t>
         </is>
       </c>
       <c r="R6" s="1" t="n">
-        <v>-3.300510204085648</v>
+        <v>-1.406147540983796</v>
       </c>
       <c r="S6" s="1" t="n">
-        <v>-3.300510204085648</v>
+        <v>-1.406147540983796</v>
       </c>
       <c r="T6" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>251050</v>
+        <v>251840</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>217</v>
+        <v>25</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>93.67213114754098</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>2025-05-09 07:00:00</t>
+          <t>2025-05-08 09:44:51</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2025-05-09 10:37:00</t>
+          <t>2025-05-08 10:09:51</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>2025-05-09 10:37:00</t>
+          <t>2025-05-08 10:09:51</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>2025-05-09 10:37:00</t>
+          <t>2025-05-08 11:43:31</t>
         </is>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>5714</v>
       </c>
       <c r="J7" t="inlineStr">
         <is>
@@ -960,17 +954,17 @@
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L7" t="n">
-        <v>38</v>
+        <v>5</v>
       </c>
       <c r="M7" t="n">
         <v>70</v>
       </c>
       <c r="N7" t="n">
-        <v>39747</v>
+        <v>39758</v>
       </c>
       <c r="O7" t="inlineStr">
         <is>
@@ -978,60 +972,60 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>39747</v>
+        <v>39758</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>2025-04-16 00:00:00</t>
+          <t>2025-05-09 00:00:00</t>
         </is>
       </c>
       <c r="R7" s="1" t="n">
-        <v>-1.442361111111111</v>
+        <v>-0.4885587431712963</v>
       </c>
       <c r="S7" s="1" t="n">
-        <v>-1.442361111111111</v>
+        <v>-0.4885587431712963</v>
       </c>
       <c r="T7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>251054</v>
+        <v>251229</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>307.1967213114754</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>2025-05-09 10:37:00</t>
+          <t>2025-05-08 11:43:31</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2025-05-09 11:12:00</t>
+          <t>2025-05-08 12:08:31</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>2025-05-09 11:12:00</t>
+          <t>2025-05-08 12:08:31</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>2025-05-09 11:12:00</t>
+          <t>2025-05-09 09:15:43</t>
         </is>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>18739</v>
       </c>
       <c r="J8" t="inlineStr">
         <is>
@@ -1040,17 +1034,19 @@
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R9</t>
         </is>
       </c>
       <c r="L8" t="n">
-        <v>38</v>
+        <v>6</v>
       </c>
       <c r="M8" t="n">
         <v>70</v>
       </c>
-      <c r="N8" t="n">
-        <v>39747</v>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>39723 (esterno)</t>
+        </is>
       </c>
       <c r="O8" t="inlineStr">
         <is>
@@ -1058,60 +1054,60 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>39747</v>
+        <v>39723</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>2025-04-16 00:00:00</t>
+          <t>2025-05-15 00:00:00</t>
         </is>
       </c>
       <c r="R8" s="1" t="n">
-        <v>-1.466666666666667</v>
+        <v>0</v>
       </c>
       <c r="S8" s="1" t="n">
-        <v>-1.466666666666667</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>251081</v>
+        <v>251164</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>R3</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>125</v>
+        <v>55</v>
       </c>
       <c r="D9" t="n">
-        <v>42.42253521126761</v>
+        <v>204.0816326530612</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>2025-05-09 11:12:00</t>
+          <t>2025-05-08 07:00:00</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>2025-05-09 13:17:00</t>
+          <t>2025-05-08 07:55:00</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>2025-05-09 13:17:00</t>
+          <t>2025-05-08 07:55:00</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>2025-05-09 13:59:25</t>
+          <t>2025-05-08 11:19:04</t>
         </is>
       </c>
       <c r="I9" t="n">
-        <v>3012</v>
+        <v>10000</v>
       </c>
       <c r="J9" t="inlineStr">
         <is>
@@ -1120,19 +1116,17 @@
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L9" t="n">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="M9" t="n">
         <v>70</v>
       </c>
-      <c r="N9" t="inlineStr">
-        <is>
-          <t>39750 (esterno)</t>
-        </is>
+      <c r="N9" t="n">
+        <v>39749</v>
       </c>
       <c r="O9" t="inlineStr">
         <is>
@@ -1140,60 +1134,60 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>39750</v>
+        <v>39749</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>2025-04-23 00:00:00</t>
+          <t>2025-04-22 00:00:00</t>
         </is>
       </c>
       <c r="R9" s="1" t="n">
-        <v>-16.58293231612268</v>
+        <v>-1.471584467118056</v>
       </c>
       <c r="S9" s="1" t="n">
-        <v>-16.58293231612268</v>
+        <v>-1.471584467118056</v>
       </c>
       <c r="T9" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>251225</v>
+        <v>251456</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>R3</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>19</v>
+        <v>50</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>183.6530612244898</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>2025-05-08 12:00:00</t>
+          <t>2025-05-08 11:19:04</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>2025-05-08 12:19:00</t>
+          <t>2025-05-08 12:09:04</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>2025-05-08 12:19:00</t>
+          <t>2025-05-08 12:09:04</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>2025-05-08 12:19:00</t>
+          <t>2025-05-09 07:12:44</t>
         </is>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>8999</v>
       </c>
       <c r="J10" t="inlineStr">
         <is>
@@ -1202,17 +1196,17 @@
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L10" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M10" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="N10" t="n">
-        <v>39747</v>
+        <v>39746</v>
       </c>
       <c r="O10" t="inlineStr">
         <is>
@@ -1220,18 +1214,18 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>39747</v>
+        <v>39746</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>2025-04-30 00:00:00</t>
+          <t>2025-05-09 00:00:00</t>
         </is>
       </c>
       <c r="R10" s="1" t="n">
-        <v>-0.5131944444444444</v>
+        <v>-3.300510204085648</v>
       </c>
       <c r="S10" s="1" t="n">
-        <v>-0.5131944444444444</v>
+        <v>-3.300510204085648</v>
       </c>
       <c r="T10" t="n">
         <v>1</v>
@@ -1239,37 +1233,37 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>251227</v>
+        <v>251050</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>15</v>
+        <v>217</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>2025-05-08 12:19:00</t>
+          <t>2025-05-09 07:00:00</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>2025-05-08 12:34:00</t>
+          <t>2025-05-09 10:37:00</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>2025-05-08 12:34:00</t>
+          <t>2025-05-09 10:37:00</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>2025-05-08 12:34:00</t>
+          <t>2025-05-09 10:37:00</t>
         </is>
       </c>
       <c r="I11" t="n">
@@ -1282,17 +1276,17 @@
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="L11" t="n">
-        <v>4</v>
+        <v>38</v>
       </c>
       <c r="M11" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="N11" t="n">
-        <v>39746</v>
+        <v>39747</v>
       </c>
       <c r="O11" t="inlineStr">
         <is>
@@ -1300,60 +1294,60 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>39746</v>
+        <v>39747</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>2025-05-05 00:00:00</t>
+          <t>2025-04-16 00:00:00</t>
         </is>
       </c>
       <c r="R11" s="1" t="n">
-        <v>-2.523611111111111</v>
+        <v>-1.442361111111111</v>
       </c>
       <c r="S11" s="1" t="n">
-        <v>-2.523611111111111</v>
+        <v>-1.442361111111111</v>
       </c>
       <c r="T11" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>251782</v>
+        <v>251054</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="D12" t="n">
-        <v>170.0422535211268</v>
+        <v>0</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>2025-05-08 12:34:00</t>
+          <t>2025-05-09 10:37:00</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>2025-05-08 12:51:00</t>
+          <t>2025-05-09 11:12:00</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>2025-05-08 12:51:00</t>
+          <t>2025-05-09 11:12:00</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>2025-05-09 07:41:02</t>
+          <t>2025-05-09 11:12:00</t>
         </is>
       </c>
       <c r="I12" t="n">
-        <v>12073</v>
+        <v>0</v>
       </c>
       <c r="J12" t="inlineStr">
         <is>
@@ -1362,17 +1356,17 @@
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R6 ;R9</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="L12" t="n">
-        <v>3</v>
+        <v>38</v>
       </c>
       <c r="M12" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="N12" t="n">
-        <v>39754</v>
+        <v>39747</v>
       </c>
       <c r="O12" t="inlineStr">
         <is>
@@ -1380,60 +1374,60 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>39754</v>
+        <v>39747</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>2025-05-16 00:00:00</t>
+          <t>2025-04-16 00:00:00</t>
         </is>
       </c>
       <c r="R12" s="1" t="n">
-        <v>-0.3201682316087963</v>
+        <v>-1.466666666666667</v>
       </c>
       <c r="S12" s="1" t="n">
-        <v>-0.3201682316087963</v>
+        <v>-1.466666666666667</v>
       </c>
       <c r="T12" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>251284</v>
+        <v>251081</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>40.5</v>
+        <v>125</v>
       </c>
       <c r="D13" t="n">
-        <v>297.0909090909091</v>
+        <v>42.42253521126761</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>2025-05-09 07:00:00</t>
+          <t>2025-05-09 11:12:00</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>2025-05-09 07:40:30</t>
+          <t>2025-05-09 13:17:00</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>2025-05-09 07:40:30</t>
+          <t>2025-05-09 13:17:00</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>2025-05-09 12:37:35</t>
+          <t>2025-05-09 13:59:25</t>
         </is>
       </c>
       <c r="I13" t="n">
-        <v>16340</v>
+        <v>3012</v>
       </c>
       <c r="J13" t="inlineStr">
         <is>
@@ -1442,17 +1436,19 @@
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>CASON ;R6</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="L13" t="n">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="M13" t="n">
         <v>70</v>
       </c>
-      <c r="N13" t="n">
-        <v>39747</v>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>39750 (esterno)</t>
+        </is>
       </c>
       <c r="O13" t="inlineStr">
         <is>
@@ -1460,21 +1456,21 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>39747</v>
+        <v>39750</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>2025-05-12 00:00:00</t>
+          <t>2025-04-23 00:00:00</t>
         </is>
       </c>
       <c r="R13" s="1" t="n">
-        <v>-1.526104797974537</v>
+        <v>-16.58293231612268</v>
       </c>
       <c r="S13" s="1" t="n">
-        <v>-1.526104797974537</v>
+        <v>-16.58293231612268</v>
       </c>
       <c r="T13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14">
@@ -1557,41 +1553,41 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>251547</v>
+        <v>251225</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="D15" t="n">
-        <v>184.9154929577465</v>
+        <v>0</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>2025-05-08 07:00:00</t>
+          <t>2025-05-08 12:00:00</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>2025-05-08 07:34:00</t>
+          <t>2025-05-08 12:19:00</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>2025-05-08 07:34:00</t>
+          <t>2025-05-08 12:19:00</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>2025-05-08 10:38:54</t>
+          <t>2025-05-08 12:19:00</t>
         </is>
       </c>
       <c r="I15" t="n">
-        <v>13129</v>
+        <v>0</v>
       </c>
       <c r="J15" t="inlineStr">
         <is>
@@ -1600,17 +1596,17 @@
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L15" t="n">
         <v>4</v>
       </c>
       <c r="M15" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="N15" t="n">
-        <v>39749</v>
+        <v>39747</v>
       </c>
       <c r="O15" t="inlineStr">
         <is>
@@ -1618,60 +1614,60 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>39749</v>
+        <v>39747</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>2025-05-06 00:00:00</t>
+          <t>2025-04-30 00:00:00</t>
         </is>
       </c>
       <c r="R15" s="1" t="n">
-        <v>-1.443691314548611</v>
+        <v>-0.5131944444444444</v>
       </c>
       <c r="S15" s="1" t="n">
-        <v>-1.443691314548611</v>
+        <v>-0.5131944444444444</v>
       </c>
       <c r="T15" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>250759</v>
+        <v>251227</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="D16" t="n">
-        <v>118.2816901408451</v>
+        <v>0</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>2025-05-08 10:38:54</t>
+          <t>2025-05-08 12:19:00</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>2025-05-08 11:08:54</t>
+          <t>2025-05-08 12:34:00</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>2025-05-08 11:08:54</t>
+          <t>2025-05-08 12:34:00</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>2025-05-08 13:07:11</t>
+          <t>2025-05-08 12:34:00</t>
         </is>
       </c>
       <c r="I16" t="n">
-        <v>8398</v>
+        <v>0</v>
       </c>
       <c r="J16" t="inlineStr">
         <is>
@@ -1680,7 +1676,7 @@
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L16" t="n">
@@ -1690,7 +1686,7 @@
         <v>76</v>
       </c>
       <c r="N16" t="n">
-        <v>39747</v>
+        <v>39746</v>
       </c>
       <c r="O16" t="inlineStr">
         <is>
@@ -1698,18 +1694,18 @@
         </is>
       </c>
       <c r="P16" t="n">
-        <v>39747</v>
+        <v>39746</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>2025-03-13 00:00:00</t>
+          <t>2025-05-05 00:00:00</t>
         </is>
       </c>
       <c r="R16" s="1" t="n">
-        <v>-0.5466647104861111</v>
+        <v>-2.523611111111111</v>
       </c>
       <c r="S16" s="1" t="n">
-        <v>-0.5466647104861111</v>
+        <v>-2.523611111111111</v>
       </c>
       <c r="T16" t="n">
         <v>1</v>
@@ -1717,41 +1713,41 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>250894</v>
+        <v>251782</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C17" t="n">
         <v>17</v>
       </c>
       <c r="D17" t="n">
-        <v>623.4084507042254</v>
+        <v>170.0422535211268</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>2025-05-08 13:07:11</t>
+          <t>2025-05-08 12:34:00</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>2025-05-08 13:24:11</t>
+          <t>2025-05-08 12:51:00</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>2025-05-08 13:24:11</t>
+          <t>2025-05-08 12:51:00</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>2025-05-12 07:47:36</t>
+          <t>2025-05-09 07:41:02</t>
         </is>
       </c>
       <c r="I17" t="n">
-        <v>44262</v>
+        <v>12073</v>
       </c>
       <c r="J17" t="inlineStr">
         <is>
@@ -1760,37 +1756,39 @@
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L17" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M17" t="n">
         <v>76</v>
       </c>
       <c r="N17" t="n">
-        <v>39755</v>
-      </c>
-      <c r="O17" t="n">
-        <v>0</v>
+        <v>39754</v>
+      </c>
+      <c r="O17" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>39754</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>2025-05-05 00:00:00</t>
+          <t>2025-05-16 00:00:00</t>
         </is>
       </c>
       <c r="R17" s="1" t="n">
-        <v>0</v>
+        <v>-0.3201682316087963</v>
       </c>
       <c r="S17" s="1" t="n">
-        <v>0</v>
+        <v>-0.3201682316087963</v>
       </c>
       <c r="T17" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18">
@@ -2519,41 +2517,41 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>251416</v>
+        <v>251284</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>32</v>
+        <v>40.5</v>
       </c>
       <c r="D27" t="n">
-        <v>175.34375</v>
+        <v>297.0909090909091</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>2025-05-09 10:51:12</t>
+          <t>2025-05-09 07:00:00</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>2025-05-09 11:23:12</t>
+          <t>2025-05-09 07:40:30</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>2025-05-09 11:23:12</t>
+          <t>2025-05-09 07:40:30</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>2025-05-09 14:18:32</t>
+          <t>2025-05-09 12:37:35</t>
         </is>
       </c>
       <c r="I27" t="n">
-        <v>11222</v>
+        <v>16340</v>
       </c>
       <c r="J27" t="inlineStr">
         <is>
@@ -2562,37 +2560,39 @@
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>CASON ;R6</t>
         </is>
       </c>
       <c r="L27" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="M27" t="n">
         <v>70</v>
       </c>
       <c r="N27" t="n">
-        <v>39755</v>
-      </c>
-      <c r="O27" t="n">
-        <v>0</v>
+        <v>39747</v>
+      </c>
+      <c r="O27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>39747</v>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
-          <t>2025-04-23 00:00:00</t>
+          <t>2025-05-12 00:00:00</t>
         </is>
       </c>
       <c r="R27" s="1" t="n">
-        <v>0</v>
+        <v>-1.526104797974537</v>
       </c>
       <c r="S27" s="1" t="n">
-        <v>0</v>
+        <v>-1.526104797974537</v>
       </c>
       <c r="T27" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">

--- a/PS-VRP/Dati_output/euristico_post.xlsx
+++ b/PS-VRP/Dati_output/euristico_post.xlsx
@@ -515,18 +515,18 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>251547</v>
+        <v>251742</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D2" t="n">
-        <v>184.9154929577465</v>
+        <v>134.8524590163935</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -535,21 +535,21 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2025-05-08 07:34:00</t>
+          <t>2025-05-08 07:30:00</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2025-05-08 07:34:00</t>
+          <t>2025-05-08 07:30:00</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2025-05-08 10:38:54</t>
+          <t>2025-05-08 09:44:51</t>
         </is>
       </c>
       <c r="I2" t="n">
-        <v>13129</v>
+        <v>8226</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
@@ -580,14 +580,14 @@
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>2025-05-06 00:00:00</t>
+          <t>2025-05-15 00:00:00</t>
         </is>
       </c>
       <c r="R2" s="1" t="n">
-        <v>-1.443691314548611</v>
+        <v>-1.406147540983796</v>
       </c>
       <c r="S2" s="1" t="n">
-        <v>-1.443691314548611</v>
+        <v>-1.406147540983796</v>
       </c>
       <c r="T2" t="n">
         <v>7</v>
@@ -595,41 +595,41 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>250759</v>
+        <v>251840</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D3" t="n">
-        <v>118.2816901408451</v>
+        <v>93.67213114754098</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2025-05-08 10:38:54</t>
+          <t>2025-05-08 09:44:51</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2025-05-08 11:08:54</t>
+          <t>2025-05-08 10:09:51</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>2025-05-08 11:08:54</t>
+          <t>2025-05-08 10:09:51</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2025-05-08 13:07:11</t>
+          <t>2025-05-08 11:43:31</t>
         </is>
       </c>
       <c r="I3" t="n">
-        <v>8398</v>
+        <v>5714</v>
       </c>
       <c r="J3" t="inlineStr">
         <is>
@@ -638,17 +638,17 @@
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L3" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M3" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="N3" t="n">
-        <v>39747</v>
+        <v>39758</v>
       </c>
       <c r="O3" t="inlineStr">
         <is>
@@ -656,18 +656,18 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>39747</v>
+        <v>39758</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>2025-03-13 00:00:00</t>
+          <t>2025-05-09 00:00:00</t>
         </is>
       </c>
       <c r="R3" s="1" t="n">
-        <v>-0.5466647104861111</v>
+        <v>-0.4885587431712963</v>
       </c>
       <c r="S3" s="1" t="n">
-        <v>-0.5466647104861111</v>
+        <v>-0.4885587431712963</v>
       </c>
       <c r="T3" t="n">
         <v>1</v>
@@ -675,41 +675,41 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>250894</v>
+        <v>251229</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="D4" t="n">
-        <v>623.4084507042254</v>
+        <v>307.1967213114754</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2025-05-08 13:07:11</t>
+          <t>2025-05-08 11:43:31</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2025-05-08 13:24:11</t>
+          <t>2025-05-08 12:08:31</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>2025-05-08 13:24:11</t>
+          <t>2025-05-08 12:08:31</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>2025-05-12 07:47:36</t>
+          <t>2025-05-09 09:15:43</t>
         </is>
       </c>
       <c r="I4" t="n">
-        <v>44262</v>
+        <v>18739</v>
       </c>
       <c r="J4" t="inlineStr">
         <is>
@@ -718,27 +718,31 @@
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R9</t>
         </is>
       </c>
       <c r="L4" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M4" t="n">
-        <v>76</v>
-      </c>
-      <c r="N4" t="n">
-        <v>39755</v>
-      </c>
-      <c r="O4" t="n">
-        <v>0</v>
+        <v>70</v>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>39723 (esterno)</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>39723</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>2025-05-05 00:00:00</t>
+          <t>2025-05-15 00:00:00</t>
         </is>
       </c>
       <c r="R4" s="1" t="n">
@@ -748,12 +752,12 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>251416</v>
+        <v>251547</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -761,33 +765,33 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D5" t="n">
-        <v>158.056338028169</v>
+        <v>184.9154929577465</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2025-05-12 07:47:36</t>
+          <t>2025-05-08 07:00:00</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2025-05-12 08:23:36</t>
+          <t>2025-05-08 07:34:00</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>2025-05-12 08:23:36</t>
+          <t>2025-05-08 07:34:00</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>2025-05-12 11:01:39</t>
+          <t>2025-05-08 10:38:54</t>
         </is>
       </c>
       <c r="I5" t="n">
-        <v>11222</v>
+        <v>13129</v>
       </c>
       <c r="J5" t="inlineStr">
         <is>
@@ -800,72 +804,74 @@
         </is>
       </c>
       <c r="L5" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M5" t="n">
         <v>70</v>
       </c>
       <c r="N5" t="n">
-        <v>39755</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0</v>
+        <v>39749</v>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>39749</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>2025-04-23 00:00:00</t>
+          <t>2025-05-06 00:00:00</t>
         </is>
       </c>
       <c r="R5" s="1" t="n">
-        <v>0</v>
+        <v>-1.443691314548611</v>
       </c>
       <c r="S5" s="1" t="n">
-        <v>0</v>
+        <v>-1.443691314548611</v>
       </c>
       <c r="T5" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>251742</v>
+        <v>250759</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C6" t="n">
         <v>30</v>
       </c>
       <c r="D6" t="n">
-        <v>134.8524590163935</v>
+        <v>118.2816901408451</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2025-05-08 07:00:00</t>
+          <t>2025-05-08 10:38:54</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2025-05-08 07:30:00</t>
+          <t>2025-05-08 11:08:54</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>2025-05-08 07:30:00</t>
+          <t>2025-05-08 11:08:54</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>2025-05-08 09:44:51</t>
+          <t>2025-05-08 13:07:11</t>
         </is>
       </c>
       <c r="I6" t="n">
-        <v>8226</v>
+        <v>8398</v>
       </c>
       <c r="J6" t="inlineStr">
         <is>
@@ -874,17 +880,17 @@
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12</t>
         </is>
       </c>
       <c r="L6" t="n">
         <v>4</v>
       </c>
       <c r="M6" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="N6" t="n">
-        <v>39749</v>
+        <v>39747</v>
       </c>
       <c r="O6" t="inlineStr">
         <is>
@@ -892,60 +898,60 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>39749</v>
+        <v>39747</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>2025-05-15 00:00:00</t>
+          <t>2025-03-13 00:00:00</t>
         </is>
       </c>
       <c r="R6" s="1" t="n">
-        <v>-1.406147540983796</v>
+        <v>-0.5466647104861111</v>
       </c>
       <c r="S6" s="1" t="n">
-        <v>-1.406147540983796</v>
+        <v>-0.5466647104861111</v>
       </c>
       <c r="T6" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>251840</v>
+        <v>250894</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="D7" t="n">
-        <v>93.67213114754098</v>
+        <v>623.4084507042254</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>2025-05-08 09:44:51</t>
+          <t>2025-05-08 13:07:11</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2025-05-08 10:09:51</t>
+          <t>2025-05-08 13:24:11</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>2025-05-08 10:09:51</t>
+          <t>2025-05-08 13:24:11</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>2025-05-08 11:43:31</t>
+          <t>2025-05-12 07:47:36</t>
         </is>
       </c>
       <c r="I7" t="n">
-        <v>5714</v>
+        <v>44262</v>
       </c>
       <c r="J7" t="inlineStr">
         <is>
@@ -954,78 +960,76 @@
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L7" t="n">
         <v>5</v>
       </c>
       <c r="M7" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="N7" t="n">
-        <v>39758</v>
-      </c>
-      <c r="O7" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>39755</v>
+      </c>
+      <c r="O7" t="n">
+        <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>39758</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>2025-05-09 00:00:00</t>
+          <t>2025-05-05 00:00:00</t>
         </is>
       </c>
       <c r="R7" s="1" t="n">
-        <v>-0.4885587431712963</v>
+        <v>0</v>
       </c>
       <c r="S7" s="1" t="n">
-        <v>-0.4885587431712963</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>251229</v>
+        <v>251416</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="D8" t="n">
-        <v>307.1967213114754</v>
+        <v>158.056338028169</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>2025-05-08 11:43:31</t>
+          <t>2025-05-12 07:47:36</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2025-05-08 12:08:31</t>
+          <t>2025-05-12 08:23:36</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>2025-05-08 12:08:31</t>
+          <t>2025-05-12 08:23:36</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>2025-05-09 09:15:43</t>
+          <t>2025-05-12 11:01:39</t>
         </is>
       </c>
       <c r="I8" t="n">
-        <v>18739</v>
+        <v>11222</v>
       </c>
       <c r="J8" t="inlineStr">
         <is>
@@ -1034,31 +1038,27 @@
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L8" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="M8" t="n">
         <v>70</v>
       </c>
-      <c r="N8" t="inlineStr">
-        <is>
-          <t>39723 (esterno)</t>
-        </is>
-      </c>
-      <c r="O8" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="N8" t="n">
+        <v>39755</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>39723</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>2025-05-15 00:00:00</t>
+          <t>2025-04-23 00:00:00</t>
         </is>
       </c>
       <c r="R8" s="1" t="n">
@@ -1068,46 +1068,46 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>251164</v>
+        <v>251050</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>R3</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>55</v>
+        <v>217</v>
       </c>
       <c r="D9" t="n">
-        <v>204.0816326530612</v>
+        <v>0</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>2025-05-08 07:00:00</t>
+          <t>2025-05-09 07:00:00</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>2025-05-08 07:55:00</t>
+          <t>2025-05-09 10:37:00</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>2025-05-08 07:55:00</t>
+          <t>2025-05-09 10:37:00</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>2025-05-08 11:19:04</t>
+          <t>2025-05-09 10:37:00</t>
         </is>
       </c>
       <c r="I9" t="n">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="J9" t="inlineStr">
         <is>
@@ -1116,17 +1116,17 @@
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="L9" t="n">
-        <v>6</v>
+        <v>38</v>
       </c>
       <c r="M9" t="n">
         <v>70</v>
       </c>
       <c r="N9" t="n">
-        <v>39749</v>
+        <v>39747</v>
       </c>
       <c r="O9" t="inlineStr">
         <is>
@@ -1134,60 +1134,60 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>39749</v>
+        <v>39747</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>2025-04-22 00:00:00</t>
+          <t>2025-04-16 00:00:00</t>
         </is>
       </c>
       <c r="R9" s="1" t="n">
-        <v>-1.471584467118056</v>
+        <v>-1.442361111111111</v>
       </c>
       <c r="S9" s="1" t="n">
-        <v>-1.471584467118056</v>
+        <v>-1.442361111111111</v>
       </c>
       <c r="T9" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>251456</v>
+        <v>251054</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>R3</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="D10" t="n">
-        <v>183.6530612244898</v>
+        <v>0</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>2025-05-08 11:19:04</t>
+          <t>2025-05-09 10:37:00</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>2025-05-08 12:09:04</t>
+          <t>2025-05-09 11:12:00</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>2025-05-08 12:09:04</t>
+          <t>2025-05-09 11:12:00</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>2025-05-09 07:12:44</t>
+          <t>2025-05-09 11:12:00</t>
         </is>
       </c>
       <c r="I10" t="n">
-        <v>8999</v>
+        <v>0</v>
       </c>
       <c r="J10" t="inlineStr">
         <is>
@@ -1196,17 +1196,17 @@
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="L10" t="n">
-        <v>3</v>
+        <v>38</v>
       </c>
       <c r="M10" t="n">
         <v>70</v>
       </c>
       <c r="N10" t="n">
-        <v>39746</v>
+        <v>39747</v>
       </c>
       <c r="O10" t="inlineStr">
         <is>
@@ -1214,26 +1214,26 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>39746</v>
+        <v>39747</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>2025-05-09 00:00:00</t>
+          <t>2025-04-16 00:00:00</t>
         </is>
       </c>
       <c r="R10" s="1" t="n">
-        <v>-3.300510204085648</v>
+        <v>-1.466666666666667</v>
       </c>
       <c r="S10" s="1" t="n">
-        <v>-3.300510204085648</v>
+        <v>-1.466666666666667</v>
       </c>
       <c r="T10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>251050</v>
+        <v>251081</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
@@ -1241,33 +1241,33 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>217</v>
+        <v>125</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>42.42253521126761</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>2025-05-09 07:00:00</t>
+          <t>2025-05-09 11:12:00</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>2025-05-09 10:37:00</t>
+          <t>2025-05-09 13:17:00</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>2025-05-09 10:37:00</t>
+          <t>2025-05-09 13:17:00</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>2025-05-09 10:37:00</t>
+          <t>2025-05-09 13:59:25</t>
         </is>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>3012</v>
       </c>
       <c r="J11" t="inlineStr">
         <is>
@@ -1280,13 +1280,15 @@
         </is>
       </c>
       <c r="L11" t="n">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="M11" t="n">
         <v>70</v>
       </c>
-      <c r="N11" t="n">
-        <v>39747</v>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>39750 (esterno)</t>
+        </is>
       </c>
       <c r="O11" t="inlineStr">
         <is>
@@ -1294,18 +1296,18 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>39747</v>
+        <v>39750</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>2025-04-16 00:00:00</t>
+          <t>2025-04-23 00:00:00</t>
         </is>
       </c>
       <c r="R11" s="1" t="n">
-        <v>-1.442361111111111</v>
+        <v>-16.58293231612268</v>
       </c>
       <c r="S11" s="1" t="n">
-        <v>-1.442361111111111</v>
+        <v>-16.58293231612268</v>
       </c>
       <c r="T11" t="n">
         <v>2</v>
@@ -1313,41 +1315,41 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>251054</v>
+        <v>251651</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>BIMEC 4</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>767.7049180327868</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>2025-05-09 10:37:00</t>
+          <t>2025-05-09 07:00:00</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>2025-05-09 11:12:00</t>
+          <t>2025-05-09 07:29:00</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>2025-05-09 11:12:00</t>
+          <t>2025-05-09 07:29:00</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>2025-05-09 11:12:00</t>
+          <t>2025-05-12 12:16:42</t>
         </is>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>46830</v>
       </c>
       <c r="J12" t="inlineStr">
         <is>
@@ -1356,78 +1358,76 @@
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L12" t="n">
-        <v>38</v>
+        <v>5</v>
       </c>
       <c r="M12" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="N12" t="n">
-        <v>39747</v>
-      </c>
-      <c r="O12" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>39755</v>
+      </c>
+      <c r="O12" t="n">
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>39747</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>2025-04-16 00:00:00</t>
+          <t>2025-05-12 00:00:00</t>
         </is>
       </c>
       <c r="R12" s="1" t="n">
-        <v>-1.466666666666667</v>
+        <v>0</v>
       </c>
       <c r="S12" s="1" t="n">
-        <v>-1.466666666666667</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>251081</v>
+        <v>251227</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>125</v>
+        <v>19</v>
       </c>
       <c r="D13" t="n">
-        <v>42.42253521126761</v>
+        <v>0</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>2025-05-09 11:12:00</t>
+          <t>2025-05-08 12:00:00</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>2025-05-09 13:17:00</t>
+          <t>2025-05-08 12:19:00</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>2025-05-09 13:17:00</t>
+          <t>2025-05-08 12:19:00</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>2025-05-09 13:59:25</t>
+          <t>2025-05-08 12:19:00</t>
         </is>
       </c>
       <c r="I13" t="n">
-        <v>3012</v>
+        <v>0</v>
       </c>
       <c r="J13" t="inlineStr">
         <is>
@@ -1436,19 +1436,17 @@
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L13" t="n">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="M13" t="n">
-        <v>70</v>
-      </c>
-      <c r="N13" t="inlineStr">
-        <is>
-          <t>39750 (esterno)</t>
-        </is>
+        <v>76</v>
+      </c>
+      <c r="N13" t="n">
+        <v>39746</v>
       </c>
       <c r="O13" t="inlineStr">
         <is>
@@ -1456,60 +1454,60 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>39750</v>
+        <v>39746</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>2025-04-23 00:00:00</t>
+          <t>2025-05-05 00:00:00</t>
         </is>
       </c>
       <c r="R13" s="1" t="n">
-        <v>-16.58293231612268</v>
+        <v>-2.523611111111111</v>
       </c>
       <c r="S13" s="1" t="n">
-        <v>-16.58293231612268</v>
+        <v>-2.513194444444444</v>
       </c>
       <c r="T13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>251651</v>
+        <v>251225</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="D14" t="n">
-        <v>767.7049180327868</v>
+        <v>0</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>2025-05-09 07:00:00</t>
+          <t>2025-05-08 12:19:00</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>2025-05-09 07:29:00</t>
+          <t>2025-05-08 12:34:00</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>2025-05-09 07:29:00</t>
+          <t>2025-05-08 12:34:00</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>2025-05-12 12:16:42</t>
+          <t>2025-05-08 12:34:00</t>
         </is>
       </c>
       <c r="I14" t="n">
-        <v>46830</v>
+        <v>0</v>
       </c>
       <c r="J14" t="inlineStr">
         <is>
@@ -1518,42 +1516,44 @@
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L14" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M14" t="n">
         <v>76</v>
       </c>
       <c r="N14" t="n">
-        <v>39755</v>
-      </c>
-      <c r="O14" t="n">
-        <v>0</v>
+        <v>39747</v>
+      </c>
+      <c r="O14" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>39747</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>2025-05-12 00:00:00</t>
+          <t>2025-04-30 00:00:00</t>
         </is>
       </c>
       <c r="R14" s="1" t="n">
-        <v>0</v>
+        <v>-0.5236111111111111</v>
       </c>
       <c r="S14" s="1" t="n">
-        <v>0</v>
+        <v>-0.5236111111111111</v>
       </c>
       <c r="T14" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>251225</v>
+        <v>251782</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
@@ -1561,33 +1561,33 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>170.0422535211268</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>2025-05-08 12:00:00</t>
+          <t>2025-05-08 12:34:00</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>2025-05-08 12:19:00</t>
+          <t>2025-05-08 12:51:00</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>2025-05-08 12:19:00</t>
+          <t>2025-05-08 12:51:00</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>2025-05-08 12:19:00</t>
+          <t>2025-05-09 07:41:02</t>
         </is>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>12073</v>
       </c>
       <c r="J15" t="inlineStr">
         <is>
@@ -1596,17 +1596,17 @@
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L15" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M15" t="n">
         <v>76</v>
       </c>
       <c r="N15" t="n">
-        <v>39747</v>
+        <v>39754</v>
       </c>
       <c r="O15" t="inlineStr">
         <is>
@@ -1614,18 +1614,18 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>39747</v>
+        <v>39754</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>2025-04-30 00:00:00</t>
+          <t>2025-05-16 00:00:00</t>
         </is>
       </c>
       <c r="R15" s="1" t="n">
-        <v>-0.5131944444444444</v>
+        <v>-0.3201682316087963</v>
       </c>
       <c r="S15" s="1" t="n">
-        <v>-0.5131944444444444</v>
+        <v>-0.3201682316087963</v>
       </c>
       <c r="T15" t="n">
         <v>1</v>
@@ -1633,60 +1633,62 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>251227</v>
+        <v>251706</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>T3</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>50.79365079365079</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>2025-05-08 12:19:00</t>
+          <t>2025-05-12 07:00:00</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>2025-05-08 12:34:00</t>
+          <t>2025-05-12 07:00:00</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>2025-05-08 12:34:00</t>
+          <t>2025-05-12 07:00:00</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>2025-05-08 12:34:00</t>
+          <t>2025-05-12 07:50:47</t>
         </is>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>3200</v>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>bobina</t>
+          <t>foglio</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>T3</t>
         </is>
       </c>
       <c r="L16" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>76</v>
-      </c>
-      <c r="N16" t="n">
-        <v>39746</v>
+        <v>0</v>
+      </c>
+      <c r="N16" t="inlineStr">
+        <is>
+          <t>39764 (esterno)</t>
+        </is>
       </c>
       <c r="O16" t="inlineStr">
         <is>
@@ -1694,60 +1696,60 @@
         </is>
       </c>
       <c r="P16" t="n">
-        <v>39746</v>
+        <v>39764</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>2025-05-05 00:00:00</t>
+          <t>2025-05-14 00:00:00</t>
         </is>
       </c>
       <c r="R16" s="1" t="n">
-        <v>-2.523611111111111</v>
+        <v>0</v>
       </c>
       <c r="S16" s="1" t="n">
-        <v>-2.523611111111111</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>251782</v>
+        <v>251164</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>R3</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>17</v>
+        <v>55</v>
       </c>
       <c r="D17" t="n">
-        <v>170.0422535211268</v>
+        <v>204.0816326530612</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>2025-05-08 12:34:00</t>
+          <t>2025-05-08 07:00:00</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>2025-05-08 12:51:00</t>
+          <t>2025-05-08 07:55:00</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>2025-05-08 12:51:00</t>
+          <t>2025-05-08 07:55:00</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>2025-05-09 07:41:02</t>
+          <t>2025-05-08 11:19:04</t>
         </is>
       </c>
       <c r="I17" t="n">
-        <v>12073</v>
+        <v>10000</v>
       </c>
       <c r="J17" t="inlineStr">
         <is>
@@ -1756,17 +1758,17 @@
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L17" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="M17" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="N17" t="n">
-        <v>39754</v>
+        <v>39749</v>
       </c>
       <c r="O17" t="inlineStr">
         <is>
@@ -1774,81 +1776,79 @@
         </is>
       </c>
       <c r="P17" t="n">
-        <v>39754</v>
+        <v>39749</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>2025-05-16 00:00:00</t>
+          <t>2025-04-22 00:00:00</t>
         </is>
       </c>
       <c r="R17" s="1" t="n">
-        <v>-0.3201682316087963</v>
+        <v>-1.471584467118056</v>
       </c>
       <c r="S17" s="1" t="n">
-        <v>-0.3201682316087963</v>
+        <v>-1.471584467118056</v>
       </c>
       <c r="T17" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>251706</v>
+        <v>251456</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>T3</t>
+          <t>R3</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="D18" t="n">
-        <v>50.79365079365079</v>
+        <v>183.6530612244898</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>2025-05-12 07:00:00</t>
+          <t>2025-05-08 11:19:04</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>2025-05-12 07:00:00</t>
+          <t>2025-05-08 12:09:04</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>2025-05-12 07:00:00</t>
+          <t>2025-05-08 12:09:04</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>2025-05-12 07:50:47</t>
+          <t>2025-05-09 07:12:44</t>
         </is>
       </c>
       <c r="I18" t="n">
-        <v>3200</v>
+        <v>8999</v>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>foglio</t>
+          <t>bobina</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>T3</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
-      </c>
-      <c r="N18" t="inlineStr">
-        <is>
-          <t>39764 (esterno)</t>
-        </is>
+        <v>70</v>
+      </c>
+      <c r="N18" t="n">
+        <v>39746</v>
       </c>
       <c r="O18" t="inlineStr">
         <is>
@@ -1856,21 +1856,21 @@
         </is>
       </c>
       <c r="P18" t="n">
-        <v>39764</v>
+        <v>39746</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>2025-05-14 00:00:00</t>
+          <t>2025-05-09 00:00:00</t>
         </is>
       </c>
       <c r="R18" s="1" t="n">
-        <v>0</v>
+        <v>-3.300510204085648</v>
       </c>
       <c r="S18" s="1" t="n">
-        <v>0</v>
+        <v>-3.300510204085648</v>
       </c>
       <c r="T18" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19">

--- a/PS-VRP/Dati_output/euristico_post.xlsx
+++ b/PS-VRP/Dati_output/euristico_post.xlsx
@@ -515,7 +515,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>251742</v>
+        <v>251229</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -523,10 +523,10 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="D2" t="n">
-        <v>134.8524590163935</v>
+        <v>307.1967213114754</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -535,21 +535,21 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2025-05-08 07:30:00</t>
+          <t>2025-05-08 07:40:00</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2025-05-08 07:30:00</t>
+          <t>2025-05-08 07:40:00</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2025-05-08 09:44:51</t>
+          <t>2025-05-08 12:47:11</t>
         </is>
       </c>
       <c r="I2" t="n">
-        <v>8226</v>
+        <v>18739</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
@@ -558,17 +558,19 @@
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R9</t>
         </is>
       </c>
       <c r="L2" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M2" t="n">
         <v>70</v>
       </c>
-      <c r="N2" t="n">
-        <v>39749</v>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>39723 (esterno)</t>
+        </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
@@ -576,7 +578,7 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>39749</v>
+        <v>39723</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -584,13 +586,13 @@
         </is>
       </c>
       <c r="R2" s="1" t="n">
-        <v>-1.406147540983796</v>
+        <v>0</v>
       </c>
       <c r="S2" s="1" t="n">
-        <v>-1.406147540983796</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -610,22 +612,22 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2025-05-08 09:44:51</t>
+          <t>2025-05-08 12:47:11</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2025-05-08 10:09:51</t>
+          <t>2025-05-08 13:12:11</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>2025-05-08 10:09:51</t>
+          <t>2025-05-08 13:12:11</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2025-05-08 11:43:31</t>
+          <t>2025-05-08 14:45:52</t>
         </is>
       </c>
       <c r="I3" t="n">
@@ -664,10 +666,10 @@
         </is>
       </c>
       <c r="R3" s="1" t="n">
-        <v>-0.4885587431712963</v>
+        <v>-0.6151867031018519</v>
       </c>
       <c r="S3" s="1" t="n">
-        <v>-0.4885587431712963</v>
+        <v>-0.6151867031018519</v>
       </c>
       <c r="T3" t="n">
         <v>1</v>
@@ -675,7 +677,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>251229</v>
+        <v>251455</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -686,30 +688,30 @@
         <v>25</v>
       </c>
       <c r="D4" t="n">
-        <v>307.1967213114754</v>
+        <v>86.8360655737705</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2025-05-08 11:43:31</t>
+          <t>2025-05-08 14:45:52</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2025-05-08 12:08:31</t>
+          <t>2025-05-09 07:10:52</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>2025-05-08 12:08:31</t>
+          <t>2025-05-09 07:10:52</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>2025-05-09 09:15:43</t>
+          <t>2025-05-09 08:37:42</t>
         </is>
       </c>
       <c r="I4" t="n">
-        <v>18739</v>
+        <v>5297</v>
       </c>
       <c r="J4" t="inlineStr">
         <is>
@@ -718,19 +720,17 @@
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L4" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M4" t="n">
         <v>70</v>
       </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>39723 (esterno)</t>
-        </is>
+      <c r="N4" t="n">
+        <v>39749</v>
       </c>
       <c r="O4" t="inlineStr">
         <is>
@@ -738,21 +738,21 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>39723</v>
+        <v>39749</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>2025-05-15 00:00:00</t>
+          <t>2025-04-15 00:00:00</t>
         </is>
       </c>
       <c r="R4" s="1" t="n">
-        <v>0</v>
+        <v>-2.359517304189815</v>
       </c>
       <c r="S4" s="1" t="n">
-        <v>0</v>
+        <v>-2.359517304189815</v>
       </c>
       <c r="T4" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -761,33 +761,33 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="D5" t="n">
-        <v>184.9154929577465</v>
+        <v>215.2295081967213</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2025-05-08 07:00:00</t>
+          <t>2025-05-09 08:37:42</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2025-05-08 07:34:00</t>
+          <t>2025-05-09 08:57:42</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>2025-05-08 07:34:00</t>
+          <t>2025-05-09 08:57:42</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>2025-05-08 10:38:54</t>
+          <t>2025-05-09 12:32:56</t>
         </is>
       </c>
       <c r="I5" t="n">
@@ -826,10 +826,10 @@
         </is>
       </c>
       <c r="R5" s="1" t="n">
-        <v>-1.443691314548611</v>
+        <v>-2.522871129328704</v>
       </c>
       <c r="S5" s="1" t="n">
-        <v>-1.443691314548611</v>
+        <v>-2.522871129328704</v>
       </c>
       <c r="T5" t="n">
         <v>7</v>
@@ -837,41 +837,41 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>250759</v>
+        <v>251371</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="D6" t="n">
-        <v>118.2816901408451</v>
+        <v>0</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2025-05-08 10:38:54</t>
+          <t>2025-05-09 07:00:00</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2025-05-08 11:08:54</t>
+          <t>2025-05-09 07:47:00</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>2025-05-08 11:08:54</t>
+          <t>2025-05-09 07:47:00</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>2025-05-08 13:07:11</t>
+          <t>2025-05-09 07:47:00</t>
         </is>
       </c>
       <c r="I6" t="n">
-        <v>8398</v>
+        <v>0</v>
       </c>
       <c r="J6" t="inlineStr">
         <is>
@@ -880,17 +880,19 @@
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L6" t="n">
         <v>4</v>
       </c>
       <c r="M6" t="n">
-        <v>76</v>
-      </c>
-      <c r="N6" t="n">
-        <v>39747</v>
+        <v>70</v>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>39666 (esterno)</t>
+        </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
@@ -898,60 +900,60 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>39747</v>
+        <v>39666</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>2025-03-13 00:00:00</t>
+          <t>2025-04-24 00:00:00</t>
         </is>
       </c>
       <c r="R6" s="1" t="n">
-        <v>-0.5466647104861111</v>
+        <v>-13.48732638888889</v>
       </c>
       <c r="S6" s="1" t="n">
-        <v>-0.5466647104861111</v>
+        <v>-15.32430555555556</v>
       </c>
       <c r="T6" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>250894</v>
+        <v>251050</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>17</v>
+        <v>205</v>
       </c>
       <c r="D7" t="n">
-        <v>623.4084507042254</v>
+        <v>0</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>2025-05-08 13:07:11</t>
+          <t>2025-05-09 07:47:00</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2025-05-08 13:24:11</t>
+          <t>2025-05-09 11:12:00</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>2025-05-08 13:24:11</t>
+          <t>2025-05-09 11:12:00</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>2025-05-12 07:47:36</t>
+          <t>2025-05-09 11:12:00</t>
         </is>
       </c>
       <c r="I7" t="n">
-        <v>44262</v>
+        <v>0</v>
       </c>
       <c r="J7" t="inlineStr">
         <is>
@@ -960,76 +962,78 @@
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="L7" t="n">
-        <v>5</v>
+        <v>38</v>
       </c>
       <c r="M7" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="N7" t="n">
-        <v>39755</v>
-      </c>
-      <c r="O7" t="n">
-        <v>0</v>
+        <v>39747</v>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>39747</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>2025-05-05 00:00:00</t>
+          <t>2025-04-16 00:00:00</t>
         </is>
       </c>
       <c r="R7" s="1" t="n">
-        <v>0</v>
+        <v>-1.442361111111111</v>
       </c>
       <c r="S7" s="1" t="n">
-        <v>0</v>
+        <v>-1.466666666666667</v>
       </c>
       <c r="T7" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>251416</v>
+        <v>251054</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D8" t="n">
-        <v>158.056338028169</v>
+        <v>0</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>2025-05-12 07:47:36</t>
+          <t>2025-05-09 11:12:00</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2025-05-12 08:23:36</t>
+          <t>2025-05-09 11:47:00</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>2025-05-12 08:23:36</t>
+          <t>2025-05-09 11:47:00</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>2025-05-12 11:01:39</t>
+          <t>2025-05-09 11:47:00</t>
         </is>
       </c>
       <c r="I8" t="n">
-        <v>11222</v>
+        <v>0</v>
       </c>
       <c r="J8" t="inlineStr">
         <is>
@@ -1038,34 +1042,36 @@
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="L8" t="n">
-        <v>2</v>
+        <v>38</v>
       </c>
       <c r="M8" t="n">
         <v>70</v>
       </c>
       <c r="N8" t="n">
-        <v>39755</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0</v>
+        <v>39747</v>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>39747</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>2025-04-23 00:00:00</t>
+          <t>2025-04-16 00:00:00</t>
         </is>
       </c>
       <c r="R8" s="1" t="n">
-        <v>0</v>
+        <v>-1.466666666666667</v>
       </c>
       <c r="S8" s="1" t="n">
-        <v>0</v>
+        <v>-1.490972222222222</v>
       </c>
       <c r="T8" t="n">
         <v>2</v>
@@ -1073,7 +1079,7 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>251050</v>
+        <v>251081</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
@@ -1081,33 +1087,33 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>217</v>
+        <v>125</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>42.42253521126761</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>2025-05-09 07:00:00</t>
+          <t>2025-05-09 11:47:00</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>2025-05-09 10:37:00</t>
+          <t>2025-05-09 13:52:00</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>2025-05-09 10:37:00</t>
+          <t>2025-05-09 13:52:00</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>2025-05-09 10:37:00</t>
+          <t>2025-05-09 14:34:25</t>
         </is>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>3012</v>
       </c>
       <c r="J9" t="inlineStr">
         <is>
@@ -1120,13 +1126,15 @@
         </is>
       </c>
       <c r="L9" t="n">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="M9" t="n">
         <v>70</v>
       </c>
-      <c r="N9" t="n">
-        <v>39747</v>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>39750 (esterno)</t>
+        </is>
       </c>
       <c r="O9" t="inlineStr">
         <is>
@@ -1134,18 +1142,18 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>39747</v>
+        <v>39750</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>2025-04-16 00:00:00</t>
+          <t>2025-04-23 00:00:00</t>
         </is>
       </c>
       <c r="R9" s="1" t="n">
-        <v>-1.442361111111111</v>
+        <v>-16.58293231612268</v>
       </c>
       <c r="S9" s="1" t="n">
-        <v>-1.442361111111111</v>
+        <v>-16.60723787167824</v>
       </c>
       <c r="T9" t="n">
         <v>2</v>
@@ -1153,41 +1161,41 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>251054</v>
+        <v>251782</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>170.0422535211268</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>2025-05-09 10:37:00</t>
+          <t>2025-05-08 12:00:00</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>2025-05-09 11:12:00</t>
+          <t>2025-05-08 12:17:00</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>2025-05-09 11:12:00</t>
+          <t>2025-05-08 12:17:00</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>2025-05-09 11:12:00</t>
+          <t>2025-05-09 07:07:02</t>
         </is>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>12073</v>
       </c>
       <c r="J10" t="inlineStr">
         <is>
@@ -1196,17 +1204,17 @@
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L10" t="n">
-        <v>38</v>
+        <v>3</v>
       </c>
       <c r="M10" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="N10" t="n">
-        <v>39747</v>
+        <v>39754</v>
       </c>
       <c r="O10" t="inlineStr">
         <is>
@@ -1214,60 +1222,60 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>39747</v>
+        <v>39754</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>2025-04-16 00:00:00</t>
+          <t>2025-05-16 00:00:00</t>
         </is>
       </c>
       <c r="R10" s="1" t="n">
-        <v>-1.466666666666667</v>
+        <v>-0.3201682316087963</v>
       </c>
       <c r="S10" s="1" t="n">
-        <v>-1.466666666666667</v>
+        <v>-0.2965571204976852</v>
       </c>
       <c r="T10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>251081</v>
+        <v>251284</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>125</v>
+        <v>40.5</v>
       </c>
       <c r="D11" t="n">
-        <v>42.42253521126761</v>
+        <v>297.0909090909091</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>2025-05-09 11:12:00</t>
+          <t>2025-05-09 07:00:00</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>2025-05-09 13:17:00</t>
+          <t>2025-05-09 07:40:30</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>2025-05-09 13:17:00</t>
+          <t>2025-05-09 07:40:30</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>2025-05-09 13:59:25</t>
+          <t>2025-05-09 12:37:35</t>
         </is>
       </c>
       <c r="I11" t="n">
-        <v>3012</v>
+        <v>16340</v>
       </c>
       <c r="J11" t="inlineStr">
         <is>
@@ -1276,19 +1284,17 @@
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>CASON ;R6</t>
         </is>
       </c>
       <c r="L11" t="n">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="M11" t="n">
         <v>70</v>
       </c>
-      <c r="N11" t="inlineStr">
-        <is>
-          <t>39750 (esterno)</t>
-        </is>
+      <c r="N11" t="n">
+        <v>39747</v>
       </c>
       <c r="O11" t="inlineStr">
         <is>
@@ -1296,21 +1302,21 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>39750</v>
+        <v>39747</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>2025-04-23 00:00:00</t>
+          <t>2025-05-12 00:00:00</t>
         </is>
       </c>
       <c r="R11" s="1" t="n">
-        <v>-16.58293231612268</v>
+        <v>-1.526104797974537</v>
       </c>
       <c r="S11" s="1" t="n">
-        <v>-16.58293231612268</v>
+        <v>-1.526104797974537</v>
       </c>
       <c r="T11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12">
@@ -1393,41 +1399,41 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>251227</v>
+        <v>251164</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>140.8450704225352</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>2025-05-08 12:00:00</t>
+          <t>2025-05-08 07:00:00</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>2025-05-08 12:19:00</t>
+          <t>2025-05-08 07:38:00</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>2025-05-08 12:19:00</t>
+          <t>2025-05-08 07:38:00</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>2025-05-08 12:19:00</t>
+          <t>2025-05-08 09:58:50</t>
         </is>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="J13" t="inlineStr">
         <is>
@@ -1436,78 +1442,78 @@
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L13" t="n">
+        <v>6</v>
+      </c>
+      <c r="M13" t="n">
+        <v>70</v>
+      </c>
+      <c r="N13" t="n">
+        <v>39749</v>
+      </c>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="P13" t="n">
+        <v>39749</v>
+      </c>
+      <c r="Q13" t="inlineStr">
+        <is>
+          <t>2025-04-22 00:00:00</t>
+        </is>
+      </c>
+      <c r="R13" s="1" t="n">
+        <v>-1.471584467118056</v>
+      </c>
+      <c r="S13" s="1" t="n">
+        <v>-1.415864632233796</v>
+      </c>
+      <c r="T13" t="n">
         <v>4</v>
-      </c>
-      <c r="M13" t="n">
-        <v>76</v>
-      </c>
-      <c r="N13" t="n">
-        <v>39746</v>
-      </c>
-      <c r="O13" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="P13" t="n">
-        <v>39746</v>
-      </c>
-      <c r="Q13" t="inlineStr">
-        <is>
-          <t>2025-05-05 00:00:00</t>
-        </is>
-      </c>
-      <c r="R13" s="1" t="n">
-        <v>-2.523611111111111</v>
-      </c>
-      <c r="S13" s="1" t="n">
-        <v>-2.513194444444444</v>
-      </c>
-      <c r="T13" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>251225</v>
+        <v>250759</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>118.2816901408451</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>2025-05-08 12:19:00</t>
+          <t>2025-05-08 09:58:50</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>2025-05-08 12:34:00</t>
+          <t>2025-05-08 10:32:50</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>2025-05-08 12:34:00</t>
+          <t>2025-05-08 10:32:50</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>2025-05-08 12:34:00</t>
+          <t>2025-05-08 12:31:07</t>
         </is>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>8398</v>
       </c>
       <c r="J14" t="inlineStr">
         <is>
@@ -1516,7 +1522,7 @@
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12</t>
         </is>
       </c>
       <c r="L14" t="n">
@@ -1538,14 +1544,14 @@
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>2025-04-30 00:00:00</t>
+          <t>2025-03-13 00:00:00</t>
         </is>
       </c>
       <c r="R14" s="1" t="n">
-        <v>-0.5236111111111111</v>
+        <v>-0.5216158059490741</v>
       </c>
       <c r="S14" s="1" t="n">
-        <v>-0.5236111111111111</v>
+        <v>-0.5216158059490741</v>
       </c>
       <c r="T14" t="n">
         <v>1</v>
@@ -1553,41 +1559,41 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>251782</v>
+        <v>251225</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D15" t="n">
-        <v>170.0422535211268</v>
+        <v>0</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>2025-05-08 12:34:00</t>
+          <t>2025-05-08 12:31:07</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>2025-05-08 12:51:00</t>
+          <t>2025-05-08 12:46:07</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>2025-05-08 12:51:00</t>
+          <t>2025-05-08 12:46:07</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>2025-05-09 07:41:02</t>
+          <t>2025-05-08 12:46:07</t>
         </is>
       </c>
       <c r="I15" t="n">
-        <v>12073</v>
+        <v>0</v>
       </c>
       <c r="J15" t="inlineStr">
         <is>
@@ -1596,17 +1602,17 @@
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L15" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M15" t="n">
         <v>76</v>
       </c>
       <c r="N15" t="n">
-        <v>39754</v>
+        <v>39747</v>
       </c>
       <c r="O15" t="inlineStr">
         <is>
@@ -1614,18 +1620,18 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>39754</v>
+        <v>39747</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>2025-05-16 00:00:00</t>
+          <t>2025-04-30 00:00:00</t>
         </is>
       </c>
       <c r="R15" s="1" t="n">
-        <v>-0.3201682316087963</v>
+        <v>-0.5320324726157407</v>
       </c>
       <c r="S15" s="1" t="n">
-        <v>-0.3201682316087963</v>
+        <v>-0.5320324726157407</v>
       </c>
       <c r="T15" t="n">
         <v>1</v>
@@ -1633,74 +1639,70 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>251706</v>
+        <v>250894</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>T3</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="D16" t="n">
-        <v>50.79365079365079</v>
+        <v>623.4084507042254</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>2025-05-12 07:00:00</t>
+          <t>2025-05-08 12:46:07</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>2025-05-12 07:00:00</t>
+          <t>2025-05-08 13:03:07</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>2025-05-12 07:00:00</t>
+          <t>2025-05-08 13:03:07</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>2025-05-12 07:50:47</t>
+          <t>2025-05-12 07:26:32</t>
         </is>
       </c>
       <c r="I16" t="n">
-        <v>3200</v>
+        <v>44262</v>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>foglio</t>
+          <t>bobina</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>T3</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="M16" t="n">
-        <v>0</v>
-      </c>
-      <c r="N16" t="inlineStr">
-        <is>
-          <t>39764 (esterno)</t>
-        </is>
-      </c>
-      <c r="O16" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>76</v>
+      </c>
+      <c r="N16" t="n">
+        <v>39755</v>
+      </c>
+      <c r="O16" t="n">
+        <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>39764</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>2025-05-14 00:00:00</t>
+          <t>2025-05-05 00:00:00</t>
         </is>
       </c>
       <c r="R16" s="1" t="n">
@@ -1710,12 +1712,12 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>251164</v>
+        <v>251456</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
@@ -1723,10 +1725,10 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="D17" t="n">
-        <v>204.0816326530612</v>
+        <v>183.6530612244898</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
@@ -1735,21 +1737,21 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>2025-05-08 07:55:00</t>
+          <t>2025-05-08 07:40:00</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>2025-05-08 07:55:00</t>
+          <t>2025-05-08 07:40:00</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>2025-05-08 11:19:04</t>
+          <t>2025-05-08 10:43:39</t>
         </is>
       </c>
       <c r="I17" t="n">
-        <v>10000</v>
+        <v>8999</v>
       </c>
       <c r="J17" t="inlineStr">
         <is>
@@ -1762,13 +1764,13 @@
         </is>
       </c>
       <c r="L17" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="M17" t="n">
         <v>70</v>
       </c>
       <c r="N17" t="n">
-        <v>39749</v>
+        <v>39746</v>
       </c>
       <c r="O17" t="inlineStr">
         <is>
@@ -1776,60 +1778,60 @@
         </is>
       </c>
       <c r="P17" t="n">
-        <v>39749</v>
+        <v>39746</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>2025-04-22 00:00:00</t>
+          <t>2025-05-09 00:00:00</t>
         </is>
       </c>
       <c r="R17" s="1" t="n">
-        <v>-1.471584467118056</v>
+        <v>-3.300510204085648</v>
       </c>
       <c r="S17" s="1" t="n">
-        <v>-1.471584467118056</v>
+        <v>-2.446981292511574</v>
       </c>
       <c r="T17" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>251456</v>
+        <v>251742</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>R3</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>50</v>
+        <v>19</v>
       </c>
       <c r="D18" t="n">
-        <v>183.6530612244898</v>
+        <v>128.53125</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>2025-05-08 11:19:04</t>
+          <t>2025-05-07 07:00:00</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>2025-05-08 12:09:04</t>
+          <t>2025-05-07 07:19:00</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>2025-05-08 12:09:04</t>
+          <t>2025-05-07 07:19:00</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>2025-05-09 07:12:44</t>
+          <t>2025-05-07 09:27:31</t>
         </is>
       </c>
       <c r="I18" t="n">
-        <v>8999</v>
+        <v>8226</v>
       </c>
       <c r="J18" t="inlineStr">
         <is>
@@ -1842,13 +1844,13 @@
         </is>
       </c>
       <c r="L18" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M18" t="n">
         <v>70</v>
       </c>
       <c r="N18" t="n">
-        <v>39746</v>
+        <v>39749</v>
       </c>
       <c r="O18" t="inlineStr">
         <is>
@@ -1856,26 +1858,26 @@
         </is>
       </c>
       <c r="P18" t="n">
-        <v>39746</v>
+        <v>39749</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>2025-05-09 00:00:00</t>
+          <t>2025-05-15 00:00:00</t>
         </is>
       </c>
       <c r="R18" s="1" t="n">
-        <v>-3.300510204085648</v>
+        <v>-1.406147540983796</v>
       </c>
       <c r="S18" s="1" t="n">
-        <v>-3.300510204085648</v>
+        <v>-0.3941189236111111</v>
       </c>
       <c r="T18" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>251455</v>
+        <v>251391</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
@@ -1883,33 +1885,33 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D19" t="n">
-        <v>82.765625</v>
+        <v>91.640625</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>2025-05-07 07:00:00</t>
+          <t>2025-05-07 09:27:31</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>2025-05-07 07:19:00</t>
+          <t>2025-05-07 09:44:31</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>2025-05-07 07:19:00</t>
+          <t>2025-05-07 09:44:31</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>2025-05-07 08:41:45</t>
+          <t>2025-05-07 11:16:10</t>
         </is>
       </c>
       <c r="I19" t="n">
-        <v>5297</v>
+        <v>5865</v>
       </c>
       <c r="J19" t="inlineStr">
         <is>
@@ -1922,7 +1924,7 @@
         </is>
       </c>
       <c r="L19" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M19" t="n">
         <v>70</v>
@@ -1940,14 +1942,14 @@
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>2025-04-15 00:00:00</t>
+          <t>2025-04-23 00:00:00</t>
         </is>
       </c>
       <c r="R19" s="1" t="n">
-        <v>-0.3623372395833334</v>
+        <v>-0.4695638020833333</v>
       </c>
       <c r="S19" s="1" t="n">
-        <v>-0.3623372395833334</v>
+        <v>-0.4695638020833333</v>
       </c>
       <c r="T19" t="n">
         <v>7</v>
@@ -1955,7 +1957,7 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>251391</v>
+        <v>251227</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
@@ -1963,33 +1965,33 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="D20" t="n">
-        <v>91.640625</v>
+        <v>0</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>2025-05-07 08:41:45</t>
+          <t>2025-05-07 11:16:10</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>2025-05-07 08:58:45</t>
+          <t>2025-05-07 11:48:10</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>2025-05-07 08:58:45</t>
+          <t>2025-05-07 11:48:10</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>2025-05-07 10:30:24</t>
+          <t>2025-05-07 11:48:10</t>
         </is>
       </c>
       <c r="I20" t="n">
-        <v>5865</v>
+        <v>0</v>
       </c>
       <c r="J20" t="inlineStr">
         <is>
@@ -1998,17 +2000,17 @@
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L20" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M20" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="N20" t="n">
-        <v>39749</v>
+        <v>39746</v>
       </c>
       <c r="O20" t="inlineStr">
         <is>
@@ -2016,21 +2018,21 @@
         </is>
       </c>
       <c r="P20" t="n">
-        <v>39749</v>
+        <v>39746</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>2025-04-23 00:00:00</t>
+          <t>2025-05-05 00:00:00</t>
         </is>
       </c>
       <c r="R20" s="1" t="n">
-        <v>-0.4377821180555556</v>
+        <v>-1.491786024305556</v>
       </c>
       <c r="S20" s="1" t="n">
-        <v>-0.4377821180555556</v>
+        <v>-1.491786024305556</v>
       </c>
       <c r="T20" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21">
@@ -2043,29 +2045,29 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="D21" t="n">
         <v>35.34375</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>2025-05-07 10:30:24</t>
+          <t>2025-05-07 11:48:10</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>2025-05-07 10:47:24</t>
+          <t>2025-05-07 12:22:10</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>2025-05-07 10:47:24</t>
+          <t>2025-05-07 12:22:10</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>2025-05-07 11:22:45</t>
+          <t>2025-05-07 12:57:30</t>
         </is>
       </c>
       <c r="I21" t="n">
@@ -2104,10 +2106,10 @@
         </is>
       </c>
       <c r="R21" s="1" t="n">
-        <v>-0.4741319444444445</v>
+        <v>-0.53994140625</v>
       </c>
       <c r="S21" s="1" t="n">
-        <v>-0.4741319444444445</v>
+        <v>-0.53994140625</v>
       </c>
       <c r="T21" t="n">
         <v>7</v>
@@ -2115,7 +2117,7 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>251371</v>
+        <v>251396</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
@@ -2123,33 +2125,33 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>35.34375</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>2025-05-07 11:22:45</t>
+          <t>2025-05-07 12:57:30</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>2025-05-07 11:41:45</t>
+          <t>2025-05-07 13:12:30</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>2025-05-07 11:41:45</t>
+          <t>2025-05-07 13:12:30</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>2025-05-07 11:41:45</t>
+          <t>2025-05-07 13:47:51</t>
         </is>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>2262</v>
       </c>
       <c r="J22" t="inlineStr">
         <is>
@@ -2162,15 +2164,13 @@
         </is>
       </c>
       <c r="L22" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M22" t="n">
         <v>70</v>
       </c>
-      <c r="N22" t="inlineStr">
-        <is>
-          <t>39666 (esterno)</t>
-        </is>
+      <c r="N22" t="n">
+        <v>39749</v>
       </c>
       <c r="O22" t="inlineStr">
         <is>
@@ -2178,18 +2178,18 @@
         </is>
       </c>
       <c r="P22" t="n">
-        <v>39666</v>
+        <v>39749</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>2025-04-24 00:00:00</t>
+          <t>2025-05-02 00:00:00</t>
         </is>
       </c>
       <c r="R22" s="1" t="n">
-        <v>-13.48732638888889</v>
+        <v>-0.57490234375</v>
       </c>
       <c r="S22" s="1" t="n">
-        <v>-13.48732638888889</v>
+        <v>-0.57490234375</v>
       </c>
       <c r="T22" t="n">
         <v>7</v>
@@ -2197,7 +2197,7 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>251396</v>
+        <v>251548</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
@@ -2208,30 +2208,30 @@
         <v>19</v>
       </c>
       <c r="D23" t="n">
-        <v>35.34375</v>
+        <v>206.90625</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>2025-05-07 11:41:45</t>
+          <t>2025-05-07 13:47:51</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>2025-05-07 12:00:45</t>
+          <t>2025-05-07 14:06:51</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>2025-05-07 12:00:45</t>
+          <t>2025-05-07 14:06:51</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>2025-05-07 12:36:05</t>
+          <t>2025-05-08 09:33:45</t>
         </is>
       </c>
       <c r="I23" t="n">
-        <v>2262</v>
+        <v>13242</v>
       </c>
       <c r="J23" t="inlineStr">
         <is>
@@ -2244,7 +2244,7 @@
         </is>
       </c>
       <c r="L23" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M23" t="n">
         <v>70</v>
@@ -2262,14 +2262,14 @@
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>2025-05-02 00:00:00</t>
+          <t>2025-05-06 00:00:00</t>
         </is>
       </c>
       <c r="R23" s="1" t="n">
-        <v>-0.5250651041666666</v>
+        <v>-1.398448350694445</v>
       </c>
       <c r="S23" s="1" t="n">
-        <v>-0.5250651041666666</v>
+        <v>-1.398448350694445</v>
       </c>
       <c r="T23" t="n">
         <v>7</v>
@@ -2277,7 +2277,7 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>251548</v>
+        <v>250923</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
@@ -2285,33 +2285,33 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="D24" t="n">
-        <v>206.90625</v>
+        <v>109.46875</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>2025-05-07 12:36:05</t>
+          <t>2025-05-08 09:33:45</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>2025-05-07 12:55:05</t>
+          <t>2025-05-08 10:05:45</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>2025-05-07 12:55:05</t>
+          <t>2025-05-08 10:05:45</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>2025-05-08 08:22:00</t>
+          <t>2025-05-08 11:55:14</t>
         </is>
       </c>
       <c r="I24" t="n">
-        <v>13242</v>
+        <v>7006</v>
       </c>
       <c r="J24" t="inlineStr">
         <is>
@@ -2320,14 +2320,14 @@
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L24" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M24" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="N24" t="n">
         <v>39749</v>
@@ -2342,22 +2342,22 @@
       </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>2025-05-06 00:00:00</t>
+          <t>2025-04-07 00:00:00</t>
         </is>
       </c>
       <c r="R24" s="1" t="n">
-        <v>-1.348611111111111</v>
+        <v>-1.496690538194444</v>
       </c>
       <c r="S24" s="1" t="n">
-        <v>-1.348611111111111</v>
+        <v>-1.496690538194444</v>
       </c>
       <c r="T24" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>250923</v>
+        <v>251477</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
@@ -2365,33 +2365,33 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="D25" t="n">
-        <v>109.46875</v>
+        <v>468.734375</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>2025-05-08 08:22:00</t>
+          <t>2025-05-08 11:55:14</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>2025-05-08 08:54:00</t>
+          <t>2025-05-08 12:14:14</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>2025-05-08 08:54:00</t>
+          <t>2025-05-08 12:14:14</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>2025-05-08 10:43:28</t>
+          <t>2025-05-09 12:02:58</t>
         </is>
       </c>
       <c r="I25" t="n">
-        <v>7006</v>
+        <v>29999</v>
       </c>
       <c r="J25" t="inlineStr">
         <is>
@@ -2400,17 +2400,17 @@
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L25" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M25" t="n">
         <v>76</v>
       </c>
       <c r="N25" t="n">
-        <v>39749</v>
+        <v>39760</v>
       </c>
       <c r="O25" t="inlineStr">
         <is>
@@ -2418,26 +2418,26 @@
         </is>
       </c>
       <c r="P25" t="n">
-        <v>39749</v>
+        <v>39760</v>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>2025-04-07 00:00:00</t>
+          <t>2025-04-28 00:00:00</t>
         </is>
       </c>
       <c r="R25" s="1" t="n">
-        <v>-1.446853298611111</v>
+        <v>-2.502061631944445</v>
       </c>
       <c r="S25" s="1" t="n">
-        <v>-1.446853298611111</v>
+        <v>-2.502061631944445</v>
       </c>
       <c r="T25" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>251477</v>
+        <v>251416</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
@@ -2445,33 +2445,33 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="D26" t="n">
-        <v>468.734375</v>
+        <v>175.34375</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>2025-05-08 10:43:28</t>
+          <t>2025-05-09 12:02:58</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>2025-05-08 11:02:28</t>
+          <t>2025-05-09 12:34:58</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>2025-05-08 11:02:28</t>
+          <t>2025-05-09 12:34:58</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>2025-05-09 10:51:12</t>
+          <t>2025-05-12 07:30:18</t>
         </is>
       </c>
       <c r="I26" t="n">
-        <v>29999</v>
+        <v>11222</v>
       </c>
       <c r="J26" t="inlineStr">
         <is>
@@ -2480,119 +2480,119 @@
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L26" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M26" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="N26" t="n">
-        <v>39760</v>
-      </c>
-      <c r="O26" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>39755</v>
+      </c>
+      <c r="O26" t="n">
+        <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>39760</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
-          <t>2025-04-28 00:00:00</t>
+          <t>2025-04-23 00:00:00</t>
         </is>
       </c>
       <c r="R26" s="1" t="n">
-        <v>-2.452224392361111</v>
+        <v>0</v>
       </c>
       <c r="S26" s="1" t="n">
-        <v>-2.452224392361111</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>251284</v>
+        <v>251706</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>T3</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>40.5</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>297.0909090909091</v>
+        <v>50.79365079365079</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>2025-05-09 07:00:00</t>
+          <t>2025-05-12 07:00:00</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>2025-05-09 07:40:30</t>
+          <t>2025-05-12 07:00:00</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>2025-05-09 07:40:30</t>
+          <t>2025-05-12 07:00:00</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>2025-05-09 12:37:35</t>
+          <t>2025-05-12 07:50:47</t>
         </is>
       </c>
       <c r="I27" t="n">
-        <v>16340</v>
+        <v>3200</v>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>bobina</t>
+          <t>foglio</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>CASON ;R6</t>
+          <t>T3</t>
         </is>
       </c>
       <c r="L27" t="n">
+        <v>0</v>
+      </c>
+      <c r="M27" t="n">
+        <v>0</v>
+      </c>
+      <c r="N27" t="inlineStr">
+        <is>
+          <t>39764 (esterno)</t>
+        </is>
+      </c>
+      <c r="O27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="P27" t="n">
+        <v>39764</v>
+      </c>
+      <c r="Q27" t="inlineStr">
+        <is>
+          <t>2025-05-14 00:00:00</t>
+        </is>
+      </c>
+      <c r="R27" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S27" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T27" t="n">
         <v>7</v>
-      </c>
-      <c r="M27" t="n">
-        <v>70</v>
-      </c>
-      <c r="N27" t="n">
-        <v>39747</v>
-      </c>
-      <c r="O27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="P27" t="n">
-        <v>39747</v>
-      </c>
-      <c r="Q27" t="inlineStr">
-        <is>
-          <t>2025-05-12 00:00:00</t>
-        </is>
-      </c>
-      <c r="R27" s="1" t="n">
-        <v>-1.526104797974537</v>
-      </c>
-      <c r="S27" s="1" t="n">
-        <v>-1.526104797974537</v>
-      </c>
-      <c r="T27" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -2661,7 +2661,7 @@
         </is>
       </c>
       <c r="R28" s="1" t="n">
-        <v>-14.31945422534722</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>4</v>
@@ -2733,7 +2733,7 @@
         </is>
       </c>
       <c r="R29" s="1" t="n">
-        <v>-2.465152550092593</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>8</v>
@@ -2749,7 +2749,7 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="D30" t="n">
         <v>42.453125</v>
@@ -2761,17 +2761,17 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>2025-05-09 11:21:12</t>
+          <t>2025-05-09 11:10:12</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>2025-05-09 11:21:12</t>
+          <t>2025-05-09 11:10:12</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>2025-05-09 12:03:39</t>
+          <t>2025-05-09 11:52:39</t>
         </is>
       </c>
       <c r="I30" t="n">
@@ -2805,7 +2805,7 @@
         </is>
       </c>
       <c r="R30" s="1" t="n">
-        <v>-2.5025390625</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>8</v>
@@ -2877,7 +2877,7 @@
         </is>
       </c>
       <c r="R31" s="1" t="n">
-        <v>-2.560940346087963</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>8</v>
@@ -2893,7 +2893,7 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="D32" t="n">
         <v>255.1020408163265</v>
@@ -2905,17 +2905,17 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>2025-05-09 12:21:45</t>
+          <t>2025-05-09 12:16:45</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>2025-05-09 12:21:45</t>
+          <t>2025-05-09 12:16:45</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>2025-05-12 08:36:51</t>
+          <t>2025-05-12 08:31:51</t>
         </is>
       </c>
       <c r="I32" t="n">
@@ -2949,7 +2949,7 @@
         </is>
       </c>
       <c r="R32" s="1" t="n">
-        <v>-12.35892857142361</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>7</v>
@@ -2972,22 +2972,22 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>2025-05-09 12:03:39</t>
+          <t>2025-05-09 11:52:39</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>2025-05-09 12:22:39</t>
+          <t>2025-05-09 12:11:39</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>2025-05-09 12:22:39</t>
+          <t>2025-05-09 12:11:39</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>2025-05-09 14:03:41</t>
+          <t>2025-05-09 13:52:41</t>
         </is>
       </c>
       <c r="I33" t="n">
@@ -3021,7 +3021,7 @@
         </is>
       </c>
       <c r="R33" s="1" t="n">
-        <v>-9.585894097222223</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>7</v>
@@ -3093,7 +3093,7 @@
         </is>
       </c>
       <c r="R34" s="1" t="n">
-        <v>-7.396717171712963</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>7</v>
@@ -3177,33 +3177,33 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>125</v>
+        <v>21</v>
       </c>
       <c r="D36" t="n">
-        <v>185.5633802816901</v>
+        <v>205.859375</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>2025-05-09 13:59:25</t>
+          <t>2025-05-09 13:52:41</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>2025-05-12 08:04:25</t>
+          <t>2025-05-09 14:13:41</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>2025-05-12 08:04:25</t>
+          <t>2025-05-09 14:13:41</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>2025-05-12 11:09:59</t>
+          <t>2025-05-12 09:39:32</t>
         </is>
       </c>
       <c r="I36" t="n">
@@ -3249,33 +3249,33 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>33</v>
+        <v>65</v>
       </c>
       <c r="D37" t="n">
-        <v>379.59375</v>
+        <v>342.1690140845071</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>2025-05-09 14:03:41</t>
+          <t>2025-05-09 13:59:25</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>2025-05-09 14:36:41</t>
+          <t>2025-05-12 07:04:25</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>2025-05-09 14:36:41</t>
+          <t>2025-05-12 07:04:25</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>2025-05-12 12:56:16</t>
+          <t>2025-05-12 12:46:35</t>
         </is>
       </c>
       <c r="I37" t="n">
@@ -3453,7 +3453,7 @@
         </is>
       </c>
       <c r="R39" s="1" t="n">
-        <v>-238.3566999217477</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>2</v>
@@ -3469,7 +3469,7 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D40" t="n">
         <v>140.2535211267606</v>
@@ -3481,17 +3481,17 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>2025-05-12 08:17:36</t>
+          <t>2025-05-12 08:19:36</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>2025-05-12 08:17:36</t>
+          <t>2025-05-12 08:19:36</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>2025-05-12 10:37:51</t>
+          <t>2025-05-12 10:39:51</t>
         </is>
       </c>
       <c r="I40" t="n">
@@ -3525,7 +3525,7 @@
         </is>
       </c>
       <c r="R40" s="1" t="n">
-        <v>-553.4429577464815</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>4</v>
@@ -3533,41 +3533,41 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>245623</v>
+        <v>251373</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>R3</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="D41" t="n">
-        <v>372.0985915492957</v>
+        <v>348.8571428571428</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>2025-05-12 08:33:38</t>
+          <t>2025-05-12 08:31:51</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>2025-05-12 09:05:38</t>
+          <t>2025-05-12 09:16:51</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>2025-05-12 09:05:38</t>
+          <t>2025-05-12 09:16:51</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>2025-05-13 07:17:44</t>
+          <t>2025-05-13 07:05:42</t>
         </is>
       </c>
       <c r="I41" t="n">
-        <v>26419</v>
+        <v>17094</v>
       </c>
       <c r="J41" t="inlineStr">
         <is>
@@ -3576,14 +3576,14 @@
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L41" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="M41" t="n">
-        <v>152</v>
+        <v>70</v>
       </c>
       <c r="O41" t="n">
         <v>0</v>
@@ -3593,53 +3593,53 @@
       </c>
       <c r="Q41" t="inlineStr">
         <is>
-          <t>2025-01-25 00:00:00</t>
+          <t>2025-04-28 00:00:00</t>
         </is>
       </c>
       <c r="R41" s="1" t="n">
-        <v>-108.3039906103241</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>251373</v>
+        <v>245623</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>R3</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="D42" t="n">
-        <v>348.8571428571428</v>
+        <v>372.0985915492957</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>2025-05-12 08:36:51</t>
+          <t>2025-05-12 08:33:38</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>2025-05-12 09:21:51</t>
+          <t>2025-05-12 09:05:38</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>2025-05-12 09:21:51</t>
+          <t>2025-05-12 09:05:38</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>2025-05-13 07:10:42</t>
+          <t>2025-05-13 07:17:44</t>
         </is>
       </c>
       <c r="I42" t="n">
-        <v>17094</v>
+        <v>26419</v>
       </c>
       <c r="J42" t="inlineStr">
         <is>
@@ -3648,14 +3648,14 @@
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L42" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="M42" t="n">
-        <v>70</v>
+        <v>152</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
@@ -3665,14 +3665,14 @@
       </c>
       <c r="Q42" t="inlineStr">
         <is>
-          <t>2025-04-28 00:00:00</t>
+          <t>2025-01-25 00:00:00</t>
         </is>
       </c>
       <c r="R42" s="1" t="n">
-        <v>-15.2991071428588</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="43">
@@ -3741,7 +3741,7 @@
         </is>
       </c>
       <c r="R43" s="1" t="n">
-        <v>-14.50895947177083</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>4</v>
@@ -3813,7 +3813,7 @@
         </is>
       </c>
       <c r="R44" s="1" t="n">
-        <v>-14.48929924241898</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>4</v>
@@ -3825,33 +3825,33 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D45" t="n">
-        <v>122.2676056338028</v>
+        <v>135.640625</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>2025-05-12 10:37:51</t>
+          <t>2025-05-12 09:39:32</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>2025-05-12 10:54:51</t>
+          <t>2025-05-12 09:58:32</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>2025-05-12 10:54:51</t>
+          <t>2025-05-12 09:58:32</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>2025-05-12 12:57:07</t>
+          <t>2025-05-12 12:14:11</t>
         </is>
       </c>
       <c r="I45" t="n">
@@ -3885,7 +3885,7 @@
         </is>
       </c>
       <c r="R45" s="1" t="n">
-        <v>-12.53967136150463</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>4</v>
@@ -3897,33 +3897,33 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>45</v>
+        <v>17</v>
       </c>
       <c r="D46" t="n">
         <v>91.07042253521126</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>2025-05-12 11:09:59</t>
+          <t>2025-05-12 10:39:51</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>2025-05-12 11:54:59</t>
+          <t>2025-05-12 10:56:51</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>2025-05-12 11:54:59</t>
+          <t>2025-05-12 10:56:51</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>2025-05-12 13:26:03</t>
+          <t>2025-05-12 12:27:55</t>
         </is>
       </c>
       <c r="I46" t="n">
@@ -3957,7 +3957,7 @@
         </is>
       </c>
       <c r="R46" s="1" t="n">
-        <v>-5.559761345856481</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>4</v>
@@ -4029,7 +4029,7 @@
         </is>
       </c>
       <c r="R47" s="1" t="n">
-        <v>-4.566287878784722</v>
+        <v>0</v>
       </c>
       <c r="S47" t="n">
         <v>4</v>
@@ -4101,7 +4101,7 @@
         </is>
       </c>
       <c r="R48" s="1" t="n">
-        <v>-4.571914845173612</v>
+        <v>0</v>
       </c>
       <c r="S48" t="n">
         <v>4</v>
@@ -4113,33 +4113,33 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="D49" t="n">
-        <v>56.91803278688525</v>
+        <v>54.25</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>2025-05-12 12:16:42</t>
+          <t>2025-05-12 12:14:11</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>2025-05-12 12:58:42</t>
+          <t>2025-05-12 12:29:11</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>2025-05-12 12:58:42</t>
+          <t>2025-05-12 12:29:11</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>2025-05-12 13:55:37</t>
+          <t>2025-05-12 13:23:26</t>
         </is>
       </c>
       <c r="I49" t="n">
@@ -4173,7 +4173,7 @@
         </is>
       </c>
       <c r="R49" s="1" t="n">
-        <v>-4.580293715844907</v>
+        <v>0</v>
       </c>
       <c r="S49" t="n">
         <v>4</v>
@@ -4185,33 +4185,33 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>BIMEC 4</t>
         </is>
       </c>
       <c r="C50" t="n">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="D50" t="n">
-        <v>168.375</v>
+        <v>176.655737704918</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>2025-05-12 12:56:16</t>
+          <t>2025-05-12 12:16:42</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>2025-05-12 13:31:16</t>
+          <t>2025-05-12 12:58:42</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>2025-05-12 13:31:16</t>
+          <t>2025-05-12 12:58:42</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>2025-05-13 08:19:39</t>
+          <t>2025-05-13 07:55:21</t>
         </is>
       </c>
       <c r="I50" t="n">
@@ -4268,22 +4268,22 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>2025-05-12 12:57:07</t>
+          <t>2025-05-12 12:27:55</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>2025-05-12 13:12:07</t>
+          <t>2025-05-12 12:42:55</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>2025-05-12 13:12:07</t>
+          <t>2025-05-12 12:42:55</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>2025-05-13 07:14:23</t>
+          <t>2025-05-12 14:45:11</t>
         </is>
       </c>
       <c r="I51" t="n">
@@ -4333,29 +4333,29 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>95</v>
+        <v>45</v>
       </c>
       <c r="D52" t="n">
         <v>266.5915492957747</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>2025-05-12 13:26:03</t>
+          <t>2025-05-12 12:46:35</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>2025-05-13 07:01:03</t>
+          <t>2025-05-12 13:31:35</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>2025-05-13 07:01:03</t>
+          <t>2025-05-12 13:31:35</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>2025-05-13 11:27:38</t>
+          <t>2025-05-13 09:58:10</t>
         </is>
       </c>
       <c r="I52" t="n">
@@ -4389,7 +4389,7 @@
         </is>
       </c>
       <c r="R52" s="1" t="n">
-        <v>-25.47753325508102</v>
+        <v>0</v>
       </c>
       <c r="S52" t="n">
         <v>2</v>
@@ -4401,33 +4401,33 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C53" t="n">
-        <v>34.5</v>
+        <v>19</v>
       </c>
       <c r="D53" t="n">
-        <v>155.0363636363636</v>
+        <v>133.234375</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>2025-05-12 13:35:27</t>
+          <t>2025-05-12 13:23:26</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>2025-05-12 14:09:57</t>
+          <t>2025-05-12 13:42:26</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>2025-05-12 14:09:57</t>
+          <t>2025-05-12 13:42:26</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>2025-05-13 08:44:59</t>
+          <t>2025-05-13 07:55:40</t>
         </is>
       </c>
       <c r="I53" t="n">
@@ -4461,7 +4461,7 @@
         </is>
       </c>
       <c r="R53" s="1" t="n">
-        <v>-25.36457702019676</v>
+        <v>0</v>
       </c>
       <c r="S53" t="n">
         <v>2</v>
@@ -4473,33 +4473,33 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C54" t="n">
-        <v>25</v>
+        <v>32.5</v>
       </c>
       <c r="D54" t="n">
-        <v>78.81967213114754</v>
+        <v>87.41818181818182</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>2025-05-12 13:43:33</t>
+          <t>2025-05-12 13:35:27</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>2025-05-12 14:08:33</t>
+          <t>2025-05-12 14:07:57</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>2025-05-12 14:08:33</t>
+          <t>2025-05-12 14:07:57</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>2025-05-13 07:27:22</t>
+          <t>2025-05-13 07:35:22</t>
         </is>
       </c>
       <c r="I54" t="n">
@@ -4533,7 +4533,7 @@
         </is>
       </c>
       <c r="R54" s="1" t="n">
-        <v>-20.31067850637731</v>
+        <v>0</v>
       </c>
       <c r="S54" t="n">
         <v>2</v>
@@ -4545,33 +4545,33 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C55" t="n">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="D55" t="n">
         <v>63.26229508196721</v>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>2025-05-12 13:55:37</t>
+          <t>2025-05-12 13:43:33</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>2025-05-12 14:28:37</t>
+          <t>2025-05-12 14:23:33</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>2025-05-12 14:28:37</t>
+          <t>2025-05-12 14:23:33</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>2025-05-13 07:31:53</t>
+          <t>2025-05-13 07:26:49</t>
         </is>
       </c>
       <c r="I55" t="n">
@@ -4605,7 +4605,7 @@
         </is>
       </c>
       <c r="R55" s="1" t="n">
-        <v>-15.31380919854167</v>
+        <v>0</v>
       </c>
       <c r="S55" t="n">
         <v>2</v>
@@ -4617,33 +4617,33 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>R9</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C56" t="n">
-        <v>45</v>
+        <v>19</v>
       </c>
       <c r="D56" t="n">
-        <v>74.14492753623189</v>
+        <v>72.05633802816901</v>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>2025-05-12 14:50:21</t>
+          <t>2025-05-12 14:45:11</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>2025-05-13 07:35:21</t>
+          <t>2025-05-13 07:04:11</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>2025-05-13 07:35:21</t>
+          <t>2025-05-13 07:04:11</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>2025-05-13 08:49:30</t>
+          <t>2025-05-13 08:16:15</t>
         </is>
       </c>
       <c r="I56" t="n">
@@ -4677,7 +4677,7 @@
         </is>
       </c>
       <c r="R56" s="1" t="n">
-        <v>-15.36771336554398</v>
+        <v>0</v>
       </c>
       <c r="S56" t="n">
         <v>2</v>
@@ -4689,33 +4689,33 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>R3</t>
+          <t>R9</t>
         </is>
       </c>
       <c r="C57" t="n">
-        <v>42</v>
+        <v>60</v>
       </c>
       <c r="D57" t="n">
-        <v>31.89795918367347</v>
+        <v>22.65217391304348</v>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>2025-05-13 07:10:42</t>
+          <t>2025-05-12 14:50:21</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>2025-05-13 07:52:42</t>
+          <t>2025-05-13 07:50:21</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>2025-05-13 07:52:42</t>
+          <t>2025-05-13 07:50:21</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>2025-05-13 08:24:36</t>
+          <t>2025-05-13 08:13:00</t>
         </is>
       </c>
       <c r="I57" t="n">
@@ -4749,7 +4749,7 @@
         </is>
       </c>
       <c r="R57" s="1" t="n">
-        <v>-8.350425170069444</v>
+        <v>0</v>
       </c>
       <c r="S57" t="n">
         <v>2</v>
@@ -4761,33 +4761,33 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>R3</t>
         </is>
       </c>
       <c r="C58" t="n">
-        <v>25</v>
+        <v>55</v>
       </c>
       <c r="D58" t="n">
-        <v>70.4225352112676</v>
+        <v>102.0408163265306</v>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>2025-05-13 07:14:23</t>
+          <t>2025-05-13 07:05:42</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>2025-05-13 07:39:23</t>
+          <t>2025-05-13 08:00:42</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>2025-05-13 07:39:23</t>
+          <t>2025-05-13 08:00:42</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>2025-05-13 08:49:49</t>
+          <t>2025-05-13 09:42:45</t>
         </is>
       </c>
       <c r="I58" t="n">
@@ -4821,7 +4821,7 @@
         </is>
       </c>
       <c r="R58" s="1" t="n">
-        <v>-7.367928403761574</v>
+        <v>0</v>
       </c>
       <c r="S58" t="n">
         <v>2</v>
@@ -4893,7 +4893,7 @@
         </is>
       </c>
       <c r="R59" s="1" t="n">
-        <v>-285.306660798125</v>
+        <v>0</v>
       </c>
       <c r="S59" t="n">
         <v>1</v>
@@ -4909,29 +4909,29 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="D60" t="n">
         <v>217.6885245901639</v>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>2025-05-13 07:27:22</t>
+          <t>2025-05-13 07:26:49</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>2025-05-13 07:52:22</t>
+          <t>2025-05-13 08:06:49</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>2025-05-13 07:52:22</t>
+          <t>2025-05-13 08:06:49</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>2025-05-13 11:30:03</t>
+          <t>2025-05-13 11:44:30</t>
         </is>
       </c>
       <c r="I60" t="n">
@@ -4977,33 +4977,33 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C61" t="n">
-        <v>29</v>
+        <v>32.5</v>
       </c>
       <c r="D61" t="n">
-        <v>16.34426229508197</v>
+        <v>18.12727272727273</v>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>2025-05-13 07:31:53</t>
+          <t>2025-05-13 07:35:22</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>2025-05-13 08:00:53</t>
+          <t>2025-05-13 08:07:52</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>2025-05-13 08:00:53</t>
+          <t>2025-05-13 08:07:52</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>2025-05-13 08:17:13</t>
+          <t>2025-05-13 08:26:00</t>
         </is>
       </c>
       <c r="I61" t="n">
@@ -5037,7 +5037,7 @@
         </is>
       </c>
       <c r="R61" s="1" t="n">
-        <v>-225.3452982695833</v>
+        <v>0</v>
       </c>
       <c r="S61" t="n">
         <v>1</v>
@@ -5053,29 +5053,29 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="D62" t="n">
         <v>12.36065573770492</v>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>2025-05-13 08:17:13</t>
+          <t>2025-05-13 07:55:21</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>2025-05-13 08:42:13</t>
+          <t>2025-05-13 08:24:21</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>2025-05-13 08:42:13</t>
+          <t>2025-05-13 08:24:21</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>2025-05-13 08:54:35</t>
+          <t>2025-05-13 08:36:43</t>
         </is>
       </c>
       <c r="I62" t="n">
@@ -5109,7 +5109,7 @@
         </is>
       </c>
       <c r="R62" s="1" t="n">
-        <v>-56.37124316939815</v>
+        <v>0</v>
       </c>
       <c r="S62" t="n">
         <v>1</v>
@@ -5125,29 +5125,29 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D63" t="n">
         <v>11.78125</v>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>2025-05-13 08:19:39</t>
+          <t>2025-05-13 07:55:40</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>2025-05-13 08:38:39</t>
+          <t>2025-05-13 08:10:40</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>2025-05-13 08:38:39</t>
+          <t>2025-05-13 08:10:40</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>2025-05-13 08:50:26</t>
+          <t>2025-05-13 08:22:27</t>
         </is>
       </c>
       <c r="I63" t="n">
@@ -5181,7 +5181,7 @@
         </is>
       </c>
       <c r="R63" s="1" t="n">
-        <v>-46.368359375</v>
+        <v>0</v>
       </c>
       <c r="S63" t="n">
         <v>1</v>
@@ -5193,33 +5193,33 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>R3</t>
+          <t>R9</t>
         </is>
       </c>
       <c r="C64" t="n">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="D64" t="n">
-        <v>489.734693877551</v>
+        <v>347.7826086956522</v>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>2025-05-13 08:24:36</t>
+          <t>2025-05-13 08:13:00</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>2025-05-13 09:11:36</t>
+          <t>2025-05-13 08:53:00</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>2025-05-13 09:11:36</t>
+          <t>2025-05-13 08:53:00</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>2025-05-14 09:21:20</t>
+          <t>2025-05-13 14:40:47</t>
         </is>
       </c>
       <c r="I64" t="n">
@@ -5253,7 +5253,7 @@
         </is>
       </c>
       <c r="R64" s="1" t="n">
-        <v>-9.389824263043982</v>
+        <v>0</v>
       </c>
       <c r="S64" t="n">
         <v>1</v>
@@ -5265,33 +5265,33 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C65" t="n">
-        <v>30.5</v>
+        <v>15</v>
       </c>
       <c r="D65" t="n">
-        <v>489.7090909090909</v>
+        <v>379.3521126760563</v>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>2025-05-13 08:44:59</t>
+          <t>2025-05-13 08:16:15</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>2025-05-13 09:15:29</t>
+          <t>2025-05-13 08:31:15</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>2025-05-13 09:15:29</t>
+          <t>2025-05-13 08:31:15</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>2025-05-14 09:25:12</t>
+          <t>2025-05-13 14:50:36</t>
         </is>
       </c>
       <c r="I65" t="n">
@@ -5325,7 +5325,7 @@
         </is>
       </c>
       <c r="R65" s="1" t="n">
-        <v>-5.3925</v>
+        <v>0</v>
       </c>
       <c r="S65" t="n">
         <v>1</v>
@@ -5337,33 +5337,33 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>R9</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C66" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="D66" t="n">
-        <v>173.9420289855072</v>
+        <v>187.53125</v>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>2025-05-13 08:49:30</t>
+          <t>2025-05-13 08:22:27</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>2025-05-13 09:14:30</t>
+          <t>2025-05-13 08:37:27</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>2025-05-13 09:14:30</t>
+          <t>2025-05-13 08:37:27</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>2025-05-13 12:08:26</t>
+          <t>2025-05-13 11:44:59</t>
         </is>
       </c>
       <c r="I66" t="n">
@@ -5397,7 +5397,7 @@
         </is>
       </c>
       <c r="R66" s="1" t="n">
-        <v>-4.505867552337963</v>
+        <v>0</v>
       </c>
       <c r="S66" t="n">
         <v>1</v>
@@ -5409,33 +5409,33 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C67" t="n">
-        <v>27</v>
+        <v>36.5</v>
       </c>
       <c r="D67" t="n">
-        <v>78.40845070422536</v>
+        <v>101.2181818181818</v>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>2025-05-13 08:49:49</t>
+          <t>2025-05-13 08:26:00</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>2025-05-13 09:16:49</t>
+          <t>2025-05-13 09:02:30</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>2025-05-13 09:16:49</t>
+          <t>2025-05-13 09:02:30</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>2025-05-13 10:35:13</t>
+          <t>2025-05-13 10:43:43</t>
         </is>
       </c>
       <c r="I67" t="n">
@@ -5469,7 +5469,7 @@
         </is>
       </c>
       <c r="R67" s="1" t="n">
-        <v>-4.441128716747685</v>
+        <v>0</v>
       </c>
       <c r="S67" t="n">
         <v>1</v>
@@ -5481,33 +5481,33 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>BIMEC 4</t>
         </is>
       </c>
       <c r="C68" t="n">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="D68" t="n">
-        <v>108.859375</v>
+        <v>114.2131147540984</v>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>2025-05-13 08:50:26</t>
+          <t>2025-05-13 08:36:43</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>2025-05-13 09:09:26</t>
+          <t>2025-05-13 09:05:43</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>2025-05-13 09:09:26</t>
+          <t>2025-05-13 09:05:43</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>2025-05-13 10:58:17</t>
+          <t>2025-05-13 10:59:56</t>
         </is>
       </c>
       <c r="I68" t="n">
@@ -5541,7 +5541,7 @@
         </is>
       </c>
       <c r="R68" s="1" t="n">
-        <v>-4.457150607638889</v>
+        <v>0</v>
       </c>
       <c r="S68" t="n">
         <v>1</v>
@@ -5553,33 +5553,33 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>R3</t>
         </is>
       </c>
       <c r="C69" t="n">
-        <v>29</v>
+        <v>60</v>
       </c>
       <c r="D69" t="n">
-        <v>117.2622950819672</v>
+        <v>145.9795918367347</v>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>2025-05-13 08:54:35</t>
+          <t>2025-05-13 09:42:45</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>2025-05-13 09:23:35</t>
+          <t>2025-05-13 10:42:45</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>2025-05-13 09:23:35</t>
+          <t>2025-05-13 10:42:45</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>2025-05-13 11:20:51</t>
+          <t>2025-05-13 13:08:44</t>
         </is>
       </c>
       <c r="I69" t="n">
@@ -5613,7 +5613,7 @@
         </is>
       </c>
       <c r="R69" s="1" t="n">
-        <v>-4.472814207650463</v>
+        <v>0</v>
       </c>
       <c r="S69" t="n">
         <v>1</v>
@@ -5625,33 +5625,33 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="C70" t="n">
-        <v>17</v>
+        <v>105</v>
       </c>
       <c r="D70" t="n">
         <v>87.69014084507042</v>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>2025-05-13 10:35:13</t>
+          <t>2025-05-13 09:58:10</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>2025-05-13 10:52:13</t>
+          <t>2025-05-13 11:43:10</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>2025-05-13 10:52:13</t>
+          <t>2025-05-13 11:43:10</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>2025-05-13 12:19:54</t>
+          <t>2025-05-13 13:10:52</t>
         </is>
       </c>
       <c r="I70" t="n">
@@ -5685,7 +5685,7 @@
         </is>
       </c>
       <c r="R70" s="1" t="n">
-        <v>-4.513830203437499</v>
+        <v>0</v>
       </c>
       <c r="S70" t="n">
         <v>1</v>
@@ -5697,33 +5697,33 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C71" t="n">
-        <v>19</v>
+        <v>32.5</v>
       </c>
       <c r="D71" t="n">
-        <v>97.28125</v>
+        <v>113.2</v>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>2025-05-13 10:58:17</t>
+          <t>2025-05-13 10:43:43</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>2025-05-13 11:17:17</t>
+          <t>2025-05-13 11:16:13</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>2025-05-13 11:17:17</t>
+          <t>2025-05-13 11:16:13</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>2025-05-13 12:54:34</t>
+          <t>2025-05-13 13:09:25</t>
         </is>
       </c>
       <c r="I71" t="n">
@@ -5757,7 +5757,7 @@
         </is>
       </c>
       <c r="R71" s="1" t="n">
-        <v>-4.537901475694444</v>
+        <v>0</v>
       </c>
       <c r="S71" t="n">
         <v>1</v>
@@ -5780,22 +5780,22 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>2025-05-13 11:20:51</t>
+          <t>2025-05-13 10:59:56</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>2025-05-13 11:49:51</t>
+          <t>2025-05-13 11:28:56</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>2025-05-13 11:49:51</t>
+          <t>2025-05-13 11:28:56</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>2025-05-13 13:31:55</t>
+          <t>2025-05-13 13:11:00</t>
         </is>
       </c>
       <c r="I72" t="n">
@@ -5829,7 +5829,7 @@
         </is>
       </c>
       <c r="R72" s="1" t="n">
-        <v>-4.563831967210648</v>
+        <v>0</v>
       </c>
       <c r="S72" t="n">
         <v>1</v>
@@ -5837,41 +5837,41 @@
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>251520</v>
+        <v>251374</v>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C73" t="n">
-        <v>80</v>
+        <v>35</v>
       </c>
       <c r="D73" t="n">
-        <v>230.1408450704225</v>
+        <v>448.2459016393443</v>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>2025-05-13 11:27:38</t>
+          <t>2025-05-13 11:44:30</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>2025-05-13 12:47:38</t>
+          <t>2025-05-13 12:19:30</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>2025-05-13 12:47:38</t>
+          <t>2025-05-13 12:19:30</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>2025-05-14 08:37:47</t>
+          <t>2025-05-14 11:47:45</t>
         </is>
       </c>
       <c r="I73" t="n">
-        <v>16340</v>
+        <v>27343</v>
       </c>
       <c r="J73" t="inlineStr">
         <is>
@@ -5880,7 +5880,7 @@
       </c>
       <c r="K73" t="inlineStr">
         <is>
-          <t>CASON ;R6</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
         </is>
       </c>
       <c r="L73" t="n">
@@ -5897,11 +5897,11 @@
       </c>
       <c r="Q73" t="inlineStr">
         <is>
-          <t>2025-05-12 00:00:00</t>
+          <t>2025-05-15 00:00:00</t>
         </is>
       </c>
       <c r="R73" s="1" t="n">
-        <v>-2.359575508611111</v>
+        <v>0</v>
       </c>
       <c r="S73" t="n">
         <v>1</v>
@@ -5909,41 +5909,41 @@
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>251374</v>
+        <v>251580</v>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C74" t="n">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="D74" t="n">
-        <v>448.2459016393443</v>
+        <v>111.765625</v>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>2025-05-13 11:30:03</t>
+          <t>2025-05-13 11:44:59</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>2025-05-13 12:05:03</t>
+          <t>2025-05-13 12:03:59</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>2025-05-13 12:05:03</t>
+          <t>2025-05-13 12:03:59</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>2025-05-14 11:33:18</t>
+          <t>2025-05-13 13:55:45</t>
         </is>
       </c>
       <c r="I74" t="n">
-        <v>27343</v>
+        <v>7153</v>
       </c>
       <c r="J74" t="inlineStr">
         <is>
@@ -5952,11 +5952,11 @@
       </c>
       <c r="K74" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L74" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="M74" t="n">
         <v>70</v>
@@ -5981,41 +5981,41 @@
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>251580</v>
+        <v>251557</v>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>R9</t>
+          <t>R3</t>
         </is>
       </c>
       <c r="C75" t="n">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="D75" t="n">
-        <v>103.6666666666667</v>
+        <v>136.8367346938776</v>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>2025-05-13 12:08:26</t>
+          <t>2025-05-13 13:08:44</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>2025-05-13 12:43:26</t>
+          <t>2025-05-13 13:53:44</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>2025-05-13 12:43:26</t>
+          <t>2025-05-13 13:53:44</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>2025-05-13 14:27:06</t>
+          <t>2025-05-14 08:10:34</t>
         </is>
       </c>
       <c r="I75" t="n">
-        <v>7153</v>
+        <v>6705</v>
       </c>
       <c r="J75" t="inlineStr">
         <is>
@@ -6028,7 +6028,7 @@
         </is>
       </c>
       <c r="L75" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M75" t="n">
         <v>70</v>
@@ -6053,41 +6053,41 @@
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>251557</v>
+        <v>251520</v>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C76" t="n">
-        <v>15</v>
+        <v>40.5</v>
       </c>
       <c r="D76" t="n">
-        <v>94.43661971830986</v>
+        <v>297.0909090909091</v>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>2025-05-13 12:19:54</t>
+          <t>2025-05-13 13:09:25</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>2025-05-13 12:34:54</t>
+          <t>2025-05-13 13:49:55</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>2025-05-13 12:34:54</t>
+          <t>2025-05-13 13:49:55</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>2025-05-13 14:09:21</t>
+          <t>2025-05-14 10:47:00</t>
         </is>
       </c>
       <c r="I76" t="n">
-        <v>6705</v>
+        <v>16340</v>
       </c>
       <c r="J76" t="inlineStr">
         <is>
@@ -6096,11 +6096,11 @@
       </c>
       <c r="K76" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>CASON ;R6</t>
         </is>
       </c>
       <c r="L76" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="M76" t="n">
         <v>70</v>
@@ -6113,7 +6113,7 @@
       </c>
       <c r="Q76" t="inlineStr">
         <is>
-          <t>2025-05-15 00:00:00</t>
+          <t>2025-05-12 00:00:00</t>
         </is>
       </c>
       <c r="R76" s="1" t="n">
@@ -6129,33 +6129,33 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="C77" t="n">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="D77" t="n">
-        <v>127.21875</v>
+        <v>114.6760563380282</v>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>2025-05-13 12:54:34</t>
+          <t>2025-05-13 13:10:52</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>2025-05-13 13:09:34</t>
+          <t>2025-05-13 13:45:52</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>2025-05-13 13:09:34</t>
+          <t>2025-05-13 13:45:52</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>2025-05-14 07:16:47</t>
+          <t>2025-05-14 07:40:32</t>
         </is>
       </c>
       <c r="I77" t="n">
@@ -6212,22 +6212,22 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>2025-05-13 13:31:55</t>
+          <t>2025-05-13 13:11:00</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>2025-05-13 14:04:55</t>
+          <t>2025-05-13 13:44:00</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>2025-05-13 14:04:55</t>
+          <t>2025-05-13 13:44:00</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>2025-05-14 08:38:30</t>
+          <t>2025-05-14 08:17:35</t>
         </is>
       </c>
       <c r="I78" t="n">
@@ -6273,33 +6273,33 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C79" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D79" t="n">
-        <v>318.6478873239437</v>
+        <v>353.5</v>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>2025-05-13 14:09:21</t>
+          <t>2025-05-13 13:55:45</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>2025-05-13 14:32:21</t>
+          <t>2025-05-13 14:14:45</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>2025-05-13 14:32:21</t>
+          <t>2025-05-13 14:14:45</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>2025-05-14 11:51:00</t>
+          <t>2025-05-14 12:08:15</t>
         </is>
       </c>
       <c r="I79" t="n">
@@ -6349,29 +6349,29 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="D80" t="n">
         <v>218.5942028985507</v>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>2025-05-13 14:27:06</t>
+          <t>2025-05-13 14:40:47</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>2025-05-14 07:02:06</t>
+          <t>2025-05-14 07:05:47</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>2025-05-14 07:02:06</t>
+          <t>2025-05-14 07:05:47</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>2025-05-14 10:40:42</t>
+          <t>2025-05-14 10:44:23</t>
         </is>
       </c>
       <c r="I80" t="n">
@@ -6417,33 +6417,33 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C81" t="n">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="D81" t="n">
-        <v>247.8125</v>
+        <v>223.3802816901408</v>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>2025-05-14 07:16:47</t>
+          <t>2025-05-13 14:50:36</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>2025-05-14 07:39:47</t>
+          <t>2025-05-14 07:05:36</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>2025-05-14 07:39:47</t>
+          <t>2025-05-14 07:05:36</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>2025-05-14 11:47:36</t>
+          <t>2025-05-14 10:48:59</t>
         </is>
       </c>
       <c r="I81" t="n">
@@ -6557,41 +6557,41 @@
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>251987</v>
+        <v>251249</v>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>R3</t>
         </is>
       </c>
       <c r="C83" t="n">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="D83" t="n">
-        <v>2965.154929577465</v>
+        <v>97.10204081632654</v>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>2025-05-14 08:33:23</t>
+          <t>2025-05-14 08:10:34</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>2025-05-14 09:09:23</t>
+          <t>2025-05-14 09:05:34</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>2025-05-14 09:09:23</t>
+          <t>2025-05-14 09:05:34</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>2025-05-22 10:34:32</t>
+          <t>2025-05-14 10:42:40</t>
         </is>
       </c>
       <c r="I83" t="n">
-        <v>210526</v>
+        <v>4758</v>
       </c>
       <c r="J83" t="inlineStr">
         <is>
@@ -6600,14 +6600,14 @@
       </c>
       <c r="K83" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
         </is>
       </c>
       <c r="L83" t="n">
         <v>6</v>
       </c>
       <c r="M83" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="O83" t="n">
         <v>0</v>
@@ -6617,7 +6617,7 @@
       </c>
       <c r="Q83" t="inlineStr">
         <is>
-          <t>2025-09-01 00:00:00</t>
+          <t>2025-06-06 00:00:00</t>
         </is>
       </c>
       <c r="R83" s="1" t="n">
@@ -6629,7 +6629,7 @@
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>251249</v>
+        <v>251795</v>
       </c>
       <c r="B84" t="inlineStr">
         <is>
@@ -6640,30 +6640,30 @@
         <v>25</v>
       </c>
       <c r="D84" t="n">
-        <v>78</v>
+        <v>307.1967213114754</v>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>2025-05-14 08:38:30</t>
+          <t>2025-05-14 08:17:35</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>2025-05-14 09:03:30</t>
+          <t>2025-05-14 08:42:35</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>2025-05-14 09:03:30</t>
+          <t>2025-05-14 08:42:35</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>2025-05-14 10:21:30</t>
+          <t>2025-05-14 13:49:47</t>
         </is>
       </c>
       <c r="I84" t="n">
-        <v>4758</v>
+        <v>18739</v>
       </c>
       <c r="J84" t="inlineStr">
         <is>
@@ -6672,7 +6672,7 @@
       </c>
       <c r="K84" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R9</t>
         </is>
       </c>
       <c r="L84" t="n">
@@ -6689,7 +6689,7 @@
       </c>
       <c r="Q84" t="inlineStr">
         <is>
-          <t>2025-06-06 00:00:00</t>
+          <t>2025-06-19 00:00:00</t>
         </is>
       </c>
       <c r="R84" s="1" t="n">
@@ -6701,41 +6701,41 @@
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>251795</v>
+        <v>251987</v>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C85" t="n">
-        <v>30.5</v>
+        <v>36</v>
       </c>
       <c r="D85" t="n">
-        <v>340.7090909090909</v>
+        <v>2965.154929577465</v>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>2025-05-14 09:25:12</t>
+          <t>2025-05-14 08:33:23</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>2025-05-14 09:55:42</t>
+          <t>2025-05-14 09:09:23</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>2025-05-14 09:55:42</t>
+          <t>2025-05-14 09:09:23</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>2025-05-15 07:36:24</t>
+          <t>2025-05-22 10:34:32</t>
         </is>
       </c>
       <c r="I85" t="n">
-        <v>18739</v>
+        <v>210526</v>
       </c>
       <c r="J85" t="inlineStr">
         <is>
@@ -6744,14 +6744,14 @@
       </c>
       <c r="K85" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R9</t>
         </is>
       </c>
       <c r="L85" t="n">
         <v>6</v>
       </c>
       <c r="M85" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="O85" t="n">
         <v>0</v>
@@ -6761,7 +6761,7 @@
       </c>
       <c r="Q85" t="inlineStr">
         <is>
-          <t>2025-06-19 00:00:00</t>
+          <t>2025-09-01 00:00:00</t>
         </is>
       </c>
       <c r="R85" s="1" t="n">
@@ -6777,33 +6777,33 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>R9</t>
         </is>
       </c>
       <c r="C86" t="n">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="D86" t="n">
-        <v>8470.786885245901</v>
+        <v>7488.666666666667</v>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>2025-05-14 10:21:30</t>
+          <t>2025-05-14 10:44:23</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>2025-05-14 11:03:30</t>
+          <t>2025-05-14 11:19:23</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>2025-05-14 11:03:30</t>
+          <t>2025-05-14 11:19:23</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>2025-06-09 08:14:17</t>
+          <t>2025-06-05 08:08:03</t>
         </is>
       </c>
       <c r="I86" t="n">
@@ -6849,33 +6849,33 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>R9</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C87" t="n">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="D87" t="n">
-        <v>1777.753623188406</v>
+        <v>1727.676056338028</v>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>2025-05-14 10:40:42</t>
+          <t>2025-05-14 10:48:59</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>2025-05-14 11:20:42</t>
+          <t>2025-05-14 11:22:59</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>2025-05-14 11:20:42</t>
+          <t>2025-05-14 11:22:59</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>2025-05-20 08:58:27</t>
+          <t>2025-05-20 08:10:39</t>
         </is>
       </c>
       <c r="I87" t="n">

--- a/PS-VRP/Dati_output/euristico_post.xlsx
+++ b/PS-VRP/Dati_output/euristico_post.xlsx
@@ -515,18 +515,18 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>251229</v>
+        <v>251455</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="D2" t="n">
-        <v>307.1967213114754</v>
+        <v>74.6056338028169</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -535,21 +535,21 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2025-05-08 07:40:00</t>
+          <t>2025-05-08 07:34:00</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2025-05-08 07:40:00</t>
+          <t>2025-05-08 07:34:00</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2025-05-08 12:47:11</t>
+          <t>2025-05-08 08:48:36</t>
         </is>
       </c>
       <c r="I2" t="n">
-        <v>18739</v>
+        <v>5297</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
@@ -558,19 +558,17 @@
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L2" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M2" t="n">
         <v>70</v>
       </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>39723 (esterno)</t>
-        </is>
+      <c r="N2" t="n">
+        <v>39749</v>
       </c>
       <c r="O2" t="inlineStr">
         <is>
@@ -578,60 +576,60 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>39723</v>
+        <v>39749</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>2025-05-15 00:00:00</t>
+          <t>2025-04-15 00:00:00</t>
         </is>
       </c>
       <c r="R2" s="1" t="n">
-        <v>0</v>
+        <v>-0.3623372395833334</v>
       </c>
       <c r="S2" s="1" t="n">
-        <v>0</v>
+        <v>-1.367087245694445</v>
       </c>
       <c r="T2" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>251840</v>
+        <v>251547</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="D3" t="n">
-        <v>93.67213114754098</v>
+        <v>184.9154929577465</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2025-05-08 12:47:11</t>
+          <t>2025-05-08 08:48:36</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2025-05-08 13:12:11</t>
+          <t>2025-05-08 09:03:36</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>2025-05-08 13:12:11</t>
+          <t>2025-05-08 09:03:36</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2025-05-08 14:45:52</t>
+          <t>2025-05-08 12:08:31</t>
         </is>
       </c>
       <c r="I3" t="n">
-        <v>5714</v>
+        <v>13129</v>
       </c>
       <c r="J3" t="inlineStr">
         <is>
@@ -644,13 +642,13 @@
         </is>
       </c>
       <c r="L3" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M3" t="n">
         <v>70</v>
       </c>
       <c r="N3" t="n">
-        <v>39758</v>
+        <v>39749</v>
       </c>
       <c r="O3" t="inlineStr">
         <is>
@@ -658,60 +656,60 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>39758</v>
+        <v>39749</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>2025-05-09 00:00:00</t>
+          <t>2025-05-06 00:00:00</t>
         </is>
       </c>
       <c r="R3" s="1" t="n">
-        <v>-0.6151867031018519</v>
+        <v>-1.443691314548611</v>
       </c>
       <c r="S3" s="1" t="n">
-        <v>-0.6151867031018519</v>
+        <v>-1.505917449143519</v>
       </c>
       <c r="T3" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>251455</v>
+        <v>251225</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D4" t="n">
-        <v>86.8360655737705</v>
+        <v>0</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2025-05-08 14:45:52</t>
+          <t>2025-05-08 12:08:31</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2025-05-09 07:10:52</t>
+          <t>2025-05-08 12:38:31</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>2025-05-09 07:10:52</t>
+          <t>2025-05-08 12:38:31</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>2025-05-09 08:37:42</t>
+          <t>2025-05-08 12:38:31</t>
         </is>
       </c>
       <c r="I4" t="n">
-        <v>5297</v>
+        <v>0</v>
       </c>
       <c r="J4" t="inlineStr">
         <is>
@@ -720,17 +718,17 @@
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L4" t="n">
         <v>4</v>
       </c>
       <c r="M4" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="N4" t="n">
-        <v>39749</v>
+        <v>39747</v>
       </c>
       <c r="O4" t="inlineStr">
         <is>
@@ -738,60 +736,60 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>39749</v>
+        <v>39747</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>2025-04-15 00:00:00</t>
+          <t>2025-04-30 00:00:00</t>
         </is>
       </c>
       <c r="R4" s="1" t="n">
-        <v>-2.359517304189815</v>
+        <v>-0.5131944444444444</v>
       </c>
       <c r="S4" s="1" t="n">
-        <v>-2.359517304189815</v>
+        <v>-0.5267507824768519</v>
       </c>
       <c r="T4" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>251547</v>
+        <v>250759</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D5" t="n">
-        <v>215.2295081967213</v>
+        <v>118.2816901408451</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2025-05-09 08:37:42</t>
+          <t>2025-05-08 12:38:31</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2025-05-09 08:57:42</t>
+          <t>2025-05-08 12:53:31</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>2025-05-09 08:57:42</t>
+          <t>2025-05-08 12:53:31</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>2025-05-09 12:32:56</t>
+          <t>2025-05-08 14:51:48</t>
         </is>
       </c>
       <c r="I5" t="n">
-        <v>13129</v>
+        <v>8398</v>
       </c>
       <c r="J5" t="inlineStr">
         <is>
@@ -800,17 +798,17 @@
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12</t>
         </is>
       </c>
       <c r="L5" t="n">
         <v>4</v>
       </c>
       <c r="M5" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="N5" t="n">
-        <v>39749</v>
+        <v>39747</v>
       </c>
       <c r="O5" t="inlineStr">
         <is>
@@ -818,60 +816,60 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>39749</v>
+        <v>39747</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>2025-05-06 00:00:00</t>
+          <t>2025-03-13 00:00:00</t>
         </is>
       </c>
       <c r="R5" s="1" t="n">
-        <v>-2.522871129328704</v>
+        <v>-0.5466647104861111</v>
       </c>
       <c r="S5" s="1" t="n">
-        <v>-2.522871129328704</v>
+        <v>-0.6193075117361111</v>
       </c>
       <c r="T5" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>251371</v>
+        <v>250894</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>47</v>
+        <v>17</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>623.4084507042254</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2025-05-09 07:00:00</t>
+          <t>2025-05-08 14:51:48</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2025-05-09 07:47:00</t>
+          <t>2025-05-09 07:08:48</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>2025-05-09 07:47:00</t>
+          <t>2025-05-09 07:08:48</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>2025-05-09 07:47:00</t>
+          <t>2025-05-12 09:32:12</t>
         </is>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>44262</v>
       </c>
       <c r="J6" t="inlineStr">
         <is>
@@ -880,80 +878,76 @@
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L6" t="n">
+        <v>5</v>
+      </c>
+      <c r="M6" t="n">
+        <v>76</v>
+      </c>
+      <c r="N6" t="n">
+        <v>39755</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q6" t="inlineStr">
+        <is>
+          <t>2025-05-05 00:00:00</t>
+        </is>
+      </c>
+      <c r="R6" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S6" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T6" t="n">
         <v>4</v>
-      </c>
-      <c r="M6" t="n">
-        <v>70</v>
-      </c>
-      <c r="N6" t="inlineStr">
-        <is>
-          <t>39666 (esterno)</t>
-        </is>
-      </c>
-      <c r="O6" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="P6" t="n">
-        <v>39666</v>
-      </c>
-      <c r="Q6" t="inlineStr">
-        <is>
-          <t>2025-04-24 00:00:00</t>
-        </is>
-      </c>
-      <c r="R6" s="1" t="n">
-        <v>-13.48732638888889</v>
-      </c>
-      <c r="S6" s="1" t="n">
-        <v>-15.32430555555556</v>
-      </c>
-      <c r="T6" t="n">
-        <v>7</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>251050</v>
+        <v>251416</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>205</v>
+        <v>36</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>158.056338028169</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>2025-05-09 07:47:00</t>
+          <t>2025-05-12 09:32:12</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2025-05-09 11:12:00</t>
+          <t>2025-05-12 10:08:12</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>2025-05-09 11:12:00</t>
+          <t>2025-05-12 10:08:12</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>2025-05-09 11:12:00</t>
+          <t>2025-05-12 12:46:16</t>
         </is>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>11222</v>
       </c>
       <c r="J7" t="inlineStr">
         <is>
@@ -962,36 +956,34 @@
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L7" t="n">
-        <v>38</v>
+        <v>2</v>
       </c>
       <c r="M7" t="n">
         <v>70</v>
       </c>
       <c r="N7" t="n">
-        <v>39747</v>
-      </c>
-      <c r="O7" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>39755</v>
+      </c>
+      <c r="O7" t="n">
+        <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>39747</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>2025-04-16 00:00:00</t>
+          <t>2025-04-23 00:00:00</t>
         </is>
       </c>
       <c r="R7" s="1" t="n">
-        <v>-1.442361111111111</v>
+        <v>0</v>
       </c>
       <c r="S7" s="1" t="n">
-        <v>-1.466666666666667</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>2</v>
@@ -999,41 +991,41 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>251054</v>
+        <v>251742</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>134.8524590163935</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>2025-05-09 11:12:00</t>
+          <t>2025-05-08 07:00:00</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2025-05-09 11:47:00</t>
+          <t>2025-05-08 07:30:00</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>2025-05-09 11:47:00</t>
+          <t>2025-05-08 07:30:00</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>2025-05-09 11:47:00</t>
+          <t>2025-05-08 09:44:51</t>
         </is>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>8226</v>
       </c>
       <c r="J8" t="inlineStr">
         <is>
@@ -1042,17 +1034,17 @@
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L8" t="n">
-        <v>38</v>
+        <v>4</v>
       </c>
       <c r="M8" t="n">
         <v>70</v>
       </c>
       <c r="N8" t="n">
-        <v>39747</v>
+        <v>39749</v>
       </c>
       <c r="O8" t="inlineStr">
         <is>
@@ -1060,60 +1052,60 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>39747</v>
+        <v>39749</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>2025-04-16 00:00:00</t>
+          <t>2025-05-15 00:00:00</t>
         </is>
       </c>
       <c r="R8" s="1" t="n">
-        <v>-1.466666666666667</v>
+        <v>-1.406147540983796</v>
       </c>
       <c r="S8" s="1" t="n">
-        <v>-1.490972222222222</v>
+        <v>-1.406147540983796</v>
       </c>
       <c r="T8" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>251081</v>
+        <v>251840</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>125</v>
+        <v>25</v>
       </c>
       <c r="D9" t="n">
-        <v>42.42253521126761</v>
+        <v>93.67213114754098</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>2025-05-09 11:47:00</t>
+          <t>2025-05-08 09:44:51</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>2025-05-09 13:52:00</t>
+          <t>2025-05-08 10:09:51</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>2025-05-09 13:52:00</t>
+          <t>2025-05-08 10:09:51</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>2025-05-09 14:34:25</t>
+          <t>2025-05-08 11:43:31</t>
         </is>
       </c>
       <c r="I9" t="n">
-        <v>3012</v>
+        <v>5714</v>
       </c>
       <c r="J9" t="inlineStr">
         <is>
@@ -1122,19 +1114,17 @@
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L9" t="n">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="M9" t="n">
         <v>70</v>
       </c>
-      <c r="N9" t="inlineStr">
-        <is>
-          <t>39750 (esterno)</t>
-        </is>
+      <c r="N9" t="n">
+        <v>39758</v>
       </c>
       <c r="O9" t="inlineStr">
         <is>
@@ -1142,60 +1132,60 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>39750</v>
+        <v>39758</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>2025-04-23 00:00:00</t>
+          <t>2025-05-09 00:00:00</t>
         </is>
       </c>
       <c r="R9" s="1" t="n">
-        <v>-16.58293231612268</v>
+        <v>-0.4885587431712963</v>
       </c>
       <c r="S9" s="1" t="n">
-        <v>-16.60723787167824</v>
+        <v>-0.4885587431712963</v>
       </c>
       <c r="T9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>251782</v>
+        <v>251229</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="D10" t="n">
-        <v>170.0422535211268</v>
+        <v>307.1967213114754</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>2025-05-08 12:00:00</t>
+          <t>2025-05-08 11:43:31</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>2025-05-08 12:17:00</t>
+          <t>2025-05-08 12:08:31</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>2025-05-08 12:17:00</t>
+          <t>2025-05-08 12:08:31</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>2025-05-09 07:07:02</t>
+          <t>2025-05-09 09:15:43</t>
         </is>
       </c>
       <c r="I10" t="n">
-        <v>12073</v>
+        <v>18739</v>
       </c>
       <c r="J10" t="inlineStr">
         <is>
@@ -1204,17 +1194,19 @@
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R9</t>
         </is>
       </c>
       <c r="L10" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="M10" t="n">
-        <v>76</v>
-      </c>
-      <c r="N10" t="n">
-        <v>39754</v>
+        <v>70</v>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>39723 (esterno)</t>
+        </is>
       </c>
       <c r="O10" t="inlineStr">
         <is>
@@ -1222,18 +1214,18 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>39754</v>
+        <v>39723</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>2025-05-16 00:00:00</t>
+          <t>2025-05-15 00:00:00</t>
         </is>
       </c>
       <c r="R10" s="1" t="n">
-        <v>-0.3201682316087963</v>
+        <v>0</v>
       </c>
       <c r="S10" s="1" t="n">
-        <v>-0.2965571204976852</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>1</v>
@@ -1241,18 +1233,18 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>251284</v>
+        <v>251651</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>BIMEC 4</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>40.5</v>
+        <v>29</v>
       </c>
       <c r="D11" t="n">
-        <v>297.0909090909091</v>
+        <v>767.7049180327868</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
@@ -1261,21 +1253,21 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>2025-05-09 07:40:30</t>
+          <t>2025-05-09 07:29:00</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>2025-05-09 07:40:30</t>
+          <t>2025-05-09 07:29:00</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>2025-05-09 12:37:35</t>
+          <t>2025-05-12 12:16:42</t>
         </is>
       </c>
       <c r="I11" t="n">
-        <v>16340</v>
+        <v>46830</v>
       </c>
       <c r="J11" t="inlineStr">
         <is>
@@ -1284,25 +1276,23 @@
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>CASON ;R6</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L11" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="M11" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="N11" t="n">
-        <v>39747</v>
-      </c>
-      <c r="O11" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>39755</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>39747</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
@@ -1310,29 +1300,29 @@
         </is>
       </c>
       <c r="R11" s="1" t="n">
-        <v>-1.526104797974537</v>
+        <v>0</v>
       </c>
       <c r="S11" s="1" t="n">
-        <v>-1.526104797974537</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>251651</v>
+        <v>251371</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="D12" t="n">
-        <v>767.7049180327868</v>
+        <v>0</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
@@ -1341,21 +1331,21 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>2025-05-09 07:29:00</t>
+          <t>2025-05-09 07:47:00</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>2025-05-09 07:29:00</t>
+          <t>2025-05-09 07:47:00</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>2025-05-12 12:16:42</t>
+          <t>2025-05-09 07:47:00</t>
         </is>
       </c>
       <c r="I12" t="n">
-        <v>46830</v>
+        <v>0</v>
       </c>
       <c r="J12" t="inlineStr">
         <is>
@@ -1364,95 +1354,99 @@
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L12" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M12" t="n">
-        <v>76</v>
-      </c>
-      <c r="N12" t="n">
-        <v>39755</v>
-      </c>
-      <c r="O12" t="n">
-        <v>0</v>
+        <v>70</v>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>39666 (esterno)</t>
+        </is>
+      </c>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>39666</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>2025-05-12 00:00:00</t>
+          <t>2025-04-24 00:00:00</t>
         </is>
       </c>
       <c r="R12" s="1" t="n">
-        <v>0</v>
+        <v>-13.48732638888889</v>
       </c>
       <c r="S12" s="1" t="n">
-        <v>0</v>
+        <v>-15.32430555555556</v>
       </c>
       <c r="T12" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>251164</v>
+        <v>251050</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="C13" t="n">
+        <v>205</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0</v>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>2025-05-09 07:47:00</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2025-05-09 11:12:00</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>2025-05-09 11:12:00</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>2025-05-09 11:12:00</t>
+        </is>
+      </c>
+      <c r="I13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>bobina</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>R6</t>
+        </is>
+      </c>
+      <c r="L13" t="n">
         <v>38</v>
-      </c>
-      <c r="D13" t="n">
-        <v>140.8450704225352</v>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>2025-05-08 07:00:00</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>2025-05-08 07:38:00</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>2025-05-08 07:38:00</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>2025-05-08 09:58:50</t>
-        </is>
-      </c>
-      <c r="I13" t="n">
-        <v>10000</v>
-      </c>
-      <c r="J13" t="inlineStr">
-        <is>
-          <t>bobina</t>
-        </is>
-      </c>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
-        </is>
-      </c>
-      <c r="L13" t="n">
-        <v>6</v>
       </c>
       <c r="M13" t="n">
         <v>70</v>
       </c>
       <c r="N13" t="n">
-        <v>39749</v>
+        <v>39747</v>
       </c>
       <c r="O13" t="inlineStr">
         <is>
@@ -1460,60 +1454,60 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>39749</v>
+        <v>39747</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>2025-04-22 00:00:00</t>
+          <t>2025-04-16 00:00:00</t>
         </is>
       </c>
       <c r="R13" s="1" t="n">
-        <v>-1.471584467118056</v>
+        <v>-1.442361111111111</v>
       </c>
       <c r="S13" s="1" t="n">
-        <v>-1.415864632233796</v>
+        <v>-1.466666666666667</v>
       </c>
       <c r="T13" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>250759</v>
+        <v>251054</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D14" t="n">
-        <v>118.2816901408451</v>
+        <v>0</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>2025-05-08 09:58:50</t>
+          <t>2025-05-09 11:12:00</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>2025-05-08 10:32:50</t>
+          <t>2025-05-09 11:47:00</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>2025-05-08 10:32:50</t>
+          <t>2025-05-09 11:47:00</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>2025-05-08 12:31:07</t>
+          <t>2025-05-09 11:47:00</t>
         </is>
       </c>
       <c r="I14" t="n">
-        <v>8398</v>
+        <v>0</v>
       </c>
       <c r="J14" t="inlineStr">
         <is>
@@ -1522,14 +1516,14 @@
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="L14" t="n">
-        <v>4</v>
+        <v>38</v>
       </c>
       <c r="M14" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="N14" t="n">
         <v>39747</v>
@@ -1544,56 +1538,56 @@
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>2025-03-13 00:00:00</t>
+          <t>2025-04-16 00:00:00</t>
         </is>
       </c>
       <c r="R14" s="1" t="n">
-        <v>-0.5216158059490741</v>
+        <v>-1.466666666666667</v>
       </c>
       <c r="S14" s="1" t="n">
-        <v>-0.5216158059490741</v>
+        <v>-1.490972222222222</v>
       </c>
       <c r="T14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>251225</v>
+        <v>251081</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>15</v>
+        <v>125</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>42.42253521126761</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>2025-05-08 12:31:07</t>
+          <t>2025-05-09 11:47:00</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>2025-05-08 12:46:07</t>
+          <t>2025-05-09 13:52:00</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>2025-05-08 12:46:07</t>
+          <t>2025-05-09 13:52:00</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>2025-05-08 12:46:07</t>
+          <t>2025-05-09 14:34:25</t>
         </is>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>3012</v>
       </c>
       <c r="J15" t="inlineStr">
         <is>
@@ -1602,17 +1596,19 @@
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="L15" t="n">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="M15" t="n">
-        <v>76</v>
-      </c>
-      <c r="N15" t="n">
-        <v>39747</v>
+        <v>70</v>
+      </c>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>39750 (esterno)</t>
+        </is>
       </c>
       <c r="O15" t="inlineStr">
         <is>
@@ -1620,60 +1616,60 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>39747</v>
+        <v>39750</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>2025-04-30 00:00:00</t>
+          <t>2025-04-23 00:00:00</t>
         </is>
       </c>
       <c r="R15" s="1" t="n">
-        <v>-0.5320324726157407</v>
+        <v>-16.58293231612268</v>
       </c>
       <c r="S15" s="1" t="n">
-        <v>-0.5320324726157407</v>
+        <v>-16.60723787167824</v>
       </c>
       <c r="T15" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>250894</v>
+        <v>251782</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C16" t="n">
         <v>17</v>
       </c>
       <c r="D16" t="n">
-        <v>623.4084507042254</v>
+        <v>170.0422535211268</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>2025-05-08 12:46:07</t>
+          <t>2025-05-08 12:00:00</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>2025-05-08 13:03:07</t>
+          <t>2025-05-08 12:17:00</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>2025-05-08 13:03:07</t>
+          <t>2025-05-08 12:17:00</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>2025-05-12 07:26:32</t>
+          <t>2025-05-09 07:07:02</t>
         </is>
       </c>
       <c r="I16" t="n">
-        <v>44262</v>
+        <v>12073</v>
       </c>
       <c r="J16" t="inlineStr">
         <is>
@@ -1682,95 +1678,99 @@
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L16" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M16" t="n">
         <v>76</v>
       </c>
       <c r="N16" t="n">
-        <v>39755</v>
-      </c>
-      <c r="O16" t="n">
-        <v>0</v>
+        <v>39754</v>
+      </c>
+      <c r="O16" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>39754</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>2025-05-05 00:00:00</t>
+          <t>2025-05-16 00:00:00</t>
         </is>
       </c>
       <c r="R16" s="1" t="n">
-        <v>0</v>
+        <v>-0.3201682316087963</v>
       </c>
       <c r="S16" s="1" t="n">
-        <v>0</v>
+        <v>-0.2965571204976852</v>
       </c>
       <c r="T16" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>251456</v>
+        <v>251706</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>R3</t>
+          <t>T3</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>183.6530612244898</v>
+        <v>50.79365079365079</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>2025-05-08 07:00:00</t>
+          <t>2025-05-12 07:00:00</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>2025-05-08 07:40:00</t>
+          <t>2025-05-12 07:00:00</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>2025-05-08 07:40:00</t>
+          <t>2025-05-12 07:00:00</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>2025-05-08 10:43:39</t>
+          <t>2025-05-12 07:50:47</t>
         </is>
       </c>
       <c r="I17" t="n">
-        <v>8999</v>
+        <v>3200</v>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>bobina</t>
+          <t>foglio</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>T3</t>
         </is>
       </c>
       <c r="L17" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>70</v>
-      </c>
-      <c r="N17" t="n">
-        <v>39746</v>
+        <v>0</v>
+      </c>
+      <c r="N17" t="inlineStr">
+        <is>
+          <t>39764 (esterno)</t>
+        </is>
       </c>
       <c r="O17" t="inlineStr">
         <is>
@@ -1778,60 +1778,60 @@
         </is>
       </c>
       <c r="P17" t="n">
-        <v>39746</v>
+        <v>39764</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>2025-05-09 00:00:00</t>
+          <t>2025-05-14 00:00:00</t>
         </is>
       </c>
       <c r="R17" s="1" t="n">
-        <v>-3.300510204085648</v>
+        <v>0</v>
       </c>
       <c r="S17" s="1" t="n">
-        <v>-2.446981292511574</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>251742</v>
+        <v>251391</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>R3</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>19</v>
+        <v>50</v>
       </c>
       <c r="D18" t="n">
-        <v>128.53125</v>
+        <v>119.6938775510204</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>2025-05-07 07:00:00</t>
+          <t>2025-05-08 07:00:00</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>2025-05-07 07:19:00</t>
+          <t>2025-05-08 07:50:00</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>2025-05-07 07:19:00</t>
+          <t>2025-05-08 07:50:00</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>2025-05-07 09:27:31</t>
+          <t>2025-05-08 09:49:41</t>
         </is>
       </c>
       <c r="I18" t="n">
-        <v>8226</v>
+        <v>5865</v>
       </c>
       <c r="J18" t="inlineStr">
         <is>
@@ -1844,7 +1844,7 @@
         </is>
       </c>
       <c r="L18" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M18" t="n">
         <v>70</v>
@@ -1862,14 +1862,14 @@
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>2025-05-15 00:00:00</t>
+          <t>2025-04-23 00:00:00</t>
         </is>
       </c>
       <c r="R18" s="1" t="n">
-        <v>-1.406147540983796</v>
+        <v>-0.4377821180555556</v>
       </c>
       <c r="S18" s="1" t="n">
-        <v>-0.3941189236111111</v>
+        <v>-1.4095096371875</v>
       </c>
       <c r="T18" t="n">
         <v>7</v>
@@ -1877,41 +1877,41 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>251391</v>
+        <v>251164</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>R3</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>17</v>
+        <v>40</v>
       </c>
       <c r="D19" t="n">
-        <v>91.640625</v>
+        <v>204.0816326530612</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>2025-05-07 09:27:31</t>
+          <t>2025-05-08 09:49:41</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>2025-05-07 09:44:31</t>
+          <t>2025-05-08 10:29:41</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>2025-05-07 09:44:31</t>
+          <t>2025-05-08 10:29:41</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>2025-05-07 11:16:10</t>
+          <t>2025-05-08 13:53:46</t>
         </is>
       </c>
       <c r="I19" t="n">
-        <v>5865</v>
+        <v>10000</v>
       </c>
       <c r="J19" t="inlineStr">
         <is>
@@ -1924,7 +1924,7 @@
         </is>
       </c>
       <c r="L19" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M19" t="n">
         <v>70</v>
@@ -1942,56 +1942,56 @@
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>2025-04-23 00:00:00</t>
+          <t>2025-04-22 00:00:00</t>
         </is>
       </c>
       <c r="R19" s="1" t="n">
-        <v>-0.4695638020833333</v>
+        <v>-1.471584467118056</v>
       </c>
       <c r="S19" s="1" t="n">
-        <v>-0.4695638020833333</v>
+        <v>-1.579010770972222</v>
       </c>
       <c r="T19" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>251227</v>
+        <v>251456</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>R3</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>183.6530612244898</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>2025-05-07 11:16:10</t>
+          <t>2025-05-08 13:53:46</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>2025-05-07 11:48:10</t>
+          <t>2025-05-08 14:43:46</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>2025-05-07 11:48:10</t>
+          <t>2025-05-08 14:43:46</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>2025-05-07 11:48:10</t>
+          <t>2025-05-09 09:47:25</t>
         </is>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>8999</v>
       </c>
       <c r="J20" t="inlineStr">
         <is>
@@ -2000,14 +2000,14 @@
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L20" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M20" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="N20" t="n">
         <v>39746</v>
@@ -2022,14 +2022,14 @@
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>2025-05-05 00:00:00</t>
+          <t>2025-05-09 00:00:00</t>
         </is>
       </c>
       <c r="R20" s="1" t="n">
-        <v>-1.491786024305556</v>
+        <v>-3.300510204085648</v>
       </c>
       <c r="S20" s="1" t="n">
-        <v>-1.491786024305556</v>
+        <v>-3.407936507939815</v>
       </c>
       <c r="T20" t="n">
         <v>1</v>
@@ -2037,7 +2037,7 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>251395</v>
+        <v>250923</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
@@ -2045,33 +2045,33 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D21" t="n">
-        <v>35.34375</v>
+        <v>109.46875</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>2025-05-07 11:48:10</t>
+          <t>2025-05-07 07:00:00</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>2025-05-07 12:22:10</t>
+          <t>2025-05-07 07:36:00</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>2025-05-07 12:22:10</t>
+          <t>2025-05-07 07:36:00</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>2025-05-07 12:57:30</t>
+          <t>2025-05-07 09:25:28</t>
         </is>
       </c>
       <c r="I21" t="n">
-        <v>2262</v>
+        <v>7006</v>
       </c>
       <c r="J21" t="inlineStr">
         <is>
@@ -2080,14 +2080,14 @@
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L21" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="M21" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="N21" t="n">
         <v>39749</v>
@@ -2102,22 +2102,22 @@
       </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>2025-04-23 00:00:00</t>
+          <t>2025-04-07 00:00:00</t>
         </is>
       </c>
       <c r="R21" s="1" t="n">
-        <v>-0.53994140625</v>
+        <v>-1.446853298611111</v>
       </c>
       <c r="S21" s="1" t="n">
-        <v>-0.53994140625</v>
+        <v>-0.3926866319444444</v>
       </c>
       <c r="T21" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>251396</v>
+        <v>251395</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
@@ -2125,29 +2125,29 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="D22" t="n">
         <v>35.34375</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>2025-05-07 12:57:30</t>
+          <t>2025-05-07 09:25:28</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>2025-05-07 13:12:30</t>
+          <t>2025-05-07 09:57:28</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>2025-05-07 13:12:30</t>
+          <t>2025-05-07 09:57:28</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>2025-05-07 13:47:51</t>
+          <t>2025-05-07 10:32:48</t>
         </is>
       </c>
       <c r="I22" t="n">
@@ -2182,14 +2182,14 @@
       </c>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>2025-05-02 00:00:00</t>
+          <t>2025-04-23 00:00:00</t>
         </is>
       </c>
       <c r="R22" s="1" t="n">
-        <v>-0.57490234375</v>
+        <v>-0.439453125</v>
       </c>
       <c r="S22" s="1" t="n">
-        <v>-0.57490234375</v>
+        <v>-0.439453125</v>
       </c>
       <c r="T22" t="n">
         <v>7</v>
@@ -2197,7 +2197,7 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>251548</v>
+        <v>251396</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
@@ -2205,33 +2205,33 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D23" t="n">
-        <v>206.90625</v>
+        <v>35.34375</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>2025-05-07 13:47:51</t>
+          <t>2025-05-07 10:32:48</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>2025-05-07 14:06:51</t>
+          <t>2025-05-07 10:47:48</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>2025-05-07 14:06:51</t>
+          <t>2025-05-07 10:47:48</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>2025-05-08 09:33:45</t>
+          <t>2025-05-07 11:23:09</t>
         </is>
       </c>
       <c r="I23" t="n">
-        <v>13242</v>
+        <v>2262</v>
       </c>
       <c r="J23" t="inlineStr">
         <is>
@@ -2244,7 +2244,7 @@
         </is>
       </c>
       <c r="L23" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M23" t="n">
         <v>70</v>
@@ -2262,14 +2262,14 @@
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>2025-05-06 00:00:00</t>
+          <t>2025-05-02 00:00:00</t>
         </is>
       </c>
       <c r="R23" s="1" t="n">
-        <v>-1.398448350694445</v>
+        <v>-0.4744140625</v>
       </c>
       <c r="S23" s="1" t="n">
-        <v>-1.398448350694445</v>
+        <v>-0.4744140625</v>
       </c>
       <c r="T23" t="n">
         <v>7</v>
@@ -2277,7 +2277,7 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>250923</v>
+        <v>251227</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
@@ -2285,33 +2285,33 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D24" t="n">
-        <v>109.46875</v>
+        <v>0</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>2025-05-08 09:33:45</t>
+          <t>2025-05-07 11:23:09</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>2025-05-08 10:05:45</t>
+          <t>2025-05-07 11:57:09</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>2025-05-08 10:05:45</t>
+          <t>2025-05-07 11:57:09</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>2025-05-08 11:55:14</t>
+          <t>2025-05-07 11:57:09</t>
         </is>
       </c>
       <c r="I24" t="n">
-        <v>7006</v>
+        <v>0</v>
       </c>
       <c r="J24" t="inlineStr">
         <is>
@@ -2324,13 +2324,13 @@
         </is>
       </c>
       <c r="L24" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M24" t="n">
         <v>76</v>
       </c>
       <c r="N24" t="n">
-        <v>39749</v>
+        <v>39746</v>
       </c>
       <c r="O24" t="inlineStr">
         <is>
@@ -2338,26 +2338,26 @@
         </is>
       </c>
       <c r="P24" t="n">
-        <v>39749</v>
+        <v>39746</v>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>2025-04-07 00:00:00</t>
+          <t>2025-05-05 00:00:00</t>
         </is>
       </c>
       <c r="R24" s="1" t="n">
-        <v>-1.496690538194444</v>
+        <v>-1.498025173611111</v>
       </c>
       <c r="S24" s="1" t="n">
-        <v>-1.496690538194444</v>
+        <v>-1.498025173611111</v>
       </c>
       <c r="T24" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>251477</v>
+        <v>251548</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
@@ -2365,33 +2365,33 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="D25" t="n">
-        <v>468.734375</v>
+        <v>206.90625</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>2025-05-08 11:55:14</t>
+          <t>2025-05-07 11:57:09</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>2025-05-08 12:14:14</t>
+          <t>2025-05-07 12:27:09</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>2025-05-08 12:14:14</t>
+          <t>2025-05-07 12:27:09</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>2025-05-09 12:02:58</t>
+          <t>2025-05-08 07:54:03</t>
         </is>
       </c>
       <c r="I25" t="n">
-        <v>29999</v>
+        <v>13242</v>
       </c>
       <c r="J25" t="inlineStr">
         <is>
@@ -2400,17 +2400,17 @@
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L25" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M25" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="N25" t="n">
-        <v>39760</v>
+        <v>39749</v>
       </c>
       <c r="O25" t="inlineStr">
         <is>
@@ -2418,26 +2418,26 @@
         </is>
       </c>
       <c r="P25" t="n">
-        <v>39760</v>
+        <v>39749</v>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>2025-04-28 00:00:00</t>
+          <t>2025-05-06 00:00:00</t>
         </is>
       </c>
       <c r="R25" s="1" t="n">
-        <v>-2.502061631944445</v>
+        <v>-1.329210069444444</v>
       </c>
       <c r="S25" s="1" t="n">
-        <v>-2.502061631944445</v>
+        <v>-1.329210069444444</v>
       </c>
       <c r="T25" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>251416</v>
+        <v>251477</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
@@ -2448,30 +2448,30 @@
         <v>32</v>
       </c>
       <c r="D26" t="n">
-        <v>175.34375</v>
+        <v>468.734375</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>2025-05-09 12:02:58</t>
+          <t>2025-05-08 07:54:03</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>2025-05-09 12:34:58</t>
+          <t>2025-05-08 08:26:03</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>2025-05-09 12:34:58</t>
+          <t>2025-05-08 08:26:03</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>2025-05-12 07:30:18</t>
+          <t>2025-05-09 08:14:47</t>
         </is>
       </c>
       <c r="I26" t="n">
-        <v>11222</v>
+        <v>29999</v>
       </c>
       <c r="J26" t="inlineStr">
         <is>
@@ -2480,97 +2480,97 @@
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L26" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M26" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="N26" t="n">
-        <v>39755</v>
-      </c>
-      <c r="O26" t="n">
-        <v>0</v>
+        <v>39760</v>
+      </c>
+      <c r="O26" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>39760</v>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
-          <t>2025-04-23 00:00:00</t>
+          <t>2025-04-28 00:00:00</t>
         </is>
       </c>
       <c r="R26" s="1" t="n">
-        <v>0</v>
+        <v>-2.343608940972222</v>
       </c>
       <c r="S26" s="1" t="n">
-        <v>0</v>
+        <v>-2.343608940972222</v>
       </c>
       <c r="T26" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>251706</v>
+        <v>251284</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>T3</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>40.5</v>
       </c>
       <c r="D27" t="n">
-        <v>50.79365079365079</v>
+        <v>297.0909090909091</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>2025-05-12 07:00:00</t>
+          <t>2025-05-09 07:00:00</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>2025-05-12 07:00:00</t>
+          <t>2025-05-09 07:40:30</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>2025-05-12 07:00:00</t>
+          <t>2025-05-09 07:40:30</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>2025-05-12 07:50:47</t>
+          <t>2025-05-09 12:37:35</t>
         </is>
       </c>
       <c r="I27" t="n">
-        <v>3200</v>
+        <v>16340</v>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>foglio</t>
+          <t>bobina</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>T3</t>
+          <t>CASON ;R6</t>
         </is>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
-      </c>
-      <c r="N27" t="inlineStr">
-        <is>
-          <t>39764 (esterno)</t>
-        </is>
+        <v>70</v>
+      </c>
+      <c r="N27" t="n">
+        <v>39747</v>
       </c>
       <c r="O27" t="inlineStr">
         <is>
@@ -2578,21 +2578,21 @@
         </is>
       </c>
       <c r="P27" t="n">
-        <v>39764</v>
+        <v>39747</v>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
-          <t>2025-05-14 00:00:00</t>
+          <t>2025-05-12 00:00:00</t>
         </is>
       </c>
       <c r="R27" s="1" t="n">
-        <v>0</v>
+        <v>-1.526104797974537</v>
       </c>
       <c r="S27" s="1" t="n">
-        <v>0</v>
+        <v>-1.526104797974537</v>
       </c>
       <c r="T27" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -2749,7 +2749,7 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="D30" t="n">
         <v>42.453125</v>
@@ -2761,17 +2761,17 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>2025-05-09 11:10:12</t>
+          <t>2025-05-09 11:25:12</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>2025-05-09 11:10:12</t>
+          <t>2025-05-09 11:25:12</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>2025-05-09 11:52:39</t>
+          <t>2025-05-09 12:07:39</t>
         </is>
       </c>
       <c r="I30" t="n">
@@ -2893,7 +2893,7 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="D32" t="n">
         <v>255.1020408163265</v>
@@ -2905,17 +2905,17 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>2025-05-09 12:16:45</t>
+          <t>2025-05-09 12:26:45</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>2025-05-09 12:16:45</t>
+          <t>2025-05-09 12:26:45</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>2025-05-12 08:31:51</t>
+          <t>2025-05-12 08:41:51</t>
         </is>
       </c>
       <c r="I32" t="n">
@@ -2972,22 +2972,22 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>2025-05-09 11:52:39</t>
+          <t>2025-05-09 12:07:39</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>2025-05-09 12:11:39</t>
+          <t>2025-05-09 12:26:39</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>2025-05-09 12:11:39</t>
+          <t>2025-05-09 12:26:39</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>2025-05-09 13:52:41</t>
+          <t>2025-05-09 14:07:41</t>
         </is>
       </c>
       <c r="I33" t="n">
@@ -3177,33 +3177,33 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>21</v>
+        <v>125</v>
       </c>
       <c r="D36" t="n">
-        <v>205.859375</v>
+        <v>185.5633802816901</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>2025-05-09 13:52:41</t>
+          <t>2025-05-09 13:59:25</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>2025-05-09 14:13:41</t>
+          <t>2025-05-12 08:04:25</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>2025-05-09 14:13:41</t>
+          <t>2025-05-12 08:04:25</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>2025-05-12 09:39:32</t>
+          <t>2025-05-12 11:09:59</t>
         </is>
       </c>
       <c r="I36" t="n">
@@ -3249,33 +3249,33 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>65</v>
+        <v>33</v>
       </c>
       <c r="D37" t="n">
-        <v>342.1690140845071</v>
+        <v>379.59375</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>2025-05-09 13:59:25</t>
+          <t>2025-05-09 14:07:41</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>2025-05-12 07:04:25</t>
+          <t>2025-05-09 14:40:41</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>2025-05-12 07:04:25</t>
+          <t>2025-05-09 14:40:41</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>2025-05-12 12:46:35</t>
+          <t>2025-05-12 13:00:16</t>
         </is>
       </c>
       <c r="I37" t="n">
@@ -3533,41 +3533,41 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>251373</v>
+        <v>245623</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>R3</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="D41" t="n">
-        <v>348.8571428571428</v>
+        <v>372.0985915492957</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>2025-05-12 08:31:51</t>
+          <t>2025-05-12 08:33:38</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>2025-05-12 09:16:51</t>
+          <t>2025-05-12 09:05:38</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>2025-05-12 09:16:51</t>
+          <t>2025-05-12 09:05:38</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>2025-05-13 07:05:42</t>
+          <t>2025-05-13 07:17:44</t>
         </is>
       </c>
       <c r="I41" t="n">
-        <v>17094</v>
+        <v>26419</v>
       </c>
       <c r="J41" t="inlineStr">
         <is>
@@ -3576,14 +3576,14 @@
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L41" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="M41" t="n">
-        <v>70</v>
+        <v>152</v>
       </c>
       <c r="O41" t="n">
         <v>0</v>
@@ -3593,53 +3593,53 @@
       </c>
       <c r="Q41" t="inlineStr">
         <is>
-          <t>2025-04-28 00:00:00</t>
+          <t>2025-01-25 00:00:00</t>
         </is>
       </c>
       <c r="R41" s="1" t="n">
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>245623</v>
+        <v>251373</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>R3</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="D42" t="n">
-        <v>372.0985915492957</v>
+        <v>348.8571428571428</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>2025-05-12 08:33:38</t>
+          <t>2025-05-12 08:41:51</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>2025-05-12 09:05:38</t>
+          <t>2025-05-12 09:26:51</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>2025-05-12 09:05:38</t>
+          <t>2025-05-12 09:26:51</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>2025-05-13 07:17:44</t>
+          <t>2025-05-13 07:15:42</t>
         </is>
       </c>
       <c r="I42" t="n">
-        <v>26419</v>
+        <v>17094</v>
       </c>
       <c r="J42" t="inlineStr">
         <is>
@@ -3648,14 +3648,14 @@
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L42" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="M42" t="n">
-        <v>152</v>
+        <v>70</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
@@ -3665,14 +3665,14 @@
       </c>
       <c r="Q42" t="inlineStr">
         <is>
-          <t>2025-01-25 00:00:00</t>
+          <t>2025-04-28 00:00:00</t>
         </is>
       </c>
       <c r="R42" s="1" t="n">
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="43">
@@ -3825,33 +3825,33 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D45" t="n">
-        <v>135.640625</v>
+        <v>122.2676056338028</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>2025-05-12 09:39:32</t>
+          <t>2025-05-12 10:39:51</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>2025-05-12 09:58:32</t>
+          <t>2025-05-12 10:56:51</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>2025-05-12 09:58:32</t>
+          <t>2025-05-12 10:56:51</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>2025-05-12 12:14:11</t>
+          <t>2025-05-12 12:59:07</t>
         </is>
       </c>
       <c r="I45" t="n">
@@ -3897,33 +3897,33 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>17</v>
+        <v>45</v>
       </c>
       <c r="D46" t="n">
         <v>91.07042253521126</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>2025-05-12 10:39:51</t>
+          <t>2025-05-12 11:09:59</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>2025-05-12 10:56:51</t>
+          <t>2025-05-12 11:54:59</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>2025-05-12 10:56:51</t>
+          <t>2025-05-12 11:54:59</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>2025-05-12 12:27:55</t>
+          <t>2025-05-12 13:26:03</t>
         </is>
       </c>
       <c r="I46" t="n">
@@ -4113,33 +4113,33 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>BIMEC 4</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>15</v>
+        <v>42</v>
       </c>
       <c r="D49" t="n">
-        <v>54.25</v>
+        <v>56.91803278688525</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>2025-05-12 12:14:11</t>
+          <t>2025-05-12 12:16:42</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>2025-05-12 12:29:11</t>
+          <t>2025-05-12 12:58:42</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>2025-05-12 12:29:11</t>
+          <t>2025-05-12 12:58:42</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>2025-05-12 13:23:26</t>
+          <t>2025-05-12 13:55:37</t>
         </is>
       </c>
       <c r="I49" t="n">
@@ -4185,33 +4185,33 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C50" t="n">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="D50" t="n">
-        <v>176.655737704918</v>
+        <v>151.7746478873239</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>2025-05-12 12:16:42</t>
+          <t>2025-05-12 12:59:07</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>2025-05-12 12:58:42</t>
+          <t>2025-05-12 13:14:07</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>2025-05-12 12:58:42</t>
+          <t>2025-05-12 13:14:07</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>2025-05-13 07:55:21</t>
+          <t>2025-05-13 07:45:54</t>
         </is>
       </c>
       <c r="I50" t="n">
@@ -4257,33 +4257,33 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C51" t="n">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="D51" t="n">
-        <v>122.2676056338028</v>
+        <v>135.640625</v>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>2025-05-12 12:27:55</t>
+          <t>2025-05-12 13:00:16</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>2025-05-12 12:42:55</t>
+          <t>2025-05-12 13:35:16</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>2025-05-12 12:42:55</t>
+          <t>2025-05-12 13:35:16</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>2025-05-12 14:45:11</t>
+          <t>2025-05-13 07:50:55</t>
         </is>
       </c>
       <c r="I51" t="n">
@@ -4333,29 +4333,29 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>45</v>
+        <v>95</v>
       </c>
       <c r="D52" t="n">
         <v>266.5915492957747</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>2025-05-12 12:46:35</t>
+          <t>2025-05-12 13:26:03</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>2025-05-12 13:31:35</t>
+          <t>2025-05-13 07:01:03</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>2025-05-12 13:31:35</t>
+          <t>2025-05-13 07:01:03</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>2025-05-13 09:58:10</t>
+          <t>2025-05-13 11:27:38</t>
         </is>
       </c>
       <c r="I52" t="n">
@@ -4401,33 +4401,33 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C53" t="n">
-        <v>19</v>
+        <v>34.5</v>
       </c>
       <c r="D53" t="n">
-        <v>133.234375</v>
+        <v>155.0363636363636</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>2025-05-12 13:23:26</t>
+          <t>2025-05-12 13:35:27</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>2025-05-12 13:42:26</t>
+          <t>2025-05-12 14:09:57</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>2025-05-12 13:42:26</t>
+          <t>2025-05-12 14:09:57</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>2025-05-13 07:55:40</t>
+          <t>2025-05-13 08:44:59</t>
         </is>
       </c>
       <c r="I53" t="n">
@@ -4473,33 +4473,33 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C54" t="n">
-        <v>32.5</v>
+        <v>25</v>
       </c>
       <c r="D54" t="n">
-        <v>87.41818181818182</v>
+        <v>78.81967213114754</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>2025-05-12 13:35:27</t>
+          <t>2025-05-12 13:43:33</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>2025-05-12 14:07:57</t>
+          <t>2025-05-12 14:08:33</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>2025-05-12 14:07:57</t>
+          <t>2025-05-12 14:08:33</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>2025-05-13 07:35:22</t>
+          <t>2025-05-13 07:27:22</t>
         </is>
       </c>
       <c r="I54" t="n">
@@ -4545,33 +4545,33 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>BIMEC 4</t>
         </is>
       </c>
       <c r="C55" t="n">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="D55" t="n">
         <v>63.26229508196721</v>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>2025-05-12 13:43:33</t>
+          <t>2025-05-12 13:55:37</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>2025-05-12 14:23:33</t>
+          <t>2025-05-12 14:28:37</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>2025-05-12 14:23:33</t>
+          <t>2025-05-12 14:28:37</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>2025-05-13 07:26:49</t>
+          <t>2025-05-13 07:31:53</t>
         </is>
       </c>
       <c r="I55" t="n">
@@ -4617,33 +4617,33 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>R9</t>
         </is>
       </c>
       <c r="C56" t="n">
-        <v>19</v>
+        <v>45</v>
       </c>
       <c r="D56" t="n">
-        <v>72.05633802816901</v>
+        <v>74.14492753623189</v>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>2025-05-12 14:45:11</t>
+          <t>2025-05-12 14:50:21</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>2025-05-13 07:04:11</t>
+          <t>2025-05-13 07:35:21</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>2025-05-13 07:04:11</t>
+          <t>2025-05-13 07:35:21</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>2025-05-13 08:16:15</t>
+          <t>2025-05-13 08:49:30</t>
         </is>
       </c>
       <c r="I56" t="n">
@@ -4689,33 +4689,33 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>R9</t>
+          <t>R3</t>
         </is>
       </c>
       <c r="C57" t="n">
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="D57" t="n">
-        <v>22.65217391304348</v>
+        <v>31.89795918367347</v>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>2025-05-12 14:50:21</t>
+          <t>2025-05-13 07:15:42</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>2025-05-13 07:50:21</t>
+          <t>2025-05-13 07:57:42</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>2025-05-13 07:50:21</t>
+          <t>2025-05-13 07:57:42</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>2025-05-13 08:13:00</t>
+          <t>2025-05-13 08:29:36</t>
         </is>
       </c>
       <c r="I57" t="n">
@@ -4757,41 +4757,41 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>251259</v>
+        <v>243335</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>R3</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C58" t="n">
-        <v>55</v>
+        <v>19</v>
       </c>
       <c r="D58" t="n">
-        <v>102.0408163265306</v>
+        <v>464.8450704225352</v>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>2025-05-13 07:05:42</t>
+          <t>2025-05-13 07:17:44</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>2025-05-13 08:00:42</t>
+          <t>2025-05-13 07:36:44</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>2025-05-13 08:00:42</t>
+          <t>2025-05-13 07:36:44</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>2025-05-13 09:42:45</t>
+          <t>2025-05-14 07:21:35</t>
         </is>
       </c>
       <c r="I58" t="n">
-        <v>5000</v>
+        <v>33004</v>
       </c>
       <c r="J58" t="inlineStr">
         <is>
@@ -4800,14 +4800,14 @@
       </c>
       <c r="K58" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L58" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="M58" t="n">
-        <v>70</v>
+        <v>152</v>
       </c>
       <c r="O58" t="n">
         <v>0</v>
@@ -4817,53 +4817,53 @@
       </c>
       <c r="Q58" t="inlineStr">
         <is>
-          <t>2025-05-06 00:00:00</t>
+          <t>2024-08-02 00:00:00</t>
         </is>
       </c>
       <c r="R58" s="1" t="n">
         <v>0</v>
       </c>
       <c r="S58" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>243335</v>
+        <v>251259</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C59" t="n">
-        <v>19</v>
+        <v>40</v>
       </c>
       <c r="D59" t="n">
-        <v>464.8450704225352</v>
+        <v>81.9672131147541</v>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>2025-05-13 07:17:44</t>
+          <t>2025-05-13 07:27:22</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>2025-05-13 07:36:44</t>
+          <t>2025-05-13 08:07:22</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>2025-05-13 07:36:44</t>
+          <t>2025-05-13 08:07:22</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>2025-05-14 07:21:35</t>
+          <t>2025-05-13 09:29:20</t>
         </is>
       </c>
       <c r="I59" t="n">
-        <v>33004</v>
+        <v>5000</v>
       </c>
       <c r="J59" t="inlineStr">
         <is>
@@ -4872,14 +4872,14 @@
       </c>
       <c r="K59" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L59" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="M59" t="n">
-        <v>152</v>
+        <v>70</v>
       </c>
       <c r="O59" t="n">
         <v>0</v>
@@ -4889,14 +4889,14 @@
       </c>
       <c r="Q59" t="inlineStr">
         <is>
-          <t>2024-08-02 00:00:00</t>
+          <t>2025-05-06 00:00:00</t>
         </is>
       </c>
       <c r="R59" s="1" t="n">
         <v>0</v>
       </c>
       <c r="S59" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="60">
@@ -4905,33 +4905,33 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>BIMEC 4</t>
         </is>
       </c>
       <c r="C60" t="n">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="D60" t="n">
         <v>217.6885245901639</v>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>2025-05-13 07:26:49</t>
+          <t>2025-05-13 07:31:53</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>2025-05-13 08:06:49</t>
+          <t>2025-05-13 08:04:53</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>2025-05-13 08:06:49</t>
+          <t>2025-05-13 08:04:53</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>2025-05-13 11:44:30</t>
+          <t>2025-05-13 11:42:34</t>
         </is>
       </c>
       <c r="I60" t="n">
@@ -4977,33 +4977,33 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C61" t="n">
-        <v>32.5</v>
+        <v>19</v>
       </c>
       <c r="D61" t="n">
-        <v>18.12727272727273</v>
+        <v>14.04225352112676</v>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>2025-05-13 07:35:22</t>
+          <t>2025-05-13 07:45:54</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>2025-05-13 08:07:52</t>
+          <t>2025-05-13 08:04:54</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>2025-05-13 08:07:52</t>
+          <t>2025-05-13 08:04:54</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>2025-05-13 08:26:00</t>
+          <t>2025-05-13 08:18:56</t>
         </is>
       </c>
       <c r="I61" t="n">
@@ -5049,33 +5049,33 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C62" t="n">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="D62" t="n">
-        <v>12.36065573770492</v>
+        <v>11.78125</v>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>2025-05-13 07:55:21</t>
+          <t>2025-05-13 07:50:55</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>2025-05-13 08:24:21</t>
+          <t>2025-05-13 08:09:55</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>2025-05-13 08:24:21</t>
+          <t>2025-05-13 08:09:55</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>2025-05-13 08:36:43</t>
+          <t>2025-05-13 08:21:42</t>
         </is>
       </c>
       <c r="I62" t="n">
@@ -5121,33 +5121,33 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C63" t="n">
         <v>15</v>
       </c>
       <c r="D63" t="n">
-        <v>11.78125</v>
+        <v>10.61971830985915</v>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>2025-05-13 07:55:40</t>
+          <t>2025-05-13 08:18:56</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>2025-05-13 08:10:40</t>
+          <t>2025-05-13 08:33:56</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>2025-05-13 08:10:40</t>
+          <t>2025-05-13 08:33:56</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>2025-05-13 08:22:27</t>
+          <t>2025-05-13 08:44:33</t>
         </is>
       </c>
       <c r="I63" t="n">
@@ -5193,33 +5193,33 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>R9</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C64" t="n">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="D64" t="n">
-        <v>347.7826086956522</v>
+        <v>374.953125</v>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>2025-05-13 08:13:00</t>
+          <t>2025-05-13 08:21:42</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>2025-05-13 08:53:00</t>
+          <t>2025-05-13 08:36:42</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>2025-05-13 08:53:00</t>
+          <t>2025-05-13 08:36:42</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>2025-05-13 14:40:47</t>
+          <t>2025-05-13 14:51:39</t>
         </is>
       </c>
       <c r="I64" t="n">
@@ -5265,33 +5265,33 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>R3</t>
         </is>
       </c>
       <c r="C65" t="n">
-        <v>15</v>
+        <v>47</v>
       </c>
       <c r="D65" t="n">
-        <v>379.3521126760563</v>
+        <v>549.6734693877551</v>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>2025-05-13 08:16:15</t>
+          <t>2025-05-13 08:29:36</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>2025-05-13 08:31:15</t>
+          <t>2025-05-13 09:16:36</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>2025-05-13 08:31:15</t>
+          <t>2025-05-13 09:16:36</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>2025-05-13 14:50:36</t>
+          <t>2025-05-14 10:26:17</t>
         </is>
       </c>
       <c r="I65" t="n">
@@ -5337,33 +5337,33 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C66" t="n">
         <v>15</v>
       </c>
       <c r="D66" t="n">
-        <v>187.53125</v>
+        <v>169.0422535211268</v>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>2025-05-13 08:22:27</t>
+          <t>2025-05-13 08:44:33</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>2025-05-13 08:37:27</t>
+          <t>2025-05-13 08:59:33</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>2025-05-13 08:37:27</t>
+          <t>2025-05-13 08:59:33</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>2025-05-13 11:44:59</t>
+          <t>2025-05-13 11:48:36</t>
         </is>
       </c>
       <c r="I66" t="n">
@@ -5420,22 +5420,22 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>2025-05-13 08:26:00</t>
+          <t>2025-05-13 08:44:59</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>2025-05-13 09:02:30</t>
+          <t>2025-05-13 09:21:29</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>2025-05-13 09:02:30</t>
+          <t>2025-05-13 09:21:29</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>2025-05-13 10:43:43</t>
+          <t>2025-05-13 11:02:42</t>
         </is>
       </c>
       <c r="I67" t="n">
@@ -5481,33 +5481,33 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>R9</t>
         </is>
       </c>
       <c r="C68" t="n">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="D68" t="n">
-        <v>114.2131147540984</v>
+        <v>100.9710144927536</v>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>2025-05-13 08:36:43</t>
+          <t>2025-05-13 08:49:30</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>2025-05-13 09:05:43</t>
+          <t>2025-05-13 09:24:30</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>2025-05-13 09:05:43</t>
+          <t>2025-05-13 09:24:30</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>2025-05-13 10:59:56</t>
+          <t>2025-05-13 11:05:28</t>
         </is>
       </c>
       <c r="I68" t="n">
@@ -5553,33 +5553,33 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>R3</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C69" t="n">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="D69" t="n">
-        <v>145.9795918367347</v>
+        <v>117.2622950819672</v>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>2025-05-13 09:42:45</t>
+          <t>2025-05-13 09:29:20</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>2025-05-13 10:42:45</t>
+          <t>2025-05-13 10:14:20</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>2025-05-13 10:42:45</t>
+          <t>2025-05-13 10:14:20</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>2025-05-13 13:08:44</t>
+          <t>2025-05-13 12:11:36</t>
         </is>
       </c>
       <c r="I69" t="n">
@@ -5625,33 +5625,33 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C70" t="n">
-        <v>105</v>
+        <v>32.5</v>
       </c>
       <c r="D70" t="n">
-        <v>87.69014084507042</v>
+        <v>113.2</v>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>2025-05-13 09:58:10</t>
+          <t>2025-05-13 11:02:42</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>2025-05-13 11:43:10</t>
+          <t>2025-05-13 11:35:12</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>2025-05-13 11:43:10</t>
+          <t>2025-05-13 11:35:12</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>2025-05-13 13:10:52</t>
+          <t>2025-05-13 13:28:24</t>
         </is>
       </c>
       <c r="I70" t="n">
@@ -5697,33 +5697,33 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>R9</t>
         </is>
       </c>
       <c r="C71" t="n">
-        <v>32.5</v>
+        <v>35</v>
       </c>
       <c r="D71" t="n">
-        <v>113.2</v>
+        <v>90.23188405797102</v>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>2025-05-13 10:43:43</t>
+          <t>2025-05-13 11:05:28</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>2025-05-13 11:16:13</t>
+          <t>2025-05-13 11:40:28</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>2025-05-13 11:16:13</t>
+          <t>2025-05-13 11:40:28</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>2025-05-13 13:09:25</t>
+          <t>2025-05-13 13:10:42</t>
         </is>
       </c>
       <c r="I71" t="n">
@@ -5769,33 +5769,33 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="C72" t="n">
-        <v>29</v>
+        <v>105</v>
       </c>
       <c r="D72" t="n">
-        <v>102.0655737704918</v>
+        <v>87.69014084507042</v>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>2025-05-13 10:59:56</t>
+          <t>2025-05-13 11:27:38</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>2025-05-13 11:28:56</t>
+          <t>2025-05-13 13:12:38</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>2025-05-13 11:28:56</t>
+          <t>2025-05-13 13:12:38</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>2025-05-13 13:11:00</t>
+          <t>2025-05-13 14:40:20</t>
         </is>
       </c>
       <c r="I72" t="n">
@@ -5841,33 +5841,33 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>BIMEC 4</t>
         </is>
       </c>
       <c r="C73" t="n">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="D73" t="n">
         <v>448.2459016393443</v>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>2025-05-13 11:44:30</t>
+          <t>2025-05-13 11:42:34</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>2025-05-13 12:19:30</t>
+          <t>2025-05-13 12:13:34</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>2025-05-13 12:19:30</t>
+          <t>2025-05-13 12:13:34</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>2025-05-14 11:47:45</t>
+          <t>2025-05-14 11:41:49</t>
         </is>
       </c>
       <c r="I73" t="n">
@@ -5913,33 +5913,33 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C74" t="n">
         <v>19</v>
       </c>
       <c r="D74" t="n">
-        <v>111.765625</v>
+        <v>100.7464788732394</v>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>2025-05-13 11:44:59</t>
+          <t>2025-05-13 11:48:36</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>2025-05-13 12:03:59</t>
+          <t>2025-05-13 12:07:36</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>2025-05-13 12:03:59</t>
+          <t>2025-05-13 12:07:36</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>2025-05-13 13:55:45</t>
+          <t>2025-05-13 13:48:21</t>
         </is>
       </c>
       <c r="I74" t="n">
@@ -5985,33 +5985,33 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>R3</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C75" t="n">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="D75" t="n">
-        <v>136.8367346938776</v>
+        <v>109.9180327868852</v>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>2025-05-13 13:08:44</t>
+          <t>2025-05-13 12:11:36</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>2025-05-13 13:53:44</t>
+          <t>2025-05-13 12:41:36</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>2025-05-13 13:53:44</t>
+          <t>2025-05-13 12:41:36</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>2025-05-14 08:10:34</t>
+          <t>2025-05-13 14:31:31</t>
         </is>
       </c>
       <c r="I75" t="n">
@@ -6053,41 +6053,41 @@
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>251520</v>
+        <v>251562</v>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>R9</t>
         </is>
       </c>
       <c r="C76" t="n">
-        <v>40.5</v>
+        <v>25</v>
       </c>
       <c r="D76" t="n">
-        <v>297.0909090909091</v>
+        <v>118</v>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>2025-05-13 13:09:25</t>
+          <t>2025-05-13 13:10:42</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>2025-05-13 13:49:55</t>
+          <t>2025-05-13 13:35:42</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>2025-05-13 13:49:55</t>
+          <t>2025-05-13 13:35:42</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>2025-05-14 10:47:00</t>
+          <t>2025-05-14 07:33:42</t>
         </is>
       </c>
       <c r="I76" t="n">
-        <v>16340</v>
+        <v>8142</v>
       </c>
       <c r="J76" t="inlineStr">
         <is>
@@ -6096,11 +6096,11 @@
       </c>
       <c r="K76" t="inlineStr">
         <is>
-          <t>CASON ;R6</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L76" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="M76" t="n">
         <v>70</v>
@@ -6113,7 +6113,7 @@
       </c>
       <c r="Q76" t="inlineStr">
         <is>
-          <t>2025-05-12 00:00:00</t>
+          <t>2025-05-15 00:00:00</t>
         </is>
       </c>
       <c r="R76" s="1" t="n">
@@ -6125,41 +6125,41 @@
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>251562</v>
+        <v>251520</v>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C77" t="n">
-        <v>35</v>
+        <v>40.5</v>
       </c>
       <c r="D77" t="n">
-        <v>114.6760563380282</v>
+        <v>297.0909090909091</v>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>2025-05-13 13:10:52</t>
+          <t>2025-05-13 13:28:24</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>2025-05-13 13:45:52</t>
+          <t>2025-05-13 14:08:54</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>2025-05-13 13:45:52</t>
+          <t>2025-05-13 14:08:54</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>2025-05-14 07:40:32</t>
+          <t>2025-05-14 11:06:00</t>
         </is>
       </c>
       <c r="I77" t="n">
-        <v>8142</v>
+        <v>16340</v>
       </c>
       <c r="J77" t="inlineStr">
         <is>
@@ -6168,11 +6168,11 @@
       </c>
       <c r="K77" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>CASON ;R6</t>
         </is>
       </c>
       <c r="L77" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="M77" t="n">
         <v>70</v>
@@ -6185,7 +6185,7 @@
       </c>
       <c r="Q77" t="inlineStr">
         <is>
-          <t>2025-05-15 00:00:00</t>
+          <t>2025-05-12 00:00:00</t>
         </is>
       </c>
       <c r="R77" s="1" t="n">
@@ -6201,33 +6201,33 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C78" t="n">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="D78" t="n">
-        <v>153.5901639344262</v>
+        <v>131.9577464788732</v>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>2025-05-13 13:11:00</t>
+          <t>2025-05-13 13:48:21</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>2025-05-13 13:44:00</t>
+          <t>2025-05-13 14:07:21</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>2025-05-13 13:44:00</t>
+          <t>2025-05-13 14:07:21</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>2025-05-14 08:17:35</t>
+          <t>2025-05-14 08:19:18</t>
         </is>
       </c>
       <c r="I78" t="n">
@@ -6273,33 +6273,33 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C79" t="n">
-        <v>19</v>
+        <v>40</v>
       </c>
       <c r="D79" t="n">
-        <v>353.5</v>
+        <v>370.8852459016393</v>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>2025-05-13 13:55:45</t>
+          <t>2025-05-13 14:31:31</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>2025-05-13 14:14:45</t>
+          <t>2025-05-14 07:11:31</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>2025-05-13 14:14:45</t>
+          <t>2025-05-14 07:11:31</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>2025-05-14 12:08:15</t>
+          <t>2025-05-14 13:22:24</t>
         </is>
       </c>
       <c r="I79" t="n">
@@ -6345,33 +6345,33 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>R9</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C80" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="D80" t="n">
-        <v>218.5942028985507</v>
+        <v>235.671875</v>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>2025-05-13 14:40:47</t>
+          <t>2025-05-13 14:51:39</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>2025-05-14 07:05:47</t>
+          <t>2025-05-14 07:06:39</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>2025-05-14 07:05:47</t>
+          <t>2025-05-14 07:06:39</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>2025-05-14 10:44:23</t>
+          <t>2025-05-14 11:02:19</t>
         </is>
       </c>
       <c r="I80" t="n">
@@ -6413,41 +6413,41 @@
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>251251</v>
+        <v>251750</v>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C81" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D81" t="n">
-        <v>223.3802816901408</v>
+        <v>54.80281690140845</v>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>2025-05-13 14:50:36</t>
+          <t>2025-05-14 07:21:35</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>2025-05-14 07:05:36</t>
+          <t>2025-05-14 07:38:35</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>2025-05-14 07:05:36</t>
+          <t>2025-05-14 07:38:35</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>2025-05-14 10:48:59</t>
+          <t>2025-05-14 08:33:23</t>
         </is>
       </c>
       <c r="I81" t="n">
-        <v>15860</v>
+        <v>3891</v>
       </c>
       <c r="J81" t="inlineStr">
         <is>
@@ -6456,14 +6456,14 @@
       </c>
       <c r="K81" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L81" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="M81" t="n">
-        <v>70</v>
+        <v>152</v>
       </c>
       <c r="O81" t="n">
         <v>0</v>
@@ -6473,7 +6473,7 @@
       </c>
       <c r="Q81" t="inlineStr">
         <is>
-          <t>2025-05-23 00:00:00</t>
+          <t>2025-05-26 00:00:00</t>
         </is>
       </c>
       <c r="R81" s="1" t="n">
@@ -6485,41 +6485,41 @@
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>251750</v>
+        <v>251251</v>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>R9</t>
         </is>
       </c>
       <c r="C82" t="n">
-        <v>17</v>
+        <v>45</v>
       </c>
       <c r="D82" t="n">
-        <v>54.80281690140845</v>
+        <v>229.8550724637681</v>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>2025-05-14 07:21:35</t>
+          <t>2025-05-14 07:33:42</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>2025-05-14 07:38:35</t>
+          <t>2025-05-14 08:18:42</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>2025-05-14 07:38:35</t>
+          <t>2025-05-14 08:18:42</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>2025-05-14 08:33:23</t>
+          <t>2025-05-14 12:08:33</t>
         </is>
       </c>
       <c r="I82" t="n">
-        <v>3891</v>
+        <v>15860</v>
       </c>
       <c r="J82" t="inlineStr">
         <is>
@@ -6528,14 +6528,14 @@
       </c>
       <c r="K82" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
         </is>
       </c>
       <c r="L82" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="M82" t="n">
-        <v>152</v>
+        <v>70</v>
       </c>
       <c r="O82" t="n">
         <v>0</v>
@@ -6545,7 +6545,7 @@
       </c>
       <c r="Q82" t="inlineStr">
         <is>
-          <t>2025-05-26 00:00:00</t>
+          <t>2025-05-23 00:00:00</t>
         </is>
       </c>
       <c r="R82" s="1" t="n">
@@ -6561,33 +6561,33 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>R3</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C83" t="n">
-        <v>55</v>
+        <v>15</v>
       </c>
       <c r="D83" t="n">
-        <v>97.10204081632654</v>
+        <v>67.01408450704226</v>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>2025-05-14 08:10:34</t>
+          <t>2025-05-14 08:19:18</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>2025-05-14 09:05:34</t>
+          <t>2025-05-14 08:34:18</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>2025-05-14 09:05:34</t>
+          <t>2025-05-14 08:34:18</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>2025-05-14 10:42:40</t>
+          <t>2025-05-14 09:41:19</t>
         </is>
       </c>
       <c r="I83" t="n">
@@ -6629,41 +6629,41 @@
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>251795</v>
+        <v>251987</v>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C84" t="n">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="D84" t="n">
-        <v>307.1967213114754</v>
+        <v>2965.154929577465</v>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>2025-05-14 08:17:35</t>
+          <t>2025-05-14 08:33:23</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>2025-05-14 08:42:35</t>
+          <t>2025-05-14 09:09:23</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>2025-05-14 08:42:35</t>
+          <t>2025-05-14 09:09:23</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>2025-05-14 13:49:47</t>
+          <t>2025-05-22 10:34:32</t>
         </is>
       </c>
       <c r="I84" t="n">
-        <v>18739</v>
+        <v>210526</v>
       </c>
       <c r="J84" t="inlineStr">
         <is>
@@ -6672,14 +6672,14 @@
       </c>
       <c r="K84" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R9</t>
         </is>
       </c>
       <c r="L84" t="n">
         <v>6</v>
       </c>
       <c r="M84" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="O84" t="n">
         <v>0</v>
@@ -6689,7 +6689,7 @@
       </c>
       <c r="Q84" t="inlineStr">
         <is>
-          <t>2025-06-19 00:00:00</t>
+          <t>2025-09-01 00:00:00</t>
         </is>
       </c>
       <c r="R84" s="1" t="n">
@@ -6701,41 +6701,41 @@
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>251987</v>
+        <v>251795</v>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C85" t="n">
-        <v>36</v>
+        <v>15</v>
       </c>
       <c r="D85" t="n">
-        <v>2965.154929577465</v>
+        <v>263.9295774647887</v>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>2025-05-14 08:33:23</t>
+          <t>2025-05-14 09:41:19</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>2025-05-14 09:09:23</t>
+          <t>2025-05-14 09:56:19</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>2025-05-14 09:09:23</t>
+          <t>2025-05-14 09:56:19</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>2025-05-22 10:34:32</t>
+          <t>2025-05-14 14:20:15</t>
         </is>
       </c>
       <c r="I85" t="n">
-        <v>210526</v>
+        <v>18739</v>
       </c>
       <c r="J85" t="inlineStr">
         <is>
@@ -6744,14 +6744,14 @@
       </c>
       <c r="K85" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R9</t>
         </is>
       </c>
       <c r="L85" t="n">
         <v>6</v>
       </c>
       <c r="M85" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="O85" t="n">
         <v>0</v>
@@ -6761,7 +6761,7 @@
       </c>
       <c r="Q85" t="inlineStr">
         <is>
-          <t>2025-09-01 00:00:00</t>
+          <t>2025-06-19 00:00:00</t>
         </is>
       </c>
       <c r="R85" s="1" t="n">
@@ -6777,33 +6777,33 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>R9</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C86" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D86" t="n">
-        <v>7488.666666666667</v>
+        <v>8073.71875</v>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>2025-05-14 10:44:23</t>
+          <t>2025-05-14 11:02:19</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>2025-05-14 11:19:23</t>
+          <t>2025-05-14 11:34:19</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>2025-05-14 11:19:23</t>
+          <t>2025-05-14 11:34:19</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>2025-06-05 08:08:03</t>
+          <t>2025-06-06 10:08:02</t>
         </is>
       </c>
       <c r="I86" t="n">
@@ -6849,33 +6849,33 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>BIMEC 4</t>
         </is>
       </c>
       <c r="C87" t="n">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="D87" t="n">
-        <v>1727.676056338028</v>
+        <v>2010.901639344262</v>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>2025-05-14 10:48:59</t>
+          <t>2025-05-14 11:41:49</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>2025-05-14 11:22:59</t>
+          <t>2025-05-14 12:27:49</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>2025-05-14 11:22:59</t>
+          <t>2025-05-14 12:27:49</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>2025-05-20 08:10:39</t>
+          <t>2025-05-20 13:58:43</t>
         </is>
       </c>
       <c r="I87" t="n">

--- a/PS-VRP/Dati_output/euristico_post.xlsx
+++ b/PS-VRP/Dati_output/euristico_post.xlsx
@@ -515,41 +515,41 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>251455</v>
+        <v>251651</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>BIMEC 4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="D2" t="n">
-        <v>74.6056338028169</v>
+        <v>767.7049180327868</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2025-05-08 07:00:00</t>
+          <t>2025-05-09 07:00:00</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2025-05-08 07:34:00</t>
+          <t>2025-05-09 07:29:00</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2025-05-08 07:34:00</t>
+          <t>2025-05-09 07:29:00</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2025-05-08 08:48:36</t>
+          <t>2025-05-12 12:16:42</t>
         </is>
       </c>
       <c r="I2" t="n">
-        <v>5297</v>
+        <v>46830</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
@@ -558,78 +558,76 @@
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L2" t="n">
+        <v>5</v>
+      </c>
+      <c r="M2" t="n">
+        <v>76</v>
+      </c>
+      <c r="N2" t="n">
+        <v>39755</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>2025-05-12 00:00:00</t>
+        </is>
+      </c>
+      <c r="R2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T2" t="n">
         <v>4</v>
-      </c>
-      <c r="M2" t="n">
-        <v>70</v>
-      </c>
-      <c r="N2" t="n">
-        <v>39749</v>
-      </c>
-      <c r="O2" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="P2" t="n">
-        <v>39749</v>
-      </c>
-      <c r="Q2" t="inlineStr">
-        <is>
-          <t>2025-04-15 00:00:00</t>
-        </is>
-      </c>
-      <c r="R2" s="1" t="n">
-        <v>-0.3623372395833334</v>
-      </c>
-      <c r="S2" s="1" t="n">
-        <v>-1.367087245694445</v>
-      </c>
-      <c r="T2" t="n">
-        <v>7</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>251547</v>
+        <v>251391</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="D3" t="n">
-        <v>184.9154929577465</v>
+        <v>96.14754098360656</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2025-05-08 08:48:36</t>
+          <t>2025-05-08 07:00:00</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2025-05-08 09:03:36</t>
+          <t>2025-05-08 07:35:00</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>2025-05-08 09:03:36</t>
+          <t>2025-05-08 07:35:00</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2025-05-08 12:08:31</t>
+          <t>2025-05-08 09:11:08</t>
         </is>
       </c>
       <c r="I3" t="n">
-        <v>13129</v>
+        <v>5865</v>
       </c>
       <c r="J3" t="inlineStr">
         <is>
@@ -642,7 +640,7 @@
         </is>
       </c>
       <c r="L3" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M3" t="n">
         <v>70</v>
@@ -660,14 +658,14 @@
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>2025-05-06 00:00:00</t>
+          <t>2025-04-23 00:00:00</t>
         </is>
       </c>
       <c r="R3" s="1" t="n">
-        <v>-1.443691314548611</v>
+        <v>-0.4377821180555556</v>
       </c>
       <c r="S3" s="1" t="n">
-        <v>-1.505917449143519</v>
+        <v>-1.382741347905093</v>
       </c>
       <c r="T3" t="n">
         <v>7</v>
@@ -675,41 +673,41 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>251225</v>
+        <v>251840</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>93.67213114754098</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2025-05-08 12:08:31</t>
+          <t>2025-05-08 09:11:08</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2025-05-08 12:38:31</t>
+          <t>2025-05-08 09:31:08</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>2025-05-08 12:38:31</t>
+          <t>2025-05-08 09:31:08</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>2025-05-08 12:38:31</t>
+          <t>2025-05-08 11:04:49</t>
         </is>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>5714</v>
       </c>
       <c r="J4" t="inlineStr">
         <is>
@@ -718,17 +716,17 @@
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L4" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M4" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="N4" t="n">
-        <v>39747</v>
+        <v>39758</v>
       </c>
       <c r="O4" t="inlineStr">
         <is>
@@ -736,18 +734,18 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>39747</v>
+        <v>39758</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>2025-04-30 00:00:00</t>
+          <t>2025-05-09 00:00:00</t>
         </is>
       </c>
       <c r="R4" s="1" t="n">
-        <v>-0.5131944444444444</v>
+        <v>-0.4885587431712963</v>
       </c>
       <c r="S4" s="1" t="n">
-        <v>-0.5267507824768519</v>
+        <v>-0.4616803278703704</v>
       </c>
       <c r="T4" t="n">
         <v>1</v>
@@ -755,41 +753,41 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>250759</v>
+        <v>251742</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="D5" t="n">
-        <v>118.2816901408451</v>
+        <v>134.8524590163935</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2025-05-08 12:38:31</t>
+          <t>2025-05-08 11:04:49</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2025-05-08 12:53:31</t>
+          <t>2025-05-08 11:29:49</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>2025-05-08 12:53:31</t>
+          <t>2025-05-08 11:29:49</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>2025-05-08 14:51:48</t>
+          <t>2025-05-08 13:44:40</t>
         </is>
       </c>
       <c r="I5" t="n">
-        <v>8398</v>
+        <v>8226</v>
       </c>
       <c r="J5" t="inlineStr">
         <is>
@@ -798,17 +796,17 @@
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L5" t="n">
         <v>4</v>
       </c>
       <c r="M5" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="N5" t="n">
-        <v>39747</v>
+        <v>39749</v>
       </c>
       <c r="O5" t="inlineStr">
         <is>
@@ -816,60 +814,60 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>39747</v>
+        <v>39749</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>2025-03-13 00:00:00</t>
+          <t>2025-05-15 00:00:00</t>
         </is>
       </c>
       <c r="R5" s="1" t="n">
-        <v>-0.5466647104861111</v>
+        <v>-1.406147540983796</v>
       </c>
       <c r="S5" s="1" t="n">
-        <v>-0.6193075117361111</v>
+        <v>-1.572688979965278</v>
       </c>
       <c r="T5" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>250894</v>
+        <v>251229</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="D6" t="n">
-        <v>623.4084507042254</v>
+        <v>307.1967213114754</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2025-05-08 14:51:48</t>
+          <t>2025-05-08 13:44:40</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2025-05-09 07:08:48</t>
+          <t>2025-05-08 14:14:40</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>2025-05-09 07:08:48</t>
+          <t>2025-05-08 14:14:40</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>2025-05-12 09:32:12</t>
+          <t>2025-05-09 11:21:52</t>
         </is>
       </c>
       <c r="I6" t="n">
-        <v>44262</v>
+        <v>18739</v>
       </c>
       <c r="J6" t="inlineStr">
         <is>
@@ -878,27 +876,31 @@
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R9</t>
         </is>
       </c>
       <c r="L6" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M6" t="n">
-        <v>76</v>
-      </c>
-      <c r="N6" t="n">
-        <v>39755</v>
-      </c>
-      <c r="O6" t="n">
-        <v>0</v>
+        <v>70</v>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>39723 (esterno)</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>39723</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>2025-05-05 00:00:00</t>
+          <t>2025-05-15 00:00:00</t>
         </is>
       </c>
       <c r="R6" s="1" t="n">
@@ -908,46 +910,46 @@
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>251416</v>
+        <v>251164</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="D7" t="n">
-        <v>158.056338028169</v>
+        <v>156.25</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>2025-05-12 09:32:12</t>
+          <t>2025-05-07 07:00:00</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2025-05-12 10:08:12</t>
+          <t>2025-05-07 07:23:00</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>2025-05-12 10:08:12</t>
+          <t>2025-05-07 07:23:00</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>2025-05-12 12:46:16</t>
+          <t>2025-05-07 09:59:15</t>
         </is>
       </c>
       <c r="I7" t="n">
-        <v>11222</v>
+        <v>10000</v>
       </c>
       <c r="J7" t="inlineStr">
         <is>
@@ -960,72 +962,74 @@
         </is>
       </c>
       <c r="L7" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="M7" t="n">
         <v>70</v>
       </c>
       <c r="N7" t="n">
-        <v>39755</v>
-      </c>
-      <c r="O7" t="n">
-        <v>0</v>
+        <v>39749</v>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>39749</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>2025-04-23 00:00:00</t>
+          <t>2025-04-22 00:00:00</t>
         </is>
       </c>
       <c r="R7" s="1" t="n">
-        <v>0</v>
+        <v>-1.471584467118056</v>
       </c>
       <c r="S7" s="1" t="n">
-        <v>0</v>
+        <v>-0.4161458333333333</v>
       </c>
       <c r="T7" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>251742</v>
+        <v>250923</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D8" t="n">
-        <v>134.8524590163935</v>
+        <v>109.46875</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>2025-05-08 07:00:00</t>
+          <t>2025-05-07 09:59:15</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2025-05-08 07:30:00</t>
+          <t>2025-05-07 10:31:15</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>2025-05-08 07:30:00</t>
+          <t>2025-05-07 10:31:15</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>2025-05-08 09:44:51</t>
+          <t>2025-05-07 12:20:43</t>
         </is>
       </c>
       <c r="I8" t="n">
-        <v>8226</v>
+        <v>7006</v>
       </c>
       <c r="J8" t="inlineStr">
         <is>
@@ -1034,14 +1038,14 @@
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L8" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M8" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="N8" t="n">
         <v>39749</v>
@@ -1056,56 +1060,56 @@
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>2025-05-15 00:00:00</t>
+          <t>2025-04-07 00:00:00</t>
         </is>
       </c>
       <c r="R8" s="1" t="n">
-        <v>-1.406147540983796</v>
+        <v>-1.446853298611111</v>
       </c>
       <c r="S8" s="1" t="n">
-        <v>-1.406147540983796</v>
+        <v>-0.5143880208333333</v>
       </c>
       <c r="T8" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>251840</v>
+        <v>251455</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="D9" t="n">
-        <v>93.67213114754098</v>
+        <v>82.765625</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>2025-05-08 09:44:51</t>
+          <t>2025-05-07 12:20:43</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>2025-05-08 10:09:51</t>
+          <t>2025-05-07 12:52:43</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>2025-05-08 10:09:51</t>
+          <t>2025-05-07 12:52:43</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>2025-05-08 11:43:31</t>
+          <t>2025-05-07 14:15:29</t>
         </is>
       </c>
       <c r="I9" t="n">
-        <v>5714</v>
+        <v>5297</v>
       </c>
       <c r="J9" t="inlineStr">
         <is>
@@ -1118,13 +1122,13 @@
         </is>
       </c>
       <c r="L9" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M9" t="n">
         <v>70</v>
       </c>
       <c r="N9" t="n">
-        <v>39758</v>
+        <v>39749</v>
       </c>
       <c r="O9" t="inlineStr">
         <is>
@@ -1132,60 +1136,60 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>39758</v>
+        <v>39749</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>2025-05-09 00:00:00</t>
+          <t>2025-04-15 00:00:00</t>
         </is>
       </c>
       <c r="R9" s="1" t="n">
-        <v>-0.4885587431712963</v>
+        <v>-0.3623372395833334</v>
       </c>
       <c r="S9" s="1" t="n">
-        <v>-0.4885587431712963</v>
+        <v>-0.5940863715277778</v>
       </c>
       <c r="T9" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>251229</v>
+        <v>251371</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="D10" t="n">
-        <v>307.1967213114754</v>
+        <v>0</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>2025-05-08 11:43:31</t>
+          <t>2025-05-07 14:15:29</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>2025-05-08 12:08:31</t>
+          <t>2025-05-07 14:30:29</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>2025-05-08 12:08:31</t>
+          <t>2025-05-07 14:30:29</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>2025-05-09 09:15:43</t>
+          <t>2025-05-07 14:30:29</t>
         </is>
       </c>
       <c r="I10" t="n">
-        <v>18739</v>
+        <v>0</v>
       </c>
       <c r="J10" t="inlineStr">
         <is>
@@ -1194,18 +1198,18 @@
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L10" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M10" t="n">
         <v>70</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>39723 (esterno)</t>
+          <t>39666 (esterno)</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
@@ -1214,60 +1218,60 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>39723</v>
+        <v>39666</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>2025-05-15 00:00:00</t>
+          <t>2025-04-24 00:00:00</t>
         </is>
       </c>
       <c r="R10" s="1" t="n">
-        <v>0</v>
+        <v>-13.48732638888889</v>
       </c>
       <c r="S10" s="1" t="n">
-        <v>0</v>
+        <v>-13.60450303819444</v>
       </c>
       <c r="T10" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>251651</v>
+        <v>251395</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="D11" t="n">
-        <v>767.7049180327868</v>
+        <v>35.34375</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>2025-05-09 07:00:00</t>
+          <t>2025-05-07 14:30:29</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>2025-05-09 07:29:00</t>
+          <t>2025-05-07 14:49:29</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>2025-05-09 07:29:00</t>
+          <t>2025-05-07 14:49:29</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>2025-05-12 12:16:42</t>
+          <t>2025-05-08 07:24:49</t>
         </is>
       </c>
       <c r="I11" t="n">
-        <v>46830</v>
+        <v>2262</v>
       </c>
       <c r="J11" t="inlineStr">
         <is>
@@ -1276,76 +1280,78 @@
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L11" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M11" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="N11" t="n">
-        <v>39755</v>
-      </c>
-      <c r="O11" t="n">
-        <v>0</v>
+        <v>39749</v>
+      </c>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>39749</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>2025-05-12 00:00:00</t>
+          <t>2025-04-23 00:00:00</t>
         </is>
       </c>
       <c r="R11" s="1" t="n">
-        <v>0</v>
+        <v>-0.4741319444444445</v>
       </c>
       <c r="S11" s="1" t="n">
-        <v>0</v>
+        <v>-1.308908420138889</v>
       </c>
       <c r="T11" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>251371</v>
+        <v>251396</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>47</v>
+        <v>15</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>35.34375</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>2025-05-09 07:00:00</t>
+          <t>2025-05-08 07:24:49</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>2025-05-09 07:47:00</t>
+          <t>2025-05-08 07:39:49</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>2025-05-09 07:47:00</t>
+          <t>2025-05-08 07:39:49</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>2025-05-09 07:47:00</t>
+          <t>2025-05-08 08:15:10</t>
         </is>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>2262</v>
       </c>
       <c r="J12" t="inlineStr">
         <is>
@@ -1358,15 +1364,13 @@
         </is>
       </c>
       <c r="L12" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M12" t="n">
         <v>70</v>
       </c>
-      <c r="N12" t="inlineStr">
-        <is>
-          <t>39666 (esterno)</t>
-        </is>
+      <c r="N12" t="n">
+        <v>39749</v>
       </c>
       <c r="O12" t="inlineStr">
         <is>
@@ -1374,18 +1378,18 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>39666</v>
+        <v>39749</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>2025-04-24 00:00:00</t>
+          <t>2025-05-02 00:00:00</t>
         </is>
       </c>
       <c r="R12" s="1" t="n">
-        <v>-13.48732638888889</v>
+        <v>-0.5250651041666666</v>
       </c>
       <c r="S12" s="1" t="n">
-        <v>-15.32430555555556</v>
+        <v>-1.343869357638889</v>
       </c>
       <c r="T12" t="n">
         <v>7</v>
@@ -1393,41 +1397,41 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>251050</v>
+        <v>251548</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>205</v>
+        <v>19</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>206.90625</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>2025-05-09 07:47:00</t>
+          <t>2025-05-08 08:15:10</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>2025-05-09 11:12:00</t>
+          <t>2025-05-08 08:34:10</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>2025-05-09 11:12:00</t>
+          <t>2025-05-08 08:34:10</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>2025-05-09 11:12:00</t>
+          <t>2025-05-08 12:01:04</t>
         </is>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>13242</v>
       </c>
       <c r="J13" t="inlineStr">
         <is>
@@ -1436,17 +1440,17 @@
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L13" t="n">
-        <v>38</v>
+        <v>4</v>
       </c>
       <c r="M13" t="n">
         <v>70</v>
       </c>
       <c r="N13" t="n">
-        <v>39747</v>
+        <v>39749</v>
       </c>
       <c r="O13" t="inlineStr">
         <is>
@@ -1454,60 +1458,60 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>39747</v>
+        <v>39749</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>2025-04-16 00:00:00</t>
+          <t>2025-05-06 00:00:00</t>
         </is>
       </c>
       <c r="R13" s="1" t="n">
-        <v>-1.442361111111111</v>
+        <v>-1.348611111111111</v>
       </c>
       <c r="S13" s="1" t="n">
-        <v>-1.466666666666667</v>
+        <v>-1.500748697916667</v>
       </c>
       <c r="T13" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>251054</v>
+        <v>251477</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>468.734375</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>2025-05-09 11:12:00</t>
+          <t>2025-05-08 12:01:04</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>2025-05-09 11:47:00</t>
+          <t>2025-05-08 12:33:04</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>2025-05-09 11:47:00</t>
+          <t>2025-05-08 12:33:04</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>2025-05-09 11:47:00</t>
+          <t>2025-05-09 12:21:48</t>
         </is>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>29999</v>
       </c>
       <c r="J14" t="inlineStr">
         <is>
@@ -1516,17 +1520,17 @@
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L14" t="n">
-        <v>38</v>
+        <v>3</v>
       </c>
       <c r="M14" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="N14" t="n">
-        <v>39747</v>
+        <v>39760</v>
       </c>
       <c r="O14" t="inlineStr">
         <is>
@@ -1534,26 +1538,26 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>39747</v>
+        <v>39760</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>2025-04-16 00:00:00</t>
+          <t>2025-04-28 00:00:00</t>
         </is>
       </c>
       <c r="R14" s="1" t="n">
-        <v>-1.466666666666667</v>
+        <v>-2.452224392361111</v>
       </c>
       <c r="S14" s="1" t="n">
-        <v>-1.490972222222222</v>
+        <v>-2.515147569444444</v>
       </c>
       <c r="T14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>251081</v>
+        <v>251050</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
@@ -1561,33 +1565,33 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>125</v>
+        <v>217</v>
       </c>
       <c r="D15" t="n">
-        <v>42.42253521126761</v>
+        <v>0</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>2025-05-09 11:47:00</t>
+          <t>2025-05-09 07:00:00</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>2025-05-09 13:52:00</t>
+          <t>2025-05-09 10:37:00</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>2025-05-09 13:52:00</t>
+          <t>2025-05-09 10:37:00</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>2025-05-09 14:34:25</t>
+          <t>2025-05-09 10:37:00</t>
         </is>
       </c>
       <c r="I15" t="n">
-        <v>3012</v>
+        <v>0</v>
       </c>
       <c r="J15" t="inlineStr">
         <is>
@@ -1600,15 +1604,13 @@
         </is>
       </c>
       <c r="L15" t="n">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="M15" t="n">
         <v>70</v>
       </c>
-      <c r="N15" t="inlineStr">
-        <is>
-          <t>39750 (esterno)</t>
-        </is>
+      <c r="N15" t="n">
+        <v>39747</v>
       </c>
       <c r="O15" t="inlineStr">
         <is>
@@ -1616,18 +1618,18 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>39750</v>
+        <v>39747</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>2025-04-23 00:00:00</t>
+          <t>2025-04-16 00:00:00</t>
         </is>
       </c>
       <c r="R15" s="1" t="n">
-        <v>-16.58293231612268</v>
+        <v>-1.442361111111111</v>
       </c>
       <c r="S15" s="1" t="n">
-        <v>-16.60723787167824</v>
+        <v>-1.442361111111111</v>
       </c>
       <c r="T15" t="n">
         <v>2</v>
@@ -1635,41 +1637,41 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>251782</v>
+        <v>251054</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="D16" t="n">
-        <v>170.0422535211268</v>
+        <v>0</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>2025-05-08 12:00:00</t>
+          <t>2025-05-09 10:37:00</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>2025-05-08 12:17:00</t>
+          <t>2025-05-09 11:12:00</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>2025-05-08 12:17:00</t>
+          <t>2025-05-09 11:12:00</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>2025-05-09 07:07:02</t>
+          <t>2025-05-09 11:12:00</t>
         </is>
       </c>
       <c r="I16" t="n">
-        <v>12073</v>
+        <v>0</v>
       </c>
       <c r="J16" t="inlineStr">
         <is>
@@ -1678,17 +1680,17 @@
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R6 ;R9</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="L16" t="n">
-        <v>3</v>
+        <v>38</v>
       </c>
       <c r="M16" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="N16" t="n">
-        <v>39754</v>
+        <v>39747</v>
       </c>
       <c r="O16" t="inlineStr">
         <is>
@@ -1696,80 +1698,80 @@
         </is>
       </c>
       <c r="P16" t="n">
-        <v>39754</v>
+        <v>39747</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>2025-05-16 00:00:00</t>
+          <t>2025-04-16 00:00:00</t>
         </is>
       </c>
       <c r="R16" s="1" t="n">
-        <v>-0.3201682316087963</v>
+        <v>-1.466666666666667</v>
       </c>
       <c r="S16" s="1" t="n">
-        <v>-0.2965571204976852</v>
+        <v>-1.466666666666667</v>
       </c>
       <c r="T16" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>251706</v>
+        <v>251081</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>T3</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>125</v>
       </c>
       <c r="D17" t="n">
-        <v>50.79365079365079</v>
+        <v>42.42253521126761</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>2025-05-12 07:00:00</t>
+          <t>2025-05-09 11:12:00</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>2025-05-12 07:00:00</t>
+          <t>2025-05-09 13:17:00</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>2025-05-12 07:00:00</t>
+          <t>2025-05-09 13:17:00</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>2025-05-12 07:50:47</t>
+          <t>2025-05-09 13:59:25</t>
         </is>
       </c>
       <c r="I17" t="n">
-        <v>3200</v>
+        <v>3012</v>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>foglio</t>
+          <t>bobina</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>T3</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>39764 (esterno)</t>
+          <t>39750 (esterno)</t>
         </is>
       </c>
       <c r="O17" t="inlineStr">
@@ -1778,60 +1780,60 @@
         </is>
       </c>
       <c r="P17" t="n">
-        <v>39764</v>
+        <v>39750</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>2025-05-14 00:00:00</t>
+          <t>2025-04-23 00:00:00</t>
         </is>
       </c>
       <c r="R17" s="1" t="n">
-        <v>0</v>
+        <v>-16.58293231612268</v>
       </c>
       <c r="S17" s="1" t="n">
-        <v>0</v>
+        <v>-16.58293231612268</v>
       </c>
       <c r="T17" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>251391</v>
+        <v>251284</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>R3</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>50</v>
+        <v>40.5</v>
       </c>
       <c r="D18" t="n">
-        <v>119.6938775510204</v>
+        <v>297.0909090909091</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>2025-05-08 07:00:00</t>
+          <t>2025-05-09 07:00:00</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>2025-05-08 07:50:00</t>
+          <t>2025-05-09 07:40:30</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>2025-05-08 07:50:00</t>
+          <t>2025-05-09 07:40:30</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>2025-05-08 09:49:41</t>
+          <t>2025-05-09 12:37:35</t>
         </is>
       </c>
       <c r="I18" t="n">
-        <v>5865</v>
+        <v>16340</v>
       </c>
       <c r="J18" t="inlineStr">
         <is>
@@ -1840,17 +1842,17 @@
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>CASON ;R6</t>
         </is>
       </c>
       <c r="L18" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="M18" t="n">
         <v>70</v>
       </c>
       <c r="N18" t="n">
-        <v>39749</v>
+        <v>39747</v>
       </c>
       <c r="O18" t="inlineStr">
         <is>
@@ -1858,79 +1860,81 @@
         </is>
       </c>
       <c r="P18" t="n">
-        <v>39749</v>
+        <v>39747</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>2025-04-23 00:00:00</t>
+          <t>2025-05-12 00:00:00</t>
         </is>
       </c>
       <c r="R18" s="1" t="n">
-        <v>-0.4377821180555556</v>
+        <v>-1.526104797974537</v>
       </c>
       <c r="S18" s="1" t="n">
-        <v>-1.4095096371875</v>
+        <v>-1.526104797974537</v>
       </c>
       <c r="T18" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>251164</v>
+        <v>251706</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>R3</t>
+          <t>T3</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>204.0816326530612</v>
+        <v>50.79365079365079</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>2025-05-08 09:49:41</t>
+          <t>2025-05-12 07:00:00</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>2025-05-08 10:29:41</t>
+          <t>2025-05-12 07:00:00</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>2025-05-08 10:29:41</t>
+          <t>2025-05-12 07:00:00</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>2025-05-08 13:53:46</t>
+          <t>2025-05-12 07:50:47</t>
         </is>
       </c>
       <c r="I19" t="n">
-        <v>10000</v>
+        <v>3200</v>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>bobina</t>
+          <t>foglio</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>T3</t>
         </is>
       </c>
       <c r="L19" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>70</v>
-      </c>
-      <c r="N19" t="n">
-        <v>39749</v>
+        <v>0</v>
+      </c>
+      <c r="N19" t="inlineStr">
+        <is>
+          <t>39764 (esterno)</t>
+        </is>
       </c>
       <c r="O19" t="inlineStr">
         <is>
@@ -1938,60 +1942,60 @@
         </is>
       </c>
       <c r="P19" t="n">
-        <v>39749</v>
+        <v>39764</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>2025-04-22 00:00:00</t>
+          <t>2025-05-14 00:00:00</t>
         </is>
       </c>
       <c r="R19" s="1" t="n">
-        <v>-1.471584467118056</v>
+        <v>0</v>
       </c>
       <c r="S19" s="1" t="n">
-        <v>-1.579010770972222</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>251456</v>
+        <v>251547</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>R3</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="D20" t="n">
-        <v>183.6530612244898</v>
+        <v>184.9154929577465</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>2025-05-08 13:53:46</t>
+          <t>2025-05-08 07:00:00</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>2025-05-08 14:43:46</t>
+          <t>2025-05-08 07:34:00</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>2025-05-08 14:43:46</t>
+          <t>2025-05-08 07:34:00</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>2025-05-09 09:47:25</t>
+          <t>2025-05-08 10:38:54</t>
         </is>
       </c>
       <c r="I20" t="n">
-        <v>8999</v>
+        <v>13129</v>
       </c>
       <c r="J20" t="inlineStr">
         <is>
@@ -2004,13 +2008,13 @@
         </is>
       </c>
       <c r="L20" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M20" t="n">
         <v>70</v>
       </c>
       <c r="N20" t="n">
-        <v>39746</v>
+        <v>39749</v>
       </c>
       <c r="O20" t="inlineStr">
         <is>
@@ -2018,60 +2022,60 @@
         </is>
       </c>
       <c r="P20" t="n">
-        <v>39746</v>
+        <v>39749</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>2025-05-09 00:00:00</t>
+          <t>2025-05-06 00:00:00</t>
         </is>
       </c>
       <c r="R20" s="1" t="n">
-        <v>-3.300510204085648</v>
+        <v>-1.443691314548611</v>
       </c>
       <c r="S20" s="1" t="n">
-        <v>-3.407936507939815</v>
+        <v>-1.443691314548611</v>
       </c>
       <c r="T20" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>250923</v>
+        <v>251225</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D21" t="n">
-        <v>109.46875</v>
+        <v>0</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>2025-05-07 07:00:00</t>
+          <t>2025-05-08 10:38:54</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>2025-05-07 07:36:00</t>
+          <t>2025-05-08 11:08:54</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>2025-05-07 07:36:00</t>
+          <t>2025-05-08 11:08:54</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>2025-05-07 09:25:28</t>
+          <t>2025-05-08 11:08:54</t>
         </is>
       </c>
       <c r="I21" t="n">
-        <v>7006</v>
+        <v>0</v>
       </c>
       <c r="J21" t="inlineStr">
         <is>
@@ -2084,13 +2088,13 @@
         </is>
       </c>
       <c r="L21" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M21" t="n">
         <v>76</v>
       </c>
       <c r="N21" t="n">
-        <v>39749</v>
+        <v>39747</v>
       </c>
       <c r="O21" t="inlineStr">
         <is>
@@ -2098,60 +2102,60 @@
         </is>
       </c>
       <c r="P21" t="n">
-        <v>39749</v>
+        <v>39747</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>2025-04-07 00:00:00</t>
+          <t>2025-04-30 00:00:00</t>
         </is>
       </c>
       <c r="R21" s="1" t="n">
-        <v>-1.446853298611111</v>
+        <v>-0.5131944444444444</v>
       </c>
       <c r="S21" s="1" t="n">
-        <v>-0.3926866319444444</v>
+        <v>-0.4645246478819445</v>
       </c>
       <c r="T21" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>251395</v>
+        <v>250759</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="D22" t="n">
-        <v>35.34375</v>
+        <v>118.2816901408451</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>2025-05-07 09:25:28</t>
+          <t>2025-05-08 11:08:54</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>2025-05-07 09:57:28</t>
+          <t>2025-05-08 11:23:54</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>2025-05-07 09:57:28</t>
+          <t>2025-05-08 11:23:54</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>2025-05-07 10:32:48</t>
+          <t>2025-05-08 13:22:11</t>
         </is>
       </c>
       <c r="I22" t="n">
-        <v>2262</v>
+        <v>8398</v>
       </c>
       <c r="J22" t="inlineStr">
         <is>
@@ -2160,17 +2164,17 @@
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12</t>
         </is>
       </c>
       <c r="L22" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M22" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="N22" t="n">
-        <v>39749</v>
+        <v>39747</v>
       </c>
       <c r="O22" t="inlineStr">
         <is>
@@ -2178,60 +2182,60 @@
         </is>
       </c>
       <c r="P22" t="n">
-        <v>39749</v>
+        <v>39747</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>2025-04-23 00:00:00</t>
+          <t>2025-03-13 00:00:00</t>
         </is>
       </c>
       <c r="R22" s="1" t="n">
-        <v>-0.439453125</v>
+        <v>-0.5466647104861111</v>
       </c>
       <c r="S22" s="1" t="n">
-        <v>-0.439453125</v>
+        <v>-0.5570813771527778</v>
       </c>
       <c r="T22" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>251396</v>
+        <v>250894</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D23" t="n">
-        <v>35.34375</v>
+        <v>623.4084507042254</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>2025-05-07 10:32:48</t>
+          <t>2025-05-08 13:22:11</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>2025-05-07 10:47:48</t>
+          <t>2025-05-08 13:39:11</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>2025-05-07 10:47:48</t>
+          <t>2025-05-08 13:39:11</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>2025-05-07 11:23:09</t>
+          <t>2025-05-12 08:02:36</t>
         </is>
       </c>
       <c r="I23" t="n">
-        <v>2262</v>
+        <v>44262</v>
       </c>
       <c r="J23" t="inlineStr">
         <is>
@@ -2240,78 +2244,76 @@
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L23" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="M23" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="N23" t="n">
-        <v>39749</v>
-      </c>
-      <c r="O23" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>39755</v>
+      </c>
+      <c r="O23" t="n">
+        <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>39749</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>2025-05-02 00:00:00</t>
+          <t>2025-05-05 00:00:00</t>
         </is>
       </c>
       <c r="R23" s="1" t="n">
-        <v>-0.4744140625</v>
+        <v>0</v>
       </c>
       <c r="S23" s="1" t="n">
-        <v>-0.4744140625</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>251227</v>
+        <v>251456</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>R3</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>183.6530612244898</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>2025-05-07 11:23:09</t>
+          <t>2025-05-08 07:00:00</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>2025-05-07 11:57:09</t>
+          <t>2025-05-08 07:40:00</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>2025-05-07 11:57:09</t>
+          <t>2025-05-08 07:40:00</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>2025-05-07 11:57:09</t>
+          <t>2025-05-08 10:43:39</t>
         </is>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>8999</v>
       </c>
       <c r="J24" t="inlineStr">
         <is>
@@ -2320,14 +2322,14 @@
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L24" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M24" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="N24" t="n">
         <v>39746</v>
@@ -2342,14 +2344,14 @@
       </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>2025-05-05 00:00:00</t>
+          <t>2025-05-09 00:00:00</t>
         </is>
       </c>
       <c r="R24" s="1" t="n">
-        <v>-1.498025173611111</v>
+        <v>-3.300510204085648</v>
       </c>
       <c r="S24" s="1" t="n">
-        <v>-1.498025173611111</v>
+        <v>-2.446981292511574</v>
       </c>
       <c r="T24" t="n">
         <v>1</v>
@@ -2357,41 +2359,41 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>251548</v>
+        <v>251416</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>R3</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="D25" t="n">
-        <v>206.90625</v>
+        <v>229.0204081632653</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>2025-05-07 11:57:09</t>
+          <t>2025-05-08 10:43:39</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>2025-05-07 12:27:09</t>
+          <t>2025-05-08 11:23:39</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>2025-05-07 12:27:09</t>
+          <t>2025-05-08 11:23:39</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>2025-05-08 07:54:03</t>
+          <t>2025-05-09 07:12:40</t>
         </is>
       </c>
       <c r="I25" t="n">
-        <v>13242</v>
+        <v>11222</v>
       </c>
       <c r="J25" t="inlineStr">
         <is>
@@ -2404,74 +2406,72 @@
         </is>
       </c>
       <c r="L25" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M25" t="n">
         <v>70</v>
       </c>
       <c r="N25" t="n">
-        <v>39749</v>
-      </c>
-      <c r="O25" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>39755</v>
+      </c>
+      <c r="O25" t="n">
+        <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>39749</v>
+        <v>0</v>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>2025-05-06 00:00:00</t>
+          <t>2025-04-23 00:00:00</t>
         </is>
       </c>
       <c r="R25" s="1" t="n">
-        <v>-1.329210069444444</v>
+        <v>0</v>
       </c>
       <c r="S25" s="1" t="n">
-        <v>-1.329210069444444</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>251477</v>
+        <v>251227</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="D26" t="n">
-        <v>468.734375</v>
+        <v>0</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>2025-05-08 07:54:03</t>
+          <t>2025-05-08 12:00:00</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>2025-05-08 08:26:03</t>
+          <t>2025-05-08 12:19:00</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>2025-05-08 08:26:03</t>
+          <t>2025-05-08 12:19:00</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>2025-05-09 08:14:47</t>
+          <t>2025-05-08 12:19:00</t>
         </is>
       </c>
       <c r="I26" t="n">
-        <v>29999</v>
+        <v>0</v>
       </c>
       <c r="J26" t="inlineStr">
         <is>
@@ -2480,17 +2480,17 @@
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L26" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M26" t="n">
         <v>76</v>
       </c>
       <c r="N26" t="n">
-        <v>39760</v>
+        <v>39746</v>
       </c>
       <c r="O26" t="inlineStr">
         <is>
@@ -2498,18 +2498,18 @@
         </is>
       </c>
       <c r="P26" t="n">
-        <v>39760</v>
+        <v>39746</v>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
-          <t>2025-04-28 00:00:00</t>
+          <t>2025-05-05 00:00:00</t>
         </is>
       </c>
       <c r="R26" s="1" t="n">
-        <v>-2.343608940972222</v>
+        <v>-2.523611111111111</v>
       </c>
       <c r="S26" s="1" t="n">
-        <v>-2.343608940972222</v>
+        <v>-2.513194444444444</v>
       </c>
       <c r="T26" t="n">
         <v>1</v>
@@ -2517,41 +2517,41 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>251284</v>
+        <v>251782</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>40.5</v>
+        <v>17</v>
       </c>
       <c r="D27" t="n">
-        <v>297.0909090909091</v>
+        <v>170.0422535211268</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>2025-05-09 07:00:00</t>
+          <t>2025-05-08 12:19:00</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>2025-05-09 07:40:30</t>
+          <t>2025-05-08 12:36:00</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>2025-05-09 07:40:30</t>
+          <t>2025-05-08 12:36:00</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>2025-05-09 12:37:35</t>
+          <t>2025-05-09 07:26:02</t>
         </is>
       </c>
       <c r="I27" t="n">
-        <v>16340</v>
+        <v>12073</v>
       </c>
       <c r="J27" t="inlineStr">
         <is>
@@ -2560,17 +2560,17 @@
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>CASON ;R6</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L27" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="M27" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="N27" t="n">
-        <v>39747</v>
+        <v>39754</v>
       </c>
       <c r="O27" t="inlineStr">
         <is>
@@ -2578,18 +2578,18 @@
         </is>
       </c>
       <c r="P27" t="n">
-        <v>39747</v>
+        <v>39754</v>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
-          <t>2025-05-12 00:00:00</t>
+          <t>2025-05-16 00:00:00</t>
         </is>
       </c>
       <c r="R27" s="1" t="n">
-        <v>-1.526104797974537</v>
+        <v>-0.3201682316087963</v>
       </c>
       <c r="S27" s="1" t="n">
-        <v>-1.526104797974537</v>
+        <v>-0.3097515649421296</v>
       </c>
       <c r="T27" t="n">
         <v>1</v>
@@ -2749,7 +2749,7 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D30" t="n">
         <v>42.453125</v>
@@ -2761,17 +2761,17 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>2025-05-09 11:25:12</t>
+          <t>2025-05-09 11:21:12</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>2025-05-09 11:25:12</t>
+          <t>2025-05-09 11:21:12</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>2025-05-09 12:07:39</t>
+          <t>2025-05-09 12:03:39</t>
         </is>
       </c>
       <c r="I30" t="n">
@@ -2893,7 +2893,7 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="D32" t="n">
         <v>255.1020408163265</v>
@@ -2905,17 +2905,17 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>2025-05-09 12:26:45</t>
+          <t>2025-05-09 12:21:45</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>2025-05-09 12:26:45</t>
+          <t>2025-05-09 12:21:45</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>2025-05-12 08:41:51</t>
+          <t>2025-05-12 08:36:51</t>
         </is>
       </c>
       <c r="I32" t="n">
@@ -2972,22 +2972,22 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>2025-05-09 12:07:39</t>
+          <t>2025-05-09 12:03:39</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>2025-05-09 12:26:39</t>
+          <t>2025-05-09 12:22:39</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>2025-05-09 12:26:39</t>
+          <t>2025-05-09 12:22:39</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>2025-05-09 14:07:41</t>
+          <t>2025-05-09 14:03:41</t>
         </is>
       </c>
       <c r="I33" t="n">
@@ -3260,22 +3260,22 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>2025-05-09 14:07:41</t>
+          <t>2025-05-09 14:03:41</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>2025-05-09 14:40:41</t>
+          <t>2025-05-09 14:36:41</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>2025-05-09 14:40:41</t>
+          <t>2025-05-09 14:36:41</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>2025-05-12 13:00:16</t>
+          <t>2025-05-12 12:56:16</t>
         </is>
       </c>
       <c r="I37" t="n">
@@ -3469,7 +3469,7 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D40" t="n">
         <v>140.2535211267606</v>
@@ -3481,17 +3481,17 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>2025-05-12 08:19:36</t>
+          <t>2025-05-12 08:17:36</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>2025-05-12 08:19:36</t>
+          <t>2025-05-12 08:17:36</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>2025-05-12 10:39:51</t>
+          <t>2025-05-12 10:37:51</t>
         </is>
       </c>
       <c r="I40" t="n">
@@ -3620,22 +3620,22 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>2025-05-12 08:41:51</t>
+          <t>2025-05-12 08:36:51</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>2025-05-12 09:26:51</t>
+          <t>2025-05-12 09:21:51</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>2025-05-12 09:26:51</t>
+          <t>2025-05-12 09:21:51</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>2025-05-13 07:15:42</t>
+          <t>2025-05-13 07:10:42</t>
         </is>
       </c>
       <c r="I42" t="n">
@@ -3836,22 +3836,22 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>2025-05-12 10:39:51</t>
+          <t>2025-05-12 10:37:51</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>2025-05-12 10:56:51</t>
+          <t>2025-05-12 10:54:51</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>2025-05-12 10:56:51</t>
+          <t>2025-05-12 10:54:51</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>2025-05-12 12:59:07</t>
+          <t>2025-05-12 12:57:07</t>
         </is>
       </c>
       <c r="I45" t="n">
@@ -4185,33 +4185,33 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C50" t="n">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="D50" t="n">
-        <v>151.7746478873239</v>
+        <v>168.375</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>2025-05-12 12:59:07</t>
+          <t>2025-05-12 12:56:16</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>2025-05-12 13:14:07</t>
+          <t>2025-05-12 13:31:16</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>2025-05-12 13:14:07</t>
+          <t>2025-05-12 13:31:16</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>2025-05-13 07:45:54</t>
+          <t>2025-05-13 08:19:39</t>
         </is>
       </c>
       <c r="I50" t="n">
@@ -4257,33 +4257,33 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C51" t="n">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="D51" t="n">
-        <v>135.640625</v>
+        <v>122.2676056338028</v>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>2025-05-12 13:00:16</t>
+          <t>2025-05-12 12:57:07</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>2025-05-12 13:35:16</t>
+          <t>2025-05-12 13:12:07</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>2025-05-12 13:35:16</t>
+          <t>2025-05-12 13:12:07</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>2025-05-13 07:50:55</t>
+          <t>2025-05-13 07:14:23</t>
         </is>
       </c>
       <c r="I51" t="n">
@@ -4700,22 +4700,22 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>2025-05-13 07:15:42</t>
+          <t>2025-05-13 07:10:42</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>2025-05-13 07:57:42</t>
+          <t>2025-05-13 07:52:42</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>2025-05-13 07:57:42</t>
+          <t>2025-05-13 07:52:42</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>2025-05-13 08:29:36</t>
+          <t>2025-05-13 08:24:36</t>
         </is>
       </c>
       <c r="I57" t="n">
@@ -4757,41 +4757,41 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>243335</v>
+        <v>251259</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C58" t="n">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="D58" t="n">
-        <v>464.8450704225352</v>
+        <v>70.4225352112676</v>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>2025-05-13 07:17:44</t>
+          <t>2025-05-13 07:14:23</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>2025-05-13 07:36:44</t>
+          <t>2025-05-13 07:39:23</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>2025-05-13 07:36:44</t>
+          <t>2025-05-13 07:39:23</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>2025-05-14 07:21:35</t>
+          <t>2025-05-13 08:49:49</t>
         </is>
       </c>
       <c r="I58" t="n">
-        <v>33004</v>
+        <v>5000</v>
       </c>
       <c r="J58" t="inlineStr">
         <is>
@@ -4800,14 +4800,14 @@
       </c>
       <c r="K58" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L58" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="M58" t="n">
-        <v>152</v>
+        <v>70</v>
       </c>
       <c r="O58" t="n">
         <v>0</v>
@@ -4817,53 +4817,53 @@
       </c>
       <c r="Q58" t="inlineStr">
         <is>
-          <t>2024-08-02 00:00:00</t>
+          <t>2025-05-06 00:00:00</t>
         </is>
       </c>
       <c r="R58" s="1" t="n">
         <v>0</v>
       </c>
       <c r="S58" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>251259</v>
+        <v>243335</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C59" t="n">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="D59" t="n">
-        <v>81.9672131147541</v>
+        <v>464.8450704225352</v>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>2025-05-13 07:27:22</t>
+          <t>2025-05-13 07:17:44</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>2025-05-13 08:07:22</t>
+          <t>2025-05-13 07:36:44</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>2025-05-13 08:07:22</t>
+          <t>2025-05-13 07:36:44</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>2025-05-13 09:29:20</t>
+          <t>2025-05-14 07:21:35</t>
         </is>
       </c>
       <c r="I59" t="n">
-        <v>5000</v>
+        <v>33004</v>
       </c>
       <c r="J59" t="inlineStr">
         <is>
@@ -4872,14 +4872,14 @@
       </c>
       <c r="K59" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L59" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="M59" t="n">
-        <v>70</v>
+        <v>152</v>
       </c>
       <c r="O59" t="n">
         <v>0</v>
@@ -4889,14 +4889,14 @@
       </c>
       <c r="Q59" t="inlineStr">
         <is>
-          <t>2025-05-06 00:00:00</t>
+          <t>2024-08-02 00:00:00</t>
         </is>
       </c>
       <c r="R59" s="1" t="n">
         <v>0</v>
       </c>
       <c r="S59" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60">
@@ -4905,33 +4905,33 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C60" t="n">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="D60" t="n">
         <v>217.6885245901639</v>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>2025-05-13 07:31:53</t>
+          <t>2025-05-13 07:27:22</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>2025-05-13 08:04:53</t>
+          <t>2025-05-13 07:52:22</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>2025-05-13 08:04:53</t>
+          <t>2025-05-13 07:52:22</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>2025-05-13 11:42:34</t>
+          <t>2025-05-13 11:30:03</t>
         </is>
       </c>
       <c r="I60" t="n">
@@ -4977,33 +4977,33 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>BIMEC 4</t>
         </is>
       </c>
       <c r="C61" t="n">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="D61" t="n">
-        <v>14.04225352112676</v>
+        <v>16.34426229508197</v>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>2025-05-13 07:45:54</t>
+          <t>2025-05-13 07:31:53</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>2025-05-13 08:04:54</t>
+          <t>2025-05-13 08:00:53</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>2025-05-13 08:04:54</t>
+          <t>2025-05-13 08:00:53</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>2025-05-13 08:18:56</t>
+          <t>2025-05-13 08:17:13</t>
         </is>
       </c>
       <c r="I61" t="n">
@@ -5049,33 +5049,33 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>BIMEC 4</t>
         </is>
       </c>
       <c r="C62" t="n">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="D62" t="n">
-        <v>11.78125</v>
+        <v>12.36065573770492</v>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>2025-05-13 07:50:55</t>
+          <t>2025-05-13 08:17:13</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>2025-05-13 08:09:55</t>
+          <t>2025-05-13 08:42:13</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>2025-05-13 08:09:55</t>
+          <t>2025-05-13 08:42:13</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>2025-05-13 08:21:42</t>
+          <t>2025-05-13 08:54:35</t>
         </is>
       </c>
       <c r="I62" t="n">
@@ -5121,33 +5121,33 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C63" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D63" t="n">
-        <v>10.61971830985915</v>
+        <v>11.78125</v>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>2025-05-13 08:18:56</t>
+          <t>2025-05-13 08:19:39</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>2025-05-13 08:33:56</t>
+          <t>2025-05-13 08:38:39</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>2025-05-13 08:33:56</t>
+          <t>2025-05-13 08:38:39</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>2025-05-13 08:44:33</t>
+          <t>2025-05-13 08:50:26</t>
         </is>
       </c>
       <c r="I63" t="n">
@@ -5193,33 +5193,33 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>R3</t>
         </is>
       </c>
       <c r="C64" t="n">
-        <v>15</v>
+        <v>47</v>
       </c>
       <c r="D64" t="n">
-        <v>374.953125</v>
+        <v>489.734693877551</v>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>2025-05-13 08:21:42</t>
+          <t>2025-05-13 08:24:36</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>2025-05-13 08:36:42</t>
+          <t>2025-05-13 09:11:36</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>2025-05-13 08:36:42</t>
+          <t>2025-05-13 09:11:36</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>2025-05-13 14:51:39</t>
+          <t>2025-05-14 09:21:20</t>
         </is>
       </c>
       <c r="I64" t="n">
@@ -5265,33 +5265,33 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>R3</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C65" t="n">
-        <v>47</v>
+        <v>30.5</v>
       </c>
       <c r="D65" t="n">
-        <v>549.6734693877551</v>
+        <v>489.7090909090909</v>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>2025-05-13 08:29:36</t>
+          <t>2025-05-13 08:44:59</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>2025-05-13 09:16:36</t>
+          <t>2025-05-13 09:15:29</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>2025-05-13 09:16:36</t>
+          <t>2025-05-13 09:15:29</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>2025-05-14 10:26:17</t>
+          <t>2025-05-14 09:25:12</t>
         </is>
       </c>
       <c r="I65" t="n">
@@ -5337,33 +5337,33 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>R9</t>
         </is>
       </c>
       <c r="C66" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="D66" t="n">
-        <v>169.0422535211268</v>
+        <v>173.9420289855072</v>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>2025-05-13 08:44:33</t>
+          <t>2025-05-13 08:49:30</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>2025-05-13 08:59:33</t>
+          <t>2025-05-13 09:14:30</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>2025-05-13 08:59:33</t>
+          <t>2025-05-13 09:14:30</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>2025-05-13 11:48:36</t>
+          <t>2025-05-13 12:08:26</t>
         </is>
       </c>
       <c r="I66" t="n">
@@ -5409,33 +5409,33 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C67" t="n">
-        <v>36.5</v>
+        <v>27</v>
       </c>
       <c r="D67" t="n">
-        <v>101.2181818181818</v>
+        <v>78.40845070422536</v>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>2025-05-13 08:44:59</t>
+          <t>2025-05-13 08:49:49</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>2025-05-13 09:21:29</t>
+          <t>2025-05-13 09:16:49</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>2025-05-13 09:21:29</t>
+          <t>2025-05-13 09:16:49</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>2025-05-13 11:02:42</t>
+          <t>2025-05-13 10:35:13</t>
         </is>
       </c>
       <c r="I67" t="n">
@@ -5481,33 +5481,33 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>R9</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C68" t="n">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="D68" t="n">
-        <v>100.9710144927536</v>
+        <v>108.859375</v>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>2025-05-13 08:49:30</t>
+          <t>2025-05-13 08:50:26</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>2025-05-13 09:24:30</t>
+          <t>2025-05-13 09:09:26</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>2025-05-13 09:24:30</t>
+          <t>2025-05-13 09:09:26</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>2025-05-13 11:05:28</t>
+          <t>2025-05-13 10:58:17</t>
         </is>
       </c>
       <c r="I68" t="n">
@@ -5553,33 +5553,33 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>BIMEC 4</t>
         </is>
       </c>
       <c r="C69" t="n">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="D69" t="n">
         <v>117.2622950819672</v>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>2025-05-13 09:29:20</t>
+          <t>2025-05-13 08:54:35</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>2025-05-13 10:14:20</t>
+          <t>2025-05-13 09:23:35</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>2025-05-13 10:14:20</t>
+          <t>2025-05-13 09:23:35</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>2025-05-13 12:11:36</t>
+          <t>2025-05-13 11:20:51</t>
         </is>
       </c>
       <c r="I69" t="n">
@@ -5625,33 +5625,33 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C70" t="n">
-        <v>32.5</v>
+        <v>17</v>
       </c>
       <c r="D70" t="n">
-        <v>113.2</v>
+        <v>87.69014084507042</v>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>2025-05-13 11:02:42</t>
+          <t>2025-05-13 10:35:13</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>2025-05-13 11:35:12</t>
+          <t>2025-05-13 10:52:13</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>2025-05-13 11:35:12</t>
+          <t>2025-05-13 10:52:13</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>2025-05-13 13:28:24</t>
+          <t>2025-05-13 12:19:54</t>
         </is>
       </c>
       <c r="I70" t="n">
@@ -5697,33 +5697,33 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>R9</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C71" t="n">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="D71" t="n">
-        <v>90.23188405797102</v>
+        <v>97.28125</v>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>2025-05-13 11:05:28</t>
+          <t>2025-05-13 10:58:17</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>2025-05-13 11:40:28</t>
+          <t>2025-05-13 11:17:17</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>2025-05-13 11:40:28</t>
+          <t>2025-05-13 11:17:17</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>2025-05-13 13:10:42</t>
+          <t>2025-05-13 12:54:34</t>
         </is>
       </c>
       <c r="I71" t="n">
@@ -5769,33 +5769,33 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>BIMEC 4</t>
         </is>
       </c>
       <c r="C72" t="n">
-        <v>105</v>
+        <v>29</v>
       </c>
       <c r="D72" t="n">
-        <v>87.69014084507042</v>
+        <v>102.0655737704918</v>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>2025-05-13 11:27:38</t>
+          <t>2025-05-13 11:20:51</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>2025-05-13 13:12:38</t>
+          <t>2025-05-13 11:49:51</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>2025-05-13 13:12:38</t>
+          <t>2025-05-13 11:49:51</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>2025-05-13 14:40:20</t>
+          <t>2025-05-13 13:31:55</t>
         </is>
       </c>
       <c r="I72" t="n">
@@ -5837,41 +5837,41 @@
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>251374</v>
+        <v>251520</v>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="C73" t="n">
-        <v>31</v>
+        <v>80</v>
       </c>
       <c r="D73" t="n">
-        <v>448.2459016393443</v>
+        <v>230.1408450704225</v>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>2025-05-13 11:42:34</t>
+          <t>2025-05-13 11:27:38</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>2025-05-13 12:13:34</t>
+          <t>2025-05-13 12:47:38</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>2025-05-13 12:13:34</t>
+          <t>2025-05-13 12:47:38</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>2025-05-14 11:41:49</t>
+          <t>2025-05-14 08:37:47</t>
         </is>
       </c>
       <c r="I73" t="n">
-        <v>27343</v>
+        <v>16340</v>
       </c>
       <c r="J73" t="inlineStr">
         <is>
@@ -5880,7 +5880,7 @@
       </c>
       <c r="K73" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
+          <t>CASON ;R6</t>
         </is>
       </c>
       <c r="L73" t="n">
@@ -5897,7 +5897,7 @@
       </c>
       <c r="Q73" t="inlineStr">
         <is>
-          <t>2025-05-15 00:00:00</t>
+          <t>2025-05-12 00:00:00</t>
         </is>
       </c>
       <c r="R73" s="1" t="n">
@@ -5909,41 +5909,41 @@
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>251580</v>
+        <v>251374</v>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C74" t="n">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="D74" t="n">
-        <v>100.7464788732394</v>
+        <v>448.2459016393443</v>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>2025-05-13 11:48:36</t>
+          <t>2025-05-13 11:30:03</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>2025-05-13 12:07:36</t>
+          <t>2025-05-13 12:05:03</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>2025-05-13 12:07:36</t>
+          <t>2025-05-13 12:05:03</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>2025-05-13 13:48:21</t>
+          <t>2025-05-14 11:33:18</t>
         </is>
       </c>
       <c r="I74" t="n">
-        <v>7153</v>
+        <v>27343</v>
       </c>
       <c r="J74" t="inlineStr">
         <is>
@@ -5952,11 +5952,11 @@
       </c>
       <c r="K74" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
         </is>
       </c>
       <c r="L74" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="M74" t="n">
         <v>70</v>
@@ -5981,41 +5981,41 @@
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>251557</v>
+        <v>251580</v>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>R9</t>
         </is>
       </c>
       <c r="C75" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D75" t="n">
-        <v>109.9180327868852</v>
+        <v>103.6666666666667</v>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>2025-05-13 12:11:36</t>
+          <t>2025-05-13 12:08:26</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>2025-05-13 12:41:36</t>
+          <t>2025-05-13 12:43:26</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>2025-05-13 12:41:36</t>
+          <t>2025-05-13 12:43:26</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>2025-05-13 14:31:31</t>
+          <t>2025-05-13 14:27:06</t>
         </is>
       </c>
       <c r="I75" t="n">
-        <v>6705</v>
+        <v>7153</v>
       </c>
       <c r="J75" t="inlineStr">
         <is>
@@ -6028,7 +6028,7 @@
         </is>
       </c>
       <c r="L75" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M75" t="n">
         <v>70</v>
@@ -6053,41 +6053,41 @@
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>251562</v>
+        <v>251557</v>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>R9</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C76" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="D76" t="n">
-        <v>118</v>
+        <v>94.43661971830986</v>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>2025-05-13 13:10:42</t>
+          <t>2025-05-13 12:19:54</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>2025-05-13 13:35:42</t>
+          <t>2025-05-13 12:34:54</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>2025-05-13 13:35:42</t>
+          <t>2025-05-13 12:34:54</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>2025-05-14 07:33:42</t>
+          <t>2025-05-13 14:09:21</t>
         </is>
       </c>
       <c r="I76" t="n">
-        <v>8142</v>
+        <v>6705</v>
       </c>
       <c r="J76" t="inlineStr">
         <is>
@@ -6125,41 +6125,41 @@
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>251520</v>
+        <v>251562</v>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C77" t="n">
-        <v>40.5</v>
+        <v>15</v>
       </c>
       <c r="D77" t="n">
-        <v>297.0909090909091</v>
+        <v>127.21875</v>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>2025-05-13 13:28:24</t>
+          <t>2025-05-13 12:54:34</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>2025-05-13 14:08:54</t>
+          <t>2025-05-13 13:09:34</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>2025-05-13 14:08:54</t>
+          <t>2025-05-13 13:09:34</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>2025-05-14 11:06:00</t>
+          <t>2025-05-14 07:16:47</t>
         </is>
       </c>
       <c r="I77" t="n">
-        <v>16340</v>
+        <v>8142</v>
       </c>
       <c r="J77" t="inlineStr">
         <is>
@@ -6168,11 +6168,11 @@
       </c>
       <c r="K77" t="inlineStr">
         <is>
-          <t>CASON ;R6</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L77" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="M77" t="n">
         <v>70</v>
@@ -6185,7 +6185,7 @@
       </c>
       <c r="Q77" t="inlineStr">
         <is>
-          <t>2025-05-12 00:00:00</t>
+          <t>2025-05-15 00:00:00</t>
         </is>
       </c>
       <c r="R77" s="1" t="n">
@@ -6201,33 +6201,33 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>BIMEC 4</t>
         </is>
       </c>
       <c r="C78" t="n">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="D78" t="n">
-        <v>131.9577464788732</v>
+        <v>153.5901639344262</v>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>2025-05-13 13:48:21</t>
+          <t>2025-05-13 13:31:55</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>2025-05-13 14:07:21</t>
+          <t>2025-05-13 14:04:55</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>2025-05-13 14:07:21</t>
+          <t>2025-05-13 14:04:55</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>2025-05-14 08:19:18</t>
+          <t>2025-05-14 08:38:30</t>
         </is>
       </c>
       <c r="I78" t="n">
@@ -6273,33 +6273,33 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C79" t="n">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="D79" t="n">
-        <v>370.8852459016393</v>
+        <v>318.6478873239437</v>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>2025-05-13 14:31:31</t>
+          <t>2025-05-13 14:09:21</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>2025-05-14 07:11:31</t>
+          <t>2025-05-13 14:32:21</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>2025-05-14 07:11:31</t>
+          <t>2025-05-13 14:32:21</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>2025-05-14 13:22:24</t>
+          <t>2025-05-14 11:51:00</t>
         </is>
       </c>
       <c r="I79" t="n">
@@ -6345,33 +6345,33 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>R9</t>
         </is>
       </c>
       <c r="C80" t="n">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="D80" t="n">
-        <v>235.671875</v>
+        <v>218.5942028985507</v>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>2025-05-13 14:51:39</t>
+          <t>2025-05-13 14:27:06</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>2025-05-14 07:06:39</t>
+          <t>2025-05-14 07:02:06</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>2025-05-14 07:06:39</t>
+          <t>2025-05-14 07:02:06</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>2025-05-14 11:02:19</t>
+          <t>2025-05-14 10:40:42</t>
         </is>
       </c>
       <c r="I80" t="n">
@@ -6413,41 +6413,41 @@
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>251750</v>
+        <v>251251</v>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C81" t="n">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="D81" t="n">
-        <v>54.80281690140845</v>
+        <v>247.8125</v>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>2025-05-14 07:21:35</t>
+          <t>2025-05-14 07:16:47</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>2025-05-14 07:38:35</t>
+          <t>2025-05-14 07:39:47</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>2025-05-14 07:38:35</t>
+          <t>2025-05-14 07:39:47</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>2025-05-14 08:33:23</t>
+          <t>2025-05-14 11:47:36</t>
         </is>
       </c>
       <c r="I81" t="n">
-        <v>3891</v>
+        <v>15860</v>
       </c>
       <c r="J81" t="inlineStr">
         <is>
@@ -6456,14 +6456,14 @@
       </c>
       <c r="K81" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
         </is>
       </c>
       <c r="L81" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="M81" t="n">
-        <v>152</v>
+        <v>70</v>
       </c>
       <c r="O81" t="n">
         <v>0</v>
@@ -6473,7 +6473,7 @@
       </c>
       <c r="Q81" t="inlineStr">
         <is>
-          <t>2025-05-26 00:00:00</t>
+          <t>2025-05-23 00:00:00</t>
         </is>
       </c>
       <c r="R81" s="1" t="n">
@@ -6485,41 +6485,41 @@
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>251251</v>
+        <v>251750</v>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>R9</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C82" t="n">
-        <v>45</v>
+        <v>17</v>
       </c>
       <c r="D82" t="n">
-        <v>229.8550724637681</v>
+        <v>54.80281690140845</v>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>2025-05-14 07:33:42</t>
+          <t>2025-05-14 07:21:35</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>2025-05-14 08:18:42</t>
+          <t>2025-05-14 07:38:35</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>2025-05-14 08:18:42</t>
+          <t>2025-05-14 07:38:35</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>2025-05-14 12:08:33</t>
+          <t>2025-05-14 08:33:23</t>
         </is>
       </c>
       <c r="I82" t="n">
-        <v>15860</v>
+        <v>3891</v>
       </c>
       <c r="J82" t="inlineStr">
         <is>
@@ -6528,14 +6528,14 @@
       </c>
       <c r="K82" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L82" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="M82" t="n">
-        <v>70</v>
+        <v>152</v>
       </c>
       <c r="O82" t="n">
         <v>0</v>
@@ -6545,7 +6545,7 @@
       </c>
       <c r="Q82" t="inlineStr">
         <is>
-          <t>2025-05-23 00:00:00</t>
+          <t>2025-05-26 00:00:00</t>
         </is>
       </c>
       <c r="R82" s="1" t="n">
@@ -6557,41 +6557,41 @@
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>251249</v>
+        <v>251987</v>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C83" t="n">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="D83" t="n">
-        <v>67.01408450704226</v>
+        <v>2965.154929577465</v>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>2025-05-14 08:19:18</t>
+          <t>2025-05-14 08:33:23</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>2025-05-14 08:34:18</t>
+          <t>2025-05-14 09:09:23</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>2025-05-14 08:34:18</t>
+          <t>2025-05-14 09:09:23</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>2025-05-14 09:41:19</t>
+          <t>2025-05-22 10:34:32</t>
         </is>
       </c>
       <c r="I83" t="n">
-        <v>4758</v>
+        <v>210526</v>
       </c>
       <c r="J83" t="inlineStr">
         <is>
@@ -6600,14 +6600,14 @@
       </c>
       <c r="K83" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R9</t>
         </is>
       </c>
       <c r="L83" t="n">
         <v>6</v>
       </c>
       <c r="M83" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="O83" t="n">
         <v>0</v>
@@ -6617,7 +6617,7 @@
       </c>
       <c r="Q83" t="inlineStr">
         <is>
-          <t>2025-06-06 00:00:00</t>
+          <t>2025-09-01 00:00:00</t>
         </is>
       </c>
       <c r="R83" s="1" t="n">
@@ -6629,41 +6629,41 @@
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>251987</v>
+        <v>251249</v>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>BIMEC 4</t>
         </is>
       </c>
       <c r="C84" t="n">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="D84" t="n">
-        <v>2965.154929577465</v>
+        <v>78</v>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>2025-05-14 08:33:23</t>
+          <t>2025-05-14 08:38:30</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>2025-05-14 09:09:23</t>
+          <t>2025-05-14 09:03:30</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>2025-05-14 09:09:23</t>
+          <t>2025-05-14 09:03:30</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>2025-05-22 10:34:32</t>
+          <t>2025-05-14 10:21:30</t>
         </is>
       </c>
       <c r="I84" t="n">
-        <v>210526</v>
+        <v>4758</v>
       </c>
       <c r="J84" t="inlineStr">
         <is>
@@ -6672,14 +6672,14 @@
       </c>
       <c r="K84" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
         </is>
       </c>
       <c r="L84" t="n">
         <v>6</v>
       </c>
       <c r="M84" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="O84" t="n">
         <v>0</v>
@@ -6689,7 +6689,7 @@
       </c>
       <c r="Q84" t="inlineStr">
         <is>
-          <t>2025-09-01 00:00:00</t>
+          <t>2025-06-06 00:00:00</t>
         </is>
       </c>
       <c r="R84" s="1" t="n">
@@ -6705,33 +6705,33 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C85" t="n">
-        <v>15</v>
+        <v>30.5</v>
       </c>
       <c r="D85" t="n">
-        <v>263.9295774647887</v>
+        <v>340.7090909090909</v>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>2025-05-14 09:41:19</t>
+          <t>2025-05-14 09:25:12</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>2025-05-14 09:56:19</t>
+          <t>2025-05-14 09:55:42</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>2025-05-14 09:56:19</t>
+          <t>2025-05-14 09:55:42</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>2025-05-14 14:20:15</t>
+          <t>2025-05-15 07:36:24</t>
         </is>
       </c>
       <c r="I85" t="n">
@@ -6777,33 +6777,33 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>BIMEC 4</t>
         </is>
       </c>
       <c r="C86" t="n">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="D86" t="n">
-        <v>8073.71875</v>
+        <v>8470.786885245901</v>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>2025-05-14 11:02:19</t>
+          <t>2025-05-14 10:21:30</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>2025-05-14 11:34:19</t>
+          <t>2025-05-14 11:03:30</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>2025-05-14 11:34:19</t>
+          <t>2025-05-14 11:03:30</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>2025-06-06 10:08:02</t>
+          <t>2025-06-09 08:14:17</t>
         </is>
       </c>
       <c r="I86" t="n">
@@ -6849,33 +6849,33 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>R9</t>
         </is>
       </c>
       <c r="C87" t="n">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="D87" t="n">
-        <v>2010.901639344262</v>
+        <v>1777.753623188406</v>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>2025-05-14 11:41:49</t>
+          <t>2025-05-14 10:40:42</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>2025-05-14 12:27:49</t>
+          <t>2025-05-14 11:20:42</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>2025-05-14 12:27:49</t>
+          <t>2025-05-14 11:20:42</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>2025-05-20 13:58:43</t>
+          <t>2025-05-20 08:58:27</t>
         </is>
       </c>
       <c r="I87" t="n">

--- a/PS-VRP/Dati_output/euristico_post.xlsx
+++ b/PS-VRP/Dati_output/euristico_post.xlsx
@@ -416,7 +416,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T87"/>
+  <dimension ref="A1:S87"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -515,119 +515,120 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>251651</v>
+        <v>251706</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>T3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>767.7049180327868</v>
+        <v>50.79365079365079</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2025-05-09 07:00:00</t>
+          <t>2025-05-12 07:00:00</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2025-05-09 07:29:00</t>
+          <t>2025-05-12 07:00:00</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2025-05-09 07:29:00</t>
+          <t>2025-05-12 07:00:00</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2025-05-12 12:16:42</t>
+          <t>2025-05-12 07:50:47</t>
         </is>
       </c>
       <c r="I2" t="n">
-        <v>46830</v>
+        <v>3200</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>bobina</t>
+          <t>foglio</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
+          <t>T3</t>
         </is>
       </c>
       <c r="L2" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>76</v>
-      </c>
-      <c r="N2" t="n">
-        <v>39755</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>39764 (esterno)</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>39764</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>2025-05-12 00:00:00</t>
+          <t>2025-05-14 00:00:00</t>
         </is>
       </c>
       <c r="R2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="S2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="T2" t="n">
-        <v>4</v>
+      <c r="S2" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>251391</v>
+        <v>251164</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>35</v>
+        <v>57</v>
       </c>
       <c r="D3" t="n">
-        <v>96.14754098360656</v>
+        <v>140.8450704225352</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2025-05-08 07:00:00</t>
+          <t>2025-05-09 07:00:00</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2025-05-08 07:35:00</t>
+          <t>2025-05-09 07:57:00</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>2025-05-08 07:35:00</t>
+          <t>2025-05-09 07:57:00</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2025-05-08 09:11:08</t>
+          <t>2025-05-09 10:17:50</t>
         </is>
       </c>
       <c r="I3" t="n">
-        <v>5865</v>
+        <v>10000</v>
       </c>
       <c r="J3" t="inlineStr">
         <is>
@@ -640,7 +641,7 @@
         </is>
       </c>
       <c r="L3" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M3" t="n">
         <v>70</v>
@@ -658,56 +659,53 @@
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>2025-04-23 00:00:00</t>
+          <t>2025-04-22 00:00:00</t>
         </is>
       </c>
       <c r="R3" s="1" t="n">
-        <v>-0.4377821180555556</v>
-      </c>
-      <c r="S3" s="1" t="n">
-        <v>-1.382741347905093</v>
-      </c>
-      <c r="T3" t="n">
-        <v>7</v>
+        <v>-2.429059076678241</v>
+      </c>
+      <c r="S3" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>251840</v>
+        <v>251050</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>20</v>
+        <v>195</v>
       </c>
       <c r="D4" t="n">
-        <v>93.67213114754098</v>
+        <v>0</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2025-05-08 09:11:08</t>
+          <t>2025-05-09 10:17:50</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2025-05-08 09:31:08</t>
+          <t>2025-05-09 13:32:50</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>2025-05-08 09:31:08</t>
+          <t>2025-05-09 13:32:50</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>2025-05-08 11:04:49</t>
+          <t>2025-05-09 13:32:50</t>
         </is>
       </c>
       <c r="I4" t="n">
-        <v>5714</v>
+        <v>0</v>
       </c>
       <c r="J4" t="inlineStr">
         <is>
@@ -716,17 +714,17 @@
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="L4" t="n">
-        <v>5</v>
+        <v>38</v>
       </c>
       <c r="M4" t="n">
         <v>70</v>
       </c>
       <c r="N4" t="n">
-        <v>39758</v>
+        <v>39747</v>
       </c>
       <c r="O4" t="inlineStr">
         <is>
@@ -734,60 +732,57 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>39758</v>
+        <v>39747</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>2025-05-09 00:00:00</t>
+          <t>2025-04-16 00:00:00</t>
         </is>
       </c>
       <c r="R4" s="1" t="n">
-        <v>-0.4885587431712963</v>
-      </c>
-      <c r="S4" s="1" t="n">
-        <v>-0.4616803278703704</v>
-      </c>
-      <c r="T4" t="n">
-        <v>1</v>
+        <v>-1.564475743344907</v>
+      </c>
+      <c r="S4" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>251742</v>
+        <v>251054</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="D5" t="n">
-        <v>134.8524590163935</v>
+        <v>0</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2025-05-08 11:04:49</t>
+          <t>2025-05-09 13:32:50</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2025-05-08 11:29:49</t>
+          <t>2025-05-09 14:07:50</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>2025-05-08 11:29:49</t>
+          <t>2025-05-09 14:07:50</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>2025-05-08 13:44:40</t>
+          <t>2025-05-09 14:07:50</t>
         </is>
       </c>
       <c r="I5" t="n">
-        <v>8226</v>
+        <v>0</v>
       </c>
       <c r="J5" t="inlineStr">
         <is>
@@ -796,17 +791,17 @@
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="L5" t="n">
-        <v>4</v>
+        <v>38</v>
       </c>
       <c r="M5" t="n">
         <v>70</v>
       </c>
       <c r="N5" t="n">
-        <v>39749</v>
+        <v>39747</v>
       </c>
       <c r="O5" t="inlineStr">
         <is>
@@ -814,60 +809,57 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>39749</v>
+        <v>39747</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>2025-05-15 00:00:00</t>
+          <t>2025-04-16 00:00:00</t>
         </is>
       </c>
       <c r="R5" s="1" t="n">
-        <v>-1.406147540983796</v>
-      </c>
-      <c r="S5" s="1" t="n">
-        <v>-1.572688979965278</v>
-      </c>
-      <c r="T5" t="n">
-        <v>7</v>
+        <v>-1.588781298900463</v>
+      </c>
+      <c r="S5" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>251229</v>
+        <v>251081</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>30</v>
+        <v>125</v>
       </c>
       <c r="D6" t="n">
-        <v>307.1967213114754</v>
+        <v>42.42253521126761</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2025-05-08 13:44:40</t>
+          <t>2025-05-09 14:07:50</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2025-05-08 14:14:40</t>
+          <t>2025-05-12 08:12:50</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>2025-05-08 14:14:40</t>
+          <t>2025-05-12 08:12:50</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>2025-05-09 11:21:52</t>
+          <t>2025-05-12 08:55:16</t>
         </is>
       </c>
       <c r="I6" t="n">
-        <v>18739</v>
+        <v>3012</v>
       </c>
       <c r="J6" t="inlineStr">
         <is>
@@ -876,18 +868,18 @@
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R9</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="L6" t="n">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="M6" t="n">
         <v>70</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>39723 (esterno)</t>
+          <t>39750 (esterno)</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
@@ -896,60 +888,57 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>39723</v>
+        <v>39750</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>2025-05-15 00:00:00</t>
+          <t>2025-04-23 00:00:00</t>
         </is>
       </c>
       <c r="R6" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="S6" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="T6" t="n">
-        <v>1</v>
+        <v>-19.37171361502315</v>
+      </c>
+      <c r="S6" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>251164</v>
+        <v>251284</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>23</v>
+        <v>40.5</v>
       </c>
       <c r="D7" t="n">
-        <v>156.25</v>
+        <v>297.0909090909091</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>2025-05-07 07:00:00</t>
+          <t>2025-05-09 07:00:00</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2025-05-07 07:23:00</t>
+          <t>2025-05-09 07:40:30</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>2025-05-07 07:23:00</t>
+          <t>2025-05-09 07:40:30</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>2025-05-07 09:59:15</t>
+          <t>2025-05-09 12:37:35</t>
         </is>
       </c>
       <c r="I7" t="n">
-        <v>10000</v>
+        <v>16340</v>
       </c>
       <c r="J7" t="inlineStr">
         <is>
@@ -958,17 +947,17 @@
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>CASON ;R6</t>
         </is>
       </c>
       <c r="L7" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="M7" t="n">
         <v>70</v>
       </c>
       <c r="N7" t="n">
-        <v>39749</v>
+        <v>39747</v>
       </c>
       <c r="O7" t="inlineStr">
         <is>
@@ -976,60 +965,57 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>39749</v>
+        <v>39747</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>2025-04-22 00:00:00</t>
+          <t>2025-05-12 00:00:00</t>
         </is>
       </c>
       <c r="R7" s="1" t="n">
-        <v>-1.471584467118056</v>
-      </c>
-      <c r="S7" s="1" t="n">
-        <v>-0.4161458333333333</v>
-      </c>
-      <c r="T7" t="n">
-        <v>4</v>
+        <v>-1.526104797974537</v>
+      </c>
+      <c r="S7" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>250923</v>
+        <v>251229</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="D8" t="n">
-        <v>109.46875</v>
+        <v>307.1967213114754</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>2025-05-07 09:59:15</t>
+          <t>2025-05-08 07:00:00</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2025-05-07 10:31:15</t>
+          <t>2025-05-08 07:40:00</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>2025-05-07 10:31:15</t>
+          <t>2025-05-08 07:40:00</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>2025-05-07 12:20:43</t>
+          <t>2025-05-08 12:47:11</t>
         </is>
       </c>
       <c r="I8" t="n">
-        <v>7006</v>
+        <v>18739</v>
       </c>
       <c r="J8" t="inlineStr">
         <is>
@@ -1038,17 +1024,19 @@
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R9</t>
         </is>
       </c>
       <c r="L8" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M8" t="n">
-        <v>76</v>
-      </c>
-      <c r="N8" t="n">
-        <v>39749</v>
+        <v>70</v>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>39723 (esterno)</t>
+        </is>
       </c>
       <c r="O8" t="inlineStr">
         <is>
@@ -1056,60 +1044,57 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>39749</v>
+        <v>39723</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>2025-04-07 00:00:00</t>
+          <t>2025-05-15 00:00:00</t>
         </is>
       </c>
       <c r="R8" s="1" t="n">
-        <v>-1.446853298611111</v>
-      </c>
-      <c r="S8" s="1" t="n">
-        <v>-0.5143880208333333</v>
-      </c>
-      <c r="T8" t="n">
-        <v>2</v>
+        <v>0</v>
+      </c>
+      <c r="S8" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>251455</v>
+        <v>251477</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="D9" t="n">
-        <v>82.765625</v>
+        <v>422.5211267605634</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>2025-05-07 12:20:43</t>
+          <t>2025-05-08 12:00:00</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>2025-05-07 12:52:43</t>
+          <t>2025-05-08 12:17:00</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>2025-05-07 12:52:43</t>
+          <t>2025-05-08 12:17:00</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>2025-05-07 14:15:29</t>
+          <t>2025-05-09 11:19:31</t>
         </is>
       </c>
       <c r="I9" t="n">
-        <v>5297</v>
+        <v>29999</v>
       </c>
       <c r="J9" t="inlineStr">
         <is>
@@ -1118,17 +1103,17 @@
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L9" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M9" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="N9" t="n">
-        <v>39749</v>
+        <v>39760</v>
       </c>
       <c r="O9" t="inlineStr">
         <is>
@@ -1136,56 +1121,53 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>39749</v>
+        <v>39760</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>2025-04-15 00:00:00</t>
+          <t>2025-04-28 00:00:00</t>
         </is>
       </c>
       <c r="R9" s="1" t="n">
-        <v>-0.3623372395833334</v>
-      </c>
-      <c r="S9" s="1" t="n">
-        <v>-0.5940863715277778</v>
-      </c>
-      <c r="T9" t="n">
-        <v>7</v>
+        <v>-2.471889671365741</v>
+      </c>
+      <c r="S9" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>251371</v>
+        <v>251225</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>2025-05-07 14:15:29</t>
+          <t>2025-05-09 11:19:31</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>2025-05-07 14:30:29</t>
+          <t>2025-05-09 11:36:31</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>2025-05-07 14:30:29</t>
+          <t>2025-05-09 11:36:31</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>2025-05-07 14:30:29</t>
+          <t>2025-05-09 11:36:31</t>
         </is>
       </c>
       <c r="I10" t="n">
@@ -1198,19 +1180,17 @@
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L10" t="n">
         <v>4</v>
       </c>
       <c r="M10" t="n">
-        <v>70</v>
-      </c>
-      <c r="N10" t="inlineStr">
-        <is>
-          <t>39666 (esterno)</t>
-        </is>
+        <v>76</v>
+      </c>
+      <c r="N10" t="n">
+        <v>39747</v>
       </c>
       <c r="O10" t="inlineStr">
         <is>
@@ -1218,60 +1198,57 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>39666</v>
+        <v>39747</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>2025-04-24 00:00:00</t>
+          <t>2025-04-30 00:00:00</t>
         </is>
       </c>
       <c r="R10" s="1" t="n">
-        <v>-13.48732638888889</v>
-      </c>
-      <c r="S10" s="1" t="n">
-        <v>-13.60450303819444</v>
-      </c>
-      <c r="T10" t="n">
-        <v>7</v>
+        <v>-1.483695226921296</v>
+      </c>
+      <c r="S10" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>251395</v>
+        <v>251227</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D11" t="n">
-        <v>35.34375</v>
+        <v>0</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>2025-05-07 14:30:29</t>
+          <t>2025-05-09 11:36:31</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>2025-05-07 14:49:29</t>
+          <t>2025-05-09 11:51:31</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>2025-05-07 14:49:29</t>
+          <t>2025-05-09 11:51:31</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>2025-05-08 07:24:49</t>
+          <t>2025-05-09 11:51:31</t>
         </is>
       </c>
       <c r="I11" t="n">
-        <v>2262</v>
+        <v>0</v>
       </c>
       <c r="J11" t="inlineStr">
         <is>
@@ -1280,17 +1257,17 @@
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L11" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M11" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="N11" t="n">
-        <v>39749</v>
+        <v>39746</v>
       </c>
       <c r="O11" t="inlineStr">
         <is>
@@ -1298,60 +1275,57 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>39749</v>
+        <v>39746</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>2025-04-23 00:00:00</t>
+          <t>2025-05-05 00:00:00</t>
         </is>
       </c>
       <c r="R11" s="1" t="n">
-        <v>-0.4741319444444445</v>
-      </c>
-      <c r="S11" s="1" t="n">
-        <v>-1.308908420138889</v>
-      </c>
-      <c r="T11" t="n">
-        <v>7</v>
+        <v>-3.494111893587963</v>
+      </c>
+      <c r="S11" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>251396</v>
+        <v>251782</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D12" t="n">
-        <v>35.34375</v>
+        <v>170.0422535211268</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>2025-05-08 07:24:49</t>
+          <t>2025-05-08 07:00:00</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>2025-05-08 07:39:49</t>
+          <t>2025-05-08 07:17:00</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>2025-05-08 07:39:49</t>
+          <t>2025-05-08 07:17:00</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>2025-05-08 08:15:10</t>
+          <t>2025-05-08 10:07:02</t>
         </is>
       </c>
       <c r="I12" t="n">
-        <v>2262</v>
+        <v>12073</v>
       </c>
       <c r="J12" t="inlineStr">
         <is>
@@ -1360,17 +1334,17 @@
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L12" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="M12" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="N12" t="n">
-        <v>39749</v>
+        <v>39754</v>
       </c>
       <c r="O12" t="inlineStr">
         <is>
@@ -1378,60 +1352,57 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>39749</v>
+        <v>39754</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>2025-05-02 00:00:00</t>
+          <t>2025-05-16 00:00:00</t>
         </is>
       </c>
       <c r="R12" s="1" t="n">
-        <v>-0.5250651041666666</v>
-      </c>
-      <c r="S12" s="1" t="n">
-        <v>-1.343869357638889</v>
-      </c>
-      <c r="T12" t="n">
-        <v>7</v>
+        <v>0</v>
+      </c>
+      <c r="S12" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>251548</v>
+        <v>251456</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="D13" t="n">
-        <v>206.90625</v>
+        <v>126.7464788732394</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>2025-05-08 08:15:10</t>
+          <t>2025-05-08 10:07:02</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>2025-05-08 08:34:10</t>
+          <t>2025-05-08 10:37:02</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>2025-05-08 08:34:10</t>
+          <t>2025-05-08 10:37:02</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>2025-05-08 12:01:04</t>
+          <t>2025-05-08 12:43:47</t>
         </is>
       </c>
       <c r="I13" t="n">
-        <v>13242</v>
+        <v>8999</v>
       </c>
       <c r="J13" t="inlineStr">
         <is>
@@ -1444,13 +1415,13 @@
         </is>
       </c>
       <c r="L13" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M13" t="n">
         <v>70</v>
       </c>
       <c r="N13" t="n">
-        <v>39749</v>
+        <v>39746</v>
       </c>
       <c r="O13" t="inlineStr">
         <is>
@@ -1458,60 +1429,57 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>39749</v>
+        <v>39746</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>2025-05-06 00:00:00</t>
+          <t>2025-05-09 00:00:00</t>
         </is>
       </c>
       <c r="R13" s="1" t="n">
-        <v>-1.348611111111111</v>
-      </c>
-      <c r="S13" s="1" t="n">
-        <v>-1.500748697916667</v>
-      </c>
-      <c r="T13" t="n">
-        <v>7</v>
+        <v>-2.530408841944444</v>
+      </c>
+      <c r="S13" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>251477</v>
+        <v>251455</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="D14" t="n">
-        <v>468.734375</v>
+        <v>74.6056338028169</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>2025-05-08 12:01:04</t>
+          <t>2025-05-08 12:43:47</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>2025-05-08 12:33:04</t>
+          <t>2025-05-08 13:00:47</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>2025-05-08 12:33:04</t>
+          <t>2025-05-08 13:00:47</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>2025-05-09 12:21:48</t>
+          <t>2025-05-08 14:15:23</t>
         </is>
       </c>
       <c r="I14" t="n">
-        <v>29999</v>
+        <v>5297</v>
       </c>
       <c r="J14" t="inlineStr">
         <is>
@@ -1520,17 +1488,17 @@
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L14" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M14" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="N14" t="n">
-        <v>39760</v>
+        <v>39749</v>
       </c>
       <c r="O14" t="inlineStr">
         <is>
@@ -1538,60 +1506,57 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>39760</v>
+        <v>39749</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>2025-04-28 00:00:00</t>
+          <t>2025-04-15 00:00:00</t>
         </is>
       </c>
       <c r="R14" s="1" t="n">
-        <v>-2.452224392361111</v>
-      </c>
-      <c r="S14" s="1" t="n">
-        <v>-2.515147569444444</v>
-      </c>
-      <c r="T14" t="n">
-        <v>1</v>
+        <v>-1.594023865416667</v>
+      </c>
+      <c r="S14" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>251050</v>
+        <v>251742</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>217</v>
+        <v>15</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>115.8591549295775</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>2025-05-09 07:00:00</t>
+          <t>2025-05-08 14:15:23</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>2025-05-09 10:37:00</t>
+          <t>2025-05-08 14:30:23</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>2025-05-09 10:37:00</t>
+          <t>2025-05-08 14:30:23</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>2025-05-09 10:37:00</t>
+          <t>2025-05-09 08:26:15</t>
         </is>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>8226</v>
       </c>
       <c r="J15" t="inlineStr">
         <is>
@@ -1600,17 +1565,17 @@
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L15" t="n">
-        <v>38</v>
+        <v>4</v>
       </c>
       <c r="M15" t="n">
         <v>70</v>
       </c>
       <c r="N15" t="n">
-        <v>39747</v>
+        <v>39749</v>
       </c>
       <c r="O15" t="inlineStr">
         <is>
@@ -1618,60 +1583,57 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>39747</v>
+        <v>39749</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>2025-04-16 00:00:00</t>
+          <t>2025-05-15 00:00:00</t>
         </is>
       </c>
       <c r="R15" s="1" t="n">
-        <v>-1.442361111111111</v>
-      </c>
-      <c r="S15" s="1" t="n">
-        <v>-1.442361111111111</v>
-      </c>
-      <c r="T15" t="n">
-        <v>2</v>
+        <v>-2.351564945231482</v>
+      </c>
+      <c r="S15" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>251054</v>
+        <v>251547</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>184.9154929577465</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>2025-05-09 10:37:00</t>
+          <t>2025-05-09 08:26:15</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>2025-05-09 11:12:00</t>
+          <t>2025-05-09 08:41:15</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>2025-05-09 11:12:00</t>
+          <t>2025-05-09 08:41:15</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>2025-05-09 11:12:00</t>
+          <t>2025-05-09 11:46:10</t>
         </is>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>13129</v>
       </c>
       <c r="J16" t="inlineStr">
         <is>
@@ -1680,17 +1642,17 @@
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L16" t="n">
-        <v>38</v>
+        <v>4</v>
       </c>
       <c r="M16" t="n">
         <v>70</v>
       </c>
       <c r="N16" t="n">
-        <v>39747</v>
+        <v>39749</v>
       </c>
       <c r="O16" t="inlineStr">
         <is>
@@ -1698,60 +1660,57 @@
         </is>
       </c>
       <c r="P16" t="n">
-        <v>39747</v>
+        <v>39749</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>2025-04-16 00:00:00</t>
+          <t>2025-05-06 00:00:00</t>
         </is>
       </c>
       <c r="R16" s="1" t="n">
-        <v>-1.466666666666667</v>
-      </c>
-      <c r="S16" s="1" t="n">
-        <v>-1.466666666666667</v>
-      </c>
-      <c r="T16" t="n">
-        <v>2</v>
+        <v>-2.490395148668981</v>
+      </c>
+      <c r="S16" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>251081</v>
+        <v>250759</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>125</v>
+        <v>30</v>
       </c>
       <c r="D17" t="n">
-        <v>42.42253521126761</v>
+        <v>118.2816901408451</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>2025-05-09 11:12:00</t>
+          <t>2025-05-09 11:46:10</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>2025-05-09 13:17:00</t>
+          <t>2025-05-09 12:16:10</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>2025-05-09 13:17:00</t>
+          <t>2025-05-09 12:16:10</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>2025-05-09 13:59:25</t>
+          <t>2025-05-09 14:14:27</t>
         </is>
       </c>
       <c r="I17" t="n">
-        <v>3012</v>
+        <v>8398</v>
       </c>
       <c r="J17" t="inlineStr">
         <is>
@@ -1760,19 +1719,17 @@
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12</t>
         </is>
       </c>
       <c r="L17" t="n">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="M17" t="n">
-        <v>70</v>
-      </c>
-      <c r="N17" t="inlineStr">
-        <is>
-          <t>39750 (esterno)</t>
-        </is>
+        <v>76</v>
+      </c>
+      <c r="N17" t="n">
+        <v>39747</v>
       </c>
       <c r="O17" t="inlineStr">
         <is>
@@ -1780,37 +1737,34 @@
         </is>
       </c>
       <c r="P17" t="n">
-        <v>39750</v>
+        <v>39747</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>2025-04-23 00:00:00</t>
+          <t>2025-03-13 00:00:00</t>
         </is>
       </c>
       <c r="R17" s="1" t="n">
-        <v>-16.58293231612268</v>
-      </c>
-      <c r="S17" s="1" t="n">
-        <v>-16.58293231612268</v>
-      </c>
-      <c r="T17" t="n">
-        <v>2</v>
+        <v>-1.593368544606482</v>
+      </c>
+      <c r="S17" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>251284</v>
+        <v>251651</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>BIMEC 4</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>40.5</v>
+        <v>29</v>
       </c>
       <c r="D18" t="n">
-        <v>297.0909090909091</v>
+        <v>767.7049180327868</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
@@ -1819,21 +1773,21 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>2025-05-09 07:40:30</t>
+          <t>2025-05-09 07:29:00</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>2025-05-09 07:40:30</t>
+          <t>2025-05-09 07:29:00</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>2025-05-09 12:37:35</t>
+          <t>2025-05-12 12:16:42</t>
         </is>
       </c>
       <c r="I18" t="n">
-        <v>16340</v>
+        <v>46830</v>
       </c>
       <c r="J18" t="inlineStr">
         <is>
@@ -1842,25 +1796,23 @@
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>CASON ;R6</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L18" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="M18" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="N18" t="n">
-        <v>39747</v>
-      </c>
-      <c r="O18" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>39755</v>
+      </c>
+      <c r="O18" t="n">
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>39747</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
@@ -1868,73 +1820,68 @@
         </is>
       </c>
       <c r="R18" s="1" t="n">
-        <v>-1.526104797974537</v>
-      </c>
-      <c r="S18" s="1" t="n">
-        <v>-1.526104797974537</v>
-      </c>
-      <c r="T18" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="S18" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>251706</v>
+        <v>251840</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>T3</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="D19" t="n">
-        <v>50.79365079365079</v>
+        <v>89.28125</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>2025-05-12 07:00:00</t>
+          <t>2025-05-07 07:00:00</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>2025-05-12 07:00:00</t>
+          <t>2025-05-07 07:21:00</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>2025-05-12 07:00:00</t>
+          <t>2025-05-07 07:21:00</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>2025-05-12 07:50:47</t>
+          <t>2025-05-07 08:50:16</t>
         </is>
       </c>
       <c r="I19" t="n">
-        <v>3200</v>
+        <v>5714</v>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>foglio</t>
+          <t>bobina</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>T3</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="M19" t="n">
-        <v>0</v>
-      </c>
-      <c r="N19" t="inlineStr">
-        <is>
-          <t>39764 (esterno)</t>
-        </is>
+        <v>70</v>
+      </c>
+      <c r="N19" t="n">
+        <v>39758</v>
       </c>
       <c r="O19" t="inlineStr">
         <is>
@@ -1942,60 +1889,57 @@
         </is>
       </c>
       <c r="P19" t="n">
-        <v>39764</v>
+        <v>39758</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>2025-05-14 00:00:00</t>
+          <t>2025-05-09 00:00:00</t>
         </is>
       </c>
       <c r="R19" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="S19" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="T19" t="n">
-        <v>7</v>
+      <c r="S19" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>251547</v>
+        <v>251391</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="D20" t="n">
-        <v>184.9154929577465</v>
+        <v>91.640625</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>2025-05-08 07:00:00</t>
+          <t>2025-05-07 08:50:16</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>2025-05-08 07:34:00</t>
+          <t>2025-05-07 09:05:16</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>2025-05-08 07:34:00</t>
+          <t>2025-05-07 09:05:16</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>2025-05-08 10:38:54</t>
+          <t>2025-05-07 10:36:55</t>
         </is>
       </c>
       <c r="I20" t="n">
-        <v>13129</v>
+        <v>5865</v>
       </c>
       <c r="J20" t="inlineStr">
         <is>
@@ -2008,7 +1952,7 @@
         </is>
       </c>
       <c r="L20" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M20" t="n">
         <v>70</v>
@@ -2026,56 +1970,53 @@
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>2025-05-06 00:00:00</t>
+          <t>2025-04-23 00:00:00</t>
         </is>
       </c>
       <c r="R20" s="1" t="n">
-        <v>-1.443691314548611</v>
-      </c>
-      <c r="S20" s="1" t="n">
-        <v>-1.443691314548611</v>
-      </c>
-      <c r="T20" t="n">
+        <v>-0.4423068576388889</v>
+      </c>
+      <c r="S20" t="n">
         <v>7</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>251225</v>
+        <v>251395</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>35.34375</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>2025-05-08 10:38:54</t>
+          <t>2025-05-07 10:36:55</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>2025-05-08 11:08:54</t>
+          <t>2025-05-07 10:53:55</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>2025-05-08 11:08:54</t>
+          <t>2025-05-07 10:53:55</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>2025-05-08 11:08:54</t>
+          <t>2025-05-07 11:29:15</t>
         </is>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>2262</v>
       </c>
       <c r="J21" t="inlineStr">
         <is>
@@ -2084,17 +2025,17 @@
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L21" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M21" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="N21" t="n">
-        <v>39747</v>
+        <v>39749</v>
       </c>
       <c r="O21" t="inlineStr">
         <is>
@@ -2102,60 +2043,57 @@
         </is>
       </c>
       <c r="P21" t="n">
-        <v>39747</v>
+        <v>39749</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>2025-04-30 00:00:00</t>
+          <t>2025-04-23 00:00:00</t>
         </is>
       </c>
       <c r="R21" s="1" t="n">
-        <v>-0.5131944444444444</v>
-      </c>
-      <c r="S21" s="1" t="n">
-        <v>-0.4645246478819445</v>
-      </c>
-      <c r="T21" t="n">
-        <v>1</v>
+        <v>-0.4786566840277778</v>
+      </c>
+      <c r="S21" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>250759</v>
+        <v>251371</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D22" t="n">
-        <v>118.2816901408451</v>
+        <v>0</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>2025-05-08 11:08:54</t>
+          <t>2025-05-07 11:29:15</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>2025-05-08 11:23:54</t>
+          <t>2025-05-07 11:48:15</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>2025-05-08 11:23:54</t>
+          <t>2025-05-07 11:48:15</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>2025-05-08 13:22:11</t>
+          <t>2025-05-07 11:48:15</t>
         </is>
       </c>
       <c r="I22" t="n">
-        <v>8398</v>
+        <v>0</v>
       </c>
       <c r="J22" t="inlineStr">
         <is>
@@ -2164,17 +2102,19 @@
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L22" t="n">
         <v>4</v>
       </c>
       <c r="M22" t="n">
-        <v>76</v>
-      </c>
-      <c r="N22" t="n">
-        <v>39747</v>
+        <v>70</v>
+      </c>
+      <c r="N22" t="inlineStr">
+        <is>
+          <t>39666 (esterno)</t>
+        </is>
       </c>
       <c r="O22" t="inlineStr">
         <is>
@@ -2182,60 +2122,57 @@
         </is>
       </c>
       <c r="P22" t="n">
-        <v>39747</v>
+        <v>39666</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>2025-03-13 00:00:00</t>
+          <t>2025-04-24 00:00:00</t>
         </is>
       </c>
       <c r="R22" s="1" t="n">
-        <v>-0.5466647104861111</v>
-      </c>
-      <c r="S22" s="1" t="n">
-        <v>-0.5570813771527778</v>
-      </c>
-      <c r="T22" t="n">
-        <v>1</v>
+        <v>-13.49185112847222</v>
+      </c>
+      <c r="S22" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>250894</v>
+        <v>251396</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D23" t="n">
-        <v>623.4084507042254</v>
+        <v>35.34375</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>2025-05-08 13:22:11</t>
+          <t>2025-05-07 11:48:15</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>2025-05-08 13:39:11</t>
+          <t>2025-05-07 12:07:15</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>2025-05-08 13:39:11</t>
+          <t>2025-05-07 12:07:15</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>2025-05-12 08:02:36</t>
+          <t>2025-05-07 12:42:36</t>
         </is>
       </c>
       <c r="I23" t="n">
-        <v>44262</v>
+        <v>2262</v>
       </c>
       <c r="J23" t="inlineStr">
         <is>
@@ -2244,76 +2181,75 @@
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L23" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M23" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="N23" t="n">
-        <v>39755</v>
-      </c>
-      <c r="O23" t="n">
-        <v>0</v>
+        <v>39749</v>
+      </c>
+      <c r="O23" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>39749</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>2025-05-05 00:00:00</t>
+          <t>2025-05-02 00:00:00</t>
         </is>
       </c>
       <c r="R23" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="S23" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="T23" t="n">
-        <v>4</v>
+        <v>-0.52958984375</v>
+      </c>
+      <c r="S23" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>251456</v>
+        <v>251548</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>R3</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="D24" t="n">
-        <v>183.6530612244898</v>
+        <v>206.90625</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>2025-05-08 07:00:00</t>
+          <t>2025-05-07 12:42:36</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>2025-05-08 07:40:00</t>
+          <t>2025-05-07 13:01:36</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>2025-05-08 07:40:00</t>
+          <t>2025-05-07 13:01:36</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>2025-05-08 10:43:39</t>
+          <t>2025-05-08 08:28:30</t>
         </is>
       </c>
       <c r="I24" t="n">
-        <v>8999</v>
+        <v>13242</v>
       </c>
       <c r="J24" t="inlineStr">
         <is>
@@ -2326,13 +2262,13 @@
         </is>
       </c>
       <c r="L24" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M24" t="n">
         <v>70</v>
       </c>
       <c r="N24" t="n">
-        <v>39746</v>
+        <v>39749</v>
       </c>
       <c r="O24" t="inlineStr">
         <is>
@@ -2340,60 +2276,57 @@
         </is>
       </c>
       <c r="P24" t="n">
-        <v>39746</v>
+        <v>39749</v>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>2025-05-09 00:00:00</t>
+          <t>2025-05-06 00:00:00</t>
         </is>
       </c>
       <c r="R24" s="1" t="n">
-        <v>-3.300510204085648</v>
-      </c>
-      <c r="S24" s="1" t="n">
-        <v>-2.446981292511574</v>
-      </c>
-      <c r="T24" t="n">
-        <v>1</v>
+        <v>-1.353135850694444</v>
+      </c>
+      <c r="S24" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>251416</v>
+        <v>250894</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>R3</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="D25" t="n">
-        <v>229.0204081632653</v>
+        <v>691.59375</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>2025-05-08 10:43:39</t>
+          <t>2025-05-08 08:28:30</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>2025-05-08 11:23:39</t>
+          <t>2025-05-08 09:00:30</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>2025-05-08 11:23:39</t>
+          <t>2025-05-08 09:00:30</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>2025-05-09 07:12:40</t>
+          <t>2025-05-09 12:32:06</t>
         </is>
       </c>
       <c r="I25" t="n">
-        <v>11222</v>
+        <v>44262</v>
       </c>
       <c r="J25" t="inlineStr">
         <is>
@@ -2402,14 +2335,14 @@
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L25" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="M25" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="N25" t="n">
         <v>39755</v>
@@ -2422,56 +2355,53 @@
       </c>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>2025-04-23 00:00:00</t>
+          <t>2025-05-05 00:00:00</t>
         </is>
       </c>
       <c r="R25" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="S25" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="T25" t="n">
-        <v>2</v>
+      <c r="S25" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>251227</v>
+        <v>250923</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>109.46875</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>2025-05-08 12:00:00</t>
+          <t>2025-05-09 12:32:06</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>2025-05-08 12:19:00</t>
+          <t>2025-05-09 12:47:06</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>2025-05-08 12:19:00</t>
+          <t>2025-05-09 12:47:06</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>2025-05-08 12:19:00</t>
+          <t>2025-05-09 14:36:34</t>
         </is>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>7006</v>
       </c>
       <c r="J26" t="inlineStr">
         <is>
@@ -2484,13 +2414,13 @@
         </is>
       </c>
       <c r="L26" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M26" t="n">
         <v>76</v>
       </c>
       <c r="N26" t="n">
-        <v>39746</v>
+        <v>39749</v>
       </c>
       <c r="O26" t="inlineStr">
         <is>
@@ -2498,60 +2428,57 @@
         </is>
       </c>
       <c r="P26" t="n">
-        <v>39746</v>
+        <v>39749</v>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
-          <t>2025-05-05 00:00:00</t>
+          <t>2025-04-07 00:00:00</t>
         </is>
       </c>
       <c r="R26" s="1" t="n">
-        <v>-2.523611111111111</v>
-      </c>
-      <c r="S26" s="1" t="n">
-        <v>-2.513194444444444</v>
-      </c>
-      <c r="T26" t="n">
-        <v>1</v>
+        <v>-2.608734809027778</v>
+      </c>
+      <c r="S26" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>251782</v>
+        <v>251416</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>R3</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="D27" t="n">
-        <v>170.0422535211268</v>
+        <v>229.0204081632653</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>2025-05-08 12:19:00</t>
+          <t>2025-05-08 07:00:00</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>2025-05-08 12:36:00</t>
+          <t>2025-05-08 07:35:00</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>2025-05-08 12:36:00</t>
+          <t>2025-05-08 07:35:00</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>2025-05-09 07:26:02</t>
+          <t>2025-05-08 11:24:01</t>
         </is>
       </c>
       <c r="I27" t="n">
-        <v>12073</v>
+        <v>11222</v>
       </c>
       <c r="J27" t="inlineStr">
         <is>
@@ -2560,78 +2487,73 @@
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L27" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M27" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="N27" t="n">
-        <v>39754</v>
-      </c>
-      <c r="O27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>39755</v>
+      </c>
+      <c r="O27" t="n">
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>39754</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
-          <t>2025-05-16 00:00:00</t>
+          <t>2025-04-23 00:00:00</t>
         </is>
       </c>
       <c r="R27" s="1" t="n">
-        <v>-0.3201682316087963</v>
-      </c>
-      <c r="S27" s="1" t="n">
-        <v>-0.3097515649421296</v>
-      </c>
-      <c r="T27" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="S27" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>251340</v>
+        <v>251561</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>R3</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>17</v>
+        <v>50</v>
       </c>
       <c r="D28" t="n">
-        <v>461.9718309859155</v>
+        <v>110.9183673469388</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>2025-05-09 07:41:02</t>
+          <t>2025-05-08 11:24:01</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>2025-05-09 07:58:02</t>
+          <t>2025-05-08 12:14:01</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>2025-05-09 07:58:02</t>
+          <t>2025-05-08 12:14:01</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>2025-05-12 07:40:00</t>
+          <t>2025-05-08 14:04:56</t>
         </is>
       </c>
       <c r="I28" t="n">
-        <v>32800</v>
+        <v>5435</v>
       </c>
       <c r="J28" t="inlineStr">
         <is>
@@ -2640,14 +2562,14 @@
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L28" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="M28" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="O28" t="n">
         <v>0</v>
@@ -2657,19 +2579,19 @@
       </c>
       <c r="Q28" t="inlineStr">
         <is>
-          <t>2025-04-28 00:00:00</t>
+          <t>2025-05-07 00:00:00</t>
         </is>
       </c>
       <c r="R28" s="1" t="n">
-        <v>0</v>
+        <v>-1.586763038553241</v>
       </c>
       <c r="S28" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>251561</v>
+        <v>251564</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
@@ -2677,33 +2599,33 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="D29" t="n">
-        <v>89.09836065573771</v>
+        <v>44.54098360655738</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>2025-05-09 09:15:43</t>
+          <t>2025-05-08 12:47:11</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>2025-05-09 09:40:43</t>
+          <t>2025-05-08 13:22:11</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>2025-05-09 09:40:43</t>
+          <t>2025-05-08 13:22:11</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>2025-05-09 11:09:49</t>
+          <t>2025-05-08 14:06:44</t>
         </is>
       </c>
       <c r="I29" t="n">
-        <v>5435</v>
+        <v>2717</v>
       </c>
       <c r="J29" t="inlineStr">
         <is>
@@ -2716,7 +2638,7 @@
         </is>
       </c>
       <c r="L29" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M29" t="n">
         <v>70</v>
@@ -2733,7 +2655,7 @@
         </is>
       </c>
       <c r="R29" s="1" t="n">
-        <v>0</v>
+        <v>-1.588012295081018</v>
       </c>
       <c r="S29" t="n">
         <v>8</v>
@@ -2741,41 +2663,41 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>251564</v>
+        <v>251566</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>R3</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="D30" t="n">
-        <v>42.453125</v>
+        <v>140.5918367346939</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>2025-05-09 10:51:12</t>
+          <t>2025-05-08 14:04:56</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>2025-05-09 11:21:12</t>
+          <t>2025-05-08 14:44:56</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>2025-05-09 11:21:12</t>
+          <t>2025-05-08 14:44:56</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>2025-05-09 12:03:39</t>
+          <t>2025-05-09 09:05:31</t>
         </is>
       </c>
       <c r="I30" t="n">
-        <v>2717</v>
+        <v>6889</v>
       </c>
       <c r="J30" t="inlineStr">
         <is>
@@ -2788,7 +2710,7 @@
         </is>
       </c>
       <c r="L30" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M30" t="n">
         <v>70</v>
@@ -2805,7 +2727,7 @@
         </is>
       </c>
       <c r="R30" s="1" t="n">
-        <v>0</v>
+        <v>-2.378840702951389</v>
       </c>
       <c r="S30" t="n">
         <v>8</v>
@@ -2813,7 +2735,7 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>251566</v>
+        <v>251626</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
@@ -2821,33 +2743,33 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D31" t="n">
-        <v>112.9344262295082</v>
+        <v>204.9180327868852</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>2025-05-09 11:09:49</t>
+          <t>2025-05-08 14:06:44</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>2025-05-09 11:34:49</t>
+          <t>2025-05-08 14:26:44</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>2025-05-09 11:34:49</t>
+          <t>2025-05-08 14:26:44</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>2025-05-09 13:27:45</t>
+          <t>2025-05-09 09:51:39</t>
         </is>
       </c>
       <c r="I31" t="n">
-        <v>6889</v>
+        <v>12500</v>
       </c>
       <c r="J31" t="inlineStr">
         <is>
@@ -2860,7 +2782,7 @@
         </is>
       </c>
       <c r="L31" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M31" t="n">
         <v>70</v>
@@ -2873,19 +2795,19 @@
       </c>
       <c r="Q31" t="inlineStr">
         <is>
-          <t>2025-05-07 00:00:00</t>
+          <t>2025-04-30 00:00:00</t>
         </is>
       </c>
       <c r="R31" s="1" t="n">
-        <v>0</v>
+        <v>-9.410872040069446</v>
       </c>
       <c r="S31" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>251626</v>
+        <v>251546</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
@@ -2896,30 +2818,30 @@
         <v>40</v>
       </c>
       <c r="D32" t="n">
-        <v>255.1020408163265</v>
+        <v>131.9591836734694</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>2025-05-09 11:41:45</t>
+          <t>2025-05-09 09:05:31</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>2025-05-09 12:21:45</t>
+          <t>2025-05-09 09:45:31</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>2025-05-09 12:21:45</t>
+          <t>2025-05-09 09:45:31</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>2025-05-12 08:36:51</t>
+          <t>2025-05-09 11:57:29</t>
         </is>
       </c>
       <c r="I32" t="n">
-        <v>12500</v>
+        <v>6466</v>
       </c>
       <c r="J32" t="inlineStr">
         <is>
@@ -2932,7 +2854,7 @@
         </is>
       </c>
       <c r="L32" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M32" t="n">
         <v>70</v>
@@ -2949,7 +2871,7 @@
         </is>
       </c>
       <c r="R32" s="1" t="n">
-        <v>0</v>
+        <v>-9.498256802719908</v>
       </c>
       <c r="S32" t="n">
         <v>7</v>
@@ -2957,41 +2879,41 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>251546</v>
+        <v>251505</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="D33" t="n">
-        <v>101.03125</v>
+        <v>233.6885245901639</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>2025-05-09 12:03:39</t>
+          <t>2025-05-09 09:51:39</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>2025-05-09 12:22:39</t>
+          <t>2025-05-09 10:21:39</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>2025-05-09 12:22:39</t>
+          <t>2025-05-09 10:21:39</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>2025-05-09 14:03:41</t>
+          <t>2025-05-09 14:15:20</t>
         </is>
       </c>
       <c r="I33" t="n">
-        <v>6466</v>
+        <v>14255</v>
       </c>
       <c r="J33" t="inlineStr">
         <is>
@@ -3017,11 +2939,11 @@
       </c>
       <c r="Q33" t="inlineStr">
         <is>
-          <t>2025-04-30 00:00:00</t>
+          <t>2025-05-05 00:00:00</t>
         </is>
       </c>
       <c r="R33" s="1" t="n">
-        <v>0</v>
+        <v>-4.593989071041666</v>
       </c>
       <c r="S33" t="n">
         <v>7</v>
@@ -3029,41 +2951,41 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>251505</v>
+        <v>251340</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>34.5</v>
+        <v>19</v>
       </c>
       <c r="D34" t="n">
-        <v>259.1818181818182</v>
+        <v>461.9718309859155</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>2025-05-09 12:37:35</t>
+          <t>2025-05-09 11:51:31</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>2025-05-09 13:12:05</t>
+          <t>2025-05-09 12:10:31</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>2025-05-09 13:12:05</t>
+          <t>2025-05-09 12:10:31</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>2025-05-12 09:31:16</t>
+          <t>2025-05-12 11:52:29</t>
         </is>
       </c>
       <c r="I34" t="n">
-        <v>14255</v>
+        <v>32800</v>
       </c>
       <c r="J34" t="inlineStr">
         <is>
@@ -3072,14 +2994,14 @@
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L34" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="M34" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="O34" t="n">
         <v>0</v>
@@ -3089,14 +3011,14 @@
       </c>
       <c r="Q34" t="inlineStr">
         <is>
-          <t>2025-05-05 00:00:00</t>
+          <t>2025-04-28 00:00:00</t>
         </is>
       </c>
       <c r="R34" s="1" t="n">
-        <v>0</v>
+        <v>-14.49478677621528</v>
       </c>
       <c r="S34" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="35">
@@ -3105,33 +3027,33 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>R3</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="D35" t="n">
-        <v>186.7540983606557</v>
+        <v>232.4897959183673</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>2025-05-09 13:27:45</t>
+          <t>2025-05-09 11:57:29</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>2025-05-09 13:57:45</t>
+          <t>2025-05-09 12:47:29</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>2025-05-09 13:57:45</t>
+          <t>2025-05-09 12:47:29</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>2025-05-12 09:04:30</t>
+          <t>2025-05-12 08:39:58</t>
         </is>
       </c>
       <c r="I35" t="n">
@@ -3177,33 +3099,33 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>125</v>
+        <v>40.5</v>
       </c>
       <c r="D36" t="n">
-        <v>185.5633802816901</v>
+        <v>239.5454545454545</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>2025-05-09 13:59:25</t>
+          <t>2025-05-09 12:37:35</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>2025-05-12 08:04:25</t>
+          <t>2025-05-09 13:18:05</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>2025-05-12 08:04:25</t>
+          <t>2025-05-09 13:18:05</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>2025-05-12 11:09:59</t>
+          <t>2025-05-12 09:17:38</t>
         </is>
       </c>
       <c r="I36" t="n">
@@ -3245,41 +3167,41 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>245275</v>
+        <v>245350</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="D37" t="n">
-        <v>379.59375</v>
+        <v>393.943661971831</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>2025-05-09 14:03:41</t>
+          <t>2025-05-09 14:14:27</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>2025-05-09 14:36:41</t>
+          <t>2025-05-09 14:56:27</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>2025-05-09 14:36:41</t>
+          <t>2025-05-09 14:56:27</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>2025-05-12 12:56:16</t>
+          <t>2025-05-12 13:30:23</t>
         </is>
       </c>
       <c r="I37" t="n">
-        <v>24294</v>
+        <v>27970</v>
       </c>
       <c r="J37" t="inlineStr">
         <is>
@@ -3288,11 +3210,11 @@
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;CASON ;R6</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R6 ;R9</t>
         </is>
       </c>
       <c r="L37" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="M37" t="n">
         <v>70</v>
@@ -3317,41 +3239,41 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>245350</v>
+        <v>251373</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>R9</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>65</v>
+        <v>20</v>
       </c>
       <c r="D38" t="n">
-        <v>405.3623188405797</v>
+        <v>280.2295081967213</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>2025-05-12 07:00:00</t>
+          <t>2025-05-09 14:15:20</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>2025-05-12 08:05:00</t>
+          <t>2025-05-09 14:35:20</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>2025-05-12 08:05:00</t>
+          <t>2025-05-09 14:35:20</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>2025-05-12 14:50:21</t>
+          <t>2025-05-12 11:15:34</t>
         </is>
       </c>
       <c r="I38" t="n">
-        <v>27970</v>
+        <v>17094</v>
       </c>
       <c r="J38" t="inlineStr">
         <is>
@@ -3360,11 +3282,11 @@
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L38" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="M38" t="n">
         <v>70</v>
@@ -3377,53 +3299,53 @@
       </c>
       <c r="Q38" t="inlineStr">
         <is>
-          <t>2025-12-31 00:00:00</t>
+          <t>2025-04-28 00:00:00</t>
         </is>
       </c>
       <c r="R38" s="1" t="n">
-        <v>0</v>
+        <v>-14.46914845173611</v>
       </c>
       <c r="S38" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>243569</v>
+        <v>245275</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>17</v>
+        <v>48</v>
       </c>
       <c r="D39" t="n">
-        <v>36.63380281690141</v>
+        <v>379.59375</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>2025-05-12 07:40:00</t>
+          <t>2025-05-09 14:36:34</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>2025-05-12 07:57:00</t>
+          <t>2025-05-12 07:24:34</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>2025-05-12 07:57:00</t>
+          <t>2025-05-12 07:24:34</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>2025-05-12 08:33:38</t>
+          <t>2025-05-12 13:44:10</t>
         </is>
       </c>
       <c r="I39" t="n">
-        <v>2601</v>
+        <v>24294</v>
       </c>
       <c r="J39" t="inlineStr">
         <is>
@@ -3432,14 +3354,14 @@
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>BIMEC 2 ;CASON ;R6</t>
         </is>
       </c>
       <c r="L39" t="n">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="M39" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
@@ -3449,14 +3371,14 @@
       </c>
       <c r="Q39" t="inlineStr">
         <is>
-          <t>2024-09-16 00:00:00</t>
+          <t>2025-12-31 00:00:00</t>
         </is>
       </c>
       <c r="R39" s="1" t="n">
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="40">
@@ -3465,33 +3387,33 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>R9</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="D40" t="n">
-        <v>140.2535211267606</v>
+        <v>144.3188405797102</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>2025-05-12 07:47:36</t>
+          <t>2025-05-12 07:00:00</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>2025-05-12 08:17:36</t>
+          <t>2025-05-12 07:40:00</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>2025-05-12 08:17:36</t>
+          <t>2025-05-12 07:40:00</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>2025-05-12 10:37:51</t>
+          <t>2025-05-12 10:04:19</t>
         </is>
       </c>
       <c r="I40" t="n">
@@ -3525,7 +3447,7 @@
         </is>
       </c>
       <c r="R40" s="1" t="n">
-        <v>0</v>
+        <v>-553.4196658615161</v>
       </c>
       <c r="S40" t="n">
         <v>4</v>
@@ -3533,41 +3455,41 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>245623</v>
+        <v>251424</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>R3</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="D41" t="n">
-        <v>372.0985915492957</v>
+        <v>197.1836734693877</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>2025-05-12 08:33:38</t>
+          <t>2025-05-12 08:39:58</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>2025-05-12 09:05:38</t>
+          <t>2025-05-12 09:24:58</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>2025-05-12 09:05:38</t>
+          <t>2025-05-12 09:24:58</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>2025-05-13 07:17:44</t>
+          <t>2025-05-12 12:42:09</t>
         </is>
       </c>
       <c r="I41" t="n">
-        <v>26419</v>
+        <v>9662</v>
       </c>
       <c r="J41" t="inlineStr">
         <is>
@@ -3576,14 +3498,14 @@
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L41" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M41" t="n">
-        <v>152</v>
+        <v>70</v>
       </c>
       <c r="O41" t="n">
         <v>0</v>
@@ -3593,53 +3515,53 @@
       </c>
       <c r="Q41" t="inlineStr">
         <is>
-          <t>2025-01-25 00:00:00</t>
+          <t>2025-04-28 00:00:00</t>
         </is>
       </c>
       <c r="R41" s="1" t="n">
-        <v>0</v>
+        <v>-14.52928004534722</v>
       </c>
       <c r="S41" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>251373</v>
+        <v>251397</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>R3</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>45</v>
+        <v>120</v>
       </c>
       <c r="D42" t="n">
-        <v>348.8571428571428</v>
+        <v>76.54929577464789</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>2025-05-12 08:36:51</t>
+          <t>2025-05-12 08:55:16</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>2025-05-12 09:21:51</t>
+          <t>2025-05-12 10:55:16</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>2025-05-12 09:21:51</t>
+          <t>2025-05-12 10:55:16</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>2025-05-13 07:10:42</t>
+          <t>2025-05-12 12:11:49</t>
         </is>
       </c>
       <c r="I42" t="n">
-        <v>17094</v>
+        <v>5435</v>
       </c>
       <c r="J42" t="inlineStr">
         <is>
@@ -3652,7 +3574,7 @@
         </is>
       </c>
       <c r="L42" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M42" t="n">
         <v>70</v>
@@ -3669,7 +3591,7 @@
         </is>
       </c>
       <c r="R42" s="1" t="n">
-        <v>0</v>
+        <v>-14.50820618153935</v>
       </c>
       <c r="S42" t="n">
         <v>4</v>
@@ -3677,41 +3599,41 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>251424</v>
+        <v>251475</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>30</v>
+        <v>34.5</v>
       </c>
       <c r="D43" t="n">
-        <v>158.3934426229508</v>
+        <v>157.8363636363636</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>2025-05-12 09:04:30</t>
+          <t>2025-05-12 09:17:38</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>2025-05-12 09:34:30</t>
+          <t>2025-05-12 09:52:08</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>2025-05-12 09:34:30</t>
+          <t>2025-05-12 09:52:08</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>2025-05-12 12:12:54</t>
+          <t>2025-05-12 12:29:58</t>
         </is>
       </c>
       <c r="I43" t="n">
-        <v>9662</v>
+        <v>8681</v>
       </c>
       <c r="J43" t="inlineStr">
         <is>
@@ -3737,11 +3659,11 @@
       </c>
       <c r="Q43" t="inlineStr">
         <is>
-          <t>2025-04-28 00:00:00</t>
+          <t>2025-04-30 00:00:00</t>
         </is>
       </c>
       <c r="R43" s="1" t="n">
-        <v>0</v>
+        <v>-12.52081439393519</v>
       </c>
       <c r="S43" t="n">
         <v>4</v>
@@ -3749,41 +3671,41 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>251397</v>
+        <v>251594</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>R9</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>34.5</v>
+        <v>30</v>
       </c>
       <c r="D44" t="n">
-        <v>98.81818181818181</v>
+        <v>93.71014492753623</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>2025-05-12 09:31:16</t>
+          <t>2025-05-12 10:04:19</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>2025-05-12 10:05:46</t>
+          <t>2025-05-12 10:34:19</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>2025-05-12 10:05:46</t>
+          <t>2025-05-12 10:34:19</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>2025-05-12 11:44:35</t>
+          <t>2025-05-12 12:08:01</t>
         </is>
       </c>
       <c r="I44" t="n">
-        <v>5435</v>
+        <v>6466</v>
       </c>
       <c r="J44" t="inlineStr">
         <is>
@@ -3796,7 +3718,7 @@
         </is>
       </c>
       <c r="L44" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M44" t="n">
         <v>70</v>
@@ -3809,11 +3731,11 @@
       </c>
       <c r="Q44" t="inlineStr">
         <is>
-          <t>2025-04-28 00:00:00</t>
+          <t>2025-05-07 00:00:00</t>
         </is>
       </c>
       <c r="R44" s="1" t="n">
-        <v>0</v>
+        <v>-5.505575684375</v>
       </c>
       <c r="S44" t="n">
         <v>4</v>
@@ -3821,41 +3743,41 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>251475</v>
+        <v>244354</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="D45" t="n">
-        <v>122.2676056338028</v>
+        <v>70.65573770491804</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>2025-05-12 10:37:51</t>
+          <t>2025-05-12 11:15:34</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>2025-05-12 10:54:51</t>
+          <t>2025-05-12 11:40:34</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>2025-05-12 10:54:51</t>
+          <t>2025-05-12 11:40:34</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>2025-05-12 12:57:07</t>
+          <t>2025-05-12 12:51:13</t>
         </is>
       </c>
       <c r="I45" t="n">
-        <v>8681</v>
+        <v>4310</v>
       </c>
       <c r="J45" t="inlineStr">
         <is>
@@ -3881,11 +3803,11 @@
       </c>
       <c r="Q45" t="inlineStr">
         <is>
-          <t>2025-04-30 00:00:00</t>
+          <t>2025-05-08 00:00:00</t>
         </is>
       </c>
       <c r="R45" s="1" t="n">
-        <v>0</v>
+        <v>-4.535576047361111</v>
       </c>
       <c r="S45" t="n">
         <v>4</v>
@@ -3893,41 +3815,41 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>251594</v>
+        <v>243569</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>45</v>
+        <v>17</v>
       </c>
       <c r="D46" t="n">
-        <v>91.07042253521126</v>
+        <v>36.63380281690141</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>2025-05-12 11:09:59</t>
+          <t>2025-05-12 11:52:29</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>2025-05-12 11:54:59</t>
+          <t>2025-05-12 12:09:29</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>2025-05-12 11:54:59</t>
+          <t>2025-05-12 12:09:29</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>2025-05-12 13:26:03</t>
+          <t>2025-05-12 12:46:07</t>
         </is>
       </c>
       <c r="I46" t="n">
-        <v>6466</v>
+        <v>2601</v>
       </c>
       <c r="J46" t="inlineStr">
         <is>
@@ -3936,14 +3858,14 @@
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L46" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M46" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="O46" t="n">
         <v>0</v>
@@ -3953,49 +3875,49 @@
       </c>
       <c r="Q46" t="inlineStr">
         <is>
-          <t>2025-05-07 00:00:00</t>
+          <t>2024-09-16 00:00:00</t>
         </is>
       </c>
       <c r="R46" s="1" t="n">
-        <v>0</v>
+        <v>-238.5320324726158</v>
       </c>
       <c r="S46" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>244354</v>
+        <v>244355</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>R9</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>32.5</v>
+        <v>25</v>
       </c>
       <c r="D47" t="n">
-        <v>78.36363636363636</v>
+        <v>62.46376811594203</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>2025-05-12 11:44:35</t>
+          <t>2025-05-12 12:08:01</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>2025-05-12 12:17:05</t>
+          <t>2025-05-12 12:33:01</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>2025-05-12 12:17:05</t>
+          <t>2025-05-12 12:33:01</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>2025-05-12 13:35:27</t>
+          <t>2025-05-12 13:35:29</t>
         </is>
       </c>
       <c r="I47" t="n">
@@ -4029,7 +3951,7 @@
         </is>
       </c>
       <c r="R47" s="1" t="n">
-        <v>0</v>
+        <v>-4.566314412233797</v>
       </c>
       <c r="S47" t="n">
         <v>4</v>
@@ -4037,41 +3959,41 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>244355</v>
+        <v>244204</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="D48" t="n">
-        <v>70.65573770491804</v>
+        <v>48.90140845070422</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>2025-05-12 12:12:54</t>
+          <t>2025-05-12 12:11:49</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>2025-05-12 12:32:54</t>
+          <t>2025-05-12 12:51:49</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>2025-05-12 12:32:54</t>
+          <t>2025-05-12 12:51:49</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>2025-05-12 13:43:33</t>
+          <t>2025-05-12 13:40:43</t>
         </is>
       </c>
       <c r="I48" t="n">
-        <v>4310</v>
+        <v>3472</v>
       </c>
       <c r="J48" t="inlineStr">
         <is>
@@ -4101,7 +4023,7 @@
         </is>
       </c>
       <c r="R48" s="1" t="n">
-        <v>0</v>
+        <v>-4.569943270740741</v>
       </c>
       <c r="S48" t="n">
         <v>4</v>
@@ -4109,7 +4031,7 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>244204</v>
+        <v>251743</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
@@ -4120,7 +4042,7 @@
         <v>42</v>
       </c>
       <c r="D49" t="n">
-        <v>56.91803278688525</v>
+        <v>176.655737704918</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
@@ -4139,11 +4061,11 @@
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>2025-05-12 13:55:37</t>
+          <t>2025-05-13 07:55:21</t>
         </is>
       </c>
       <c r="I49" t="n">
-        <v>3472</v>
+        <v>10776</v>
       </c>
       <c r="J49" t="inlineStr">
         <is>
@@ -4169,7 +4091,7 @@
       </c>
       <c r="Q49" t="inlineStr">
         <is>
-          <t>2025-05-08 00:00:00</t>
+          <t>2025-05-16 00:00:00</t>
         </is>
       </c>
       <c r="R49" s="1" t="n">
@@ -4181,41 +4103,41 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>251743</v>
+        <v>251809</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C50" t="n">
-        <v>35</v>
+        <v>30.5</v>
       </c>
       <c r="D50" t="n">
-        <v>168.375</v>
+        <v>157.8363636363636</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>2025-05-12 12:56:16</t>
+          <t>2025-05-12 12:29:58</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>2025-05-12 13:31:16</t>
+          <t>2025-05-12 13:00:28</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>2025-05-12 13:31:16</t>
+          <t>2025-05-12 13:00:28</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>2025-05-13 08:19:39</t>
+          <t>2025-05-13 07:38:18</t>
         </is>
       </c>
       <c r="I50" t="n">
-        <v>10776</v>
+        <v>8681</v>
       </c>
       <c r="J50" t="inlineStr">
         <is>
@@ -4241,7 +4163,7 @@
       </c>
       <c r="Q50" t="inlineStr">
         <is>
-          <t>2025-05-16 00:00:00</t>
+          <t>2025-05-22 00:00:00</t>
         </is>
       </c>
       <c r="R50" s="1" t="n">
@@ -4253,41 +4175,41 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>251809</v>
+        <v>250819</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>R3</t>
         </is>
       </c>
       <c r="C51" t="n">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="D51" t="n">
-        <v>122.2676056338028</v>
+        <v>174.0204081632653</v>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>2025-05-12 12:57:07</t>
+          <t>2025-05-12 12:42:09</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>2025-05-12 13:12:07</t>
+          <t>2025-05-12 13:27:09</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>2025-05-12 13:12:07</t>
+          <t>2025-05-12 13:27:09</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>2025-05-13 07:14:23</t>
+          <t>2025-05-13 08:21:11</t>
         </is>
       </c>
       <c r="I51" t="n">
-        <v>8681</v>
+        <v>8527</v>
       </c>
       <c r="J51" t="inlineStr">
         <is>
@@ -4300,7 +4222,7 @@
         </is>
       </c>
       <c r="L51" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M51" t="n">
         <v>70</v>
@@ -4313,53 +4235,53 @@
       </c>
       <c r="Q51" t="inlineStr">
         <is>
-          <t>2025-05-22 00:00:00</t>
+          <t>2025-04-18 00:00:00</t>
         </is>
       </c>
       <c r="R51" s="1" t="n">
-        <v>0</v>
+        <v>-25.34804421768519</v>
       </c>
       <c r="S51" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>251109</v>
+        <v>245623</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C52" t="n">
-        <v>95</v>
+        <v>32</v>
       </c>
       <c r="D52" t="n">
-        <v>266.5915492957747</v>
+        <v>372.0985915492957</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>2025-05-12 13:26:03</t>
+          <t>2025-05-12 12:46:07</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>2025-05-13 07:01:03</t>
+          <t>2025-05-12 13:18:07</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>2025-05-13 07:01:03</t>
+          <t>2025-05-12 13:18:07</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>2025-05-13 11:27:38</t>
+          <t>2025-05-13 11:30:13</t>
         </is>
       </c>
       <c r="I52" t="n">
-        <v>18928</v>
+        <v>26419</v>
       </c>
       <c r="J52" t="inlineStr">
         <is>
@@ -4368,14 +4290,14 @@
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L52" t="n">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="M52" t="n">
-        <v>70</v>
+        <v>152</v>
       </c>
       <c r="O52" t="n">
         <v>0</v>
@@ -4385,11 +4307,11 @@
       </c>
       <c r="Q52" t="inlineStr">
         <is>
-          <t>2025-04-18 00:00:00</t>
+          <t>2025-01-25 00:00:00</t>
         </is>
       </c>
       <c r="R52" s="1" t="n">
-        <v>0</v>
+        <v>-108.4793231611921</v>
       </c>
       <c r="S52" t="n">
         <v>2</v>
@@ -4397,41 +4319,41 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>250819</v>
+        <v>251485</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C53" t="n">
-        <v>34.5</v>
+        <v>25</v>
       </c>
       <c r="D53" t="n">
-        <v>155.0363636363636</v>
+        <v>78.81967213114754</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>2025-05-12 13:35:27</t>
+          <t>2025-05-12 12:51:13</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>2025-05-12 14:09:57</t>
+          <t>2025-05-12 13:16:13</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>2025-05-12 14:09:57</t>
+          <t>2025-05-12 13:16:13</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>2025-05-13 08:44:59</t>
+          <t>2025-05-12 14:35:02</t>
         </is>
       </c>
       <c r="I53" t="n">
-        <v>8527</v>
+        <v>4808</v>
       </c>
       <c r="J53" t="inlineStr">
         <is>
@@ -4444,7 +4366,7 @@
         </is>
       </c>
       <c r="L53" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="M53" t="n">
         <v>70</v>
@@ -4457,11 +4379,11 @@
       </c>
       <c r="Q53" t="inlineStr">
         <is>
-          <t>2025-04-18 00:00:00</t>
+          <t>2025-04-23 00:00:00</t>
         </is>
       </c>
       <c r="R53" s="1" t="n">
-        <v>0</v>
+        <v>-19.60767304189815</v>
       </c>
       <c r="S53" t="n">
         <v>2</v>
@@ -4469,41 +4391,41 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>251485</v>
+        <v>251346</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C54" t="n">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="D54" t="n">
-        <v>78.81967213114754</v>
+        <v>54.35211267605634</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>2025-05-12 13:43:33</t>
+          <t>2025-05-12 13:30:23</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>2025-05-12 14:08:33</t>
+          <t>2025-05-12 13:49:23</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>2025-05-12 14:08:33</t>
+          <t>2025-05-12 13:49:23</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>2025-05-13 07:27:22</t>
+          <t>2025-05-12 14:43:44</t>
         </is>
       </c>
       <c r="I54" t="n">
-        <v>4808</v>
+        <v>3859</v>
       </c>
       <c r="J54" t="inlineStr">
         <is>
@@ -4516,7 +4438,7 @@
         </is>
       </c>
       <c r="L54" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="M54" t="n">
         <v>70</v>
@@ -4529,11 +4451,11 @@
       </c>
       <c r="Q54" t="inlineStr">
         <is>
-          <t>2025-04-23 00:00:00</t>
+          <t>2025-04-28 00:00:00</t>
         </is>
       </c>
       <c r="R54" s="1" t="n">
-        <v>0</v>
+        <v>-14.61371283254629</v>
       </c>
       <c r="S54" t="n">
         <v>2</v>
@@ -4541,41 +4463,41 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>251346</v>
+        <v>250641</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>R9</t>
         </is>
       </c>
       <c r="C55" t="n">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D55" t="n">
-        <v>63.26229508196721</v>
+        <v>74.14492753623189</v>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>2025-05-12 13:55:37</t>
+          <t>2025-05-12 13:35:29</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>2025-05-12 14:28:37</t>
+          <t>2025-05-12 14:10:29</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>2025-05-12 14:28:37</t>
+          <t>2025-05-12 14:10:29</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>2025-05-13 07:31:53</t>
+          <t>2025-05-13 07:24:38</t>
         </is>
       </c>
       <c r="I55" t="n">
-        <v>3859</v>
+        <v>5116</v>
       </c>
       <c r="J55" t="inlineStr">
         <is>
@@ -4588,7 +4510,7 @@
         </is>
       </c>
       <c r="L55" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="M55" t="n">
         <v>70</v>
@@ -4605,7 +4527,7 @@
         </is>
       </c>
       <c r="R55" s="1" t="n">
-        <v>0</v>
+        <v>-15.30877616747685</v>
       </c>
       <c r="S55" t="n">
         <v>2</v>
@@ -4613,41 +4535,41 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>250641</v>
+        <v>251109</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>R9</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="C56" t="n">
-        <v>45</v>
+        <v>95</v>
       </c>
       <c r="D56" t="n">
-        <v>74.14492753623189</v>
+        <v>266.5915492957747</v>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>2025-05-12 14:50:21</t>
+          <t>2025-05-12 13:40:43</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>2025-05-13 07:35:21</t>
+          <t>2025-05-13 07:15:43</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>2025-05-13 07:35:21</t>
+          <t>2025-05-13 07:15:43</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>2025-05-13 08:49:30</t>
+          <t>2025-05-13 11:42:18</t>
         </is>
       </c>
       <c r="I56" t="n">
-        <v>5116</v>
+        <v>18928</v>
       </c>
       <c r="J56" t="inlineStr">
         <is>
@@ -4656,11 +4578,11 @@
       </c>
       <c r="K56" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="L56" t="n">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="M56" t="n">
         <v>70</v>
@@ -4673,11 +4595,11 @@
       </c>
       <c r="Q56" t="inlineStr">
         <is>
-          <t>2025-04-28 00:00:00</t>
+          <t>2025-04-18 00:00:00</t>
         </is>
       </c>
       <c r="R56" s="1" t="n">
-        <v>0</v>
+        <v>-25.48771517996527</v>
       </c>
       <c r="S56" t="n">
         <v>2</v>
@@ -4689,33 +4611,33 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>R3</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C57" t="n">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="D57" t="n">
-        <v>31.89795918367347</v>
+        <v>24.421875</v>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>2025-05-13 07:10:42</t>
+          <t>2025-05-12 13:44:10</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>2025-05-13 07:52:42</t>
+          <t>2025-05-12 14:34:10</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>2025-05-13 07:52:42</t>
+          <t>2025-05-12 14:34:10</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>2025-05-13 08:24:36</t>
+          <t>2025-05-12 14:58:35</t>
         </is>
       </c>
       <c r="I57" t="n">
@@ -4749,7 +4671,7 @@
         </is>
       </c>
       <c r="R57" s="1" t="n">
-        <v>0</v>
+        <v>-7.6240234375</v>
       </c>
       <c r="S57" t="n">
         <v>2</v>
@@ -4761,33 +4683,33 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C58" t="n">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="D58" t="n">
-        <v>70.4225352112676</v>
+        <v>81.9672131147541</v>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>2025-05-13 07:14:23</t>
+          <t>2025-05-12 14:35:02</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>2025-05-13 07:39:23</t>
+          <t>2025-05-13 07:15:02</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>2025-05-13 07:39:23</t>
+          <t>2025-05-13 07:15:02</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>2025-05-13 08:49:49</t>
+          <t>2025-05-13 08:37:00</t>
         </is>
       </c>
       <c r="I58" t="n">
@@ -4821,7 +4743,7 @@
         </is>
       </c>
       <c r="R58" s="1" t="n">
-        <v>0</v>
+        <v>-7.359039162118055</v>
       </c>
       <c r="S58" t="n">
         <v>2</v>
@@ -4829,41 +4751,41 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>243335</v>
+        <v>251761</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C59" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="D59" t="n">
-        <v>464.8450704225352</v>
+        <v>187.0281690140845</v>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>2025-05-13 07:17:44</t>
+          <t>2025-05-12 14:43:44</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>2025-05-13 07:36:44</t>
+          <t>2025-05-13 07:06:44</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>2025-05-13 07:36:44</t>
+          <t>2025-05-13 07:06:44</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>2025-05-14 07:21:35</t>
+          <t>2025-05-13 10:13:46</t>
         </is>
       </c>
       <c r="I59" t="n">
-        <v>33004</v>
+        <v>13279</v>
       </c>
       <c r="J59" t="inlineStr">
         <is>
@@ -4872,14 +4794,14 @@
       </c>
       <c r="K59" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L59" t="n">
         <v>4</v>
       </c>
       <c r="M59" t="n">
-        <v>152</v>
+        <v>70</v>
       </c>
       <c r="O59" t="n">
         <v>0</v>
@@ -4889,53 +4811,53 @@
       </c>
       <c r="Q59" t="inlineStr">
         <is>
-          <t>2024-08-02 00:00:00</t>
+          <t>2025-05-19 00:00:00</t>
         </is>
       </c>
       <c r="R59" s="1" t="n">
         <v>0</v>
       </c>
       <c r="S59" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>251761</v>
+        <v>243335</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C60" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D60" t="n">
-        <v>217.6885245901639</v>
+        <v>515.6875</v>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>2025-05-13 07:27:22</t>
+          <t>2025-05-12 14:58:35</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>2025-05-13 07:52:22</t>
+          <t>2025-05-13 07:28:35</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>2025-05-13 07:52:22</t>
+          <t>2025-05-13 07:28:35</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>2025-05-13 11:30:03</t>
+          <t>2025-05-14 08:04:16</t>
         </is>
       </c>
       <c r="I60" t="n">
-        <v>13279</v>
+        <v>33004</v>
       </c>
       <c r="J60" t="inlineStr">
         <is>
@@ -4944,14 +4866,14 @@
       </c>
       <c r="K60" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L60" t="n">
         <v>4</v>
       </c>
       <c r="M60" t="n">
-        <v>70</v>
+        <v>152</v>
       </c>
       <c r="O60" t="n">
         <v>0</v>
@@ -4961,14 +4883,14 @@
       </c>
       <c r="Q60" t="inlineStr">
         <is>
-          <t>2025-05-19 00:00:00</t>
+          <t>2024-08-02 00:00:00</t>
         </is>
       </c>
       <c r="R60" s="1" t="n">
-        <v>0</v>
+        <v>-285.3363064236111</v>
       </c>
       <c r="S60" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61">
@@ -4977,33 +4899,33 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>R9</t>
         </is>
       </c>
       <c r="C61" t="n">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D61" t="n">
-        <v>16.34426229508197</v>
+        <v>14.44927536231884</v>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>2025-05-13 07:31:53</t>
+          <t>2025-05-13 07:24:38</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>2025-05-13 08:00:53</t>
+          <t>2025-05-13 07:49:38</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>2025-05-13 08:00:53</t>
+          <t>2025-05-13 07:49:38</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>2025-05-13 08:17:13</t>
+          <t>2025-05-13 08:04:05</t>
         </is>
       </c>
       <c r="I61" t="n">
@@ -5037,7 +4959,7 @@
         </is>
       </c>
       <c r="R61" s="1" t="n">
-        <v>0</v>
+        <v>-225.336171497581</v>
       </c>
       <c r="S61" t="n">
         <v>1</v>
@@ -5049,33 +4971,33 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C62" t="n">
-        <v>25</v>
+        <v>34.5</v>
       </c>
       <c r="D62" t="n">
-        <v>12.36065573770492</v>
+        <v>13.70909090909091</v>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>2025-05-13 08:17:13</t>
+          <t>2025-05-13 07:38:18</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>2025-05-13 08:42:13</t>
+          <t>2025-05-13 08:12:48</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>2025-05-13 08:42:13</t>
+          <t>2025-05-13 08:12:48</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>2025-05-13 08:54:35</t>
+          <t>2025-05-13 08:26:31</t>
         </is>
       </c>
       <c r="I62" t="n">
@@ -5109,7 +5031,7 @@
         </is>
       </c>
       <c r="R62" s="1" t="n">
-        <v>0</v>
+        <v>-56.35174873737268</v>
       </c>
       <c r="S62" t="n">
         <v>1</v>
@@ -5121,33 +5043,33 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>BIMEC 4</t>
         </is>
       </c>
       <c r="C63" t="n">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="D63" t="n">
-        <v>11.78125</v>
+        <v>12.36065573770492</v>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>2025-05-13 08:19:39</t>
+          <t>2025-05-13 07:55:21</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>2025-05-13 08:38:39</t>
+          <t>2025-05-13 08:24:21</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>2025-05-13 08:38:39</t>
+          <t>2025-05-13 08:24:21</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>2025-05-13 08:50:26</t>
+          <t>2025-05-13 08:36:43</t>
         </is>
       </c>
       <c r="I63" t="n">
@@ -5181,7 +5103,7 @@
         </is>
       </c>
       <c r="R63" s="1" t="n">
-        <v>0</v>
+        <v>-46.35883424408565</v>
       </c>
       <c r="S63" t="n">
         <v>1</v>
@@ -5193,33 +5115,33 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>R3</t>
+          <t>R9</t>
         </is>
       </c>
       <c r="C64" t="n">
-        <v>47</v>
+        <v>25</v>
       </c>
       <c r="D64" t="n">
-        <v>489.734693877551</v>
+        <v>347.7826086956522</v>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>2025-05-13 08:24:36</t>
+          <t>2025-05-13 08:04:05</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>2025-05-13 09:11:36</t>
+          <t>2025-05-13 08:29:05</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>2025-05-13 09:11:36</t>
+          <t>2025-05-13 08:29:05</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>2025-05-14 09:21:20</t>
+          <t>2025-05-13 14:16:52</t>
         </is>
       </c>
       <c r="I64" t="n">
@@ -5253,7 +5175,7 @@
         </is>
       </c>
       <c r="R64" s="1" t="n">
-        <v>0</v>
+        <v>-8.595048309178241</v>
       </c>
       <c r="S64" t="n">
         <v>1</v>
@@ -5265,33 +5187,33 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>R3</t>
         </is>
       </c>
       <c r="C65" t="n">
-        <v>30.5</v>
+        <v>35</v>
       </c>
       <c r="D65" t="n">
-        <v>489.7090909090909</v>
+        <v>549.6734693877551</v>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>2025-05-13 08:44:59</t>
+          <t>2025-05-13 08:21:11</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>2025-05-13 09:15:29</t>
+          <t>2025-05-13 08:56:11</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>2025-05-13 09:15:29</t>
+          <t>2025-05-13 08:56:11</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>2025-05-14 09:25:12</t>
+          <t>2025-05-14 10:05:51</t>
         </is>
       </c>
       <c r="I65" t="n">
@@ -5325,7 +5247,7 @@
         </is>
       </c>
       <c r="R65" s="1" t="n">
-        <v>0</v>
+        <v>-5.420734126979166</v>
       </c>
       <c r="S65" t="n">
         <v>1</v>
@@ -5337,33 +5259,33 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>R9</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C66" t="n">
-        <v>25</v>
+        <v>30.5</v>
       </c>
       <c r="D66" t="n">
-        <v>173.9420289855072</v>
+        <v>218.2181818181818</v>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>2025-05-13 08:49:30</t>
+          <t>2025-05-13 08:26:31</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>2025-05-13 09:14:30</t>
+          <t>2025-05-13 08:57:01</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>2025-05-13 09:14:30</t>
+          <t>2025-05-13 08:57:01</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>2025-05-13 12:08:26</t>
+          <t>2025-05-13 12:35:14</t>
         </is>
       </c>
       <c r="I66" t="n">
@@ -5397,7 +5319,7 @@
         </is>
       </c>
       <c r="R66" s="1" t="n">
-        <v>0</v>
+        <v>-4.524469696967593</v>
       </c>
       <c r="S66" t="n">
         <v>1</v>
@@ -5409,33 +5331,33 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>BIMEC 4</t>
         </is>
       </c>
       <c r="C67" t="n">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D67" t="n">
-        <v>78.40845070422536</v>
+        <v>91.26229508196721</v>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>2025-05-13 08:49:49</t>
+          <t>2025-05-13 08:36:43</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>2025-05-13 09:16:49</t>
+          <t>2025-05-13 09:07:43</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>2025-05-13 09:16:49</t>
+          <t>2025-05-13 09:07:43</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>2025-05-13 10:35:13</t>
+          <t>2025-05-13 10:38:59</t>
         </is>
       </c>
       <c r="I67" t="n">
@@ -5469,7 +5391,7 @@
         </is>
       </c>
       <c r="R67" s="1" t="n">
-        <v>0</v>
+        <v>-4.443738615659723</v>
       </c>
       <c r="S67" t="n">
         <v>1</v>
@@ -5481,33 +5403,33 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C68" t="n">
-        <v>19</v>
+        <v>45</v>
       </c>
       <c r="D68" t="n">
-        <v>108.859375</v>
+        <v>114.2131147540984</v>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>2025-05-13 08:50:26</t>
+          <t>2025-05-13 08:37:00</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>2025-05-13 09:09:26</t>
+          <t>2025-05-13 09:22:00</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>2025-05-13 09:09:26</t>
+          <t>2025-05-13 09:22:00</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>2025-05-13 10:58:17</t>
+          <t>2025-05-13 11:16:13</t>
         </is>
       </c>
       <c r="I68" t="n">
@@ -5541,7 +5463,7 @@
         </is>
       </c>
       <c r="R68" s="1" t="n">
-        <v>0</v>
+        <v>-4.469603825138889</v>
       </c>
       <c r="S68" t="n">
         <v>1</v>
@@ -5553,33 +5475,33 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C69" t="n">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="D69" t="n">
-        <v>117.2622950819672</v>
+        <v>100.7464788732394</v>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>2025-05-13 08:54:35</t>
+          <t>2025-05-13 10:13:46</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>2025-05-13 09:23:35</t>
+          <t>2025-05-13 10:28:46</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>2025-05-13 09:23:35</t>
+          <t>2025-05-13 10:28:46</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>2025-05-13 11:20:51</t>
+          <t>2025-05-13 12:09:31</t>
         </is>
       </c>
       <c r="I69" t="n">
@@ -5613,7 +5535,7 @@
         </is>
       </c>
       <c r="R69" s="1" t="n">
-        <v>0</v>
+        <v>-4.506611893587963</v>
       </c>
       <c r="S69" t="n">
         <v>1</v>
@@ -5625,33 +5547,33 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>BIMEC 4</t>
         </is>
       </c>
       <c r="C70" t="n">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="D70" t="n">
-        <v>87.69014084507042</v>
+        <v>102.0655737704918</v>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>2025-05-13 10:35:13</t>
+          <t>2025-05-13 10:38:59</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>2025-05-13 10:52:13</t>
+          <t>2025-05-13 11:05:59</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>2025-05-13 10:52:13</t>
+          <t>2025-05-13 11:05:59</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>2025-05-13 12:19:54</t>
+          <t>2025-05-13 12:48:02</t>
         </is>
       </c>
       <c r="I70" t="n">
@@ -5685,7 +5607,7 @@
         </is>
       </c>
       <c r="R70" s="1" t="n">
-        <v>0</v>
+        <v>-4.533367486342593</v>
       </c>
       <c r="S70" t="n">
         <v>1</v>
@@ -5697,33 +5619,33 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C71" t="n">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="D71" t="n">
-        <v>97.28125</v>
+        <v>102.0655737704918</v>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>2025-05-13 10:58:17</t>
+          <t>2025-05-13 11:16:13</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>2025-05-13 11:17:17</t>
+          <t>2025-05-13 11:46:13</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>2025-05-13 11:17:17</t>
+          <t>2025-05-13 11:46:13</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>2025-05-13 12:54:34</t>
+          <t>2025-05-13 13:28:17</t>
         </is>
       </c>
       <c r="I71" t="n">
@@ -5757,7 +5679,7 @@
         </is>
       </c>
       <c r="R71" s="1" t="n">
-        <v>0</v>
+        <v>-4.561316029143518</v>
       </c>
       <c r="S71" t="n">
         <v>1</v>
@@ -5765,41 +5687,41 @@
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>251467</v>
+        <v>251750</v>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C72" t="n">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="D72" t="n">
-        <v>102.0655737704918</v>
+        <v>54.80281690140845</v>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>2025-05-13 11:20:51</t>
+          <t>2025-05-13 11:30:13</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>2025-05-13 11:49:51</t>
+          <t>2025-05-13 11:47:13</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>2025-05-13 11:49:51</t>
+          <t>2025-05-13 11:47:13</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>2025-05-13 13:31:55</t>
+          <t>2025-05-13 12:42:01</t>
         </is>
       </c>
       <c r="I72" t="n">
-        <v>6226</v>
+        <v>3891</v>
       </c>
       <c r="J72" t="inlineStr">
         <is>
@@ -5808,14 +5730,14 @@
       </c>
       <c r="K72" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L72" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M72" t="n">
-        <v>70</v>
+        <v>152</v>
       </c>
       <c r="O72" t="n">
         <v>0</v>
@@ -5825,7 +5747,7 @@
       </c>
       <c r="Q72" t="inlineStr">
         <is>
-          <t>2025-05-09 00:00:00</t>
+          <t>2025-05-26 00:00:00</t>
         </is>
       </c>
       <c r="R72" s="1" t="n">
@@ -5837,7 +5759,7 @@
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>251520</v>
+        <v>251467</v>
       </c>
       <c r="B73" t="inlineStr">
         <is>
@@ -5845,33 +5767,33 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>80</v>
+        <v>105</v>
       </c>
       <c r="D73" t="n">
-        <v>230.1408450704225</v>
+        <v>87.69014084507042</v>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>2025-05-13 11:27:38</t>
+          <t>2025-05-13 11:42:18</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>2025-05-13 12:47:38</t>
+          <t>2025-05-13 13:27:18</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>2025-05-13 12:47:38</t>
+          <t>2025-05-13 13:27:18</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>2025-05-14 08:37:47</t>
+          <t>2025-05-13 14:55:00</t>
         </is>
       </c>
       <c r="I73" t="n">
-        <v>16340</v>
+        <v>6226</v>
       </c>
       <c r="J73" t="inlineStr">
         <is>
@@ -5880,11 +5802,11 @@
       </c>
       <c r="K73" t="inlineStr">
         <is>
-          <t>CASON ;R6</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L73" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="M73" t="n">
         <v>70</v>
@@ -5897,11 +5819,11 @@
       </c>
       <c r="Q73" t="inlineStr">
         <is>
-          <t>2025-05-12 00:00:00</t>
+          <t>2025-05-09 00:00:00</t>
         </is>
       </c>
       <c r="R73" s="1" t="n">
-        <v>0</v>
+        <v>-4.621527777777778</v>
       </c>
       <c r="S73" t="n">
         <v>1</v>
@@ -5913,33 +5835,33 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C74" t="n">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="D74" t="n">
-        <v>448.2459016393443</v>
+        <v>385.112676056338</v>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>2025-05-13 11:30:03</t>
+          <t>2025-05-13 12:09:31</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>2025-05-13 12:05:03</t>
+          <t>2025-05-13 12:30:31</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>2025-05-13 12:05:03</t>
+          <t>2025-05-13 12:30:31</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>2025-05-14 11:33:18</t>
+          <t>2025-05-14 10:55:38</t>
         </is>
       </c>
       <c r="I74" t="n">
@@ -5981,41 +5903,41 @@
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>251580</v>
+        <v>251520</v>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>R9</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C75" t="n">
-        <v>35</v>
+        <v>32.5</v>
       </c>
       <c r="D75" t="n">
-        <v>103.6666666666667</v>
+        <v>297.0909090909091</v>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>2025-05-13 12:08:26</t>
+          <t>2025-05-13 12:35:14</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>2025-05-13 12:43:26</t>
+          <t>2025-05-13 13:07:44</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>2025-05-13 12:43:26</t>
+          <t>2025-05-13 13:07:44</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>2025-05-13 14:27:06</t>
+          <t>2025-05-14 10:04:49</t>
         </is>
       </c>
       <c r="I75" t="n">
-        <v>7153</v>
+        <v>16340</v>
       </c>
       <c r="J75" t="inlineStr">
         <is>
@@ -6024,11 +5946,11 @@
       </c>
       <c r="K75" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>CASON ;R6</t>
         </is>
       </c>
       <c r="L75" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="M75" t="n">
         <v>70</v>
@@ -6041,11 +5963,11 @@
       </c>
       <c r="Q75" t="inlineStr">
         <is>
-          <t>2025-05-15 00:00:00</t>
+          <t>2025-05-12 00:00:00</t>
         </is>
       </c>
       <c r="R75" s="1" t="n">
-        <v>0</v>
+        <v>-2.420018939398148</v>
       </c>
       <c r="S75" t="n">
         <v>1</v>
@@ -6053,41 +5975,41 @@
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>251557</v>
+        <v>251987</v>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C76" t="n">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="D76" t="n">
-        <v>94.43661971830986</v>
+        <v>2965.154929577465</v>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>2025-05-13 12:19:54</t>
+          <t>2025-05-13 12:42:01</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>2025-05-13 12:34:54</t>
+          <t>2025-05-13 13:18:01</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>2025-05-13 12:34:54</t>
+          <t>2025-05-13 13:18:01</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>2025-05-13 14:09:21</t>
+          <t>2025-05-21 14:43:10</t>
         </is>
       </c>
       <c r="I76" t="n">
-        <v>6705</v>
+        <v>210526</v>
       </c>
       <c r="J76" t="inlineStr">
         <is>
@@ -6096,14 +6018,14 @@
       </c>
       <c r="K76" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R9</t>
         </is>
       </c>
       <c r="L76" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="M76" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="O76" t="n">
         <v>0</v>
@@ -6113,7 +6035,7 @@
       </c>
       <c r="Q76" t="inlineStr">
         <is>
-          <t>2025-05-15 00:00:00</t>
+          <t>2025-09-01 00:00:00</t>
         </is>
       </c>
       <c r="R76" s="1" t="n">
@@ -6125,41 +6047,41 @@
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>251562</v>
+        <v>251580</v>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>BIMEC 4</t>
         </is>
       </c>
       <c r="C77" t="n">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="D77" t="n">
-        <v>127.21875</v>
+        <v>117.2622950819672</v>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>2025-05-13 12:54:34</t>
+          <t>2025-05-13 12:48:02</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>2025-05-13 13:09:34</t>
+          <t>2025-05-13 13:17:02</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>2025-05-13 13:09:34</t>
+          <t>2025-05-13 13:17:02</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>2025-05-14 07:16:47</t>
+          <t>2025-05-14 07:14:18</t>
         </is>
       </c>
       <c r="I77" t="n">
-        <v>8142</v>
+        <v>7153</v>
       </c>
       <c r="J77" t="inlineStr">
         <is>
@@ -6172,7 +6094,7 @@
         </is>
       </c>
       <c r="L77" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M77" t="n">
         <v>70</v>
@@ -6197,41 +6119,41 @@
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>251260</v>
+        <v>251557</v>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C78" t="n">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="D78" t="n">
-        <v>153.5901639344262</v>
+        <v>109.9180327868852</v>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>2025-05-13 13:31:55</t>
+          <t>2025-05-13 13:28:17</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>2025-05-13 14:04:55</t>
+          <t>2025-05-13 13:48:17</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>2025-05-13 14:04:55</t>
+          <t>2025-05-13 13:48:17</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>2025-05-14 08:38:30</t>
+          <t>2025-05-14 07:38:12</t>
         </is>
       </c>
       <c r="I78" t="n">
-        <v>9369</v>
+        <v>6705</v>
       </c>
       <c r="J78" t="inlineStr">
         <is>
@@ -6240,11 +6162,11 @@
       </c>
       <c r="K78" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L78" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="M78" t="n">
         <v>70</v>
@@ -6257,7 +6179,7 @@
       </c>
       <c r="Q78" t="inlineStr">
         <is>
-          <t>2025-05-22 00:00:00</t>
+          <t>2025-05-15 00:00:00</t>
         </is>
       </c>
       <c r="R78" s="1" t="n">
@@ -6269,41 +6191,41 @@
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>251062</v>
+        <v>251562</v>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>R9</t>
         </is>
       </c>
       <c r="C79" t="n">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="D79" t="n">
-        <v>318.6478873239437</v>
+        <v>118</v>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>2025-05-13 14:09:21</t>
+          <t>2025-05-13 14:16:52</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>2025-05-13 14:32:21</t>
+          <t>2025-05-14 07:01:52</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>2025-05-13 14:32:21</t>
+          <t>2025-05-14 07:01:52</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>2025-05-14 11:51:00</t>
+          <t>2025-05-14 08:59:52</t>
         </is>
       </c>
       <c r="I79" t="n">
-        <v>22624</v>
+        <v>8142</v>
       </c>
       <c r="J79" t="inlineStr">
         <is>
@@ -6312,11 +6234,11 @@
       </c>
       <c r="K79" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L79" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="M79" t="n">
         <v>70</v>
@@ -6329,7 +6251,7 @@
       </c>
       <c r="Q79" t="inlineStr">
         <is>
-          <t>2025-05-23 00:00:00</t>
+          <t>2025-05-15 00:00:00</t>
         </is>
       </c>
       <c r="R79" s="1" t="n">
@@ -6341,41 +6263,41 @@
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>251252</v>
+        <v>251260</v>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>R9</t>
+          <t>BIMEC 4</t>
         </is>
       </c>
       <c r="C80" t="n">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="D80" t="n">
-        <v>218.5942028985507</v>
+        <v>153.5901639344262</v>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>2025-05-13 14:27:06</t>
+          <t>2025-05-14 07:14:18</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>2025-05-14 07:02:06</t>
+          <t>2025-05-14 07:43:18</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>2025-05-14 07:02:06</t>
+          <t>2025-05-14 07:43:18</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>2025-05-14 10:40:42</t>
+          <t>2025-05-14 10:16:54</t>
         </is>
       </c>
       <c r="I80" t="n">
-        <v>15083</v>
+        <v>9369</v>
       </c>
       <c r="J80" t="inlineStr">
         <is>
@@ -6384,7 +6306,7 @@
       </c>
       <c r="K80" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R9</t>
         </is>
       </c>
       <c r="L80" t="n">
@@ -6401,7 +6323,7 @@
       </c>
       <c r="Q80" t="inlineStr">
         <is>
-          <t>2025-05-23 00:00:00</t>
+          <t>2025-05-22 00:00:00</t>
         </is>
       </c>
       <c r="R80" s="1" t="n">
@@ -6413,41 +6335,41 @@
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>251251</v>
+        <v>251062</v>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C81" t="n">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="D81" t="n">
-        <v>247.8125</v>
+        <v>370.8852459016393</v>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>2025-05-14 07:16:47</t>
+          <t>2025-05-14 07:38:12</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>2025-05-14 07:39:47</t>
+          <t>2025-05-14 08:18:12</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>2025-05-14 07:39:47</t>
+          <t>2025-05-14 08:18:12</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>2025-05-14 11:47:36</t>
+          <t>2025-05-14 14:29:05</t>
         </is>
       </c>
       <c r="I81" t="n">
-        <v>15860</v>
+        <v>22624</v>
       </c>
       <c r="J81" t="inlineStr">
         <is>
@@ -6485,41 +6407,41 @@
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>251750</v>
+        <v>251252</v>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C82" t="n">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="D82" t="n">
-        <v>54.80281690140845</v>
+        <v>235.671875</v>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>2025-05-14 07:21:35</t>
+          <t>2025-05-14 08:04:16</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>2025-05-14 07:38:35</t>
+          <t>2025-05-14 08:38:16</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>2025-05-14 07:38:35</t>
+          <t>2025-05-14 08:38:16</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>2025-05-14 08:33:23</t>
+          <t>2025-05-14 12:33:57</t>
         </is>
       </c>
       <c r="I82" t="n">
-        <v>3891</v>
+        <v>15083</v>
       </c>
       <c r="J82" t="inlineStr">
         <is>
@@ -6528,14 +6450,14 @@
       </c>
       <c r="K82" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
         </is>
       </c>
       <c r="L82" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="M82" t="n">
-        <v>152</v>
+        <v>70</v>
       </c>
       <c r="O82" t="n">
         <v>0</v>
@@ -6545,7 +6467,7 @@
       </c>
       <c r="Q82" t="inlineStr">
         <is>
-          <t>2025-05-26 00:00:00</t>
+          <t>2025-05-23 00:00:00</t>
         </is>
       </c>
       <c r="R82" s="1" t="n">
@@ -6557,41 +6479,41 @@
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>251987</v>
+        <v>251251</v>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>R9</t>
         </is>
       </c>
       <c r="C83" t="n">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="D83" t="n">
-        <v>2965.154929577465</v>
+        <v>229.8550724637681</v>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>2025-05-14 08:33:23</t>
+          <t>2025-05-14 08:59:52</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>2025-05-14 09:09:23</t>
+          <t>2025-05-14 09:44:52</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>2025-05-14 09:09:23</t>
+          <t>2025-05-14 09:44:52</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>2025-05-22 10:34:32</t>
+          <t>2025-05-14 13:34:43</t>
         </is>
       </c>
       <c r="I83" t="n">
-        <v>210526</v>
+        <v>15860</v>
       </c>
       <c r="J83" t="inlineStr">
         <is>
@@ -6600,14 +6522,14 @@
       </c>
       <c r="K83" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
         </is>
       </c>
       <c r="L83" t="n">
         <v>6</v>
       </c>
       <c r="M83" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="O83" t="n">
         <v>0</v>
@@ -6617,7 +6539,7 @@
       </c>
       <c r="Q83" t="inlineStr">
         <is>
-          <t>2025-09-01 00:00:00</t>
+          <t>2025-05-23 00:00:00</t>
         </is>
       </c>
       <c r="R83" s="1" t="n">
@@ -6633,33 +6555,33 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C84" t="n">
-        <v>25</v>
+        <v>32.5</v>
       </c>
       <c r="D84" t="n">
-        <v>78</v>
+        <v>86.50909090909092</v>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>2025-05-14 08:38:30</t>
+          <t>2025-05-14 10:04:49</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>2025-05-14 09:03:30</t>
+          <t>2025-05-14 10:37:19</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>2025-05-14 09:03:30</t>
+          <t>2025-05-14 10:37:19</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>2025-05-14 10:21:30</t>
+          <t>2025-05-14 12:03:50</t>
         </is>
       </c>
       <c r="I84" t="n">
@@ -6705,33 +6627,33 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>BIMEC 4</t>
         </is>
       </c>
       <c r="C85" t="n">
-        <v>30.5</v>
+        <v>25</v>
       </c>
       <c r="D85" t="n">
-        <v>340.7090909090909</v>
+        <v>307.1967213114754</v>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>2025-05-14 09:25:12</t>
+          <t>2025-05-14 10:16:54</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>2025-05-14 09:55:42</t>
+          <t>2025-05-14 10:41:54</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>2025-05-14 09:55:42</t>
+          <t>2025-05-14 10:41:54</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>2025-05-15 07:36:24</t>
+          <t>2025-05-15 07:49:05</t>
         </is>
       </c>
       <c r="I85" t="n">
@@ -6777,33 +6699,33 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C86" t="n">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="D86" t="n">
-        <v>8470.786885245901</v>
+        <v>7277.718309859155</v>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>2025-05-14 10:21:30</t>
+          <t>2025-05-14 10:55:38</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>2025-05-14 11:03:30</t>
+          <t>2025-05-14 11:29:38</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>2025-05-14 11:03:30</t>
+          <t>2025-05-14 11:29:38</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>2025-06-09 08:14:17</t>
+          <t>2025-06-04 12:47:21</t>
         </is>
       </c>
       <c r="I86" t="n">
@@ -6849,33 +6771,33 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>R9</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C87" t="n">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="D87" t="n">
-        <v>1777.753623188406</v>
+        <v>1916.640625</v>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>2025-05-14 10:40:42</t>
+          <t>2025-05-14 12:33:57</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>2025-05-14 11:20:42</t>
+          <t>2025-05-14 13:07:57</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>2025-05-14 11:20:42</t>
+          <t>2025-05-14 13:07:57</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>2025-05-20 08:58:27</t>
+          <t>2025-05-20 13:04:35</t>
         </is>
       </c>
       <c r="I87" t="n">

--- a/PS-VRP/Dati_output/euristico_post.xlsx
+++ b/PS-VRP/Dati_output/euristico_post.xlsx
@@ -1753,41 +1753,41 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>251651</v>
+        <v>251416</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>R3</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="D18" t="n">
-        <v>767.7049180327868</v>
+        <v>229.0204081632653</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>2025-05-09 07:00:00</t>
+          <t>2025-05-08 07:00:00</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>2025-05-09 07:29:00</t>
+          <t>2025-05-08 07:35:00</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>2025-05-09 07:29:00</t>
+          <t>2025-05-08 07:35:00</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>2025-05-12 12:16:42</t>
+          <t>2025-05-08 11:24:01</t>
         </is>
       </c>
       <c r="I18" t="n">
-        <v>46830</v>
+        <v>11222</v>
       </c>
       <c r="J18" t="inlineStr">
         <is>
@@ -1796,14 +1796,14 @@
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L18" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="M18" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="N18" t="n">
         <v>39755</v>
@@ -1816,14 +1816,14 @@
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>2025-05-12 00:00:00</t>
+          <t>2025-04-23 00:00:00</t>
         </is>
       </c>
       <c r="R18" s="1" t="n">
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19">
@@ -2444,41 +2444,41 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>251416</v>
+        <v>251651</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>R3</t>
+          <t>BIMEC 4</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="D27" t="n">
-        <v>229.0204081632653</v>
+        <v>767.7049180327868</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>2025-05-08 07:00:00</t>
+          <t>2025-05-09 07:00:00</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>2025-05-08 07:35:00</t>
+          <t>2025-05-09 07:29:00</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>2025-05-08 07:35:00</t>
+          <t>2025-05-09 07:29:00</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>2025-05-08 11:24:01</t>
+          <t>2025-05-12 12:16:42</t>
         </is>
       </c>
       <c r="I27" t="n">
-        <v>11222</v>
+        <v>46830</v>
       </c>
       <c r="J27" t="inlineStr">
         <is>
@@ -2487,14 +2487,14 @@
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L27" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="M27" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="N27" t="n">
         <v>39755</v>
@@ -2507,14 +2507,14 @@
       </c>
       <c r="Q27" t="inlineStr">
         <is>
-          <t>2025-04-23 00:00:00</t>
+          <t>2025-05-12 00:00:00</t>
         </is>
       </c>
       <c r="R27" s="1" t="n">
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="28">

--- a/PS-VRP/Dati_output/euristico_post.xlsx
+++ b/PS-VRP/Dati_output/euristico_post.xlsx
@@ -594,7 +594,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>251164</v>
+        <v>251050</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -602,10 +602,10 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>57</v>
+        <v>217</v>
       </c>
       <c r="D3" t="n">
-        <v>140.8450704225352</v>
+        <v>0</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -614,21 +614,21 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2025-05-09 07:57:00</t>
+          <t>2025-05-09 10:37:00</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>2025-05-09 07:57:00</t>
+          <t>2025-05-09 10:37:00</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2025-05-09 10:17:50</t>
+          <t>2025-05-09 10:37:00</t>
         </is>
       </c>
       <c r="I3" t="n">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="J3" t="inlineStr">
         <is>
@@ -637,17 +637,17 @@
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="L3" t="n">
-        <v>6</v>
+        <v>38</v>
       </c>
       <c r="M3" t="n">
         <v>70</v>
       </c>
       <c r="N3" t="n">
-        <v>39749</v>
+        <v>39747</v>
       </c>
       <c r="O3" t="inlineStr">
         <is>
@@ -655,23 +655,23 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>39749</v>
+        <v>39747</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>2025-04-22 00:00:00</t>
+          <t>2025-04-16 00:00:00</t>
         </is>
       </c>
       <c r="R3" s="1" t="n">
-        <v>-2.429059076678241</v>
+        <v>-1.442361111111111</v>
       </c>
       <c r="S3" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>251050</v>
+        <v>251054</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -679,29 +679,29 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>195</v>
+        <v>35</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2025-05-09 10:17:50</t>
+          <t>2025-05-09 10:37:00</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2025-05-09 13:32:50</t>
+          <t>2025-05-09 11:12:00</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>2025-05-09 13:32:50</t>
+          <t>2025-05-09 11:12:00</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>2025-05-09 13:32:50</t>
+          <t>2025-05-09 11:12:00</t>
         </is>
       </c>
       <c r="I4" t="n">
@@ -740,7 +740,7 @@
         </is>
       </c>
       <c r="R4" s="1" t="n">
-        <v>-1.564475743344907</v>
+        <v>-1.466666666666667</v>
       </c>
       <c r="S4" t="n">
         <v>2</v>
@@ -748,7 +748,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>251054</v>
+        <v>251081</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -756,33 +756,33 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>35</v>
+        <v>125</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>42.42253521126761</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2025-05-09 13:32:50</t>
+          <t>2025-05-09 11:12:00</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2025-05-09 14:07:50</t>
+          <t>2025-05-09 13:17:00</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>2025-05-09 14:07:50</t>
+          <t>2025-05-09 13:17:00</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>2025-05-09 14:07:50</t>
+          <t>2025-05-09 13:59:25</t>
         </is>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>3012</v>
       </c>
       <c r="J5" t="inlineStr">
         <is>
@@ -795,13 +795,15 @@
         </is>
       </c>
       <c r="L5" t="n">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="M5" t="n">
         <v>70</v>
       </c>
-      <c r="N5" t="n">
-        <v>39747</v>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>39750 (esterno)</t>
+        </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
@@ -809,15 +811,15 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>39747</v>
+        <v>39750</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>2025-04-16 00:00:00</t>
+          <t>2025-04-23 00:00:00</t>
         </is>
       </c>
       <c r="R5" s="1" t="n">
-        <v>-1.588781298900463</v>
+        <v>-16.58293231612268</v>
       </c>
       <c r="S5" t="n">
         <v>2</v>
@@ -825,41 +827,41 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>251081</v>
+        <v>251284</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>125</v>
+        <v>40.5</v>
       </c>
       <c r="D6" t="n">
-        <v>42.42253521126761</v>
+        <v>297.0909090909091</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2025-05-09 14:07:50</t>
+          <t>2025-05-09 07:00:00</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2025-05-12 08:12:50</t>
+          <t>2025-05-09 07:40:30</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>2025-05-12 08:12:50</t>
+          <t>2025-05-09 07:40:30</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>2025-05-12 08:55:16</t>
+          <t>2025-05-09 12:37:35</t>
         </is>
       </c>
       <c r="I6" t="n">
-        <v>3012</v>
+        <v>16340</v>
       </c>
       <c r="J6" t="inlineStr">
         <is>
@@ -868,19 +870,17 @@
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>CASON ;R6</t>
         </is>
       </c>
       <c r="L6" t="n">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="M6" t="n">
         <v>70</v>
       </c>
-      <c r="N6" t="inlineStr">
-        <is>
-          <t>39750 (esterno)</t>
-        </is>
+      <c r="N6" t="n">
+        <v>39747</v>
       </c>
       <c r="O6" t="inlineStr">
         <is>
@@ -888,57 +888,57 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>39750</v>
+        <v>39747</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>2025-04-23 00:00:00</t>
+          <t>2025-05-12 00:00:00</t>
         </is>
       </c>
       <c r="R6" s="1" t="n">
-        <v>-19.37171361502315</v>
+        <v>-1.526104797974537</v>
       </c>
       <c r="S6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>251284</v>
+        <v>251742</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>40.5</v>
+        <v>30</v>
       </c>
       <c r="D7" t="n">
-        <v>297.0909090909091</v>
+        <v>134.8524590163935</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>2025-05-09 07:00:00</t>
+          <t>2025-05-08 07:00:00</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2025-05-09 07:40:30</t>
+          <t>2025-05-08 07:30:00</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>2025-05-09 07:40:30</t>
+          <t>2025-05-08 07:30:00</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>2025-05-09 12:37:35</t>
+          <t>2025-05-08 09:44:51</t>
         </is>
       </c>
       <c r="I7" t="n">
-        <v>16340</v>
+        <v>8226</v>
       </c>
       <c r="J7" t="inlineStr">
         <is>
@@ -947,17 +947,17 @@
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>CASON ;R6</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L7" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="M7" t="n">
         <v>70</v>
       </c>
       <c r="N7" t="n">
-        <v>39747</v>
+        <v>39749</v>
       </c>
       <c r="O7" t="inlineStr">
         <is>
@@ -965,23 +965,23 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>39747</v>
+        <v>39749</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>2025-05-12 00:00:00</t>
+          <t>2025-05-15 00:00:00</t>
         </is>
       </c>
       <c r="R7" s="1" t="n">
-        <v>-1.526104797974537</v>
+        <v>-1.406147540983796</v>
       </c>
       <c r="S7" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>251229</v>
+        <v>251164</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
@@ -989,33 +989,33 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="D8" t="n">
-        <v>307.1967213114754</v>
+        <v>163.9344262295082</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>2025-05-08 07:00:00</t>
+          <t>2025-05-08 09:44:51</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2025-05-08 07:40:00</t>
+          <t>2025-05-08 10:14:51</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>2025-05-08 07:40:00</t>
+          <t>2025-05-08 10:14:51</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>2025-05-08 12:47:11</t>
+          <t>2025-05-08 12:58:47</t>
         </is>
       </c>
       <c r="I8" t="n">
-        <v>18739</v>
+        <v>10000</v>
       </c>
       <c r="J8" t="inlineStr">
         <is>
@@ -1024,7 +1024,7 @@
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L8" t="n">
@@ -1033,10 +1033,8 @@
       <c r="M8" t="n">
         <v>70</v>
       </c>
-      <c r="N8" t="inlineStr">
-        <is>
-          <t>39723 (esterno)</t>
-        </is>
+      <c r="N8" t="n">
+        <v>39749</v>
       </c>
       <c r="O8" t="inlineStr">
         <is>
@@ -1044,57 +1042,57 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>39723</v>
+        <v>39749</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>2025-05-15 00:00:00</t>
+          <t>2025-04-22 00:00:00</t>
         </is>
       </c>
       <c r="R8" s="1" t="n">
-        <v>0</v>
+        <v>-1.540824225868056</v>
       </c>
       <c r="S8" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>251477</v>
+        <v>251840</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="D9" t="n">
-        <v>422.5211267605634</v>
+        <v>93.67213114754098</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>2025-05-08 12:00:00</t>
+          <t>2025-05-08 12:58:47</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>2025-05-08 12:17:00</t>
+          <t>2025-05-08 13:23:47</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>2025-05-08 12:17:00</t>
+          <t>2025-05-08 13:23:47</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>2025-05-09 11:19:31</t>
+          <t>2025-05-08 14:57:27</t>
         </is>
       </c>
       <c r="I9" t="n">
-        <v>29999</v>
+        <v>5714</v>
       </c>
       <c r="J9" t="inlineStr">
         <is>
@@ -1103,17 +1101,17 @@
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L9" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M9" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="N9" t="n">
-        <v>39760</v>
+        <v>39758</v>
       </c>
       <c r="O9" t="inlineStr">
         <is>
@@ -1121,15 +1119,15 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>39760</v>
+        <v>39758</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>2025-04-28 00:00:00</t>
+          <t>2025-05-09 00:00:00</t>
         </is>
       </c>
       <c r="R9" s="1" t="n">
-        <v>-2.471889671365741</v>
+        <v>-0.6232354280555555</v>
       </c>
       <c r="S9" t="n">
         <v>1</v>
@@ -1137,41 +1135,41 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>251225</v>
+        <v>251229</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>307.1967213114754</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>2025-05-09 11:19:31</t>
+          <t>2025-05-08 14:57:27</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>2025-05-09 11:36:31</t>
+          <t>2025-05-09 07:22:27</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>2025-05-09 11:36:31</t>
+          <t>2025-05-09 07:22:27</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>2025-05-09 11:36:31</t>
+          <t>2025-05-09 12:29:39</t>
         </is>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>18739</v>
       </c>
       <c r="J10" t="inlineStr">
         <is>
@@ -1180,17 +1178,19 @@
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R9</t>
         </is>
       </c>
       <c r="L10" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M10" t="n">
-        <v>76</v>
-      </c>
-      <c r="N10" t="n">
-        <v>39747</v>
+        <v>70</v>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>39723 (esterno)</t>
+        </is>
       </c>
       <c r="O10" t="inlineStr">
         <is>
@@ -1198,15 +1198,15 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>39747</v>
+        <v>39723</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>2025-04-30 00:00:00</t>
+          <t>2025-05-15 00:00:00</t>
         </is>
       </c>
       <c r="R10" s="1" t="n">
-        <v>-1.483695226921296</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>1</v>
@@ -1214,7 +1214,7 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>251227</v>
+        <v>251782</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
@@ -1222,33 +1222,33 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>170.0422535211268</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>2025-05-09 11:36:31</t>
+          <t>2025-05-08 12:00:00</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>2025-05-09 11:51:31</t>
+          <t>2025-05-08 12:17:00</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>2025-05-09 11:51:31</t>
+          <t>2025-05-08 12:17:00</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>2025-05-09 11:51:31</t>
+          <t>2025-05-09 07:07:02</t>
         </is>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>12073</v>
       </c>
       <c r="J11" t="inlineStr">
         <is>
@@ -1257,17 +1257,17 @@
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L11" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M11" t="n">
         <v>76</v>
       </c>
       <c r="N11" t="n">
-        <v>39746</v>
+        <v>39754</v>
       </c>
       <c r="O11" t="inlineStr">
         <is>
@@ -1275,15 +1275,15 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>39746</v>
+        <v>39754</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>2025-05-05 00:00:00</t>
+          <t>2025-05-16 00:00:00</t>
         </is>
       </c>
       <c r="R11" s="1" t="n">
-        <v>-3.494111893587963</v>
+        <v>-0.2965571204976852</v>
       </c>
       <c r="S11" t="n">
         <v>1</v>
@@ -1291,7 +1291,7 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>251782</v>
+        <v>251225</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
@@ -1299,10 +1299,10 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D12" t="n">
-        <v>170.0422535211268</v>
+        <v>0</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
@@ -1311,21 +1311,21 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>2025-05-08 07:17:00</t>
+          <t>2025-05-08 07:19:00</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>2025-05-08 07:17:00</t>
+          <t>2025-05-08 07:19:00</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>2025-05-08 10:07:02</t>
+          <t>2025-05-08 07:19:00</t>
         </is>
       </c>
       <c r="I12" t="n">
-        <v>12073</v>
+        <v>0</v>
       </c>
       <c r="J12" t="inlineStr">
         <is>
@@ -1334,17 +1334,17 @@
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L12" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M12" t="n">
         <v>76</v>
       </c>
       <c r="N12" t="n">
-        <v>39754</v>
+        <v>39747</v>
       </c>
       <c r="O12" t="inlineStr">
         <is>
@@ -1352,15 +1352,15 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>39754</v>
+        <v>39747</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>2025-05-16 00:00:00</t>
+          <t>2025-04-30 00:00:00</t>
         </is>
       </c>
       <c r="R12" s="1" t="n">
-        <v>0</v>
+        <v>-0.3048611111111111</v>
       </c>
       <c r="S12" t="n">
         <v>1</v>
@@ -1368,7 +1368,7 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>251456</v>
+        <v>251547</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
@@ -1379,30 +1379,30 @@
         <v>30</v>
       </c>
       <c r="D13" t="n">
-        <v>126.7464788732394</v>
+        <v>184.9154929577465</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>2025-05-08 10:07:02</t>
+          <t>2025-05-08 07:19:00</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>2025-05-08 10:37:02</t>
+          <t>2025-05-08 07:49:00</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>2025-05-08 10:37:02</t>
+          <t>2025-05-08 07:49:00</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>2025-05-08 12:43:47</t>
+          <t>2025-05-08 10:53:54</t>
         </is>
       </c>
       <c r="I13" t="n">
-        <v>8999</v>
+        <v>13129</v>
       </c>
       <c r="J13" t="inlineStr">
         <is>
@@ -1415,13 +1415,13 @@
         </is>
       </c>
       <c r="L13" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M13" t="n">
         <v>70</v>
       </c>
       <c r="N13" t="n">
-        <v>39746</v>
+        <v>39749</v>
       </c>
       <c r="O13" t="inlineStr">
         <is>
@@ -1429,23 +1429,23 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>39746</v>
+        <v>39749</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>2025-05-09 00:00:00</t>
+          <t>2025-05-06 00:00:00</t>
         </is>
       </c>
       <c r="R13" s="1" t="n">
-        <v>-2.530408841944444</v>
+        <v>-1.454107981215278</v>
       </c>
       <c r="S13" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>251455</v>
+        <v>250759</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
@@ -1453,33 +1453,33 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="D14" t="n">
-        <v>74.6056338028169</v>
+        <v>118.2816901408451</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>2025-05-08 12:43:47</t>
+          <t>2025-05-08 10:53:54</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>2025-05-08 13:00:47</t>
+          <t>2025-05-08 11:23:54</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>2025-05-08 13:00:47</t>
+          <t>2025-05-08 11:23:54</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>2025-05-08 14:15:23</t>
+          <t>2025-05-08 13:22:11</t>
         </is>
       </c>
       <c r="I14" t="n">
-        <v>5297</v>
+        <v>8398</v>
       </c>
       <c r="J14" t="inlineStr">
         <is>
@@ -1488,17 +1488,17 @@
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12</t>
         </is>
       </c>
       <c r="L14" t="n">
         <v>4</v>
       </c>
       <c r="M14" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="N14" t="n">
-        <v>39749</v>
+        <v>39747</v>
       </c>
       <c r="O14" t="inlineStr">
         <is>
@@ -1506,23 +1506,23 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>39749</v>
+        <v>39747</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>2025-04-15 00:00:00</t>
+          <t>2025-03-13 00:00:00</t>
         </is>
       </c>
       <c r="R14" s="1" t="n">
-        <v>-1.594023865416667</v>
+        <v>-0.5570813771527778</v>
       </c>
       <c r="S14" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>251742</v>
+        <v>250894</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
@@ -1530,33 +1530,33 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D15" t="n">
-        <v>115.8591549295775</v>
+        <v>623.4084507042254</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>2025-05-08 14:15:23</t>
+          <t>2025-05-08 13:22:11</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>2025-05-08 14:30:23</t>
+          <t>2025-05-08 13:39:11</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>2025-05-08 14:30:23</t>
+          <t>2025-05-08 13:39:11</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>2025-05-09 08:26:15</t>
+          <t>2025-05-12 08:02:36</t>
         </is>
       </c>
       <c r="I15" t="n">
-        <v>8226</v>
+        <v>44262</v>
       </c>
       <c r="J15" t="inlineStr">
         <is>
@@ -1565,75 +1565,73 @@
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L15" t="n">
+        <v>5</v>
+      </c>
+      <c r="M15" t="n">
+        <v>76</v>
+      </c>
+      <c r="N15" t="n">
+        <v>39755</v>
+      </c>
+      <c r="O15" t="n">
+        <v>0</v>
+      </c>
+      <c r="P15" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q15" t="inlineStr">
+        <is>
+          <t>2025-05-05 00:00:00</t>
+        </is>
+      </c>
+      <c r="R15" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S15" t="n">
         <v>4</v>
-      </c>
-      <c r="M15" t="n">
-        <v>70</v>
-      </c>
-      <c r="N15" t="n">
-        <v>39749</v>
-      </c>
-      <c r="O15" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="P15" t="n">
-        <v>39749</v>
-      </c>
-      <c r="Q15" t="inlineStr">
-        <is>
-          <t>2025-05-15 00:00:00</t>
-        </is>
-      </c>
-      <c r="R15" s="1" t="n">
-        <v>-2.351564945231482</v>
-      </c>
-      <c r="S15" t="n">
-        <v>7</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>251547</v>
+        <v>251651</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>BIMEC 4</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="D16" t="n">
-        <v>184.9154929577465</v>
+        <v>767.7049180327868</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>2025-05-09 08:26:15</t>
+          <t>2025-05-09 07:00:00</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>2025-05-09 08:41:15</t>
+          <t>2025-05-09 07:29:00</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>2025-05-09 08:41:15</t>
+          <t>2025-05-09 07:29:00</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>2025-05-09 11:46:10</t>
+          <t>2025-05-12 12:16:42</t>
         </is>
       </c>
       <c r="I16" t="n">
-        <v>13129</v>
+        <v>46830</v>
       </c>
       <c r="J16" t="inlineStr">
         <is>
@@ -1642,75 +1640,73 @@
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L16" t="n">
+        <v>5</v>
+      </c>
+      <c r="M16" t="n">
+        <v>76</v>
+      </c>
+      <c r="N16" t="n">
+        <v>39755</v>
+      </c>
+      <c r="O16" t="n">
+        <v>0</v>
+      </c>
+      <c r="P16" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q16" t="inlineStr">
+        <is>
+          <t>2025-05-12 00:00:00</t>
+        </is>
+      </c>
+      <c r="R16" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S16" t="n">
         <v>4</v>
-      </c>
-      <c r="M16" t="n">
-        <v>70</v>
-      </c>
-      <c r="N16" t="n">
-        <v>39749</v>
-      </c>
-      <c r="O16" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="P16" t="n">
-        <v>39749</v>
-      </c>
-      <c r="Q16" t="inlineStr">
-        <is>
-          <t>2025-05-06 00:00:00</t>
-        </is>
-      </c>
-      <c r="R16" s="1" t="n">
-        <v>-2.490395148668981</v>
-      </c>
-      <c r="S16" t="n">
-        <v>7</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>250759</v>
+        <v>251227</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="D17" t="n">
-        <v>118.2816901408451</v>
+        <v>0</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>2025-05-09 11:46:10</t>
+          <t>2025-05-07 07:00:00</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>2025-05-09 12:16:10</t>
+          <t>2025-05-07 07:34:00</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>2025-05-09 12:16:10</t>
+          <t>2025-05-07 07:34:00</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>2025-05-09 14:14:27</t>
+          <t>2025-05-07 07:34:00</t>
         </is>
       </c>
       <c r="I17" t="n">
-        <v>8398</v>
+        <v>0</v>
       </c>
       <c r="J17" t="inlineStr">
         <is>
@@ -1719,7 +1715,7 @@
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L17" t="n">
@@ -1729,7 +1725,7 @@
         <v>76</v>
       </c>
       <c r="N17" t="n">
-        <v>39747</v>
+        <v>39746</v>
       </c>
       <c r="O17" t="inlineStr">
         <is>
@@ -1737,15 +1733,15 @@
         </is>
       </c>
       <c r="P17" t="n">
-        <v>39747</v>
+        <v>39746</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>2025-03-13 00:00:00</t>
+          <t>2025-05-05 00:00:00</t>
         </is>
       </c>
       <c r="R17" s="1" t="n">
-        <v>-1.593368544606482</v>
+        <v>-1.315277777777778</v>
       </c>
       <c r="S17" t="n">
         <v>1</v>
@@ -1753,41 +1749,41 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>251416</v>
+        <v>251455</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>R3</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="D18" t="n">
-        <v>229.0204081632653</v>
+        <v>82.765625</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>2025-05-08 07:00:00</t>
+          <t>2025-05-07 07:34:00</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>2025-05-08 07:35:00</t>
+          <t>2025-05-07 08:04:00</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>2025-05-08 07:35:00</t>
+          <t>2025-05-07 08:04:00</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>2025-05-08 11:24:01</t>
+          <t>2025-05-07 09:26:45</t>
         </is>
       </c>
       <c r="I18" t="n">
-        <v>11222</v>
+        <v>5297</v>
       </c>
       <c r="J18" t="inlineStr">
         <is>
@@ -1800,35 +1796,37 @@
         </is>
       </c>
       <c r="L18" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M18" t="n">
         <v>70</v>
       </c>
       <c r="N18" t="n">
-        <v>39755</v>
-      </c>
-      <c r="O18" t="n">
-        <v>0</v>
+        <v>39749</v>
+      </c>
+      <c r="O18" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>39749</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>2025-04-23 00:00:00</t>
+          <t>2025-04-15 00:00:00</t>
         </is>
       </c>
       <c r="R18" s="1" t="n">
-        <v>0</v>
+        <v>-0.3935872395833334</v>
       </c>
       <c r="S18" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>251840</v>
+        <v>251391</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
@@ -1836,33 +1834,33 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D19" t="n">
-        <v>89.28125</v>
+        <v>91.640625</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>2025-05-07 07:00:00</t>
+          <t>2025-05-07 09:26:45</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>2025-05-07 07:21:00</t>
+          <t>2025-05-07 09:43:45</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>2025-05-07 07:21:00</t>
+          <t>2025-05-07 09:43:45</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>2025-05-07 08:50:16</t>
+          <t>2025-05-07 11:15:24</t>
         </is>
       </c>
       <c r="I19" t="n">
-        <v>5714</v>
+        <v>5865</v>
       </c>
       <c r="J19" t="inlineStr">
         <is>
@@ -1881,7 +1879,7 @@
         <v>70</v>
       </c>
       <c r="N19" t="n">
-        <v>39758</v>
+        <v>39749</v>
       </c>
       <c r="O19" t="inlineStr">
         <is>
@@ -1889,23 +1887,23 @@
         </is>
       </c>
       <c r="P19" t="n">
-        <v>39758</v>
+        <v>39749</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>2025-05-09 00:00:00</t>
+          <t>2025-04-23 00:00:00</t>
         </is>
       </c>
       <c r="R19" s="1" t="n">
-        <v>0</v>
+        <v>-0.4690321180555556</v>
       </c>
       <c r="S19" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>251391</v>
+        <v>251395</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
@@ -1913,33 +1911,33 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D20" t="n">
-        <v>91.640625</v>
+        <v>35.34375</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>2025-05-07 08:50:16</t>
+          <t>2025-05-07 11:15:24</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>2025-05-07 09:05:16</t>
+          <t>2025-05-07 11:32:24</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>2025-05-07 09:05:16</t>
+          <t>2025-05-07 11:32:24</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>2025-05-07 10:36:55</t>
+          <t>2025-05-07 12:07:45</t>
         </is>
       </c>
       <c r="I20" t="n">
-        <v>5865</v>
+        <v>2262</v>
       </c>
       <c r="J20" t="inlineStr">
         <is>
@@ -1952,7 +1950,7 @@
         </is>
       </c>
       <c r="L20" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M20" t="n">
         <v>70</v>
@@ -1974,7 +1972,7 @@
         </is>
       </c>
       <c r="R20" s="1" t="n">
-        <v>-0.4423068576388889</v>
+        <v>-0.5053819444444444</v>
       </c>
       <c r="S20" t="n">
         <v>7</v>
@@ -1982,7 +1980,7 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>251395</v>
+        <v>251371</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
@@ -1990,33 +1988,33 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D21" t="n">
-        <v>35.34375</v>
+        <v>0</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>2025-05-07 10:36:55</t>
+          <t>2025-05-07 12:07:45</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>2025-05-07 10:53:55</t>
+          <t>2025-05-07 12:26:45</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>2025-05-07 10:53:55</t>
+          <t>2025-05-07 12:26:45</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>2025-05-07 11:29:15</t>
+          <t>2025-05-07 12:26:45</t>
         </is>
       </c>
       <c r="I21" t="n">
-        <v>2262</v>
+        <v>0</v>
       </c>
       <c r="J21" t="inlineStr">
         <is>
@@ -2029,13 +2027,15 @@
         </is>
       </c>
       <c r="L21" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M21" t="n">
         <v>70</v>
       </c>
-      <c r="N21" t="n">
-        <v>39749</v>
+      <c r="N21" t="inlineStr">
+        <is>
+          <t>39666 (esterno)</t>
+        </is>
       </c>
       <c r="O21" t="inlineStr">
         <is>
@@ -2043,15 +2043,15 @@
         </is>
       </c>
       <c r="P21" t="n">
-        <v>39749</v>
+        <v>39666</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>2025-04-23 00:00:00</t>
+          <t>2025-04-24 00:00:00</t>
         </is>
       </c>
       <c r="R21" s="1" t="n">
-        <v>-0.4786566840277778</v>
+        <v>-13.51857638888889</v>
       </c>
       <c r="S21" t="n">
         <v>7</v>
@@ -2059,7 +2059,7 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>251371</v>
+        <v>251396</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
@@ -2070,30 +2070,30 @@
         <v>19</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>35.34375</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>2025-05-07 11:29:15</t>
+          <t>2025-05-07 12:26:45</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>2025-05-07 11:48:15</t>
+          <t>2025-05-07 12:45:45</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>2025-05-07 11:48:15</t>
+          <t>2025-05-07 12:45:45</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>2025-05-07 11:48:15</t>
+          <t>2025-05-07 13:21:05</t>
         </is>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>2262</v>
       </c>
       <c r="J22" t="inlineStr">
         <is>
@@ -2106,15 +2106,13 @@
         </is>
       </c>
       <c r="L22" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M22" t="n">
         <v>70</v>
       </c>
-      <c r="N22" t="inlineStr">
-        <is>
-          <t>39666 (esterno)</t>
-        </is>
+      <c r="N22" t="n">
+        <v>39749</v>
       </c>
       <c r="O22" t="inlineStr">
         <is>
@@ -2122,15 +2120,15 @@
         </is>
       </c>
       <c r="P22" t="n">
-        <v>39666</v>
+        <v>39749</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>2025-04-24 00:00:00</t>
+          <t>2025-05-02 00:00:00</t>
         </is>
       </c>
       <c r="R22" s="1" t="n">
-        <v>-13.49185112847222</v>
+        <v>-0.5563151041666666</v>
       </c>
       <c r="S22" t="n">
         <v>7</v>
@@ -2138,7 +2136,7 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>251396</v>
+        <v>251548</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
@@ -2149,30 +2147,30 @@
         <v>19</v>
       </c>
       <c r="D23" t="n">
-        <v>35.34375</v>
+        <v>206.90625</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>2025-05-07 11:48:15</t>
+          <t>2025-05-07 13:21:05</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>2025-05-07 12:07:15</t>
+          <t>2025-05-07 13:40:05</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>2025-05-07 12:07:15</t>
+          <t>2025-05-07 13:40:05</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>2025-05-07 12:42:36</t>
+          <t>2025-05-08 09:07:00</t>
         </is>
       </c>
       <c r="I23" t="n">
-        <v>2262</v>
+        <v>13242</v>
       </c>
       <c r="J23" t="inlineStr">
         <is>
@@ -2185,7 +2183,7 @@
         </is>
       </c>
       <c r="L23" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M23" t="n">
         <v>70</v>
@@ -2203,11 +2201,11 @@
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>2025-05-02 00:00:00</t>
+          <t>2025-05-06 00:00:00</t>
         </is>
       </c>
       <c r="R23" s="1" t="n">
-        <v>-0.52958984375</v>
+        <v>-1.379861111111111</v>
       </c>
       <c r="S23" t="n">
         <v>7</v>
@@ -2215,7 +2213,7 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>251548</v>
+        <v>250923</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
@@ -2223,33 +2221,33 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="D24" t="n">
-        <v>206.90625</v>
+        <v>109.46875</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>2025-05-07 12:42:36</t>
+          <t>2025-05-08 09:07:00</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>2025-05-07 13:01:36</t>
+          <t>2025-05-08 09:39:00</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>2025-05-07 13:01:36</t>
+          <t>2025-05-08 09:39:00</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>2025-05-08 08:28:30</t>
+          <t>2025-05-08 11:28:28</t>
         </is>
       </c>
       <c r="I24" t="n">
-        <v>13242</v>
+        <v>7006</v>
       </c>
       <c r="J24" t="inlineStr">
         <is>
@@ -2258,14 +2256,14 @@
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L24" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M24" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="N24" t="n">
         <v>39749</v>
@@ -2280,19 +2278,19 @@
       </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>2025-05-06 00:00:00</t>
+          <t>2025-04-07 00:00:00</t>
         </is>
       </c>
       <c r="R24" s="1" t="n">
-        <v>-1.353135850694444</v>
+        <v>-1.478103298611111</v>
       </c>
       <c r="S24" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>250894</v>
+        <v>251477</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
@@ -2300,33 +2298,33 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="D25" t="n">
-        <v>691.59375</v>
+        <v>468.734375</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>2025-05-08 08:28:30</t>
+          <t>2025-05-08 11:28:28</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>2025-05-08 09:00:30</t>
+          <t>2025-05-08 11:47:28</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>2025-05-08 09:00:30</t>
+          <t>2025-05-08 11:47:28</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>2025-05-09 12:32:06</t>
+          <t>2025-05-09 11:36:12</t>
         </is>
       </c>
       <c r="I25" t="n">
-        <v>44262</v>
+        <v>29999</v>
       </c>
       <c r="J25" t="inlineStr">
         <is>
@@ -2335,73 +2333,75 @@
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L25" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M25" t="n">
         <v>76</v>
       </c>
       <c r="N25" t="n">
-        <v>39755</v>
-      </c>
-      <c r="O25" t="n">
-        <v>0</v>
+        <v>39760</v>
+      </c>
+      <c r="O25" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P25" t="n">
-        <v>0</v>
+        <v>39760</v>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>2025-05-05 00:00:00</t>
+          <t>2025-04-28 00:00:00</t>
         </is>
       </c>
       <c r="R25" s="1" t="n">
-        <v>0</v>
+        <v>-2.483474392361111</v>
       </c>
       <c r="S25" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>250923</v>
+        <v>251456</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>R3</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="D26" t="n">
-        <v>109.46875</v>
+        <v>183.6530612244898</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>2025-05-09 12:32:06</t>
+          <t>2025-05-08 07:00:00</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>2025-05-09 12:47:06</t>
+          <t>2025-05-08 07:40:00</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>2025-05-09 12:47:06</t>
+          <t>2025-05-08 07:40:00</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>2025-05-09 14:36:34</t>
+          <t>2025-05-08 10:43:39</t>
         </is>
       </c>
       <c r="I26" t="n">
-        <v>7006</v>
+        <v>8999</v>
       </c>
       <c r="J26" t="inlineStr">
         <is>
@@ -2410,17 +2410,17 @@
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L26" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M26" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="N26" t="n">
-        <v>39749</v>
+        <v>39746</v>
       </c>
       <c r="O26" t="inlineStr">
         <is>
@@ -2428,57 +2428,57 @@
         </is>
       </c>
       <c r="P26" t="n">
-        <v>39749</v>
+        <v>39746</v>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
-          <t>2025-04-07 00:00:00</t>
+          <t>2025-05-09 00:00:00</t>
         </is>
       </c>
       <c r="R26" s="1" t="n">
-        <v>-2.608734809027778</v>
+        <v>-2.446981292511574</v>
       </c>
       <c r="S26" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>251651</v>
+        <v>251416</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>R3</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="D27" t="n">
-        <v>767.7049180327868</v>
+        <v>229.0204081632653</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>2025-05-09 07:00:00</t>
+          <t>2025-05-08 10:43:39</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>2025-05-09 07:29:00</t>
+          <t>2025-05-08 11:23:39</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>2025-05-09 07:29:00</t>
+          <t>2025-05-08 11:23:39</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>2025-05-12 12:16:42</t>
+          <t>2025-05-09 07:12:40</t>
         </is>
       </c>
       <c r="I27" t="n">
-        <v>46830</v>
+        <v>11222</v>
       </c>
       <c r="J27" t="inlineStr">
         <is>
@@ -2487,14 +2487,14 @@
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L27" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="M27" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="N27" t="n">
         <v>39755</v>
@@ -2507,53 +2507,53 @@
       </c>
       <c r="Q27" t="inlineStr">
         <is>
-          <t>2025-05-12 00:00:00</t>
+          <t>2025-04-23 00:00:00</t>
         </is>
       </c>
       <c r="R27" s="1" t="n">
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>251561</v>
+        <v>251340</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>R3</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>50</v>
+        <v>17</v>
       </c>
       <c r="D28" t="n">
-        <v>110.9183673469388</v>
+        <v>461.9718309859155</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>2025-05-08 11:24:01</t>
+          <t>2025-05-09 07:07:02</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>2025-05-08 12:14:01</t>
+          <t>2025-05-09 07:24:02</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>2025-05-08 12:14:01</t>
+          <t>2025-05-09 07:24:02</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>2025-05-08 14:04:56</t>
+          <t>2025-05-12 07:06:00</t>
         </is>
       </c>
       <c r="I28" t="n">
-        <v>5435</v>
+        <v>32800</v>
       </c>
       <c r="J28" t="inlineStr">
         <is>
@@ -2562,14 +2562,14 @@
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L28" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="M28" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="O28" t="n">
         <v>0</v>
@@ -2579,53 +2579,53 @@
       </c>
       <c r="Q28" t="inlineStr">
         <is>
-          <t>2025-05-07 00:00:00</t>
+          <t>2025-04-28 00:00:00</t>
         </is>
       </c>
       <c r="R28" s="1" t="n">
-        <v>-1.586763038553241</v>
+        <v>-14.29584311423611</v>
       </c>
       <c r="S28" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>251564</v>
+        <v>251561</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>R3</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="D29" t="n">
-        <v>44.54098360655738</v>
+        <v>110.9183673469388</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>2025-05-08 12:47:11</t>
+          <t>2025-05-09 07:12:40</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>2025-05-08 13:22:11</t>
+          <t>2025-05-09 08:02:40</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>2025-05-08 13:22:11</t>
+          <t>2025-05-09 08:02:40</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>2025-05-08 14:06:44</t>
+          <t>2025-05-09 09:53:35</t>
         </is>
       </c>
       <c r="I29" t="n">
-        <v>2717</v>
+        <v>5435</v>
       </c>
       <c r="J29" t="inlineStr">
         <is>
@@ -2638,7 +2638,7 @@
         </is>
       </c>
       <c r="L29" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M29" t="n">
         <v>70</v>
@@ -2655,7 +2655,7 @@
         </is>
       </c>
       <c r="R29" s="1" t="n">
-        <v>-1.588012295081018</v>
+        <v>-2.412216553287037</v>
       </c>
       <c r="S29" t="n">
         <v>8</v>
@@ -2663,7 +2663,7 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>251566</v>
+        <v>251564</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
@@ -2671,33 +2671,33 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="D30" t="n">
-        <v>140.5918367346939</v>
+        <v>55.44897959183673</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>2025-05-08 14:04:56</t>
+          <t>2025-05-09 09:53:35</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>2025-05-08 14:44:56</t>
+          <t>2025-05-09 10:38:35</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>2025-05-08 14:44:56</t>
+          <t>2025-05-09 10:38:35</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>2025-05-09 09:05:31</t>
+          <t>2025-05-09 11:34:02</t>
         </is>
       </c>
       <c r="I30" t="n">
-        <v>6889</v>
+        <v>2717</v>
       </c>
       <c r="J30" t="inlineStr">
         <is>
@@ -2710,7 +2710,7 @@
         </is>
       </c>
       <c r="L30" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M30" t="n">
         <v>70</v>
@@ -2727,7 +2727,7 @@
         </is>
       </c>
       <c r="R30" s="1" t="n">
-        <v>-2.378840702951389</v>
+        <v>-2.48197278912037</v>
       </c>
       <c r="S30" t="n">
         <v>8</v>
@@ -2735,41 +2735,41 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>251626</v>
+        <v>251566</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>R3</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="D31" t="n">
-        <v>204.9180327868852</v>
+        <v>140.5918367346939</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>2025-05-08 14:06:44</t>
+          <t>2025-05-09 11:34:02</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>2025-05-08 14:26:44</t>
+          <t>2025-05-09 12:14:02</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>2025-05-08 14:26:44</t>
+          <t>2025-05-09 12:14:02</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>2025-05-09 09:51:39</t>
+          <t>2025-05-09 14:34:37</t>
         </is>
       </c>
       <c r="I31" t="n">
-        <v>12500</v>
+        <v>6889</v>
       </c>
       <c r="J31" t="inlineStr">
         <is>
@@ -2782,7 +2782,7 @@
         </is>
       </c>
       <c r="L31" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M31" t="n">
         <v>70</v>
@@ -2795,53 +2795,53 @@
       </c>
       <c r="Q31" t="inlineStr">
         <is>
-          <t>2025-04-30 00:00:00</t>
+          <t>2025-05-07 00:00:00</t>
         </is>
       </c>
       <c r="R31" s="1" t="n">
-        <v>-9.410872040069446</v>
+        <v>-2.607383786851852</v>
       </c>
       <c r="S31" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>251546</v>
+        <v>251626</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>R3</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="D32" t="n">
-        <v>131.9591836734694</v>
+        <v>195.3125</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>2025-05-09 09:05:31</t>
+          <t>2025-05-09 11:36:12</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>2025-05-09 09:45:31</t>
+          <t>2025-05-09 12:06:12</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>2025-05-09 09:45:31</t>
+          <t>2025-05-09 12:06:12</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>2025-05-09 11:57:29</t>
+          <t>2025-05-12 07:21:30</t>
         </is>
       </c>
       <c r="I32" t="n">
-        <v>6466</v>
+        <v>12500</v>
       </c>
       <c r="J32" t="inlineStr">
         <is>
@@ -2854,7 +2854,7 @@
         </is>
       </c>
       <c r="L32" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M32" t="n">
         <v>70</v>
@@ -2871,7 +2871,7 @@
         </is>
       </c>
       <c r="R32" s="1" t="n">
-        <v>-9.498256802719908</v>
+        <v>-12.30660807291667</v>
       </c>
       <c r="S32" t="n">
         <v>7</v>
@@ -2879,7 +2879,7 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>251505</v>
+        <v>251546</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
@@ -2887,33 +2887,33 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D33" t="n">
-        <v>233.6885245901639</v>
+        <v>106</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>2025-05-09 09:51:39</t>
+          <t>2025-05-09 12:29:39</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>2025-05-09 10:21:39</t>
+          <t>2025-05-09 12:54:39</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>2025-05-09 10:21:39</t>
+          <t>2025-05-09 12:54:39</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>2025-05-09 14:15:20</t>
+          <t>2025-05-09 14:40:39</t>
         </is>
       </c>
       <c r="I33" t="n">
-        <v>14255</v>
+        <v>6466</v>
       </c>
       <c r="J33" t="inlineStr">
         <is>
@@ -2939,11 +2939,11 @@
       </c>
       <c r="Q33" t="inlineStr">
         <is>
-          <t>2025-05-05 00:00:00</t>
+          <t>2025-04-30 00:00:00</t>
         </is>
       </c>
       <c r="R33" s="1" t="n">
-        <v>-4.593989071041666</v>
+        <v>-9.61156648451389</v>
       </c>
       <c r="S33" t="n">
         <v>7</v>
@@ -2951,41 +2951,41 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>251340</v>
+        <v>251505</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>19</v>
+        <v>34.5</v>
       </c>
       <c r="D34" t="n">
-        <v>461.9718309859155</v>
+        <v>259.1818181818182</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>2025-05-09 11:51:31</t>
+          <t>2025-05-09 12:37:35</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>2025-05-09 12:10:31</t>
+          <t>2025-05-09 13:12:05</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>2025-05-09 12:10:31</t>
+          <t>2025-05-09 13:12:05</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>2025-05-12 11:52:29</t>
+          <t>2025-05-12 09:31:16</t>
         </is>
       </c>
       <c r="I34" t="n">
-        <v>32800</v>
+        <v>14255</v>
       </c>
       <c r="J34" t="inlineStr">
         <is>
@@ -2994,14 +2994,14 @@
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L34" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="M34" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="O34" t="n">
         <v>0</v>
@@ -3011,14 +3011,14 @@
       </c>
       <c r="Q34" t="inlineStr">
         <is>
-          <t>2025-04-28 00:00:00</t>
+          <t>2025-05-05 00:00:00</t>
         </is>
       </c>
       <c r="R34" s="1" t="n">
-        <v>-14.49478677621528</v>
+        <v>-7.396717171712963</v>
       </c>
       <c r="S34" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="35">
@@ -3027,33 +3027,33 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>R3</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>50</v>
+        <v>125</v>
       </c>
       <c r="D35" t="n">
-        <v>232.4897959183673</v>
+        <v>160.4507042253521</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>2025-05-09 11:57:29</t>
+          <t>2025-05-09 13:59:25</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>2025-05-09 12:47:29</t>
+          <t>2025-05-12 08:04:25</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>2025-05-09 12:47:29</t>
+          <t>2025-05-12 08:04:25</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>2025-05-12 08:39:58</t>
+          <t>2025-05-12 10:44:52</t>
         </is>
       </c>
       <c r="I35" t="n">
@@ -3099,33 +3099,33 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>R3</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>40.5</v>
+        <v>45</v>
       </c>
       <c r="D36" t="n">
-        <v>239.5454545454545</v>
+        <v>268.8775510204082</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>2025-05-09 12:37:35</t>
+          <t>2025-05-09 14:34:37</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>2025-05-09 13:18:05</t>
+          <t>2025-05-12 07:19:37</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>2025-05-09 13:18:05</t>
+          <t>2025-05-12 07:19:37</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>2025-05-12 09:17:38</t>
+          <t>2025-05-12 11:48:30</t>
         </is>
       </c>
       <c r="I36" t="n">
@@ -3167,41 +3167,41 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>245350</v>
+        <v>251373</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>42</v>
+        <v>20</v>
       </c>
       <c r="D37" t="n">
-        <v>393.943661971831</v>
+        <v>280.2295081967213</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>2025-05-09 14:14:27</t>
+          <t>2025-05-09 14:40:39</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>2025-05-09 14:56:27</t>
+          <t>2025-05-12 07:00:39</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>2025-05-09 14:56:27</t>
+          <t>2025-05-12 07:00:39</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>2025-05-12 13:30:23</t>
+          <t>2025-05-12 11:40:53</t>
         </is>
       </c>
       <c r="I37" t="n">
-        <v>27970</v>
+        <v>17094</v>
       </c>
       <c r="J37" t="inlineStr">
         <is>
@@ -3210,11 +3210,11 @@
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L37" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="M37" t="n">
         <v>70</v>
@@ -3227,53 +3227,53 @@
       </c>
       <c r="Q37" t="inlineStr">
         <is>
-          <t>2025-12-31 00:00:00</t>
+          <t>2025-04-28 00:00:00</t>
         </is>
       </c>
       <c r="R37" s="1" t="n">
-        <v>0</v>
+        <v>-14.48672586520833</v>
       </c>
       <c r="S37" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>251373</v>
+        <v>245350</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>R9</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>20</v>
+        <v>65</v>
       </c>
       <c r="D38" t="n">
-        <v>280.2295081967213</v>
+        <v>405.3623188405797</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>2025-05-09 14:15:20</t>
+          <t>2025-05-12 07:00:00</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>2025-05-09 14:35:20</t>
+          <t>2025-05-12 08:05:00</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>2025-05-09 14:35:20</t>
+          <t>2025-05-12 08:05:00</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>2025-05-12 11:15:34</t>
+          <t>2025-05-12 14:50:21</t>
         </is>
       </c>
       <c r="I38" t="n">
-        <v>17094</v>
+        <v>27970</v>
       </c>
       <c r="J38" t="inlineStr">
         <is>
@@ -3282,11 +3282,11 @@
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R6 ;R9</t>
         </is>
       </c>
       <c r="L38" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="M38" t="n">
         <v>70</v>
@@ -3299,53 +3299,53 @@
       </c>
       <c r="Q38" t="inlineStr">
         <is>
-          <t>2025-04-28 00:00:00</t>
+          <t>2025-12-31 00:00:00</t>
         </is>
       </c>
       <c r="R38" s="1" t="n">
-        <v>-14.46914845173611</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>245275</v>
+        <v>243569</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>48</v>
+        <v>17</v>
       </c>
       <c r="D39" t="n">
-        <v>379.59375</v>
+        <v>36.63380281690141</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>2025-05-09 14:36:34</t>
+          <t>2025-05-12 07:06:00</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>2025-05-12 07:24:34</t>
+          <t>2025-05-12 07:23:00</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>2025-05-12 07:24:34</t>
+          <t>2025-05-12 07:23:00</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>2025-05-12 13:44:10</t>
+          <t>2025-05-12 07:59:38</t>
         </is>
       </c>
       <c r="I39" t="n">
-        <v>24294</v>
+        <v>2601</v>
       </c>
       <c r="J39" t="inlineStr">
         <is>
@@ -3354,14 +3354,14 @@
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;CASON ;R6</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L39" t="n">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="M39" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
@@ -3371,53 +3371,53 @@
       </c>
       <c r="Q39" t="inlineStr">
         <is>
-          <t>2025-12-31 00:00:00</t>
+          <t>2024-09-16 00:00:00</t>
         </is>
       </c>
       <c r="R39" s="1" t="n">
-        <v>0</v>
+        <v>-238.3330888106366</v>
       </c>
       <c r="S39" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>235572</v>
+        <v>245275</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>R9</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D40" t="n">
-        <v>144.3188405797102</v>
+        <v>379.59375</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>2025-05-12 07:00:00</t>
+          <t>2025-05-12 07:21:30</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>2025-05-12 07:40:00</t>
+          <t>2025-05-12 07:58:30</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>2025-05-12 07:40:00</t>
+          <t>2025-05-12 07:58:30</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>2025-05-12 10:04:19</t>
+          <t>2025-05-12 14:18:06</t>
         </is>
       </c>
       <c r="I40" t="n">
-        <v>9958</v>
+        <v>24294</v>
       </c>
       <c r="J40" t="inlineStr">
         <is>
@@ -3426,11 +3426,11 @@
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R6 ;R9</t>
+          <t>BIMEC 2 ;CASON ;R6</t>
         </is>
       </c>
       <c r="L40" t="n">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="M40" t="n">
         <v>70</v>
@@ -3443,53 +3443,53 @@
       </c>
       <c r="Q40" t="inlineStr">
         <is>
-          <t>2023-11-06 00:00:00</t>
+          <t>2025-12-31 00:00:00</t>
         </is>
       </c>
       <c r="R40" s="1" t="n">
-        <v>-553.4196658615161</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>251424</v>
+        <v>245623</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>R3</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="D41" t="n">
-        <v>197.1836734693877</v>
+        <v>372.0985915492957</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>2025-05-12 08:39:58</t>
+          <t>2025-05-12 07:59:38</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>2025-05-12 09:24:58</t>
+          <t>2025-05-12 08:31:38</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>2025-05-12 09:24:58</t>
+          <t>2025-05-12 08:31:38</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>2025-05-12 12:42:09</t>
+          <t>2025-05-12 14:43:44</t>
         </is>
       </c>
       <c r="I41" t="n">
-        <v>9662</v>
+        <v>26419</v>
       </c>
       <c r="J41" t="inlineStr">
         <is>
@@ -3498,14 +3498,14 @@
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L41" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M41" t="n">
-        <v>70</v>
+        <v>152</v>
       </c>
       <c r="O41" t="n">
         <v>0</v>
@@ -3515,53 +3515,53 @@
       </c>
       <c r="Q41" t="inlineStr">
         <is>
-          <t>2025-04-28 00:00:00</t>
+          <t>2025-01-25 00:00:00</t>
         </is>
       </c>
       <c r="R41" s="1" t="n">
-        <v>-14.52928004534722</v>
+        <v>-107.6137128325463</v>
       </c>
       <c r="S41" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>251397</v>
+        <v>235572</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>120</v>
+        <v>30</v>
       </c>
       <c r="D42" t="n">
-        <v>76.54929577464789</v>
+        <v>140.2535211267606</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>2025-05-12 08:55:16</t>
+          <t>2025-05-12 08:02:36</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>2025-05-12 10:55:16</t>
+          <t>2025-05-12 08:32:36</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>2025-05-12 10:55:16</t>
+          <t>2025-05-12 08:32:36</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>2025-05-12 12:11:49</t>
+          <t>2025-05-12 10:52:51</t>
         </is>
       </c>
       <c r="I42" t="n">
-        <v>5435</v>
+        <v>9958</v>
       </c>
       <c r="J42" t="inlineStr">
         <is>
@@ -3570,11 +3570,11 @@
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R6 ;R9</t>
         </is>
       </c>
       <c r="L42" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M42" t="n">
         <v>70</v>
@@ -3587,11 +3587,11 @@
       </c>
       <c r="Q42" t="inlineStr">
         <is>
-          <t>2025-04-28 00:00:00</t>
+          <t>2023-11-06 00:00:00</t>
         </is>
       </c>
       <c r="R42" s="1" t="n">
-        <v>-14.50820618153935</v>
+        <v>-553.4533744131481</v>
       </c>
       <c r="S42" t="n">
         <v>4</v>
@@ -3599,7 +3599,7 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>251475</v>
+        <v>251424</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
@@ -3607,33 +3607,33 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>34.5</v>
+        <v>32.5</v>
       </c>
       <c r="D43" t="n">
-        <v>157.8363636363636</v>
+        <v>175.6727272727273</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>2025-05-12 09:17:38</t>
+          <t>2025-05-12 09:31:16</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>2025-05-12 09:52:08</t>
+          <t>2025-05-12 10:03:46</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>2025-05-12 09:52:08</t>
+          <t>2025-05-12 10:03:46</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>2025-05-12 12:29:58</t>
+          <t>2025-05-12 12:59:26</t>
         </is>
       </c>
       <c r="I43" t="n">
-        <v>8681</v>
+        <v>9662</v>
       </c>
       <c r="J43" t="inlineStr">
         <is>
@@ -3659,11 +3659,11 @@
       </c>
       <c r="Q43" t="inlineStr">
         <is>
-          <t>2025-04-30 00:00:00</t>
+          <t>2025-04-28 00:00:00</t>
         </is>
       </c>
       <c r="R43" s="1" t="n">
-        <v>-12.52081439393519</v>
+        <v>-14.54128156565972</v>
       </c>
       <c r="S43" t="n">
         <v>4</v>
@@ -3671,41 +3671,41 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>251594</v>
+        <v>251397</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>R9</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="D44" t="n">
-        <v>93.71014492753623</v>
+        <v>76.54929577464789</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>2025-05-12 10:04:19</t>
+          <t>2025-05-12 10:44:52</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>2025-05-12 10:34:19</t>
+          <t>2025-05-12 11:24:52</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>2025-05-12 10:34:19</t>
+          <t>2025-05-12 11:24:52</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>2025-05-12 12:08:01</t>
+          <t>2025-05-12 12:41:25</t>
         </is>
       </c>
       <c r="I44" t="n">
-        <v>6466</v>
+        <v>5435</v>
       </c>
       <c r="J44" t="inlineStr">
         <is>
@@ -3718,7 +3718,7 @@
         </is>
       </c>
       <c r="L44" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M44" t="n">
         <v>70</v>
@@ -3731,11 +3731,11 @@
       </c>
       <c r="Q44" t="inlineStr">
         <is>
-          <t>2025-05-07 00:00:00</t>
+          <t>2025-04-28 00:00:00</t>
         </is>
       </c>
       <c r="R44" s="1" t="n">
-        <v>-5.505575684375</v>
+        <v>-14.52876564945602</v>
       </c>
       <c r="S44" t="n">
         <v>4</v>
@@ -3743,41 +3743,41 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>244354</v>
+        <v>251475</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="D45" t="n">
-        <v>70.65573770491804</v>
+        <v>122.2676056338028</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>2025-05-12 11:15:34</t>
+          <t>2025-05-12 10:52:51</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>2025-05-12 11:40:34</t>
+          <t>2025-05-12 11:09:51</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>2025-05-12 11:40:34</t>
+          <t>2025-05-12 11:09:51</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>2025-05-12 12:51:13</t>
+          <t>2025-05-12 13:12:07</t>
         </is>
       </c>
       <c r="I45" t="n">
-        <v>4310</v>
+        <v>8681</v>
       </c>
       <c r="J45" t="inlineStr">
         <is>
@@ -3803,11 +3803,11 @@
       </c>
       <c r="Q45" t="inlineStr">
         <is>
-          <t>2025-05-08 00:00:00</t>
+          <t>2025-04-30 00:00:00</t>
         </is>
       </c>
       <c r="R45" s="1" t="n">
-        <v>-4.535576047361111</v>
+        <v>-12.5500880281713</v>
       </c>
       <c r="S45" t="n">
         <v>4</v>
@@ -3815,41 +3815,41 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>243569</v>
+        <v>251594</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="D46" t="n">
-        <v>36.63380281690141</v>
+        <v>106</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>2025-05-12 11:52:29</t>
+          <t>2025-05-12 11:40:53</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>2025-05-12 12:09:29</t>
+          <t>2025-05-12 12:05:53</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>2025-05-12 12:09:29</t>
+          <t>2025-05-12 12:05:53</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>2025-05-12 12:46:07</t>
+          <t>2025-05-12 13:51:53</t>
         </is>
       </c>
       <c r="I46" t="n">
-        <v>2601</v>
+        <v>6466</v>
       </c>
       <c r="J46" t="inlineStr">
         <is>
@@ -3858,14 +3858,14 @@
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L46" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M46" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="O46" t="n">
         <v>0</v>
@@ -3875,49 +3875,49 @@
       </c>
       <c r="Q46" t="inlineStr">
         <is>
-          <t>2024-09-16 00:00:00</t>
+          <t>2025-05-07 00:00:00</t>
         </is>
       </c>
       <c r="R46" s="1" t="n">
-        <v>-238.5320324726158</v>
+        <v>-5.577698087430555</v>
       </c>
       <c r="S46" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>244355</v>
+        <v>244354</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>R9</t>
+          <t>R3</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="D47" t="n">
-        <v>62.46376811594203</v>
+        <v>87.95918367346938</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>2025-05-12 12:08:01</t>
+          <t>2025-05-12 11:48:30</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>2025-05-12 12:33:01</t>
+          <t>2025-05-12 12:33:30</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>2025-05-12 12:33:01</t>
+          <t>2025-05-12 12:33:30</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>2025-05-12 13:35:29</t>
+          <t>2025-05-12 14:01:28</t>
         </is>
       </c>
       <c r="I47" t="n">
@@ -3951,7 +3951,7 @@
         </is>
       </c>
       <c r="R47" s="1" t="n">
-        <v>-4.566314412233797</v>
+        <v>-4.584353741493056</v>
       </c>
       <c r="S47" t="n">
         <v>4</v>
@@ -3959,41 +3959,41 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>244204</v>
+        <v>244355</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>BIMEC 4</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D48" t="n">
-        <v>48.90140845070422</v>
+        <v>70.65573770491804</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>2025-05-12 12:11:49</t>
+          <t>2025-05-12 12:16:42</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>2025-05-12 12:51:49</t>
+          <t>2025-05-12 12:58:42</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>2025-05-12 12:51:49</t>
+          <t>2025-05-12 12:58:42</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>2025-05-12 13:40:43</t>
+          <t>2025-05-12 14:09:21</t>
         </is>
       </c>
       <c r="I48" t="n">
-        <v>3472</v>
+        <v>4310</v>
       </c>
       <c r="J48" t="inlineStr">
         <is>
@@ -4023,7 +4023,7 @@
         </is>
       </c>
       <c r="R48" s="1" t="n">
-        <v>-4.569943270740741</v>
+        <v>-4.589833788703704</v>
       </c>
       <c r="S48" t="n">
         <v>4</v>
@@ -4031,41 +4031,41 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>251743</v>
+        <v>244204</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D49" t="n">
-        <v>176.655737704918</v>
+        <v>48.90140845070422</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>2025-05-12 12:16:42</t>
+          <t>2025-05-12 12:41:25</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>2025-05-12 12:58:42</t>
+          <t>2025-05-12 13:21:25</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>2025-05-12 12:58:42</t>
+          <t>2025-05-12 13:21:25</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>2025-05-13 07:55:21</t>
+          <t>2025-05-12 14:10:19</t>
         </is>
       </c>
       <c r="I49" t="n">
-        <v>10776</v>
+        <v>3472</v>
       </c>
       <c r="J49" t="inlineStr">
         <is>
@@ -4091,11 +4091,11 @@
       </c>
       <c r="Q49" t="inlineStr">
         <is>
-          <t>2025-05-16 00:00:00</t>
+          <t>2025-05-08 00:00:00</t>
         </is>
       </c>
       <c r="R49" s="1" t="n">
-        <v>0</v>
+        <v>-4.590502738657407</v>
       </c>
       <c r="S49" t="n">
         <v>4</v>
@@ -4103,7 +4103,7 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>251809</v>
+        <v>251743</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
@@ -4114,30 +4114,30 @@
         <v>30.5</v>
       </c>
       <c r="D50" t="n">
-        <v>157.8363636363636</v>
+        <v>195.9272727272727</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>2025-05-12 12:29:58</t>
+          <t>2025-05-12 12:59:26</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>2025-05-12 13:00:28</t>
+          <t>2025-05-12 13:29:56</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>2025-05-12 13:00:28</t>
+          <t>2025-05-12 13:29:56</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>2025-05-13 07:38:18</t>
+          <t>2025-05-13 08:45:52</t>
         </is>
       </c>
       <c r="I50" t="n">
-        <v>8681</v>
+        <v>10776</v>
       </c>
       <c r="J50" t="inlineStr">
         <is>
@@ -4163,7 +4163,7 @@
       </c>
       <c r="Q50" t="inlineStr">
         <is>
-          <t>2025-05-22 00:00:00</t>
+          <t>2025-05-16 00:00:00</t>
         </is>
       </c>
       <c r="R50" s="1" t="n">
@@ -4175,41 +4175,41 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>250819</v>
+        <v>251809</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>R3</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C51" t="n">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="D51" t="n">
-        <v>174.0204081632653</v>
+        <v>122.2676056338028</v>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>2025-05-12 12:42:09</t>
+          <t>2025-05-12 13:12:07</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>2025-05-12 13:27:09</t>
+          <t>2025-05-12 13:27:07</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>2025-05-12 13:27:09</t>
+          <t>2025-05-12 13:27:07</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>2025-05-13 08:21:11</t>
+          <t>2025-05-13 07:29:23</t>
         </is>
       </c>
       <c r="I51" t="n">
-        <v>8527</v>
+        <v>8681</v>
       </c>
       <c r="J51" t="inlineStr">
         <is>
@@ -4222,7 +4222,7 @@
         </is>
       </c>
       <c r="L51" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M51" t="n">
         <v>70</v>
@@ -4235,53 +4235,53 @@
       </c>
       <c r="Q51" t="inlineStr">
         <is>
-          <t>2025-04-18 00:00:00</t>
+          <t>2025-05-22 00:00:00</t>
         </is>
       </c>
       <c r="R51" s="1" t="n">
-        <v>-25.34804421768519</v>
+        <v>0</v>
       </c>
       <c r="S51" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>245623</v>
+        <v>250819</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C52" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D52" t="n">
-        <v>372.0985915492957</v>
+        <v>139.7868852459016</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>2025-05-12 12:46:07</t>
+          <t>2025-05-12 13:51:53</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>2025-05-12 13:18:07</t>
+          <t>2025-05-12 14:21:53</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>2025-05-12 13:18:07</t>
+          <t>2025-05-12 14:21:53</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>2025-05-13 11:30:13</t>
+          <t>2025-05-13 08:41:40</t>
         </is>
       </c>
       <c r="I52" t="n">
-        <v>26419</v>
+        <v>8527</v>
       </c>
       <c r="J52" t="inlineStr">
         <is>
@@ -4290,14 +4290,14 @@
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L52" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="M52" t="n">
-        <v>152</v>
+        <v>70</v>
       </c>
       <c r="O52" t="n">
         <v>0</v>
@@ -4307,11 +4307,11 @@
       </c>
       <c r="Q52" t="inlineStr">
         <is>
-          <t>2025-01-25 00:00:00</t>
+          <t>2025-04-18 00:00:00</t>
         </is>
       </c>
       <c r="R52" s="1" t="n">
-        <v>-108.4793231611921</v>
+        <v>-25.36227231329861</v>
       </c>
       <c r="S52" t="n">
         <v>2</v>
@@ -4323,33 +4323,33 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>R3</t>
         </is>
       </c>
       <c r="C53" t="n">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="D53" t="n">
-        <v>78.81967213114754</v>
+        <v>98.12244897959184</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>2025-05-12 12:51:13</t>
+          <t>2025-05-12 14:01:28</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>2025-05-12 13:16:13</t>
+          <t>2025-05-12 14:41:28</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>2025-05-12 13:16:13</t>
+          <t>2025-05-12 14:41:28</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>2025-05-12 14:35:02</t>
+          <t>2025-05-13 08:19:35</t>
         </is>
       </c>
       <c r="I53" t="n">
@@ -4383,7 +4383,7 @@
         </is>
       </c>
       <c r="R53" s="1" t="n">
-        <v>-19.60767304189815</v>
+        <v>-20.34693877550926</v>
       </c>
       <c r="S53" t="n">
         <v>2</v>
@@ -4395,33 +4395,33 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>BIMEC 4</t>
         </is>
       </c>
       <c r="C54" t="n">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="D54" t="n">
-        <v>54.35211267605634</v>
+        <v>63.26229508196721</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>2025-05-12 13:30:23</t>
+          <t>2025-05-12 14:09:21</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>2025-05-12 13:49:23</t>
+          <t>2025-05-12 14:42:21</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>2025-05-12 13:49:23</t>
+          <t>2025-05-12 14:42:21</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>2025-05-12 14:43:44</t>
+          <t>2025-05-13 07:45:37</t>
         </is>
       </c>
       <c r="I54" t="n">
@@ -4455,7 +4455,7 @@
         </is>
       </c>
       <c r="R54" s="1" t="n">
-        <v>-14.61371283254629</v>
+        <v>-15.32334927140046</v>
       </c>
       <c r="S54" t="n">
         <v>2</v>
@@ -4463,41 +4463,41 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>250641</v>
+        <v>251109</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>R9</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="C55" t="n">
-        <v>35</v>
+        <v>95</v>
       </c>
       <c r="D55" t="n">
-        <v>74.14492753623189</v>
+        <v>266.5915492957747</v>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>2025-05-12 13:35:29</t>
+          <t>2025-05-12 14:10:19</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>2025-05-12 14:10:29</t>
+          <t>2025-05-13 07:45:19</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>2025-05-12 14:10:29</t>
+          <t>2025-05-13 07:45:19</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>2025-05-13 07:24:38</t>
+          <t>2025-05-13 12:11:54</t>
         </is>
       </c>
       <c r="I55" t="n">
-        <v>5116</v>
+        <v>18928</v>
       </c>
       <c r="J55" t="inlineStr">
         <is>
@@ -4506,11 +4506,11 @@
       </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="L55" t="n">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="M55" t="n">
         <v>70</v>
@@ -4523,11 +4523,11 @@
       </c>
       <c r="Q55" t="inlineStr">
         <is>
-          <t>2025-04-28 00:00:00</t>
+          <t>2025-04-18 00:00:00</t>
         </is>
       </c>
       <c r="R55" s="1" t="n">
-        <v>-15.30877616747685</v>
+        <v>-25.50827464788194</v>
       </c>
       <c r="S55" t="n">
         <v>2</v>
@@ -4535,41 +4535,41 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>251109</v>
+        <v>250641</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C56" t="n">
-        <v>95</v>
+        <v>31</v>
       </c>
       <c r="D56" t="n">
-        <v>266.5915492957747</v>
+        <v>79.9375</v>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>2025-05-12 13:40:43</t>
+          <t>2025-05-12 14:18:06</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>2025-05-13 07:15:43</t>
+          <t>2025-05-12 14:49:06</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>2025-05-13 07:15:43</t>
+          <t>2025-05-12 14:49:06</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>2025-05-13 11:42:18</t>
+          <t>2025-05-13 08:09:02</t>
         </is>
       </c>
       <c r="I56" t="n">
-        <v>18928</v>
+        <v>5116</v>
       </c>
       <c r="J56" t="inlineStr">
         <is>
@@ -4578,11 +4578,11 @@
       </c>
       <c r="K56" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L56" t="n">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="M56" t="n">
         <v>70</v>
@@ -4595,11 +4595,11 @@
       </c>
       <c r="Q56" t="inlineStr">
         <is>
-          <t>2025-04-18 00:00:00</t>
+          <t>2025-04-28 00:00:00</t>
         </is>
       </c>
       <c r="R56" s="1" t="n">
-        <v>-25.48771517996527</v>
+        <v>-15.33961588541667</v>
       </c>
       <c r="S56" t="n">
         <v>2</v>
@@ -4611,33 +4611,33 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C57" t="n">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="D57" t="n">
-        <v>24.421875</v>
+        <v>22.01408450704225</v>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>2025-05-12 13:44:10</t>
+          <t>2025-05-12 14:43:44</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>2025-05-12 14:34:10</t>
+          <t>2025-05-13 07:17:44</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>2025-05-12 14:34:10</t>
+          <t>2025-05-13 07:17:44</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>2025-05-12 14:58:35</t>
+          <t>2025-05-13 07:39:45</t>
         </is>
       </c>
       <c r="I57" t="n">
@@ -4671,7 +4671,7 @@
         </is>
       </c>
       <c r="R57" s="1" t="n">
-        <v>-7.6240234375</v>
+        <v>-8.319278169016203</v>
       </c>
       <c r="S57" t="n">
         <v>2</v>
@@ -4683,33 +4683,33 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>R9</t>
         </is>
       </c>
       <c r="C58" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="D58" t="n">
-        <v>81.9672131147541</v>
+        <v>72.46376811594203</v>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>2025-05-12 14:35:02</t>
+          <t>2025-05-12 14:50:21</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>2025-05-13 07:15:02</t>
+          <t>2025-05-13 07:20:21</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>2025-05-13 07:15:02</t>
+          <t>2025-05-13 07:20:21</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>2025-05-13 08:37:00</t>
+          <t>2025-05-13 08:32:49</t>
         </is>
       </c>
       <c r="I58" t="n">
@@ -4743,7 +4743,7 @@
         </is>
       </c>
       <c r="R58" s="1" t="n">
-        <v>-7.359039162118055</v>
+        <v>-7.356129227048611</v>
       </c>
       <c r="S58" t="n">
         <v>2</v>
@@ -4759,29 +4759,29 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="D59" t="n">
         <v>187.0281690140845</v>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>2025-05-12 14:43:44</t>
+          <t>2025-05-13 07:29:23</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>2025-05-13 07:06:44</t>
+          <t>2025-05-13 07:44:23</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>2025-05-13 07:06:44</t>
+          <t>2025-05-13 07:44:23</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>2025-05-13 10:13:46</t>
+          <t>2025-05-13 10:51:25</t>
         </is>
       </c>
       <c r="I59" t="n">
@@ -4827,33 +4827,33 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C60" t="n">
         <v>30</v>
       </c>
       <c r="D60" t="n">
-        <v>515.6875</v>
+        <v>464.8450704225352</v>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>2025-05-12 14:58:35</t>
+          <t>2025-05-13 07:39:45</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>2025-05-13 07:28:35</t>
+          <t>2025-05-13 08:09:45</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>2025-05-13 07:28:35</t>
+          <t>2025-05-13 08:09:45</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>2025-05-14 08:04:16</t>
+          <t>2025-05-14 07:54:36</t>
         </is>
       </c>
       <c r="I60" t="n">
@@ -4887,7 +4887,7 @@
         </is>
       </c>
       <c r="R60" s="1" t="n">
-        <v>-285.3363064236111</v>
+        <v>-285.3295872456944</v>
       </c>
       <c r="S60" t="n">
         <v>1</v>
@@ -4899,33 +4899,33 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>R9</t>
+          <t>BIMEC 4</t>
         </is>
       </c>
       <c r="C61" t="n">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="D61" t="n">
-        <v>14.44927536231884</v>
+        <v>16.34426229508197</v>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>2025-05-13 07:24:38</t>
+          <t>2025-05-13 07:45:37</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>2025-05-13 07:49:38</t>
+          <t>2025-05-13 08:14:37</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>2025-05-13 07:49:38</t>
+          <t>2025-05-13 08:14:37</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>2025-05-13 08:04:05</t>
+          <t>2025-05-13 08:30:58</t>
         </is>
       </c>
       <c r="I61" t="n">
@@ -4959,7 +4959,7 @@
         </is>
       </c>
       <c r="R61" s="1" t="n">
-        <v>-225.336171497581</v>
+        <v>-225.3548383424421</v>
       </c>
       <c r="S61" t="n">
         <v>1</v>
@@ -4971,33 +4971,33 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C62" t="n">
-        <v>34.5</v>
+        <v>15</v>
       </c>
       <c r="D62" t="n">
-        <v>13.70909090909091</v>
+        <v>11.78125</v>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>2025-05-13 07:38:18</t>
+          <t>2025-05-13 08:09:02</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>2025-05-13 08:12:48</t>
+          <t>2025-05-13 08:24:02</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>2025-05-13 08:12:48</t>
+          <t>2025-05-13 08:24:02</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>2025-05-13 08:26:31</t>
+          <t>2025-05-13 08:35:49</t>
         </is>
       </c>
       <c r="I62" t="n">
@@ -5031,7 +5031,7 @@
         </is>
       </c>
       <c r="R62" s="1" t="n">
-        <v>-56.35174873737268</v>
+        <v>-56.35821397569445</v>
       </c>
       <c r="S62" t="n">
         <v>1</v>
@@ -5043,33 +5043,33 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>R3</t>
         </is>
       </c>
       <c r="C63" t="n">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="D63" t="n">
-        <v>12.36065573770492</v>
+        <v>15.38775510204082</v>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>2025-05-13 07:55:21</t>
+          <t>2025-05-13 08:19:35</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>2025-05-13 08:24:21</t>
+          <t>2025-05-13 08:59:35</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>2025-05-13 08:24:21</t>
+          <t>2025-05-13 08:59:35</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>2025-05-13 08:36:43</t>
+          <t>2025-05-13 09:14:58</t>
         </is>
       </c>
       <c r="I63" t="n">
@@ -5103,7 +5103,7 @@
         </is>
       </c>
       <c r="R63" s="1" t="n">
-        <v>-46.35883424408565</v>
+        <v>-46.3854024943287</v>
       </c>
       <c r="S63" t="n">
         <v>1</v>
@@ -5115,33 +5115,33 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>R9</t>
+          <t>BIMEC 4</t>
         </is>
       </c>
       <c r="C64" t="n">
         <v>25</v>
       </c>
       <c r="D64" t="n">
-        <v>347.7826086956522</v>
+        <v>393.3934426229508</v>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>2025-05-13 08:04:05</t>
+          <t>2025-05-13 08:30:58</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>2025-05-13 08:29:05</t>
+          <t>2025-05-13 08:55:58</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>2025-05-13 08:29:05</t>
+          <t>2025-05-13 08:55:58</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>2025-05-13 14:16:52</t>
+          <t>2025-05-14 07:29:21</t>
         </is>
       </c>
       <c r="I64" t="n">
@@ -5175,7 +5175,7 @@
         </is>
       </c>
       <c r="R64" s="1" t="n">
-        <v>-8.595048309178241</v>
+        <v>-9.312056010925927</v>
       </c>
       <c r="S64" t="n">
         <v>1</v>
@@ -5187,33 +5187,33 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>R3</t>
+          <t>R9</t>
         </is>
       </c>
       <c r="C65" t="n">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="D65" t="n">
-        <v>549.6734693877551</v>
+        <v>390.3478260869565</v>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>2025-05-13 08:21:11</t>
+          <t>2025-05-13 08:32:49</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>2025-05-13 08:56:11</t>
+          <t>2025-05-13 09:12:49</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>2025-05-13 08:56:11</t>
+          <t>2025-05-13 09:12:49</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>2025-05-14 10:05:51</t>
+          <t>2025-05-14 07:43:10</t>
         </is>
       </c>
       <c r="I65" t="n">
@@ -5247,7 +5247,7 @@
         </is>
       </c>
       <c r="R65" s="1" t="n">
-        <v>-5.420734126979166</v>
+        <v>-5.321648550729166</v>
       </c>
       <c r="S65" t="n">
         <v>1</v>
@@ -5259,33 +5259,33 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C66" t="n">
-        <v>30.5</v>
+        <v>15</v>
       </c>
       <c r="D66" t="n">
-        <v>218.2181818181818</v>
+        <v>187.53125</v>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>2025-05-13 08:26:31</t>
+          <t>2025-05-13 08:35:49</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>2025-05-13 08:57:01</t>
+          <t>2025-05-13 08:50:49</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>2025-05-13 08:57:01</t>
+          <t>2025-05-13 08:50:49</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>2025-05-13 12:35:14</t>
+          <t>2025-05-13 11:58:21</t>
         </is>
       </c>
       <c r="I66" t="n">
@@ -5319,7 +5319,7 @@
         </is>
       </c>
       <c r="R66" s="1" t="n">
-        <v>-4.524469696967593</v>
+        <v>-4.498860677083333</v>
       </c>
       <c r="S66" t="n">
         <v>1</v>
@@ -5331,33 +5331,33 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C67" t="n">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="D67" t="n">
         <v>91.26229508196721</v>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>2025-05-13 08:36:43</t>
+          <t>2025-05-13 08:41:40</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>2025-05-13 09:07:43</t>
+          <t>2025-05-13 09:16:40</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>2025-05-13 09:07:43</t>
+          <t>2025-05-13 09:16:40</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>2025-05-13 10:38:59</t>
+          <t>2025-05-13 10:47:56</t>
         </is>
       </c>
       <c r="I67" t="n">
@@ -5391,7 +5391,7 @@
         </is>
       </c>
       <c r="R67" s="1" t="n">
-        <v>-4.443738615659723</v>
+        <v>-4.449954462662038</v>
       </c>
       <c r="S67" t="n">
         <v>1</v>
@@ -5403,33 +5403,33 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C68" t="n">
-        <v>45</v>
+        <v>30.5</v>
       </c>
       <c r="D68" t="n">
-        <v>114.2131147540984</v>
+        <v>126.6727272727273</v>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>2025-05-13 08:37:00</t>
+          <t>2025-05-13 08:45:52</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>2025-05-13 09:22:00</t>
+          <t>2025-05-13 09:16:22</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>2025-05-13 09:22:00</t>
+          <t>2025-05-13 09:16:22</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>2025-05-13 11:16:13</t>
+          <t>2025-05-13 11:23:02</t>
         </is>
       </c>
       <c r="I68" t="n">
@@ -5463,7 +5463,7 @@
         </is>
       </c>
       <c r="R68" s="1" t="n">
-        <v>-4.469603825138889</v>
+        <v>-4.474337121215278</v>
       </c>
       <c r="S68" t="n">
         <v>1</v>
@@ -5475,33 +5475,33 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>R3</t>
         </is>
       </c>
       <c r="C69" t="n">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="D69" t="n">
-        <v>100.7464788732394</v>
+        <v>145.9795918367347</v>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>2025-05-13 10:13:46</t>
+          <t>2025-05-13 09:14:58</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>2025-05-13 10:28:46</t>
+          <t>2025-05-13 09:59:58</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>2025-05-13 10:28:46</t>
+          <t>2025-05-13 09:59:58</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>2025-05-13 12:09:31</t>
+          <t>2025-05-13 12:25:57</t>
         </is>
       </c>
       <c r="I69" t="n">
@@ -5535,7 +5535,7 @@
         </is>
       </c>
       <c r="R69" s="1" t="n">
-        <v>-4.506611893587963</v>
+        <v>-4.51802721087963</v>
       </c>
       <c r="S69" t="n">
         <v>1</v>
@@ -5547,33 +5547,33 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C70" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D70" t="n">
         <v>102.0655737704918</v>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>2025-05-13 10:38:59</t>
+          <t>2025-05-13 10:47:56</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>2025-05-13 11:05:59</t>
+          <t>2025-05-13 11:12:56</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>2025-05-13 11:05:59</t>
+          <t>2025-05-13 11:12:56</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>2025-05-13 12:48:02</t>
+          <t>2025-05-13 12:55:00</t>
         </is>
       </c>
       <c r="I70" t="n">
@@ -5607,7 +5607,7 @@
         </is>
       </c>
       <c r="R70" s="1" t="n">
-        <v>-4.533367486342593</v>
+        <v>-4.538194444444445</v>
       </c>
       <c r="S70" t="n">
         <v>1</v>
@@ -5619,33 +5619,33 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C71" t="n">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="D71" t="n">
-        <v>102.0655737704918</v>
+        <v>87.69014084507042</v>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>2025-05-13 11:16:13</t>
+          <t>2025-05-13 10:51:25</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>2025-05-13 11:46:13</t>
+          <t>2025-05-13 11:10:25</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>2025-05-13 11:46:13</t>
+          <t>2025-05-13 11:10:25</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>2025-05-13 13:28:17</t>
+          <t>2025-05-13 12:38:06</t>
         </is>
       </c>
       <c r="I71" t="n">
@@ -5679,7 +5679,7 @@
         </is>
       </c>
       <c r="R71" s="1" t="n">
-        <v>-4.561316029143518</v>
+        <v>-4.526467136145834</v>
       </c>
       <c r="S71" t="n">
         <v>1</v>
@@ -5687,41 +5687,41 @@
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>251750</v>
+        <v>251467</v>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C72" t="n">
-        <v>17</v>
+        <v>34.5</v>
       </c>
       <c r="D72" t="n">
-        <v>54.80281690140845</v>
+        <v>113.2</v>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>2025-05-13 11:30:13</t>
+          <t>2025-05-13 11:23:02</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>2025-05-13 11:47:13</t>
+          <t>2025-05-13 11:57:32</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>2025-05-13 11:47:13</t>
+          <t>2025-05-13 11:57:32</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>2025-05-13 12:42:01</t>
+          <t>2025-05-13 13:50:44</t>
         </is>
       </c>
       <c r="I72" t="n">
-        <v>3891</v>
+        <v>6226</v>
       </c>
       <c r="J72" t="inlineStr">
         <is>
@@ -5730,14 +5730,14 @@
       </c>
       <c r="K72" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L72" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M72" t="n">
-        <v>152</v>
+        <v>70</v>
       </c>
       <c r="O72" t="n">
         <v>0</v>
@@ -5747,11 +5747,11 @@
       </c>
       <c r="Q72" t="inlineStr">
         <is>
-          <t>2025-05-26 00:00:00</t>
+          <t>2025-05-09 00:00:00</t>
         </is>
       </c>
       <c r="R72" s="1" t="n">
-        <v>0</v>
+        <v>-4.576906565659722</v>
       </c>
       <c r="S72" t="n">
         <v>1</v>
@@ -5759,41 +5759,41 @@
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>251467</v>
+        <v>251374</v>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C73" t="n">
-        <v>105</v>
+        <v>17</v>
       </c>
       <c r="D73" t="n">
-        <v>87.69014084507042</v>
+        <v>427.234375</v>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>2025-05-13 11:42:18</t>
+          <t>2025-05-13 11:58:21</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>2025-05-13 13:27:18</t>
+          <t>2025-05-13 12:15:21</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>2025-05-13 13:27:18</t>
+          <t>2025-05-13 12:15:21</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>2025-05-13 14:55:00</t>
+          <t>2025-05-14 11:22:35</t>
         </is>
       </c>
       <c r="I73" t="n">
-        <v>6226</v>
+        <v>27343</v>
       </c>
       <c r="J73" t="inlineStr">
         <is>
@@ -5802,11 +5802,11 @@
       </c>
       <c r="K73" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
         </is>
       </c>
       <c r="L73" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="M73" t="n">
         <v>70</v>
@@ -5819,11 +5819,11 @@
       </c>
       <c r="Q73" t="inlineStr">
         <is>
-          <t>2025-05-09 00:00:00</t>
+          <t>2025-05-15 00:00:00</t>
         </is>
       </c>
       <c r="R73" s="1" t="n">
-        <v>-4.621527777777778</v>
+        <v>0</v>
       </c>
       <c r="S73" t="n">
         <v>1</v>
@@ -5831,41 +5831,41 @@
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>251374</v>
+        <v>251520</v>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="C74" t="n">
-        <v>21</v>
+        <v>80</v>
       </c>
       <c r="D74" t="n">
-        <v>385.112676056338</v>
+        <v>230.1408450704225</v>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>2025-05-13 12:09:31</t>
+          <t>2025-05-13 12:11:54</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>2025-05-13 12:30:31</t>
+          <t>2025-05-13 13:31:54</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>2025-05-13 12:30:31</t>
+          <t>2025-05-13 13:31:54</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>2025-05-14 10:55:38</t>
+          <t>2025-05-14 09:22:03</t>
         </is>
       </c>
       <c r="I74" t="n">
-        <v>27343</v>
+        <v>16340</v>
       </c>
       <c r="J74" t="inlineStr">
         <is>
@@ -5874,7 +5874,7 @@
       </c>
       <c r="K74" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
+          <t>CASON ;R6</t>
         </is>
       </c>
       <c r="L74" t="n">
@@ -5891,11 +5891,11 @@
       </c>
       <c r="Q74" t="inlineStr">
         <is>
-          <t>2025-05-15 00:00:00</t>
+          <t>2025-05-12 00:00:00</t>
         </is>
       </c>
       <c r="R74" s="1" t="n">
-        <v>0</v>
+        <v>-2.390316901412037</v>
       </c>
       <c r="S74" t="n">
         <v>1</v>
@@ -5903,41 +5903,41 @@
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>251520</v>
+        <v>251580</v>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>R3</t>
         </is>
       </c>
       <c r="C75" t="n">
-        <v>32.5</v>
+        <v>35</v>
       </c>
       <c r="D75" t="n">
-        <v>297.0909090909091</v>
+        <v>145.9795918367347</v>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>2025-05-13 12:35:14</t>
+          <t>2025-05-13 12:25:57</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>2025-05-13 13:07:44</t>
+          <t>2025-05-13 13:00:57</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>2025-05-13 13:07:44</t>
+          <t>2025-05-13 13:00:57</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>2025-05-14 10:04:49</t>
+          <t>2025-05-14 07:26:56</t>
         </is>
       </c>
       <c r="I75" t="n">
-        <v>16340</v>
+        <v>7153</v>
       </c>
       <c r="J75" t="inlineStr">
         <is>
@@ -5946,11 +5946,11 @@
       </c>
       <c r="K75" t="inlineStr">
         <is>
-          <t>CASON ;R6</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L75" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="M75" t="n">
         <v>70</v>
@@ -5963,11 +5963,11 @@
       </c>
       <c r="Q75" t="inlineStr">
         <is>
-          <t>2025-05-12 00:00:00</t>
+          <t>2025-05-15 00:00:00</t>
         </is>
       </c>
       <c r="R75" s="1" t="n">
-        <v>-2.420018939398148</v>
+        <v>0</v>
       </c>
       <c r="S75" t="n">
         <v>1</v>
@@ -5975,41 +5975,41 @@
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>251987</v>
+        <v>251557</v>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C76" t="n">
-        <v>36</v>
+        <v>15</v>
       </c>
       <c r="D76" t="n">
-        <v>2965.154929577465</v>
+        <v>94.43661971830986</v>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>2025-05-13 12:42:01</t>
+          <t>2025-05-13 12:38:06</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>2025-05-13 13:18:01</t>
+          <t>2025-05-13 12:53:06</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>2025-05-13 13:18:01</t>
+          <t>2025-05-13 12:53:06</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>2025-05-21 14:43:10</t>
+          <t>2025-05-13 14:27:32</t>
         </is>
       </c>
       <c r="I76" t="n">
-        <v>210526</v>
+        <v>6705</v>
       </c>
       <c r="J76" t="inlineStr">
         <is>
@@ -6018,14 +6018,14 @@
       </c>
       <c r="K76" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L76" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="M76" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="O76" t="n">
         <v>0</v>
@@ -6035,7 +6035,7 @@
       </c>
       <c r="Q76" t="inlineStr">
         <is>
-          <t>2025-09-01 00:00:00</t>
+          <t>2025-05-15 00:00:00</t>
         </is>
       </c>
       <c r="R76" s="1" t="n">
@@ -6047,41 +6047,41 @@
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>251580</v>
+        <v>251562</v>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C77" t="n">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="D77" t="n">
-        <v>117.2622950819672</v>
+        <v>133.4754098360656</v>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>2025-05-13 12:48:02</t>
+          <t>2025-05-13 12:55:00</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>2025-05-13 13:17:02</t>
+          <t>2025-05-13 13:15:00</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>2025-05-13 13:17:02</t>
+          <t>2025-05-13 13:15:00</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>2025-05-14 07:14:18</t>
+          <t>2025-05-14 07:28:28</t>
         </is>
       </c>
       <c r="I77" t="n">
-        <v>7153</v>
+        <v>8142</v>
       </c>
       <c r="J77" t="inlineStr">
         <is>
@@ -6094,7 +6094,7 @@
         </is>
       </c>
       <c r="L77" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M77" t="n">
         <v>70</v>
@@ -6119,41 +6119,41 @@
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>251557</v>
+        <v>251260</v>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C78" t="n">
-        <v>20</v>
+        <v>38.5</v>
       </c>
       <c r="D78" t="n">
-        <v>109.9180327868852</v>
+        <v>170.3454545454545</v>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>2025-05-13 13:28:17</t>
+          <t>2025-05-13 13:50:44</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>2025-05-13 13:48:17</t>
+          <t>2025-05-13 14:29:14</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>2025-05-13 13:48:17</t>
+          <t>2025-05-13 14:29:14</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>2025-05-14 07:38:12</t>
+          <t>2025-05-14 09:19:35</t>
         </is>
       </c>
       <c r="I78" t="n">
-        <v>6705</v>
+        <v>9369</v>
       </c>
       <c r="J78" t="inlineStr">
         <is>
@@ -6162,11 +6162,11 @@
       </c>
       <c r="K78" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R9</t>
         </is>
       </c>
       <c r="L78" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="M78" t="n">
         <v>70</v>
@@ -6179,7 +6179,7 @@
       </c>
       <c r="Q78" t="inlineStr">
         <is>
-          <t>2025-05-15 00:00:00</t>
+          <t>2025-05-22 00:00:00</t>
         </is>
       </c>
       <c r="R78" s="1" t="n">
@@ -6191,41 +6191,41 @@
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>251562</v>
+        <v>251062</v>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>R9</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C79" t="n">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="D79" t="n">
-        <v>118</v>
+        <v>318.6478873239437</v>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>2025-05-13 14:16:52</t>
+          <t>2025-05-13 14:27:32</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>2025-05-14 07:01:52</t>
+          <t>2025-05-13 14:50:32</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>2025-05-14 07:01:52</t>
+          <t>2025-05-13 14:50:32</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>2025-05-14 08:59:52</t>
+          <t>2025-05-14 12:09:11</t>
         </is>
       </c>
       <c r="I79" t="n">
-        <v>8142</v>
+        <v>22624</v>
       </c>
       <c r="J79" t="inlineStr">
         <is>
@@ -6234,11 +6234,11 @@
       </c>
       <c r="K79" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
         </is>
       </c>
       <c r="L79" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="M79" t="n">
         <v>70</v>
@@ -6251,7 +6251,7 @@
       </c>
       <c r="Q79" t="inlineStr">
         <is>
-          <t>2025-05-15 00:00:00</t>
+          <t>2025-05-23 00:00:00</t>
         </is>
       </c>
       <c r="R79" s="1" t="n">
@@ -6263,41 +6263,41 @@
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>251260</v>
+        <v>251252</v>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>R3</t>
         </is>
       </c>
       <c r="C80" t="n">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="D80" t="n">
-        <v>153.5901639344262</v>
+        <v>307.8163265306122</v>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>2025-05-14 07:14:18</t>
+          <t>2025-05-14 07:26:56</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>2025-05-14 07:43:18</t>
+          <t>2025-05-14 08:11:56</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>2025-05-14 07:43:18</t>
+          <t>2025-05-14 08:11:56</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>2025-05-14 10:16:54</t>
+          <t>2025-05-14 13:19:45</t>
         </is>
       </c>
       <c r="I80" t="n">
-        <v>9369</v>
+        <v>15083</v>
       </c>
       <c r="J80" t="inlineStr">
         <is>
@@ -6306,7 +6306,7 @@
       </c>
       <c r="K80" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
         </is>
       </c>
       <c r="L80" t="n">
@@ -6323,7 +6323,7 @@
       </c>
       <c r="Q80" t="inlineStr">
         <is>
-          <t>2025-05-22 00:00:00</t>
+          <t>2025-05-23 00:00:00</t>
         </is>
       </c>
       <c r="R80" s="1" t="n">
@@ -6335,7 +6335,7 @@
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>251062</v>
+        <v>251251</v>
       </c>
       <c r="B81" t="inlineStr">
         <is>
@@ -6346,30 +6346,30 @@
         <v>40</v>
       </c>
       <c r="D81" t="n">
-        <v>370.8852459016393</v>
+        <v>260</v>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>2025-05-14 07:38:12</t>
+          <t>2025-05-14 07:28:28</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>2025-05-14 08:18:12</t>
+          <t>2025-05-14 08:08:28</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>2025-05-14 08:18:12</t>
+          <t>2025-05-14 08:08:28</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>2025-05-14 14:29:05</t>
+          <t>2025-05-14 12:28:28</t>
         </is>
       </c>
       <c r="I81" t="n">
-        <v>22624</v>
+        <v>15860</v>
       </c>
       <c r="J81" t="inlineStr">
         <is>
@@ -6407,41 +6407,41 @@
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>251252</v>
+        <v>251750</v>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>BIMEC 4</t>
         </is>
       </c>
       <c r="C82" t="n">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="D82" t="n">
-        <v>235.671875</v>
+        <v>63.78688524590164</v>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>2025-05-14 08:04:16</t>
+          <t>2025-05-14 07:29:21</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>2025-05-14 08:38:16</t>
+          <t>2025-05-14 08:15:21</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>2025-05-14 08:38:16</t>
+          <t>2025-05-14 08:15:21</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>2025-05-14 12:33:57</t>
+          <t>2025-05-14 09:19:08</t>
         </is>
       </c>
       <c r="I82" t="n">
-        <v>15083</v>
+        <v>3891</v>
       </c>
       <c r="J82" t="inlineStr">
         <is>
@@ -6450,14 +6450,14 @@
       </c>
       <c r="K82" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L82" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="M82" t="n">
-        <v>70</v>
+        <v>152</v>
       </c>
       <c r="O82" t="n">
         <v>0</v>
@@ -6467,7 +6467,7 @@
       </c>
       <c r="Q82" t="inlineStr">
         <is>
-          <t>2025-05-23 00:00:00</t>
+          <t>2025-05-26 00:00:00</t>
         </is>
       </c>
       <c r="R82" s="1" t="n">
@@ -6479,7 +6479,7 @@
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>251251</v>
+        <v>251249</v>
       </c>
       <c r="B83" t="inlineStr">
         <is>
@@ -6487,33 +6487,33 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="D83" t="n">
-        <v>229.8550724637681</v>
+        <v>68.95652173913044</v>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>2025-05-14 08:59:52</t>
+          <t>2025-05-14 07:43:10</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>2025-05-14 09:44:52</t>
+          <t>2025-05-14 08:08:10</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>2025-05-14 09:44:52</t>
+          <t>2025-05-14 08:08:10</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>2025-05-14 13:34:43</t>
+          <t>2025-05-14 09:17:07</t>
         </is>
       </c>
       <c r="I83" t="n">
-        <v>15860</v>
+        <v>4758</v>
       </c>
       <c r="J83" t="inlineStr">
         <is>
@@ -6539,7 +6539,7 @@
       </c>
       <c r="Q83" t="inlineStr">
         <is>
-          <t>2025-05-23 00:00:00</t>
+          <t>2025-06-06 00:00:00</t>
         </is>
       </c>
       <c r="R83" s="1" t="n">
@@ -6551,41 +6551,41 @@
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>251249</v>
+        <v>251987</v>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C84" t="n">
-        <v>32.5</v>
+        <v>34</v>
       </c>
       <c r="D84" t="n">
-        <v>86.50909090909092</v>
+        <v>2965.154929577465</v>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>2025-05-14 10:04:49</t>
+          <t>2025-05-14 07:54:36</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>2025-05-14 10:37:19</t>
+          <t>2025-05-14 08:28:36</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>2025-05-14 10:37:19</t>
+          <t>2025-05-14 08:28:36</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>2025-05-14 12:03:50</t>
+          <t>2025-05-22 09:53:45</t>
         </is>
       </c>
       <c r="I84" t="n">
-        <v>4758</v>
+        <v>210526</v>
       </c>
       <c r="J84" t="inlineStr">
         <is>
@@ -6594,14 +6594,14 @@
       </c>
       <c r="K84" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R9</t>
         </is>
       </c>
       <c r="L84" t="n">
         <v>6</v>
       </c>
       <c r="M84" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="O84" t="n">
         <v>0</v>
@@ -6611,7 +6611,7 @@
       </c>
       <c r="Q84" t="inlineStr">
         <is>
-          <t>2025-06-06 00:00:00</t>
+          <t>2025-09-01 00:00:00</t>
         </is>
       </c>
       <c r="R84" s="1" t="n">
@@ -6627,33 +6627,33 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>R9</t>
         </is>
       </c>
       <c r="C85" t="n">
         <v>25</v>
       </c>
       <c r="D85" t="n">
-        <v>307.1967213114754</v>
+        <v>271.5797101449276</v>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>2025-05-14 10:16:54</t>
+          <t>2025-05-14 09:17:07</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>2025-05-14 10:41:54</t>
+          <t>2025-05-14 09:42:07</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>2025-05-14 10:41:54</t>
+          <t>2025-05-14 09:42:07</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>2025-05-15 07:49:05</t>
+          <t>2025-05-14 14:13:42</t>
         </is>
       </c>
       <c r="I85" t="n">
@@ -6699,33 +6699,33 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>BIMEC 4</t>
         </is>
       </c>
       <c r="C86" t="n">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="D86" t="n">
-        <v>7277.718309859155</v>
+        <v>8470.786885245901</v>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>2025-05-14 10:55:38</t>
+          <t>2025-05-14 09:19:08</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>2025-05-14 11:29:38</t>
+          <t>2025-05-14 10:03:08</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>2025-05-14 11:29:38</t>
+          <t>2025-05-14 10:03:08</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>2025-06-04 12:47:21</t>
+          <t>2025-06-09 07:13:56</t>
         </is>
       </c>
       <c r="I86" t="n">
@@ -6775,29 +6775,29 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D87" t="n">
         <v>1916.640625</v>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>2025-05-14 12:33:57</t>
+          <t>2025-05-14 11:22:35</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>2025-05-14 13:07:57</t>
+          <t>2025-05-14 11:58:35</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>2025-05-14 13:07:57</t>
+          <t>2025-05-14 11:58:35</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>2025-05-20 13:04:35</t>
+          <t>2025-05-20 11:55:14</t>
         </is>
       </c>
       <c r="I87" t="n">

--- a/PS-VRP/Dati_output/euristico_post.xlsx
+++ b/PS-VRP/Dati_output/euristico_post.xlsx
@@ -515,62 +515,60 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>251706</v>
+        <v>251225</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>T3</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="D2" t="n">
-        <v>50.79365079365079</v>
+        <v>0</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2025-05-12 07:00:00</t>
+          <t>2025-05-08 07:00:00</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2025-05-12 07:00:00</t>
+          <t>2025-05-08 07:19:00</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2025-05-12 07:00:00</t>
+          <t>2025-05-08 07:19:00</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2025-05-12 07:50:47</t>
+          <t>2025-05-08 07:19:00</t>
         </is>
       </c>
       <c r="I2" t="n">
-        <v>3200</v>
+        <v>0</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>foglio</t>
+          <t>bobina</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>T3</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>39764 (esterno)</t>
-        </is>
+        <v>76</v>
+      </c>
+      <c r="N2" t="n">
+        <v>39747</v>
       </c>
       <c r="O2" t="inlineStr">
         <is>
@@ -578,57 +576,57 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>39764</v>
+        <v>39747</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>2025-05-14 00:00:00</t>
+          <t>2025-04-30 00:00:00</t>
         </is>
       </c>
       <c r="R2" s="1" t="n">
-        <v>0</v>
+        <v>-0.3048611111111111</v>
       </c>
       <c r="S2" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>251050</v>
+        <v>251164</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>217</v>
+        <v>34</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>140.8450704225352</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2025-05-09 07:00:00</t>
+          <t>2025-05-08 07:19:00</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2025-05-09 10:37:00</t>
+          <t>2025-05-08 07:53:00</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>2025-05-09 10:37:00</t>
+          <t>2025-05-08 07:53:00</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2025-05-09 10:37:00</t>
+          <t>2025-05-08 10:13:50</t>
         </is>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="J3" t="inlineStr">
         <is>
@@ -637,17 +635,17 @@
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L3" t="n">
-        <v>38</v>
+        <v>6</v>
       </c>
       <c r="M3" t="n">
         <v>70</v>
       </c>
       <c r="N3" t="n">
-        <v>39747</v>
+        <v>39749</v>
       </c>
       <c r="O3" t="inlineStr">
         <is>
@@ -655,57 +653,57 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>39747</v>
+        <v>39749</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>2025-04-16 00:00:00</t>
+          <t>2025-04-22 00:00:00</t>
         </is>
       </c>
       <c r="R3" s="1" t="n">
-        <v>-1.442361111111111</v>
+        <v>-1.426281298900463</v>
       </c>
       <c r="S3" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>251054</v>
+        <v>251547</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>184.9154929577465</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2025-05-09 10:37:00</t>
+          <t>2025-05-08 10:13:50</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2025-05-09 11:12:00</t>
+          <t>2025-05-08 10:32:50</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>2025-05-09 11:12:00</t>
+          <t>2025-05-08 10:32:50</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>2025-05-09 11:12:00</t>
+          <t>2025-05-08 13:37:45</t>
         </is>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>13129</v>
       </c>
       <c r="J4" t="inlineStr">
         <is>
@@ -714,17 +712,17 @@
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L4" t="n">
-        <v>38</v>
+        <v>4</v>
       </c>
       <c r="M4" t="n">
         <v>70</v>
       </c>
       <c r="N4" t="n">
-        <v>39747</v>
+        <v>39749</v>
       </c>
       <c r="O4" t="inlineStr">
         <is>
@@ -732,57 +730,57 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>39747</v>
+        <v>39749</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>2025-04-16 00:00:00</t>
+          <t>2025-05-06 00:00:00</t>
         </is>
       </c>
       <c r="R4" s="1" t="n">
-        <v>-1.466666666666667</v>
+        <v>-1.567889280127315</v>
       </c>
       <c r="S4" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>251081</v>
+        <v>250759</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>125</v>
+        <v>30</v>
       </c>
       <c r="D5" t="n">
-        <v>42.42253521126761</v>
+        <v>118.2816901408451</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2025-05-09 11:12:00</t>
+          <t>2025-05-08 13:37:45</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2025-05-09 13:17:00</t>
+          <t>2025-05-08 14:07:45</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>2025-05-09 13:17:00</t>
+          <t>2025-05-08 14:07:45</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>2025-05-09 13:59:25</t>
+          <t>2025-05-09 08:06:02</t>
         </is>
       </c>
       <c r="I5" t="n">
-        <v>3012</v>
+        <v>8398</v>
       </c>
       <c r="J5" t="inlineStr">
         <is>
@@ -791,19 +789,17 @@
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12</t>
         </is>
       </c>
       <c r="L5" t="n">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="M5" t="n">
-        <v>70</v>
-      </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>39750 (esterno)</t>
-        </is>
+        <v>76</v>
+      </c>
+      <c r="N5" t="n">
+        <v>39747</v>
       </c>
       <c r="O5" t="inlineStr">
         <is>
@@ -811,57 +807,57 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>39750</v>
+        <v>39747</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>2025-04-23 00:00:00</t>
+          <t>2025-03-13 00:00:00</t>
         </is>
       </c>
       <c r="R5" s="1" t="n">
-        <v>-16.58293231612268</v>
+        <v>-1.337529342719907</v>
       </c>
       <c r="S5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>251284</v>
+        <v>250894</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>40.5</v>
+        <v>17</v>
       </c>
       <c r="D6" t="n">
-        <v>297.0909090909091</v>
+        <v>623.4084507042254</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2025-05-09 07:00:00</t>
+          <t>2025-05-09 08:06:02</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2025-05-09 07:40:30</t>
+          <t>2025-05-09 08:23:02</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>2025-05-09 07:40:30</t>
+          <t>2025-05-09 08:23:02</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>2025-05-09 12:37:35</t>
+          <t>2025-05-12 10:46:27</t>
         </is>
       </c>
       <c r="I6" t="n">
-        <v>16340</v>
+        <v>44262</v>
       </c>
       <c r="J6" t="inlineStr">
         <is>
@@ -870,75 +866,73 @@
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>CASON ;R6</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L6" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="M6" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="N6" t="n">
-        <v>39747</v>
-      </c>
-      <c r="O6" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>39755</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>39747</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>2025-05-12 00:00:00</t>
+          <t>2025-05-05 00:00:00</t>
         </is>
       </c>
       <c r="R6" s="1" t="n">
-        <v>-1.526104797974537</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>251742</v>
+        <v>251782</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="D7" t="n">
-        <v>134.8524590163935</v>
+        <v>170.0422535211268</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>2025-05-08 07:00:00</t>
+          <t>2025-05-08 12:00:00</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2025-05-08 07:30:00</t>
+          <t>2025-05-08 12:17:00</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>2025-05-08 07:30:00</t>
+          <t>2025-05-08 12:17:00</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>2025-05-08 09:44:51</t>
+          <t>2025-05-09 07:07:02</t>
         </is>
       </c>
       <c r="I7" t="n">
-        <v>8226</v>
+        <v>12073</v>
       </c>
       <c r="J7" t="inlineStr">
         <is>
@@ -947,17 +941,17 @@
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L7" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M7" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="N7" t="n">
-        <v>39749</v>
+        <v>39754</v>
       </c>
       <c r="O7" t="inlineStr">
         <is>
@@ -965,76 +959,78 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>39749</v>
+        <v>39754</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>2025-05-15 00:00:00</t>
+          <t>2025-05-16 00:00:00</t>
         </is>
       </c>
       <c r="R7" s="1" t="n">
-        <v>-1.406147540983796</v>
+        <v>-0.2965571204976852</v>
       </c>
       <c r="S7" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>251164</v>
+        <v>251706</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>T3</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>163.9344262295082</v>
+        <v>50.79365079365079</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>2025-05-08 09:44:51</t>
+          <t>2025-05-12 07:00:00</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2025-05-08 10:14:51</t>
+          <t>2025-05-12 07:00:00</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>2025-05-08 10:14:51</t>
+          <t>2025-05-12 07:00:00</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>2025-05-08 12:58:47</t>
+          <t>2025-05-12 07:50:47</t>
         </is>
       </c>
       <c r="I8" t="n">
-        <v>10000</v>
+        <v>3200</v>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>bobina</t>
+          <t>foglio</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>T3</t>
         </is>
       </c>
       <c r="L8" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>70</v>
-      </c>
-      <c r="N8" t="n">
-        <v>39749</v>
+        <v>0</v>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>39764 (esterno)</t>
+        </is>
       </c>
       <c r="O8" t="inlineStr">
         <is>
@@ -1042,57 +1038,57 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>39749</v>
+        <v>39764</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>2025-04-22 00:00:00</t>
+          <t>2025-05-14 00:00:00</t>
         </is>
       </c>
       <c r="R8" s="1" t="n">
-        <v>-1.540824225868056</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>251840</v>
+        <v>251050</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>25</v>
+        <v>217</v>
       </c>
       <c r="D9" t="n">
-        <v>93.67213114754098</v>
+        <v>0</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>2025-05-08 12:58:47</t>
+          <t>2025-05-09 07:00:00</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>2025-05-08 13:23:47</t>
+          <t>2025-05-09 10:37:00</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>2025-05-08 13:23:47</t>
+          <t>2025-05-09 10:37:00</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>2025-05-08 14:57:27</t>
+          <t>2025-05-09 10:37:00</t>
         </is>
       </c>
       <c r="I9" t="n">
-        <v>5714</v>
+        <v>0</v>
       </c>
       <c r="J9" t="inlineStr">
         <is>
@@ -1101,17 +1097,17 @@
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="L9" t="n">
-        <v>5</v>
+        <v>38</v>
       </c>
       <c r="M9" t="n">
         <v>70</v>
       </c>
       <c r="N9" t="n">
-        <v>39758</v>
+        <v>39747</v>
       </c>
       <c r="O9" t="inlineStr">
         <is>
@@ -1119,57 +1115,57 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>39758</v>
+        <v>39747</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>2025-05-09 00:00:00</t>
+          <t>2025-04-16 00:00:00</t>
         </is>
       </c>
       <c r="R9" s="1" t="n">
-        <v>-0.6232354280555555</v>
+        <v>-1.442361111111111</v>
       </c>
       <c r="S9" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>251229</v>
+        <v>251054</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="D10" t="n">
-        <v>307.1967213114754</v>
+        <v>0</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>2025-05-08 14:57:27</t>
+          <t>2025-05-09 10:37:00</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>2025-05-09 07:22:27</t>
+          <t>2025-05-09 11:12:00</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>2025-05-09 07:22:27</t>
+          <t>2025-05-09 11:12:00</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>2025-05-09 12:29:39</t>
+          <t>2025-05-09 11:12:00</t>
         </is>
       </c>
       <c r="I10" t="n">
-        <v>18739</v>
+        <v>0</v>
       </c>
       <c r="J10" t="inlineStr">
         <is>
@@ -1178,19 +1174,17 @@
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R9</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="L10" t="n">
-        <v>6</v>
+        <v>38</v>
       </c>
       <c r="M10" t="n">
         <v>70</v>
       </c>
-      <c r="N10" t="inlineStr">
-        <is>
-          <t>39723 (esterno)</t>
-        </is>
+      <c r="N10" t="n">
+        <v>39747</v>
       </c>
       <c r="O10" t="inlineStr">
         <is>
@@ -1198,57 +1192,57 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>39723</v>
+        <v>39747</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>2025-05-15 00:00:00</t>
+          <t>2025-04-16 00:00:00</t>
         </is>
       </c>
       <c r="R10" s="1" t="n">
-        <v>0</v>
+        <v>-1.466666666666667</v>
       </c>
       <c r="S10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>251782</v>
+        <v>251081</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>17</v>
+        <v>125</v>
       </c>
       <c r="D11" t="n">
-        <v>170.0422535211268</v>
+        <v>42.42253521126761</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>2025-05-08 12:00:00</t>
+          <t>2025-05-09 11:12:00</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>2025-05-08 12:17:00</t>
+          <t>2025-05-09 13:17:00</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>2025-05-08 12:17:00</t>
+          <t>2025-05-09 13:17:00</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>2025-05-09 07:07:02</t>
+          <t>2025-05-09 13:59:25</t>
         </is>
       </c>
       <c r="I11" t="n">
-        <v>12073</v>
+        <v>3012</v>
       </c>
       <c r="J11" t="inlineStr">
         <is>
@@ -1257,17 +1251,19 @@
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R6 ;R9</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="L11" t="n">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="M11" t="n">
-        <v>76</v>
-      </c>
-      <c r="N11" t="n">
-        <v>39754</v>
+        <v>70</v>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>39750 (esterno)</t>
+        </is>
       </c>
       <c r="O11" t="inlineStr">
         <is>
@@ -1275,34 +1271,34 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>39754</v>
+        <v>39750</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>2025-05-16 00:00:00</t>
+          <t>2025-04-23 00:00:00</t>
         </is>
       </c>
       <c r="R11" s="1" t="n">
-        <v>-0.2965571204976852</v>
+        <v>-16.58293231612268</v>
       </c>
       <c r="S11" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>251225</v>
+        <v>251742</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>134.8524590163935</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
@@ -1311,21 +1307,21 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>2025-05-08 07:19:00</t>
+          <t>2025-05-08 07:30:00</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>2025-05-08 07:19:00</t>
+          <t>2025-05-08 07:30:00</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>2025-05-08 07:19:00</t>
+          <t>2025-05-08 09:44:51</t>
         </is>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>8226</v>
       </c>
       <c r="J12" t="inlineStr">
         <is>
@@ -1334,17 +1330,17 @@
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L12" t="n">
         <v>4</v>
       </c>
       <c r="M12" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="N12" t="n">
-        <v>39747</v>
+        <v>39749</v>
       </c>
       <c r="O12" t="inlineStr">
         <is>
@@ -1352,57 +1348,57 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>39747</v>
+        <v>39749</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>2025-04-30 00:00:00</t>
+          <t>2025-05-15 00:00:00</t>
         </is>
       </c>
       <c r="R12" s="1" t="n">
-        <v>-0.3048611111111111</v>
+        <v>-1.406147540983796</v>
       </c>
       <c r="S12" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>251547</v>
+        <v>251840</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D13" t="n">
-        <v>184.9154929577465</v>
+        <v>93.67213114754098</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>2025-05-08 07:19:00</t>
+          <t>2025-05-08 09:44:51</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>2025-05-08 07:49:00</t>
+          <t>2025-05-08 10:09:51</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>2025-05-08 07:49:00</t>
+          <t>2025-05-08 10:09:51</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>2025-05-08 10:53:54</t>
+          <t>2025-05-08 11:43:31</t>
         </is>
       </c>
       <c r="I13" t="n">
-        <v>13129</v>
+        <v>5714</v>
       </c>
       <c r="J13" t="inlineStr">
         <is>
@@ -1415,13 +1411,13 @@
         </is>
       </c>
       <c r="L13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M13" t="n">
         <v>70</v>
       </c>
       <c r="N13" t="n">
-        <v>39749</v>
+        <v>39758</v>
       </c>
       <c r="O13" t="inlineStr">
         <is>
@@ -1429,57 +1425,57 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>39749</v>
+        <v>39758</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>2025-05-06 00:00:00</t>
+          <t>2025-05-09 00:00:00</t>
         </is>
       </c>
       <c r="R13" s="1" t="n">
-        <v>-1.454107981215278</v>
+        <v>-0.4885587431712963</v>
       </c>
       <c r="S13" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>250759</v>
+        <v>251229</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D14" t="n">
-        <v>118.2816901408451</v>
+        <v>307.1967213114754</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>2025-05-08 10:53:54</t>
+          <t>2025-05-08 11:43:31</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>2025-05-08 11:23:54</t>
+          <t>2025-05-08 12:08:31</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>2025-05-08 11:23:54</t>
+          <t>2025-05-08 12:08:31</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>2025-05-08 13:22:11</t>
+          <t>2025-05-09 09:15:43</t>
         </is>
       </c>
       <c r="I14" t="n">
-        <v>8398</v>
+        <v>18739</v>
       </c>
       <c r="J14" t="inlineStr">
         <is>
@@ -1488,17 +1484,19 @@
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R9</t>
         </is>
       </c>
       <c r="L14" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M14" t="n">
-        <v>76</v>
-      </c>
-      <c r="N14" t="n">
-        <v>39747</v>
+        <v>70</v>
+      </c>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>39723 (esterno)</t>
+        </is>
       </c>
       <c r="O14" t="inlineStr">
         <is>
@@ -1506,15 +1504,15 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>39747</v>
+        <v>39723</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>2025-03-13 00:00:00</t>
+          <t>2025-05-15 00:00:00</t>
         </is>
       </c>
       <c r="R14" s="1" t="n">
-        <v>-0.5570813771527778</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>1</v>
@@ -1522,41 +1520,41 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>250894</v>
+        <v>251227</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="D15" t="n">
-        <v>623.4084507042254</v>
+        <v>0</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>2025-05-08 13:22:11</t>
+          <t>2025-05-07 07:00:00</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>2025-05-08 13:39:11</t>
+          <t>2025-05-07 07:34:00</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>2025-05-08 13:39:11</t>
+          <t>2025-05-07 07:34:00</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>2025-05-12 08:02:36</t>
+          <t>2025-05-07 07:34:00</t>
         </is>
       </c>
       <c r="I15" t="n">
-        <v>44262</v>
+        <v>0</v>
       </c>
       <c r="J15" t="inlineStr">
         <is>
@@ -1565,23 +1563,25 @@
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L15" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M15" t="n">
         <v>76</v>
       </c>
       <c r="N15" t="n">
-        <v>39755</v>
-      </c>
-      <c r="O15" t="n">
-        <v>0</v>
+        <v>39746</v>
+      </c>
+      <c r="O15" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>39746</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
@@ -1589,49 +1589,49 @@
         </is>
       </c>
       <c r="R15" s="1" t="n">
-        <v>0</v>
+        <v>-1.315277777777778</v>
       </c>
       <c r="S15" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>251651</v>
+        <v>251455</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D16" t="n">
-        <v>767.7049180327868</v>
+        <v>82.765625</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>2025-05-09 07:00:00</t>
+          <t>2025-05-07 07:34:00</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>2025-05-09 07:29:00</t>
+          <t>2025-05-07 08:04:00</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>2025-05-09 07:29:00</t>
+          <t>2025-05-07 08:04:00</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>2025-05-12 12:16:42</t>
+          <t>2025-05-07 09:26:45</t>
         </is>
       </c>
       <c r="I16" t="n">
-        <v>46830</v>
+        <v>5297</v>
       </c>
       <c r="J16" t="inlineStr">
         <is>
@@ -1640,39 +1640,41 @@
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L16" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M16" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="N16" t="n">
-        <v>39755</v>
-      </c>
-      <c r="O16" t="n">
-        <v>0</v>
+        <v>39749</v>
+      </c>
+      <c r="O16" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>39749</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>2025-05-12 00:00:00</t>
+          <t>2025-04-15 00:00:00</t>
         </is>
       </c>
       <c r="R16" s="1" t="n">
-        <v>0</v>
+        <v>-0.3935872395833334</v>
       </c>
       <c r="S16" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>251227</v>
+        <v>251391</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
@@ -1680,33 +1682,33 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>91.640625</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>2025-05-07 07:00:00</t>
+          <t>2025-05-07 09:26:45</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>2025-05-07 07:34:00</t>
+          <t>2025-05-07 09:43:45</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>2025-05-07 07:34:00</t>
+          <t>2025-05-07 09:43:45</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>2025-05-07 07:34:00</t>
+          <t>2025-05-07 11:15:24</t>
         </is>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>5865</v>
       </c>
       <c r="J17" t="inlineStr">
         <is>
@@ -1715,17 +1717,17 @@
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L17" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M17" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="N17" t="n">
-        <v>39746</v>
+        <v>39749</v>
       </c>
       <c r="O17" t="inlineStr">
         <is>
@@ -1733,23 +1735,23 @@
         </is>
       </c>
       <c r="P17" t="n">
-        <v>39746</v>
+        <v>39749</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>2025-05-05 00:00:00</t>
+          <t>2025-04-23 00:00:00</t>
         </is>
       </c>
       <c r="R17" s="1" t="n">
-        <v>-1.315277777777778</v>
+        <v>-0.4690321180555556</v>
       </c>
       <c r="S17" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>251455</v>
+        <v>251395</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
@@ -1757,33 +1759,33 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="D18" t="n">
-        <v>82.765625</v>
+        <v>35.34375</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>2025-05-07 07:34:00</t>
+          <t>2025-05-07 11:15:24</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>2025-05-07 08:04:00</t>
+          <t>2025-05-07 11:32:24</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>2025-05-07 08:04:00</t>
+          <t>2025-05-07 11:32:24</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>2025-05-07 09:26:45</t>
+          <t>2025-05-07 12:07:45</t>
         </is>
       </c>
       <c r="I18" t="n">
-        <v>5297</v>
+        <v>2262</v>
       </c>
       <c r="J18" t="inlineStr">
         <is>
@@ -1796,7 +1798,7 @@
         </is>
       </c>
       <c r="L18" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M18" t="n">
         <v>70</v>
@@ -1814,11 +1816,11 @@
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>2025-04-15 00:00:00</t>
+          <t>2025-04-23 00:00:00</t>
         </is>
       </c>
       <c r="R18" s="1" t="n">
-        <v>-0.3935872395833334</v>
+        <v>-0.5053819444444444</v>
       </c>
       <c r="S18" t="n">
         <v>7</v>
@@ -1826,7 +1828,7 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>251391</v>
+        <v>251371</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
@@ -1834,33 +1836,33 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D19" t="n">
-        <v>91.640625</v>
+        <v>0</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>2025-05-07 09:26:45</t>
+          <t>2025-05-07 12:07:45</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>2025-05-07 09:43:45</t>
+          <t>2025-05-07 12:26:45</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>2025-05-07 09:43:45</t>
+          <t>2025-05-07 12:26:45</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>2025-05-07 11:15:24</t>
+          <t>2025-05-07 12:26:45</t>
         </is>
       </c>
       <c r="I19" t="n">
-        <v>5865</v>
+        <v>0</v>
       </c>
       <c r="J19" t="inlineStr">
         <is>
@@ -1873,13 +1875,15 @@
         </is>
       </c>
       <c r="L19" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M19" t="n">
         <v>70</v>
       </c>
-      <c r="N19" t="n">
-        <v>39749</v>
+      <c r="N19" t="inlineStr">
+        <is>
+          <t>39666 (esterno)</t>
+        </is>
       </c>
       <c r="O19" t="inlineStr">
         <is>
@@ -1887,15 +1891,15 @@
         </is>
       </c>
       <c r="P19" t="n">
-        <v>39749</v>
+        <v>39666</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>2025-04-23 00:00:00</t>
+          <t>2025-04-24 00:00:00</t>
         </is>
       </c>
       <c r="R19" s="1" t="n">
-        <v>-0.4690321180555556</v>
+        <v>-13.51857638888889</v>
       </c>
       <c r="S19" t="n">
         <v>7</v>
@@ -1903,7 +1907,7 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>251395</v>
+        <v>251396</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
@@ -1911,29 +1915,29 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D20" t="n">
         <v>35.34375</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>2025-05-07 11:15:24</t>
+          <t>2025-05-07 12:26:45</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>2025-05-07 11:32:24</t>
+          <t>2025-05-07 12:45:45</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>2025-05-07 11:32:24</t>
+          <t>2025-05-07 12:45:45</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>2025-05-07 12:07:45</t>
+          <t>2025-05-07 13:21:05</t>
         </is>
       </c>
       <c r="I20" t="n">
@@ -1968,11 +1972,11 @@
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>2025-04-23 00:00:00</t>
+          <t>2025-05-02 00:00:00</t>
         </is>
       </c>
       <c r="R20" s="1" t="n">
-        <v>-0.5053819444444444</v>
+        <v>-0.5563151041666666</v>
       </c>
       <c r="S20" t="n">
         <v>7</v>
@@ -1980,7 +1984,7 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>251371</v>
+        <v>251548</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
@@ -1991,30 +1995,30 @@
         <v>19</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>206.90625</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>2025-05-07 12:07:45</t>
+          <t>2025-05-07 13:21:05</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>2025-05-07 12:26:45</t>
+          <t>2025-05-07 13:40:05</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>2025-05-07 12:26:45</t>
+          <t>2025-05-07 13:40:05</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>2025-05-07 12:26:45</t>
+          <t>2025-05-08 09:07:00</t>
         </is>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>13242</v>
       </c>
       <c r="J21" t="inlineStr">
         <is>
@@ -2032,10 +2036,8 @@
       <c r="M21" t="n">
         <v>70</v>
       </c>
-      <c r="N21" t="inlineStr">
-        <is>
-          <t>39666 (esterno)</t>
-        </is>
+      <c r="N21" t="n">
+        <v>39749</v>
       </c>
       <c r="O21" t="inlineStr">
         <is>
@@ -2043,15 +2045,15 @@
         </is>
       </c>
       <c r="P21" t="n">
-        <v>39666</v>
+        <v>39749</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>2025-04-24 00:00:00</t>
+          <t>2025-05-06 00:00:00</t>
         </is>
       </c>
       <c r="R21" s="1" t="n">
-        <v>-13.51857638888889</v>
+        <v>-1.379861111111111</v>
       </c>
       <c r="S21" t="n">
         <v>7</v>
@@ -2059,7 +2061,7 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>251396</v>
+        <v>250923</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
@@ -2067,33 +2069,33 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="D22" t="n">
-        <v>35.34375</v>
+        <v>109.46875</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>2025-05-07 12:26:45</t>
+          <t>2025-05-08 09:07:00</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>2025-05-07 12:45:45</t>
+          <t>2025-05-08 09:39:00</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>2025-05-07 12:45:45</t>
+          <t>2025-05-08 09:39:00</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>2025-05-07 13:21:05</t>
+          <t>2025-05-08 11:28:28</t>
         </is>
       </c>
       <c r="I22" t="n">
-        <v>2262</v>
+        <v>7006</v>
       </c>
       <c r="J22" t="inlineStr">
         <is>
@@ -2102,14 +2104,14 @@
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L22" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="M22" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="N22" t="n">
         <v>39749</v>
@@ -2124,19 +2126,19 @@
       </c>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>2025-05-02 00:00:00</t>
+          <t>2025-04-07 00:00:00</t>
         </is>
       </c>
       <c r="R22" s="1" t="n">
-        <v>-0.5563151041666666</v>
+        <v>-1.478103298611111</v>
       </c>
       <c r="S22" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>251548</v>
+        <v>251477</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
@@ -2147,30 +2149,30 @@
         <v>19</v>
       </c>
       <c r="D23" t="n">
-        <v>206.90625</v>
+        <v>468.734375</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>2025-05-07 13:21:05</t>
+          <t>2025-05-08 11:28:28</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>2025-05-07 13:40:05</t>
+          <t>2025-05-08 11:47:28</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>2025-05-07 13:40:05</t>
+          <t>2025-05-08 11:47:28</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>2025-05-08 09:07:00</t>
+          <t>2025-05-09 11:36:12</t>
         </is>
       </c>
       <c r="I23" t="n">
-        <v>13242</v>
+        <v>29999</v>
       </c>
       <c r="J23" t="inlineStr">
         <is>
@@ -2179,17 +2181,17 @@
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L23" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M23" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="N23" t="n">
-        <v>39749</v>
+        <v>39760</v>
       </c>
       <c r="O23" t="inlineStr">
         <is>
@@ -2197,57 +2199,57 @@
         </is>
       </c>
       <c r="P23" t="n">
-        <v>39749</v>
+        <v>39760</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>2025-05-06 00:00:00</t>
+          <t>2025-04-28 00:00:00</t>
         </is>
       </c>
       <c r="R23" s="1" t="n">
-        <v>-1.379861111111111</v>
+        <v>-2.483474392361111</v>
       </c>
       <c r="S23" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>250923</v>
+        <v>251651</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>BIMEC 4</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D24" t="n">
-        <v>109.46875</v>
+        <v>767.7049180327868</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>2025-05-08 09:07:00</t>
+          <t>2025-05-09 07:00:00</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>2025-05-08 09:39:00</t>
+          <t>2025-05-09 07:29:00</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>2025-05-08 09:39:00</t>
+          <t>2025-05-09 07:29:00</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>2025-05-08 11:28:28</t>
+          <t>2025-05-12 12:16:42</t>
         </is>
       </c>
       <c r="I24" t="n">
-        <v>7006</v>
+        <v>46830</v>
       </c>
       <c r="J24" t="inlineStr">
         <is>
@@ -2256,7 +2258,7 @@
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L24" t="n">
@@ -2266,65 +2268,63 @@
         <v>76</v>
       </c>
       <c r="N24" t="n">
-        <v>39749</v>
-      </c>
-      <c r="O24" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>39755</v>
+      </c>
+      <c r="O24" t="n">
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>39749</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>2025-04-07 00:00:00</t>
+          <t>2025-05-12 00:00:00</t>
         </is>
       </c>
       <c r="R24" s="1" t="n">
-        <v>-1.478103298611111</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>251477</v>
+        <v>251456</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>R3</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>19</v>
+        <v>40</v>
       </c>
       <c r="D25" t="n">
-        <v>468.734375</v>
+        <v>183.6530612244898</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>2025-05-08 11:28:28</t>
+          <t>2025-05-08 07:00:00</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>2025-05-08 11:47:28</t>
+          <t>2025-05-08 07:40:00</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>2025-05-08 11:47:28</t>
+          <t>2025-05-08 07:40:00</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>2025-05-09 11:36:12</t>
+          <t>2025-05-08 10:43:39</t>
         </is>
       </c>
       <c r="I25" t="n">
-        <v>29999</v>
+        <v>8999</v>
       </c>
       <c r="J25" t="inlineStr">
         <is>
@@ -2333,17 +2333,17 @@
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L25" t="n">
         <v>3</v>
       </c>
       <c r="M25" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="N25" t="n">
-        <v>39760</v>
+        <v>39746</v>
       </c>
       <c r="O25" t="inlineStr">
         <is>
@@ -2351,15 +2351,15 @@
         </is>
       </c>
       <c r="P25" t="n">
-        <v>39760</v>
+        <v>39746</v>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>2025-04-28 00:00:00</t>
+          <t>2025-05-09 00:00:00</t>
         </is>
       </c>
       <c r="R25" s="1" t="n">
-        <v>-2.483474392361111</v>
+        <v>-2.446981292511574</v>
       </c>
       <c r="S25" t="n">
         <v>1</v>
@@ -2367,7 +2367,7 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>251456</v>
+        <v>251416</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
@@ -2378,30 +2378,30 @@
         <v>40</v>
       </c>
       <c r="D26" t="n">
-        <v>183.6530612244898</v>
+        <v>229.0204081632653</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>2025-05-08 07:00:00</t>
+          <t>2025-05-08 10:43:39</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>2025-05-08 07:40:00</t>
+          <t>2025-05-08 11:23:39</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>2025-05-08 07:40:00</t>
+          <t>2025-05-08 11:23:39</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>2025-05-08 10:43:39</t>
+          <t>2025-05-09 07:12:40</t>
         </is>
       </c>
       <c r="I26" t="n">
-        <v>8999</v>
+        <v>11222</v>
       </c>
       <c r="J26" t="inlineStr">
         <is>
@@ -2414,71 +2414,69 @@
         </is>
       </c>
       <c r="L26" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M26" t="n">
         <v>70</v>
       </c>
       <c r="N26" t="n">
-        <v>39746</v>
-      </c>
-      <c r="O26" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>39755</v>
+      </c>
+      <c r="O26" t="n">
+        <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>39746</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
-          <t>2025-05-09 00:00:00</t>
+          <t>2025-04-23 00:00:00</t>
         </is>
       </c>
       <c r="R26" s="1" t="n">
-        <v>-2.446981292511574</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>251416</v>
+        <v>251284</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>R3</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>40</v>
+        <v>40.5</v>
       </c>
       <c r="D27" t="n">
-        <v>229.0204081632653</v>
+        <v>297.0909090909091</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>2025-05-08 10:43:39</t>
+          <t>2025-05-09 07:00:00</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>2025-05-08 11:23:39</t>
+          <t>2025-05-09 07:40:30</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>2025-05-08 11:23:39</t>
+          <t>2025-05-09 07:40:30</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>2025-05-09 07:12:40</t>
+          <t>2025-05-09 12:37:35</t>
         </is>
       </c>
       <c r="I27" t="n">
-        <v>11222</v>
+        <v>16340</v>
       </c>
       <c r="J27" t="inlineStr">
         <is>
@@ -2487,34 +2485,36 @@
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>CASON ;R6</t>
         </is>
       </c>
       <c r="L27" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="M27" t="n">
         <v>70</v>
       </c>
       <c r="N27" t="n">
-        <v>39755</v>
-      </c>
-      <c r="O27" t="n">
-        <v>0</v>
+        <v>39747</v>
+      </c>
+      <c r="O27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>39747</v>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
-          <t>2025-04-23 00:00:00</t>
+          <t>2025-05-12 00:00:00</t>
         </is>
       </c>
       <c r="R27" s="1" t="n">
-        <v>0</v>
+        <v>-1.526104797974537</v>
       </c>
       <c r="S27" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -2667,33 +2667,33 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>R3</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="D30" t="n">
-        <v>55.44897959183673</v>
+        <v>44.54098360655738</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>2025-05-09 09:53:35</t>
+          <t>2025-05-09 09:15:43</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>2025-05-09 10:38:35</t>
+          <t>2025-05-09 09:50:43</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>2025-05-09 10:38:35</t>
+          <t>2025-05-09 09:50:43</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>2025-05-09 11:34:02</t>
+          <t>2025-05-09 10:35:15</t>
         </is>
       </c>
       <c r="I30" t="n">
@@ -2727,7 +2727,7 @@
         </is>
       </c>
       <c r="R30" s="1" t="n">
-        <v>-2.48197278912037</v>
+        <v>-2.441154371585648</v>
       </c>
       <c r="S30" t="n">
         <v>8</v>
@@ -2750,22 +2750,22 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>2025-05-09 11:34:02</t>
+          <t>2025-05-09 09:53:35</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>2025-05-09 12:14:02</t>
+          <t>2025-05-09 10:33:35</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>2025-05-09 12:14:02</t>
+          <t>2025-05-09 10:33:35</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>2025-05-09 14:34:37</t>
+          <t>2025-05-09 12:54:11</t>
         </is>
       </c>
       <c r="I31" t="n">
@@ -2799,7 +2799,7 @@
         </is>
       </c>
       <c r="R31" s="1" t="n">
-        <v>-2.607383786851852</v>
+        <v>-2.537627551018518</v>
       </c>
       <c r="S31" t="n">
         <v>8</v>
@@ -2811,33 +2811,33 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="D32" t="n">
-        <v>195.3125</v>
+        <v>204.9180327868852</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>2025-05-09 11:36:12</t>
+          <t>2025-05-09 10:35:15</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>2025-05-09 12:06:12</t>
+          <t>2025-05-09 10:55:15</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>2025-05-09 12:06:12</t>
+          <t>2025-05-09 10:55:15</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>2025-05-12 07:21:30</t>
+          <t>2025-05-09 14:20:10</t>
         </is>
       </c>
       <c r="I32" t="n">
@@ -2871,7 +2871,7 @@
         </is>
       </c>
       <c r="R32" s="1" t="n">
-        <v>-12.30660807291667</v>
+        <v>-9.597347449907408</v>
       </c>
       <c r="S32" t="n">
         <v>7</v>
@@ -2883,33 +2883,33 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="D33" t="n">
-        <v>106</v>
+        <v>101.03125</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>2025-05-09 12:29:39</t>
+          <t>2025-05-09 11:36:12</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>2025-05-09 12:54:39</t>
+          <t>2025-05-09 12:10:12</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>2025-05-09 12:54:39</t>
+          <t>2025-05-09 12:10:12</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>2025-05-09 14:40:39</t>
+          <t>2025-05-09 13:51:14</t>
         </is>
       </c>
       <c r="I33" t="n">
@@ -2943,7 +2943,7 @@
         </is>
       </c>
       <c r="R33" s="1" t="n">
-        <v>-9.61156648451389</v>
+        <v>-9.57724609375</v>
       </c>
       <c r="S33" t="n">
         <v>7</v>
@@ -3027,33 +3027,33 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>R3</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>125</v>
+        <v>45</v>
       </c>
       <c r="D35" t="n">
-        <v>160.4507042253521</v>
+        <v>232.4897959183673</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>2025-05-09 13:59:25</t>
+          <t>2025-05-09 12:54:11</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>2025-05-12 08:04:25</t>
+          <t>2025-05-09 13:39:11</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>2025-05-12 08:04:25</t>
+          <t>2025-05-09 13:39:11</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>2025-05-12 10:44:52</t>
+          <t>2025-05-12 09:31:40</t>
         </is>
       </c>
       <c r="I35" t="n">
@@ -3099,33 +3099,33 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>R3</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>45</v>
+        <v>21</v>
       </c>
       <c r="D36" t="n">
-        <v>268.8775510204082</v>
+        <v>205.859375</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>2025-05-09 14:34:37</t>
+          <t>2025-05-09 13:51:14</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>2025-05-12 07:19:37</t>
+          <t>2025-05-09 14:12:14</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>2025-05-12 07:19:37</t>
+          <t>2025-05-09 14:12:14</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>2025-05-12 11:48:30</t>
+          <t>2025-05-12 09:38:05</t>
         </is>
       </c>
       <c r="I36" t="n">
@@ -3167,41 +3167,41 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>251373</v>
+        <v>245275</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>20</v>
+        <v>65</v>
       </c>
       <c r="D37" t="n">
-        <v>280.2295081967213</v>
+        <v>342.1690140845071</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>2025-05-09 14:40:39</t>
+          <t>2025-05-09 13:59:25</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>2025-05-12 07:00:39</t>
+          <t>2025-05-12 07:04:25</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>2025-05-12 07:00:39</t>
+          <t>2025-05-12 07:04:25</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>2025-05-12 11:40:53</t>
+          <t>2025-05-12 12:46:35</t>
         </is>
       </c>
       <c r="I37" t="n">
-        <v>17094</v>
+        <v>24294</v>
       </c>
       <c r="J37" t="inlineStr">
         <is>
@@ -3210,11 +3210,11 @@
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;CASON ;R6</t>
         </is>
       </c>
       <c r="L37" t="n">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="M37" t="n">
         <v>70</v>
@@ -3227,53 +3227,53 @@
       </c>
       <c r="Q37" t="inlineStr">
         <is>
-          <t>2025-04-28 00:00:00</t>
+          <t>2025-12-31 00:00:00</t>
         </is>
       </c>
       <c r="R37" s="1" t="n">
-        <v>-14.48672586520833</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>245350</v>
+        <v>251373</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>R9</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>65</v>
+        <v>30</v>
       </c>
       <c r="D38" t="n">
-        <v>405.3623188405797</v>
+        <v>280.2295081967213</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>2025-05-12 07:00:00</t>
+          <t>2025-05-09 14:20:10</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>2025-05-12 08:05:00</t>
+          <t>2025-05-09 14:50:10</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>2025-05-12 08:05:00</t>
+          <t>2025-05-09 14:50:10</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>2025-05-12 14:50:21</t>
+          <t>2025-05-12 11:30:24</t>
         </is>
       </c>
       <c r="I38" t="n">
-        <v>27970</v>
+        <v>17094</v>
       </c>
       <c r="J38" t="inlineStr">
         <is>
@@ -3282,11 +3282,11 @@
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L38" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="M38" t="n">
         <v>70</v>
@@ -3299,53 +3299,53 @@
       </c>
       <c r="Q38" t="inlineStr">
         <is>
-          <t>2025-12-31 00:00:00</t>
+          <t>2025-04-28 00:00:00</t>
         </is>
       </c>
       <c r="R38" s="1" t="n">
-        <v>0</v>
+        <v>-14.4794512750463</v>
       </c>
       <c r="S38" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>243569</v>
+        <v>245350</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>R9</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>17</v>
+        <v>65</v>
       </c>
       <c r="D39" t="n">
-        <v>36.63380281690141</v>
+        <v>405.3623188405797</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>2025-05-12 07:06:00</t>
+          <t>2025-05-12 07:00:00</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>2025-05-12 07:23:00</t>
+          <t>2025-05-12 08:05:00</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>2025-05-12 07:23:00</t>
+          <t>2025-05-12 08:05:00</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>2025-05-12 07:59:38</t>
+          <t>2025-05-12 14:50:21</t>
         </is>
       </c>
       <c r="I39" t="n">
-        <v>2601</v>
+        <v>27970</v>
       </c>
       <c r="J39" t="inlineStr">
         <is>
@@ -3354,14 +3354,14 @@
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R6 ;R9</t>
         </is>
       </c>
       <c r="L39" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="M39" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
@@ -3371,53 +3371,53 @@
       </c>
       <c r="Q39" t="inlineStr">
         <is>
-          <t>2024-09-16 00:00:00</t>
+          <t>2025-12-31 00:00:00</t>
         </is>
       </c>
       <c r="R39" s="1" t="n">
-        <v>-238.3330888106366</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>245275</v>
+        <v>243569</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>37</v>
+        <v>17</v>
       </c>
       <c r="D40" t="n">
-        <v>379.59375</v>
+        <v>36.63380281690141</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>2025-05-12 07:21:30</t>
+          <t>2025-05-12 07:06:00</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>2025-05-12 07:58:30</t>
+          <t>2025-05-12 07:23:00</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>2025-05-12 07:58:30</t>
+          <t>2025-05-12 07:23:00</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>2025-05-12 14:18:06</t>
+          <t>2025-05-12 07:59:38</t>
         </is>
       </c>
       <c r="I40" t="n">
-        <v>24294</v>
+        <v>2601</v>
       </c>
       <c r="J40" t="inlineStr">
         <is>
@@ -3426,14 +3426,14 @@
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;CASON ;R6</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L40" t="n">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="M40" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="O40" t="n">
         <v>0</v>
@@ -3443,14 +3443,14 @@
       </c>
       <c r="Q40" t="inlineStr">
         <is>
-          <t>2025-12-31 00:00:00</t>
+          <t>2024-09-16 00:00:00</t>
         </is>
       </c>
       <c r="R40" s="1" t="n">
-        <v>0</v>
+        <v>-238.3330888106366</v>
       </c>
       <c r="S40" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="41">
@@ -3531,33 +3531,33 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>30</v>
+        <v>30.5</v>
       </c>
       <c r="D42" t="n">
-        <v>140.2535211267606</v>
+        <v>181.0545454545455</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>2025-05-12 08:02:36</t>
+          <t>2025-05-12 09:31:16</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>2025-05-12 08:32:36</t>
+          <t>2025-05-12 10:01:46</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>2025-05-12 08:32:36</t>
+          <t>2025-05-12 10:01:46</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>2025-05-12 10:52:51</t>
+          <t>2025-05-12 13:02:49</t>
         </is>
       </c>
       <c r="I42" t="n">
@@ -3591,7 +3591,7 @@
         </is>
       </c>
       <c r="R42" s="1" t="n">
-        <v>-553.4533744131481</v>
+        <v>-553.5436300505093</v>
       </c>
       <c r="S42" t="n">
         <v>4</v>
@@ -3603,33 +3603,33 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>R3</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>32.5</v>
+        <v>45</v>
       </c>
       <c r="D43" t="n">
-        <v>175.6727272727273</v>
+        <v>197.1836734693877</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>2025-05-12 09:31:16</t>
+          <t>2025-05-12 09:31:40</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>2025-05-12 10:03:46</t>
+          <t>2025-05-12 10:16:40</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>2025-05-12 10:03:46</t>
+          <t>2025-05-12 10:16:40</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>2025-05-12 12:59:26</t>
+          <t>2025-05-12 13:33:51</t>
         </is>
       </c>
       <c r="I43" t="n">
@@ -3663,7 +3663,7 @@
         </is>
       </c>
       <c r="R43" s="1" t="n">
-        <v>-14.54128156565972</v>
+        <v>-14.56517857142361</v>
       </c>
       <c r="S43" t="n">
         <v>4</v>
@@ -3675,33 +3675,33 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="D44" t="n">
-        <v>76.54929577464789</v>
+        <v>84.921875</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>2025-05-12 10:44:52</t>
+          <t>2025-05-12 09:38:05</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>2025-05-12 11:24:52</t>
+          <t>2025-05-12 09:55:05</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>2025-05-12 11:24:52</t>
+          <t>2025-05-12 09:55:05</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>2025-05-12 12:41:25</t>
+          <t>2025-05-12 11:20:00</t>
         </is>
       </c>
       <c r="I44" t="n">
@@ -3735,7 +3735,7 @@
         </is>
       </c>
       <c r="R44" s="1" t="n">
-        <v>-14.52876564945602</v>
+        <v>-14.47223307291667</v>
       </c>
       <c r="S44" t="n">
         <v>4</v>
@@ -3751,29 +3751,29 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="D45" t="n">
         <v>122.2676056338028</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>2025-05-12 10:52:51</t>
+          <t>2025-05-12 10:46:27</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>2025-05-12 11:09:51</t>
+          <t>2025-05-12 11:18:27</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>2025-05-12 11:09:51</t>
+          <t>2025-05-12 11:18:27</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>2025-05-12 13:12:07</t>
+          <t>2025-05-12 13:20:43</t>
         </is>
       </c>
       <c r="I45" t="n">
@@ -3807,7 +3807,7 @@
         </is>
       </c>
       <c r="R45" s="1" t="n">
-        <v>-12.5500880281713</v>
+        <v>-12.55605438185185</v>
       </c>
       <c r="S45" t="n">
         <v>4</v>
@@ -3819,33 +3819,33 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="D46" t="n">
-        <v>106</v>
+        <v>101.03125</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>2025-05-12 11:40:53</t>
+          <t>2025-05-12 11:20:00</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>2025-05-12 12:05:53</t>
+          <t>2025-05-12 11:37:00</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>2025-05-12 12:05:53</t>
+          <t>2025-05-12 11:37:00</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>2025-05-12 13:51:53</t>
+          <t>2025-05-12 13:18:02</t>
         </is>
       </c>
       <c r="I46" t="n">
@@ -3879,7 +3879,7 @@
         </is>
       </c>
       <c r="R46" s="1" t="n">
-        <v>-5.577698087430555</v>
+        <v>-5.55419921875</v>
       </c>
       <c r="S46" t="n">
         <v>4</v>
@@ -3891,33 +3891,33 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>R3</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="D47" t="n">
-        <v>87.95918367346938</v>
+        <v>70.65573770491804</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>2025-05-12 11:48:30</t>
+          <t>2025-05-12 11:30:24</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>2025-05-12 12:33:30</t>
+          <t>2025-05-12 11:55:24</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>2025-05-12 12:33:30</t>
+          <t>2025-05-12 11:55:24</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>2025-05-12 14:01:28</t>
+          <t>2025-05-12 13:06:03</t>
         </is>
       </c>
       <c r="I47" t="n">
@@ -3951,7 +3951,7 @@
         </is>
       </c>
       <c r="R47" s="1" t="n">
-        <v>-4.584353741493056</v>
+        <v>-4.545878870671296</v>
       </c>
       <c r="S47" t="n">
         <v>4</v>
@@ -4039,29 +4039,29 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>40</v>
+        <v>85</v>
       </c>
       <c r="D49" t="n">
         <v>48.90140845070422</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>2025-05-12 12:41:25</t>
+          <t>2025-05-12 12:46:35</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>2025-05-12 13:21:25</t>
+          <t>2025-05-12 14:11:35</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>2025-05-12 13:21:25</t>
+          <t>2025-05-12 14:11:35</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>2025-05-12 14:10:19</t>
+          <t>2025-05-13 07:00:29</t>
         </is>
       </c>
       <c r="I49" t="n">
@@ -4095,7 +4095,7 @@
         </is>
       </c>
       <c r="R49" s="1" t="n">
-        <v>-4.590502738657407</v>
+        <v>-5.2920089984375</v>
       </c>
       <c r="S49" t="n">
         <v>4</v>
@@ -4111,29 +4111,29 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>30.5</v>
+        <v>32.5</v>
       </c>
       <c r="D50" t="n">
         <v>195.9272727272727</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>2025-05-12 12:59:26</t>
+          <t>2025-05-12 13:02:49</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>2025-05-12 13:29:56</t>
+          <t>2025-05-12 13:35:19</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>2025-05-12 13:29:56</t>
+          <t>2025-05-12 13:35:19</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>2025-05-13 08:45:52</t>
+          <t>2025-05-13 08:51:15</t>
         </is>
       </c>
       <c r="I50" t="n">
@@ -4179,33 +4179,33 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C51" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D51" t="n">
-        <v>122.2676056338028</v>
+        <v>142.3114754098361</v>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>2025-05-12 13:12:07</t>
+          <t>2025-05-12 13:06:03</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>2025-05-12 13:27:07</t>
+          <t>2025-05-12 13:26:03</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>2025-05-12 13:27:07</t>
+          <t>2025-05-12 13:26:03</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>2025-05-13 07:29:23</t>
+          <t>2025-05-13 07:48:22</t>
         </is>
       </c>
       <c r="I51" t="n">
@@ -4251,33 +4251,33 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C52" t="n">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="D52" t="n">
-        <v>139.7868852459016</v>
+        <v>133.234375</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>2025-05-12 13:51:53</t>
+          <t>2025-05-12 13:18:02</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>2025-05-12 14:21:53</t>
+          <t>2025-05-12 13:37:02</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>2025-05-12 14:21:53</t>
+          <t>2025-05-12 13:37:02</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>2025-05-13 08:41:40</t>
+          <t>2025-05-13 07:50:16</t>
         </is>
       </c>
       <c r="I52" t="n">
@@ -4311,7 +4311,7 @@
         </is>
       </c>
       <c r="R52" s="1" t="n">
-        <v>-25.36227231329861</v>
+        <v>-25.32658420138889</v>
       </c>
       <c r="S52" t="n">
         <v>2</v>
@@ -4323,33 +4323,33 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>R3</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C53" t="n">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="D53" t="n">
-        <v>98.12244897959184</v>
+        <v>67.71830985915493</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>2025-05-12 14:01:28</t>
+          <t>2025-05-12 13:20:43</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>2025-05-12 14:41:28</t>
+          <t>2025-05-12 13:37:43</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>2025-05-12 14:41:28</t>
+          <t>2025-05-12 13:37:43</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>2025-05-13 08:19:35</t>
+          <t>2025-05-12 14:45:26</t>
         </is>
       </c>
       <c r="I53" t="n">
@@ -4383,7 +4383,7 @@
         </is>
       </c>
       <c r="R53" s="1" t="n">
-        <v>-20.34693877550926</v>
+        <v>-19.61488654146991</v>
       </c>
       <c r="S53" t="n">
         <v>2</v>
@@ -4395,33 +4395,33 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>R3</t>
         </is>
       </c>
       <c r="C54" t="n">
-        <v>33</v>
+        <v>55</v>
       </c>
       <c r="D54" t="n">
-        <v>63.26229508196721</v>
+        <v>78.75510204081633</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>2025-05-12 14:09:21</t>
+          <t>2025-05-12 13:33:51</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>2025-05-12 14:42:21</t>
+          <t>2025-05-12 14:28:51</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>2025-05-12 14:42:21</t>
+          <t>2025-05-12 14:28:51</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>2025-05-13 07:45:37</t>
+          <t>2025-05-13 07:47:36</t>
         </is>
       </c>
       <c r="I54" t="n">
@@ -4455,7 +4455,7 @@
         </is>
       </c>
       <c r="R54" s="1" t="n">
-        <v>-15.32334927140046</v>
+        <v>-15.324730725625</v>
       </c>
       <c r="S54" t="n">
         <v>2</v>
@@ -4463,41 +4463,41 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>251109</v>
+        <v>250641</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>BIMEC 4</t>
         </is>
       </c>
       <c r="C55" t="n">
-        <v>95</v>
+        <v>29</v>
       </c>
       <c r="D55" t="n">
-        <v>266.5915492957747</v>
+        <v>83.8688524590164</v>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>2025-05-12 14:10:19</t>
+          <t>2025-05-12 14:09:21</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>2025-05-13 07:45:19</t>
+          <t>2025-05-12 14:38:21</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>2025-05-13 07:45:19</t>
+          <t>2025-05-12 14:38:21</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>2025-05-13 12:11:54</t>
+          <t>2025-05-13 08:02:13</t>
         </is>
       </c>
       <c r="I55" t="n">
-        <v>18928</v>
+        <v>5116</v>
       </c>
       <c r="J55" t="inlineStr">
         <is>
@@ -4506,11 +4506,11 @@
       </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L55" t="n">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="M55" t="n">
         <v>70</v>
@@ -4523,11 +4523,11 @@
       </c>
       <c r="Q55" t="inlineStr">
         <is>
-          <t>2025-04-18 00:00:00</t>
+          <t>2025-04-28 00:00:00</t>
         </is>
       </c>
       <c r="R55" s="1" t="n">
-        <v>-25.50827464788194</v>
+        <v>-15.33488160291667</v>
       </c>
       <c r="S55" t="n">
         <v>2</v>
@@ -4535,41 +4535,41 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>250641</v>
+        <v>250670</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C56" t="n">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="D56" t="n">
-        <v>79.9375</v>
+        <v>22.01408450704225</v>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>2025-05-12 14:18:06</t>
+          <t>2025-05-12 14:43:44</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>2025-05-12 14:49:06</t>
+          <t>2025-05-13 07:17:44</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>2025-05-12 14:49:06</t>
+          <t>2025-05-13 07:17:44</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>2025-05-13 08:09:02</t>
+          <t>2025-05-13 07:39:45</t>
         </is>
       </c>
       <c r="I56" t="n">
-        <v>5116</v>
+        <v>1563</v>
       </c>
       <c r="J56" t="inlineStr">
         <is>
@@ -4578,14 +4578,14 @@
       </c>
       <c r="K56" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L56" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M56" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="O56" t="n">
         <v>0</v>
@@ -4595,11 +4595,11 @@
       </c>
       <c r="Q56" t="inlineStr">
         <is>
-          <t>2025-04-28 00:00:00</t>
+          <t>2025-05-05 00:00:00</t>
         </is>
       </c>
       <c r="R56" s="1" t="n">
-        <v>-15.33961588541667</v>
+        <v>-8.319278169016203</v>
       </c>
       <c r="S56" t="n">
         <v>2</v>
@@ -4607,41 +4607,41 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>250670</v>
+        <v>251259</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C57" t="n">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="D57" t="n">
-        <v>22.01408450704225</v>
+        <v>70.4225352112676</v>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>2025-05-12 14:43:44</t>
+          <t>2025-05-12 14:45:26</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>2025-05-13 07:17:44</t>
+          <t>2025-05-13 07:08:26</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>2025-05-13 07:17:44</t>
+          <t>2025-05-13 07:08:26</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>2025-05-13 07:39:45</t>
+          <t>2025-05-13 08:18:51</t>
         </is>
       </c>
       <c r="I57" t="n">
-        <v>1563</v>
+        <v>5000</v>
       </c>
       <c r="J57" t="inlineStr">
         <is>
@@ -4650,14 +4650,14 @@
       </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L57" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="M57" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="O57" t="n">
         <v>0</v>
@@ -4667,11 +4667,11 @@
       </c>
       <c r="Q57" t="inlineStr">
         <is>
-          <t>2025-05-05 00:00:00</t>
+          <t>2025-05-06 00:00:00</t>
         </is>
       </c>
       <c r="R57" s="1" t="n">
-        <v>-8.319278169016203</v>
+        <v>-7.346429968703704</v>
       </c>
       <c r="S57" t="n">
         <v>2</v>
@@ -4679,7 +4679,7 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>251259</v>
+        <v>251761</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
@@ -4687,10 +4687,10 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>30</v>
+        <v>55</v>
       </c>
       <c r="D58" t="n">
-        <v>72.46376811594203</v>
+        <v>192.4492753623188</v>
       </c>
       <c r="E58" t="inlineStr">
         <is>
@@ -4699,21 +4699,21 @@
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>2025-05-13 07:20:21</t>
+          <t>2025-05-13 07:45:21</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>2025-05-13 07:20:21</t>
+          <t>2025-05-13 07:45:21</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>2025-05-13 08:32:49</t>
+          <t>2025-05-13 10:57:48</t>
         </is>
       </c>
       <c r="I58" t="n">
-        <v>5000</v>
+        <v>13279</v>
       </c>
       <c r="J58" t="inlineStr">
         <is>
@@ -4726,7 +4726,7 @@
         </is>
       </c>
       <c r="L58" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="M58" t="n">
         <v>70</v>
@@ -4739,11 +4739,11 @@
       </c>
       <c r="Q58" t="inlineStr">
         <is>
-          <t>2025-05-06 00:00:00</t>
+          <t>2025-05-19 00:00:00</t>
         </is>
       </c>
       <c r="R58" s="1" t="n">
-        <v>-7.356129227048611</v>
+        <v>0</v>
       </c>
       <c r="S58" t="n">
         <v>2</v>
@@ -4751,41 +4751,41 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>251761</v>
+        <v>251109</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="C59" t="n">
-        <v>15</v>
+        <v>95</v>
       </c>
       <c r="D59" t="n">
-        <v>187.0281690140845</v>
+        <v>266.5915492957747</v>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>2025-05-13 07:29:23</t>
+          <t>2025-05-13 07:00:29</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>2025-05-13 07:44:23</t>
+          <t>2025-05-13 08:35:29</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>2025-05-13 07:44:23</t>
+          <t>2025-05-13 08:35:29</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>2025-05-13 10:51:25</t>
+          <t>2025-05-13 13:02:05</t>
         </is>
       </c>
       <c r="I59" t="n">
-        <v>13279</v>
+        <v>18928</v>
       </c>
       <c r="J59" t="inlineStr">
         <is>
@@ -4794,11 +4794,11 @@
       </c>
       <c r="K59" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="L59" t="n">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="M59" t="n">
         <v>70</v>
@@ -4811,11 +4811,11 @@
       </c>
       <c r="Q59" t="inlineStr">
         <is>
-          <t>2025-05-19 00:00:00</t>
+          <t>2025-04-18 00:00:00</t>
         </is>
       </c>
       <c r="R59" s="1" t="n">
-        <v>0</v>
+        <v>-25.54311424100694</v>
       </c>
       <c r="S59" t="n">
         <v>2</v>
@@ -4899,33 +4899,33 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>R3</t>
         </is>
       </c>
       <c r="C61" t="n">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="D61" t="n">
-        <v>16.34426229508197</v>
+        <v>20.3469387755102</v>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>2025-05-13 07:45:37</t>
+          <t>2025-05-13 07:47:36</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>2025-05-13 08:14:37</t>
+          <t>2025-05-13 08:32:36</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>2025-05-13 08:14:37</t>
+          <t>2025-05-13 08:32:36</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>2025-05-13 08:30:58</t>
+          <t>2025-05-13 08:52:57</t>
         </is>
       </c>
       <c r="I61" t="n">
@@ -4959,7 +4959,7 @@
         </is>
       </c>
       <c r="R61" s="1" t="n">
-        <v>-225.3548383424421</v>
+        <v>-225.370110544213</v>
       </c>
       <c r="S61" t="n">
         <v>1</v>
@@ -4971,33 +4971,33 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C62" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="D62" t="n">
-        <v>11.78125</v>
+        <v>12.36065573770492</v>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>2025-05-13 08:09:02</t>
+          <t>2025-05-13 07:48:22</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>2025-05-13 08:24:02</t>
+          <t>2025-05-13 08:18:22</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>2025-05-13 08:24:02</t>
+          <t>2025-05-13 08:18:22</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>2025-05-13 08:35:49</t>
+          <t>2025-05-13 08:30:44</t>
         </is>
       </c>
       <c r="I62" t="n">
@@ -5031,7 +5031,7 @@
         </is>
       </c>
       <c r="R62" s="1" t="n">
-        <v>-56.35821397569445</v>
+        <v>-56.35467896174769</v>
       </c>
       <c r="S62" t="n">
         <v>1</v>
@@ -5043,33 +5043,33 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>R3</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C63" t="n">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="D63" t="n">
-        <v>15.38775510204082</v>
+        <v>11.78125</v>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>2025-05-13 08:19:35</t>
+          <t>2025-05-13 07:50:16</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>2025-05-13 08:59:35</t>
+          <t>2025-05-13 08:05:16</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>2025-05-13 08:59:35</t>
+          <t>2025-05-13 08:05:16</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>2025-05-13 09:14:58</t>
+          <t>2025-05-13 08:17:03</t>
         </is>
       </c>
       <c r="I63" t="n">
@@ -5103,7 +5103,7 @@
         </is>
       </c>
       <c r="R63" s="1" t="n">
-        <v>-46.3854024943287</v>
+        <v>-46.34518229166667</v>
       </c>
       <c r="S63" t="n">
         <v>1</v>
@@ -5126,22 +5126,22 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>2025-05-13 08:30:58</t>
+          <t>2025-05-13 08:02:13</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>2025-05-13 08:55:58</t>
+          <t>2025-05-13 08:27:13</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>2025-05-13 08:55:58</t>
+          <t>2025-05-13 08:27:13</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>2025-05-14 07:29:21</t>
+          <t>2025-05-14 07:00:37</t>
         </is>
       </c>
       <c r="I64" t="n">
@@ -5175,7 +5175,7 @@
         </is>
       </c>
       <c r="R64" s="1" t="n">
-        <v>-9.312056010925927</v>
+        <v>-9.292099271400463</v>
       </c>
       <c r="S64" t="n">
         <v>1</v>
@@ -5187,33 +5187,33 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>R9</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C65" t="n">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="D65" t="n">
-        <v>390.3478260869565</v>
+        <v>420.84375</v>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>2025-05-13 08:32:49</t>
+          <t>2025-05-13 08:17:03</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>2025-05-13 09:12:49</t>
+          <t>2025-05-13 08:32:03</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>2025-05-13 09:12:49</t>
+          <t>2025-05-13 08:32:03</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>2025-05-14 07:43:10</t>
+          <t>2025-05-14 07:32:54</t>
         </is>
       </c>
       <c r="I65" t="n">
@@ -5247,7 +5247,7 @@
         </is>
       </c>
       <c r="R65" s="1" t="n">
-        <v>-5.321648550729166</v>
+        <v>-5.314518229166667</v>
       </c>
       <c r="S65" t="n">
         <v>1</v>
@@ -5259,33 +5259,33 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C66" t="n">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="D66" t="n">
-        <v>187.53125</v>
+        <v>169.0422535211268</v>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>2025-05-13 08:35:49</t>
+          <t>2025-05-13 08:18:51</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>2025-05-13 08:50:49</t>
+          <t>2025-05-13 08:39:51</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>2025-05-13 08:50:49</t>
+          <t>2025-05-13 08:39:51</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>2025-05-13 11:58:21</t>
+          <t>2025-05-13 11:28:54</t>
         </is>
       </c>
       <c r="I66" t="n">
@@ -5319,7 +5319,7 @@
         </is>
       </c>
       <c r="R66" s="1" t="n">
-        <v>-4.498860677083333</v>
+        <v>-4.478403755868055</v>
       </c>
       <c r="S66" t="n">
         <v>1</v>
@@ -5342,22 +5342,22 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>2025-05-13 08:41:40</t>
+          <t>2025-05-13 08:30:44</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>2025-05-13 09:16:40</t>
+          <t>2025-05-13 09:05:44</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>2025-05-13 09:16:40</t>
+          <t>2025-05-13 09:05:44</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>2025-05-13 10:47:56</t>
+          <t>2025-05-13 10:37:00</t>
         </is>
       </c>
       <c r="I67" t="n">
@@ -5391,7 +5391,7 @@
         </is>
       </c>
       <c r="R67" s="1" t="n">
-        <v>-4.449954462662038</v>
+        <v>-4.442361111111111</v>
       </c>
       <c r="S67" t="n">
         <v>1</v>
@@ -5414,22 +5414,22 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>2025-05-13 08:45:52</t>
+          <t>2025-05-13 08:51:15</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>2025-05-13 09:16:22</t>
+          <t>2025-05-13 09:21:45</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>2025-05-13 09:16:22</t>
+          <t>2025-05-13 09:21:45</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>2025-05-13 11:23:02</t>
+          <t>2025-05-13 11:28:25</t>
         </is>
       </c>
       <c r="I68" t="n">
@@ -5463,7 +5463,7 @@
         </is>
       </c>
       <c r="R68" s="1" t="n">
-        <v>-4.474337121215278</v>
+        <v>-4.478074494953703</v>
       </c>
       <c r="S68" t="n">
         <v>1</v>
@@ -5486,22 +5486,22 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>2025-05-13 09:14:58</t>
+          <t>2025-05-13 08:52:57</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>2025-05-13 09:59:58</t>
+          <t>2025-05-13 09:37:57</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>2025-05-13 09:59:58</t>
+          <t>2025-05-13 09:37:57</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>2025-05-13 12:25:57</t>
+          <t>2025-05-13 12:03:56</t>
         </is>
       </c>
       <c r="I69" t="n">
@@ -5535,7 +5535,7 @@
         </is>
       </c>
       <c r="R69" s="1" t="n">
-        <v>-4.51802721087963</v>
+        <v>-4.502735260775463</v>
       </c>
       <c r="S69" t="n">
         <v>1</v>
@@ -5558,22 +5558,22 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>2025-05-13 10:47:56</t>
+          <t>2025-05-13 10:37:00</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>2025-05-13 11:12:56</t>
+          <t>2025-05-13 11:02:00</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>2025-05-13 11:12:56</t>
+          <t>2025-05-13 11:02:00</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>2025-05-13 12:55:00</t>
+          <t>2025-05-13 12:44:03</t>
         </is>
       </c>
       <c r="I70" t="n">
@@ -5607,7 +5607,7 @@
         </is>
       </c>
       <c r="R70" s="1" t="n">
-        <v>-4.538194444444445</v>
+        <v>-4.530601092893519</v>
       </c>
       <c r="S70" t="n">
         <v>1</v>
@@ -5619,33 +5619,33 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>R9</t>
         </is>
       </c>
       <c r="C71" t="n">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="D71" t="n">
-        <v>87.69014084507042</v>
+        <v>90.23188405797102</v>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>2025-05-13 10:51:25</t>
+          <t>2025-05-13 10:57:48</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>2025-05-13 11:10:25</t>
+          <t>2025-05-13 11:32:48</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>2025-05-13 11:10:25</t>
+          <t>2025-05-13 11:32:48</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>2025-05-13 12:38:06</t>
+          <t>2025-05-13 13:03:02</t>
         </is>
       </c>
       <c r="I71" t="n">
@@ -5679,7 +5679,7 @@
         </is>
       </c>
       <c r="R71" s="1" t="n">
-        <v>-4.526467136145834</v>
+        <v>-4.543780193240741</v>
       </c>
       <c r="S71" t="n">
         <v>1</v>
@@ -5702,22 +5702,22 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>2025-05-13 11:23:02</t>
+          <t>2025-05-13 11:28:25</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>2025-05-13 11:57:32</t>
+          <t>2025-05-13 12:02:55</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>2025-05-13 11:57:32</t>
+          <t>2025-05-13 12:02:55</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>2025-05-13 13:50:44</t>
+          <t>2025-05-13 13:56:07</t>
         </is>
       </c>
       <c r="I72" t="n">
@@ -5751,7 +5751,7 @@
         </is>
       </c>
       <c r="R72" s="1" t="n">
-        <v>-4.576906565659722</v>
+        <v>-4.580643939398148</v>
       </c>
       <c r="S72" t="n">
         <v>1</v>
@@ -5763,33 +5763,33 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C73" t="n">
         <v>17</v>
       </c>
       <c r="D73" t="n">
-        <v>427.234375</v>
+        <v>385.112676056338</v>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>2025-05-13 11:58:21</t>
+          <t>2025-05-13 11:28:54</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>2025-05-13 12:15:21</t>
+          <t>2025-05-13 11:45:54</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>2025-05-13 12:15:21</t>
+          <t>2025-05-13 11:45:54</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>2025-05-14 11:22:35</t>
+          <t>2025-05-14 10:11:00</t>
         </is>
       </c>
       <c r="I73" t="n">
@@ -5831,41 +5831,41 @@
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>251520</v>
+        <v>251580</v>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>R3</t>
         </is>
       </c>
       <c r="C74" t="n">
-        <v>80</v>
+        <v>35</v>
       </c>
       <c r="D74" t="n">
-        <v>230.1408450704225</v>
+        <v>145.9795918367347</v>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>2025-05-13 12:11:54</t>
+          <t>2025-05-13 12:03:56</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>2025-05-13 13:31:54</t>
+          <t>2025-05-13 12:38:56</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>2025-05-13 13:31:54</t>
+          <t>2025-05-13 12:38:56</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>2025-05-14 09:22:03</t>
+          <t>2025-05-14 07:04:55</t>
         </is>
       </c>
       <c r="I74" t="n">
-        <v>16340</v>
+        <v>7153</v>
       </c>
       <c r="J74" t="inlineStr">
         <is>
@@ -5874,11 +5874,11 @@
       </c>
       <c r="K74" t="inlineStr">
         <is>
-          <t>CASON ;R6</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L74" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="M74" t="n">
         <v>70</v>
@@ -5891,11 +5891,11 @@
       </c>
       <c r="Q74" t="inlineStr">
         <is>
-          <t>2025-05-12 00:00:00</t>
+          <t>2025-05-15 00:00:00</t>
         </is>
       </c>
       <c r="R74" s="1" t="n">
-        <v>-2.390316901412037</v>
+        <v>0</v>
       </c>
       <c r="S74" t="n">
         <v>1</v>
@@ -5903,41 +5903,41 @@
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>251580</v>
+        <v>251557</v>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>R3</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C75" t="n">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="D75" t="n">
-        <v>145.9795918367347</v>
+        <v>109.9180327868852</v>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>2025-05-13 12:25:57</t>
+          <t>2025-05-13 12:44:03</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>2025-05-13 13:00:57</t>
+          <t>2025-05-13 13:04:03</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>2025-05-13 13:00:57</t>
+          <t>2025-05-13 13:04:03</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>2025-05-14 07:26:56</t>
+          <t>2025-05-13 14:53:59</t>
         </is>
       </c>
       <c r="I75" t="n">
-        <v>7153</v>
+        <v>6705</v>
       </c>
       <c r="J75" t="inlineStr">
         <is>
@@ -5950,7 +5950,7 @@
         </is>
       </c>
       <c r="L75" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M75" t="n">
         <v>70</v>
@@ -5975,41 +5975,41 @@
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>251557</v>
+        <v>251520</v>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="C76" t="n">
-        <v>15</v>
+        <v>80</v>
       </c>
       <c r="D76" t="n">
-        <v>94.43661971830986</v>
+        <v>230.1408450704225</v>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>2025-05-13 12:38:06</t>
+          <t>2025-05-13 13:02:05</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>2025-05-13 12:53:06</t>
+          <t>2025-05-13 14:22:05</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>2025-05-13 12:53:06</t>
+          <t>2025-05-13 14:22:05</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>2025-05-13 14:27:32</t>
+          <t>2025-05-14 10:12:13</t>
         </is>
       </c>
       <c r="I76" t="n">
-        <v>6705</v>
+        <v>16340</v>
       </c>
       <c r="J76" t="inlineStr">
         <is>
@@ -6018,11 +6018,11 @@
       </c>
       <c r="K76" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>CASON ;R6</t>
         </is>
       </c>
       <c r="L76" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="M76" t="n">
         <v>70</v>
@@ -6035,11 +6035,11 @@
       </c>
       <c r="Q76" t="inlineStr">
         <is>
-          <t>2025-05-15 00:00:00</t>
+          <t>2025-05-12 00:00:00</t>
         </is>
       </c>
       <c r="R76" s="1" t="n">
-        <v>0</v>
+        <v>-2.425156494525463</v>
       </c>
       <c r="S76" t="n">
         <v>1</v>
@@ -6051,33 +6051,33 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>R9</t>
         </is>
       </c>
       <c r="C77" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D77" t="n">
-        <v>133.4754098360656</v>
+        <v>118</v>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>2025-05-13 12:55:00</t>
+          <t>2025-05-13 13:03:02</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>2025-05-13 13:15:00</t>
+          <t>2025-05-13 13:28:02</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>2025-05-13 13:15:00</t>
+          <t>2025-05-13 13:28:02</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>2025-05-14 07:28:28</t>
+          <t>2025-05-14 07:26:02</t>
         </is>
       </c>
       <c r="I77" t="n">
@@ -6134,22 +6134,22 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>2025-05-13 13:50:44</t>
+          <t>2025-05-13 13:56:07</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>2025-05-13 14:29:14</t>
+          <t>2025-05-13 14:34:37</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>2025-05-13 14:29:14</t>
+          <t>2025-05-13 14:34:37</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>2025-05-14 09:19:35</t>
+          <t>2025-05-14 09:24:58</t>
         </is>
       </c>
       <c r="I78" t="n">
@@ -6195,33 +6195,33 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C79" t="n">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="D79" t="n">
-        <v>318.6478873239437</v>
+        <v>370.8852459016393</v>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>2025-05-13 14:27:32</t>
+          <t>2025-05-13 14:53:59</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>2025-05-13 14:50:32</t>
+          <t>2025-05-14 07:33:59</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>2025-05-13 14:50:32</t>
+          <t>2025-05-14 07:33:59</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>2025-05-14 12:09:11</t>
+          <t>2025-05-14 13:44:52</t>
         </is>
       </c>
       <c r="I79" t="n">
@@ -6267,33 +6267,33 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>R3</t>
+          <t>BIMEC 4</t>
         </is>
       </c>
       <c r="C80" t="n">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="D80" t="n">
-        <v>307.8163265306122</v>
+        <v>247.2622950819672</v>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>2025-05-14 07:26:56</t>
+          <t>2025-05-14 07:00:37</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>2025-05-14 08:11:56</t>
+          <t>2025-05-14 07:25:37</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>2025-05-14 08:11:56</t>
+          <t>2025-05-14 07:25:37</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>2025-05-14 13:19:45</t>
+          <t>2025-05-14 11:32:53</t>
         </is>
       </c>
       <c r="I80" t="n">
@@ -6339,33 +6339,33 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>R3</t>
         </is>
       </c>
       <c r="C81" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="D81" t="n">
-        <v>260</v>
+        <v>323.6734693877551</v>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>2025-05-14 07:28:28</t>
+          <t>2025-05-14 07:04:55</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>2025-05-14 08:08:28</t>
+          <t>2025-05-14 07:49:55</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>2025-05-14 08:08:28</t>
+          <t>2025-05-14 07:49:55</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>2025-05-14 12:28:28</t>
+          <t>2025-05-14 13:13:35</t>
         </is>
       </c>
       <c r="I81" t="n">
@@ -6411,33 +6411,33 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>R9</t>
         </is>
       </c>
       <c r="C82" t="n">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="D82" t="n">
-        <v>63.78688524590164</v>
+        <v>56.39130434782609</v>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>2025-05-14 07:29:21</t>
+          <t>2025-05-14 07:26:02</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>2025-05-14 08:15:21</t>
+          <t>2025-05-14 08:01:02</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>2025-05-14 08:15:21</t>
+          <t>2025-05-14 08:01:02</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>2025-05-14 09:19:08</t>
+          <t>2025-05-14 08:57:26</t>
         </is>
       </c>
       <c r="I82" t="n">
@@ -6483,33 +6483,33 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>R9</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C83" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="D83" t="n">
-        <v>68.95652173913044</v>
+        <v>74.34375</v>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>2025-05-14 07:43:10</t>
+          <t>2025-05-14 07:32:54</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>2025-05-14 08:08:10</t>
+          <t>2025-05-14 07:47:54</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>2025-05-14 08:08:10</t>
+          <t>2025-05-14 07:47:54</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>2025-05-14 09:17:07</t>
+          <t>2025-05-14 09:02:15</t>
         </is>
       </c>
       <c r="I83" t="n">
@@ -6631,29 +6631,29 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="D85" t="n">
         <v>271.5797101449276</v>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>2025-05-14 09:17:07</t>
+          <t>2025-05-14 08:57:26</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>2025-05-14 09:42:07</t>
+          <t>2025-05-14 09:42:26</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>2025-05-14 09:42:07</t>
+          <t>2025-05-14 09:42:26</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>2025-05-14 14:13:42</t>
+          <t>2025-05-14 14:14:00</t>
         </is>
       </c>
       <c r="I85" t="n">
@@ -6699,33 +6699,33 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C86" t="n">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="D86" t="n">
-        <v>8470.786885245901</v>
+        <v>8073.71875</v>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>2025-05-14 09:19:08</t>
+          <t>2025-05-14 09:02:15</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>2025-05-14 10:03:08</t>
+          <t>2025-05-14 09:34:15</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>2025-05-14 10:03:08</t>
+          <t>2025-05-14 09:34:15</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>2025-06-09 07:13:56</t>
+          <t>2025-06-06 08:07:58</t>
         </is>
       </c>
       <c r="I86" t="n">
@@ -6771,33 +6771,33 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C87" t="n">
         <v>36</v>
       </c>
       <c r="D87" t="n">
-        <v>1916.640625</v>
+        <v>1727.676056338028</v>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>2025-05-14 11:22:35</t>
+          <t>2025-05-14 10:11:00</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>2025-05-14 11:58:35</t>
+          <t>2025-05-14 10:47:00</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>2025-05-14 11:58:35</t>
+          <t>2025-05-14 10:47:00</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>2025-05-20 11:55:14</t>
+          <t>2025-05-20 07:34:41</t>
         </is>
       </c>
       <c r="I87" t="n">

--- a/PS-VRP/Dati_output/euristico_post.xlsx
+++ b/PS-VRP/Dati_output/euristico_post.xlsx
@@ -592,7 +592,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>251164</v>
+        <v>251455</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -600,10 +600,10 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D3" t="n">
-        <v>140.8450704225352</v>
+        <v>74.6056338028169</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -612,21 +612,21 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2025-05-08 07:53:00</t>
+          <t>2025-05-08 07:49:00</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>2025-05-08 07:53:00</t>
+          <t>2025-05-08 07:49:00</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2025-05-08 10:13:50</t>
+          <t>2025-05-08 09:03:36</t>
         </is>
       </c>
       <c r="I3" t="n">
-        <v>10000</v>
+        <v>5297</v>
       </c>
       <c r="J3" t="inlineStr">
         <is>
@@ -639,7 +639,7 @@
         </is>
       </c>
       <c r="L3" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M3" t="n">
         <v>70</v>
@@ -657,14 +657,14 @@
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>2025-04-22 00:00:00</t>
+          <t>2025-04-15 00:00:00</t>
         </is>
       </c>
       <c r="R3" s="1" t="n">
-        <v>-1.426281298900463</v>
+        <v>-1.377503912361111</v>
       </c>
       <c r="S3" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -677,29 +677,29 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D4" t="n">
         <v>184.9154929577465</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2025-05-08 10:13:50</t>
+          <t>2025-05-08 09:03:36</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2025-05-08 10:32:50</t>
+          <t>2025-05-08 09:18:36</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>2025-05-08 10:32:50</t>
+          <t>2025-05-08 09:18:36</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>2025-05-08 13:37:45</t>
+          <t>2025-05-08 12:23:31</t>
         </is>
       </c>
       <c r="I4" t="n">
@@ -738,7 +738,7 @@
         </is>
       </c>
       <c r="R4" s="1" t="n">
-        <v>-1.567889280127315</v>
+        <v>-1.516334115810185</v>
       </c>
       <c r="S4" t="n">
         <v>7</v>
@@ -761,22 +761,22 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2025-05-08 13:37:45</t>
+          <t>2025-05-08 12:23:31</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2025-05-08 14:07:45</t>
+          <t>2025-05-08 12:53:31</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>2025-05-08 14:07:45</t>
+          <t>2025-05-08 12:53:31</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>2025-05-09 08:06:02</t>
+          <t>2025-05-08 14:51:48</t>
         </is>
       </c>
       <c r="I5" t="n">
@@ -815,7 +815,7 @@
         </is>
       </c>
       <c r="R5" s="1" t="n">
-        <v>-1.337529342719907</v>
+        <v>-0.6193075117361111</v>
       </c>
       <c r="S5" t="n">
         <v>1</v>
@@ -838,22 +838,22 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2025-05-09 08:06:02</t>
+          <t>2025-05-08 14:51:48</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2025-05-09 08:23:02</t>
+          <t>2025-05-09 07:08:48</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>2025-05-09 08:23:02</t>
+          <t>2025-05-09 07:08:48</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>2025-05-12 10:46:27</t>
+          <t>2025-05-12 09:32:12</t>
         </is>
       </c>
       <c r="I6" t="n">
@@ -898,41 +898,41 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>251782</v>
+        <v>251227</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="D7" t="n">
-        <v>170.0422535211268</v>
+        <v>0</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>2025-05-08 12:00:00</t>
+          <t>2025-05-07 07:00:00</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2025-05-08 12:17:00</t>
+          <t>2025-05-07 07:34:00</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>2025-05-08 12:17:00</t>
+          <t>2025-05-07 07:34:00</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>2025-05-09 07:07:02</t>
+          <t>2025-05-07 07:34:00</t>
         </is>
       </c>
       <c r="I7" t="n">
-        <v>12073</v>
+        <v>0</v>
       </c>
       <c r="J7" t="inlineStr">
         <is>
@@ -941,17 +941,17 @@
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L7" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M7" t="n">
         <v>76</v>
       </c>
       <c r="N7" t="n">
-        <v>39754</v>
+        <v>39746</v>
       </c>
       <c r="O7" t="inlineStr">
         <is>
@@ -959,15 +959,15 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>39754</v>
+        <v>39746</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>2025-05-16 00:00:00</t>
+          <t>2025-05-05 00:00:00</t>
         </is>
       </c>
       <c r="R7" s="1" t="n">
-        <v>-0.2965571204976852</v>
+        <v>-1.315277777777778</v>
       </c>
       <c r="S7" t="n">
         <v>1</v>
@@ -975,62 +975,60 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>251706</v>
+        <v>251164</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>T3</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="D8" t="n">
-        <v>50.79365079365079</v>
+        <v>156.25</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>2025-05-12 07:00:00</t>
+          <t>2025-05-07 07:34:00</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2025-05-12 07:00:00</t>
+          <t>2025-05-07 08:08:00</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>2025-05-12 07:00:00</t>
+          <t>2025-05-07 08:08:00</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>2025-05-12 07:50:47</t>
+          <t>2025-05-07 10:44:15</t>
         </is>
       </c>
       <c r="I8" t="n">
-        <v>3200</v>
+        <v>10000</v>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>foglio</t>
+          <t>bobina</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>T3</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="inlineStr">
-        <is>
-          <t>39764 (esterno)</t>
-        </is>
+        <v>70</v>
+      </c>
+      <c r="N8" t="n">
+        <v>39749</v>
       </c>
       <c r="O8" t="inlineStr">
         <is>
@@ -1038,57 +1036,57 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>39764</v>
+        <v>39749</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>2025-05-14 00:00:00</t>
+          <t>2025-04-22 00:00:00</t>
         </is>
       </c>
       <c r="R8" s="1" t="n">
-        <v>0</v>
+        <v>-0.4473958333333333</v>
       </c>
       <c r="S8" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>251050</v>
+        <v>251391</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>217</v>
+        <v>17</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>91.640625</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>2025-05-09 07:00:00</t>
+          <t>2025-05-07 10:44:15</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>2025-05-09 10:37:00</t>
+          <t>2025-05-07 11:01:15</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>2025-05-09 10:37:00</t>
+          <t>2025-05-07 11:01:15</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>2025-05-09 10:37:00</t>
+          <t>2025-05-07 12:32:53</t>
         </is>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>5865</v>
       </c>
       <c r="J9" t="inlineStr">
         <is>
@@ -1097,17 +1095,17 @@
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L9" t="n">
-        <v>38</v>
+        <v>5</v>
       </c>
       <c r="M9" t="n">
         <v>70</v>
       </c>
       <c r="N9" t="n">
-        <v>39747</v>
+        <v>39749</v>
       </c>
       <c r="O9" t="inlineStr">
         <is>
@@ -1115,57 +1113,57 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>39747</v>
+        <v>39749</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>2025-04-16 00:00:00</t>
+          <t>2025-04-23 00:00:00</t>
         </is>
       </c>
       <c r="R9" s="1" t="n">
-        <v>-1.442361111111111</v>
+        <v>-0.5228407118055556</v>
       </c>
       <c r="S9" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>251054</v>
+        <v>251395</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>35.34375</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>2025-05-09 10:37:00</t>
+          <t>2025-05-07 12:32:53</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>2025-05-09 11:12:00</t>
+          <t>2025-05-07 12:49:53</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>2025-05-09 11:12:00</t>
+          <t>2025-05-07 12:49:53</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>2025-05-09 11:12:00</t>
+          <t>2025-05-07 13:25:14</t>
         </is>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>2262</v>
       </c>
       <c r="J10" t="inlineStr">
         <is>
@@ -1174,17 +1172,17 @@
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L10" t="n">
-        <v>38</v>
+        <v>6</v>
       </c>
       <c r="M10" t="n">
         <v>70</v>
       </c>
       <c r="N10" t="n">
-        <v>39747</v>
+        <v>39749</v>
       </c>
       <c r="O10" t="inlineStr">
         <is>
@@ -1192,57 +1190,57 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>39747</v>
+        <v>39749</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>2025-04-16 00:00:00</t>
+          <t>2025-04-23 00:00:00</t>
         </is>
       </c>
       <c r="R10" s="1" t="n">
-        <v>-1.466666666666667</v>
+        <v>-0.5591905381944444</v>
       </c>
       <c r="S10" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>251081</v>
+        <v>251371</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>125</v>
+        <v>19</v>
       </c>
       <c r="D11" t="n">
-        <v>42.42253521126761</v>
+        <v>0</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>2025-05-09 11:12:00</t>
+          <t>2025-05-07 13:25:14</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>2025-05-09 13:17:00</t>
+          <t>2025-05-07 13:44:14</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>2025-05-09 13:17:00</t>
+          <t>2025-05-07 13:44:14</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>2025-05-09 13:59:25</t>
+          <t>2025-05-07 13:44:14</t>
         </is>
       </c>
       <c r="I11" t="n">
-        <v>3012</v>
+        <v>0</v>
       </c>
       <c r="J11" t="inlineStr">
         <is>
@@ -1251,18 +1249,18 @@
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L11" t="n">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="M11" t="n">
         <v>70</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>39750 (esterno)</t>
+          <t>39666 (esterno)</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
@@ -1271,57 +1269,57 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>39750</v>
+        <v>39666</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>2025-04-23 00:00:00</t>
+          <t>2025-04-24 00:00:00</t>
         </is>
       </c>
       <c r="R11" s="1" t="n">
-        <v>-16.58293231612268</v>
+        <v>-13.57238498263889</v>
       </c>
       <c r="S11" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>251742</v>
+        <v>251396</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="D12" t="n">
-        <v>134.8524590163935</v>
+        <v>35.34375</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>2025-05-08 07:00:00</t>
+          <t>2025-05-07 13:44:14</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>2025-05-08 07:30:00</t>
+          <t>2025-05-07 14:03:14</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>2025-05-08 07:30:00</t>
+          <t>2025-05-07 14:03:14</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>2025-05-08 09:44:51</t>
+          <t>2025-05-07 14:38:34</t>
         </is>
       </c>
       <c r="I12" t="n">
-        <v>8226</v>
+        <v>2262</v>
       </c>
       <c r="J12" t="inlineStr">
         <is>
@@ -1334,7 +1332,7 @@
         </is>
       </c>
       <c r="L12" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M12" t="n">
         <v>70</v>
@@ -1352,11 +1350,11 @@
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>2025-05-15 00:00:00</t>
+          <t>2025-05-02 00:00:00</t>
         </is>
       </c>
       <c r="R12" s="1" t="n">
-        <v>-1.406147540983796</v>
+        <v>-0.6101236979166667</v>
       </c>
       <c r="S12" t="n">
         <v>7</v>
@@ -1364,41 +1362,41 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>251840</v>
+        <v>251548</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="D13" t="n">
-        <v>93.67213114754098</v>
+        <v>206.90625</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>2025-05-08 09:44:51</t>
+          <t>2025-05-07 14:38:34</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>2025-05-08 10:09:51</t>
+          <t>2025-05-07 14:57:34</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>2025-05-08 10:09:51</t>
+          <t>2025-05-07 14:57:34</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>2025-05-08 11:43:31</t>
+          <t>2025-05-08 10:24:29</t>
         </is>
       </c>
       <c r="I13" t="n">
-        <v>5714</v>
+        <v>13242</v>
       </c>
       <c r="J13" t="inlineStr">
         <is>
@@ -1411,13 +1409,13 @@
         </is>
       </c>
       <c r="L13" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M13" t="n">
         <v>70</v>
       </c>
       <c r="N13" t="n">
-        <v>39758</v>
+        <v>39749</v>
       </c>
       <c r="O13" t="inlineStr">
         <is>
@@ -1425,57 +1423,57 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>39758</v>
+        <v>39749</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>2025-05-09 00:00:00</t>
+          <t>2025-05-06 00:00:00</t>
         </is>
       </c>
       <c r="R13" s="1" t="n">
-        <v>-0.4885587431712963</v>
+        <v>-1.433669704861111</v>
       </c>
       <c r="S13" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>251229</v>
+        <v>250923</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="D14" t="n">
-        <v>307.1967213114754</v>
+        <v>109.46875</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>2025-05-08 11:43:31</t>
+          <t>2025-05-08 10:24:29</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>2025-05-08 12:08:31</t>
+          <t>2025-05-08 10:56:29</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>2025-05-08 12:08:31</t>
+          <t>2025-05-08 10:56:29</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>2025-05-09 09:15:43</t>
+          <t>2025-05-08 12:45:57</t>
         </is>
       </c>
       <c r="I14" t="n">
-        <v>18739</v>
+        <v>7006</v>
       </c>
       <c r="J14" t="inlineStr">
         <is>
@@ -1484,19 +1482,17 @@
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L14" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="M14" t="n">
-        <v>70</v>
-      </c>
-      <c r="N14" t="inlineStr">
-        <is>
-          <t>39723 (esterno)</t>
-        </is>
+        <v>76</v>
+      </c>
+      <c r="N14" t="n">
+        <v>39749</v>
       </c>
       <c r="O14" t="inlineStr">
         <is>
@@ -1504,23 +1500,23 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>39723</v>
+        <v>39749</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>2025-05-15 00:00:00</t>
+          <t>2025-04-07 00:00:00</t>
         </is>
       </c>
       <c r="R14" s="1" t="n">
-        <v>0</v>
+        <v>-1.531911892361111</v>
       </c>
       <c r="S14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>251227</v>
+        <v>251477</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
@@ -1528,33 +1524,33 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>468.734375</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>2025-05-07 07:00:00</t>
+          <t>2025-05-08 12:45:57</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>2025-05-07 07:34:00</t>
+          <t>2025-05-08 13:04:57</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>2025-05-07 07:34:00</t>
+          <t>2025-05-08 13:04:57</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>2025-05-07 07:34:00</t>
+          <t>2025-05-09 12:53:41</t>
         </is>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>29999</v>
       </c>
       <c r="J15" t="inlineStr">
         <is>
@@ -1563,17 +1559,17 @@
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L15" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M15" t="n">
         <v>76</v>
       </c>
       <c r="N15" t="n">
-        <v>39746</v>
+        <v>39760</v>
       </c>
       <c r="O15" t="inlineStr">
         <is>
@@ -1581,15 +1577,15 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>39746</v>
+        <v>39760</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>2025-05-05 00:00:00</t>
+          <t>2025-04-28 00:00:00</t>
         </is>
       </c>
       <c r="R15" s="1" t="n">
-        <v>-1.315277777777778</v>
+        <v>-2.537282986111111</v>
       </c>
       <c r="S15" t="n">
         <v>1</v>
@@ -1597,60 +1593,62 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>251455</v>
+        <v>251706</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>T3</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>82.765625</v>
+        <v>50.79365079365079</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>2025-05-07 07:34:00</t>
+          <t>2025-05-12 07:00:00</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>2025-05-07 08:04:00</t>
+          <t>2025-05-12 07:00:00</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>2025-05-07 08:04:00</t>
+          <t>2025-05-12 07:00:00</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>2025-05-07 09:26:45</t>
+          <t>2025-05-12 07:50:47</t>
         </is>
       </c>
       <c r="I16" t="n">
-        <v>5297</v>
+        <v>3200</v>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>bobina</t>
+          <t>foglio</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>T3</t>
         </is>
       </c>
       <c r="L16" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>70</v>
-      </c>
-      <c r="N16" t="n">
-        <v>39749</v>
+        <v>0</v>
+      </c>
+      <c r="N16" t="inlineStr">
+        <is>
+          <t>39764 (esterno)</t>
+        </is>
       </c>
       <c r="O16" t="inlineStr">
         <is>
@@ -1658,15 +1656,15 @@
         </is>
       </c>
       <c r="P16" t="n">
-        <v>39749</v>
+        <v>39764</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>2025-04-15 00:00:00</t>
+          <t>2025-05-14 00:00:00</t>
         </is>
       </c>
       <c r="R16" s="1" t="n">
-        <v>-0.3935872395833334</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>7</v>
@@ -1674,41 +1672,41 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>251391</v>
+        <v>251050</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>17</v>
+        <v>217</v>
       </c>
       <c r="D17" t="n">
-        <v>91.640625</v>
+        <v>0</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>2025-05-07 09:26:45</t>
+          <t>2025-05-09 07:00:00</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>2025-05-07 09:43:45</t>
+          <t>2025-05-09 10:37:00</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>2025-05-07 09:43:45</t>
+          <t>2025-05-09 10:37:00</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>2025-05-07 11:15:24</t>
+          <t>2025-05-09 10:37:00</t>
         </is>
       </c>
       <c r="I17" t="n">
-        <v>5865</v>
+        <v>0</v>
       </c>
       <c r="J17" t="inlineStr">
         <is>
@@ -1717,17 +1715,17 @@
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="L17" t="n">
-        <v>5</v>
+        <v>38</v>
       </c>
       <c r="M17" t="n">
         <v>70</v>
       </c>
       <c r="N17" t="n">
-        <v>39749</v>
+        <v>39747</v>
       </c>
       <c r="O17" t="inlineStr">
         <is>
@@ -1735,57 +1733,57 @@
         </is>
       </c>
       <c r="P17" t="n">
-        <v>39749</v>
+        <v>39747</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>2025-04-23 00:00:00</t>
+          <t>2025-04-16 00:00:00</t>
         </is>
       </c>
       <c r="R17" s="1" t="n">
-        <v>-0.4690321180555556</v>
+        <v>-1.442361111111111</v>
       </c>
       <c r="S17" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>251395</v>
+        <v>251054</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="D18" t="n">
-        <v>35.34375</v>
+        <v>0</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>2025-05-07 11:15:24</t>
+          <t>2025-05-09 10:37:00</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>2025-05-07 11:32:24</t>
+          <t>2025-05-09 11:12:00</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>2025-05-07 11:32:24</t>
+          <t>2025-05-09 11:12:00</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>2025-05-07 12:07:45</t>
+          <t>2025-05-09 11:12:00</t>
         </is>
       </c>
       <c r="I18" t="n">
-        <v>2262</v>
+        <v>0</v>
       </c>
       <c r="J18" t="inlineStr">
         <is>
@@ -1794,17 +1792,17 @@
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="L18" t="n">
-        <v>6</v>
+        <v>38</v>
       </c>
       <c r="M18" t="n">
         <v>70</v>
       </c>
       <c r="N18" t="n">
-        <v>39749</v>
+        <v>39747</v>
       </c>
       <c r="O18" t="inlineStr">
         <is>
@@ -1812,57 +1810,57 @@
         </is>
       </c>
       <c r="P18" t="n">
-        <v>39749</v>
+        <v>39747</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>2025-04-23 00:00:00</t>
+          <t>2025-04-16 00:00:00</t>
         </is>
       </c>
       <c r="R18" s="1" t="n">
-        <v>-0.5053819444444444</v>
+        <v>-1.466666666666667</v>
       </c>
       <c r="S18" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>251371</v>
+        <v>251081</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>19</v>
+        <v>125</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>42.42253521126761</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>2025-05-07 12:07:45</t>
+          <t>2025-05-09 11:12:00</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>2025-05-07 12:26:45</t>
+          <t>2025-05-09 13:17:00</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>2025-05-07 12:26:45</t>
+          <t>2025-05-09 13:17:00</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>2025-05-07 12:26:45</t>
+          <t>2025-05-09 13:59:25</t>
         </is>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>3012</v>
       </c>
       <c r="J19" t="inlineStr">
         <is>
@@ -1871,18 +1869,18 @@
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="L19" t="n">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="M19" t="n">
         <v>70</v>
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>39666 (esterno)</t>
+          <t>39750 (esterno)</t>
         </is>
       </c>
       <c r="O19" t="inlineStr">
@@ -1891,57 +1889,57 @@
         </is>
       </c>
       <c r="P19" t="n">
-        <v>39666</v>
+        <v>39750</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>2025-04-24 00:00:00</t>
+          <t>2025-04-23 00:00:00</t>
         </is>
       </c>
       <c r="R19" s="1" t="n">
-        <v>-13.51857638888889</v>
+        <v>-16.58293231612268</v>
       </c>
       <c r="S19" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>251396</v>
+        <v>251742</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="D20" t="n">
-        <v>35.34375</v>
+        <v>134.8524590163935</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>2025-05-07 12:26:45</t>
+          <t>2025-05-08 07:00:00</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>2025-05-07 12:45:45</t>
+          <t>2025-05-08 07:30:00</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>2025-05-07 12:45:45</t>
+          <t>2025-05-08 07:30:00</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>2025-05-07 13:21:05</t>
+          <t>2025-05-08 09:44:51</t>
         </is>
       </c>
       <c r="I20" t="n">
-        <v>2262</v>
+        <v>8226</v>
       </c>
       <c r="J20" t="inlineStr">
         <is>
@@ -1954,7 +1952,7 @@
         </is>
       </c>
       <c r="L20" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M20" t="n">
         <v>70</v>
@@ -1972,11 +1970,11 @@
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>2025-05-02 00:00:00</t>
+          <t>2025-05-15 00:00:00</t>
         </is>
       </c>
       <c r="R20" s="1" t="n">
-        <v>-0.5563151041666666</v>
+        <v>-1.406147540983796</v>
       </c>
       <c r="S20" t="n">
         <v>7</v>
@@ -1984,41 +1982,41 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>251548</v>
+        <v>251840</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="D21" t="n">
-        <v>206.90625</v>
+        <v>93.67213114754098</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>2025-05-07 13:21:05</t>
+          <t>2025-05-08 09:44:51</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>2025-05-07 13:40:05</t>
+          <t>2025-05-08 10:09:51</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>2025-05-07 13:40:05</t>
+          <t>2025-05-08 10:09:51</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>2025-05-08 09:07:00</t>
+          <t>2025-05-08 11:43:31</t>
         </is>
       </c>
       <c r="I21" t="n">
-        <v>13242</v>
+        <v>5714</v>
       </c>
       <c r="J21" t="inlineStr">
         <is>
@@ -2031,13 +2029,13 @@
         </is>
       </c>
       <c r="L21" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M21" t="n">
         <v>70</v>
       </c>
       <c r="N21" t="n">
-        <v>39749</v>
+        <v>39758</v>
       </c>
       <c r="O21" t="inlineStr">
         <is>
@@ -2045,57 +2043,57 @@
         </is>
       </c>
       <c r="P21" t="n">
-        <v>39749</v>
+        <v>39758</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>2025-05-06 00:00:00</t>
+          <t>2025-05-09 00:00:00</t>
         </is>
       </c>
       <c r="R21" s="1" t="n">
-        <v>-1.379861111111111</v>
+        <v>-0.4885587431712963</v>
       </c>
       <c r="S21" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>250923</v>
+        <v>251229</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="D22" t="n">
-        <v>109.46875</v>
+        <v>307.1967213114754</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>2025-05-08 09:07:00</t>
+          <t>2025-05-08 11:43:31</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>2025-05-08 09:39:00</t>
+          <t>2025-05-08 12:08:31</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>2025-05-08 09:39:00</t>
+          <t>2025-05-08 12:08:31</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>2025-05-08 11:28:28</t>
+          <t>2025-05-09 09:15:43</t>
         </is>
       </c>
       <c r="I22" t="n">
-        <v>7006</v>
+        <v>18739</v>
       </c>
       <c r="J22" t="inlineStr">
         <is>
@@ -2104,17 +2102,19 @@
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R9</t>
         </is>
       </c>
       <c r="L22" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M22" t="n">
-        <v>76</v>
-      </c>
-      <c r="N22" t="n">
-        <v>39749</v>
+        <v>70</v>
+      </c>
+      <c r="N22" t="inlineStr">
+        <is>
+          <t>39723 (esterno)</t>
+        </is>
       </c>
       <c r="O22" t="inlineStr">
         <is>
@@ -2122,57 +2122,57 @@
         </is>
       </c>
       <c r="P22" t="n">
-        <v>39749</v>
+        <v>39723</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>2025-04-07 00:00:00</t>
+          <t>2025-05-15 00:00:00</t>
         </is>
       </c>
       <c r="R22" s="1" t="n">
-        <v>-1.478103298611111</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>251477</v>
+        <v>251651</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>BIMEC 4</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="D23" t="n">
-        <v>468.734375</v>
+        <v>767.7049180327868</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>2025-05-08 11:28:28</t>
+          <t>2025-05-09 07:00:00</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>2025-05-08 11:47:28</t>
+          <t>2025-05-09 07:29:00</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>2025-05-08 11:47:28</t>
+          <t>2025-05-09 07:29:00</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>2025-05-09 11:36:12</t>
+          <t>2025-05-12 12:16:42</t>
         </is>
       </c>
       <c r="I23" t="n">
-        <v>29999</v>
+        <v>46830</v>
       </c>
       <c r="J23" t="inlineStr">
         <is>
@@ -2181,75 +2181,73 @@
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L23" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M23" t="n">
         <v>76</v>
       </c>
       <c r="N23" t="n">
-        <v>39760</v>
-      </c>
-      <c r="O23" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>39755</v>
+      </c>
+      <c r="O23" t="n">
+        <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>39760</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>2025-04-28 00:00:00</t>
+          <t>2025-05-12 00:00:00</t>
         </is>
       </c>
       <c r="R23" s="1" t="n">
-        <v>-2.483474392361111</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>251651</v>
+        <v>251456</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>R3</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="D24" t="n">
-        <v>767.7049180327868</v>
+        <v>183.6530612244898</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>2025-05-09 07:00:00</t>
+          <t>2025-05-08 07:00:00</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>2025-05-09 07:29:00</t>
+          <t>2025-05-08 07:40:00</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>2025-05-09 07:29:00</t>
+          <t>2025-05-08 07:40:00</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>2025-05-12 12:16:42</t>
+          <t>2025-05-08 10:43:39</t>
         </is>
       </c>
       <c r="I24" t="n">
-        <v>46830</v>
+        <v>8999</v>
       </c>
       <c r="J24" t="inlineStr">
         <is>
@@ -2258,39 +2256,41 @@
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L24" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M24" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="N24" t="n">
-        <v>39755</v>
-      </c>
-      <c r="O24" t="n">
-        <v>0</v>
+        <v>39746</v>
+      </c>
+      <c r="O24" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>39746</v>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>2025-05-12 00:00:00</t>
+          <t>2025-05-09 00:00:00</t>
         </is>
       </c>
       <c r="R24" s="1" t="n">
-        <v>0</v>
+        <v>-2.446981292511574</v>
       </c>
       <c r="S24" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>251456</v>
+        <v>251416</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
@@ -2301,30 +2301,30 @@
         <v>40</v>
       </c>
       <c r="D25" t="n">
-        <v>183.6530612244898</v>
+        <v>229.0204081632653</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>2025-05-08 07:00:00</t>
+          <t>2025-05-08 10:43:39</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>2025-05-08 07:40:00</t>
+          <t>2025-05-08 11:23:39</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>2025-05-08 07:40:00</t>
+          <t>2025-05-08 11:23:39</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>2025-05-08 10:43:39</t>
+          <t>2025-05-09 07:12:40</t>
         </is>
       </c>
       <c r="I25" t="n">
-        <v>8999</v>
+        <v>11222</v>
       </c>
       <c r="J25" t="inlineStr">
         <is>
@@ -2337,71 +2337,69 @@
         </is>
       </c>
       <c r="L25" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M25" t="n">
         <v>70</v>
       </c>
       <c r="N25" t="n">
-        <v>39746</v>
-      </c>
-      <c r="O25" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>39755</v>
+      </c>
+      <c r="O25" t="n">
+        <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>39746</v>
+        <v>0</v>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>2025-05-09 00:00:00</t>
+          <t>2025-04-23 00:00:00</t>
         </is>
       </c>
       <c r="R25" s="1" t="n">
-        <v>-2.446981292511574</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>251416</v>
+        <v>251782</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>R3</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="D26" t="n">
-        <v>229.0204081632653</v>
+        <v>170.0422535211268</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>2025-05-08 10:43:39</t>
+          <t>2025-05-08 12:00:00</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>2025-05-08 11:23:39</t>
+          <t>2025-05-08 12:17:00</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>2025-05-08 11:23:39</t>
+          <t>2025-05-08 12:17:00</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>2025-05-09 07:12:40</t>
+          <t>2025-05-09 07:07:02</t>
         </is>
       </c>
       <c r="I26" t="n">
-        <v>11222</v>
+        <v>12073</v>
       </c>
       <c r="J26" t="inlineStr">
         <is>
@@ -2410,34 +2408,36 @@
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L26" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M26" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="N26" t="n">
-        <v>39755</v>
-      </c>
-      <c r="O26" t="n">
-        <v>0</v>
+        <v>39754</v>
+      </c>
+      <c r="O26" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>39754</v>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
-          <t>2025-04-23 00:00:00</t>
+          <t>2025-05-16 00:00:00</t>
         </is>
       </c>
       <c r="R26" s="1" t="n">
-        <v>0</v>
+        <v>-0.2965571204976852</v>
       </c>
       <c r="S26" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27">
@@ -2883,33 +2883,33 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>34</v>
+        <v>34.5</v>
       </c>
       <c r="D33" t="n">
-        <v>101.03125</v>
+        <v>117.5636363636364</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>2025-05-09 11:36:12</t>
+          <t>2025-05-09 12:37:35</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>2025-05-09 12:10:12</t>
+          <t>2025-05-09 13:12:05</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>2025-05-09 12:10:12</t>
+          <t>2025-05-09 13:12:05</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>2025-05-09 13:51:14</t>
+          <t>2025-05-12 07:09:39</t>
         </is>
       </c>
       <c r="I33" t="n">
@@ -2943,7 +2943,7 @@
         </is>
       </c>
       <c r="R33" s="1" t="n">
-        <v>-9.57724609375</v>
+        <v>-12.29837121211806</v>
       </c>
       <c r="S33" t="n">
         <v>7</v>
@@ -2955,33 +2955,33 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>34.5</v>
+        <v>34</v>
       </c>
       <c r="D34" t="n">
-        <v>259.1818181818182</v>
+        <v>222.734375</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>2025-05-09 12:37:35</t>
+          <t>2025-05-09 12:53:41</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>2025-05-09 13:12:05</t>
+          <t>2025-05-09 13:27:41</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>2025-05-09 13:12:05</t>
+          <t>2025-05-09 13:27:41</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>2025-05-12 09:31:16</t>
+          <t>2025-05-12 09:10:25</t>
         </is>
       </c>
       <c r="I34" t="n">
@@ -3015,7 +3015,7 @@
         </is>
       </c>
       <c r="R34" s="1" t="n">
-        <v>-7.396717171712963</v>
+        <v>-7.382237413194445</v>
       </c>
       <c r="S34" t="n">
         <v>7</v>
@@ -3099,33 +3099,33 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>21</v>
+        <v>125</v>
       </c>
       <c r="D36" t="n">
-        <v>205.859375</v>
+        <v>185.5633802816901</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>2025-05-09 13:51:14</t>
+          <t>2025-05-09 13:59:25</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>2025-05-09 14:12:14</t>
+          <t>2025-05-12 08:04:25</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>2025-05-09 14:12:14</t>
+          <t>2025-05-12 08:04:25</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>2025-05-12 09:38:05</t>
+          <t>2025-05-12 11:09:59</t>
         </is>
       </c>
       <c r="I36" t="n">
@@ -3167,41 +3167,41 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>245275</v>
+        <v>251373</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>65</v>
+        <v>30</v>
       </c>
       <c r="D37" t="n">
-        <v>342.1690140845071</v>
+        <v>280.2295081967213</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>2025-05-09 13:59:25</t>
+          <t>2025-05-09 14:20:10</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>2025-05-12 07:04:25</t>
+          <t>2025-05-09 14:50:10</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>2025-05-12 07:04:25</t>
+          <t>2025-05-09 14:50:10</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>2025-05-12 12:46:35</t>
+          <t>2025-05-12 11:30:24</t>
         </is>
       </c>
       <c r="I37" t="n">
-        <v>24294</v>
+        <v>17094</v>
       </c>
       <c r="J37" t="inlineStr">
         <is>
@@ -3210,11 +3210,11 @@
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;CASON ;R6</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L37" t="n">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="M37" t="n">
         <v>70</v>
@@ -3227,53 +3227,53 @@
       </c>
       <c r="Q37" t="inlineStr">
         <is>
-          <t>2025-12-31 00:00:00</t>
+          <t>2025-04-28 00:00:00</t>
         </is>
       </c>
       <c r="R37" s="1" t="n">
-        <v>0</v>
+        <v>-14.4794512750463</v>
       </c>
       <c r="S37" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>251373</v>
+        <v>245350</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>R9</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>30</v>
+        <v>65</v>
       </c>
       <c r="D38" t="n">
-        <v>280.2295081967213</v>
+        <v>405.3623188405797</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>2025-05-09 14:20:10</t>
+          <t>2025-05-12 07:00:00</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>2025-05-09 14:50:10</t>
+          <t>2025-05-12 08:05:00</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>2025-05-09 14:50:10</t>
+          <t>2025-05-12 08:05:00</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>2025-05-12 11:30:24</t>
+          <t>2025-05-12 14:50:21</t>
         </is>
       </c>
       <c r="I38" t="n">
-        <v>17094</v>
+        <v>27970</v>
       </c>
       <c r="J38" t="inlineStr">
         <is>
@@ -3282,11 +3282,11 @@
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R6 ;R9</t>
         </is>
       </c>
       <c r="L38" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="M38" t="n">
         <v>70</v>
@@ -3299,53 +3299,53 @@
       </c>
       <c r="Q38" t="inlineStr">
         <is>
-          <t>2025-04-28 00:00:00</t>
+          <t>2025-12-31 00:00:00</t>
         </is>
       </c>
       <c r="R38" s="1" t="n">
-        <v>-14.4794512750463</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>245350</v>
+        <v>243569</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>R9</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>65</v>
+        <v>17</v>
       </c>
       <c r="D39" t="n">
-        <v>405.3623188405797</v>
+        <v>36.63380281690141</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>2025-05-12 07:00:00</t>
+          <t>2025-05-12 07:06:00</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>2025-05-12 08:05:00</t>
+          <t>2025-05-12 07:23:00</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>2025-05-12 08:05:00</t>
+          <t>2025-05-12 07:23:00</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>2025-05-12 14:50:21</t>
+          <t>2025-05-12 07:59:38</t>
         </is>
       </c>
       <c r="I39" t="n">
-        <v>27970</v>
+        <v>2601</v>
       </c>
       <c r="J39" t="inlineStr">
         <is>
@@ -3354,14 +3354,14 @@
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L39" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="M39" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
@@ -3371,53 +3371,53 @@
       </c>
       <c r="Q39" t="inlineStr">
         <is>
-          <t>2025-12-31 00:00:00</t>
+          <t>2024-09-16 00:00:00</t>
         </is>
       </c>
       <c r="R39" s="1" t="n">
-        <v>0</v>
+        <v>-238.3330888106366</v>
       </c>
       <c r="S39" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>243569</v>
+        <v>245275</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>17</v>
+        <v>48.5</v>
       </c>
       <c r="D40" t="n">
-        <v>36.63380281690141</v>
+        <v>441.7090909090909</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>2025-05-12 07:06:00</t>
+          <t>2025-05-12 07:09:39</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>2025-05-12 07:23:00</t>
+          <t>2025-05-12 07:58:09</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>2025-05-12 07:23:00</t>
+          <t>2025-05-12 07:58:09</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>2025-05-12 07:59:38</t>
+          <t>2025-05-13 07:19:51</t>
         </is>
       </c>
       <c r="I40" t="n">
-        <v>2601</v>
+        <v>24294</v>
       </c>
       <c r="J40" t="inlineStr">
         <is>
@@ -3426,14 +3426,14 @@
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>BIMEC 2 ;CASON ;R6</t>
         </is>
       </c>
       <c r="L40" t="n">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="M40" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="O40" t="n">
         <v>0</v>
@@ -3443,14 +3443,14 @@
       </c>
       <c r="Q40" t="inlineStr">
         <is>
-          <t>2024-09-16 00:00:00</t>
+          <t>2025-12-31 00:00:00</t>
         </is>
       </c>
       <c r="R40" s="1" t="n">
-        <v>-238.3330888106366</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="41">
@@ -3531,33 +3531,33 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>30.5</v>
+        <v>15</v>
       </c>
       <c r="D42" t="n">
-        <v>181.0545454545455</v>
+        <v>155.59375</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>2025-05-12 09:31:16</t>
+          <t>2025-05-12 09:10:25</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>2025-05-12 10:01:46</t>
+          <t>2025-05-12 09:25:25</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>2025-05-12 10:01:46</t>
+          <t>2025-05-12 09:25:25</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>2025-05-12 13:02:49</t>
+          <t>2025-05-12 12:01:00</t>
         </is>
       </c>
       <c r="I42" t="n">
@@ -3591,7 +3591,7 @@
         </is>
       </c>
       <c r="R42" s="1" t="n">
-        <v>-553.5436300505093</v>
+        <v>-553.5007052951389</v>
       </c>
       <c r="S42" t="n">
         <v>4</v>
@@ -3675,33 +3675,33 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="D44" t="n">
-        <v>84.921875</v>
+        <v>76.54929577464789</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>2025-05-12 09:38:05</t>
+          <t>2025-05-12 09:32:12</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>2025-05-12 09:55:05</t>
+          <t>2025-05-12 10:06:12</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>2025-05-12 09:55:05</t>
+          <t>2025-05-12 10:06:12</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>2025-05-12 11:20:00</t>
+          <t>2025-05-12 11:22:45</t>
         </is>
       </c>
       <c r="I44" t="n">
@@ -3735,7 +3735,7 @@
         </is>
       </c>
       <c r="R44" s="1" t="n">
-        <v>-14.47223307291667</v>
+        <v>-14.47413928012731</v>
       </c>
       <c r="S44" t="n">
         <v>4</v>
@@ -3747,33 +3747,33 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="D45" t="n">
         <v>122.2676056338028</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>2025-05-12 10:46:27</t>
+          <t>2025-05-12 11:09:59</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>2025-05-12 11:18:27</t>
+          <t>2025-05-12 11:54:59</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>2025-05-12 11:18:27</t>
+          <t>2025-05-12 11:54:59</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>2025-05-12 13:20:43</t>
+          <t>2025-05-12 13:57:15</t>
         </is>
       </c>
       <c r="I45" t="n">
@@ -3807,7 +3807,7 @@
         </is>
       </c>
       <c r="R45" s="1" t="n">
-        <v>-12.55605438185185</v>
+        <v>-12.58142605634259</v>
       </c>
       <c r="S45" t="n">
         <v>4</v>
@@ -3819,33 +3819,33 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C46" t="n">
         <v>17</v>
       </c>
       <c r="D46" t="n">
-        <v>101.03125</v>
+        <v>91.07042253521126</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>2025-05-12 11:20:00</t>
+          <t>2025-05-12 11:22:45</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>2025-05-12 11:37:00</t>
+          <t>2025-05-12 11:39:45</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>2025-05-12 11:37:00</t>
+          <t>2025-05-12 11:39:45</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>2025-05-12 13:18:02</t>
+          <t>2025-05-12 13:10:49</t>
         </is>
       </c>
       <c r="I46" t="n">
@@ -3879,7 +3879,7 @@
         </is>
       </c>
       <c r="R46" s="1" t="n">
-        <v>-5.55419921875</v>
+        <v>-5.549188184664352</v>
       </c>
       <c r="S46" t="n">
         <v>4</v>
@@ -3963,33 +3963,33 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="D48" t="n">
-        <v>70.65573770491804</v>
+        <v>67.34375</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>2025-05-12 12:16:42</t>
+          <t>2025-05-12 12:01:00</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>2025-05-12 12:58:42</t>
+          <t>2025-05-12 12:18:00</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>2025-05-12 12:58:42</t>
+          <t>2025-05-12 12:18:00</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>2025-05-12 14:09:21</t>
+          <t>2025-05-12 13:25:21</t>
         </is>
       </c>
       <c r="I48" t="n">
@@ -4023,7 +4023,7 @@
         </is>
       </c>
       <c r="R48" s="1" t="n">
-        <v>-4.589833788703704</v>
+        <v>-4.55927734375</v>
       </c>
       <c r="S48" t="n">
         <v>4</v>
@@ -4035,33 +4035,33 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>BIMEC 4</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>85</v>
+        <v>42</v>
       </c>
       <c r="D49" t="n">
-        <v>48.90140845070422</v>
+        <v>56.91803278688525</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>2025-05-12 12:46:35</t>
+          <t>2025-05-12 12:16:42</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>2025-05-12 14:11:35</t>
+          <t>2025-05-12 12:58:42</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>2025-05-12 14:11:35</t>
+          <t>2025-05-12 12:58:42</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>2025-05-13 07:00:29</t>
+          <t>2025-05-12 13:55:37</t>
         </is>
       </c>
       <c r="I49" t="n">
@@ -4095,7 +4095,7 @@
         </is>
       </c>
       <c r="R49" s="1" t="n">
-        <v>-5.2920089984375</v>
+        <v>-4.580293715844907</v>
       </c>
       <c r="S49" t="n">
         <v>4</v>
@@ -4107,33 +4107,33 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C50" t="n">
-        <v>32.5</v>
+        <v>20</v>
       </c>
       <c r="D50" t="n">
-        <v>195.9272727272727</v>
+        <v>176.655737704918</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>2025-05-12 13:02:49</t>
+          <t>2025-05-12 13:06:03</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>2025-05-12 13:35:19</t>
+          <t>2025-05-12 13:26:03</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>2025-05-12 13:35:19</t>
+          <t>2025-05-12 13:26:03</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>2025-05-13 08:51:15</t>
+          <t>2025-05-13 08:22:43</t>
         </is>
       </c>
       <c r="I50" t="n">
@@ -4179,33 +4179,33 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C51" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D51" t="n">
-        <v>142.3114754098361</v>
+        <v>122.2676056338028</v>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>2025-05-12 13:06:03</t>
+          <t>2025-05-12 13:10:49</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>2025-05-12 13:26:03</t>
+          <t>2025-05-12 13:25:49</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>2025-05-12 13:26:03</t>
+          <t>2025-05-12 13:25:49</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>2025-05-13 07:48:22</t>
+          <t>2025-05-13 07:28:05</t>
         </is>
       </c>
       <c r="I51" t="n">
@@ -4262,22 +4262,22 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>2025-05-12 13:18:02</t>
+          <t>2025-05-12 13:25:21</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>2025-05-12 13:37:02</t>
+          <t>2025-05-12 13:44:21</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>2025-05-12 13:37:02</t>
+          <t>2025-05-12 13:44:21</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>2025-05-13 07:50:16</t>
+          <t>2025-05-13 07:57:35</t>
         </is>
       </c>
       <c r="I52" t="n">
@@ -4311,7 +4311,7 @@
         </is>
       </c>
       <c r="R52" s="1" t="n">
-        <v>-25.32658420138889</v>
+        <v>-25.33166232638889</v>
       </c>
       <c r="S52" t="n">
         <v>2</v>
@@ -4323,33 +4323,33 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>R3</t>
         </is>
       </c>
       <c r="C53" t="n">
-        <v>17</v>
+        <v>40</v>
       </c>
       <c r="D53" t="n">
-        <v>67.71830985915493</v>
+        <v>98.12244897959184</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>2025-05-12 13:20:43</t>
+          <t>2025-05-12 13:33:51</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>2025-05-12 13:37:43</t>
+          <t>2025-05-12 14:13:51</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>2025-05-12 13:37:43</t>
+          <t>2025-05-12 14:13:51</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>2025-05-12 14:45:26</t>
+          <t>2025-05-13 07:51:58</t>
         </is>
       </c>
       <c r="I53" t="n">
@@ -4383,7 +4383,7 @@
         </is>
       </c>
       <c r="R53" s="1" t="n">
-        <v>-19.61488654146991</v>
+        <v>-20.32776360543982</v>
       </c>
       <c r="S53" t="n">
         <v>2</v>
@@ -4395,33 +4395,33 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>R3</t>
+          <t>BIMEC 4</t>
         </is>
       </c>
       <c r="C54" t="n">
-        <v>55</v>
+        <v>33</v>
       </c>
       <c r="D54" t="n">
-        <v>78.75510204081633</v>
+        <v>63.26229508196721</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>2025-05-12 13:33:51</t>
+          <t>2025-05-12 13:55:37</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>2025-05-12 14:28:51</t>
+          <t>2025-05-12 14:28:37</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>2025-05-12 14:28:51</t>
+          <t>2025-05-12 14:28:37</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>2025-05-13 07:47:36</t>
+          <t>2025-05-13 07:31:53</t>
         </is>
       </c>
       <c r="I54" t="n">
@@ -4455,7 +4455,7 @@
         </is>
       </c>
       <c r="R54" s="1" t="n">
-        <v>-15.324730725625</v>
+        <v>-15.31380919854167</v>
       </c>
       <c r="S54" t="n">
         <v>2</v>
@@ -4463,41 +4463,41 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>250641</v>
+        <v>251109</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="C55" t="n">
-        <v>29</v>
+        <v>95</v>
       </c>
       <c r="D55" t="n">
-        <v>83.8688524590164</v>
+        <v>266.5915492957747</v>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>2025-05-12 14:09:21</t>
+          <t>2025-05-12 13:57:15</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>2025-05-12 14:38:21</t>
+          <t>2025-05-13 07:32:15</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>2025-05-12 14:38:21</t>
+          <t>2025-05-13 07:32:15</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>2025-05-13 08:02:13</t>
+          <t>2025-05-13 11:58:50</t>
         </is>
       </c>
       <c r="I55" t="n">
-        <v>5116</v>
+        <v>18928</v>
       </c>
       <c r="J55" t="inlineStr">
         <is>
@@ -4506,11 +4506,11 @@
       </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="L55" t="n">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="M55" t="n">
         <v>70</v>
@@ -4523,11 +4523,11 @@
       </c>
       <c r="Q55" t="inlineStr">
         <is>
-          <t>2025-04-28 00:00:00</t>
+          <t>2025-04-18 00:00:00</t>
         </is>
       </c>
       <c r="R55" s="1" t="n">
-        <v>-15.33488160291667</v>
+        <v>-25.49919796556713</v>
       </c>
       <c r="S55" t="n">
         <v>2</v>
@@ -4607,41 +4607,41 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>251259</v>
+        <v>250641</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>R9</t>
         </is>
       </c>
       <c r="C57" t="n">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="D57" t="n">
-        <v>70.4225352112676</v>
+        <v>74.14492753623189</v>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>2025-05-12 14:45:26</t>
+          <t>2025-05-12 14:50:21</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>2025-05-13 07:08:26</t>
+          <t>2025-05-13 07:35:21</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>2025-05-13 07:08:26</t>
+          <t>2025-05-13 07:35:21</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>2025-05-13 08:18:51</t>
+          <t>2025-05-13 08:49:30</t>
         </is>
       </c>
       <c r="I57" t="n">
-        <v>5000</v>
+        <v>5116</v>
       </c>
       <c r="J57" t="inlineStr">
         <is>
@@ -4654,7 +4654,7 @@
         </is>
       </c>
       <c r="L57" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="M57" t="n">
         <v>70</v>
@@ -4667,11 +4667,11 @@
       </c>
       <c r="Q57" t="inlineStr">
         <is>
-          <t>2025-05-06 00:00:00</t>
+          <t>2025-04-28 00:00:00</t>
         </is>
       </c>
       <c r="R57" s="1" t="n">
-        <v>-7.346429968703704</v>
+        <v>-15.36771336554398</v>
       </c>
       <c r="S57" t="n">
         <v>2</v>
@@ -4679,41 +4679,41 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>251761</v>
+        <v>251259</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>R9</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C58" t="n">
-        <v>55</v>
+        <v>40.5</v>
       </c>
       <c r="D58" t="n">
-        <v>192.4492753623188</v>
+        <v>90.90909090909091</v>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>2025-05-12 14:50:21</t>
+          <t>2025-05-13 07:19:51</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>2025-05-13 07:45:21</t>
+          <t>2025-05-13 08:00:21</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>2025-05-13 07:45:21</t>
+          <t>2025-05-13 08:00:21</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>2025-05-13 10:57:48</t>
+          <t>2025-05-13 09:31:16</t>
         </is>
       </c>
       <c r="I58" t="n">
-        <v>13279</v>
+        <v>5000</v>
       </c>
       <c r="J58" t="inlineStr">
         <is>
@@ -4726,7 +4726,7 @@
         </is>
       </c>
       <c r="L58" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="M58" t="n">
         <v>70</v>
@@ -4739,11 +4739,11 @@
       </c>
       <c r="Q58" t="inlineStr">
         <is>
-          <t>2025-05-19 00:00:00</t>
+          <t>2025-05-06 00:00:00</t>
         </is>
       </c>
       <c r="R58" s="1" t="n">
-        <v>0</v>
+        <v>-7.396717171712963</v>
       </c>
       <c r="S58" t="n">
         <v>2</v>
@@ -4751,41 +4751,41 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>251109</v>
+        <v>251761</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C59" t="n">
-        <v>95</v>
+        <v>15</v>
       </c>
       <c r="D59" t="n">
-        <v>266.5915492957747</v>
+        <v>187.0281690140845</v>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>2025-05-13 07:00:29</t>
+          <t>2025-05-13 07:28:05</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>2025-05-13 08:35:29</t>
+          <t>2025-05-13 07:43:05</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>2025-05-13 08:35:29</t>
+          <t>2025-05-13 07:43:05</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>2025-05-13 13:02:05</t>
+          <t>2025-05-13 10:50:07</t>
         </is>
       </c>
       <c r="I59" t="n">
-        <v>18928</v>
+        <v>13279</v>
       </c>
       <c r="J59" t="inlineStr">
         <is>
@@ -4794,11 +4794,11 @@
       </c>
       <c r="K59" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L59" t="n">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="M59" t="n">
         <v>70</v>
@@ -4811,11 +4811,11 @@
       </c>
       <c r="Q59" t="inlineStr">
         <is>
-          <t>2025-04-18 00:00:00</t>
+          <t>2025-05-19 00:00:00</t>
         </is>
       </c>
       <c r="R59" s="1" t="n">
-        <v>-25.54311424100694</v>
+        <v>0</v>
       </c>
       <c r="S59" t="n">
         <v>2</v>
@@ -4827,33 +4827,33 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>BIMEC 4</t>
         </is>
       </c>
       <c r="C60" t="n">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="D60" t="n">
-        <v>464.8450704225352</v>
+        <v>541.0491803278688</v>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>2025-05-13 07:39:45</t>
+          <t>2025-05-13 07:31:53</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>2025-05-13 08:09:45</t>
+          <t>2025-05-13 08:19:53</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>2025-05-13 08:09:45</t>
+          <t>2025-05-13 08:19:53</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>2025-05-14 07:54:36</t>
+          <t>2025-05-14 09:20:56</t>
         </is>
       </c>
       <c r="I60" t="n">
@@ -4887,7 +4887,7 @@
         </is>
       </c>
       <c r="R60" s="1" t="n">
-        <v>-285.3295872456944</v>
+        <v>-285.3895377959954</v>
       </c>
       <c r="S60" t="n">
         <v>1</v>
@@ -4895,41 +4895,41 @@
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>244023</v>
+        <v>251750</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>R3</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C61" t="n">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="D61" t="n">
-        <v>20.3469387755102</v>
+        <v>54.80281690140845</v>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>2025-05-13 07:47:36</t>
+          <t>2025-05-13 07:39:45</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>2025-05-13 08:32:36</t>
+          <t>2025-05-13 08:11:45</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>2025-05-13 08:32:36</t>
+          <t>2025-05-13 08:11:45</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>2025-05-13 08:52:57</t>
+          <t>2025-05-13 09:06:33</t>
         </is>
       </c>
       <c r="I61" t="n">
-        <v>997</v>
+        <v>3891</v>
       </c>
       <c r="J61" t="inlineStr">
         <is>
@@ -4938,14 +4938,14 @@
       </c>
       <c r="K61" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L61" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="M61" t="n">
-        <v>70</v>
+        <v>152</v>
       </c>
       <c r="O61" t="n">
         <v>0</v>
@@ -4955,11 +4955,11 @@
       </c>
       <c r="Q61" t="inlineStr">
         <is>
-          <t>2024-09-30 00:00:00</t>
+          <t>2025-05-26 00:00:00</t>
         </is>
       </c>
       <c r="R61" s="1" t="n">
-        <v>-225.370110544213</v>
+        <v>0</v>
       </c>
       <c r="S61" t="n">
         <v>1</v>
@@ -4967,41 +4967,41 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>251283</v>
+        <v>244023</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>R3</t>
         </is>
       </c>
       <c r="C62" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="D62" t="n">
-        <v>12.36065573770492</v>
+        <v>20.3469387755102</v>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>2025-05-13 07:48:22</t>
+          <t>2025-05-13 07:51:58</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>2025-05-13 08:18:22</t>
+          <t>2025-05-13 08:31:58</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>2025-05-13 08:18:22</t>
+          <t>2025-05-13 08:31:58</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>2025-05-13 08:30:44</t>
+          <t>2025-05-13 08:52:19</t>
         </is>
       </c>
       <c r="I62" t="n">
-        <v>754</v>
+        <v>997</v>
       </c>
       <c r="J62" t="inlineStr">
         <is>
@@ -5010,7 +5010,7 @@
       </c>
       <c r="K62" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L62" t="n">
@@ -5027,11 +5027,11 @@
       </c>
       <c r="Q62" t="inlineStr">
         <is>
-          <t>2025-03-18 00:00:00</t>
+          <t>2024-09-30 00:00:00</t>
         </is>
       </c>
       <c r="R62" s="1" t="n">
-        <v>-56.35467896174769</v>
+        <v>-225.3696712018171</v>
       </c>
       <c r="S62" t="n">
         <v>1</v>
@@ -5039,7 +5039,7 @@
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>251245</v>
+        <v>251283</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
@@ -5054,22 +5054,22 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>2025-05-13 07:50:16</t>
+          <t>2025-05-13 07:57:35</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>2025-05-13 08:05:16</t>
+          <t>2025-05-13 08:12:35</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>2025-05-13 08:05:16</t>
+          <t>2025-05-13 08:12:35</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>2025-05-13 08:17:03</t>
+          <t>2025-05-13 08:24:22</t>
         </is>
       </c>
       <c r="I63" t="n">
@@ -5099,11 +5099,11 @@
       </c>
       <c r="Q63" t="inlineStr">
         <is>
-          <t>2025-03-28 00:00:00</t>
+          <t>2025-03-18 00:00:00</t>
         </is>
       </c>
       <c r="R63" s="1" t="n">
-        <v>-46.34518229166667</v>
+        <v>-56.35026041666666</v>
       </c>
       <c r="S63" t="n">
         <v>1</v>
@@ -5111,41 +5111,41 @@
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>251061</v>
+        <v>251245</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C64" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D64" t="n">
-        <v>393.3934426229508</v>
+        <v>12.36065573770492</v>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>2025-05-13 08:02:13</t>
+          <t>2025-05-13 08:22:43</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>2025-05-13 08:27:13</t>
+          <t>2025-05-13 08:52:43</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>2025-05-13 08:27:13</t>
+          <t>2025-05-13 08:52:43</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>2025-05-14 07:00:37</t>
+          <t>2025-05-13 09:05:04</t>
         </is>
       </c>
       <c r="I64" t="n">
-        <v>23997</v>
+        <v>754</v>
       </c>
       <c r="J64" t="inlineStr">
         <is>
@@ -5171,11 +5171,11 @@
       </c>
       <c r="Q64" t="inlineStr">
         <is>
-          <t>2025-05-05 00:00:00</t>
+          <t>2025-03-28 00:00:00</t>
         </is>
       </c>
       <c r="R64" s="1" t="n">
-        <v>-9.292099271400463</v>
+        <v>-46.37852914390047</v>
       </c>
       <c r="S64" t="n">
         <v>1</v>
@@ -5183,7 +5183,7 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>251247</v>
+        <v>251061</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
@@ -5194,30 +5194,30 @@
         <v>15</v>
       </c>
       <c r="D65" t="n">
-        <v>420.84375</v>
+        <v>374.953125</v>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>2025-05-13 08:17:03</t>
+          <t>2025-05-13 08:24:22</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>2025-05-13 08:32:03</t>
+          <t>2025-05-13 08:39:22</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>2025-05-13 08:32:03</t>
+          <t>2025-05-13 08:39:22</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>2025-05-14 07:32:54</t>
+          <t>2025-05-13 14:54:19</t>
         </is>
       </c>
       <c r="I65" t="n">
-        <v>26934</v>
+        <v>23997</v>
       </c>
       <c r="J65" t="inlineStr">
         <is>
@@ -5243,11 +5243,11 @@
       </c>
       <c r="Q65" t="inlineStr">
         <is>
-          <t>2025-05-09 00:00:00</t>
+          <t>2025-05-05 00:00:00</t>
         </is>
       </c>
       <c r="R65" s="1" t="n">
-        <v>-5.314518229166667</v>
+        <v>-8.621061197916667</v>
       </c>
       <c r="S65" t="n">
         <v>1</v>
@@ -5255,41 +5255,41 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>251246</v>
+        <v>251247</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>R9</t>
         </is>
       </c>
       <c r="C66" t="n">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="D66" t="n">
-        <v>169.0422535211268</v>
+        <v>390.3478260869565</v>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>2025-05-13 08:18:51</t>
+          <t>2025-05-13 08:49:30</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>2025-05-13 08:39:51</t>
+          <t>2025-05-13 09:14:30</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>2025-05-13 08:39:51</t>
+          <t>2025-05-13 09:14:30</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>2025-05-13 11:28:54</t>
+          <t>2025-05-14 07:44:51</t>
         </is>
       </c>
       <c r="I66" t="n">
-        <v>12002</v>
+        <v>26934</v>
       </c>
       <c r="J66" t="inlineStr">
         <is>
@@ -5319,7 +5319,7 @@
         </is>
       </c>
       <c r="R66" s="1" t="n">
-        <v>-4.478403755868055</v>
+        <v>-5.322816022546296</v>
       </c>
       <c r="S66" t="n">
         <v>1</v>
@@ -5327,41 +5327,41 @@
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>251466</v>
+        <v>251246</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>R3</t>
         </is>
       </c>
       <c r="C67" t="n">
         <v>35</v>
       </c>
       <c r="D67" t="n">
-        <v>91.26229508196721</v>
+        <v>244.9387755102041</v>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>2025-05-13 08:30:44</t>
+          <t>2025-05-13 08:52:19</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>2025-05-13 09:05:44</t>
+          <t>2025-05-13 09:27:19</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>2025-05-13 09:05:44</t>
+          <t>2025-05-13 09:27:19</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>2025-05-13 10:37:00</t>
+          <t>2025-05-13 13:32:15</t>
         </is>
       </c>
       <c r="I67" t="n">
-        <v>5567</v>
+        <v>12002</v>
       </c>
       <c r="J67" t="inlineStr">
         <is>
@@ -5370,11 +5370,11 @@
       </c>
       <c r="K67" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
         </is>
       </c>
       <c r="L67" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="M67" t="n">
         <v>70</v>
@@ -5391,7 +5391,7 @@
         </is>
       </c>
       <c r="R67" s="1" t="n">
-        <v>-4.442361111111111</v>
+        <v>-4.564073129247685</v>
       </c>
       <c r="S67" t="n">
         <v>1</v>
@@ -5399,41 +5399,41 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>251463</v>
+        <v>251466</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C68" t="n">
-        <v>30.5</v>
+        <v>35</v>
       </c>
       <c r="D68" t="n">
-        <v>126.6727272727273</v>
+        <v>91.26229508196721</v>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>2025-05-13 08:51:15</t>
+          <t>2025-05-13 09:05:04</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>2025-05-13 09:21:45</t>
+          <t>2025-05-13 09:40:04</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>2025-05-13 09:21:45</t>
+          <t>2025-05-13 09:40:04</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>2025-05-13 11:28:25</t>
+          <t>2025-05-13 11:11:20</t>
         </is>
       </c>
       <c r="I68" t="n">
-        <v>6967</v>
+        <v>5567</v>
       </c>
       <c r="J68" t="inlineStr">
         <is>
@@ -5446,7 +5446,7 @@
         </is>
       </c>
       <c r="L68" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M68" t="n">
         <v>70</v>
@@ -5463,7 +5463,7 @@
         </is>
       </c>
       <c r="R68" s="1" t="n">
-        <v>-4.478074494953703</v>
+        <v>-4.466211293263889</v>
       </c>
       <c r="S68" t="n">
         <v>1</v>
@@ -5471,41 +5471,41 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>251464</v>
+        <v>251987</v>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>R3</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C69" t="n">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="D69" t="n">
-        <v>145.9795918367347</v>
+        <v>2965.154929577465</v>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>2025-05-13 08:52:57</t>
+          <t>2025-05-13 09:06:33</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>2025-05-13 09:37:57</t>
+          <t>2025-05-13 09:42:33</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>2025-05-13 09:37:57</t>
+          <t>2025-05-13 09:42:33</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>2025-05-13 12:03:56</t>
+          <t>2025-05-21 11:07:43</t>
         </is>
       </c>
       <c r="I69" t="n">
-        <v>7153</v>
+        <v>210526</v>
       </c>
       <c r="J69" t="inlineStr">
         <is>
@@ -5514,14 +5514,14 @@
       </c>
       <c r="K69" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R9</t>
         </is>
       </c>
       <c r="L69" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M69" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="O69" t="n">
         <v>0</v>
@@ -5531,11 +5531,11 @@
       </c>
       <c r="Q69" t="inlineStr">
         <is>
-          <t>2025-05-09 00:00:00</t>
+          <t>2025-09-01 00:00:00</t>
         </is>
       </c>
       <c r="R69" s="1" t="n">
-        <v>-4.502735260775463</v>
+        <v>0</v>
       </c>
       <c r="S69" t="n">
         <v>1</v>
@@ -5543,41 +5543,41 @@
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>251465</v>
+        <v>251463</v>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C70" t="n">
-        <v>25</v>
+        <v>40.5</v>
       </c>
       <c r="D70" t="n">
-        <v>102.0655737704918</v>
+        <v>126.6727272727273</v>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>2025-05-13 10:37:00</t>
+          <t>2025-05-13 09:31:16</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>2025-05-13 11:02:00</t>
+          <t>2025-05-13 10:11:46</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>2025-05-13 11:02:00</t>
+          <t>2025-05-13 10:11:46</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>2025-05-13 12:44:03</t>
+          <t>2025-05-13 12:18:26</t>
         </is>
       </c>
       <c r="I70" t="n">
-        <v>6226</v>
+        <v>6967</v>
       </c>
       <c r="J70" t="inlineStr">
         <is>
@@ -5590,7 +5590,7 @@
         </is>
       </c>
       <c r="L70" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M70" t="n">
         <v>70</v>
@@ -5607,7 +5607,7 @@
         </is>
       </c>
       <c r="R70" s="1" t="n">
-        <v>-4.530601092893519</v>
+        <v>-4.5128093434375</v>
       </c>
       <c r="S70" t="n">
         <v>1</v>
@@ -5615,41 +5615,41 @@
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>251462</v>
+        <v>251464</v>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>R9</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C71" t="n">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="D71" t="n">
-        <v>90.23188405797102</v>
+        <v>100.7464788732394</v>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>2025-05-13 10:57:48</t>
+          <t>2025-05-13 10:50:07</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>2025-05-13 11:32:48</t>
+          <t>2025-05-13 11:05:07</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>2025-05-13 11:32:48</t>
+          <t>2025-05-13 11:05:07</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>2025-05-13 13:03:02</t>
+          <t>2025-05-13 12:45:52</t>
         </is>
       </c>
       <c r="I71" t="n">
-        <v>6226</v>
+        <v>7153</v>
       </c>
       <c r="J71" t="inlineStr">
         <is>
@@ -5662,7 +5662,7 @@
         </is>
       </c>
       <c r="L71" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M71" t="n">
         <v>70</v>
@@ -5679,7 +5679,7 @@
         </is>
       </c>
       <c r="R71" s="1" t="n">
-        <v>-4.543780193240741</v>
+        <v>-4.531856416273149</v>
       </c>
       <c r="S71" t="n">
         <v>1</v>
@@ -5687,37 +5687,37 @@
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>251467</v>
+        <v>251465</v>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C72" t="n">
-        <v>34.5</v>
+        <v>25</v>
       </c>
       <c r="D72" t="n">
-        <v>113.2</v>
+        <v>102.0655737704918</v>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>2025-05-13 11:28:25</t>
+          <t>2025-05-13 11:11:20</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>2025-05-13 12:02:55</t>
+          <t>2025-05-13 11:36:20</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>2025-05-13 12:02:55</t>
+          <t>2025-05-13 11:36:20</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>2025-05-13 13:56:07</t>
+          <t>2025-05-13 13:18:24</t>
         </is>
       </c>
       <c r="I72" t="n">
@@ -5751,7 +5751,7 @@
         </is>
       </c>
       <c r="R72" s="1" t="n">
-        <v>-4.580643939398148</v>
+        <v>-4.554451275046296</v>
       </c>
       <c r="S72" t="n">
         <v>1</v>
@@ -5759,41 +5759,41 @@
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>251374</v>
+        <v>251462</v>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="C73" t="n">
-        <v>17</v>
+        <v>105</v>
       </c>
       <c r="D73" t="n">
-        <v>385.112676056338</v>
+        <v>87.69014084507042</v>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>2025-05-13 11:28:54</t>
+          <t>2025-05-13 11:58:50</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>2025-05-13 11:45:54</t>
+          <t>2025-05-13 13:43:50</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>2025-05-13 11:45:54</t>
+          <t>2025-05-13 13:43:50</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>2025-05-14 10:11:00</t>
+          <t>2025-05-14 07:11:32</t>
         </is>
       </c>
       <c r="I73" t="n">
-        <v>27343</v>
+        <v>6226</v>
       </c>
       <c r="J73" t="inlineStr">
         <is>
@@ -5802,11 +5802,11 @@
       </c>
       <c r="K73" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L73" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="M73" t="n">
         <v>70</v>
@@ -5819,11 +5819,11 @@
       </c>
       <c r="Q73" t="inlineStr">
         <is>
-          <t>2025-05-15 00:00:00</t>
+          <t>2025-05-09 00:00:00</t>
         </is>
       </c>
       <c r="R73" s="1" t="n">
-        <v>0</v>
+        <v>-5.299677230046296</v>
       </c>
       <c r="S73" t="n">
         <v>1</v>
@@ -5831,41 +5831,41 @@
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>251580</v>
+        <v>251467</v>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>R3</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C74" t="n">
-        <v>35</v>
+        <v>34.5</v>
       </c>
       <c r="D74" t="n">
-        <v>145.9795918367347</v>
+        <v>113.2</v>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>2025-05-13 12:03:56</t>
+          <t>2025-05-13 12:18:26</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>2025-05-13 12:38:56</t>
+          <t>2025-05-13 12:52:56</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>2025-05-13 12:38:56</t>
+          <t>2025-05-13 12:52:56</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>2025-05-14 07:04:55</t>
+          <t>2025-05-13 14:46:08</t>
         </is>
       </c>
       <c r="I74" t="n">
-        <v>7153</v>
+        <v>6226</v>
       </c>
       <c r="J74" t="inlineStr">
         <is>
@@ -5878,7 +5878,7 @@
         </is>
       </c>
       <c r="L74" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M74" t="n">
         <v>70</v>
@@ -5891,11 +5891,11 @@
       </c>
       <c r="Q74" t="inlineStr">
         <is>
-          <t>2025-05-15 00:00:00</t>
+          <t>2025-05-09 00:00:00</t>
         </is>
       </c>
       <c r="R74" s="1" t="n">
-        <v>0</v>
+        <v>-4.615378787881944</v>
       </c>
       <c r="S74" t="n">
         <v>1</v>
@@ -5903,41 +5903,41 @@
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>251557</v>
+        <v>251374</v>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C75" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D75" t="n">
-        <v>109.9180327868852</v>
+        <v>385.112676056338</v>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>2025-05-13 12:44:03</t>
+          <t>2025-05-13 12:45:52</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>2025-05-13 13:04:03</t>
+          <t>2025-05-13 13:06:52</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>2025-05-13 13:04:03</t>
+          <t>2025-05-13 13:06:52</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>2025-05-13 14:53:59</t>
+          <t>2025-05-14 11:31:59</t>
         </is>
       </c>
       <c r="I75" t="n">
-        <v>6705</v>
+        <v>27343</v>
       </c>
       <c r="J75" t="inlineStr">
         <is>
@@ -5946,11 +5946,11 @@
       </c>
       <c r="K75" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
         </is>
       </c>
       <c r="L75" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="M75" t="n">
         <v>70</v>
@@ -5975,41 +5975,41 @@
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>251520</v>
+        <v>251580</v>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C76" t="n">
-        <v>80</v>
+        <v>30</v>
       </c>
       <c r="D76" t="n">
-        <v>230.1408450704225</v>
+        <v>117.2622950819672</v>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>2025-05-13 13:02:05</t>
+          <t>2025-05-13 13:18:24</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>2025-05-13 14:22:05</t>
+          <t>2025-05-13 13:48:24</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>2025-05-13 14:22:05</t>
+          <t>2025-05-13 13:48:24</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>2025-05-14 10:12:13</t>
+          <t>2025-05-14 07:45:40</t>
         </is>
       </c>
       <c r="I76" t="n">
-        <v>16340</v>
+        <v>7153</v>
       </c>
       <c r="J76" t="inlineStr">
         <is>
@@ -6018,11 +6018,11 @@
       </c>
       <c r="K76" t="inlineStr">
         <is>
-          <t>CASON ;R6</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L76" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="M76" t="n">
         <v>70</v>
@@ -6035,11 +6035,11 @@
       </c>
       <c r="Q76" t="inlineStr">
         <is>
-          <t>2025-05-12 00:00:00</t>
+          <t>2025-05-15 00:00:00</t>
         </is>
       </c>
       <c r="R76" s="1" t="n">
-        <v>-2.425156494525463</v>
+        <v>0</v>
       </c>
       <c r="S76" t="n">
         <v>1</v>
@@ -6047,41 +6047,41 @@
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>251562</v>
+        <v>251557</v>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>R9</t>
+          <t>R3</t>
         </is>
       </c>
       <c r="C77" t="n">
-        <v>25</v>
+        <v>55</v>
       </c>
       <c r="D77" t="n">
-        <v>118</v>
+        <v>136.8367346938776</v>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>2025-05-13 13:03:02</t>
+          <t>2025-05-13 13:32:15</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>2025-05-13 13:28:02</t>
+          <t>2025-05-13 14:27:15</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>2025-05-13 13:28:02</t>
+          <t>2025-05-13 14:27:15</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>2025-05-14 07:26:02</t>
+          <t>2025-05-14 08:44:06</t>
         </is>
       </c>
       <c r="I77" t="n">
-        <v>8142</v>
+        <v>6705</v>
       </c>
       <c r="J77" t="inlineStr">
         <is>
@@ -6119,7 +6119,7 @@
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>251260</v>
+        <v>251520</v>
       </c>
       <c r="B78" t="inlineStr">
         <is>
@@ -6127,33 +6127,33 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>38.5</v>
+        <v>40.5</v>
       </c>
       <c r="D78" t="n">
-        <v>170.3454545454545</v>
+        <v>297.0909090909091</v>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>2025-05-13 13:56:07</t>
+          <t>2025-05-13 14:46:08</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>2025-05-13 14:34:37</t>
+          <t>2025-05-14 07:26:38</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>2025-05-13 14:34:37</t>
+          <t>2025-05-14 07:26:38</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>2025-05-14 09:24:58</t>
+          <t>2025-05-14 12:23:44</t>
         </is>
       </c>
       <c r="I78" t="n">
-        <v>9369</v>
+        <v>16340</v>
       </c>
       <c r="J78" t="inlineStr">
         <is>
@@ -6162,11 +6162,11 @@
       </c>
       <c r="K78" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R9</t>
+          <t>CASON ;R6</t>
         </is>
       </c>
       <c r="L78" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="M78" t="n">
         <v>70</v>
@@ -6179,11 +6179,11 @@
       </c>
       <c r="Q78" t="inlineStr">
         <is>
-          <t>2025-05-22 00:00:00</t>
+          <t>2025-05-12 00:00:00</t>
         </is>
       </c>
       <c r="R78" s="1" t="n">
-        <v>0</v>
+        <v>-2.516483585856482</v>
       </c>
       <c r="S78" t="n">
         <v>1</v>
@@ -6191,41 +6191,41 @@
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>251062</v>
+        <v>251562</v>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C79" t="n">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="D79" t="n">
-        <v>370.8852459016393</v>
+        <v>127.21875</v>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>2025-05-13 14:53:59</t>
+          <t>2025-05-13 14:54:19</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>2025-05-14 07:33:59</t>
+          <t>2025-05-14 07:17:19</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>2025-05-14 07:33:59</t>
+          <t>2025-05-14 07:17:19</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>2025-05-14 13:44:52</t>
+          <t>2025-05-14 09:24:32</t>
         </is>
       </c>
       <c r="I79" t="n">
-        <v>22624</v>
+        <v>8142</v>
       </c>
       <c r="J79" t="inlineStr">
         <is>
@@ -6234,11 +6234,11 @@
       </c>
       <c r="K79" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L79" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="M79" t="n">
         <v>70</v>
@@ -6251,7 +6251,7 @@
       </c>
       <c r="Q79" t="inlineStr">
         <is>
-          <t>2025-05-23 00:00:00</t>
+          <t>2025-05-15 00:00:00</t>
         </is>
       </c>
       <c r="R79" s="1" t="n">
@@ -6263,41 +6263,41 @@
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>251252</v>
+        <v>251260</v>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>R9</t>
         </is>
       </c>
       <c r="C80" t="n">
         <v>25</v>
       </c>
       <c r="D80" t="n">
-        <v>247.2622950819672</v>
+        <v>135.7826086956522</v>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>2025-05-14 07:00:37</t>
+          <t>2025-05-14 07:44:51</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>2025-05-14 07:25:37</t>
+          <t>2025-05-14 08:09:51</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>2025-05-14 07:25:37</t>
+          <t>2025-05-14 08:09:51</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>2025-05-14 11:32:53</t>
+          <t>2025-05-14 10:25:38</t>
         </is>
       </c>
       <c r="I80" t="n">
-        <v>15083</v>
+        <v>9369</v>
       </c>
       <c r="J80" t="inlineStr">
         <is>
@@ -6306,7 +6306,7 @@
       </c>
       <c r="K80" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R9</t>
         </is>
       </c>
       <c r="L80" t="n">
@@ -6323,7 +6323,7 @@
       </c>
       <c r="Q80" t="inlineStr">
         <is>
-          <t>2025-05-23 00:00:00</t>
+          <t>2025-05-22 00:00:00</t>
         </is>
       </c>
       <c r="R80" s="1" t="n">
@@ -6335,41 +6335,41 @@
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>251251</v>
+        <v>251062</v>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>R3</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C81" t="n">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="D81" t="n">
-        <v>323.6734693877551</v>
+        <v>370.8852459016393</v>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>2025-05-14 07:04:55</t>
+          <t>2025-05-14 07:45:40</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>2025-05-14 07:49:55</t>
+          <t>2025-05-14 08:15:40</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>2025-05-14 07:49:55</t>
+          <t>2025-05-14 08:15:40</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>2025-05-14 13:13:35</t>
+          <t>2025-05-14 14:26:33</t>
         </is>
       </c>
       <c r="I81" t="n">
-        <v>15860</v>
+        <v>22624</v>
       </c>
       <c r="J81" t="inlineStr">
         <is>
@@ -6407,41 +6407,41 @@
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>251750</v>
+        <v>251252</v>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>R9</t>
+          <t>R3</t>
         </is>
       </c>
       <c r="C82" t="n">
-        <v>35</v>
+        <v>55</v>
       </c>
       <c r="D82" t="n">
-        <v>56.39130434782609</v>
+        <v>307.8163265306122</v>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>2025-05-14 07:26:02</t>
+          <t>2025-05-14 08:44:06</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>2025-05-14 08:01:02</t>
+          <t>2025-05-14 09:39:06</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>2025-05-14 08:01:02</t>
+          <t>2025-05-14 09:39:06</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>2025-05-14 08:57:26</t>
+          <t>2025-05-14 14:46:55</t>
         </is>
       </c>
       <c r="I82" t="n">
-        <v>3891</v>
+        <v>15083</v>
       </c>
       <c r="J82" t="inlineStr">
         <is>
@@ -6450,14 +6450,14 @@
       </c>
       <c r="K82" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
         </is>
       </c>
       <c r="L82" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="M82" t="n">
-        <v>152</v>
+        <v>70</v>
       </c>
       <c r="O82" t="n">
         <v>0</v>
@@ -6467,7 +6467,7 @@
       </c>
       <c r="Q82" t="inlineStr">
         <is>
-          <t>2025-05-26 00:00:00</t>
+          <t>2025-05-23 00:00:00</t>
         </is>
       </c>
       <c r="R82" s="1" t="n">
@@ -6479,41 +6479,41 @@
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>251249</v>
+        <v>251251</v>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>BIMEC 4</t>
         </is>
       </c>
       <c r="C83" t="n">
-        <v>15</v>
+        <v>44</v>
       </c>
       <c r="D83" t="n">
-        <v>74.34375</v>
+        <v>260</v>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>2025-05-14 07:32:54</t>
+          <t>2025-05-14 09:20:56</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>2025-05-14 07:47:54</t>
+          <t>2025-05-14 10:04:56</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>2025-05-14 07:47:54</t>
+          <t>2025-05-14 10:04:56</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>2025-05-14 09:02:15</t>
+          <t>2025-05-14 14:24:56</t>
         </is>
       </c>
       <c r="I83" t="n">
-        <v>4758</v>
+        <v>15860</v>
       </c>
       <c r="J83" t="inlineStr">
         <is>
@@ -6539,7 +6539,7 @@
       </c>
       <c r="Q83" t="inlineStr">
         <is>
-          <t>2025-06-06 00:00:00</t>
+          <t>2025-05-23 00:00:00</t>
         </is>
       </c>
       <c r="R83" s="1" t="n">
@@ -6551,41 +6551,41 @@
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>251987</v>
+        <v>251249</v>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C84" t="n">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="D84" t="n">
-        <v>2965.154929577465</v>
+        <v>74.34375</v>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>2025-05-14 07:54:36</t>
+          <t>2025-05-14 09:24:32</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>2025-05-14 08:28:36</t>
+          <t>2025-05-14 09:47:32</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>2025-05-14 08:28:36</t>
+          <t>2025-05-14 09:47:32</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>2025-05-22 09:53:45</t>
+          <t>2025-05-14 11:01:53</t>
         </is>
       </c>
       <c r="I84" t="n">
-        <v>210526</v>
+        <v>4758</v>
       </c>
       <c r="J84" t="inlineStr">
         <is>
@@ -6594,14 +6594,14 @@
       </c>
       <c r="K84" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
         </is>
       </c>
       <c r="L84" t="n">
         <v>6</v>
       </c>
       <c r="M84" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="O84" t="n">
         <v>0</v>
@@ -6611,7 +6611,7 @@
       </c>
       <c r="Q84" t="inlineStr">
         <is>
-          <t>2025-09-01 00:00:00</t>
+          <t>2025-06-06 00:00:00</t>
         </is>
       </c>
       <c r="R84" s="1" t="n">
@@ -6631,29 +6631,29 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="D85" t="n">
         <v>271.5797101449276</v>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>2025-05-14 08:57:26</t>
+          <t>2025-05-14 10:25:38</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>2025-05-14 09:42:26</t>
+          <t>2025-05-14 10:50:38</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>2025-05-14 09:42:26</t>
+          <t>2025-05-14 10:50:38</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>2025-05-14 14:14:00</t>
+          <t>2025-05-15 07:22:13</t>
         </is>
       </c>
       <c r="I85" t="n">
@@ -6710,22 +6710,22 @@
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>2025-05-14 09:02:15</t>
+          <t>2025-05-14 11:01:53</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>2025-05-14 09:34:15</t>
+          <t>2025-05-14 11:33:53</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>2025-05-14 09:34:15</t>
+          <t>2025-05-14 11:33:53</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>2025-06-06 08:07:58</t>
+          <t>2025-06-06 10:07:36</t>
         </is>
       </c>
       <c r="I86" t="n">
@@ -6782,22 +6782,22 @@
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>2025-05-14 10:11:00</t>
+          <t>2025-05-14 11:31:59</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>2025-05-14 10:47:00</t>
+          <t>2025-05-14 12:07:59</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>2025-05-14 10:47:00</t>
+          <t>2025-05-14 12:07:59</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>2025-05-20 07:34:41</t>
+          <t>2025-05-20 08:55:39</t>
         </is>
       </c>
       <c r="I87" t="n">

--- a/PS-VRP/Dati_output/euristico_post.xlsx
+++ b/PS-VRP/Dati_output/euristico_post.xlsx
@@ -416,7 +416,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S87"/>
+  <dimension ref="A1:S75"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -515,41 +515,41 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>251225</v>
+        <v>251565</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>205.7213114754098</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2025-05-08 07:00:00</t>
+          <t>2025-06-04 07:00:00</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2025-05-08 07:19:00</t>
+          <t>2025-06-04 07:20:00</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2025-05-08 07:19:00</t>
+          <t>2025-06-04 07:20:00</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2025-05-08 07:19:00</t>
+          <t>2025-06-04 10:45:43</t>
         </is>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>12549</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
@@ -558,17 +558,17 @@
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L2" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M2" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="N2" t="n">
-        <v>39747</v>
+        <v>39885</v>
       </c>
       <c r="O2" t="inlineStr">
         <is>
@@ -576,15 +576,15 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>39747</v>
+        <v>39885</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>2025-04-30 00:00:00</t>
+          <t>2025-06-10 00:00:00</t>
         </is>
       </c>
       <c r="R2" s="1" t="n">
-        <v>-0.3048611111111111</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>1</v>
@@ -592,41 +592,41 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>251455</v>
+        <v>252282</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D3" t="n">
-        <v>74.6056338028169</v>
+        <v>44.88524590163934</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2025-05-08 07:19:00</t>
+          <t>2025-06-04 10:45:43</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2025-05-08 07:49:00</t>
+          <t>2025-06-04 11:20:43</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>2025-05-08 07:49:00</t>
+          <t>2025-06-04 11:20:43</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2025-05-08 09:03:36</t>
+          <t>2025-06-04 12:05:36</t>
         </is>
       </c>
       <c r="I3" t="n">
-        <v>5297</v>
+        <v>2738</v>
       </c>
       <c r="J3" t="inlineStr">
         <is>
@@ -639,13 +639,13 @@
         </is>
       </c>
       <c r="L3" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M3" t="n">
         <v>70</v>
       </c>
       <c r="N3" t="n">
-        <v>39749</v>
+        <v>39885</v>
       </c>
       <c r="O3" t="inlineStr">
         <is>
@@ -653,57 +653,57 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>39749</v>
+        <v>39885</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>2025-04-15 00:00:00</t>
+          <t>2025-06-09 00:00:00</t>
         </is>
       </c>
       <c r="R3" s="1" t="n">
-        <v>-1.377503912361111</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>251547</v>
+        <v>251180</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="D4" t="n">
-        <v>184.9154929577465</v>
+        <v>0</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2025-05-08 09:03:36</t>
+          <t>2025-06-04 12:05:36</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2025-05-08 09:18:36</t>
+          <t>2025-06-04 12:30:36</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>2025-05-08 09:18:36</t>
+          <t>2025-06-04 12:30:36</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>2025-05-08 12:23:31</t>
+          <t>2025-06-04 12:30:36</t>
         </is>
       </c>
       <c r="I4" t="n">
-        <v>13129</v>
+        <v>0</v>
       </c>
       <c r="J4" t="inlineStr">
         <is>
@@ -721,8 +721,10 @@
       <c r="M4" t="n">
         <v>70</v>
       </c>
-      <c r="N4" t="n">
-        <v>39749</v>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>39887 (esterno)</t>
+        </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
@@ -730,15 +732,15 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>39749</v>
+        <v>39887</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>2025-05-06 00:00:00</t>
+          <t>2025-05-20 00:00:00</t>
         </is>
       </c>
       <c r="R4" s="1" t="n">
-        <v>-1.516334115810185</v>
+        <v>-15.52125455373843</v>
       </c>
       <c r="S4" t="n">
         <v>7</v>
@@ -746,41 +748,41 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>250759</v>
+        <v>251984</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D5" t="n">
-        <v>118.2816901408451</v>
+        <v>338.327868852459</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2025-05-08 12:23:31</t>
+          <t>2025-06-04 12:30:36</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2025-05-08 12:53:31</t>
+          <t>2025-06-04 12:55:36</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>2025-05-08 12:53:31</t>
+          <t>2025-06-04 12:55:36</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>2025-05-08 14:51:48</t>
+          <t>2025-06-05 10:33:56</t>
         </is>
       </c>
       <c r="I5" t="n">
-        <v>8398</v>
+        <v>20638</v>
       </c>
       <c r="J5" t="inlineStr">
         <is>
@@ -789,17 +791,17 @@
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L5" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M5" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="N5" t="n">
-        <v>39747</v>
+        <v>39874</v>
       </c>
       <c r="O5" t="inlineStr">
         <is>
@@ -807,15 +809,15 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>39747</v>
+        <v>39874</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>2025-03-13 00:00:00</t>
+          <t>2025-06-10 00:00:00</t>
         </is>
       </c>
       <c r="R5" s="1" t="n">
-        <v>-0.6193075117361111</v>
+        <v>-0.4402322404398148</v>
       </c>
       <c r="S5" t="n">
         <v>1</v>
@@ -823,41 +825,41 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>250894</v>
+        <v>252084</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="D6" t="n">
-        <v>623.4084507042254</v>
+        <v>641</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2025-05-08 14:51:48</t>
+          <t>2025-06-05 10:33:56</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2025-05-09 07:08:48</t>
+          <t>2025-06-05 10:58:56</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>2025-05-09 07:08:48</t>
+          <t>2025-06-05 10:58:56</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>2025-05-12 09:32:12</t>
+          <t>2025-06-06 13:39:56</t>
         </is>
       </c>
       <c r="I6" t="n">
-        <v>44262</v>
+        <v>39101</v>
       </c>
       <c r="J6" t="inlineStr">
         <is>
@@ -866,69 +868,71 @@
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L6" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="M6" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="N6" t="n">
-        <v>39755</v>
-      </c>
-      <c r="O6" t="n">
-        <v>0</v>
+        <v>39885</v>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>39885</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>2025-05-05 00:00:00</t>
+          <t>2025-06-30 00:00:00</t>
         </is>
       </c>
       <c r="R6" s="1" t="n">
-        <v>0</v>
+        <v>-1.569398907106482</v>
       </c>
       <c r="S6" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>251227</v>
+        <v>251082</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>T2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>2025-05-07 07:00:00</t>
+          <t>2025-06-05 07:00:00</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2025-05-07 07:34:00</t>
+          <t>2025-06-05 07:00:00</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>2025-05-07 07:34:00</t>
+          <t>2025-06-05 07:00:00</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>2025-05-07 07:34:00</t>
+          <t>2025-06-05 07:00:00</t>
         </is>
       </c>
       <c r="I7" t="n">
@@ -936,22 +940,22 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>bobina</t>
+          <t>foglio</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>T1 ;T2 ;T8</t>
         </is>
       </c>
       <c r="L7" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="M7" t="n">
-        <v>76</v>
+        <v>0</v>
       </c>
       <c r="N7" t="n">
-        <v>39746</v>
+        <v>39885</v>
       </c>
       <c r="O7" t="inlineStr">
         <is>
@@ -959,23 +963,23 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>39746</v>
+        <v>39885</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>2025-05-05 00:00:00</t>
+          <t>2025-05-12 00:00:00</t>
         </is>
       </c>
       <c r="R7" s="1" t="n">
-        <v>-1.315277777777778</v>
+        <v>-0.2916666666666667</v>
       </c>
       <c r="S7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>251164</v>
+        <v>251219</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
@@ -983,33 +987,33 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D8" t="n">
-        <v>156.25</v>
+        <v>107.5</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>2025-05-07 07:34:00</t>
+          <t>2025-06-05 12:00:00</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2025-05-07 08:08:00</t>
+          <t>2025-06-05 12:36:00</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>2025-05-07 08:08:00</t>
+          <t>2025-06-05 12:36:00</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>2025-05-07 10:44:15</t>
+          <t>2025-06-05 14:23:30</t>
         </is>
       </c>
       <c r="I8" t="n">
-        <v>10000</v>
+        <v>6880</v>
       </c>
       <c r="J8" t="inlineStr">
         <is>
@@ -1018,17 +1022,17 @@
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L8" t="n">
         <v>6</v>
       </c>
       <c r="M8" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="N8" t="n">
-        <v>39749</v>
+        <v>39885</v>
       </c>
       <c r="O8" t="inlineStr">
         <is>
@@ -1036,57 +1040,57 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>39749</v>
+        <v>39885</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>2025-04-22 00:00:00</t>
+          <t>2025-05-09 00:00:00</t>
         </is>
       </c>
       <c r="R8" s="1" t="n">
-        <v>-0.4473958333333333</v>
+        <v>-0.5996527777777778</v>
       </c>
       <c r="S8" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>251391</v>
+        <v>251655</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>17</v>
+        <v>40</v>
       </c>
       <c r="D9" t="n">
-        <v>91.640625</v>
+        <v>1617.211267605634</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>2025-05-07 10:44:15</t>
+          <t>2025-06-05 07:00:00</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>2025-05-07 11:01:15</t>
+          <t>2025-06-05 07:40:00</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>2025-05-07 11:01:15</t>
+          <t>2025-06-05 07:40:00</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>2025-05-07 12:32:53</t>
+          <t>2025-06-10 10:37:12</t>
         </is>
       </c>
       <c r="I9" t="n">
-        <v>5865</v>
+        <v>114822</v>
       </c>
       <c r="J9" t="inlineStr">
         <is>
@@ -1095,7 +1099,7 @@
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R6 ;R9</t>
         </is>
       </c>
       <c r="L9" t="n">
@@ -1105,7 +1109,7 @@
         <v>70</v>
       </c>
       <c r="N9" t="n">
-        <v>39749</v>
+        <v>39885</v>
       </c>
       <c r="O9" t="inlineStr">
         <is>
@@ -1113,57 +1117,57 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>39749</v>
+        <v>39885</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>2025-04-23 00:00:00</t>
+          <t>2025-04-15 00:00:00</t>
         </is>
       </c>
       <c r="R9" s="1" t="n">
-        <v>-0.5228407118055556</v>
+        <v>-5.442507824722222</v>
       </c>
       <c r="S9" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>251395</v>
+        <v>251500</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>17</v>
+        <v>32.5</v>
       </c>
       <c r="D10" t="n">
-        <v>35.34375</v>
+        <v>179.9272727272727</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>2025-05-07 12:32:53</t>
+          <t>2025-06-05 07:00:00</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>2025-05-07 12:49:53</t>
+          <t>2025-06-05 07:32:30</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>2025-05-07 12:49:53</t>
+          <t>2025-06-05 07:32:30</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>2025-05-07 13:25:14</t>
+          <t>2025-06-05 10:32:25</t>
         </is>
       </c>
       <c r="I10" t="n">
-        <v>2262</v>
+        <v>9896</v>
       </c>
       <c r="J10" t="inlineStr">
         <is>
@@ -1172,17 +1176,17 @@
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R6 ;R9</t>
         </is>
       </c>
       <c r="L10" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M10" t="n">
         <v>70</v>
       </c>
       <c r="N10" t="n">
-        <v>39749</v>
+        <v>39885</v>
       </c>
       <c r="O10" t="inlineStr">
         <is>
@@ -1190,53 +1194,53 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>39749</v>
+        <v>39885</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>2025-04-23 00:00:00</t>
+          <t>2025-05-26 00:00:00</t>
         </is>
       </c>
       <c r="R10" s="1" t="n">
-        <v>-0.5591905381944444</v>
+        <v>-0.4391856060648148</v>
       </c>
       <c r="S10" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>251371</v>
+        <v>251773</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>19</v>
+        <v>36.5</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>2025-05-07 13:25:14</t>
+          <t>2025-06-05 10:32:25</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>2025-05-07 13:44:14</t>
+          <t>2025-06-05 11:08:55</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>2025-05-07 13:44:14</t>
+          <t>2025-06-05 11:08:55</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>2025-05-07 13:44:14</t>
+          <t>2025-06-05 11:08:55</t>
         </is>
       </c>
       <c r="I11" t="n">
@@ -1249,19 +1253,17 @@
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>CASON ;R6</t>
         </is>
       </c>
       <c r="L11" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="M11" t="n">
         <v>70</v>
       </c>
-      <c r="N11" t="inlineStr">
-        <is>
-          <t>39666 (esterno)</t>
-        </is>
+      <c r="N11" t="n">
+        <v>39874</v>
       </c>
       <c r="O11" t="inlineStr">
         <is>
@@ -1269,57 +1271,57 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>39666</v>
+        <v>39874</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>2025-04-24 00:00:00</t>
+          <t>2025-05-25 00:00:00</t>
         </is>
       </c>
       <c r="R11" s="1" t="n">
-        <v>-13.57238498263889</v>
+        <v>-0.464532828287037</v>
       </c>
       <c r="S11" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>251396</v>
+        <v>251780</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>19</v>
+        <v>38.5</v>
       </c>
       <c r="D12" t="n">
-        <v>35.34375</v>
+        <v>441.8</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>2025-05-07 13:44:14</t>
+          <t>2025-06-05 11:08:55</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>2025-05-07 14:03:14</t>
+          <t>2025-06-05 11:47:25</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>2025-05-07 14:03:14</t>
+          <t>2025-06-05 11:47:25</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>2025-05-07 14:38:34</t>
+          <t>2025-06-06 11:09:13</t>
         </is>
       </c>
       <c r="I12" t="n">
-        <v>2262</v>
+        <v>24299</v>
       </c>
       <c r="J12" t="inlineStr">
         <is>
@@ -1332,13 +1334,15 @@
         </is>
       </c>
       <c r="L12" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="M12" t="n">
         <v>70</v>
       </c>
-      <c r="N12" t="n">
-        <v>39749</v>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>39887 (esterno)</t>
+        </is>
       </c>
       <c r="O12" t="inlineStr">
         <is>
@@ -1346,15 +1350,15 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>39749</v>
+        <v>39887</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>2025-05-02 00:00:00</t>
+          <t>2025-06-18 00:00:00</t>
         </is>
       </c>
       <c r="R12" s="1" t="n">
-        <v>-0.6101236979166667</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>7</v>
@@ -1362,41 +1366,41 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>251548</v>
+        <v>251218</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="D13" t="n">
-        <v>206.90625</v>
+        <v>96.90140845070422</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>2025-05-07 14:38:34</t>
+          <t>2025-06-04 12:00:00</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>2025-05-07 14:57:34</t>
+          <t>2025-06-04 12:23:00</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>2025-05-07 14:57:34</t>
+          <t>2025-06-04 12:23:00</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>2025-05-08 10:24:29</t>
+          <t>2025-06-04 13:59:54</t>
         </is>
       </c>
       <c r="I13" t="n">
-        <v>13242</v>
+        <v>6880</v>
       </c>
       <c r="J13" t="inlineStr">
         <is>
@@ -1405,17 +1409,17 @@
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L13" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M13" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="N13" t="n">
-        <v>39749</v>
+        <v>39885</v>
       </c>
       <c r="O13" t="inlineStr">
         <is>
@@ -1423,57 +1427,57 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>39749</v>
+        <v>39885</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>2025-05-06 00:00:00</t>
+          <t>2025-05-09 00:00:00</t>
         </is>
       </c>
       <c r="R13" s="1" t="n">
-        <v>-1.433669704861111</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>250923</v>
+        <v>251362</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="D14" t="n">
-        <v>109.46875</v>
+        <v>35.28169014084507</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>2025-05-08 10:24:29</t>
+          <t>2025-06-04 13:59:54</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>2025-05-08 10:56:29</t>
+          <t>2025-06-04 14:20:54</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>2025-05-08 10:56:29</t>
+          <t>2025-06-04 14:20:54</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>2025-05-08 12:45:57</t>
+          <t>2025-06-04 14:56:10</t>
         </is>
       </c>
       <c r="I14" t="n">
-        <v>7006</v>
+        <v>2505</v>
       </c>
       <c r="J14" t="inlineStr">
         <is>
@@ -1486,13 +1490,13 @@
         </is>
       </c>
       <c r="L14" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M14" t="n">
         <v>76</v>
       </c>
       <c r="N14" t="n">
-        <v>39749</v>
+        <v>39874</v>
       </c>
       <c r="O14" t="inlineStr">
         <is>
@@ -1500,57 +1504,57 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>39749</v>
+        <v>39874</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>2025-04-07 00:00:00</t>
+          <t>2025-04-24 00:00:00</t>
         </is>
       </c>
       <c r="R14" s="1" t="n">
-        <v>-1.531911892361111</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>251477</v>
+        <v>251070</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="D15" t="n">
-        <v>468.734375</v>
+        <v>0</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>2025-05-08 12:45:57</t>
+          <t>2025-06-04 14:56:10</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>2025-05-08 13:04:57</t>
+          <t>2025-06-05 07:32:10</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>2025-05-08 13:04:57</t>
+          <t>2025-06-05 07:32:10</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>2025-05-09 12:53:41</t>
+          <t>2025-06-05 07:32:10</t>
         </is>
       </c>
       <c r="I15" t="n">
-        <v>29999</v>
+        <v>0</v>
       </c>
       <c r="J15" t="inlineStr">
         <is>
@@ -1559,17 +1563,17 @@
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R6 ;R9</t>
         </is>
       </c>
       <c r="L15" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="M15" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="N15" t="n">
-        <v>39760</v>
+        <v>39885</v>
       </c>
       <c r="O15" t="inlineStr">
         <is>
@@ -1577,77 +1581,77 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>39760</v>
+        <v>39885</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>2025-04-28 00:00:00</t>
+          <t>2025-03-28 00:00:00</t>
         </is>
       </c>
       <c r="R15" s="1" t="n">
-        <v>-2.537282986111111</v>
+        <v>-0.3140160406828704</v>
       </c>
       <c r="S15" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>251706</v>
+        <v>251895</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>T3</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="D16" t="n">
-        <v>50.79365079365079</v>
+        <v>249.2112676056338</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>2025-05-12 07:00:00</t>
+          <t>2025-06-05 07:32:10</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>2025-05-12 07:00:00</t>
+          <t>2025-06-05 07:55:10</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>2025-05-12 07:00:00</t>
+          <t>2025-06-05 07:55:10</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>2025-05-12 07:50:47</t>
+          <t>2025-06-05 12:04:23</t>
         </is>
       </c>
       <c r="I16" t="n">
-        <v>3200</v>
+        <v>17694</v>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>foglio</t>
+          <t>bobina</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>T3</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R6 ;R9</t>
         </is>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="M16" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>39764 (esterno)</t>
+          <t>39891 (esterno)</t>
         </is>
       </c>
       <c r="O16" t="inlineStr">
@@ -1656,53 +1660,53 @@
         </is>
       </c>
       <c r="P16" t="n">
-        <v>39764</v>
+        <v>39891</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>2025-05-14 00:00:00</t>
+          <t>2025-05-26 00:00:00</t>
         </is>
       </c>
       <c r="R16" s="1" t="n">
-        <v>0</v>
+        <v>-10.50305164319444</v>
       </c>
       <c r="S16" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>251050</v>
+        <v>251752</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>217</v>
+        <v>44</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>2025-05-09 07:00:00</t>
+          <t>2025-06-05 12:04:23</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>2025-05-09 10:37:00</t>
+          <t>2025-06-05 12:48:23</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>2025-05-09 10:37:00</t>
+          <t>2025-06-05 12:48:23</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>2025-05-09 10:37:00</t>
+          <t>2025-06-05 12:48:23</t>
         </is>
       </c>
       <c r="I17" t="n">
@@ -1715,17 +1719,17 @@
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L17" t="n">
-        <v>38</v>
+        <v>3</v>
       </c>
       <c r="M17" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="N17" t="n">
-        <v>39747</v>
+        <v>39846</v>
       </c>
       <c r="O17" t="inlineStr">
         <is>
@@ -1733,57 +1737,57 @@
         </is>
       </c>
       <c r="P17" t="n">
-        <v>39747</v>
+        <v>39846</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>2025-04-16 00:00:00</t>
+          <t>2025-05-20 00:00:00</t>
         </is>
       </c>
       <c r="R17" s="1" t="n">
-        <v>-1.442361111111111</v>
+        <v>-1.53360719875</v>
       </c>
       <c r="S17" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>251054</v>
+        <v>251897</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>BIMEC 4</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>305.0327868852459</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>2025-05-09 10:37:00</t>
+          <t>2025-06-05 07:00:00</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>2025-05-09 11:12:00</t>
+          <t>2025-06-05 07:54:00</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>2025-05-09 11:12:00</t>
+          <t>2025-06-05 07:54:00</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>2025-05-09 11:12:00</t>
+          <t>2025-06-05 12:59:01</t>
         </is>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>18607</v>
       </c>
       <c r="J18" t="inlineStr">
         <is>
@@ -1792,17 +1796,19 @@
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R6 ;R9</t>
         </is>
       </c>
       <c r="L18" t="n">
-        <v>38</v>
+        <v>10</v>
       </c>
       <c r="M18" t="n">
         <v>70</v>
       </c>
-      <c r="N18" t="n">
-        <v>39747</v>
+      <c r="N18" t="inlineStr">
+        <is>
+          <t>39891 (esterno)</t>
+        </is>
       </c>
       <c r="O18" t="inlineStr">
         <is>
@@ -1810,57 +1816,57 @@
         </is>
       </c>
       <c r="P18" t="n">
-        <v>39747</v>
+        <v>39891</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>2025-04-16 00:00:00</t>
+          <t>2025-05-26 00:00:00</t>
         </is>
       </c>
       <c r="R18" s="1" t="n">
-        <v>-1.466666666666667</v>
+        <v>-10.54099499089121</v>
       </c>
       <c r="S18" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>251081</v>
+        <v>251573</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>R9</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>125</v>
+        <v>35</v>
       </c>
       <c r="D19" t="n">
-        <v>42.42253521126761</v>
+        <v>89.89855072463769</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>2025-05-09 11:12:00</t>
+          <t>2025-06-06 07:00:00</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>2025-05-09 13:17:00</t>
+          <t>2025-06-06 07:35:00</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>2025-05-09 13:17:00</t>
+          <t>2025-06-06 07:35:00</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>2025-05-09 13:59:25</t>
+          <t>2025-06-06 09:04:53</t>
         </is>
       </c>
       <c r="I19" t="n">
-        <v>3012</v>
+        <v>6203</v>
       </c>
       <c r="J19" t="inlineStr">
         <is>
@@ -1869,19 +1875,17 @@
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>R12 ;R9</t>
         </is>
       </c>
       <c r="L19" t="n">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="M19" t="n">
-        <v>70</v>
-      </c>
-      <c r="N19" t="inlineStr">
-        <is>
-          <t>39750 (esterno)</t>
-        </is>
+        <v>100</v>
+      </c>
+      <c r="N19" t="n">
+        <v>39885</v>
       </c>
       <c r="O19" t="inlineStr">
         <is>
@@ -1889,57 +1893,57 @@
         </is>
       </c>
       <c r="P19" t="n">
-        <v>39750</v>
+        <v>39885</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>2025-04-23 00:00:00</t>
+          <t>2025-05-26 00:00:00</t>
         </is>
       </c>
       <c r="R19" s="1" t="n">
-        <v>-16.58293231612268</v>
+        <v>-1.378401771331018</v>
       </c>
       <c r="S19" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>251742</v>
+        <v>252112</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>R3</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="D20" t="n">
-        <v>134.8524590163935</v>
+        <v>254.1428571428571</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>2025-05-08 07:00:00</t>
+          <t>2025-06-04 07:00:00</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>2025-05-08 07:30:00</t>
+          <t>2025-06-04 07:40:00</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>2025-05-08 07:30:00</t>
+          <t>2025-06-04 07:40:00</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>2025-05-08 09:44:51</t>
+          <t>2025-06-04 11:54:08</t>
         </is>
       </c>
       <c r="I20" t="n">
-        <v>8226</v>
+        <v>12453</v>
       </c>
       <c r="J20" t="inlineStr">
         <is>
@@ -1952,13 +1956,13 @@
         </is>
       </c>
       <c r="L20" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M20" t="n">
         <v>70</v>
       </c>
       <c r="N20" t="n">
-        <v>39749</v>
+        <v>39885</v>
       </c>
       <c r="O20" t="inlineStr">
         <is>
@@ -1966,57 +1970,57 @@
         </is>
       </c>
       <c r="P20" t="n">
-        <v>39749</v>
+        <v>39885</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>2025-05-15 00:00:00</t>
+          <t>2025-06-06 00:00:00</t>
         </is>
       </c>
       <c r="R20" s="1" t="n">
-        <v>-1.406147540983796</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>251840</v>
+        <v>251631</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="D21" t="n">
-        <v>93.67213114754098</v>
+        <v>146.056338028169</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>2025-05-08 09:44:51</t>
+          <t>2025-06-05 07:00:00</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>2025-05-08 10:09:51</t>
+          <t>2025-06-05 07:17:00</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>2025-05-08 10:09:51</t>
+          <t>2025-06-05 07:17:00</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>2025-05-08 11:43:31</t>
+          <t>2025-06-05 09:43:03</t>
         </is>
       </c>
       <c r="I21" t="n">
-        <v>5714</v>
+        <v>10370</v>
       </c>
       <c r="J21" t="inlineStr">
         <is>
@@ -2025,17 +2029,17 @@
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L21" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M21" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="N21" t="n">
-        <v>39758</v>
+        <v>39885</v>
       </c>
       <c r="O21" t="inlineStr">
         <is>
@@ -2043,7 +2047,7 @@
         </is>
       </c>
       <c r="P21" t="n">
-        <v>39758</v>
+        <v>39885</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
@@ -2051,49 +2055,49 @@
         </is>
       </c>
       <c r="R21" s="1" t="n">
-        <v>-0.4885587431712963</v>
+        <v>-0.4049002347453703</v>
       </c>
       <c r="S21" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>251229</v>
+        <v>251237</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="D22" t="n">
-        <v>307.1967213114754</v>
+        <v>565.3521126760563</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>2025-05-08 11:43:31</t>
+          <t>2025-06-05 09:43:03</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>2025-05-08 12:08:31</t>
+          <t>2025-06-05 10:19:03</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>2025-05-08 12:08:31</t>
+          <t>2025-06-05 10:19:03</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>2025-05-09 09:15:43</t>
+          <t>2025-06-06 11:44:24</t>
         </is>
       </c>
       <c r="I22" t="n">
-        <v>18739</v>
+        <v>40140</v>
       </c>
       <c r="J22" t="inlineStr">
         <is>
@@ -2102,19 +2106,17 @@
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R9</t>
+          <t>R12 ;R9</t>
         </is>
       </c>
       <c r="L22" t="n">
         <v>6</v>
       </c>
       <c r="M22" t="n">
-        <v>70</v>
-      </c>
-      <c r="N22" t="inlineStr">
-        <is>
-          <t>39723 (esterno)</t>
-        </is>
+        <v>100</v>
+      </c>
+      <c r="N22" t="n">
+        <v>39885</v>
       </c>
       <c r="O22" t="inlineStr">
         <is>
@@ -2122,15 +2124,15 @@
         </is>
       </c>
       <c r="P22" t="n">
-        <v>39723</v>
+        <v>39885</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>2025-05-15 00:00:00</t>
+          <t>2025-05-05 00:00:00</t>
         </is>
       </c>
       <c r="R22" s="1" t="n">
-        <v>0</v>
+        <v>-1.489172535208333</v>
       </c>
       <c r="S22" t="n">
         <v>1</v>
@@ -2138,41 +2140,41 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>251651</v>
+        <v>251762</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>R3</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="D23" t="n">
-        <v>767.7049180327868</v>
+        <v>106.2857142857143</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>2025-05-09 07:00:00</t>
+          <t>2025-06-04 11:54:08</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>2025-05-09 07:29:00</t>
+          <t>2025-06-04 12:34:08</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>2025-05-09 07:29:00</t>
+          <t>2025-06-04 12:34:08</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>2025-05-12 12:16:42</t>
+          <t>2025-06-04 14:20:25</t>
         </is>
       </c>
       <c r="I23" t="n">
-        <v>46830</v>
+        <v>5208</v>
       </c>
       <c r="J23" t="inlineStr">
         <is>
@@ -2181,17 +2183,14 @@
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L23" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M23" t="n">
-        <v>76</v>
-      </c>
-      <c r="N23" t="n">
-        <v>39755</v>
+        <v>70</v>
       </c>
       <c r="O23" t="n">
         <v>0</v>
@@ -2201,19 +2200,19 @@
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>2025-05-12 00:00:00</t>
+          <t>2025-05-21 00:00:00</t>
         </is>
       </c>
       <c r="R23" s="1" t="n">
-        <v>0</v>
+        <v>-14.59751984127315</v>
       </c>
       <c r="S23" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>251456</v>
+        <v>251911</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
@@ -2224,30 +2223,30 @@
         <v>40</v>
       </c>
       <c r="D24" t="n">
-        <v>183.6530612244898</v>
+        <v>191.3265306122449</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>2025-05-08 07:00:00</t>
+          <t>2025-06-04 14:20:25</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>2025-05-08 07:40:00</t>
+          <t>2025-06-05 07:00:25</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>2025-05-08 07:40:00</t>
+          <t>2025-06-05 07:00:25</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>2025-05-08 10:43:39</t>
+          <t>2025-06-05 10:11:45</t>
         </is>
       </c>
       <c r="I24" t="n">
-        <v>8999</v>
+        <v>9375</v>
       </c>
       <c r="J24" t="inlineStr">
         <is>
@@ -2260,90 +2259,82 @@
         </is>
       </c>
       <c r="L24" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M24" t="n">
         <v>70</v>
       </c>
-      <c r="N24" t="n">
-        <v>39746</v>
-      </c>
-      <c r="O24" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="O24" t="n">
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>39746</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>2025-05-09 00:00:00</t>
+          <t>2025-05-28 00:00:00</t>
         </is>
       </c>
       <c r="R24" s="1" t="n">
-        <v>-2.446981292511574</v>
+        <v>-8.424829931967592</v>
       </c>
       <c r="S24" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>251416</v>
+        <v>252375</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>R3</t>
+          <t>T8</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>229.0204081632653</v>
+        <v>99.2063492063492</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>2025-05-08 10:43:39</t>
+          <t>2025-06-05 07:00:00</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>2025-05-08 11:23:39</t>
+          <t>2025-06-05 07:00:00</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>2025-05-08 11:23:39</t>
+          <t>2025-06-05 07:00:00</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>2025-05-09 07:12:40</t>
+          <t>2025-06-05 08:39:12</t>
         </is>
       </c>
       <c r="I25" t="n">
-        <v>11222</v>
+        <v>6250</v>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>bobina</t>
+          <t>foglio</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>T1 ;T2 ;T8</t>
         </is>
       </c>
       <c r="L25" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M25" t="n">
-        <v>70</v>
-      </c>
-      <c r="N25" t="n">
-        <v>39755</v>
+        <v>0</v>
       </c>
       <c r="O25" t="n">
         <v>0</v>
@@ -2353,7 +2344,7 @@
       </c>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>2025-04-23 00:00:00</t>
+          <t>2025-07-04 00:00:00</t>
         </is>
       </c>
       <c r="R25" s="1" t="n">
@@ -2365,41 +2356,41 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>251782</v>
+        <v>251910</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>R3</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="D26" t="n">
-        <v>170.0422535211268</v>
+        <v>270.2448979591837</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>2025-05-08 12:00:00</t>
+          <t>2025-06-05 10:11:45</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>2025-05-08 12:17:00</t>
+          <t>2025-06-05 10:46:45</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>2025-05-08 12:17:00</t>
+          <t>2025-06-05 10:46:45</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>2025-05-09 07:07:02</t>
+          <t>2025-06-06 07:17:00</t>
         </is>
       </c>
       <c r="I26" t="n">
-        <v>12073</v>
+        <v>13242</v>
       </c>
       <c r="J26" t="inlineStr">
         <is>
@@ -2408,75 +2399,70 @@
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L26" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M26" t="n">
-        <v>76</v>
-      </c>
-      <c r="N26" t="n">
-        <v>39754</v>
-      </c>
-      <c r="O26" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>70</v>
+      </c>
+      <c r="O26" t="n">
+        <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>39754</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
-          <t>2025-05-16 00:00:00</t>
+          <t>2025-05-28 00:00:00</t>
         </is>
       </c>
       <c r="R26" s="1" t="n">
-        <v>-0.2965571204976852</v>
+        <v>-9.303472222222222</v>
       </c>
       <c r="S26" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>251284</v>
+        <v>251741</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>40.5</v>
+        <v>32</v>
       </c>
       <c r="D27" t="n">
-        <v>297.0909090909091</v>
+        <v>76.54929577464789</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>2025-05-09 07:00:00</t>
+          <t>2025-06-05 12:48:23</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>2025-05-09 07:40:30</t>
+          <t>2025-06-05 13:20:23</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>2025-05-09 07:40:30</t>
+          <t>2025-06-05 13:20:23</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>2025-05-09 12:37:35</t>
+          <t>2025-06-05 14:36:56</t>
         </is>
       </c>
       <c r="I27" t="n">
-        <v>16340</v>
+        <v>5435</v>
       </c>
       <c r="J27" t="inlineStr">
         <is>
@@ -2485,75 +2471,70 @@
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>CASON ;R6</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L27" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="M27" t="n">
         <v>70</v>
       </c>
-      <c r="N27" t="n">
-        <v>39747</v>
-      </c>
-      <c r="O27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="O27" t="n">
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>39747</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
-          <t>2025-05-12 00:00:00</t>
+          <t>2025-05-28 00:00:00</t>
         </is>
       </c>
       <c r="R27" s="1" t="n">
-        <v>-1.526104797974537</v>
+        <v>-8.608988654143518</v>
       </c>
       <c r="S27" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>251340</v>
+        <v>251879</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>BIMEC 4</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>17</v>
+        <v>39</v>
       </c>
       <c r="D28" t="n">
-        <v>461.9718309859155</v>
+        <v>98.47540983606558</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>2025-05-09 07:07:02</t>
+          <t>2025-06-05 12:59:01</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>2025-05-09 07:24:02</t>
+          <t>2025-06-05 13:38:01</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>2025-05-09 07:24:02</t>
+          <t>2025-06-05 13:38:01</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>2025-05-12 07:06:00</t>
+          <t>2025-06-06 07:16:30</t>
         </is>
       </c>
       <c r="I28" t="n">
-        <v>32800</v>
+        <v>6007</v>
       </c>
       <c r="J28" t="inlineStr">
         <is>
@@ -2562,14 +2543,14 @@
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L28" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M28" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="O28" t="n">
         <v>0</v>
@@ -2579,53 +2560,53 @@
       </c>
       <c r="Q28" t="inlineStr">
         <is>
-          <t>2025-04-28 00:00:00</t>
+          <t>2025-05-30 00:00:00</t>
         </is>
       </c>
       <c r="R28" s="1" t="n">
-        <v>-14.29584311423611</v>
+        <v>-7.303130692164352</v>
       </c>
       <c r="S28" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>251561</v>
+        <v>251943</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>R3</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="D29" t="n">
-        <v>110.9183673469388</v>
+        <v>92.234375</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>2025-05-09 07:12:40</t>
+          <t>2025-06-05 14:23:30</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>2025-05-09 08:02:40</t>
+          <t>2025-06-05 14:57:30</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>2025-05-09 08:02:40</t>
+          <t>2025-06-05 14:57:30</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>2025-05-09 09:53:35</t>
+          <t>2025-06-06 08:29:44</t>
         </is>
       </c>
       <c r="I29" t="n">
-        <v>5435</v>
+        <v>5903</v>
       </c>
       <c r="J29" t="inlineStr">
         <is>
@@ -2638,7 +2619,7 @@
         </is>
       </c>
       <c r="L29" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M29" t="n">
         <v>70</v>
@@ -2651,53 +2632,53 @@
       </c>
       <c r="Q29" t="inlineStr">
         <is>
-          <t>2025-05-07 00:00:00</t>
+          <t>2025-05-30 00:00:00</t>
         </is>
       </c>
       <c r="R29" s="1" t="n">
-        <v>-2.412216553287037</v>
+        <v>-7.353982204861111</v>
       </c>
       <c r="S29" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>251564</v>
+        <v>251978</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="D30" t="n">
-        <v>44.54098360655738</v>
+        <v>440.1408450704225</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>2025-05-09 09:15:43</t>
+          <t>2025-06-05 14:36:56</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>2025-05-09 09:50:43</t>
+          <t>2025-06-05 14:53:56</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>2025-05-09 09:50:43</t>
+          <t>2025-06-05 14:53:56</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>2025-05-09 10:35:15</t>
+          <t>2025-06-06 14:14:05</t>
         </is>
       </c>
       <c r="I30" t="n">
-        <v>2717</v>
+        <v>31250</v>
       </c>
       <c r="J30" t="inlineStr">
         <is>
@@ -2723,53 +2704,53 @@
       </c>
       <c r="Q30" t="inlineStr">
         <is>
-          <t>2025-05-07 00:00:00</t>
+          <t>2025-06-03 00:00:00</t>
         </is>
       </c>
       <c r="R30" s="1" t="n">
-        <v>-2.441154371585648</v>
+        <v>-3.593114241006945</v>
       </c>
       <c r="S30" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>251566</v>
+        <v>251445</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>R3</t>
+          <t>BIMEC 4</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="D31" t="n">
-        <v>140.5918367346939</v>
+        <v>445.4754098360656</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>2025-05-09 09:53:35</t>
+          <t>2025-06-06 07:16:30</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>2025-05-09 10:33:35</t>
+          <t>2025-06-06 07:41:30</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>2025-05-09 10:33:35</t>
+          <t>2025-06-06 07:41:30</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>2025-05-09 12:54:11</t>
+          <t>2025-06-09 07:06:59</t>
         </is>
       </c>
       <c r="I31" t="n">
-        <v>6889</v>
+        <v>27174</v>
       </c>
       <c r="J31" t="inlineStr">
         <is>
@@ -2782,7 +2763,7 @@
         </is>
       </c>
       <c r="L31" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M31" t="n">
         <v>70</v>
@@ -2795,53 +2776,53 @@
       </c>
       <c r="Q31" t="inlineStr">
         <is>
-          <t>2025-05-07 00:00:00</t>
+          <t>2025-06-04 00:00:00</t>
         </is>
       </c>
       <c r="R31" s="1" t="n">
-        <v>-2.537627551018518</v>
+        <v>-5.2965163934375</v>
       </c>
       <c r="S31" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>251626</v>
+        <v>251992</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>R3</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="D32" t="n">
-        <v>204.9180327868852</v>
+        <v>92.34693877551021</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>2025-05-09 10:35:15</t>
+          <t>2025-06-06 07:17:00</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>2025-05-09 10:55:15</t>
+          <t>2025-06-06 08:02:00</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>2025-05-09 10:55:15</t>
+          <t>2025-06-06 08:02:00</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>2025-05-09 14:20:10</t>
+          <t>2025-06-06 09:34:20</t>
         </is>
       </c>
       <c r="I32" t="n">
-        <v>12500</v>
+        <v>4525</v>
       </c>
       <c r="J32" t="inlineStr">
         <is>
@@ -2854,7 +2835,7 @@
         </is>
       </c>
       <c r="L32" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="M32" t="n">
         <v>70</v>
@@ -2867,11 +2848,11 @@
       </c>
       <c r="Q32" t="inlineStr">
         <is>
-          <t>2025-04-30 00:00:00</t>
+          <t>2025-06-04 00:00:00</t>
         </is>
       </c>
       <c r="R32" s="1" t="n">
-        <v>-9.597347449907408</v>
+        <v>-2.39885204082176</v>
       </c>
       <c r="S32" t="n">
         <v>7</v>
@@ -2879,41 +2860,41 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>251546</v>
+        <v>251390</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>34.5</v>
+        <v>15</v>
       </c>
       <c r="D33" t="n">
-        <v>117.5636363636364</v>
+        <v>33.671875</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>2025-05-09 12:37:35</t>
+          <t>2025-06-06 08:29:44</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>2025-05-09 13:12:05</t>
+          <t>2025-06-06 08:44:44</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>2025-05-09 13:12:05</t>
+          <t>2025-06-06 08:44:44</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>2025-05-12 07:09:39</t>
+          <t>2025-06-06 09:18:24</t>
         </is>
       </c>
       <c r="I33" t="n">
-        <v>6466</v>
+        <v>2155</v>
       </c>
       <c r="J33" t="inlineStr">
         <is>
@@ -2926,7 +2907,7 @@
         </is>
       </c>
       <c r="L33" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M33" t="n">
         <v>70</v>
@@ -2939,11 +2920,11 @@
       </c>
       <c r="Q33" t="inlineStr">
         <is>
-          <t>2025-04-30 00:00:00</t>
+          <t>2025-06-09 00:00:00</t>
         </is>
       </c>
       <c r="R33" s="1" t="n">
-        <v>-12.29837121211806</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>7</v>
@@ -2951,41 +2932,41 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>251505</v>
+        <v>251519</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>R9</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="D34" t="n">
-        <v>222.734375</v>
+        <v>190.9420289855072</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>2025-05-09 12:53:41</t>
+          <t>2025-06-06 09:04:53</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>2025-05-09 13:27:41</t>
+          <t>2025-06-06 09:44:53</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>2025-05-09 13:27:41</t>
+          <t>2025-06-06 09:44:53</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>2025-05-12 09:10:25</t>
+          <t>2025-06-06 12:55:50</t>
         </is>
       </c>
       <c r="I34" t="n">
-        <v>14255</v>
+        <v>13175</v>
       </c>
       <c r="J34" t="inlineStr">
         <is>
@@ -2998,7 +2979,7 @@
         </is>
       </c>
       <c r="L34" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="M34" t="n">
         <v>70</v>
@@ -3011,11 +2992,11 @@
       </c>
       <c r="Q34" t="inlineStr">
         <is>
-          <t>2025-05-05 00:00:00</t>
+          <t>2025-06-10 00:00:00</t>
         </is>
       </c>
       <c r="R34" s="1" t="n">
-        <v>-7.382237413194445</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>7</v>
@@ -3023,41 +3004,41 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>251846</v>
+        <v>252156</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>R3</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>45</v>
+        <v>17</v>
       </c>
       <c r="D35" t="n">
-        <v>232.4897959183673</v>
+        <v>802.65625</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>2025-05-09 12:54:11</t>
+          <t>2025-06-06 09:18:24</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>2025-05-09 13:39:11</t>
+          <t>2025-06-06 09:35:24</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>2025-05-09 13:39:11</t>
+          <t>2025-06-06 09:35:24</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>2025-05-12 09:31:40</t>
+          <t>2025-06-09 14:58:03</t>
         </is>
       </c>
       <c r="I35" t="n">
-        <v>11392</v>
+        <v>51370</v>
       </c>
       <c r="J35" t="inlineStr">
         <is>
@@ -3070,7 +3051,7 @@
         </is>
       </c>
       <c r="L35" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="M35" t="n">
         <v>70</v>
@@ -3083,7 +3064,7 @@
       </c>
       <c r="Q35" t="inlineStr">
         <is>
-          <t>2025-05-30 00:00:00</t>
+          <t>2025-06-12 00:00:00</t>
         </is>
       </c>
       <c r="R35" s="1" t="n">
@@ -3095,41 +3076,41 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>251519</v>
+        <v>252395</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>R3</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>125</v>
+        <v>57</v>
       </c>
       <c r="D36" t="n">
-        <v>185.5633802816901</v>
+        <v>1832.387755102041</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>2025-05-09 13:59:25</t>
+          <t>2025-06-06 09:34:20</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>2025-05-12 08:04:25</t>
+          <t>2025-06-06 10:31:20</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>2025-05-12 08:04:25</t>
+          <t>2025-06-06 10:31:20</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>2025-05-12 11:09:59</t>
+          <t>2025-06-12 09:03:44</t>
         </is>
       </c>
       <c r="I36" t="n">
-        <v>13175</v>
+        <v>89787</v>
       </c>
       <c r="J36" t="inlineStr">
         <is>
@@ -3138,14 +3119,14 @@
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L36" t="n">
         <v>2</v>
       </c>
       <c r="M36" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
@@ -3155,7 +3136,7 @@
       </c>
       <c r="Q36" t="inlineStr">
         <is>
-          <t>2025-06-10 00:00:00</t>
+          <t>2025-08-04 00:00:00</t>
         </is>
       </c>
       <c r="R36" s="1" t="n">
@@ -3167,41 +3148,41 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>251373</v>
+        <v>251979</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>30</v>
+        <v>32.5</v>
       </c>
       <c r="D37" t="n">
-        <v>280.2295081967213</v>
+        <v>374.1090909090909</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>2025-05-09 14:20:10</t>
+          <t>2025-06-06 11:09:13</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>2025-05-09 14:50:10</t>
+          <t>2025-06-06 11:41:43</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>2025-05-09 14:50:10</t>
+          <t>2025-06-06 11:41:43</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>2025-05-12 11:30:24</t>
+          <t>2025-06-09 09:55:50</t>
         </is>
       </c>
       <c r="I37" t="n">
-        <v>17094</v>
+        <v>20576</v>
       </c>
       <c r="J37" t="inlineStr">
         <is>
@@ -3210,11 +3191,11 @@
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>CASON ;R6</t>
         </is>
       </c>
       <c r="L37" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="M37" t="n">
         <v>70</v>
@@ -3227,53 +3208,53 @@
       </c>
       <c r="Q37" t="inlineStr">
         <is>
-          <t>2025-04-28 00:00:00</t>
+          <t>2025-06-05 00:00:00</t>
         </is>
       </c>
       <c r="R37" s="1" t="n">
-        <v>-14.4794512750463</v>
+        <v>-4.413775252523148</v>
       </c>
       <c r="S37" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>245350</v>
+        <v>252235</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>R9</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>65</v>
+        <v>34</v>
       </c>
       <c r="D38" t="n">
-        <v>405.3623188405797</v>
+        <v>341.6619718309859</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>2025-05-12 07:00:00</t>
+          <t>2025-06-06 11:44:24</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>2025-05-12 08:05:00</t>
+          <t>2025-06-06 12:18:24</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>2025-05-12 08:05:00</t>
+          <t>2025-06-06 12:18:24</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>2025-05-12 14:50:21</t>
+          <t>2025-06-09 10:00:04</t>
         </is>
       </c>
       <c r="I38" t="n">
-        <v>27970</v>
+        <v>24258</v>
       </c>
       <c r="J38" t="inlineStr">
         <is>
@@ -3282,14 +3263,14 @@
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L38" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="M38" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="O38" t="n">
         <v>0</v>
@@ -3299,7 +3280,7 @@
       </c>
       <c r="Q38" t="inlineStr">
         <is>
-          <t>2025-12-31 00:00:00</t>
+          <t>2025-06-15 00:00:00</t>
         </is>
       </c>
       <c r="R38" s="1" t="n">
@@ -3311,41 +3292,41 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>243569</v>
+        <v>251935</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>R9</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="D39" t="n">
-        <v>36.63380281690141</v>
+        <v>96.94202898550725</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>2025-05-12 07:06:00</t>
+          <t>2025-06-06 12:55:50</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>2025-05-12 07:23:00</t>
+          <t>2025-06-06 13:30:50</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>2025-05-12 07:23:00</t>
+          <t>2025-06-06 13:30:50</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>2025-05-12 07:59:38</t>
+          <t>2025-06-09 07:07:46</t>
         </is>
       </c>
       <c r="I39" t="n">
-        <v>2601</v>
+        <v>6689</v>
       </c>
       <c r="J39" t="inlineStr">
         <is>
@@ -3354,14 +3335,14 @@
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L39" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M39" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
@@ -3371,53 +3352,53 @@
       </c>
       <c r="Q39" t="inlineStr">
         <is>
-          <t>2024-09-16 00:00:00</t>
+          <t>2025-06-05 00:00:00</t>
         </is>
       </c>
       <c r="R39" s="1" t="n">
-        <v>-238.3330888106366</v>
+        <v>-4.297071256041667</v>
       </c>
       <c r="S39" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>245275</v>
+        <v>251993</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>48.5</v>
+        <v>30</v>
       </c>
       <c r="D40" t="n">
-        <v>441.7090909090909</v>
+        <v>199.2295081967213</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>2025-05-12 07:09:39</t>
+          <t>2025-06-06 13:39:56</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>2025-05-12 07:58:09</t>
+          <t>2025-06-06 14:09:56</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>2025-05-12 07:58:09</t>
+          <t>2025-06-06 14:09:56</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>2025-05-13 07:19:51</t>
+          <t>2025-06-09 09:29:09</t>
         </is>
       </c>
       <c r="I40" t="n">
-        <v>24294</v>
+        <v>12153</v>
       </c>
       <c r="J40" t="inlineStr">
         <is>
@@ -3426,11 +3407,11 @@
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;CASON ;R6</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L40" t="n">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="M40" t="n">
         <v>70</v>
@@ -3443,53 +3424,53 @@
       </c>
       <c r="Q40" t="inlineStr">
         <is>
-          <t>2025-12-31 00:00:00</t>
+          <t>2025-06-09 00:00:00</t>
         </is>
       </c>
       <c r="R40" s="1" t="n">
-        <v>0</v>
+        <v>-0.3952527322453704</v>
       </c>
       <c r="S40" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>245623</v>
+        <v>251958</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C41" t="n">
         <v>32</v>
       </c>
       <c r="D41" t="n">
-        <v>372.0985915492957</v>
+        <v>122.2676056338028</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>2025-05-12 07:59:38</t>
+          <t>2025-06-06 14:14:05</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>2025-05-12 08:31:38</t>
+          <t>2025-06-06 14:46:05</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>2025-05-12 08:31:38</t>
+          <t>2025-06-06 14:46:05</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>2025-05-12 14:43:44</t>
+          <t>2025-06-09 08:48:21</t>
         </is>
       </c>
       <c r="I41" t="n">
-        <v>26419</v>
+        <v>8681</v>
       </c>
       <c r="J41" t="inlineStr">
         <is>
@@ -3498,14 +3479,14 @@
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L41" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M41" t="n">
-        <v>152</v>
+        <v>76</v>
       </c>
       <c r="O41" t="n">
         <v>0</v>
@@ -3515,53 +3496,53 @@
       </c>
       <c r="Q41" t="inlineStr">
         <is>
-          <t>2025-01-25 00:00:00</t>
+          <t>2025-06-09 00:00:00</t>
         </is>
       </c>
       <c r="R41" s="1" t="n">
-        <v>-107.6137128325463</v>
+        <v>-0.3669111893634259</v>
       </c>
       <c r="S41" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>235572</v>
+        <v>251747</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>BIMEC 4</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="D42" t="n">
-        <v>155.59375</v>
+        <v>255.016393442623</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>2025-05-12 09:10:25</t>
+          <t>2025-06-09 07:06:59</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>2025-05-12 09:25:25</t>
+          <t>2025-06-09 07:31:59</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>2025-05-12 09:25:25</t>
+          <t>2025-06-09 07:31:59</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>2025-05-12 12:01:00</t>
+          <t>2025-06-09 11:47:00</t>
         </is>
       </c>
       <c r="I42" t="n">
-        <v>9958</v>
+        <v>15556</v>
       </c>
       <c r="J42" t="inlineStr">
         <is>
@@ -3570,11 +3551,11 @@
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L42" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M42" t="n">
         <v>70</v>
@@ -3587,11 +3568,11 @@
       </c>
       <c r="Q42" t="inlineStr">
         <is>
-          <t>2023-11-06 00:00:00</t>
+          <t>2025-06-16 00:00:00</t>
         </is>
       </c>
       <c r="R42" s="1" t="n">
-        <v>-553.5007052951389</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>4</v>
@@ -3599,41 +3580,41 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>251424</v>
+        <v>243569</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>R3</t>
+          <t>R9</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="D43" t="n">
-        <v>197.1836734693877</v>
+        <v>37.69565217391305</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>2025-05-12 09:31:40</t>
+          <t>2025-06-09 07:07:46</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>2025-05-12 10:16:40</t>
+          <t>2025-06-09 07:42:46</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>2025-05-12 10:16:40</t>
+          <t>2025-06-09 07:42:46</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>2025-05-12 13:33:51</t>
+          <t>2025-06-09 08:20:28</t>
         </is>
       </c>
       <c r="I43" t="n">
-        <v>9662</v>
+        <v>2601</v>
       </c>
       <c r="J43" t="inlineStr">
         <is>
@@ -3642,14 +3623,14 @@
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L43" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M43" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="O43" t="n">
         <v>0</v>
@@ -3659,53 +3640,53 @@
       </c>
       <c r="Q43" t="inlineStr">
         <is>
-          <t>2025-04-28 00:00:00</t>
+          <t>2024-09-16 00:00:00</t>
         </is>
       </c>
       <c r="R43" s="1" t="n">
-        <v>-14.56517857142361</v>
+        <v>-266.3475543478241</v>
       </c>
       <c r="S43" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>251397</v>
+        <v>245623</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>R9</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D44" t="n">
-        <v>76.54929577464789</v>
+        <v>382.8840579710145</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>2025-05-12 09:32:12</t>
+          <t>2025-06-09 08:20:28</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>2025-05-12 10:06:12</t>
+          <t>2025-06-09 08:55:28</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>2025-05-12 10:06:12</t>
+          <t>2025-06-09 08:55:28</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>2025-05-12 11:22:45</t>
+          <t>2025-06-10 07:18:21</t>
         </is>
       </c>
       <c r="I44" t="n">
-        <v>5435</v>
+        <v>26419</v>
       </c>
       <c r="J44" t="inlineStr">
         <is>
@@ -3714,14 +3695,14 @@
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L44" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M44" t="n">
-        <v>70</v>
+        <v>152</v>
       </c>
       <c r="O44" t="n">
         <v>0</v>
@@ -3731,53 +3712,53 @@
       </c>
       <c r="Q44" t="inlineStr">
         <is>
-          <t>2025-04-28 00:00:00</t>
+          <t>2025-01-25 00:00:00</t>
         </is>
       </c>
       <c r="R44" s="1" t="n">
-        <v>-14.47413928012731</v>
+        <v>-136.3044182769676</v>
       </c>
       <c r="S44" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>251475</v>
+        <v>251792</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>45</v>
+        <v>17</v>
       </c>
       <c r="D45" t="n">
-        <v>122.2676056338028</v>
+        <v>129.6338028169014</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>2025-05-12 11:09:59</t>
+          <t>2025-06-09 08:48:21</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>2025-05-12 11:54:59</t>
+          <t>2025-06-09 09:05:21</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>2025-05-12 11:54:59</t>
+          <t>2025-06-09 09:05:21</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>2025-05-12 13:57:15</t>
+          <t>2025-06-09 11:14:59</t>
         </is>
       </c>
       <c r="I45" t="n">
-        <v>8681</v>
+        <v>9204</v>
       </c>
       <c r="J45" t="inlineStr">
         <is>
@@ -3786,14 +3767,14 @@
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L45" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M45" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
@@ -3803,53 +3784,53 @@
       </c>
       <c r="Q45" t="inlineStr">
         <is>
-          <t>2025-04-30 00:00:00</t>
+          <t>2025-05-26 00:00:00</t>
         </is>
       </c>
       <c r="R45" s="1" t="n">
-        <v>-12.58142605634259</v>
+        <v>-14.46874021909722</v>
       </c>
       <c r="S45" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>251594</v>
+        <v>251944</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="D46" t="n">
-        <v>91.07042253521126</v>
+        <v>668.327868852459</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>2025-05-12 11:22:45</t>
+          <t>2025-06-09 09:29:09</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>2025-05-12 11:39:45</t>
+          <t>2025-06-09 09:54:09</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>2025-05-12 11:39:45</t>
+          <t>2025-06-09 09:54:09</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>2025-05-12 13:10:49</t>
+          <t>2025-06-10 13:02:29</t>
         </is>
       </c>
       <c r="I46" t="n">
-        <v>6466</v>
+        <v>40768</v>
       </c>
       <c r="J46" t="inlineStr">
         <is>
@@ -3862,7 +3843,7 @@
         </is>
       </c>
       <c r="L46" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M46" t="n">
         <v>70</v>
@@ -3875,53 +3856,53 @@
       </c>
       <c r="Q46" t="inlineStr">
         <is>
-          <t>2025-05-07 00:00:00</t>
+          <t>2025-05-26 00:00:00</t>
         </is>
       </c>
       <c r="R46" s="1" t="n">
-        <v>-5.549188184664352</v>
+        <v>-15.54339708561343</v>
       </c>
       <c r="S46" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>244354</v>
+        <v>252042</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>25</v>
+        <v>30.5</v>
       </c>
       <c r="D47" t="n">
-        <v>70.65573770491804</v>
+        <v>139.7090909090909</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>2025-05-12 11:30:24</t>
+          <t>2025-06-09 09:55:50</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>2025-05-12 11:55:24</t>
+          <t>2025-06-09 10:26:20</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>2025-05-12 11:55:24</t>
+          <t>2025-06-09 10:26:20</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>2025-05-12 13:06:03</t>
+          <t>2025-06-09 12:46:02</t>
         </is>
       </c>
       <c r="I47" t="n">
-        <v>4310</v>
+        <v>7684</v>
       </c>
       <c r="J47" t="inlineStr">
         <is>
@@ -3934,7 +3915,7 @@
         </is>
       </c>
       <c r="L47" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M47" t="n">
         <v>70</v>
@@ -3947,53 +3928,53 @@
       </c>
       <c r="Q47" t="inlineStr">
         <is>
-          <t>2025-05-08 00:00:00</t>
+          <t>2025-05-30 00:00:00</t>
         </is>
       </c>
       <c r="R47" s="1" t="n">
-        <v>-4.545878870671296</v>
+        <v>-10.53197601010417</v>
       </c>
       <c r="S47" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>244355</v>
+        <v>251905</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D48" t="n">
-        <v>67.34375</v>
+        <v>194.943661971831</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>2025-05-12 12:01:00</t>
+          <t>2025-06-09 10:00:04</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>2025-05-12 12:18:00</t>
+          <t>2025-06-09 10:19:04</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>2025-05-12 12:18:00</t>
+          <t>2025-06-09 10:19:04</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>2025-05-12 13:25:21</t>
+          <t>2025-06-09 13:34:00</t>
         </is>
       </c>
       <c r="I48" t="n">
-        <v>4310</v>
+        <v>13841</v>
       </c>
       <c r="J48" t="inlineStr">
         <is>
@@ -4002,14 +3983,14 @@
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L48" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M48" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="O48" t="n">
         <v>0</v>
@@ -4019,53 +4000,53 @@
       </c>
       <c r="Q48" t="inlineStr">
         <is>
-          <t>2025-05-08 00:00:00</t>
+          <t>2025-05-28 00:00:00</t>
         </is>
       </c>
       <c r="R48" s="1" t="n">
-        <v>-4.55927734375</v>
+        <v>-12.56528755868056</v>
       </c>
       <c r="S48" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>244204</v>
+        <v>251898</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="D49" t="n">
-        <v>56.91803278688525</v>
+        <v>93.02816901408451</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>2025-05-12 12:16:42</t>
+          <t>2025-06-09 11:14:59</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>2025-05-12 12:58:42</t>
+          <t>2025-06-09 11:31:59</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>2025-05-12 12:58:42</t>
+          <t>2025-06-09 11:31:59</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>2025-05-12 13:55:37</t>
+          <t>2025-06-09 13:05:00</t>
         </is>
       </c>
       <c r="I49" t="n">
-        <v>3472</v>
+        <v>6605</v>
       </c>
       <c r="J49" t="inlineStr">
         <is>
@@ -4074,14 +4055,14 @@
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L49" t="n">
         <v>4</v>
       </c>
       <c r="M49" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="O49" t="n">
         <v>0</v>
@@ -4091,53 +4072,53 @@
       </c>
       <c r="Q49" t="inlineStr">
         <is>
-          <t>2025-05-08 00:00:00</t>
+          <t>2025-06-06 00:00:00</t>
         </is>
       </c>
       <c r="R49" s="1" t="n">
-        <v>-4.580293715844907</v>
+        <v>-3.545148669791666</v>
       </c>
       <c r="S49" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>251743</v>
+        <v>252058</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>BIMEC 4</t>
         </is>
       </c>
       <c r="C50" t="n">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="D50" t="n">
-        <v>176.655737704918</v>
+        <v>86.88524590163935</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>2025-05-12 13:06:03</t>
+          <t>2025-06-09 11:47:00</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>2025-05-12 13:26:03</t>
+          <t>2025-06-09 12:16:00</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>2025-05-12 13:26:03</t>
+          <t>2025-06-09 12:16:00</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>2025-05-13 08:22:43</t>
+          <t>2025-06-09 13:42:53</t>
         </is>
       </c>
       <c r="I50" t="n">
-        <v>10776</v>
+        <v>5300</v>
       </c>
       <c r="J50" t="inlineStr">
         <is>
@@ -4150,7 +4131,7 @@
         </is>
       </c>
       <c r="L50" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M50" t="n">
         <v>70</v>
@@ -4163,53 +4144,53 @@
       </c>
       <c r="Q50" t="inlineStr">
         <is>
-          <t>2025-05-16 00:00:00</t>
+          <t>2025-06-09 00:00:00</t>
         </is>
       </c>
       <c r="R50" s="1" t="n">
-        <v>0</v>
+        <v>-0.5714480874305555</v>
       </c>
       <c r="S50" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>251809</v>
+        <v>252082</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C51" t="n">
-        <v>15</v>
+        <v>30.5</v>
       </c>
       <c r="D51" t="n">
-        <v>122.2676056338028</v>
+        <v>816.1454545454545</v>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>2025-05-12 13:10:49</t>
+          <t>2025-06-09 12:46:02</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>2025-05-12 13:25:49</t>
+          <t>2025-06-09 13:16:32</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>2025-05-12 13:25:49</t>
+          <t>2025-06-09 13:16:32</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>2025-05-13 07:28:05</t>
+          <t>2025-06-11 10:52:41</t>
         </is>
       </c>
       <c r="I51" t="n">
-        <v>8681</v>
+        <v>44888</v>
       </c>
       <c r="J51" t="inlineStr">
         <is>
@@ -4222,7 +4203,7 @@
         </is>
       </c>
       <c r="L51" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M51" t="n">
         <v>70</v>
@@ -4235,53 +4216,53 @@
       </c>
       <c r="Q51" t="inlineStr">
         <is>
-          <t>2025-05-22 00:00:00</t>
+          <t>2025-06-10 00:00:00</t>
         </is>
       </c>
       <c r="R51" s="1" t="n">
-        <v>0</v>
+        <v>-1.453257575752315</v>
       </c>
       <c r="S51" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>250819</v>
+        <v>251798</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C52" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D52" t="n">
-        <v>133.234375</v>
+        <v>318.943661971831</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>2025-05-12 13:25:21</t>
+          <t>2025-06-09 13:05:00</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>2025-05-12 13:44:21</t>
+          <t>2025-06-09 13:20:00</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>2025-05-12 13:44:21</t>
+          <t>2025-06-09 13:20:00</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>2025-05-13 07:57:35</t>
+          <t>2025-06-10 10:38:57</t>
         </is>
       </c>
       <c r="I52" t="n">
-        <v>8527</v>
+        <v>22645</v>
       </c>
       <c r="J52" t="inlineStr">
         <is>
@@ -4290,14 +4271,14 @@
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L52" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M52" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="O52" t="n">
         <v>0</v>
@@ -4307,11 +4288,11 @@
       </c>
       <c r="Q52" t="inlineStr">
         <is>
-          <t>2025-04-18 00:00:00</t>
+          <t>2025-06-15 00:00:00</t>
         </is>
       </c>
       <c r="R52" s="1" t="n">
-        <v>-25.33166232638889</v>
+        <v>0</v>
       </c>
       <c r="S52" t="n">
         <v>2</v>
@@ -4319,41 +4300,41 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>251485</v>
+        <v>243335</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>R3</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C53" t="n">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="D53" t="n">
-        <v>98.12244897959184</v>
+        <v>464.8450704225352</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>2025-05-12 13:33:51</t>
+          <t>2025-06-09 13:34:00</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>2025-05-12 14:13:51</t>
+          <t>2025-06-09 14:08:00</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>2025-05-12 14:13:51</t>
+          <t>2025-06-09 14:08:00</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>2025-05-13 07:51:58</t>
+          <t>2025-06-10 13:52:51</t>
         </is>
       </c>
       <c r="I53" t="n">
-        <v>4808</v>
+        <v>33004</v>
       </c>
       <c r="J53" t="inlineStr">
         <is>
@@ -4362,14 +4343,14 @@
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L53" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M53" t="n">
-        <v>70</v>
+        <v>152</v>
       </c>
       <c r="O53" t="n">
         <v>0</v>
@@ -4379,19 +4360,19 @@
       </c>
       <c r="Q53" t="inlineStr">
         <is>
-          <t>2025-04-23 00:00:00</t>
+          <t>2024-08-02 00:00:00</t>
         </is>
       </c>
       <c r="R53" s="1" t="n">
-        <v>-20.32776360543982</v>
+        <v>-312.5783744131481</v>
       </c>
       <c r="S53" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>251346</v>
+        <v>252337</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
@@ -4399,33 +4380,33 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="D54" t="n">
-        <v>63.26229508196721</v>
+        <v>1561.27868852459</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>2025-05-12 13:55:37</t>
+          <t>2025-06-09 13:42:53</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>2025-05-12 14:28:37</t>
+          <t>2025-06-09 14:09:53</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>2025-05-12 14:28:37</t>
+          <t>2025-06-09 14:09:53</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>2025-05-13 07:31:53</t>
+          <t>2025-06-13 08:11:09</t>
         </is>
       </c>
       <c r="I54" t="n">
-        <v>3859</v>
+        <v>95238</v>
       </c>
       <c r="J54" t="inlineStr">
         <is>
@@ -4434,11 +4415,11 @@
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
         </is>
       </c>
       <c r="L54" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="M54" t="n">
         <v>70</v>
@@ -4451,11 +4432,11 @@
       </c>
       <c r="Q54" t="inlineStr">
         <is>
-          <t>2025-04-28 00:00:00</t>
+          <t>2025-07-02 00:00:00</t>
         </is>
       </c>
       <c r="R54" s="1" t="n">
-        <v>-15.31380919854167</v>
+        <v>0</v>
       </c>
       <c r="S54" t="n">
         <v>2</v>
@@ -4463,41 +4444,41 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>251109</v>
+        <v>244023</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C55" t="n">
-        <v>95</v>
+        <v>17</v>
       </c>
       <c r="D55" t="n">
-        <v>266.5915492957747</v>
+        <v>15.578125</v>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>2025-05-12 13:57:15</t>
+          <t>2025-06-09 14:58:03</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>2025-05-13 07:32:15</t>
+          <t>2025-06-10 07:15:03</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>2025-05-13 07:32:15</t>
+          <t>2025-06-10 07:15:03</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>2025-05-13 11:58:50</t>
+          <t>2025-06-10 07:30:38</t>
         </is>
       </c>
       <c r="I55" t="n">
-        <v>18928</v>
+        <v>997</v>
       </c>
       <c r="J55" t="inlineStr">
         <is>
@@ -4506,11 +4487,11 @@
       </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L55" t="n">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="M55" t="n">
         <v>70</v>
@@ -4523,53 +4504,53 @@
       </c>
       <c r="Q55" t="inlineStr">
         <is>
-          <t>2025-04-18 00:00:00</t>
+          <t>2024-09-30 00:00:00</t>
         </is>
       </c>
       <c r="R55" s="1" t="n">
-        <v>-25.49919796556713</v>
+        <v>-253.3129448784722</v>
       </c>
       <c r="S55" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>250670</v>
+        <v>251186</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>R9</t>
         </is>
       </c>
       <c r="C56" t="n">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="D56" t="n">
-        <v>22.01408450704225</v>
+        <v>369.7391304347826</v>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>2025-05-12 14:43:44</t>
+          <t>2025-06-10 07:18:21</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>2025-05-13 07:17:44</t>
+          <t>2025-06-10 07:58:21</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>2025-05-13 07:17:44</t>
+          <t>2025-06-10 07:58:21</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>2025-05-13 07:39:45</t>
+          <t>2025-06-10 14:08:06</t>
         </is>
       </c>
       <c r="I56" t="n">
-        <v>1563</v>
+        <v>25512</v>
       </c>
       <c r="J56" t="inlineStr">
         <is>
@@ -4578,14 +4559,14 @@
       </c>
       <c r="K56" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L56" t="n">
         <v>4</v>
       </c>
       <c r="M56" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="O56" t="n">
         <v>0</v>
@@ -4595,53 +4576,53 @@
       </c>
       <c r="Q56" t="inlineStr">
         <is>
-          <t>2025-05-05 00:00:00</t>
+          <t>2025-05-30 00:00:00</t>
         </is>
       </c>
       <c r="R56" s="1" t="n">
-        <v>-8.319278169016203</v>
+        <v>-11.58895933978009</v>
       </c>
       <c r="S56" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>250641</v>
+        <v>251972</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>R9</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C57" t="n">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="D57" t="n">
-        <v>74.14492753623189</v>
+        <v>75.75</v>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>2025-05-12 14:50:21</t>
+          <t>2025-06-10 07:30:38</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>2025-05-13 07:35:21</t>
+          <t>2025-06-10 08:04:38</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>2025-05-13 07:35:21</t>
+          <t>2025-06-10 08:04:38</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>2025-05-13 08:49:30</t>
+          <t>2025-06-10 09:20:23</t>
         </is>
       </c>
       <c r="I57" t="n">
-        <v>5116</v>
+        <v>4848</v>
       </c>
       <c r="J57" t="inlineStr">
         <is>
@@ -4650,14 +4631,14 @@
       </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L57" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M57" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="O57" t="n">
         <v>0</v>
@@ -4667,53 +4648,53 @@
       </c>
       <c r="Q57" t="inlineStr">
         <is>
-          <t>2025-04-28 00:00:00</t>
+          <t>2025-05-30 00:00:00</t>
         </is>
       </c>
       <c r="R57" s="1" t="n">
-        <v>-15.36771336554398</v>
+        <v>-11.38916015625</v>
       </c>
       <c r="S57" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>251259</v>
+        <v>252111</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C58" t="n">
-        <v>40.5</v>
+        <v>32</v>
       </c>
       <c r="D58" t="n">
-        <v>90.90909090909091</v>
+        <v>284.171875</v>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>2025-05-13 07:19:51</t>
+          <t>2025-06-10 09:20:23</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>2025-05-13 08:00:21</t>
+          <t>2025-06-10 09:52:23</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>2025-05-13 08:00:21</t>
+          <t>2025-06-10 09:52:23</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>2025-05-13 09:31:16</t>
+          <t>2025-06-10 14:36:33</t>
         </is>
       </c>
       <c r="I58" t="n">
-        <v>5000</v>
+        <v>18187</v>
       </c>
       <c r="J58" t="inlineStr">
         <is>
@@ -4726,7 +4707,7 @@
         </is>
       </c>
       <c r="L58" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="M58" t="n">
         <v>70</v>
@@ -4739,53 +4720,53 @@
       </c>
       <c r="Q58" t="inlineStr">
         <is>
-          <t>2025-05-06 00:00:00</t>
+          <t>2025-06-05 00:00:00</t>
         </is>
       </c>
       <c r="R58" s="1" t="n">
-        <v>-7.396717171712963</v>
+        <v>-5.608723958333333</v>
       </c>
       <c r="S58" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>251761</v>
+        <v>251772</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="C59" t="n">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="D59" t="n">
-        <v>187.0281690140845</v>
+        <v>637.2112676056338</v>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>2025-05-13 07:28:05</t>
+          <t>2025-06-10 10:37:12</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>2025-05-13 07:43:05</t>
+          <t>2025-06-10 11:17:12</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>2025-05-13 07:43:05</t>
+          <t>2025-06-10 11:17:12</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>2025-05-13 10:50:07</t>
+          <t>2025-06-11 13:54:25</t>
         </is>
       </c>
       <c r="I59" t="n">
-        <v>13279</v>
+        <v>45242</v>
       </c>
       <c r="J59" t="inlineStr">
         <is>
@@ -4811,53 +4792,53 @@
       </c>
       <c r="Q59" t="inlineStr">
         <is>
-          <t>2025-05-19 00:00:00</t>
+          <t>2025-06-05 00:00:00</t>
         </is>
       </c>
       <c r="R59" s="1" t="n">
-        <v>0</v>
+        <v>-6.579460093900463</v>
       </c>
       <c r="S59" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>243335</v>
+        <v>252108</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C60" t="n">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="D60" t="n">
-        <v>541.0491803278688</v>
+        <v>201.4225352112676</v>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>2025-05-13 07:31:53</t>
+          <t>2025-06-10 10:38:57</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>2025-05-13 08:19:53</t>
+          <t>2025-06-10 11:10:57</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>2025-05-13 08:19:53</t>
+          <t>2025-06-10 11:10:57</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>2025-05-14 09:20:56</t>
+          <t>2025-06-10 14:32:22</t>
         </is>
       </c>
       <c r="I60" t="n">
-        <v>33004</v>
+        <v>14301</v>
       </c>
       <c r="J60" t="inlineStr">
         <is>
@@ -4866,14 +4847,14 @@
       </c>
       <c r="K60" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L60" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M60" t="n">
-        <v>152</v>
+        <v>70</v>
       </c>
       <c r="O60" t="n">
         <v>0</v>
@@ -4883,11 +4864,11 @@
       </c>
       <c r="Q60" t="inlineStr">
         <is>
-          <t>2024-08-02 00:00:00</t>
+          <t>2025-06-06 00:00:00</t>
         </is>
       </c>
       <c r="R60" s="1" t="n">
-        <v>-285.3895377959954</v>
+        <v>-4.60581964005787</v>
       </c>
       <c r="S60" t="n">
         <v>1</v>
@@ -4895,41 +4876,41 @@
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>251750</v>
+        <v>251916</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C61" t="n">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="D61" t="n">
-        <v>54.80281690140845</v>
+        <v>768.4426229508197</v>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>2025-05-13 07:39:45</t>
+          <t>2025-06-10 13:02:29</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>2025-05-13 08:11:45</t>
+          <t>2025-06-10 13:27:29</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>2025-05-13 08:11:45</t>
+          <t>2025-06-10 13:27:29</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>2025-05-13 09:06:33</t>
+          <t>2025-06-12 10:15:56</t>
         </is>
       </c>
       <c r="I61" t="n">
-        <v>3891</v>
+        <v>46875</v>
       </c>
       <c r="J61" t="inlineStr">
         <is>
@@ -4938,14 +4919,14 @@
       </c>
       <c r="K61" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L61" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M61" t="n">
-        <v>152</v>
+        <v>70</v>
       </c>
       <c r="O61" t="n">
         <v>0</v>
@@ -4955,7 +4936,7 @@
       </c>
       <c r="Q61" t="inlineStr">
         <is>
-          <t>2025-05-26 00:00:00</t>
+          <t>2025-06-13 00:00:00</t>
         </is>
       </c>
       <c r="R61" s="1" t="n">
@@ -4967,41 +4948,41 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>244023</v>
+        <v>245089</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>R3</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C62" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="D62" t="n">
-        <v>20.3469387755102</v>
+        <v>1727.676056338028</v>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>2025-05-13 07:51:58</t>
+          <t>2025-06-10 13:52:51</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>2025-05-13 08:31:58</t>
+          <t>2025-06-10 14:22:51</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>2025-05-13 08:31:58</t>
+          <t>2025-06-10 14:22:51</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>2025-05-13 08:52:19</t>
+          <t>2025-06-16 11:10:32</t>
         </is>
       </c>
       <c r="I62" t="n">
-        <v>997</v>
+        <v>122665</v>
       </c>
       <c r="J62" t="inlineStr">
         <is>
@@ -5010,14 +4991,14 @@
       </c>
       <c r="K62" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L62" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M62" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="O62" t="n">
         <v>0</v>
@@ -5027,11 +5008,11 @@
       </c>
       <c r="Q62" t="inlineStr">
         <is>
-          <t>2024-09-30 00:00:00</t>
+          <t>2025-12-31 00:00:00</t>
         </is>
       </c>
       <c r="R62" s="1" t="n">
-        <v>-225.3696712018171</v>
+        <v>0</v>
       </c>
       <c r="S62" t="n">
         <v>1</v>
@@ -5039,41 +5020,41 @@
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>251283</v>
+        <v>252196</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>R9</t>
         </is>
       </c>
       <c r="C63" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="D63" t="n">
-        <v>11.78125</v>
+        <v>682.4492753623189</v>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>2025-05-13 07:57:35</t>
+          <t>2025-06-10 14:08:06</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>2025-05-13 08:12:35</t>
+          <t>2025-06-10 14:38:06</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>2025-05-13 08:12:35</t>
+          <t>2025-06-10 14:38:06</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>2025-05-13 08:24:22</t>
+          <t>2025-06-12 10:00:33</t>
         </is>
       </c>
       <c r="I63" t="n">
-        <v>754</v>
+        <v>47089</v>
       </c>
       <c r="J63" t="inlineStr">
         <is>
@@ -5082,11 +5063,11 @@
       </c>
       <c r="K63" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L63" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="M63" t="n">
         <v>70</v>
@@ -5099,11 +5080,11 @@
       </c>
       <c r="Q63" t="inlineStr">
         <is>
-          <t>2025-03-18 00:00:00</t>
+          <t>2025-06-13 00:00:00</t>
         </is>
       </c>
       <c r="R63" s="1" t="n">
-        <v>-56.35026041666666</v>
+        <v>0</v>
       </c>
       <c r="S63" t="n">
         <v>1</v>
@@ -5111,41 +5092,41 @@
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>251245</v>
+        <v>252195</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C64" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="D64" t="n">
-        <v>12.36065573770492</v>
+        <v>503.5633802816901</v>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>2025-05-13 08:22:43</t>
+          <t>2025-06-10 14:32:22</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>2025-05-13 08:52:43</t>
+          <t>2025-06-10 14:47:22</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>2025-05-13 08:52:43</t>
+          <t>2025-06-10 14:47:22</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>2025-05-13 09:05:04</t>
+          <t>2025-06-12 07:10:56</t>
         </is>
       </c>
       <c r="I64" t="n">
-        <v>754</v>
+        <v>35753</v>
       </c>
       <c r="J64" t="inlineStr">
         <is>
@@ -5154,11 +5135,11 @@
       </c>
       <c r="K64" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L64" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="M64" t="n">
         <v>70</v>
@@ -5171,11 +5152,11 @@
       </c>
       <c r="Q64" t="inlineStr">
         <is>
-          <t>2025-03-28 00:00:00</t>
+          <t>2025-06-13 00:00:00</t>
         </is>
       </c>
       <c r="R64" s="1" t="n">
-        <v>-46.37852914390047</v>
+        <v>0</v>
       </c>
       <c r="S64" t="n">
         <v>1</v>
@@ -5183,7 +5164,7 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>251061</v>
+        <v>252110</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
@@ -5194,30 +5175,30 @@
         <v>15</v>
       </c>
       <c r="D65" t="n">
-        <v>374.953125</v>
+        <v>100.15625</v>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>2025-05-13 08:24:22</t>
+          <t>2025-06-10 14:36:33</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>2025-05-13 08:39:22</t>
+          <t>2025-06-10 14:51:33</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>2025-05-13 08:39:22</t>
+          <t>2025-06-10 14:51:33</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>2025-05-13 14:54:19</t>
+          <t>2025-06-11 08:31:43</t>
         </is>
       </c>
       <c r="I65" t="n">
-        <v>23997</v>
+        <v>6410</v>
       </c>
       <c r="J65" t="inlineStr">
         <is>
@@ -5226,11 +5207,11 @@
       </c>
       <c r="K65" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L65" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="M65" t="n">
         <v>70</v>
@@ -5243,11 +5224,11 @@
       </c>
       <c r="Q65" t="inlineStr">
         <is>
-          <t>2025-05-05 00:00:00</t>
+          <t>2025-06-17 00:00:00</t>
         </is>
       </c>
       <c r="R65" s="1" t="n">
-        <v>-8.621061197916667</v>
+        <v>0</v>
       </c>
       <c r="S65" t="n">
         <v>1</v>
@@ -5255,41 +5236,41 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>251247</v>
+        <v>252121</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>R9</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C66" t="n">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="D66" t="n">
-        <v>390.3478260869565</v>
+        <v>194.578125</v>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>2025-05-13 08:49:30</t>
+          <t>2025-06-11 08:31:43</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>2025-05-13 09:14:30</t>
+          <t>2025-06-11 08:48:43</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>2025-05-13 09:14:30</t>
+          <t>2025-06-11 08:48:43</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>2025-05-14 07:44:51</t>
+          <t>2025-06-11 12:03:17</t>
         </is>
       </c>
       <c r="I66" t="n">
-        <v>26934</v>
+        <v>12453</v>
       </c>
       <c r="J66" t="inlineStr">
         <is>
@@ -5298,11 +5279,11 @@
       </c>
       <c r="K66" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L66" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="M66" t="n">
         <v>70</v>
@@ -5315,11 +5296,11 @@
       </c>
       <c r="Q66" t="inlineStr">
         <is>
-          <t>2025-05-09 00:00:00</t>
+          <t>2025-06-18 00:00:00</t>
         </is>
       </c>
       <c r="R66" s="1" t="n">
-        <v>-5.322816022546296</v>
+        <v>0</v>
       </c>
       <c r="S66" t="n">
         <v>1</v>
@@ -5327,41 +5308,41 @@
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>251246</v>
+        <v>252410</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>R3</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C67" t="n">
-        <v>35</v>
+        <v>38.5</v>
       </c>
       <c r="D67" t="n">
-        <v>244.9387755102041</v>
+        <v>137.1090909090909</v>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>2025-05-13 08:52:19</t>
+          <t>2025-06-11 10:52:41</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>2025-05-13 09:27:19</t>
+          <t>2025-06-11 11:31:11</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>2025-05-13 09:27:19</t>
+          <t>2025-06-11 11:31:11</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>2025-05-13 13:32:15</t>
+          <t>2025-06-11 13:48:18</t>
         </is>
       </c>
       <c r="I67" t="n">
-        <v>12002</v>
+        <v>7541</v>
       </c>
       <c r="J67" t="inlineStr">
         <is>
@@ -5387,11 +5368,11 @@
       </c>
       <c r="Q67" t="inlineStr">
         <is>
-          <t>2025-05-09 00:00:00</t>
+          <t>2025-06-18 00:00:00</t>
         </is>
       </c>
       <c r="R67" s="1" t="n">
-        <v>-4.564073129247685</v>
+        <v>0</v>
       </c>
       <c r="S67" t="n">
         <v>1</v>
@@ -5399,41 +5380,41 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>251466</v>
+        <v>252325</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C68" t="n">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="D68" t="n">
-        <v>91.26229508196721</v>
+        <v>282.8125</v>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>2025-05-13 09:05:04</t>
+          <t>2025-06-11 12:03:17</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>2025-05-13 09:40:04</t>
+          <t>2025-06-11 12:26:17</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>2025-05-13 09:40:04</t>
+          <t>2025-06-11 12:26:17</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>2025-05-13 11:11:20</t>
+          <t>2025-06-12 09:09:06</t>
         </is>
       </c>
       <c r="I68" t="n">
-        <v>5567</v>
+        <v>18100</v>
       </c>
       <c r="J68" t="inlineStr">
         <is>
@@ -5442,11 +5423,11 @@
       </c>
       <c r="K68" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
         </is>
       </c>
       <c r="L68" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="M68" t="n">
         <v>70</v>
@@ -5459,11 +5440,11 @@
       </c>
       <c r="Q68" t="inlineStr">
         <is>
-          <t>2025-05-09 00:00:00</t>
+          <t>2025-06-18 00:00:00</t>
         </is>
       </c>
       <c r="R68" s="1" t="n">
-        <v>-4.466211293263889</v>
+        <v>0</v>
       </c>
       <c r="S68" t="n">
         <v>1</v>
@@ -5471,41 +5452,41 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>251987</v>
+        <v>251680</v>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C69" t="n">
-        <v>36</v>
+        <v>30.5</v>
       </c>
       <c r="D69" t="n">
-        <v>2965.154929577465</v>
+        <v>307.3818181818182</v>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>2025-05-13 09:06:33</t>
+          <t>2025-06-11 13:48:18</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>2025-05-13 09:42:33</t>
+          <t>2025-06-11 14:18:48</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>2025-05-13 09:42:33</t>
+          <t>2025-06-11 14:18:48</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>2025-05-21 11:07:43</t>
+          <t>2025-06-12 11:26:10</t>
         </is>
       </c>
       <c r="I69" t="n">
-        <v>210526</v>
+        <v>16906</v>
       </c>
       <c r="J69" t="inlineStr">
         <is>
@@ -5514,14 +5495,14 @@
       </c>
       <c r="K69" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L69" t="n">
         <v>6</v>
       </c>
       <c r="M69" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="O69" t="n">
         <v>0</v>
@@ -5531,7 +5512,7 @@
       </c>
       <c r="Q69" t="inlineStr">
         <is>
-          <t>2025-09-01 00:00:00</t>
+          <t>2025-06-18 00:00:00</t>
         </is>
       </c>
       <c r="R69" s="1" t="n">
@@ -5543,41 +5524,41 @@
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>251463</v>
+        <v>251681</v>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="C70" t="n">
-        <v>40.5</v>
+        <v>40</v>
       </c>
       <c r="D70" t="n">
-        <v>126.6727272727273</v>
+        <v>56.12676056338028</v>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>2025-05-13 09:31:16</t>
+          <t>2025-06-11 13:54:25</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>2025-05-13 10:11:46</t>
+          <t>2025-06-11 14:34:25</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>2025-05-13 10:11:46</t>
+          <t>2025-06-11 14:34:25</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>2025-05-13 12:18:26</t>
+          <t>2025-06-12 07:30:32</t>
         </is>
       </c>
       <c r="I70" t="n">
-        <v>6967</v>
+        <v>3985</v>
       </c>
       <c r="J70" t="inlineStr">
         <is>
@@ -5590,7 +5571,7 @@
         </is>
       </c>
       <c r="L70" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M70" t="n">
         <v>70</v>
@@ -5603,11 +5584,11 @@
       </c>
       <c r="Q70" t="inlineStr">
         <is>
-          <t>2025-05-09 00:00:00</t>
+          <t>2025-06-18 00:00:00</t>
         </is>
       </c>
       <c r="R70" s="1" t="n">
-        <v>-4.5128093434375</v>
+        <v>0</v>
       </c>
       <c r="S70" t="n">
         <v>1</v>
@@ -5615,7 +5596,7 @@
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>251464</v>
+        <v>251679</v>
       </c>
       <c r="B71" t="inlineStr">
         <is>
@@ -5623,33 +5604,33 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="D71" t="n">
-        <v>100.7464788732394</v>
+        <v>223.3802816901408</v>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>2025-05-13 10:50:07</t>
+          <t>2025-06-12 07:10:56</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>2025-05-13 11:05:07</t>
+          <t>2025-06-12 07:31:56</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>2025-05-13 11:05:07</t>
+          <t>2025-06-12 07:31:56</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>2025-05-13 12:45:52</t>
+          <t>2025-06-12 11:15:19</t>
         </is>
       </c>
       <c r="I71" t="n">
-        <v>7153</v>
+        <v>15860</v>
       </c>
       <c r="J71" t="inlineStr">
         <is>
@@ -5658,11 +5639,11 @@
       </c>
       <c r="K71" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
         </is>
       </c>
       <c r="L71" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M71" t="n">
         <v>70</v>
@@ -5675,11 +5656,11 @@
       </c>
       <c r="Q71" t="inlineStr">
         <is>
-          <t>2025-05-09 00:00:00</t>
+          <t>2025-06-18 00:00:00</t>
         </is>
       </c>
       <c r="R71" s="1" t="n">
-        <v>-4.531856416273149</v>
+        <v>0</v>
       </c>
       <c r="S71" t="n">
         <v>1</v>
@@ -5687,41 +5668,41 @@
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>251465</v>
+        <v>251917</v>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="C72" t="n">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="D72" t="n">
-        <v>102.0655737704918</v>
+        <v>32.26760563380282</v>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>2025-05-13 11:11:20</t>
+          <t>2025-06-12 07:30:32</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>2025-05-13 11:36:20</t>
+          <t>2025-06-12 08:05:32</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>2025-05-13 11:36:20</t>
+          <t>2025-06-12 08:05:32</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>2025-05-13 13:18:24</t>
+          <t>2025-06-12 08:37:49</t>
         </is>
       </c>
       <c r="I72" t="n">
-        <v>6226</v>
+        <v>2291</v>
       </c>
       <c r="J72" t="inlineStr">
         <is>
@@ -5734,7 +5715,7 @@
         </is>
       </c>
       <c r="L72" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="M72" t="n">
         <v>70</v>
@@ -5747,11 +5728,11 @@
       </c>
       <c r="Q72" t="inlineStr">
         <is>
-          <t>2025-05-09 00:00:00</t>
+          <t>2025-06-20 00:00:00</t>
         </is>
       </c>
       <c r="R72" s="1" t="n">
-        <v>-4.554451275046296</v>
+        <v>0</v>
       </c>
       <c r="S72" t="n">
         <v>1</v>
@@ -5759,7 +5740,7 @@
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>251462</v>
+        <v>252293</v>
       </c>
       <c r="B73" t="inlineStr">
         <is>
@@ -5767,33 +5748,33 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>105</v>
+        <v>35</v>
       </c>
       <c r="D73" t="n">
-        <v>87.69014084507042</v>
+        <v>32.26760563380282</v>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>2025-05-13 11:58:50</t>
+          <t>2025-06-12 08:37:49</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>2025-05-13 13:43:50</t>
+          <t>2025-06-12 09:12:49</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>2025-05-13 13:43:50</t>
+          <t>2025-06-12 09:12:49</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>2025-05-14 07:11:32</t>
+          <t>2025-06-12 09:45:05</t>
         </is>
       </c>
       <c r="I73" t="n">
-        <v>6226</v>
+        <v>2291</v>
       </c>
       <c r="J73" t="inlineStr">
         <is>
@@ -5806,7 +5787,7 @@
         </is>
       </c>
       <c r="L73" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="M73" t="n">
         <v>70</v>
@@ -5819,11 +5800,11 @@
       </c>
       <c r="Q73" t="inlineStr">
         <is>
-          <t>2025-05-09 00:00:00</t>
+          <t>2025-06-20 00:00:00</t>
         </is>
       </c>
       <c r="R73" s="1" t="n">
-        <v>-5.299677230046296</v>
+        <v>0</v>
       </c>
       <c r="S73" t="n">
         <v>1</v>
@@ -5831,41 +5812,41 @@
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>251467</v>
+        <v>252326</v>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>R3</t>
         </is>
       </c>
       <c r="C74" t="n">
-        <v>34.5</v>
+        <v>57</v>
       </c>
       <c r="D74" t="n">
-        <v>113.2</v>
+        <v>523.2857142857143</v>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>2025-05-13 12:18:26</t>
+          <t>2025-06-12 09:03:44</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>2025-05-13 12:52:56</t>
+          <t>2025-06-12 10:00:44</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>2025-05-13 12:52:56</t>
+          <t>2025-06-12 10:00:44</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>2025-05-13 14:46:08</t>
+          <t>2025-06-13 10:44:01</t>
         </is>
       </c>
       <c r="I74" t="n">
-        <v>6226</v>
+        <v>25641</v>
       </c>
       <c r="J74" t="inlineStr">
         <is>
@@ -5874,11 +5855,11 @@
       </c>
       <c r="K74" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
         </is>
       </c>
       <c r="L74" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="M74" t="n">
         <v>70</v>
@@ -5891,11 +5872,11 @@
       </c>
       <c r="Q74" t="inlineStr">
         <is>
-          <t>2025-05-09 00:00:00</t>
+          <t>2025-07-05 00:00:00</t>
         </is>
       </c>
       <c r="R74" s="1" t="n">
-        <v>-4.615378787881944</v>
+        <v>0</v>
       </c>
       <c r="S74" t="n">
         <v>1</v>
@@ -5903,41 +5884,41 @@
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>251374</v>
+        <v>251684</v>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C75" t="n">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="D75" t="n">
-        <v>385.112676056338</v>
+        <v>235.671875</v>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>2025-05-13 12:45:52</t>
+          <t>2025-06-12 09:09:06</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>2025-05-13 13:06:52</t>
+          <t>2025-06-12 09:24:06</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>2025-05-13 13:06:52</t>
+          <t>2025-06-12 09:24:06</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>2025-05-14 11:31:59</t>
+          <t>2025-06-12 13:19:46</t>
         </is>
       </c>
       <c r="I75" t="n">
-        <v>27343</v>
+        <v>15083</v>
       </c>
       <c r="J75" t="inlineStr">
         <is>
@@ -5950,7 +5931,7 @@
         </is>
       </c>
       <c r="L75" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="M75" t="n">
         <v>70</v>
@@ -5963,877 +5944,13 @@
       </c>
       <c r="Q75" t="inlineStr">
         <is>
-          <t>2025-05-15 00:00:00</t>
+          <t>2025-07-15 00:00:00</t>
         </is>
       </c>
       <c r="R75" s="1" t="n">
         <v>0</v>
       </c>
       <c r="S75" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" t="n">
-        <v>251580</v>
-      </c>
-      <c r="B76" t="inlineStr">
-        <is>
-          <t>R10</t>
-        </is>
-      </c>
-      <c r="C76" t="n">
-        <v>30</v>
-      </c>
-      <c r="D76" t="n">
-        <v>117.2622950819672</v>
-      </c>
-      <c r="E76" t="inlineStr">
-        <is>
-          <t>2025-05-13 13:18:24</t>
-        </is>
-      </c>
-      <c r="F76" t="inlineStr">
-        <is>
-          <t>2025-05-13 13:48:24</t>
-        </is>
-      </c>
-      <c r="G76" t="inlineStr">
-        <is>
-          <t>2025-05-13 13:48:24</t>
-        </is>
-      </c>
-      <c r="H76" t="inlineStr">
-        <is>
-          <t>2025-05-14 07:45:40</t>
-        </is>
-      </c>
-      <c r="I76" t="n">
-        <v>7153</v>
-      </c>
-      <c r="J76" t="inlineStr">
-        <is>
-          <t>bobina</t>
-        </is>
-      </c>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
-        </is>
-      </c>
-      <c r="L76" t="n">
-        <v>4</v>
-      </c>
-      <c r="M76" t="n">
-        <v>70</v>
-      </c>
-      <c r="O76" t="n">
-        <v>0</v>
-      </c>
-      <c r="P76" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q76" t="inlineStr">
-        <is>
-          <t>2025-05-15 00:00:00</t>
-        </is>
-      </c>
-      <c r="R76" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="S76" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" t="n">
-        <v>251557</v>
-      </c>
-      <c r="B77" t="inlineStr">
-        <is>
-          <t>R3</t>
-        </is>
-      </c>
-      <c r="C77" t="n">
-        <v>55</v>
-      </c>
-      <c r="D77" t="n">
-        <v>136.8367346938776</v>
-      </c>
-      <c r="E77" t="inlineStr">
-        <is>
-          <t>2025-05-13 13:32:15</t>
-        </is>
-      </c>
-      <c r="F77" t="inlineStr">
-        <is>
-          <t>2025-05-13 14:27:15</t>
-        </is>
-      </c>
-      <c r="G77" t="inlineStr">
-        <is>
-          <t>2025-05-13 14:27:15</t>
-        </is>
-      </c>
-      <c r="H77" t="inlineStr">
-        <is>
-          <t>2025-05-14 08:44:06</t>
-        </is>
-      </c>
-      <c r="I77" t="n">
-        <v>6705</v>
-      </c>
-      <c r="J77" t="inlineStr">
-        <is>
-          <t>bobina</t>
-        </is>
-      </c>
-      <c r="K77" t="inlineStr">
-        <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
-        </is>
-      </c>
-      <c r="L77" t="n">
-        <v>2</v>
-      </c>
-      <c r="M77" t="n">
-        <v>70</v>
-      </c>
-      <c r="O77" t="n">
-        <v>0</v>
-      </c>
-      <c r="P77" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q77" t="inlineStr">
-        <is>
-          <t>2025-05-15 00:00:00</t>
-        </is>
-      </c>
-      <c r="R77" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="S77" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" t="n">
-        <v>251520</v>
-      </c>
-      <c r="B78" t="inlineStr">
-        <is>
-          <t>CASON</t>
-        </is>
-      </c>
-      <c r="C78" t="n">
-        <v>40.5</v>
-      </c>
-      <c r="D78" t="n">
-        <v>297.0909090909091</v>
-      </c>
-      <c r="E78" t="inlineStr">
-        <is>
-          <t>2025-05-13 14:46:08</t>
-        </is>
-      </c>
-      <c r="F78" t="inlineStr">
-        <is>
-          <t>2025-05-14 07:26:38</t>
-        </is>
-      </c>
-      <c r="G78" t="inlineStr">
-        <is>
-          <t>2025-05-14 07:26:38</t>
-        </is>
-      </c>
-      <c r="H78" t="inlineStr">
-        <is>
-          <t>2025-05-14 12:23:44</t>
-        </is>
-      </c>
-      <c r="I78" t="n">
-        <v>16340</v>
-      </c>
-      <c r="J78" t="inlineStr">
-        <is>
-          <t>bobina</t>
-        </is>
-      </c>
-      <c r="K78" t="inlineStr">
-        <is>
-          <t>CASON ;R6</t>
-        </is>
-      </c>
-      <c r="L78" t="n">
-        <v>7</v>
-      </c>
-      <c r="M78" t="n">
-        <v>70</v>
-      </c>
-      <c r="O78" t="n">
-        <v>0</v>
-      </c>
-      <c r="P78" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q78" t="inlineStr">
-        <is>
-          <t>2025-05-12 00:00:00</t>
-        </is>
-      </c>
-      <c r="R78" s="1" t="n">
-        <v>-2.516483585856482</v>
-      </c>
-      <c r="S78" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" t="n">
-        <v>251562</v>
-      </c>
-      <c r="B79" t="inlineStr">
-        <is>
-          <t>BIMEC 2</t>
-        </is>
-      </c>
-      <c r="C79" t="n">
-        <v>23</v>
-      </c>
-      <c r="D79" t="n">
-        <v>127.21875</v>
-      </c>
-      <c r="E79" t="inlineStr">
-        <is>
-          <t>2025-05-13 14:54:19</t>
-        </is>
-      </c>
-      <c r="F79" t="inlineStr">
-        <is>
-          <t>2025-05-14 07:17:19</t>
-        </is>
-      </c>
-      <c r="G79" t="inlineStr">
-        <is>
-          <t>2025-05-14 07:17:19</t>
-        </is>
-      </c>
-      <c r="H79" t="inlineStr">
-        <is>
-          <t>2025-05-14 09:24:32</t>
-        </is>
-      </c>
-      <c r="I79" t="n">
-        <v>8142</v>
-      </c>
-      <c r="J79" t="inlineStr">
-        <is>
-          <t>bobina</t>
-        </is>
-      </c>
-      <c r="K79" t="inlineStr">
-        <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
-        </is>
-      </c>
-      <c r="L79" t="n">
-        <v>2</v>
-      </c>
-      <c r="M79" t="n">
-        <v>70</v>
-      </c>
-      <c r="O79" t="n">
-        <v>0</v>
-      </c>
-      <c r="P79" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q79" t="inlineStr">
-        <is>
-          <t>2025-05-15 00:00:00</t>
-        </is>
-      </c>
-      <c r="R79" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="S79" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" t="n">
-        <v>251260</v>
-      </c>
-      <c r="B80" t="inlineStr">
-        <is>
-          <t>R9</t>
-        </is>
-      </c>
-      <c r="C80" t="n">
-        <v>25</v>
-      </c>
-      <c r="D80" t="n">
-        <v>135.7826086956522</v>
-      </c>
-      <c r="E80" t="inlineStr">
-        <is>
-          <t>2025-05-14 07:44:51</t>
-        </is>
-      </c>
-      <c r="F80" t="inlineStr">
-        <is>
-          <t>2025-05-14 08:09:51</t>
-        </is>
-      </c>
-      <c r="G80" t="inlineStr">
-        <is>
-          <t>2025-05-14 08:09:51</t>
-        </is>
-      </c>
-      <c r="H80" t="inlineStr">
-        <is>
-          <t>2025-05-14 10:25:38</t>
-        </is>
-      </c>
-      <c r="I80" t="n">
-        <v>9369</v>
-      </c>
-      <c r="J80" t="inlineStr">
-        <is>
-          <t>bobina</t>
-        </is>
-      </c>
-      <c r="K80" t="inlineStr">
-        <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R9</t>
-        </is>
-      </c>
-      <c r="L80" t="n">
-        <v>6</v>
-      </c>
-      <c r="M80" t="n">
-        <v>70</v>
-      </c>
-      <c r="O80" t="n">
-        <v>0</v>
-      </c>
-      <c r="P80" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q80" t="inlineStr">
-        <is>
-          <t>2025-05-22 00:00:00</t>
-        </is>
-      </c>
-      <c r="R80" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="S80" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" t="n">
-        <v>251062</v>
-      </c>
-      <c r="B81" t="inlineStr">
-        <is>
-          <t>R10</t>
-        </is>
-      </c>
-      <c r="C81" t="n">
-        <v>30</v>
-      </c>
-      <c r="D81" t="n">
-        <v>370.8852459016393</v>
-      </c>
-      <c r="E81" t="inlineStr">
-        <is>
-          <t>2025-05-14 07:45:40</t>
-        </is>
-      </c>
-      <c r="F81" t="inlineStr">
-        <is>
-          <t>2025-05-14 08:15:40</t>
-        </is>
-      </c>
-      <c r="G81" t="inlineStr">
-        <is>
-          <t>2025-05-14 08:15:40</t>
-        </is>
-      </c>
-      <c r="H81" t="inlineStr">
-        <is>
-          <t>2025-05-14 14:26:33</t>
-        </is>
-      </c>
-      <c r="I81" t="n">
-        <v>22624</v>
-      </c>
-      <c r="J81" t="inlineStr">
-        <is>
-          <t>bobina</t>
-        </is>
-      </c>
-      <c r="K81" t="inlineStr">
-        <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
-        </is>
-      </c>
-      <c r="L81" t="n">
-        <v>6</v>
-      </c>
-      <c r="M81" t="n">
-        <v>70</v>
-      </c>
-      <c r="O81" t="n">
-        <v>0</v>
-      </c>
-      <c r="P81" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q81" t="inlineStr">
-        <is>
-          <t>2025-05-23 00:00:00</t>
-        </is>
-      </c>
-      <c r="R81" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="S81" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" t="n">
-        <v>251252</v>
-      </c>
-      <c r="B82" t="inlineStr">
-        <is>
-          <t>R3</t>
-        </is>
-      </c>
-      <c r="C82" t="n">
-        <v>55</v>
-      </c>
-      <c r="D82" t="n">
-        <v>307.8163265306122</v>
-      </c>
-      <c r="E82" t="inlineStr">
-        <is>
-          <t>2025-05-14 08:44:06</t>
-        </is>
-      </c>
-      <c r="F82" t="inlineStr">
-        <is>
-          <t>2025-05-14 09:39:06</t>
-        </is>
-      </c>
-      <c r="G82" t="inlineStr">
-        <is>
-          <t>2025-05-14 09:39:06</t>
-        </is>
-      </c>
-      <c r="H82" t="inlineStr">
-        <is>
-          <t>2025-05-14 14:46:55</t>
-        </is>
-      </c>
-      <c r="I82" t="n">
-        <v>15083</v>
-      </c>
-      <c r="J82" t="inlineStr">
-        <is>
-          <t>bobina</t>
-        </is>
-      </c>
-      <c r="K82" t="inlineStr">
-        <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
-        </is>
-      </c>
-      <c r="L82" t="n">
-        <v>6</v>
-      </c>
-      <c r="M82" t="n">
-        <v>70</v>
-      </c>
-      <c r="O82" t="n">
-        <v>0</v>
-      </c>
-      <c r="P82" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q82" t="inlineStr">
-        <is>
-          <t>2025-05-23 00:00:00</t>
-        </is>
-      </c>
-      <c r="R82" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="S82" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" t="n">
-        <v>251251</v>
-      </c>
-      <c r="B83" t="inlineStr">
-        <is>
-          <t>BIMEC 4</t>
-        </is>
-      </c>
-      <c r="C83" t="n">
-        <v>44</v>
-      </c>
-      <c r="D83" t="n">
-        <v>260</v>
-      </c>
-      <c r="E83" t="inlineStr">
-        <is>
-          <t>2025-05-14 09:20:56</t>
-        </is>
-      </c>
-      <c r="F83" t="inlineStr">
-        <is>
-          <t>2025-05-14 10:04:56</t>
-        </is>
-      </c>
-      <c r="G83" t="inlineStr">
-        <is>
-          <t>2025-05-14 10:04:56</t>
-        </is>
-      </c>
-      <c r="H83" t="inlineStr">
-        <is>
-          <t>2025-05-14 14:24:56</t>
-        </is>
-      </c>
-      <c r="I83" t="n">
-        <v>15860</v>
-      </c>
-      <c r="J83" t="inlineStr">
-        <is>
-          <t>bobina</t>
-        </is>
-      </c>
-      <c r="K83" t="inlineStr">
-        <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
-        </is>
-      </c>
-      <c r="L83" t="n">
-        <v>6</v>
-      </c>
-      <c r="M83" t="n">
-        <v>70</v>
-      </c>
-      <c r="O83" t="n">
-        <v>0</v>
-      </c>
-      <c r="P83" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q83" t="inlineStr">
-        <is>
-          <t>2025-05-23 00:00:00</t>
-        </is>
-      </c>
-      <c r="R83" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="S83" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" t="n">
-        <v>251249</v>
-      </c>
-      <c r="B84" t="inlineStr">
-        <is>
-          <t>BIMEC 2</t>
-        </is>
-      </c>
-      <c r="C84" t="n">
-        <v>23</v>
-      </c>
-      <c r="D84" t="n">
-        <v>74.34375</v>
-      </c>
-      <c r="E84" t="inlineStr">
-        <is>
-          <t>2025-05-14 09:24:32</t>
-        </is>
-      </c>
-      <c r="F84" t="inlineStr">
-        <is>
-          <t>2025-05-14 09:47:32</t>
-        </is>
-      </c>
-      <c r="G84" t="inlineStr">
-        <is>
-          <t>2025-05-14 09:47:32</t>
-        </is>
-      </c>
-      <c r="H84" t="inlineStr">
-        <is>
-          <t>2025-05-14 11:01:53</t>
-        </is>
-      </c>
-      <c r="I84" t="n">
-        <v>4758</v>
-      </c>
-      <c r="J84" t="inlineStr">
-        <is>
-          <t>bobina</t>
-        </is>
-      </c>
-      <c r="K84" t="inlineStr">
-        <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
-        </is>
-      </c>
-      <c r="L84" t="n">
-        <v>6</v>
-      </c>
-      <c r="M84" t="n">
-        <v>70</v>
-      </c>
-      <c r="O84" t="n">
-        <v>0</v>
-      </c>
-      <c r="P84" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q84" t="inlineStr">
-        <is>
-          <t>2025-06-06 00:00:00</t>
-        </is>
-      </c>
-      <c r="R84" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="S84" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" t="n">
-        <v>251795</v>
-      </c>
-      <c r="B85" t="inlineStr">
-        <is>
-          <t>R9</t>
-        </is>
-      </c>
-      <c r="C85" t="n">
-        <v>25</v>
-      </c>
-      <c r="D85" t="n">
-        <v>271.5797101449276</v>
-      </c>
-      <c r="E85" t="inlineStr">
-        <is>
-          <t>2025-05-14 10:25:38</t>
-        </is>
-      </c>
-      <c r="F85" t="inlineStr">
-        <is>
-          <t>2025-05-14 10:50:38</t>
-        </is>
-      </c>
-      <c r="G85" t="inlineStr">
-        <is>
-          <t>2025-05-14 10:50:38</t>
-        </is>
-      </c>
-      <c r="H85" t="inlineStr">
-        <is>
-          <t>2025-05-15 07:22:13</t>
-        </is>
-      </c>
-      <c r="I85" t="n">
-        <v>18739</v>
-      </c>
-      <c r="J85" t="inlineStr">
-        <is>
-          <t>bobina</t>
-        </is>
-      </c>
-      <c r="K85" t="inlineStr">
-        <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R9</t>
-        </is>
-      </c>
-      <c r="L85" t="n">
-        <v>6</v>
-      </c>
-      <c r="M85" t="n">
-        <v>70</v>
-      </c>
-      <c r="O85" t="n">
-        <v>0</v>
-      </c>
-      <c r="P85" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q85" t="inlineStr">
-        <is>
-          <t>2025-06-19 00:00:00</t>
-        </is>
-      </c>
-      <c r="R85" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="S85" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" t="n">
-        <v>245090</v>
-      </c>
-      <c r="B86" t="inlineStr">
-        <is>
-          <t>BIMEC 2</t>
-        </is>
-      </c>
-      <c r="C86" t="n">
-        <v>32</v>
-      </c>
-      <c r="D86" t="n">
-        <v>8073.71875</v>
-      </c>
-      <c r="E86" t="inlineStr">
-        <is>
-          <t>2025-05-14 11:01:53</t>
-        </is>
-      </c>
-      <c r="F86" t="inlineStr">
-        <is>
-          <t>2025-05-14 11:33:53</t>
-        </is>
-      </c>
-      <c r="G86" t="inlineStr">
-        <is>
-          <t>2025-05-14 11:33:53</t>
-        </is>
-      </c>
-      <c r="H86" t="inlineStr">
-        <is>
-          <t>2025-06-06 10:07:36</t>
-        </is>
-      </c>
-      <c r="I86" t="n">
-        <v>516718</v>
-      </c>
-      <c r="J86" t="inlineStr">
-        <is>
-          <t>bobina</t>
-        </is>
-      </c>
-      <c r="K86" t="inlineStr">
-        <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
-        </is>
-      </c>
-      <c r="L86" t="n">
-        <v>5</v>
-      </c>
-      <c r="M86" t="n">
-        <v>76</v>
-      </c>
-      <c r="O86" t="n">
-        <v>0</v>
-      </c>
-      <c r="P86" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q86" t="inlineStr">
-        <is>
-          <t>2025-12-31 00:00:00</t>
-        </is>
-      </c>
-      <c r="R86" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="S86" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" t="n">
-        <v>245089</v>
-      </c>
-      <c r="B87" t="inlineStr">
-        <is>
-          <t>BIMEC 5</t>
-        </is>
-      </c>
-      <c r="C87" t="n">
-        <v>36</v>
-      </c>
-      <c r="D87" t="n">
-        <v>1727.676056338028</v>
-      </c>
-      <c r="E87" t="inlineStr">
-        <is>
-          <t>2025-05-14 11:31:59</t>
-        </is>
-      </c>
-      <c r="F87" t="inlineStr">
-        <is>
-          <t>2025-05-14 12:07:59</t>
-        </is>
-      </c>
-      <c r="G87" t="inlineStr">
-        <is>
-          <t>2025-05-14 12:07:59</t>
-        </is>
-      </c>
-      <c r="H87" t="inlineStr">
-        <is>
-          <t>2025-05-20 08:55:39</t>
-        </is>
-      </c>
-      <c r="I87" t="n">
-        <v>122665</v>
-      </c>
-      <c r="J87" t="inlineStr">
-        <is>
-          <t>bobina</t>
-        </is>
-      </c>
-      <c r="K87" t="inlineStr">
-        <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
-        </is>
-      </c>
-      <c r="L87" t="n">
-        <v>4</v>
-      </c>
-      <c r="M87" t="n">
-        <v>76</v>
-      </c>
-      <c r="O87" t="n">
-        <v>0</v>
-      </c>
-      <c r="P87" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q87" t="inlineStr">
-        <is>
-          <t>2025-12-31 00:00:00</t>
-        </is>
-      </c>
-      <c r="R87" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="S87" t="n">
         <v>1</v>
       </c>
     </row>

--- a/PS-VRP/Dati_output/euristico_post.xlsx
+++ b/PS-VRP/Dati_output/euristico_post.xlsx
@@ -416,7 +416,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S75"/>
+  <dimension ref="A1:S87"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -515,7 +515,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>251565</v>
+        <v>251229</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -523,33 +523,33 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="D2" t="n">
-        <v>205.7213114754098</v>
+        <v>307.1967213114754</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2025-06-04 07:00:00</t>
+          <t>2025-05-08 07:00:00</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2025-06-04 07:20:00</t>
+          <t>2025-05-08 07:40:00</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2025-06-04 07:20:00</t>
+          <t>2025-05-08 07:40:00</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2025-06-04 10:45:43</t>
+          <t>2025-05-08 12:47:11</t>
         </is>
       </c>
       <c r="I2" t="n">
-        <v>12549</v>
+        <v>18739</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
@@ -558,17 +558,19 @@
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R9</t>
         </is>
       </c>
       <c r="L2" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="M2" t="n">
         <v>70</v>
       </c>
-      <c r="N2" t="n">
-        <v>39885</v>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>39723 (esterno)</t>
+        </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
@@ -576,11 +578,11 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>39885</v>
+        <v>39723</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>2025-06-10 00:00:00</t>
+          <t>2025-05-15 00:00:00</t>
         </is>
       </c>
       <c r="R2" s="1" t="n">
@@ -592,41 +594,41 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>252282</v>
+        <v>251164</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>35</v>
+        <v>57</v>
       </c>
       <c r="D3" t="n">
-        <v>44.88524590163934</v>
+        <v>140.8450704225352</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2025-06-04 10:45:43</t>
+          <t>2025-05-09 07:00:00</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2025-06-04 11:20:43</t>
+          <t>2025-05-09 07:57:00</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>2025-06-04 11:20:43</t>
+          <t>2025-05-09 07:57:00</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2025-06-04 12:05:36</t>
+          <t>2025-05-09 10:17:50</t>
         </is>
       </c>
       <c r="I3" t="n">
-        <v>2738</v>
+        <v>10000</v>
       </c>
       <c r="J3" t="inlineStr">
         <is>
@@ -639,13 +641,13 @@
         </is>
       </c>
       <c r="L3" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M3" t="n">
         <v>70</v>
       </c>
       <c r="N3" t="n">
-        <v>39885</v>
+        <v>39749</v>
       </c>
       <c r="O3" t="inlineStr">
         <is>
@@ -653,53 +655,53 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>39885</v>
+        <v>39749</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>2025-06-09 00:00:00</t>
+          <t>2025-04-22 00:00:00</t>
         </is>
       </c>
       <c r="R3" s="1" t="n">
-        <v>0</v>
+        <v>-2.429059076678241</v>
       </c>
       <c r="S3" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>251180</v>
+        <v>251050</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>25</v>
+        <v>195</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2025-06-04 12:05:36</t>
+          <t>2025-05-09 10:17:50</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2025-06-04 12:30:36</t>
+          <t>2025-05-09 13:32:50</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>2025-06-04 12:30:36</t>
+          <t>2025-05-09 13:32:50</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>2025-06-04 12:30:36</t>
+          <t>2025-05-09 13:32:50</t>
         </is>
       </c>
       <c r="I4" t="n">
@@ -712,19 +714,17 @@
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="L4" t="n">
-        <v>4</v>
+        <v>38</v>
       </c>
       <c r="M4" t="n">
         <v>70</v>
       </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>39887 (esterno)</t>
-        </is>
+      <c r="N4" t="n">
+        <v>39747</v>
       </c>
       <c r="O4" t="inlineStr">
         <is>
@@ -732,57 +732,57 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>39887</v>
+        <v>39747</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>2025-05-20 00:00:00</t>
+          <t>2025-04-16 00:00:00</t>
         </is>
       </c>
       <c r="R4" s="1" t="n">
-        <v>-15.52125455373843</v>
+        <v>-1.564475743344907</v>
       </c>
       <c r="S4" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>251984</v>
+        <v>251054</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="D5" t="n">
-        <v>338.327868852459</v>
+        <v>0</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2025-06-04 12:30:36</t>
+          <t>2025-05-09 13:32:50</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2025-06-04 12:55:36</t>
+          <t>2025-05-09 14:07:50</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>2025-06-04 12:55:36</t>
+          <t>2025-05-09 14:07:50</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>2025-06-05 10:33:56</t>
+          <t>2025-05-09 14:07:50</t>
         </is>
       </c>
       <c r="I5" t="n">
-        <v>20638</v>
+        <v>0</v>
       </c>
       <c r="J5" t="inlineStr">
         <is>
@@ -791,17 +791,17 @@
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="L5" t="n">
-        <v>3</v>
+        <v>38</v>
       </c>
       <c r="M5" t="n">
         <v>70</v>
       </c>
       <c r="N5" t="n">
-        <v>39874</v>
+        <v>39747</v>
       </c>
       <c r="O5" t="inlineStr">
         <is>
@@ -809,57 +809,57 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>39874</v>
+        <v>39747</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>2025-06-10 00:00:00</t>
+          <t>2025-04-16 00:00:00</t>
         </is>
       </c>
       <c r="R5" s="1" t="n">
-        <v>-0.4402322404398148</v>
+        <v>-1.588781298900463</v>
       </c>
       <c r="S5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>252084</v>
+        <v>251081</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>25</v>
+        <v>125</v>
       </c>
       <c r="D6" t="n">
-        <v>641</v>
+        <v>42.42253521126761</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2025-06-05 10:33:56</t>
+          <t>2025-05-09 14:07:50</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2025-06-05 10:58:56</t>
+          <t>2025-05-12 08:12:50</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>2025-06-05 10:58:56</t>
+          <t>2025-05-12 08:12:50</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>2025-06-06 13:39:56</t>
+          <t>2025-05-12 08:55:16</t>
         </is>
       </c>
       <c r="I6" t="n">
-        <v>39101</v>
+        <v>3012</v>
       </c>
       <c r="J6" t="inlineStr">
         <is>
@@ -868,17 +868,19 @@
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="L6" t="n">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="M6" t="n">
         <v>70</v>
       </c>
-      <c r="N6" t="n">
-        <v>39885</v>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>39750 (esterno)</t>
+        </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
@@ -886,92 +888,90 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>39885</v>
+        <v>39750</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>2025-06-30 00:00:00</t>
+          <t>2025-04-23 00:00:00</t>
         </is>
       </c>
       <c r="R6" s="1" t="n">
-        <v>-1.569398907106482</v>
+        <v>-19.37171361502315</v>
       </c>
       <c r="S6" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>251082</v>
+        <v>251416</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>T2</t>
+          <t>R3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>229.0204081632653</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>2025-06-05 07:00:00</t>
+          <t>2025-05-08 07:00:00</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2025-06-05 07:00:00</t>
+          <t>2025-05-08 07:35:00</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>2025-06-05 07:00:00</t>
+          <t>2025-05-08 07:35:00</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>2025-06-05 07:00:00</t>
+          <t>2025-05-08 11:24:01</t>
         </is>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>11222</v>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>foglio</t>
+          <t>bobina</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>T1 ;T2 ;T8</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M7" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="N7" t="n">
-        <v>39885</v>
-      </c>
-      <c r="O7" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>39755</v>
+      </c>
+      <c r="O7" t="n">
+        <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>39885</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>2025-05-12 00:00:00</t>
+          <t>2025-04-23 00:00:00</t>
         </is>
       </c>
       <c r="R7" s="1" t="n">
-        <v>-0.2916666666666667</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>2</v>
@@ -979,41 +979,41 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>251219</v>
+        <v>251227</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="D8" t="n">
-        <v>107.5</v>
+        <v>0</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>2025-06-05 12:00:00</t>
+          <t>2025-05-08 12:00:00</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2025-06-05 12:36:00</t>
+          <t>2025-05-08 12:19:00</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>2025-06-05 12:36:00</t>
+          <t>2025-05-08 12:19:00</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>2025-06-05 14:23:30</t>
+          <t>2025-05-08 12:19:00</t>
         </is>
       </c>
       <c r="I8" t="n">
-        <v>6880</v>
+        <v>0</v>
       </c>
       <c r="J8" t="inlineStr">
         <is>
@@ -1026,13 +1026,13 @@
         </is>
       </c>
       <c r="L8" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M8" t="n">
         <v>76</v>
       </c>
       <c r="N8" t="n">
-        <v>39885</v>
+        <v>39746</v>
       </c>
       <c r="O8" t="inlineStr">
         <is>
@@ -1040,15 +1040,15 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>39885</v>
+        <v>39746</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>2025-05-09 00:00:00</t>
+          <t>2025-05-05 00:00:00</t>
         </is>
       </c>
       <c r="R8" s="1" t="n">
-        <v>-0.5996527777777778</v>
+        <v>-2.513194444444444</v>
       </c>
       <c r="S8" t="n">
         <v>1</v>
@@ -1056,41 +1056,41 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>251655</v>
+        <v>251782</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="D9" t="n">
-        <v>1617.211267605634</v>
+        <v>170.0422535211268</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>2025-06-05 07:00:00</t>
+          <t>2025-05-08 07:00:00</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>2025-06-05 07:40:00</t>
+          <t>2025-05-08 07:17:00</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>2025-06-05 07:40:00</t>
+          <t>2025-05-08 07:17:00</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>2025-06-10 10:37:12</t>
+          <t>2025-05-08 10:07:02</t>
         </is>
       </c>
       <c r="I9" t="n">
-        <v>114822</v>
+        <v>12073</v>
       </c>
       <c r="J9" t="inlineStr">
         <is>
@@ -1099,17 +1099,17 @@
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L9" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M9" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="N9" t="n">
-        <v>39885</v>
+        <v>39754</v>
       </c>
       <c r="O9" t="inlineStr">
         <is>
@@ -1117,57 +1117,57 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>39885</v>
+        <v>39754</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>2025-04-15 00:00:00</t>
+          <t>2025-05-16 00:00:00</t>
         </is>
       </c>
       <c r="R9" s="1" t="n">
-        <v>-5.442507824722222</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>251500</v>
+        <v>251371</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>32.5</v>
+        <v>32</v>
       </c>
       <c r="D10" t="n">
-        <v>179.9272727272727</v>
+        <v>0</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>2025-06-05 07:00:00</t>
+          <t>2025-05-08 10:07:02</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>2025-06-05 07:32:30</t>
+          <t>2025-05-08 10:39:02</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>2025-06-05 07:32:30</t>
+          <t>2025-05-08 10:39:02</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>2025-06-05 10:32:25</t>
+          <t>2025-05-08 10:39:02</t>
         </is>
       </c>
       <c r="I10" t="n">
-        <v>9896</v>
+        <v>0</v>
       </c>
       <c r="J10" t="inlineStr">
         <is>
@@ -1176,7 +1176,7 @@
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L10" t="n">
@@ -1185,8 +1185,10 @@
       <c r="M10" t="n">
         <v>70</v>
       </c>
-      <c r="N10" t="n">
-        <v>39885</v>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>39666 (esterno)</t>
+        </is>
       </c>
       <c r="O10" t="inlineStr">
         <is>
@@ -1194,57 +1196,57 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>39885</v>
+        <v>39666</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>2025-05-26 00:00:00</t>
+          <t>2025-04-24 00:00:00</t>
         </is>
       </c>
       <c r="R10" s="1" t="n">
-        <v>-0.4391856060648148</v>
+        <v>-14.44377934271991</v>
       </c>
       <c r="S10" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>251773</v>
+        <v>251456</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>36.5</v>
+        <v>17</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>126.7464788732394</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>2025-06-05 10:32:25</t>
+          <t>2025-05-08 10:39:02</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>2025-06-05 11:08:55</t>
+          <t>2025-05-08 10:56:02</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>2025-06-05 11:08:55</t>
+          <t>2025-05-08 10:56:02</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>2025-06-05 11:08:55</t>
+          <t>2025-05-08 13:02:47</t>
         </is>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>8999</v>
       </c>
       <c r="J11" t="inlineStr">
         <is>
@@ -1253,17 +1255,17 @@
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>CASON ;R6</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L11" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="M11" t="n">
         <v>70</v>
       </c>
       <c r="N11" t="n">
-        <v>39874</v>
+        <v>39746</v>
       </c>
       <c r="O11" t="inlineStr">
         <is>
@@ -1271,15 +1273,15 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>39874</v>
+        <v>39746</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>2025-05-25 00:00:00</t>
+          <t>2025-05-09 00:00:00</t>
         </is>
       </c>
       <c r="R11" s="1" t="n">
-        <v>-0.464532828287037</v>
+        <v>-2.543603286388889</v>
       </c>
       <c r="S11" t="n">
         <v>1</v>
@@ -1287,41 +1289,41 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>251780</v>
+        <v>251840</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>38.5</v>
+        <v>19</v>
       </c>
       <c r="D12" t="n">
-        <v>441.8</v>
+        <v>80.47887323943662</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>2025-06-05 11:08:55</t>
+          <t>2025-05-08 13:02:47</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>2025-06-05 11:47:25</t>
+          <t>2025-05-08 13:21:47</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>2025-06-05 11:47:25</t>
+          <t>2025-05-08 13:21:47</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>2025-06-06 11:09:13</t>
+          <t>2025-05-08 14:42:16</t>
         </is>
       </c>
       <c r="I12" t="n">
-        <v>24299</v>
+        <v>5714</v>
       </c>
       <c r="J12" t="inlineStr">
         <is>
@@ -1334,15 +1336,13 @@
         </is>
       </c>
       <c r="L12" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M12" t="n">
         <v>70</v>
       </c>
-      <c r="N12" t="inlineStr">
-        <is>
-          <t>39887 (esterno)</t>
-        </is>
+      <c r="N12" t="n">
+        <v>39758</v>
       </c>
       <c r="O12" t="inlineStr">
         <is>
@@ -1350,23 +1350,23 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>39887</v>
+        <v>39758</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>2025-06-18 00:00:00</t>
+          <t>2025-05-09 00:00:00</t>
         </is>
       </c>
       <c r="R12" s="1" t="n">
-        <v>0</v>
+        <v>-0.6126858372453704</v>
       </c>
       <c r="S12" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>251218</v>
+        <v>251547</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
@@ -1374,33 +1374,33 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="D13" t="n">
-        <v>96.90140845070422</v>
+        <v>184.9154929577465</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>2025-06-04 12:00:00</t>
+          <t>2025-05-08 14:42:16</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>2025-06-04 12:23:00</t>
+          <t>2025-05-08 14:59:16</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>2025-06-04 12:23:00</t>
+          <t>2025-05-08 14:59:16</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>2025-06-04 13:59:54</t>
+          <t>2025-05-09 10:04:10</t>
         </is>
       </c>
       <c r="I13" t="n">
-        <v>6880</v>
+        <v>13129</v>
       </c>
       <c r="J13" t="inlineStr">
         <is>
@@ -1409,17 +1409,17 @@
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L13" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M13" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="N13" t="n">
-        <v>39885</v>
+        <v>39749</v>
       </c>
       <c r="O13" t="inlineStr">
         <is>
@@ -1427,23 +1427,23 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>39885</v>
+        <v>39749</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>2025-05-09 00:00:00</t>
+          <t>2025-05-06 00:00:00</t>
         </is>
       </c>
       <c r="R13" s="1" t="n">
-        <v>0</v>
+        <v>-2.419571596238426</v>
       </c>
       <c r="S13" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>251362</v>
+        <v>250759</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
@@ -1451,33 +1451,33 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="D14" t="n">
-        <v>35.28169014084507</v>
+        <v>118.2816901408451</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>2025-06-04 13:59:54</t>
+          <t>2025-05-09 10:04:10</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>2025-06-04 14:20:54</t>
+          <t>2025-05-09 10:34:10</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>2025-06-04 14:20:54</t>
+          <t>2025-05-09 10:34:10</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>2025-06-04 14:56:10</t>
+          <t>2025-05-09 12:32:27</t>
         </is>
       </c>
       <c r="I14" t="n">
-        <v>2505</v>
+        <v>8398</v>
       </c>
       <c r="J14" t="inlineStr">
         <is>
@@ -1486,17 +1486,17 @@
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12</t>
         </is>
       </c>
       <c r="L14" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M14" t="n">
         <v>76</v>
       </c>
       <c r="N14" t="n">
-        <v>39874</v>
+        <v>39747</v>
       </c>
       <c r="O14" t="inlineStr">
         <is>
@@ -1504,23 +1504,23 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>39874</v>
+        <v>39747</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>2025-04-24 00:00:00</t>
+          <t>2025-03-13 00:00:00</t>
         </is>
       </c>
       <c r="R14" s="1" t="n">
-        <v>0</v>
+        <v>-1.522544992175926</v>
       </c>
       <c r="S14" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>251070</v>
+        <v>250894</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
@@ -1528,33 +1528,33 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>36</v>
+        <v>17</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>623.4084507042254</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>2025-06-04 14:56:10</t>
+          <t>2025-05-09 12:32:27</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>2025-06-05 07:32:10</t>
+          <t>2025-05-09 12:49:27</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>2025-06-05 07:32:10</t>
+          <t>2025-05-09 12:49:27</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>2025-06-05 07:32:10</t>
+          <t>2025-05-13 07:12:52</t>
         </is>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>44262</v>
       </c>
       <c r="J15" t="inlineStr">
         <is>
@@ -1563,75 +1563,73 @@
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L15" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="M15" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="N15" t="n">
-        <v>39885</v>
-      </c>
-      <c r="O15" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>39755</v>
+      </c>
+      <c r="O15" t="n">
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>39885</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>2025-03-28 00:00:00</t>
+          <t>2025-05-05 00:00:00</t>
         </is>
       </c>
       <c r="R15" s="1" t="n">
-        <v>-0.3140160406828704</v>
+        <v>-0.3006064162731482</v>
       </c>
       <c r="S15" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>251895</v>
+        <v>251651</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>BIMEC 4</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="D16" t="n">
-        <v>249.2112676056338</v>
+        <v>767.7049180327868</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>2025-06-05 07:32:10</t>
+          <t>2025-05-09 07:00:00</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>2025-06-05 07:55:10</t>
+          <t>2025-05-09 07:29:00</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>2025-06-05 07:55:10</t>
+          <t>2025-05-09 07:29:00</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>2025-06-05 12:04:23</t>
+          <t>2025-05-12 12:16:42</t>
         </is>
       </c>
       <c r="I16" t="n">
-        <v>17694</v>
+        <v>46830</v>
       </c>
       <c r="J16" t="inlineStr">
         <is>
@@ -1640,35 +1638,31 @@
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L16" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="M16" t="n">
-        <v>70</v>
-      </c>
-      <c r="N16" t="inlineStr">
-        <is>
-          <t>39891 (esterno)</t>
-        </is>
-      </c>
-      <c r="O16" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>76</v>
+      </c>
+      <c r="N16" t="n">
+        <v>39755</v>
+      </c>
+      <c r="O16" t="n">
+        <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>39891</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>2025-05-26 00:00:00</t>
+          <t>2025-05-12 00:00:00</t>
         </is>
       </c>
       <c r="R16" s="1" t="n">
-        <v>-10.50305164319444</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>4</v>
@@ -1676,41 +1670,41 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>251752</v>
+        <v>251284</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>44</v>
+        <v>40.5</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>297.0909090909091</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>2025-06-05 12:04:23</t>
+          <t>2025-05-09 07:00:00</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>2025-06-05 12:48:23</t>
+          <t>2025-05-09 07:40:30</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>2025-06-05 12:48:23</t>
+          <t>2025-05-09 07:40:30</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>2025-06-05 12:48:23</t>
+          <t>2025-05-09 12:37:35</t>
         </is>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>16340</v>
       </c>
       <c r="J17" t="inlineStr">
         <is>
@@ -1719,17 +1713,17 @@
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R6 ;R9</t>
+          <t>CASON ;R6</t>
         </is>
       </c>
       <c r="L17" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="M17" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="N17" t="n">
-        <v>39846</v>
+        <v>39747</v>
       </c>
       <c r="O17" t="inlineStr">
         <is>
@@ -1737,15 +1731,15 @@
         </is>
       </c>
       <c r="P17" t="n">
-        <v>39846</v>
+        <v>39747</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>2025-05-20 00:00:00</t>
+          <t>2025-05-12 00:00:00</t>
         </is>
       </c>
       <c r="R17" s="1" t="n">
-        <v>-1.53360719875</v>
+        <v>-1.526104797974537</v>
       </c>
       <c r="S17" t="n">
         <v>1</v>
@@ -1753,41 +1747,41 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>251897</v>
+        <v>251742</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>54</v>
+        <v>19</v>
       </c>
       <c r="D18" t="n">
-        <v>305.0327868852459</v>
+        <v>128.53125</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>2025-06-05 07:00:00</t>
+          <t>2025-05-07 07:00:00</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>2025-06-05 07:54:00</t>
+          <t>2025-05-07 07:19:00</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>2025-06-05 07:54:00</t>
+          <t>2025-05-07 07:19:00</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>2025-06-05 12:59:01</t>
+          <t>2025-05-07 09:27:31</t>
         </is>
       </c>
       <c r="I18" t="n">
-        <v>18607</v>
+        <v>8226</v>
       </c>
       <c r="J18" t="inlineStr">
         <is>
@@ -1796,19 +1790,17 @@
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L18" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="M18" t="n">
         <v>70</v>
       </c>
-      <c r="N18" t="inlineStr">
-        <is>
-          <t>39891 (esterno)</t>
-        </is>
+      <c r="N18" t="n">
+        <v>39749</v>
       </c>
       <c r="O18" t="inlineStr">
         <is>
@@ -1816,57 +1808,57 @@
         </is>
       </c>
       <c r="P18" t="n">
-        <v>39891</v>
+        <v>39749</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>2025-05-26 00:00:00</t>
+          <t>2025-05-15 00:00:00</t>
         </is>
       </c>
       <c r="R18" s="1" t="n">
-        <v>-10.54099499089121</v>
+        <v>-0.3941189236111111</v>
       </c>
       <c r="S18" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>251573</v>
+        <v>251455</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>R9</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="D19" t="n">
-        <v>89.89855072463769</v>
+        <v>82.765625</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>2025-06-06 07:00:00</t>
+          <t>2025-05-07 09:27:31</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>2025-06-06 07:35:00</t>
+          <t>2025-05-07 09:42:31</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>2025-06-06 07:35:00</t>
+          <t>2025-05-07 09:42:31</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>2025-06-06 09:04:53</t>
+          <t>2025-05-07 11:05:17</t>
         </is>
       </c>
       <c r="I19" t="n">
-        <v>6203</v>
+        <v>5297</v>
       </c>
       <c r="J19" t="inlineStr">
         <is>
@@ -1875,17 +1867,17 @@
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L19" t="n">
         <v>4</v>
       </c>
       <c r="M19" t="n">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="N19" t="n">
-        <v>39885</v>
+        <v>39749</v>
       </c>
       <c r="O19" t="inlineStr">
         <is>
@@ -1893,57 +1885,57 @@
         </is>
       </c>
       <c r="P19" t="n">
-        <v>39885</v>
+        <v>39749</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>2025-05-26 00:00:00</t>
+          <t>2025-04-15 00:00:00</t>
         </is>
       </c>
       <c r="R19" s="1" t="n">
-        <v>-1.378401771331018</v>
+        <v>-0.46201171875</v>
       </c>
       <c r="S19" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>252112</v>
+        <v>251391</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>R3</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="D20" t="n">
-        <v>254.1428571428571</v>
+        <v>91.640625</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>2025-06-04 07:00:00</t>
+          <t>2025-05-07 11:05:17</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>2025-06-04 07:40:00</t>
+          <t>2025-05-07 11:22:17</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>2025-06-04 07:40:00</t>
+          <t>2025-05-07 11:22:17</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>2025-06-04 11:54:08</t>
+          <t>2025-05-07 12:53:56</t>
         </is>
       </c>
       <c r="I20" t="n">
-        <v>12453</v>
+        <v>5865</v>
       </c>
       <c r="J20" t="inlineStr">
         <is>
@@ -1956,13 +1948,13 @@
         </is>
       </c>
       <c r="L20" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="M20" t="n">
         <v>70</v>
       </c>
       <c r="N20" t="n">
-        <v>39885</v>
+        <v>39749</v>
       </c>
       <c r="O20" t="inlineStr">
         <is>
@@ -1970,57 +1962,57 @@
         </is>
       </c>
       <c r="P20" t="n">
-        <v>39885</v>
+        <v>39749</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>2025-06-06 00:00:00</t>
+          <t>2025-04-23 00:00:00</t>
         </is>
       </c>
       <c r="R20" s="1" t="n">
-        <v>0</v>
+        <v>-0.5374565972222223</v>
       </c>
       <c r="S20" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>251631</v>
+        <v>251395</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C21" t="n">
         <v>17</v>
       </c>
       <c r="D21" t="n">
-        <v>146.056338028169</v>
+        <v>35.34375</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>2025-06-05 07:00:00</t>
+          <t>2025-05-07 12:53:56</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>2025-06-05 07:17:00</t>
+          <t>2025-05-07 13:10:56</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>2025-06-05 07:17:00</t>
+          <t>2025-05-07 13:10:56</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>2025-06-05 09:43:03</t>
+          <t>2025-05-07 13:46:16</t>
         </is>
       </c>
       <c r="I21" t="n">
-        <v>10370</v>
+        <v>2262</v>
       </c>
       <c r="J21" t="inlineStr">
         <is>
@@ -2029,17 +2021,17 @@
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L21" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="M21" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="N21" t="n">
-        <v>39885</v>
+        <v>39749</v>
       </c>
       <c r="O21" t="inlineStr">
         <is>
@@ -2047,57 +2039,57 @@
         </is>
       </c>
       <c r="P21" t="n">
-        <v>39885</v>
+        <v>39749</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>2025-05-09 00:00:00</t>
+          <t>2025-04-23 00:00:00</t>
         </is>
       </c>
       <c r="R21" s="1" t="n">
-        <v>-0.4049002347453703</v>
+        <v>-0.5738064236111111</v>
       </c>
       <c r="S21" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>251237</v>
+        <v>251396</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>36</v>
+        <v>15</v>
       </c>
       <c r="D22" t="n">
-        <v>565.3521126760563</v>
+        <v>35.34375</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>2025-06-05 09:43:03</t>
+          <t>2025-05-07 13:46:16</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>2025-06-05 10:19:03</t>
+          <t>2025-05-07 14:01:16</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>2025-06-05 10:19:03</t>
+          <t>2025-05-07 14:01:16</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>2025-06-06 11:44:24</t>
+          <t>2025-05-07 14:36:37</t>
         </is>
       </c>
       <c r="I22" t="n">
-        <v>40140</v>
+        <v>2262</v>
       </c>
       <c r="J22" t="inlineStr">
         <is>
@@ -2106,17 +2098,17 @@
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L22" t="n">
         <v>6</v>
       </c>
       <c r="M22" t="n">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="N22" t="n">
-        <v>39885</v>
+        <v>39749</v>
       </c>
       <c r="O22" t="inlineStr">
         <is>
@@ -2124,57 +2116,57 @@
         </is>
       </c>
       <c r="P22" t="n">
-        <v>39885</v>
+        <v>39749</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>2025-05-05 00:00:00</t>
+          <t>2025-05-02 00:00:00</t>
         </is>
       </c>
       <c r="R22" s="1" t="n">
-        <v>-1.489172535208333</v>
+        <v>-0.6087673611111111</v>
       </c>
       <c r="S22" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>251762</v>
+        <v>251548</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>R3</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="D23" t="n">
-        <v>106.2857142857143</v>
+        <v>206.90625</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>2025-06-04 11:54:08</t>
+          <t>2025-05-07 14:36:37</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>2025-06-04 12:34:08</t>
+          <t>2025-05-07 14:55:37</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>2025-06-04 12:34:08</t>
+          <t>2025-05-07 14:55:37</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>2025-06-04 14:20:25</t>
+          <t>2025-05-08 10:22:31</t>
         </is>
       </c>
       <c r="I23" t="n">
-        <v>5208</v>
+        <v>13242</v>
       </c>
       <c r="J23" t="inlineStr">
         <is>
@@ -2187,24 +2179,29 @@
         </is>
       </c>
       <c r="L23" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M23" t="n">
         <v>70</v>
       </c>
-      <c r="O23" t="n">
-        <v>0</v>
+      <c r="N23" t="n">
+        <v>39749</v>
+      </c>
+      <c r="O23" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>39749</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>2025-05-21 00:00:00</t>
+          <t>2025-05-06 00:00:00</t>
         </is>
       </c>
       <c r="R23" s="1" t="n">
-        <v>-14.59751984127315</v>
+        <v>-1.432313368055556</v>
       </c>
       <c r="S23" t="n">
         <v>7</v>
@@ -2212,41 +2209,41 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>251911</v>
+        <v>251225</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>R3</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="D24" t="n">
-        <v>191.3265306122449</v>
+        <v>0</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>2025-06-04 14:20:25</t>
+          <t>2025-05-08 10:22:31</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>2025-06-05 07:00:25</t>
+          <t>2025-05-08 10:52:31</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>2025-06-05 07:00:25</t>
+          <t>2025-05-08 10:52:31</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>2025-06-05 10:11:45</t>
+          <t>2025-05-08 10:52:31</t>
         </is>
       </c>
       <c r="I24" t="n">
-        <v>9375</v>
+        <v>0</v>
       </c>
       <c r="J24" t="inlineStr">
         <is>
@@ -2255,100 +2252,110 @@
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L24" t="n">
         <v>4</v>
       </c>
       <c r="M24" t="n">
-        <v>70</v>
-      </c>
-      <c r="O24" t="n">
-        <v>0</v>
+        <v>76</v>
+      </c>
+      <c r="N24" t="n">
+        <v>39747</v>
+      </c>
+      <c r="O24" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>39747</v>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>2025-05-28 00:00:00</t>
+          <t>2025-04-30 00:00:00</t>
         </is>
       </c>
       <c r="R24" s="1" t="n">
-        <v>-8.424829931967592</v>
+        <v>-0.4531467013888889</v>
       </c>
       <c r="S24" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>252375</v>
+        <v>250923</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>T8</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="D25" t="n">
-        <v>99.2063492063492</v>
+        <v>109.46875</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>2025-06-05 07:00:00</t>
+          <t>2025-05-08 10:52:31</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>2025-06-05 07:00:00</t>
+          <t>2025-05-08 11:09:31</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>2025-06-05 07:00:00</t>
+          <t>2025-05-08 11:09:31</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>2025-06-05 08:39:12</t>
+          <t>2025-05-08 12:59:00</t>
         </is>
       </c>
       <c r="I25" t="n">
-        <v>6250</v>
+        <v>7006</v>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>foglio</t>
+          <t>bobina</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>T1 ;T2 ;T8</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L25" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="M25" t="n">
-        <v>0</v>
-      </c>
-      <c r="O25" t="n">
-        <v>0</v>
+        <v>76</v>
+      </c>
+      <c r="N25" t="n">
+        <v>39749</v>
+      </c>
+      <c r="O25" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P25" t="n">
-        <v>0</v>
+        <v>39749</v>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>2025-07-04 00:00:00</t>
+          <t>2025-04-07 00:00:00</t>
         </is>
       </c>
       <c r="R25" s="1" t="n">
-        <v>0</v>
+        <v>-1.540972222222222</v>
       </c>
       <c r="S25" t="n">
         <v>2</v>
@@ -2356,41 +2363,41 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>251910</v>
+        <v>251477</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>R3</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="D26" t="n">
-        <v>270.2448979591837</v>
+        <v>468.734375</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>2025-06-05 10:11:45</t>
+          <t>2025-05-08 12:59:00</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>2025-06-05 10:46:45</t>
+          <t>2025-05-08 13:18:00</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>2025-06-05 10:46:45</t>
+          <t>2025-05-08 13:18:00</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>2025-06-06 07:17:00</t>
+          <t>2025-05-09 13:06:44</t>
         </is>
       </c>
       <c r="I26" t="n">
-        <v>13242</v>
+        <v>29999</v>
       </c>
       <c r="J26" t="inlineStr">
         <is>
@@ -2399,100 +2406,112 @@
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L26" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M26" t="n">
-        <v>70</v>
-      </c>
-      <c r="O26" t="n">
-        <v>0</v>
+        <v>76</v>
+      </c>
+      <c r="N26" t="n">
+        <v>39760</v>
+      </c>
+      <c r="O26" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>39760</v>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
-          <t>2025-05-28 00:00:00</t>
+          <t>2025-04-28 00:00:00</t>
         </is>
       </c>
       <c r="R26" s="1" t="n">
-        <v>-9.303472222222222</v>
+        <v>-2.546343315972222</v>
       </c>
       <c r="S26" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>251741</v>
+        <v>251706</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>T3</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>76.54929577464789</v>
+        <v>50.79365079365079</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>2025-06-05 12:48:23</t>
+          <t>2025-05-12 07:00:00</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>2025-06-05 13:20:23</t>
+          <t>2025-05-12 07:00:00</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>2025-06-05 13:20:23</t>
+          <t>2025-05-12 07:00:00</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>2025-06-05 14:36:56</t>
+          <t>2025-05-12 07:50:47</t>
         </is>
       </c>
       <c r="I27" t="n">
-        <v>5435</v>
+        <v>3200</v>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>bobina</t>
+          <t>foglio</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>T3</t>
         </is>
       </c>
       <c r="L27" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>70</v>
-      </c>
-      <c r="O27" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="N27" t="inlineStr">
+        <is>
+          <t>39764 (esterno)</t>
+        </is>
+      </c>
+      <c r="O27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>39764</v>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
-          <t>2025-05-28 00:00:00</t>
+          <t>2025-05-14 00:00:00</t>
         </is>
       </c>
       <c r="R27" s="1" t="n">
-        <v>-8.608988654143518</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>7</v>
@@ -2500,41 +2519,41 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>251879</v>
+        <v>251340</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>39</v>
+        <v>17</v>
       </c>
       <c r="D28" t="n">
-        <v>98.47540983606558</v>
+        <v>461.9718309859155</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>2025-06-05 12:59:01</t>
+          <t>2025-05-09 07:41:02</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>2025-06-05 13:38:01</t>
+          <t>2025-05-09 07:58:02</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>2025-06-05 13:38:01</t>
+          <t>2025-05-09 07:58:02</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>2025-06-06 07:16:30</t>
+          <t>2025-05-12 07:40:00</t>
         </is>
       </c>
       <c r="I28" t="n">
-        <v>6007</v>
+        <v>32800</v>
       </c>
       <c r="J28" t="inlineStr">
         <is>
@@ -2543,14 +2562,14 @@
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L28" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M28" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="O28" t="n">
         <v>0</v>
@@ -2560,53 +2579,53 @@
       </c>
       <c r="Q28" t="inlineStr">
         <is>
-          <t>2025-05-30 00:00:00</t>
+          <t>2025-04-28 00:00:00</t>
         </is>
       </c>
       <c r="R28" s="1" t="n">
-        <v>-7.303130692164352</v>
+        <v>-14.31945422534722</v>
       </c>
       <c r="S28" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>251943</v>
+        <v>251561</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="D29" t="n">
-        <v>92.234375</v>
+        <v>89.09836065573771</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>2025-06-05 14:23:30</t>
+          <t>2025-05-09 09:15:43</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>2025-06-05 14:57:30</t>
+          <t>2025-05-09 09:40:43</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>2025-06-05 14:57:30</t>
+          <t>2025-05-09 09:40:43</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>2025-06-06 08:29:44</t>
+          <t>2025-05-09 11:09:49</t>
         </is>
       </c>
       <c r="I29" t="n">
-        <v>5903</v>
+        <v>5435</v>
       </c>
       <c r="J29" t="inlineStr">
         <is>
@@ -2619,7 +2638,7 @@
         </is>
       </c>
       <c r="L29" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M29" t="n">
         <v>70</v>
@@ -2632,53 +2651,53 @@
       </c>
       <c r="Q29" t="inlineStr">
         <is>
-          <t>2025-05-30 00:00:00</t>
+          <t>2025-05-07 00:00:00</t>
         </is>
       </c>
       <c r="R29" s="1" t="n">
-        <v>-7.353982204861111</v>
+        <v>-2.465152550092593</v>
       </c>
       <c r="S29" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>251978</v>
+        <v>251564</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="D30" t="n">
-        <v>440.1408450704225</v>
+        <v>42.453125</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>2025-06-05 14:36:56</t>
+          <t>2025-05-09 10:51:12</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>2025-06-05 14:53:56</t>
+          <t>2025-05-09 11:21:12</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>2025-06-05 14:53:56</t>
+          <t>2025-05-09 11:21:12</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>2025-06-06 14:14:05</t>
+          <t>2025-05-09 12:03:39</t>
         </is>
       </c>
       <c r="I30" t="n">
-        <v>31250</v>
+        <v>2717</v>
       </c>
       <c r="J30" t="inlineStr">
         <is>
@@ -2704,53 +2723,53 @@
       </c>
       <c r="Q30" t="inlineStr">
         <is>
-          <t>2025-06-03 00:00:00</t>
+          <t>2025-05-07 00:00:00</t>
         </is>
       </c>
       <c r="R30" s="1" t="n">
-        <v>-3.593114241006945</v>
+        <v>-2.5025390625</v>
       </c>
       <c r="S30" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>251445</v>
+        <v>251566</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C31" t="n">
         <v>25</v>
       </c>
       <c r="D31" t="n">
-        <v>445.4754098360656</v>
+        <v>112.9344262295082</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>2025-06-06 07:16:30</t>
+          <t>2025-05-09 11:09:49</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>2025-06-06 07:41:30</t>
+          <t>2025-05-09 11:34:49</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>2025-06-06 07:41:30</t>
+          <t>2025-05-09 11:34:49</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>2025-06-09 07:06:59</t>
+          <t>2025-05-09 13:27:45</t>
         </is>
       </c>
       <c r="I31" t="n">
-        <v>27174</v>
+        <v>6889</v>
       </c>
       <c r="J31" t="inlineStr">
         <is>
@@ -2763,7 +2782,7 @@
         </is>
       </c>
       <c r="L31" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M31" t="n">
         <v>70</v>
@@ -2776,19 +2795,19 @@
       </c>
       <c r="Q31" t="inlineStr">
         <is>
-          <t>2025-06-04 00:00:00</t>
+          <t>2025-05-07 00:00:00</t>
         </is>
       </c>
       <c r="R31" s="1" t="n">
-        <v>-5.2965163934375</v>
+        <v>-2.560940346087963</v>
       </c>
       <c r="S31" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>251992</v>
+        <v>251626</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
@@ -2796,33 +2815,33 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="D32" t="n">
-        <v>92.34693877551021</v>
+        <v>255.1020408163265</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>2025-06-06 07:17:00</t>
+          <t>2025-05-09 11:41:45</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>2025-06-06 08:02:00</t>
+          <t>2025-05-09 12:21:45</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>2025-06-06 08:02:00</t>
+          <t>2025-05-09 12:21:45</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>2025-06-06 09:34:20</t>
+          <t>2025-05-12 08:36:51</t>
         </is>
       </c>
       <c r="I32" t="n">
-        <v>4525</v>
+        <v>12500</v>
       </c>
       <c r="J32" t="inlineStr">
         <is>
@@ -2835,7 +2854,7 @@
         </is>
       </c>
       <c r="L32" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="M32" t="n">
         <v>70</v>
@@ -2848,11 +2867,11 @@
       </c>
       <c r="Q32" t="inlineStr">
         <is>
-          <t>2025-06-04 00:00:00</t>
+          <t>2025-04-30 00:00:00</t>
         </is>
       </c>
       <c r="R32" s="1" t="n">
-        <v>-2.39885204082176</v>
+        <v>-12.35892857142361</v>
       </c>
       <c r="S32" t="n">
         <v>7</v>
@@ -2860,7 +2879,7 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>251390</v>
+        <v>251546</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
@@ -2868,33 +2887,33 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D33" t="n">
-        <v>33.671875</v>
+        <v>101.03125</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>2025-06-06 08:29:44</t>
+          <t>2025-05-09 12:03:39</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>2025-06-06 08:44:44</t>
+          <t>2025-05-09 12:22:39</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>2025-06-06 08:44:44</t>
+          <t>2025-05-09 12:22:39</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>2025-06-06 09:18:24</t>
+          <t>2025-05-09 14:03:41</t>
         </is>
       </c>
       <c r="I33" t="n">
-        <v>2155</v>
+        <v>6466</v>
       </c>
       <c r="J33" t="inlineStr">
         <is>
@@ -2907,7 +2926,7 @@
         </is>
       </c>
       <c r="L33" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M33" t="n">
         <v>70</v>
@@ -2920,11 +2939,11 @@
       </c>
       <c r="Q33" t="inlineStr">
         <is>
-          <t>2025-06-09 00:00:00</t>
+          <t>2025-04-30 00:00:00</t>
         </is>
       </c>
       <c r="R33" s="1" t="n">
-        <v>0</v>
+        <v>-9.585894097222223</v>
       </c>
       <c r="S33" t="n">
         <v>7</v>
@@ -2932,41 +2951,41 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>251519</v>
+        <v>251505</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>R9</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>40</v>
+        <v>34.5</v>
       </c>
       <c r="D34" t="n">
-        <v>190.9420289855072</v>
+        <v>259.1818181818182</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>2025-06-06 09:04:53</t>
+          <t>2025-05-09 12:37:35</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>2025-06-06 09:44:53</t>
+          <t>2025-05-09 13:12:05</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>2025-06-06 09:44:53</t>
+          <t>2025-05-09 13:12:05</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>2025-06-06 12:55:50</t>
+          <t>2025-05-12 09:31:16</t>
         </is>
       </c>
       <c r="I34" t="n">
-        <v>13175</v>
+        <v>14255</v>
       </c>
       <c r="J34" t="inlineStr">
         <is>
@@ -2979,7 +2998,7 @@
         </is>
       </c>
       <c r="L34" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="M34" t="n">
         <v>70</v>
@@ -2992,11 +3011,11 @@
       </c>
       <c r="Q34" t="inlineStr">
         <is>
-          <t>2025-06-10 00:00:00</t>
+          <t>2025-05-05 00:00:00</t>
         </is>
       </c>
       <c r="R34" s="1" t="n">
-        <v>0</v>
+        <v>-7.396717171712963</v>
       </c>
       <c r="S34" t="n">
         <v>7</v>
@@ -3004,41 +3023,41 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>252156</v>
+        <v>251846</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="D35" t="n">
-        <v>802.65625</v>
+        <v>186.7540983606557</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>2025-06-06 09:18:24</t>
+          <t>2025-05-09 13:27:45</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>2025-06-06 09:35:24</t>
+          <t>2025-05-09 13:57:45</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>2025-06-06 09:35:24</t>
+          <t>2025-05-09 13:57:45</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>2025-06-09 14:58:03</t>
+          <t>2025-05-12 09:04:30</t>
         </is>
       </c>
       <c r="I35" t="n">
-        <v>51370</v>
+        <v>11392</v>
       </c>
       <c r="J35" t="inlineStr">
         <is>
@@ -3051,7 +3070,7 @@
         </is>
       </c>
       <c r="L35" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="M35" t="n">
         <v>70</v>
@@ -3064,7 +3083,7 @@
       </c>
       <c r="Q35" t="inlineStr">
         <is>
-          <t>2025-06-12 00:00:00</t>
+          <t>2025-05-30 00:00:00</t>
         </is>
       </c>
       <c r="R35" s="1" t="n">
@@ -3076,41 +3095,41 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>252395</v>
+        <v>251519</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>R3</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>57</v>
+        <v>125</v>
       </c>
       <c r="D36" t="n">
-        <v>1832.387755102041</v>
+        <v>185.5633802816901</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>2025-06-06 09:34:20</t>
+          <t>2025-05-09 13:59:25</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>2025-06-06 10:31:20</t>
+          <t>2025-05-12 08:04:25</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>2025-06-06 10:31:20</t>
+          <t>2025-05-12 08:04:25</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>2025-06-12 09:03:44</t>
+          <t>2025-05-12 11:09:59</t>
         </is>
       </c>
       <c r="I36" t="n">
-        <v>89787</v>
+        <v>13175</v>
       </c>
       <c r="J36" t="inlineStr">
         <is>
@@ -3119,14 +3138,14 @@
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L36" t="n">
         <v>2</v>
       </c>
       <c r="M36" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
@@ -3136,7 +3155,7 @@
       </c>
       <c r="Q36" t="inlineStr">
         <is>
-          <t>2025-08-04 00:00:00</t>
+          <t>2025-06-10 00:00:00</t>
         </is>
       </c>
       <c r="R36" s="1" t="n">
@@ -3148,41 +3167,41 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>251979</v>
+        <v>245275</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>32.5</v>
+        <v>33</v>
       </c>
       <c r="D37" t="n">
-        <v>374.1090909090909</v>
+        <v>379.59375</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>2025-06-06 11:09:13</t>
+          <t>2025-05-09 14:03:41</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>2025-06-06 11:41:43</t>
+          <t>2025-05-09 14:36:41</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>2025-06-06 11:41:43</t>
+          <t>2025-05-09 14:36:41</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>2025-06-09 09:55:50</t>
+          <t>2025-05-12 12:56:16</t>
         </is>
       </c>
       <c r="I37" t="n">
-        <v>20576</v>
+        <v>24294</v>
       </c>
       <c r="J37" t="inlineStr">
         <is>
@@ -3191,11 +3210,11 @@
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>CASON ;R6</t>
+          <t>BIMEC 2 ;CASON ;R6</t>
         </is>
       </c>
       <c r="L37" t="n">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="M37" t="n">
         <v>70</v>
@@ -3208,11 +3227,11 @@
       </c>
       <c r="Q37" t="inlineStr">
         <is>
-          <t>2025-06-05 00:00:00</t>
+          <t>2025-12-31 00:00:00</t>
         </is>
       </c>
       <c r="R37" s="1" t="n">
-        <v>-4.413775252523148</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>7</v>
@@ -3220,41 +3239,41 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>252235</v>
+        <v>245350</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>R9</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>34</v>
+        <v>65</v>
       </c>
       <c r="D38" t="n">
-        <v>341.6619718309859</v>
+        <v>405.3623188405797</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>2025-06-06 11:44:24</t>
+          <t>2025-05-12 07:00:00</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>2025-06-06 12:18:24</t>
+          <t>2025-05-12 08:05:00</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>2025-06-06 12:18:24</t>
+          <t>2025-05-12 08:05:00</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>2025-06-09 10:00:04</t>
+          <t>2025-05-12 14:50:21</t>
         </is>
       </c>
       <c r="I38" t="n">
-        <v>24258</v>
+        <v>27970</v>
       </c>
       <c r="J38" t="inlineStr">
         <is>
@@ -3263,14 +3282,14 @@
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R6 ;R9</t>
         </is>
       </c>
       <c r="L38" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="M38" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="O38" t="n">
         <v>0</v>
@@ -3280,7 +3299,7 @@
       </c>
       <c r="Q38" t="inlineStr">
         <is>
-          <t>2025-06-15 00:00:00</t>
+          <t>2025-12-31 00:00:00</t>
         </is>
       </c>
       <c r="R38" s="1" t="n">
@@ -3292,41 +3311,41 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>251935</v>
+        <v>243569</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>R9</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="D39" t="n">
-        <v>96.94202898550725</v>
+        <v>36.63380281690141</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>2025-06-06 12:55:50</t>
+          <t>2025-05-12 07:40:00</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>2025-06-06 13:30:50</t>
+          <t>2025-05-12 07:57:00</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>2025-06-06 13:30:50</t>
+          <t>2025-05-12 07:57:00</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>2025-06-09 07:07:46</t>
+          <t>2025-05-12 08:33:38</t>
         </is>
       </c>
       <c r="I39" t="n">
-        <v>6689</v>
+        <v>2601</v>
       </c>
       <c r="J39" t="inlineStr">
         <is>
@@ -3335,14 +3354,14 @@
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L39" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M39" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
@@ -3352,53 +3371,53 @@
       </c>
       <c r="Q39" t="inlineStr">
         <is>
-          <t>2025-06-05 00:00:00</t>
+          <t>2024-09-16 00:00:00</t>
         </is>
       </c>
       <c r="R39" s="1" t="n">
-        <v>-4.297071256041667</v>
+        <v>-238.3566999217477</v>
       </c>
       <c r="S39" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>251993</v>
+        <v>235572</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C40" t="n">
         <v>30</v>
       </c>
       <c r="D40" t="n">
-        <v>199.2295081967213</v>
+        <v>140.2535211267606</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>2025-06-06 13:39:56</t>
+          <t>2025-05-12 07:47:36</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>2025-06-06 14:09:56</t>
+          <t>2025-05-12 08:17:36</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>2025-06-06 14:09:56</t>
+          <t>2025-05-12 08:17:36</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>2025-06-09 09:29:09</t>
+          <t>2025-05-12 10:37:51</t>
         </is>
       </c>
       <c r="I40" t="n">
-        <v>12153</v>
+        <v>9958</v>
       </c>
       <c r="J40" t="inlineStr">
         <is>
@@ -3407,11 +3426,11 @@
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R6 ;R9</t>
         </is>
       </c>
       <c r="L40" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M40" t="n">
         <v>70</v>
@@ -3424,11 +3443,11 @@
       </c>
       <c r="Q40" t="inlineStr">
         <is>
-          <t>2025-06-09 00:00:00</t>
+          <t>2023-11-06 00:00:00</t>
         </is>
       </c>
       <c r="R40" s="1" t="n">
-        <v>-0.3952527322453704</v>
+        <v>-553.4429577464815</v>
       </c>
       <c r="S40" t="n">
         <v>4</v>
@@ -3436,41 +3455,41 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>251958</v>
+        <v>245623</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C41" t="n">
         <v>32</v>
       </c>
       <c r="D41" t="n">
-        <v>122.2676056338028</v>
+        <v>372.0985915492957</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>2025-06-06 14:14:05</t>
+          <t>2025-05-12 08:33:38</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>2025-06-06 14:46:05</t>
+          <t>2025-05-12 09:05:38</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>2025-06-06 14:46:05</t>
+          <t>2025-05-12 09:05:38</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>2025-06-09 08:48:21</t>
+          <t>2025-05-13 07:17:44</t>
         </is>
       </c>
       <c r="I41" t="n">
-        <v>8681</v>
+        <v>26419</v>
       </c>
       <c r="J41" t="inlineStr">
         <is>
@@ -3479,14 +3498,14 @@
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L41" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M41" t="n">
-        <v>76</v>
+        <v>152</v>
       </c>
       <c r="O41" t="n">
         <v>0</v>
@@ -3496,53 +3515,53 @@
       </c>
       <c r="Q41" t="inlineStr">
         <is>
-          <t>2025-06-09 00:00:00</t>
+          <t>2025-01-25 00:00:00</t>
         </is>
       </c>
       <c r="R41" s="1" t="n">
-        <v>-0.3669111893634259</v>
+        <v>-108.3039906103241</v>
       </c>
       <c r="S41" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>251747</v>
+        <v>251373</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>R3</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="D42" t="n">
-        <v>255.016393442623</v>
+        <v>348.8571428571428</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>2025-06-09 07:06:59</t>
+          <t>2025-05-12 08:36:51</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>2025-06-09 07:31:59</t>
+          <t>2025-05-12 09:21:51</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>2025-06-09 07:31:59</t>
+          <t>2025-05-12 09:21:51</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>2025-06-09 11:47:00</t>
+          <t>2025-05-13 07:10:42</t>
         </is>
       </c>
       <c r="I42" t="n">
-        <v>15556</v>
+        <v>17094</v>
       </c>
       <c r="J42" t="inlineStr">
         <is>
@@ -3555,7 +3574,7 @@
         </is>
       </c>
       <c r="L42" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M42" t="n">
         <v>70</v>
@@ -3568,11 +3587,11 @@
       </c>
       <c r="Q42" t="inlineStr">
         <is>
-          <t>2025-06-16 00:00:00</t>
+          <t>2025-04-28 00:00:00</t>
         </is>
       </c>
       <c r="R42" s="1" t="n">
-        <v>0</v>
+        <v>-15.2991071428588</v>
       </c>
       <c r="S42" t="n">
         <v>4</v>
@@ -3580,41 +3599,41 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>243569</v>
+        <v>251424</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>R9</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="D43" t="n">
-        <v>37.69565217391305</v>
+        <v>158.3934426229508</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>2025-06-09 07:07:46</t>
+          <t>2025-05-12 09:04:30</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>2025-06-09 07:42:46</t>
+          <t>2025-05-12 09:34:30</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>2025-06-09 07:42:46</t>
+          <t>2025-05-12 09:34:30</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>2025-06-09 08:20:28</t>
+          <t>2025-05-12 12:12:54</t>
         </is>
       </c>
       <c r="I43" t="n">
-        <v>2601</v>
+        <v>9662</v>
       </c>
       <c r="J43" t="inlineStr">
         <is>
@@ -3623,14 +3642,14 @@
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L43" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M43" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="O43" t="n">
         <v>0</v>
@@ -3640,53 +3659,53 @@
       </c>
       <c r="Q43" t="inlineStr">
         <is>
-          <t>2024-09-16 00:00:00</t>
+          <t>2025-04-28 00:00:00</t>
         </is>
       </c>
       <c r="R43" s="1" t="n">
-        <v>-266.3475543478241</v>
+        <v>-14.50895947177083</v>
       </c>
       <c r="S43" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>245623</v>
+        <v>251397</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>R9</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>35</v>
+        <v>34.5</v>
       </c>
       <c r="D44" t="n">
-        <v>382.8840579710145</v>
+        <v>98.81818181818181</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>2025-06-09 08:20:28</t>
+          <t>2025-05-12 09:31:16</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>2025-06-09 08:55:28</t>
+          <t>2025-05-12 10:05:46</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>2025-06-09 08:55:28</t>
+          <t>2025-05-12 10:05:46</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>2025-06-10 07:18:21</t>
+          <t>2025-05-12 11:44:35</t>
         </is>
       </c>
       <c r="I44" t="n">
-        <v>26419</v>
+        <v>5435</v>
       </c>
       <c r="J44" t="inlineStr">
         <is>
@@ -3695,14 +3714,14 @@
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L44" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M44" t="n">
-        <v>152</v>
+        <v>70</v>
       </c>
       <c r="O44" t="n">
         <v>0</v>
@@ -3712,19 +3731,19 @@
       </c>
       <c r="Q44" t="inlineStr">
         <is>
-          <t>2025-01-25 00:00:00</t>
+          <t>2025-04-28 00:00:00</t>
         </is>
       </c>
       <c r="R44" s="1" t="n">
-        <v>-136.3044182769676</v>
+        <v>-14.48929924241898</v>
       </c>
       <c r="S44" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>251792</v>
+        <v>251475</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
@@ -3735,30 +3754,30 @@
         <v>17</v>
       </c>
       <c r="D45" t="n">
-        <v>129.6338028169014</v>
+        <v>122.2676056338028</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>2025-06-09 08:48:21</t>
+          <t>2025-05-12 10:37:51</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>2025-06-09 09:05:21</t>
+          <t>2025-05-12 10:54:51</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>2025-06-09 09:05:21</t>
+          <t>2025-05-12 10:54:51</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>2025-06-09 11:14:59</t>
+          <t>2025-05-12 12:57:07</t>
         </is>
       </c>
       <c r="I45" t="n">
-        <v>9204</v>
+        <v>8681</v>
       </c>
       <c r="J45" t="inlineStr">
         <is>
@@ -3767,14 +3786,14 @@
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L45" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M45" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
@@ -3784,53 +3803,53 @@
       </c>
       <c r="Q45" t="inlineStr">
         <is>
-          <t>2025-05-26 00:00:00</t>
+          <t>2025-04-30 00:00:00</t>
         </is>
       </c>
       <c r="R45" s="1" t="n">
-        <v>-14.46874021909722</v>
+        <v>-12.53967136150463</v>
       </c>
       <c r="S45" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>251944</v>
+        <v>251594</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="D46" t="n">
-        <v>668.327868852459</v>
+        <v>91.07042253521126</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>2025-06-09 09:29:09</t>
+          <t>2025-05-12 11:09:59</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>2025-06-09 09:54:09</t>
+          <t>2025-05-12 11:54:59</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>2025-06-09 09:54:09</t>
+          <t>2025-05-12 11:54:59</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>2025-06-10 13:02:29</t>
+          <t>2025-05-12 13:26:03</t>
         </is>
       </c>
       <c r="I46" t="n">
-        <v>40768</v>
+        <v>6466</v>
       </c>
       <c r="J46" t="inlineStr">
         <is>
@@ -3843,7 +3862,7 @@
         </is>
       </c>
       <c r="L46" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M46" t="n">
         <v>70</v>
@@ -3856,19 +3875,19 @@
       </c>
       <c r="Q46" t="inlineStr">
         <is>
-          <t>2025-05-26 00:00:00</t>
+          <t>2025-05-07 00:00:00</t>
         </is>
       </c>
       <c r="R46" s="1" t="n">
-        <v>-15.54339708561343</v>
+        <v>-5.559761345856481</v>
       </c>
       <c r="S46" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>252042</v>
+        <v>244354</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
@@ -3876,33 +3895,33 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>30.5</v>
+        <v>32.5</v>
       </c>
       <c r="D47" t="n">
-        <v>139.7090909090909</v>
+        <v>78.36363636363636</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>2025-06-09 09:55:50</t>
+          <t>2025-05-12 11:44:35</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>2025-06-09 10:26:20</t>
+          <t>2025-05-12 12:17:05</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>2025-06-09 10:26:20</t>
+          <t>2025-05-12 12:17:05</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>2025-06-09 12:46:02</t>
+          <t>2025-05-12 13:35:27</t>
         </is>
       </c>
       <c r="I47" t="n">
-        <v>7684</v>
+        <v>4310</v>
       </c>
       <c r="J47" t="inlineStr">
         <is>
@@ -3915,7 +3934,7 @@
         </is>
       </c>
       <c r="L47" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M47" t="n">
         <v>70</v>
@@ -3928,53 +3947,53 @@
       </c>
       <c r="Q47" t="inlineStr">
         <is>
-          <t>2025-05-30 00:00:00</t>
+          <t>2025-05-08 00:00:00</t>
         </is>
       </c>
       <c r="R47" s="1" t="n">
-        <v>-10.53197601010417</v>
+        <v>-4.566287878784722</v>
       </c>
       <c r="S47" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>251905</v>
+        <v>244355</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D48" t="n">
-        <v>194.943661971831</v>
+        <v>70.65573770491804</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>2025-06-09 10:00:04</t>
+          <t>2025-05-12 12:12:54</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>2025-06-09 10:19:04</t>
+          <t>2025-05-12 12:32:54</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>2025-06-09 10:19:04</t>
+          <t>2025-05-12 12:32:54</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>2025-06-09 13:34:00</t>
+          <t>2025-05-12 13:43:33</t>
         </is>
       </c>
       <c r="I48" t="n">
-        <v>13841</v>
+        <v>4310</v>
       </c>
       <c r="J48" t="inlineStr">
         <is>
@@ -3983,14 +4002,14 @@
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L48" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M48" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="O48" t="n">
         <v>0</v>
@@ -4000,53 +4019,53 @@
       </c>
       <c r="Q48" t="inlineStr">
         <is>
-          <t>2025-05-28 00:00:00</t>
+          <t>2025-05-08 00:00:00</t>
         </is>
       </c>
       <c r="R48" s="1" t="n">
-        <v>-12.56528755868056</v>
+        <v>-4.571914845173612</v>
       </c>
       <c r="S48" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>251898</v>
+        <v>244204</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>BIMEC 4</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>17</v>
+        <v>42</v>
       </c>
       <c r="D49" t="n">
-        <v>93.02816901408451</v>
+        <v>56.91803278688525</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>2025-06-09 11:14:59</t>
+          <t>2025-05-12 12:16:42</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>2025-06-09 11:31:59</t>
+          <t>2025-05-12 12:58:42</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>2025-06-09 11:31:59</t>
+          <t>2025-05-12 12:58:42</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>2025-06-09 13:05:00</t>
+          <t>2025-05-12 13:55:37</t>
         </is>
       </c>
       <c r="I49" t="n">
-        <v>6605</v>
+        <v>3472</v>
       </c>
       <c r="J49" t="inlineStr">
         <is>
@@ -4055,14 +4074,14 @@
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L49" t="n">
         <v>4</v>
       </c>
       <c r="M49" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="O49" t="n">
         <v>0</v>
@@ -4072,53 +4091,53 @@
       </c>
       <c r="Q49" t="inlineStr">
         <is>
-          <t>2025-06-06 00:00:00</t>
+          <t>2025-05-08 00:00:00</t>
         </is>
       </c>
       <c r="R49" s="1" t="n">
-        <v>-3.545148669791666</v>
+        <v>-4.580293715844907</v>
       </c>
       <c r="S49" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>252058</v>
+        <v>251743</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C50" t="n">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="D50" t="n">
-        <v>86.88524590163935</v>
+        <v>168.375</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>2025-06-09 11:47:00</t>
+          <t>2025-05-12 12:56:16</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>2025-06-09 12:16:00</t>
+          <t>2025-05-12 13:31:16</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>2025-06-09 12:16:00</t>
+          <t>2025-05-12 13:31:16</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>2025-06-09 13:42:53</t>
+          <t>2025-05-13 08:19:39</t>
         </is>
       </c>
       <c r="I50" t="n">
-        <v>5300</v>
+        <v>10776</v>
       </c>
       <c r="J50" t="inlineStr">
         <is>
@@ -4131,7 +4150,7 @@
         </is>
       </c>
       <c r="L50" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M50" t="n">
         <v>70</v>
@@ -4144,53 +4163,53 @@
       </c>
       <c r="Q50" t="inlineStr">
         <is>
-          <t>2025-06-09 00:00:00</t>
+          <t>2025-05-16 00:00:00</t>
         </is>
       </c>
       <c r="R50" s="1" t="n">
-        <v>-0.5714480874305555</v>
+        <v>0</v>
       </c>
       <c r="S50" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>252082</v>
+        <v>251809</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C51" t="n">
-        <v>30.5</v>
+        <v>15</v>
       </c>
       <c r="D51" t="n">
-        <v>816.1454545454545</v>
+        <v>122.2676056338028</v>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>2025-06-09 12:46:02</t>
+          <t>2025-05-12 12:57:07</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>2025-06-09 13:16:32</t>
+          <t>2025-05-12 13:12:07</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>2025-06-09 13:16:32</t>
+          <t>2025-05-12 13:12:07</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>2025-06-11 10:52:41</t>
+          <t>2025-05-13 07:14:23</t>
         </is>
       </c>
       <c r="I51" t="n">
-        <v>44888</v>
+        <v>8681</v>
       </c>
       <c r="J51" t="inlineStr">
         <is>
@@ -4203,7 +4222,7 @@
         </is>
       </c>
       <c r="L51" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M51" t="n">
         <v>70</v>
@@ -4216,53 +4235,53 @@
       </c>
       <c r="Q51" t="inlineStr">
         <is>
-          <t>2025-06-10 00:00:00</t>
+          <t>2025-05-22 00:00:00</t>
         </is>
       </c>
       <c r="R51" s="1" t="n">
-        <v>-1.453257575752315</v>
+        <v>0</v>
       </c>
       <c r="S51" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>251798</v>
+        <v>251109</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="C52" t="n">
-        <v>15</v>
+        <v>95</v>
       </c>
       <c r="D52" t="n">
-        <v>318.943661971831</v>
+        <v>266.5915492957747</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>2025-06-09 13:05:00</t>
+          <t>2025-05-12 13:26:03</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>2025-06-09 13:20:00</t>
+          <t>2025-05-13 07:01:03</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>2025-06-09 13:20:00</t>
+          <t>2025-05-13 07:01:03</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>2025-06-10 10:38:57</t>
+          <t>2025-05-13 11:27:38</t>
         </is>
       </c>
       <c r="I52" t="n">
-        <v>22645</v>
+        <v>18928</v>
       </c>
       <c r="J52" t="inlineStr">
         <is>
@@ -4271,14 +4290,14 @@
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="L52" t="n">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="M52" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="O52" t="n">
         <v>0</v>
@@ -4288,11 +4307,11 @@
       </c>
       <c r="Q52" t="inlineStr">
         <is>
-          <t>2025-06-15 00:00:00</t>
+          <t>2025-04-18 00:00:00</t>
         </is>
       </c>
       <c r="R52" s="1" t="n">
-        <v>0</v>
+        <v>-25.47753325508102</v>
       </c>
       <c r="S52" t="n">
         <v>2</v>
@@ -4300,41 +4319,41 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>243335</v>
+        <v>250819</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C53" t="n">
-        <v>34</v>
+        <v>34.5</v>
       </c>
       <c r="D53" t="n">
-        <v>464.8450704225352</v>
+        <v>155.0363636363636</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>2025-06-09 13:34:00</t>
+          <t>2025-05-12 13:35:27</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>2025-06-09 14:08:00</t>
+          <t>2025-05-12 14:09:57</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>2025-06-09 14:08:00</t>
+          <t>2025-05-12 14:09:57</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>2025-06-10 13:52:51</t>
+          <t>2025-05-13 08:44:59</t>
         </is>
       </c>
       <c r="I53" t="n">
-        <v>33004</v>
+        <v>8527</v>
       </c>
       <c r="J53" t="inlineStr">
         <is>
@@ -4343,14 +4362,14 @@
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L53" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M53" t="n">
-        <v>152</v>
+        <v>70</v>
       </c>
       <c r="O53" t="n">
         <v>0</v>
@@ -4360,53 +4379,53 @@
       </c>
       <c r="Q53" t="inlineStr">
         <is>
-          <t>2024-08-02 00:00:00</t>
+          <t>2025-04-18 00:00:00</t>
         </is>
       </c>
       <c r="R53" s="1" t="n">
-        <v>-312.5783744131481</v>
+        <v>-25.36457702019676</v>
       </c>
       <c r="S53" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>252337</v>
+        <v>251485</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C54" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D54" t="n">
-        <v>1561.27868852459</v>
+        <v>78.81967213114754</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>2025-06-09 13:42:53</t>
+          <t>2025-05-12 13:43:33</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>2025-06-09 14:09:53</t>
+          <t>2025-05-12 14:08:33</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>2025-06-09 14:09:53</t>
+          <t>2025-05-12 14:08:33</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>2025-06-13 08:11:09</t>
+          <t>2025-05-13 07:27:22</t>
         </is>
       </c>
       <c r="I54" t="n">
-        <v>95238</v>
+        <v>4808</v>
       </c>
       <c r="J54" t="inlineStr">
         <is>
@@ -4415,11 +4434,11 @@
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L54" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="M54" t="n">
         <v>70</v>
@@ -4432,11 +4451,11 @@
       </c>
       <c r="Q54" t="inlineStr">
         <is>
-          <t>2025-07-02 00:00:00</t>
+          <t>2025-04-23 00:00:00</t>
         </is>
       </c>
       <c r="R54" s="1" t="n">
-        <v>0</v>
+        <v>-20.31067850637731</v>
       </c>
       <c r="S54" t="n">
         <v>2</v>
@@ -4444,41 +4463,41 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>244023</v>
+        <v>251346</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>BIMEC 4</t>
         </is>
       </c>
       <c r="C55" t="n">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="D55" t="n">
-        <v>15.578125</v>
+        <v>63.26229508196721</v>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>2025-06-09 14:58:03</t>
+          <t>2025-05-12 13:55:37</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>2025-06-10 07:15:03</t>
+          <t>2025-05-12 14:28:37</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>2025-06-10 07:15:03</t>
+          <t>2025-05-12 14:28:37</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>2025-06-10 07:30:38</t>
+          <t>2025-05-13 07:31:53</t>
         </is>
       </c>
       <c r="I55" t="n">
-        <v>997</v>
+        <v>3859</v>
       </c>
       <c r="J55" t="inlineStr">
         <is>
@@ -4491,7 +4510,7 @@
         </is>
       </c>
       <c r="L55" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="M55" t="n">
         <v>70</v>
@@ -4504,19 +4523,19 @@
       </c>
       <c r="Q55" t="inlineStr">
         <is>
-          <t>2024-09-30 00:00:00</t>
+          <t>2025-04-28 00:00:00</t>
         </is>
       </c>
       <c r="R55" s="1" t="n">
-        <v>-253.3129448784722</v>
+        <v>-15.31380919854167</v>
       </c>
       <c r="S55" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>251186</v>
+        <v>250641</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
@@ -4524,33 +4543,33 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="D56" t="n">
-        <v>369.7391304347826</v>
+        <v>74.14492753623189</v>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>2025-06-10 07:18:21</t>
+          <t>2025-05-12 14:50:21</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>2025-06-10 07:58:21</t>
+          <t>2025-05-13 07:35:21</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>2025-06-10 07:58:21</t>
+          <t>2025-05-13 07:35:21</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>2025-06-10 14:08:06</t>
+          <t>2025-05-13 08:49:30</t>
         </is>
       </c>
       <c r="I56" t="n">
-        <v>25512</v>
+        <v>5116</v>
       </c>
       <c r="J56" t="inlineStr">
         <is>
@@ -4563,7 +4582,7 @@
         </is>
       </c>
       <c r="L56" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M56" t="n">
         <v>70</v>
@@ -4576,53 +4595,53 @@
       </c>
       <c r="Q56" t="inlineStr">
         <is>
-          <t>2025-05-30 00:00:00</t>
+          <t>2025-04-28 00:00:00</t>
         </is>
       </c>
       <c r="R56" s="1" t="n">
-        <v>-11.58895933978009</v>
+        <v>-15.36771336554398</v>
       </c>
       <c r="S56" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>251972</v>
+        <v>250670</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>R3</t>
         </is>
       </c>
       <c r="C57" t="n">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="D57" t="n">
-        <v>75.75</v>
+        <v>31.89795918367347</v>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>2025-06-10 07:30:38</t>
+          <t>2025-05-13 07:10:42</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>2025-06-10 08:04:38</t>
+          <t>2025-05-13 07:52:42</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>2025-06-10 08:04:38</t>
+          <t>2025-05-13 07:52:42</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>2025-06-10 09:20:23</t>
+          <t>2025-05-13 08:24:36</t>
         </is>
       </c>
       <c r="I57" t="n">
-        <v>4848</v>
+        <v>1563</v>
       </c>
       <c r="J57" t="inlineStr">
         <is>
@@ -4631,7 +4650,7 @@
       </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L57" t="n">
@@ -4648,53 +4667,53 @@
       </c>
       <c r="Q57" t="inlineStr">
         <is>
-          <t>2025-05-30 00:00:00</t>
+          <t>2025-05-05 00:00:00</t>
         </is>
       </c>
       <c r="R57" s="1" t="n">
-        <v>-11.38916015625</v>
+        <v>-8.350425170069444</v>
       </c>
       <c r="S57" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>252111</v>
+        <v>251259</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C58" t="n">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="D58" t="n">
-        <v>284.171875</v>
+        <v>70.4225352112676</v>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>2025-06-10 09:20:23</t>
+          <t>2025-05-13 07:14:23</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>2025-06-10 09:52:23</t>
+          <t>2025-05-13 07:39:23</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>2025-06-10 09:52:23</t>
+          <t>2025-05-13 07:39:23</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>2025-06-10 14:36:33</t>
+          <t>2025-05-13 08:49:49</t>
         </is>
       </c>
       <c r="I58" t="n">
-        <v>18187</v>
+        <v>5000</v>
       </c>
       <c r="J58" t="inlineStr">
         <is>
@@ -4707,7 +4726,7 @@
         </is>
       </c>
       <c r="L58" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="M58" t="n">
         <v>70</v>
@@ -4720,53 +4739,53 @@
       </c>
       <c r="Q58" t="inlineStr">
         <is>
-          <t>2025-06-05 00:00:00</t>
+          <t>2025-05-06 00:00:00</t>
         </is>
       </c>
       <c r="R58" s="1" t="n">
-        <v>-5.608723958333333</v>
+        <v>-7.367928403761574</v>
       </c>
       <c r="S58" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>251772</v>
+        <v>243335</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C59" t="n">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="D59" t="n">
-        <v>637.2112676056338</v>
+        <v>464.8450704225352</v>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>2025-06-10 10:37:12</t>
+          <t>2025-05-13 07:17:44</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>2025-06-10 11:17:12</t>
+          <t>2025-05-13 07:36:44</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>2025-06-10 11:17:12</t>
+          <t>2025-05-13 07:36:44</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>2025-06-11 13:54:25</t>
+          <t>2025-05-14 07:21:35</t>
         </is>
       </c>
       <c r="I59" t="n">
-        <v>45242</v>
+        <v>33004</v>
       </c>
       <c r="J59" t="inlineStr">
         <is>
@@ -4775,14 +4794,14 @@
       </c>
       <c r="K59" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L59" t="n">
         <v>4</v>
       </c>
       <c r="M59" t="n">
-        <v>70</v>
+        <v>152</v>
       </c>
       <c r="O59" t="n">
         <v>0</v>
@@ -4792,11 +4811,11 @@
       </c>
       <c r="Q59" t="inlineStr">
         <is>
-          <t>2025-06-05 00:00:00</t>
+          <t>2024-08-02 00:00:00</t>
         </is>
       </c>
       <c r="R59" s="1" t="n">
-        <v>-6.579460093900463</v>
+        <v>-285.306660798125</v>
       </c>
       <c r="S59" t="n">
         <v>1</v>
@@ -4804,41 +4823,41 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>252108</v>
+        <v>251761</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C60" t="n">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="D60" t="n">
-        <v>201.4225352112676</v>
+        <v>217.6885245901639</v>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>2025-06-10 10:38:57</t>
+          <t>2025-05-13 07:27:22</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>2025-06-10 11:10:57</t>
+          <t>2025-05-13 07:52:22</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>2025-06-10 11:10:57</t>
+          <t>2025-05-13 07:52:22</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>2025-06-10 14:32:22</t>
+          <t>2025-05-13 11:30:03</t>
         </is>
       </c>
       <c r="I60" t="n">
-        <v>14301</v>
+        <v>13279</v>
       </c>
       <c r="J60" t="inlineStr">
         <is>
@@ -4851,7 +4870,7 @@
         </is>
       </c>
       <c r="L60" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M60" t="n">
         <v>70</v>
@@ -4864,53 +4883,53 @@
       </c>
       <c r="Q60" t="inlineStr">
         <is>
-          <t>2025-06-06 00:00:00</t>
+          <t>2025-05-19 00:00:00</t>
         </is>
       </c>
       <c r="R60" s="1" t="n">
-        <v>-4.60581964005787</v>
+        <v>0</v>
       </c>
       <c r="S60" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>251916</v>
+        <v>244023</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>BIMEC 4</t>
         </is>
       </c>
       <c r="C61" t="n">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="D61" t="n">
-        <v>768.4426229508197</v>
+        <v>16.34426229508197</v>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>2025-06-10 13:02:29</t>
+          <t>2025-05-13 07:31:53</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>2025-06-10 13:27:29</t>
+          <t>2025-05-13 08:00:53</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>2025-06-10 13:27:29</t>
+          <t>2025-05-13 08:00:53</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>2025-06-12 10:15:56</t>
+          <t>2025-05-13 08:17:13</t>
         </is>
       </c>
       <c r="I61" t="n">
-        <v>46875</v>
+        <v>997</v>
       </c>
       <c r="J61" t="inlineStr">
         <is>
@@ -4923,7 +4942,7 @@
         </is>
       </c>
       <c r="L61" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M61" t="n">
         <v>70</v>
@@ -4936,11 +4955,11 @@
       </c>
       <c r="Q61" t="inlineStr">
         <is>
-          <t>2025-06-13 00:00:00</t>
+          <t>2024-09-30 00:00:00</t>
         </is>
       </c>
       <c r="R61" s="1" t="n">
-        <v>0</v>
+        <v>-225.3452982695833</v>
       </c>
       <c r="S61" t="n">
         <v>1</v>
@@ -4948,41 +4967,41 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>245089</v>
+        <v>251283</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>BIMEC 4</t>
         </is>
       </c>
       <c r="C62" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D62" t="n">
-        <v>1727.676056338028</v>
+        <v>12.36065573770492</v>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>2025-06-10 13:52:51</t>
+          <t>2025-05-13 08:17:13</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>2025-06-10 14:22:51</t>
+          <t>2025-05-13 08:42:13</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>2025-06-10 14:22:51</t>
+          <t>2025-05-13 08:42:13</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>2025-06-16 11:10:32</t>
+          <t>2025-05-13 08:54:35</t>
         </is>
       </c>
       <c r="I62" t="n">
-        <v>122665</v>
+        <v>754</v>
       </c>
       <c r="J62" t="inlineStr">
         <is>
@@ -4991,14 +5010,14 @@
       </c>
       <c r="K62" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
         </is>
       </c>
       <c r="L62" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M62" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="O62" t="n">
         <v>0</v>
@@ -5008,11 +5027,11 @@
       </c>
       <c r="Q62" t="inlineStr">
         <is>
-          <t>2025-12-31 00:00:00</t>
+          <t>2025-03-18 00:00:00</t>
         </is>
       </c>
       <c r="R62" s="1" t="n">
-        <v>0</v>
+        <v>-56.37124316939815</v>
       </c>
       <c r="S62" t="n">
         <v>1</v>
@@ -5020,41 +5039,41 @@
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>252196</v>
+        <v>251245</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>R9</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C63" t="n">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="D63" t="n">
-        <v>682.4492753623189</v>
+        <v>11.78125</v>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>2025-06-10 14:08:06</t>
+          <t>2025-05-13 08:19:39</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>2025-06-10 14:38:06</t>
+          <t>2025-05-13 08:38:39</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>2025-06-10 14:38:06</t>
+          <t>2025-05-13 08:38:39</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>2025-06-12 10:00:33</t>
+          <t>2025-05-13 08:50:26</t>
         </is>
       </c>
       <c r="I63" t="n">
-        <v>47089</v>
+        <v>754</v>
       </c>
       <c r="J63" t="inlineStr">
         <is>
@@ -5063,11 +5082,11 @@
       </c>
       <c r="K63" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
         </is>
       </c>
       <c r="L63" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M63" t="n">
         <v>70</v>
@@ -5080,11 +5099,11 @@
       </c>
       <c r="Q63" t="inlineStr">
         <is>
-          <t>2025-06-13 00:00:00</t>
+          <t>2025-03-28 00:00:00</t>
         </is>
       </c>
       <c r="R63" s="1" t="n">
-        <v>0</v>
+        <v>-46.368359375</v>
       </c>
       <c r="S63" t="n">
         <v>1</v>
@@ -5092,41 +5111,41 @@
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>252195</v>
+        <v>251061</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>R3</t>
         </is>
       </c>
       <c r="C64" t="n">
-        <v>15</v>
+        <v>47</v>
       </c>
       <c r="D64" t="n">
-        <v>503.5633802816901</v>
+        <v>489.734693877551</v>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>2025-06-10 14:32:22</t>
+          <t>2025-05-13 08:24:36</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>2025-06-10 14:47:22</t>
+          <t>2025-05-13 09:11:36</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>2025-06-10 14:47:22</t>
+          <t>2025-05-13 09:11:36</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>2025-06-12 07:10:56</t>
+          <t>2025-05-14 09:21:20</t>
         </is>
       </c>
       <c r="I64" t="n">
-        <v>35753</v>
+        <v>23997</v>
       </c>
       <c r="J64" t="inlineStr">
         <is>
@@ -5135,11 +5154,11 @@
       </c>
       <c r="K64" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
         </is>
       </c>
       <c r="L64" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="M64" t="n">
         <v>70</v>
@@ -5152,11 +5171,11 @@
       </c>
       <c r="Q64" t="inlineStr">
         <is>
-          <t>2025-06-13 00:00:00</t>
+          <t>2025-05-05 00:00:00</t>
         </is>
       </c>
       <c r="R64" s="1" t="n">
-        <v>0</v>
+        <v>-9.389824263043982</v>
       </c>
       <c r="S64" t="n">
         <v>1</v>
@@ -5164,41 +5183,41 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>252110</v>
+        <v>251247</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C65" t="n">
-        <v>15</v>
+        <v>30.5</v>
       </c>
       <c r="D65" t="n">
-        <v>100.15625</v>
+        <v>489.7090909090909</v>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>2025-06-10 14:36:33</t>
+          <t>2025-05-13 08:44:59</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>2025-06-10 14:51:33</t>
+          <t>2025-05-13 09:15:29</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>2025-06-10 14:51:33</t>
+          <t>2025-05-13 09:15:29</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>2025-06-11 08:31:43</t>
+          <t>2025-05-14 09:25:12</t>
         </is>
       </c>
       <c r="I65" t="n">
-        <v>6410</v>
+        <v>26934</v>
       </c>
       <c r="J65" t="inlineStr">
         <is>
@@ -5207,11 +5226,11 @@
       </c>
       <c r="K65" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
         </is>
       </c>
       <c r="L65" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="M65" t="n">
         <v>70</v>
@@ -5224,11 +5243,11 @@
       </c>
       <c r="Q65" t="inlineStr">
         <is>
-          <t>2025-06-17 00:00:00</t>
+          <t>2025-05-09 00:00:00</t>
         </is>
       </c>
       <c r="R65" s="1" t="n">
-        <v>0</v>
+        <v>-5.3925</v>
       </c>
       <c r="S65" t="n">
         <v>1</v>
@@ -5236,41 +5255,41 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>252121</v>
+        <v>251246</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>R9</t>
         </is>
       </c>
       <c r="C66" t="n">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="D66" t="n">
-        <v>194.578125</v>
+        <v>173.9420289855072</v>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>2025-06-11 08:31:43</t>
+          <t>2025-05-13 08:49:30</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>2025-06-11 08:48:43</t>
+          <t>2025-05-13 09:14:30</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>2025-06-11 08:48:43</t>
+          <t>2025-05-13 09:14:30</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>2025-06-11 12:03:17</t>
+          <t>2025-05-13 12:08:26</t>
         </is>
       </c>
       <c r="I66" t="n">
-        <v>12453</v>
+        <v>12002</v>
       </c>
       <c r="J66" t="inlineStr">
         <is>
@@ -5279,11 +5298,11 @@
       </c>
       <c r="K66" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
         </is>
       </c>
       <c r="L66" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="M66" t="n">
         <v>70</v>
@@ -5296,11 +5315,11 @@
       </c>
       <c r="Q66" t="inlineStr">
         <is>
-          <t>2025-06-18 00:00:00</t>
+          <t>2025-05-09 00:00:00</t>
         </is>
       </c>
       <c r="R66" s="1" t="n">
-        <v>0</v>
+        <v>-4.505867552337963</v>
       </c>
       <c r="S66" t="n">
         <v>1</v>
@@ -5308,41 +5327,41 @@
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>252410</v>
+        <v>251466</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C67" t="n">
-        <v>38.5</v>
+        <v>27</v>
       </c>
       <c r="D67" t="n">
-        <v>137.1090909090909</v>
+        <v>78.40845070422536</v>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>2025-06-11 10:52:41</t>
+          <t>2025-05-13 08:49:49</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>2025-06-11 11:31:11</t>
+          <t>2025-05-13 09:16:49</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>2025-06-11 11:31:11</t>
+          <t>2025-05-13 09:16:49</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>2025-06-11 13:48:18</t>
+          <t>2025-05-13 10:35:13</t>
         </is>
       </c>
       <c r="I67" t="n">
-        <v>7541</v>
+        <v>5567</v>
       </c>
       <c r="J67" t="inlineStr">
         <is>
@@ -5351,11 +5370,11 @@
       </c>
       <c r="K67" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L67" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="M67" t="n">
         <v>70</v>
@@ -5368,11 +5387,11 @@
       </c>
       <c r="Q67" t="inlineStr">
         <is>
-          <t>2025-06-18 00:00:00</t>
+          <t>2025-05-09 00:00:00</t>
         </is>
       </c>
       <c r="R67" s="1" t="n">
-        <v>0</v>
+        <v>-4.441128716747685</v>
       </c>
       <c r="S67" t="n">
         <v>1</v>
@@ -5380,7 +5399,7 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>252325</v>
+        <v>251463</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
@@ -5388,33 +5407,33 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D68" t="n">
-        <v>282.8125</v>
+        <v>108.859375</v>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>2025-06-11 12:03:17</t>
+          <t>2025-05-13 08:50:26</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>2025-06-11 12:26:17</t>
+          <t>2025-05-13 09:09:26</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>2025-06-11 12:26:17</t>
+          <t>2025-05-13 09:09:26</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>2025-06-12 09:09:06</t>
+          <t>2025-05-13 10:58:17</t>
         </is>
       </c>
       <c r="I68" t="n">
-        <v>18100</v>
+        <v>6967</v>
       </c>
       <c r="J68" t="inlineStr">
         <is>
@@ -5423,11 +5442,11 @@
       </c>
       <c r="K68" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L68" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M68" t="n">
         <v>70</v>
@@ -5440,11 +5459,11 @@
       </c>
       <c r="Q68" t="inlineStr">
         <is>
-          <t>2025-06-18 00:00:00</t>
+          <t>2025-05-09 00:00:00</t>
         </is>
       </c>
       <c r="R68" s="1" t="n">
-        <v>0</v>
+        <v>-4.457150607638889</v>
       </c>
       <c r="S68" t="n">
         <v>1</v>
@@ -5452,41 +5471,41 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>251680</v>
+        <v>251464</v>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>BIMEC 4</t>
         </is>
       </c>
       <c r="C69" t="n">
-        <v>30.5</v>
+        <v>29</v>
       </c>
       <c r="D69" t="n">
-        <v>307.3818181818182</v>
+        <v>117.2622950819672</v>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>2025-06-11 13:48:18</t>
+          <t>2025-05-13 08:54:35</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>2025-06-11 14:18:48</t>
+          <t>2025-05-13 09:23:35</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>2025-06-11 14:18:48</t>
+          <t>2025-05-13 09:23:35</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>2025-06-12 11:26:10</t>
+          <t>2025-05-13 11:20:51</t>
         </is>
       </c>
       <c r="I69" t="n">
-        <v>16906</v>
+        <v>7153</v>
       </c>
       <c r="J69" t="inlineStr">
         <is>
@@ -5499,7 +5518,7 @@
         </is>
       </c>
       <c r="L69" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M69" t="n">
         <v>70</v>
@@ -5512,11 +5531,11 @@
       </c>
       <c r="Q69" t="inlineStr">
         <is>
-          <t>2025-06-18 00:00:00</t>
+          <t>2025-05-09 00:00:00</t>
         </is>
       </c>
       <c r="R69" s="1" t="n">
-        <v>0</v>
+        <v>-4.472814207650463</v>
       </c>
       <c r="S69" t="n">
         <v>1</v>
@@ -5524,41 +5543,41 @@
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>251681</v>
+        <v>251465</v>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C70" t="n">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="D70" t="n">
-        <v>56.12676056338028</v>
+        <v>87.69014084507042</v>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>2025-06-11 13:54:25</t>
+          <t>2025-05-13 10:35:13</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>2025-06-11 14:34:25</t>
+          <t>2025-05-13 10:52:13</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>2025-06-11 14:34:25</t>
+          <t>2025-05-13 10:52:13</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>2025-06-12 07:30:32</t>
+          <t>2025-05-13 12:19:54</t>
         </is>
       </c>
       <c r="I70" t="n">
-        <v>3985</v>
+        <v>6226</v>
       </c>
       <c r="J70" t="inlineStr">
         <is>
@@ -5571,7 +5590,7 @@
         </is>
       </c>
       <c r="L70" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="M70" t="n">
         <v>70</v>
@@ -5584,11 +5603,11 @@
       </c>
       <c r="Q70" t="inlineStr">
         <is>
-          <t>2025-06-18 00:00:00</t>
+          <t>2025-05-09 00:00:00</t>
         </is>
       </c>
       <c r="R70" s="1" t="n">
-        <v>0</v>
+        <v>-4.513830203437499</v>
       </c>
       <c r="S70" t="n">
         <v>1</v>
@@ -5596,41 +5615,41 @@
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>251679</v>
+        <v>251462</v>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C71" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D71" t="n">
-        <v>223.3802816901408</v>
+        <v>97.28125</v>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>2025-06-12 07:10:56</t>
+          <t>2025-05-13 10:58:17</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>2025-06-12 07:31:56</t>
+          <t>2025-05-13 11:17:17</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>2025-06-12 07:31:56</t>
+          <t>2025-05-13 11:17:17</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>2025-06-12 11:15:19</t>
+          <t>2025-05-13 12:54:34</t>
         </is>
       </c>
       <c r="I71" t="n">
-        <v>15860</v>
+        <v>6226</v>
       </c>
       <c r="J71" t="inlineStr">
         <is>
@@ -5639,11 +5658,11 @@
       </c>
       <c r="K71" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L71" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="M71" t="n">
         <v>70</v>
@@ -5656,11 +5675,11 @@
       </c>
       <c r="Q71" t="inlineStr">
         <is>
-          <t>2025-06-18 00:00:00</t>
+          <t>2025-05-09 00:00:00</t>
         </is>
       </c>
       <c r="R71" s="1" t="n">
-        <v>0</v>
+        <v>-4.537901475694444</v>
       </c>
       <c r="S71" t="n">
         <v>1</v>
@@ -5668,41 +5687,41 @@
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>251917</v>
+        <v>251467</v>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>BIMEC 4</t>
         </is>
       </c>
       <c r="C72" t="n">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="D72" t="n">
-        <v>32.26760563380282</v>
+        <v>102.0655737704918</v>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>2025-06-12 07:30:32</t>
+          <t>2025-05-13 11:20:51</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>2025-06-12 08:05:32</t>
+          <t>2025-05-13 11:49:51</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>2025-06-12 08:05:32</t>
+          <t>2025-05-13 11:49:51</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>2025-06-12 08:37:49</t>
+          <t>2025-05-13 13:31:55</t>
         </is>
       </c>
       <c r="I72" t="n">
-        <v>2291</v>
+        <v>6226</v>
       </c>
       <c r="J72" t="inlineStr">
         <is>
@@ -5715,7 +5734,7 @@
         </is>
       </c>
       <c r="L72" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="M72" t="n">
         <v>70</v>
@@ -5728,11 +5747,11 @@
       </c>
       <c r="Q72" t="inlineStr">
         <is>
-          <t>2025-06-20 00:00:00</t>
+          <t>2025-05-09 00:00:00</t>
         </is>
       </c>
       <c r="R72" s="1" t="n">
-        <v>0</v>
+        <v>-4.563831967210648</v>
       </c>
       <c r="S72" t="n">
         <v>1</v>
@@ -5740,7 +5759,7 @@
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>252293</v>
+        <v>251520</v>
       </c>
       <c r="B73" t="inlineStr">
         <is>
@@ -5748,33 +5767,33 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>35</v>
+        <v>80</v>
       </c>
       <c r="D73" t="n">
-        <v>32.26760563380282</v>
+        <v>230.1408450704225</v>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>2025-06-12 08:37:49</t>
+          <t>2025-05-13 11:27:38</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>2025-06-12 09:12:49</t>
+          <t>2025-05-13 12:47:38</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>2025-06-12 09:12:49</t>
+          <t>2025-05-13 12:47:38</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>2025-06-12 09:45:05</t>
+          <t>2025-05-14 08:37:47</t>
         </is>
       </c>
       <c r="I73" t="n">
-        <v>2291</v>
+        <v>16340</v>
       </c>
       <c r="J73" t="inlineStr">
         <is>
@@ -5783,11 +5802,11 @@
       </c>
       <c r="K73" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>CASON ;R6</t>
         </is>
       </c>
       <c r="L73" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="M73" t="n">
         <v>70</v>
@@ -5800,11 +5819,11 @@
       </c>
       <c r="Q73" t="inlineStr">
         <is>
-          <t>2025-06-20 00:00:00</t>
+          <t>2025-05-12 00:00:00</t>
         </is>
       </c>
       <c r="R73" s="1" t="n">
-        <v>0</v>
+        <v>-2.359575508611111</v>
       </c>
       <c r="S73" t="n">
         <v>1</v>
@@ -5812,41 +5831,41 @@
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>252326</v>
+        <v>251374</v>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>R3</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C74" t="n">
-        <v>57</v>
+        <v>35</v>
       </c>
       <c r="D74" t="n">
-        <v>523.2857142857143</v>
+        <v>448.2459016393443</v>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>2025-06-12 09:03:44</t>
+          <t>2025-05-13 11:30:03</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>2025-06-12 10:00:44</t>
+          <t>2025-05-13 12:05:03</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>2025-06-12 10:00:44</t>
+          <t>2025-05-13 12:05:03</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>2025-06-13 10:44:01</t>
+          <t>2025-05-14 11:33:18</t>
         </is>
       </c>
       <c r="I74" t="n">
-        <v>25641</v>
+        <v>27343</v>
       </c>
       <c r="J74" t="inlineStr">
         <is>
@@ -5859,7 +5878,7 @@
         </is>
       </c>
       <c r="L74" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="M74" t="n">
         <v>70</v>
@@ -5872,7 +5891,7 @@
       </c>
       <c r="Q74" t="inlineStr">
         <is>
-          <t>2025-07-05 00:00:00</t>
+          <t>2025-05-15 00:00:00</t>
         </is>
       </c>
       <c r="R74" s="1" t="n">
@@ -5884,41 +5903,41 @@
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>251684</v>
+        <v>251580</v>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>R9</t>
         </is>
       </c>
       <c r="C75" t="n">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="D75" t="n">
-        <v>235.671875</v>
+        <v>103.6666666666667</v>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>2025-06-12 09:09:06</t>
+          <t>2025-05-13 12:08:26</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>2025-06-12 09:24:06</t>
+          <t>2025-05-13 12:43:26</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>2025-06-12 09:24:06</t>
+          <t>2025-05-13 12:43:26</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>2025-06-12 13:19:46</t>
+          <t>2025-05-13 14:27:06</t>
         </is>
       </c>
       <c r="I75" t="n">
-        <v>15083</v>
+        <v>7153</v>
       </c>
       <c r="J75" t="inlineStr">
         <is>
@@ -5927,11 +5946,11 @@
       </c>
       <c r="K75" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L75" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M75" t="n">
         <v>70</v>
@@ -5944,13 +5963,877 @@
       </c>
       <c r="Q75" t="inlineStr">
         <is>
-          <t>2025-07-15 00:00:00</t>
+          <t>2025-05-15 00:00:00</t>
         </is>
       </c>
       <c r="R75" s="1" t="n">
         <v>0</v>
       </c>
       <c r="S75" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>251557</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>BIMEC 5</t>
+        </is>
+      </c>
+      <c r="C76" t="n">
+        <v>15</v>
+      </c>
+      <c r="D76" t="n">
+        <v>94.43661971830986</v>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>2025-05-13 12:19:54</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>2025-05-13 12:34:54</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>2025-05-13 12:34:54</t>
+        </is>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>2025-05-13 14:09:21</t>
+        </is>
+      </c>
+      <c r="I76" t="n">
+        <v>6705</v>
+      </c>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>bobina</t>
+        </is>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+        </is>
+      </c>
+      <c r="L76" t="n">
+        <v>2</v>
+      </c>
+      <c r="M76" t="n">
+        <v>70</v>
+      </c>
+      <c r="O76" t="n">
+        <v>0</v>
+      </c>
+      <c r="P76" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q76" t="inlineStr">
+        <is>
+          <t>2025-05-15 00:00:00</t>
+        </is>
+      </c>
+      <c r="R76" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S76" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>251562</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>BIMEC 2</t>
+        </is>
+      </c>
+      <c r="C77" t="n">
+        <v>15</v>
+      </c>
+      <c r="D77" t="n">
+        <v>127.21875</v>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>2025-05-13 12:54:34</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>2025-05-13 13:09:34</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>2025-05-13 13:09:34</t>
+        </is>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>2025-05-14 07:16:47</t>
+        </is>
+      </c>
+      <c r="I77" t="n">
+        <v>8142</v>
+      </c>
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>bobina</t>
+        </is>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+        </is>
+      </c>
+      <c r="L77" t="n">
+        <v>2</v>
+      </c>
+      <c r="M77" t="n">
+        <v>70</v>
+      </c>
+      <c r="O77" t="n">
+        <v>0</v>
+      </c>
+      <c r="P77" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q77" t="inlineStr">
+        <is>
+          <t>2025-05-15 00:00:00</t>
+        </is>
+      </c>
+      <c r="R77" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S77" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>251260</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>BIMEC 4</t>
+        </is>
+      </c>
+      <c r="C78" t="n">
+        <v>33</v>
+      </c>
+      <c r="D78" t="n">
+        <v>153.5901639344262</v>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>2025-05-13 13:31:55</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>2025-05-13 14:04:55</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>2025-05-13 14:04:55</t>
+        </is>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>2025-05-14 08:38:30</t>
+        </is>
+      </c>
+      <c r="I78" t="n">
+        <v>9369</v>
+      </c>
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>bobina</t>
+        </is>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R9</t>
+        </is>
+      </c>
+      <c r="L78" t="n">
+        <v>6</v>
+      </c>
+      <c r="M78" t="n">
+        <v>70</v>
+      </c>
+      <c r="O78" t="n">
+        <v>0</v>
+      </c>
+      <c r="P78" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q78" t="inlineStr">
+        <is>
+          <t>2025-05-22 00:00:00</t>
+        </is>
+      </c>
+      <c r="R78" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S78" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>251062</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>BIMEC 5</t>
+        </is>
+      </c>
+      <c r="C79" t="n">
+        <v>23</v>
+      </c>
+      <c r="D79" t="n">
+        <v>318.6478873239437</v>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>2025-05-13 14:09:21</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>2025-05-13 14:32:21</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>2025-05-13 14:32:21</t>
+        </is>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>2025-05-14 11:51:00</t>
+        </is>
+      </c>
+      <c r="I79" t="n">
+        <v>22624</v>
+      </c>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>bobina</t>
+        </is>
+      </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
+        </is>
+      </c>
+      <c r="L79" t="n">
+        <v>6</v>
+      </c>
+      <c r="M79" t="n">
+        <v>70</v>
+      </c>
+      <c r="O79" t="n">
+        <v>0</v>
+      </c>
+      <c r="P79" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q79" t="inlineStr">
+        <is>
+          <t>2025-05-23 00:00:00</t>
+        </is>
+      </c>
+      <c r="R79" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S79" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>251252</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>R9</t>
+        </is>
+      </c>
+      <c r="C80" t="n">
+        <v>35</v>
+      </c>
+      <c r="D80" t="n">
+        <v>218.5942028985507</v>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>2025-05-13 14:27:06</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>2025-05-14 07:02:06</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>2025-05-14 07:02:06</t>
+        </is>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>2025-05-14 10:40:42</t>
+        </is>
+      </c>
+      <c r="I80" t="n">
+        <v>15083</v>
+      </c>
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>bobina</t>
+        </is>
+      </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
+        </is>
+      </c>
+      <c r="L80" t="n">
+        <v>6</v>
+      </c>
+      <c r="M80" t="n">
+        <v>70</v>
+      </c>
+      <c r="O80" t="n">
+        <v>0</v>
+      </c>
+      <c r="P80" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q80" t="inlineStr">
+        <is>
+          <t>2025-05-23 00:00:00</t>
+        </is>
+      </c>
+      <c r="R80" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S80" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>251251</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>BIMEC 2</t>
+        </is>
+      </c>
+      <c r="C81" t="n">
+        <v>23</v>
+      </c>
+      <c r="D81" t="n">
+        <v>247.8125</v>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>2025-05-14 07:16:47</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>2025-05-14 07:39:47</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>2025-05-14 07:39:47</t>
+        </is>
+      </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>2025-05-14 11:47:36</t>
+        </is>
+      </c>
+      <c r="I81" t="n">
+        <v>15860</v>
+      </c>
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>bobina</t>
+        </is>
+      </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
+        </is>
+      </c>
+      <c r="L81" t="n">
+        <v>6</v>
+      </c>
+      <c r="M81" t="n">
+        <v>70</v>
+      </c>
+      <c r="O81" t="n">
+        <v>0</v>
+      </c>
+      <c r="P81" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q81" t="inlineStr">
+        <is>
+          <t>2025-05-23 00:00:00</t>
+        </is>
+      </c>
+      <c r="R81" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S81" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>251750</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>R12</t>
+        </is>
+      </c>
+      <c r="C82" t="n">
+        <v>17</v>
+      </c>
+      <c r="D82" t="n">
+        <v>54.80281690140845</v>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>2025-05-14 07:21:35</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>2025-05-14 07:38:35</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>2025-05-14 07:38:35</t>
+        </is>
+      </c>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>2025-05-14 08:33:23</t>
+        </is>
+      </c>
+      <c r="I82" t="n">
+        <v>3891</v>
+      </c>
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>bobina</t>
+        </is>
+      </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+        </is>
+      </c>
+      <c r="L82" t="n">
+        <v>3</v>
+      </c>
+      <c r="M82" t="n">
+        <v>152</v>
+      </c>
+      <c r="O82" t="n">
+        <v>0</v>
+      </c>
+      <c r="P82" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q82" t="inlineStr">
+        <is>
+          <t>2025-05-26 00:00:00</t>
+        </is>
+      </c>
+      <c r="R82" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S82" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>251987</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>R12</t>
+        </is>
+      </c>
+      <c r="C83" t="n">
+        <v>36</v>
+      </c>
+      <c r="D83" t="n">
+        <v>2965.154929577465</v>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>2025-05-14 08:33:23</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>2025-05-14 09:09:23</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>2025-05-14 09:09:23</t>
+        </is>
+      </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>2025-05-22 10:34:32</t>
+        </is>
+      </c>
+      <c r="I83" t="n">
+        <v>210526</v>
+      </c>
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>bobina</t>
+        </is>
+      </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R9</t>
+        </is>
+      </c>
+      <c r="L83" t="n">
+        <v>6</v>
+      </c>
+      <c r="M83" t="n">
+        <v>76</v>
+      </c>
+      <c r="O83" t="n">
+        <v>0</v>
+      </c>
+      <c r="P83" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q83" t="inlineStr">
+        <is>
+          <t>2025-09-01 00:00:00</t>
+        </is>
+      </c>
+      <c r="R83" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S83" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>251249</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>BIMEC 4</t>
+        </is>
+      </c>
+      <c r="C84" t="n">
+        <v>25</v>
+      </c>
+      <c r="D84" t="n">
+        <v>78</v>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>2025-05-14 08:38:30</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>2025-05-14 09:03:30</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>2025-05-14 09:03:30</t>
+        </is>
+      </c>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>2025-05-14 10:21:30</t>
+        </is>
+      </c>
+      <c r="I84" t="n">
+        <v>4758</v>
+      </c>
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>bobina</t>
+        </is>
+      </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
+        </is>
+      </c>
+      <c r="L84" t="n">
+        <v>6</v>
+      </c>
+      <c r="M84" t="n">
+        <v>70</v>
+      </c>
+      <c r="O84" t="n">
+        <v>0</v>
+      </c>
+      <c r="P84" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q84" t="inlineStr">
+        <is>
+          <t>2025-06-06 00:00:00</t>
+        </is>
+      </c>
+      <c r="R84" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S84" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>251795</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>CASON</t>
+        </is>
+      </c>
+      <c r="C85" t="n">
+        <v>30.5</v>
+      </c>
+      <c r="D85" t="n">
+        <v>340.7090909090909</v>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>2025-05-14 09:25:12</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>2025-05-14 09:55:42</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>2025-05-14 09:55:42</t>
+        </is>
+      </c>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>2025-05-15 07:36:24</t>
+        </is>
+      </c>
+      <c r="I85" t="n">
+        <v>18739</v>
+      </c>
+      <c r="J85" t="inlineStr">
+        <is>
+          <t>bobina</t>
+        </is>
+      </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R9</t>
+        </is>
+      </c>
+      <c r="L85" t="n">
+        <v>6</v>
+      </c>
+      <c r="M85" t="n">
+        <v>70</v>
+      </c>
+      <c r="O85" t="n">
+        <v>0</v>
+      </c>
+      <c r="P85" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q85" t="inlineStr">
+        <is>
+          <t>2025-06-19 00:00:00</t>
+        </is>
+      </c>
+      <c r="R85" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S85" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>245090</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>BIMEC 4</t>
+        </is>
+      </c>
+      <c r="C86" t="n">
+        <v>42</v>
+      </c>
+      <c r="D86" t="n">
+        <v>8470.786885245901</v>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>2025-05-14 10:21:30</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>2025-05-14 11:03:30</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>2025-05-14 11:03:30</t>
+        </is>
+      </c>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>2025-06-09 08:14:17</t>
+        </is>
+      </c>
+      <c r="I86" t="n">
+        <v>516718</v>
+      </c>
+      <c r="J86" t="inlineStr">
+        <is>
+          <t>bobina</t>
+        </is>
+      </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+        </is>
+      </c>
+      <c r="L86" t="n">
+        <v>5</v>
+      </c>
+      <c r="M86" t="n">
+        <v>76</v>
+      </c>
+      <c r="O86" t="n">
+        <v>0</v>
+      </c>
+      <c r="P86" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q86" t="inlineStr">
+        <is>
+          <t>2025-12-31 00:00:00</t>
+        </is>
+      </c>
+      <c r="R86" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S86" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>245089</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>R9</t>
+        </is>
+      </c>
+      <c r="C87" t="n">
+        <v>40</v>
+      </c>
+      <c r="D87" t="n">
+        <v>1777.753623188406</v>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>2025-05-14 10:40:42</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>2025-05-14 11:20:42</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>2025-05-14 11:20:42</t>
+        </is>
+      </c>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>2025-05-20 08:58:27</t>
+        </is>
+      </c>
+      <c r="I87" t="n">
+        <v>122665</v>
+      </c>
+      <c r="J87" t="inlineStr">
+        <is>
+          <t>bobina</t>
+        </is>
+      </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+        </is>
+      </c>
+      <c r="L87" t="n">
+        <v>4</v>
+      </c>
+      <c r="M87" t="n">
+        <v>76</v>
+      </c>
+      <c r="O87" t="n">
+        <v>0</v>
+      </c>
+      <c r="P87" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q87" t="inlineStr">
+        <is>
+          <t>2025-12-31 00:00:00</t>
+        </is>
+      </c>
+      <c r="R87" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S87" t="n">
         <v>1</v>
       </c>
     </row>

--- a/PS-VRP/Dati_output/euristico_post.xlsx
+++ b/PS-VRP/Dati_output/euristico_post.xlsx
@@ -515,41 +515,41 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>251229</v>
+        <v>251164</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="D2" t="n">
-        <v>307.1967213114754</v>
+        <v>156.25</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2025-05-08 07:00:00</t>
+          <t>2025-05-07 07:00:00</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2025-05-08 07:40:00</t>
+          <t>2025-05-07 07:23:00</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2025-05-08 07:40:00</t>
+          <t>2025-05-07 07:23:00</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2025-05-08 12:47:11</t>
+          <t>2025-05-07 09:59:15</t>
         </is>
       </c>
       <c r="I2" t="n">
-        <v>18739</v>
+        <v>10000</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
@@ -558,7 +558,7 @@
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L2" t="n">
@@ -567,10 +567,8 @@
       <c r="M2" t="n">
         <v>70</v>
       </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>39723 (esterno)</t>
-        </is>
+      <c r="N2" t="n">
+        <v>39749</v>
       </c>
       <c r="O2" t="inlineStr">
         <is>
@@ -578,57 +576,57 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>39723</v>
+        <v>39749</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>2025-05-15 00:00:00</t>
+          <t>2025-04-22 00:00:00</t>
         </is>
       </c>
       <c r="R2" s="1" t="n">
-        <v>0</v>
+        <v>-0.4161458333333333</v>
       </c>
       <c r="S2" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>251164</v>
+        <v>251371</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>57</v>
+        <v>19</v>
       </c>
       <c r="D3" t="n">
-        <v>140.8450704225352</v>
+        <v>0</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2025-05-09 07:00:00</t>
+          <t>2025-05-07 09:59:15</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2025-05-09 07:57:00</t>
+          <t>2025-05-07 10:18:15</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>2025-05-09 07:57:00</t>
+          <t>2025-05-07 10:18:15</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2025-05-09 10:17:50</t>
+          <t>2025-05-07 10:18:15</t>
         </is>
       </c>
       <c r="I3" t="n">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="J3" t="inlineStr">
         <is>
@@ -641,13 +639,15 @@
         </is>
       </c>
       <c r="L3" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M3" t="n">
         <v>70</v>
       </c>
-      <c r="N3" t="n">
-        <v>39749</v>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>39666 (esterno)</t>
+        </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
@@ -655,57 +655,57 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>39749</v>
+        <v>39666</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>2025-04-22 00:00:00</t>
+          <t>2025-04-24 00:00:00</t>
         </is>
       </c>
       <c r="R3" s="1" t="n">
-        <v>-2.429059076678241</v>
+        <v>-13.42934027777778</v>
       </c>
       <c r="S3" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>251050</v>
+        <v>251391</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>195</v>
+        <v>17</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>91.640625</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2025-05-09 10:17:50</t>
+          <t>2025-05-07 10:18:15</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2025-05-09 13:32:50</t>
+          <t>2025-05-07 10:35:15</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>2025-05-09 13:32:50</t>
+          <t>2025-05-07 10:35:15</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>2025-05-09 13:32:50</t>
+          <t>2025-05-07 12:06:53</t>
         </is>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>5865</v>
       </c>
       <c r="J4" t="inlineStr">
         <is>
@@ -714,17 +714,17 @@
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L4" t="n">
-        <v>38</v>
+        <v>5</v>
       </c>
       <c r="M4" t="n">
         <v>70</v>
       </c>
       <c r="N4" t="n">
-        <v>39747</v>
+        <v>39749</v>
       </c>
       <c r="O4" t="inlineStr">
         <is>
@@ -732,57 +732,57 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>39747</v>
+        <v>39749</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>2025-04-16 00:00:00</t>
+          <t>2025-04-23 00:00:00</t>
         </is>
       </c>
       <c r="R4" s="1" t="n">
-        <v>-1.564475743344907</v>
+        <v>-0.50478515625</v>
       </c>
       <c r="S4" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>251054</v>
+        <v>251395</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>35.34375</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2025-05-09 13:32:50</t>
+          <t>2025-05-07 12:06:53</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2025-05-09 14:07:50</t>
+          <t>2025-05-07 12:23:53</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>2025-05-09 14:07:50</t>
+          <t>2025-05-07 12:23:53</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>2025-05-09 14:07:50</t>
+          <t>2025-05-07 12:59:14</t>
         </is>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>2262</v>
       </c>
       <c r="J5" t="inlineStr">
         <is>
@@ -791,17 +791,17 @@
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L5" t="n">
-        <v>38</v>
+        <v>6</v>
       </c>
       <c r="M5" t="n">
         <v>70</v>
       </c>
       <c r="N5" t="n">
-        <v>39747</v>
+        <v>39749</v>
       </c>
       <c r="O5" t="inlineStr">
         <is>
@@ -809,57 +809,57 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>39747</v>
+        <v>39749</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>2025-04-16 00:00:00</t>
+          <t>2025-04-23 00:00:00</t>
         </is>
       </c>
       <c r="R5" s="1" t="n">
-        <v>-1.588781298900463</v>
+        <v>-0.5411349826388889</v>
       </c>
       <c r="S5" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>251081</v>
+        <v>251396</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>125</v>
+        <v>15</v>
       </c>
       <c r="D6" t="n">
-        <v>42.42253521126761</v>
+        <v>35.34375</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2025-05-09 14:07:50</t>
+          <t>2025-05-07 12:59:14</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2025-05-12 08:12:50</t>
+          <t>2025-05-07 13:14:14</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>2025-05-12 08:12:50</t>
+          <t>2025-05-07 13:14:14</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>2025-05-12 08:55:16</t>
+          <t>2025-05-07 13:49:34</t>
         </is>
       </c>
       <c r="I6" t="n">
-        <v>3012</v>
+        <v>2262</v>
       </c>
       <c r="J6" t="inlineStr">
         <is>
@@ -868,19 +868,17 @@
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L6" t="n">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="M6" t="n">
         <v>70</v>
       </c>
-      <c r="N6" t="inlineStr">
-        <is>
-          <t>39750 (esterno)</t>
-        </is>
+      <c r="N6" t="n">
+        <v>39749</v>
       </c>
       <c r="O6" t="inlineStr">
         <is>
@@ -888,57 +886,57 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>39750</v>
+        <v>39749</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>2025-04-23 00:00:00</t>
+          <t>2025-05-02 00:00:00</t>
         </is>
       </c>
       <c r="R6" s="1" t="n">
-        <v>-19.37171361502315</v>
+        <v>-0.5760959201388889</v>
       </c>
       <c r="S6" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>251416</v>
+        <v>251548</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>R3</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="D7" t="n">
-        <v>229.0204081632653</v>
+        <v>206.90625</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>2025-05-08 07:00:00</t>
+          <t>2025-05-07 13:49:34</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2025-05-08 07:35:00</t>
+          <t>2025-05-07 14:08:34</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>2025-05-08 07:35:00</t>
+          <t>2025-05-07 14:08:34</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>2025-05-08 11:24:01</t>
+          <t>2025-05-08 09:35:29</t>
         </is>
       </c>
       <c r="I7" t="n">
-        <v>11222</v>
+        <v>13242</v>
       </c>
       <c r="J7" t="inlineStr">
         <is>
@@ -951,69 +949,71 @@
         </is>
       </c>
       <c r="L7" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M7" t="n">
         <v>70</v>
       </c>
       <c r="N7" t="n">
-        <v>39755</v>
-      </c>
-      <c r="O7" t="n">
-        <v>0</v>
+        <v>39749</v>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>39749</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>2025-04-23 00:00:00</t>
+          <t>2025-05-06 00:00:00</t>
         </is>
       </c>
       <c r="R7" s="1" t="n">
-        <v>0</v>
+        <v>-1.399641927083333</v>
       </c>
       <c r="S7" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>251227</v>
+        <v>251477</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>468.734375</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>2025-05-08 12:00:00</t>
+          <t>2025-05-08 09:35:29</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2025-05-08 12:19:00</t>
+          <t>2025-05-08 10:07:29</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>2025-05-08 12:19:00</t>
+          <t>2025-05-08 10:07:29</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>2025-05-08 12:19:00</t>
+          <t>2025-05-09 09:56:13</t>
         </is>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>29999</v>
       </c>
       <c r="J8" t="inlineStr">
         <is>
@@ -1022,17 +1022,17 @@
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L8" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M8" t="n">
         <v>76</v>
       </c>
       <c r="N8" t="n">
-        <v>39746</v>
+        <v>39760</v>
       </c>
       <c r="O8" t="inlineStr">
         <is>
@@ -1040,15 +1040,15 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>39746</v>
+        <v>39760</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>2025-05-05 00:00:00</t>
+          <t>2025-04-28 00:00:00</t>
         </is>
       </c>
       <c r="R8" s="1" t="n">
-        <v>-2.513194444444444</v>
+        <v>-2.414040798611111</v>
       </c>
       <c r="S8" t="n">
         <v>1</v>
@@ -1060,33 +1060,33 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D9" t="n">
-        <v>170.0422535211268</v>
+        <v>188.640625</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>2025-05-08 07:00:00</t>
+          <t>2025-05-09 09:56:13</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>2025-05-08 07:17:00</t>
+          <t>2025-05-09 10:11:13</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>2025-05-08 07:17:00</t>
+          <t>2025-05-09 10:11:13</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>2025-05-08 10:07:02</t>
+          <t>2025-05-09 13:19:51</t>
         </is>
       </c>
       <c r="I9" t="n">
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="R9" s="1" t="n">
-        <v>0</v>
+        <v>-0.5554578993055556</v>
       </c>
       <c r="S9" t="n">
         <v>1</v>
@@ -1133,41 +1133,41 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>251371</v>
+        <v>251651</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>BIMEC 4</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>767.7049180327868</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>2025-05-08 10:07:02</t>
+          <t>2025-05-09 07:00:00</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>2025-05-08 10:39:02</t>
+          <t>2025-05-09 07:29:00</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>2025-05-08 10:39:02</t>
+          <t>2025-05-09 07:29:00</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>2025-05-08 10:39:02</t>
+          <t>2025-05-12 12:16:42</t>
         </is>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>46830</v>
       </c>
       <c r="J10" t="inlineStr">
         <is>
@@ -1176,43 +1176,39 @@
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L10" t="n">
+        <v>5</v>
+      </c>
+      <c r="M10" t="n">
+        <v>76</v>
+      </c>
+      <c r="N10" t="n">
+        <v>39755</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q10" t="inlineStr">
+        <is>
+          <t>2025-05-12 00:00:00</t>
+        </is>
+      </c>
+      <c r="R10" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S10" t="n">
         <v>4</v>
-      </c>
-      <c r="M10" t="n">
-        <v>70</v>
-      </c>
-      <c r="N10" t="inlineStr">
-        <is>
-          <t>39666 (esterno)</t>
-        </is>
-      </c>
-      <c r="O10" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="P10" t="n">
-        <v>39666</v>
-      </c>
-      <c r="Q10" t="inlineStr">
-        <is>
-          <t>2025-04-24 00:00:00</t>
-        </is>
-      </c>
-      <c r="R10" s="1" t="n">
-        <v>-14.44377934271991</v>
-      </c>
-      <c r="S10" t="n">
-        <v>7</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>251456</v>
+        <v>251225</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
@@ -1220,33 +1216,33 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D11" t="n">
-        <v>126.7464788732394</v>
+        <v>0</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>2025-05-08 10:39:02</t>
+          <t>2025-05-08 07:00:00</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>2025-05-08 10:56:02</t>
+          <t>2025-05-08 07:19:00</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>2025-05-08 10:56:02</t>
+          <t>2025-05-08 07:19:00</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>2025-05-08 13:02:47</t>
+          <t>2025-05-08 07:19:00</t>
         </is>
       </c>
       <c r="I11" t="n">
-        <v>8999</v>
+        <v>0</v>
       </c>
       <c r="J11" t="inlineStr">
         <is>
@@ -1255,17 +1251,17 @@
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L11" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M11" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="N11" t="n">
-        <v>39746</v>
+        <v>39747</v>
       </c>
       <c r="O11" t="inlineStr">
         <is>
@@ -1273,15 +1269,15 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>39746</v>
+        <v>39747</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>2025-05-09 00:00:00</t>
+          <t>2025-04-30 00:00:00</t>
         </is>
       </c>
       <c r="R11" s="1" t="n">
-        <v>-2.543603286388889</v>
+        <v>-0.3048611111111111</v>
       </c>
       <c r="S11" t="n">
         <v>1</v>
@@ -1289,7 +1285,7 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>251840</v>
+        <v>251456</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
@@ -1297,33 +1293,33 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="D12" t="n">
-        <v>80.47887323943662</v>
+        <v>126.7464788732394</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>2025-05-08 13:02:47</t>
+          <t>2025-05-08 07:19:00</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>2025-05-08 13:21:47</t>
+          <t>2025-05-08 07:51:00</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>2025-05-08 13:21:47</t>
+          <t>2025-05-08 07:51:00</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>2025-05-08 14:42:16</t>
+          <t>2025-05-08 09:57:44</t>
         </is>
       </c>
       <c r="I12" t="n">
-        <v>5714</v>
+        <v>8999</v>
       </c>
       <c r="J12" t="inlineStr">
         <is>
@@ -1336,13 +1332,13 @@
         </is>
       </c>
       <c r="L12" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M12" t="n">
         <v>70</v>
       </c>
       <c r="N12" t="n">
-        <v>39758</v>
+        <v>39746</v>
       </c>
       <c r="O12" t="inlineStr">
         <is>
@@ -1350,7 +1346,7 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>39758</v>
+        <v>39746</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
@@ -1358,7 +1354,7 @@
         </is>
       </c>
       <c r="R12" s="1" t="n">
-        <v>-0.6126858372453704</v>
+        <v>-2.415101721435185</v>
       </c>
       <c r="S12" t="n">
         <v>1</v>
@@ -1366,7 +1362,7 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>251547</v>
+        <v>251455</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
@@ -1377,30 +1373,30 @@
         <v>17</v>
       </c>
       <c r="D13" t="n">
-        <v>184.9154929577465</v>
+        <v>74.6056338028169</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>2025-05-08 14:42:16</t>
+          <t>2025-05-08 09:57:44</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>2025-05-08 14:59:16</t>
+          <t>2025-05-08 10:14:44</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>2025-05-08 14:59:16</t>
+          <t>2025-05-08 10:14:44</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>2025-05-09 10:04:10</t>
+          <t>2025-05-08 11:29:21</t>
         </is>
       </c>
       <c r="I13" t="n">
-        <v>13129</v>
+        <v>5297</v>
       </c>
       <c r="J13" t="inlineStr">
         <is>
@@ -1431,11 +1427,11 @@
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>2025-05-06 00:00:00</t>
+          <t>2025-04-15 00:00:00</t>
         </is>
       </c>
       <c r="R13" s="1" t="n">
-        <v>-2.419571596238426</v>
+        <v>-1.478716744918982</v>
       </c>
       <c r="S13" t="n">
         <v>7</v>
@@ -1443,7 +1439,7 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>250759</v>
+        <v>251547</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
@@ -1451,33 +1447,33 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="D14" t="n">
-        <v>118.2816901408451</v>
+        <v>184.9154929577465</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>2025-05-09 10:04:10</t>
+          <t>2025-05-08 11:29:21</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>2025-05-09 10:34:10</t>
+          <t>2025-05-08 11:44:21</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>2025-05-09 10:34:10</t>
+          <t>2025-05-08 11:44:21</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>2025-05-09 12:32:27</t>
+          <t>2025-05-08 14:49:16</t>
         </is>
       </c>
       <c r="I14" t="n">
-        <v>8398</v>
+        <v>13129</v>
       </c>
       <c r="J14" t="inlineStr">
         <is>
@@ -1486,17 +1482,17 @@
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L14" t="n">
         <v>4</v>
       </c>
       <c r="M14" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="N14" t="n">
-        <v>39747</v>
+        <v>39749</v>
       </c>
       <c r="O14" t="inlineStr">
         <is>
@@ -1504,23 +1500,23 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>39747</v>
+        <v>39749</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>2025-03-13 00:00:00</t>
+          <t>2025-05-06 00:00:00</t>
         </is>
       </c>
       <c r="R14" s="1" t="n">
-        <v>-1.522544992175926</v>
+        <v>-1.617546948356481</v>
       </c>
       <c r="S14" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>250894</v>
+        <v>250759</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
@@ -1528,33 +1524,33 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="D15" t="n">
-        <v>623.4084507042254</v>
+        <v>118.2816901408451</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>2025-05-09 12:32:27</t>
+          <t>2025-05-08 14:49:16</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>2025-05-09 12:49:27</t>
+          <t>2025-05-09 07:19:16</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>2025-05-09 12:49:27</t>
+          <t>2025-05-09 07:19:16</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>2025-05-13 07:12:52</t>
+          <t>2025-05-09 09:17:32</t>
         </is>
       </c>
       <c r="I15" t="n">
-        <v>44262</v>
+        <v>8398</v>
       </c>
       <c r="J15" t="inlineStr">
         <is>
@@ -1563,73 +1559,75 @@
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12</t>
         </is>
       </c>
       <c r="L15" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M15" t="n">
         <v>76</v>
       </c>
       <c r="N15" t="n">
-        <v>39755</v>
-      </c>
-      <c r="O15" t="n">
-        <v>0</v>
+        <v>39747</v>
+      </c>
+      <c r="O15" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>39747</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>2025-05-05 00:00:00</t>
+          <t>2025-03-13 00:00:00</t>
         </is>
       </c>
       <c r="R15" s="1" t="n">
-        <v>-0.3006064162731482</v>
+        <v>-1.387187010949074</v>
       </c>
       <c r="S15" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>251651</v>
+        <v>250894</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="D16" t="n">
-        <v>767.7049180327868</v>
+        <v>623.4084507042254</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>2025-05-09 07:00:00</t>
+          <t>2025-05-09 09:17:32</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>2025-05-09 07:29:00</t>
+          <t>2025-05-09 09:34:32</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>2025-05-09 07:29:00</t>
+          <t>2025-05-09 09:34:32</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>2025-05-12 12:16:42</t>
+          <t>2025-05-12 11:57:57</t>
         </is>
       </c>
       <c r="I16" t="n">
-        <v>46830</v>
+        <v>44262</v>
       </c>
       <c r="J16" t="inlineStr">
         <is>
@@ -1658,7 +1656,7 @@
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>2025-05-12 00:00:00</t>
+          <t>2025-05-05 00:00:00</t>
         </is>
       </c>
       <c r="R16" s="1" t="n">
@@ -1751,33 +1749,33 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="D18" t="n">
-        <v>128.53125</v>
+        <v>134.8524590163935</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>2025-05-07 07:00:00</t>
+          <t>2025-05-08 07:00:00</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>2025-05-07 07:19:00</t>
+          <t>2025-05-08 07:30:00</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>2025-05-07 07:19:00</t>
+          <t>2025-05-08 07:30:00</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>2025-05-07 09:27:31</t>
+          <t>2025-05-08 09:44:51</t>
         </is>
       </c>
       <c r="I18" t="n">
@@ -1816,7 +1814,7 @@
         </is>
       </c>
       <c r="R18" s="1" t="n">
-        <v>-0.3941189236111111</v>
+        <v>-1.406147540983796</v>
       </c>
       <c r="S18" t="n">
         <v>7</v>
@@ -1824,41 +1822,41 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>251455</v>
+        <v>251840</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="D19" t="n">
-        <v>82.765625</v>
+        <v>93.67213114754098</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>2025-05-07 09:27:31</t>
+          <t>2025-05-08 09:44:51</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>2025-05-07 09:42:31</t>
+          <t>2025-05-08 10:09:51</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>2025-05-07 09:42:31</t>
+          <t>2025-05-08 10:09:51</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>2025-05-07 11:05:17</t>
+          <t>2025-05-08 11:43:31</t>
         </is>
       </c>
       <c r="I19" t="n">
-        <v>5297</v>
+        <v>5714</v>
       </c>
       <c r="J19" t="inlineStr">
         <is>
@@ -1871,13 +1869,13 @@
         </is>
       </c>
       <c r="L19" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M19" t="n">
         <v>70</v>
       </c>
       <c r="N19" t="n">
-        <v>39749</v>
+        <v>39758</v>
       </c>
       <c r="O19" t="inlineStr">
         <is>
@@ -1885,57 +1883,57 @@
         </is>
       </c>
       <c r="P19" t="n">
-        <v>39749</v>
+        <v>39758</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>2025-04-15 00:00:00</t>
+          <t>2025-05-09 00:00:00</t>
         </is>
       </c>
       <c r="R19" s="1" t="n">
-        <v>-0.46201171875</v>
+        <v>-0.4885587431712963</v>
       </c>
       <c r="S19" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>251391</v>
+        <v>251229</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="D20" t="n">
-        <v>91.640625</v>
+        <v>307.1967213114754</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>2025-05-07 11:05:17</t>
+          <t>2025-05-08 11:43:31</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>2025-05-07 11:22:17</t>
+          <t>2025-05-08 12:08:31</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>2025-05-07 11:22:17</t>
+          <t>2025-05-08 12:08:31</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>2025-05-07 12:53:56</t>
+          <t>2025-05-09 09:15:43</t>
         </is>
       </c>
       <c r="I20" t="n">
-        <v>5865</v>
+        <v>18739</v>
       </c>
       <c r="J20" t="inlineStr">
         <is>
@@ -1944,17 +1942,19 @@
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R9</t>
         </is>
       </c>
       <c r="L20" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M20" t="n">
         <v>70</v>
       </c>
-      <c r="N20" t="n">
-        <v>39749</v>
+      <c r="N20" t="inlineStr">
+        <is>
+          <t>39723 (esterno)</t>
+        </is>
       </c>
       <c r="O20" t="inlineStr">
         <is>
@@ -1962,57 +1962,57 @@
         </is>
       </c>
       <c r="P20" t="n">
-        <v>39749</v>
+        <v>39723</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>2025-04-23 00:00:00</t>
+          <t>2025-05-15 00:00:00</t>
         </is>
       </c>
       <c r="R20" s="1" t="n">
-        <v>-0.5374565972222223</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>251395</v>
+        <v>250923</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D21" t="n">
-        <v>35.34375</v>
+        <v>98.67605633802818</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>2025-05-07 12:53:56</t>
+          <t>2025-05-08 12:00:00</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>2025-05-07 13:10:56</t>
+          <t>2025-05-08 12:21:00</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>2025-05-07 13:10:56</t>
+          <t>2025-05-08 12:21:00</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>2025-05-07 13:46:16</t>
+          <t>2025-05-08 13:59:40</t>
         </is>
       </c>
       <c r="I21" t="n">
-        <v>2262</v>
+        <v>7006</v>
       </c>
       <c r="J21" t="inlineStr">
         <is>
@@ -2021,14 +2021,14 @@
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L21" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="M21" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="N21" t="n">
         <v>39749</v>
@@ -2043,53 +2043,53 @@
       </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>2025-04-23 00:00:00</t>
+          <t>2025-04-07 00:00:00</t>
         </is>
       </c>
       <c r="R21" s="1" t="n">
-        <v>-0.5738064236111111</v>
+        <v>-1.583108372453704</v>
       </c>
       <c r="S21" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>251396</v>
+        <v>251227</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D22" t="n">
-        <v>35.34375</v>
+        <v>0</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>2025-05-07 13:46:16</t>
+          <t>2025-05-08 13:59:40</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>2025-05-07 14:01:16</t>
+          <t>2025-05-08 14:16:40</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>2025-05-07 14:01:16</t>
+          <t>2025-05-08 14:16:40</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>2025-05-07 14:36:37</t>
+          <t>2025-05-08 14:16:40</t>
         </is>
       </c>
       <c r="I22" t="n">
-        <v>2262</v>
+        <v>0</v>
       </c>
       <c r="J22" t="inlineStr">
         <is>
@@ -2098,17 +2098,17 @@
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L22" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M22" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="N22" t="n">
-        <v>39749</v>
+        <v>39746</v>
       </c>
       <c r="O22" t="inlineStr">
         <is>
@@ -2116,57 +2116,57 @@
         </is>
       </c>
       <c r="P22" t="n">
-        <v>39749</v>
+        <v>39746</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>2025-05-02 00:00:00</t>
+          <t>2025-05-05 00:00:00</t>
         </is>
       </c>
       <c r="R22" s="1" t="n">
-        <v>-0.6087673611111111</v>
+        <v>-2.594913928009259</v>
       </c>
       <c r="S22" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>251548</v>
+        <v>251416</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>R3</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="D23" t="n">
-        <v>206.90625</v>
+        <v>229.0204081632653</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>2025-05-07 14:36:37</t>
+          <t>2025-05-08 07:00:00</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>2025-05-07 14:55:37</t>
+          <t>2025-05-08 07:35:00</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>2025-05-07 14:55:37</t>
+          <t>2025-05-08 07:35:00</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>2025-05-08 10:22:31</t>
+          <t>2025-05-08 11:24:01</t>
         </is>
       </c>
       <c r="I23" t="n">
-        <v>13242</v>
+        <v>11222</v>
       </c>
       <c r="J23" t="inlineStr">
         <is>
@@ -2179,67 +2179,65 @@
         </is>
       </c>
       <c r="L23" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M23" t="n">
         <v>70</v>
       </c>
       <c r="N23" t="n">
-        <v>39749</v>
-      </c>
-      <c r="O23" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>39755</v>
+      </c>
+      <c r="O23" t="n">
+        <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>39749</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>2025-05-06 00:00:00</t>
+          <t>2025-04-23 00:00:00</t>
         </is>
       </c>
       <c r="R23" s="1" t="n">
-        <v>-1.432313368055556</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>251225</v>
+        <v>251050</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>30</v>
+        <v>217</v>
       </c>
       <c r="D24" t="n">
         <v>0</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>2025-05-08 10:22:31</t>
+          <t>2025-05-09 07:00:00</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>2025-05-08 10:52:31</t>
+          <t>2025-05-09 10:37:00</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>2025-05-08 10:52:31</t>
+          <t>2025-05-09 10:37:00</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>2025-05-08 10:52:31</t>
+          <t>2025-05-09 10:37:00</t>
         </is>
       </c>
       <c r="I24" t="n">
@@ -2252,14 +2250,14 @@
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="L24" t="n">
-        <v>4</v>
+        <v>38</v>
       </c>
       <c r="M24" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="N24" t="n">
         <v>39747</v>
@@ -2274,53 +2272,53 @@
       </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>2025-04-30 00:00:00</t>
+          <t>2025-04-16 00:00:00</t>
         </is>
       </c>
       <c r="R24" s="1" t="n">
-        <v>-0.4531467013888889</v>
+        <v>-1.442361111111111</v>
       </c>
       <c r="S24" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>250923</v>
+        <v>251054</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="D25" t="n">
-        <v>109.46875</v>
+        <v>0</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>2025-05-08 10:52:31</t>
+          <t>2025-05-09 10:37:00</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>2025-05-08 11:09:31</t>
+          <t>2025-05-09 11:12:00</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>2025-05-08 11:09:31</t>
+          <t>2025-05-09 11:12:00</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>2025-05-08 12:59:00</t>
+          <t>2025-05-09 11:12:00</t>
         </is>
       </c>
       <c r="I25" t="n">
-        <v>7006</v>
+        <v>0</v>
       </c>
       <c r="J25" t="inlineStr">
         <is>
@@ -2329,17 +2327,17 @@
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="L25" t="n">
-        <v>5</v>
+        <v>38</v>
       </c>
       <c r="M25" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="N25" t="n">
-        <v>39749</v>
+        <v>39747</v>
       </c>
       <c r="O25" t="inlineStr">
         <is>
@@ -2347,15 +2345,15 @@
         </is>
       </c>
       <c r="P25" t="n">
-        <v>39749</v>
+        <v>39747</v>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>2025-04-07 00:00:00</t>
+          <t>2025-04-16 00:00:00</t>
         </is>
       </c>
       <c r="R25" s="1" t="n">
-        <v>-1.540972222222222</v>
+        <v>-1.466666666666667</v>
       </c>
       <c r="S25" t="n">
         <v>2</v>
@@ -2363,41 +2361,41 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>251477</v>
+        <v>251081</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>19</v>
+        <v>125</v>
       </c>
       <c r="D26" t="n">
-        <v>468.734375</v>
+        <v>42.42253521126761</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>2025-05-08 12:59:00</t>
+          <t>2025-05-09 11:12:00</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>2025-05-08 13:18:00</t>
+          <t>2025-05-09 13:17:00</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>2025-05-08 13:18:00</t>
+          <t>2025-05-09 13:17:00</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>2025-05-09 13:06:44</t>
+          <t>2025-05-09 13:59:25</t>
         </is>
       </c>
       <c r="I26" t="n">
-        <v>29999</v>
+        <v>3012</v>
       </c>
       <c r="J26" t="inlineStr">
         <is>
@@ -2406,17 +2404,19 @@
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R6 ;R9</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="L26" t="n">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="M26" t="n">
-        <v>76</v>
-      </c>
-      <c r="N26" t="n">
-        <v>39760</v>
+        <v>70</v>
+      </c>
+      <c r="N26" t="inlineStr">
+        <is>
+          <t>39750 (esterno)</t>
+        </is>
       </c>
       <c r="O26" t="inlineStr">
         <is>
@@ -2424,18 +2424,18 @@
         </is>
       </c>
       <c r="P26" t="n">
-        <v>39760</v>
+        <v>39750</v>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
-          <t>2025-04-28 00:00:00</t>
+          <t>2025-04-23 00:00:00</t>
         </is>
       </c>
       <c r="R26" s="1" t="n">
-        <v>-2.546343315972222</v>
+        <v>-16.58293231612268</v>
       </c>
       <c r="S26" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27">
@@ -2519,41 +2519,41 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>251340</v>
+        <v>251561</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>R3</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>17</v>
+        <v>50</v>
       </c>
       <c r="D28" t="n">
-        <v>461.9718309859155</v>
+        <v>110.9183673469388</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>2025-05-09 07:41:02</t>
+          <t>2025-05-08 11:24:01</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>2025-05-09 07:58:02</t>
+          <t>2025-05-08 12:14:01</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>2025-05-09 07:58:02</t>
+          <t>2025-05-08 12:14:01</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>2025-05-12 07:40:00</t>
+          <t>2025-05-08 14:04:56</t>
         </is>
       </c>
       <c r="I28" t="n">
-        <v>32800</v>
+        <v>5435</v>
       </c>
       <c r="J28" t="inlineStr">
         <is>
@@ -2562,14 +2562,14 @@
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L28" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="M28" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="O28" t="n">
         <v>0</v>
@@ -2579,53 +2579,53 @@
       </c>
       <c r="Q28" t="inlineStr">
         <is>
-          <t>2025-04-28 00:00:00</t>
+          <t>2025-05-07 00:00:00</t>
         </is>
       </c>
       <c r="R28" s="1" t="n">
-        <v>-14.31945422534722</v>
+        <v>-1.586763038553241</v>
       </c>
       <c r="S28" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>251561</v>
+        <v>251564</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>R3</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="D29" t="n">
-        <v>89.09836065573771</v>
+        <v>55.44897959183673</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>2025-05-09 09:15:43</t>
+          <t>2025-05-08 14:04:56</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>2025-05-09 09:40:43</t>
+          <t>2025-05-08 14:49:56</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>2025-05-09 09:40:43</t>
+          <t>2025-05-08 14:49:56</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>2025-05-09 11:09:49</t>
+          <t>2025-05-09 07:45:23</t>
         </is>
       </c>
       <c r="I29" t="n">
-        <v>5435</v>
+        <v>2717</v>
       </c>
       <c r="J29" t="inlineStr">
         <is>
@@ -2638,7 +2638,7 @@
         </is>
       </c>
       <c r="L29" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M29" t="n">
         <v>70</v>
@@ -2655,7 +2655,7 @@
         </is>
       </c>
       <c r="R29" s="1" t="n">
-        <v>-2.465152550092593</v>
+        <v>-2.323185941041666</v>
       </c>
       <c r="S29" t="n">
         <v>8</v>
@@ -2663,41 +2663,41 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>251564</v>
+        <v>251340</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="D30" t="n">
-        <v>42.453125</v>
+        <v>461.9718309859155</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>2025-05-09 10:51:12</t>
+          <t>2025-05-08 14:16:40</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>2025-05-09 11:21:12</t>
+          <t>2025-05-08 14:35:40</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>2025-05-09 11:21:12</t>
+          <t>2025-05-08 14:35:40</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>2025-05-09 12:03:39</t>
+          <t>2025-05-09 14:17:38</t>
         </is>
       </c>
       <c r="I30" t="n">
-        <v>2717</v>
+        <v>32800</v>
       </c>
       <c r="J30" t="inlineStr">
         <is>
@@ -2706,14 +2706,14 @@
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L30" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M30" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
@@ -2723,14 +2723,14 @@
       </c>
       <c r="Q30" t="inlineStr">
         <is>
-          <t>2025-05-07 00:00:00</t>
+          <t>2025-04-28 00:00:00</t>
         </is>
       </c>
       <c r="R30" s="1" t="n">
-        <v>-2.5025390625</v>
+        <v>-11.59558881063657</v>
       </c>
       <c r="S30" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="31">
@@ -2739,33 +2739,33 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>R3</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="D31" t="n">
-        <v>112.9344262295082</v>
+        <v>140.5918367346939</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>2025-05-09 11:09:49</t>
+          <t>2025-05-09 07:45:23</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>2025-05-09 11:34:49</t>
+          <t>2025-05-09 08:25:23</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>2025-05-09 11:34:49</t>
+          <t>2025-05-09 08:25:23</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>2025-05-09 13:27:45</t>
+          <t>2025-05-09 10:45:58</t>
         </is>
       </c>
       <c r="I31" t="n">
@@ -2799,7 +2799,7 @@
         </is>
       </c>
       <c r="R31" s="1" t="n">
-        <v>-2.560940346087963</v>
+        <v>-2.448596938773148</v>
       </c>
       <c r="S31" t="n">
         <v>8</v>
@@ -2811,33 +2811,33 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>R3</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="D32" t="n">
-        <v>255.1020408163265</v>
+        <v>204.9180327868852</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>2025-05-09 11:41:45</t>
+          <t>2025-05-09 09:15:43</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>2025-05-09 12:21:45</t>
+          <t>2025-05-09 09:50:43</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>2025-05-09 12:21:45</t>
+          <t>2025-05-09 09:50:43</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>2025-05-12 08:36:51</t>
+          <t>2025-05-09 13:15:38</t>
         </is>
       </c>
       <c r="I32" t="n">
@@ -2871,7 +2871,7 @@
         </is>
       </c>
       <c r="R32" s="1" t="n">
-        <v>-12.35892857142361</v>
+        <v>-9.552527322407407</v>
       </c>
       <c r="S32" t="n">
         <v>7</v>
@@ -2883,33 +2883,33 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>R3</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>19</v>
+        <v>40</v>
       </c>
       <c r="D33" t="n">
-        <v>101.03125</v>
+        <v>131.9591836734694</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>2025-05-09 12:03:39</t>
+          <t>2025-05-09 10:45:58</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>2025-05-09 12:22:39</t>
+          <t>2025-05-09 11:25:58</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>2025-05-09 12:22:39</t>
+          <t>2025-05-09 11:25:58</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>2025-05-09 14:03:41</t>
+          <t>2025-05-09 13:37:56</t>
         </is>
       </c>
       <c r="I33" t="n">
@@ -2943,7 +2943,7 @@
         </is>
       </c>
       <c r="R33" s="1" t="n">
-        <v>-9.585894097222223</v>
+        <v>-9.568013038553241</v>
       </c>
       <c r="S33" t="n">
         <v>7</v>
@@ -3031,29 +3031,29 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D35" t="n">
         <v>186.7540983606557</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>2025-05-09 13:27:45</t>
+          <t>2025-05-09 13:15:38</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>2025-05-09 13:57:45</t>
+          <t>2025-05-09 13:40:38</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>2025-05-09 13:57:45</t>
+          <t>2025-05-09 13:40:38</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>2025-05-12 09:04:30</t>
+          <t>2025-05-12 08:47:23</t>
         </is>
       </c>
       <c r="I35" t="n">
@@ -3099,33 +3099,33 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>125</v>
+        <v>32</v>
       </c>
       <c r="D36" t="n">
-        <v>185.5633802816901</v>
+        <v>205.859375</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>2025-05-09 13:59:25</t>
+          <t>2025-05-09 13:19:51</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>2025-05-12 08:04:25</t>
+          <t>2025-05-09 13:51:51</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>2025-05-12 08:04:25</t>
+          <t>2025-05-09 13:51:51</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>2025-05-12 11:09:59</t>
+          <t>2025-05-12 09:17:43</t>
         </is>
       </c>
       <c r="I36" t="n">
@@ -3167,41 +3167,41 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>245275</v>
+        <v>251373</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>R3</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D37" t="n">
-        <v>379.59375</v>
+        <v>348.8571428571428</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>2025-05-09 14:03:41</t>
+          <t>2025-05-09 13:37:56</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>2025-05-09 14:36:41</t>
+          <t>2025-05-09 14:12:56</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>2025-05-09 14:36:41</t>
+          <t>2025-05-09 14:12:56</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>2025-05-12 12:56:16</t>
+          <t>2025-05-12 12:01:47</t>
         </is>
       </c>
       <c r="I37" t="n">
-        <v>24294</v>
+        <v>17094</v>
       </c>
       <c r="J37" t="inlineStr">
         <is>
@@ -3210,11 +3210,11 @@
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;CASON ;R6</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L37" t="n">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="M37" t="n">
         <v>70</v>
@@ -3227,53 +3227,53 @@
       </c>
       <c r="Q37" t="inlineStr">
         <is>
-          <t>2025-12-31 00:00:00</t>
+          <t>2025-04-28 00:00:00</t>
         </is>
       </c>
       <c r="R37" s="1" t="n">
-        <v>0</v>
+        <v>-14.50124716553241</v>
       </c>
       <c r="S37" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>245350</v>
+        <v>245275</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>R9</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="C38" t="n">
         <v>65</v>
       </c>
       <c r="D38" t="n">
-        <v>405.3623188405797</v>
+        <v>342.1690140845071</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>2025-05-12 07:00:00</t>
+          <t>2025-05-09 13:59:25</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>2025-05-12 08:05:00</t>
+          <t>2025-05-12 07:04:25</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>2025-05-12 08:05:00</t>
+          <t>2025-05-12 07:04:25</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>2025-05-12 14:50:21</t>
+          <t>2025-05-12 12:46:35</t>
         </is>
       </c>
       <c r="I38" t="n">
-        <v>27970</v>
+        <v>24294</v>
       </c>
       <c r="J38" t="inlineStr">
         <is>
@@ -3282,11 +3282,11 @@
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R6 ;R9</t>
+          <t>BIMEC 2 ;CASON ;R6</t>
         </is>
       </c>
       <c r="L38" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="M38" t="n">
         <v>70</v>
@@ -3326,22 +3326,22 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>2025-05-12 07:40:00</t>
+          <t>2025-05-09 14:17:38</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>2025-05-12 07:57:00</t>
+          <t>2025-05-09 14:34:38</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>2025-05-12 07:57:00</t>
+          <t>2025-05-09 14:34:38</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>2025-05-12 08:33:38</t>
+          <t>2025-05-12 07:11:16</t>
         </is>
       </c>
       <c r="I39" t="n">
@@ -3375,7 +3375,7 @@
         </is>
       </c>
       <c r="R39" s="1" t="n">
-        <v>-238.3566999217477</v>
+        <v>-238.2995011737037</v>
       </c>
       <c r="S39" t="n">
         <v>2</v>
@@ -3383,41 +3383,41 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>235572</v>
+        <v>245350</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>R9</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>30</v>
+        <v>65</v>
       </c>
       <c r="D40" t="n">
-        <v>140.2535211267606</v>
+        <v>405.3623188405797</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>2025-05-12 07:47:36</t>
+          <t>2025-05-12 07:00:00</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>2025-05-12 08:17:36</t>
+          <t>2025-05-12 08:05:00</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>2025-05-12 08:17:36</t>
+          <t>2025-05-12 08:05:00</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>2025-05-12 10:37:51</t>
+          <t>2025-05-12 14:50:21</t>
         </is>
       </c>
       <c r="I40" t="n">
-        <v>9958</v>
+        <v>27970</v>
       </c>
       <c r="J40" t="inlineStr">
         <is>
@@ -3430,7 +3430,7 @@
         </is>
       </c>
       <c r="L40" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="M40" t="n">
         <v>70</v>
@@ -3443,14 +3443,14 @@
       </c>
       <c r="Q40" t="inlineStr">
         <is>
-          <t>2023-11-06 00:00:00</t>
+          <t>2025-12-31 00:00:00</t>
         </is>
       </c>
       <c r="R40" s="1" t="n">
-        <v>-553.4429577464815</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="41">
@@ -3470,22 +3470,22 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>2025-05-12 08:33:38</t>
+          <t>2025-05-12 07:11:16</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>2025-05-12 09:05:38</t>
+          <t>2025-05-12 07:43:16</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>2025-05-12 09:05:38</t>
+          <t>2025-05-12 07:43:16</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>2025-05-13 07:17:44</t>
+          <t>2025-05-12 13:55:22</t>
         </is>
       </c>
       <c r="I41" t="n">
@@ -3519,7 +3519,7 @@
         </is>
       </c>
       <c r="R41" s="1" t="n">
-        <v>-108.3039906103241</v>
+        <v>-107.5801251956134</v>
       </c>
       <c r="S41" t="n">
         <v>2</v>
@@ -3527,41 +3527,41 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>251373</v>
+        <v>251424</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>R3</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="D42" t="n">
-        <v>348.8571428571428</v>
+        <v>158.3934426229508</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>2025-05-12 08:36:51</t>
+          <t>2025-05-12 08:47:23</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>2025-05-12 09:21:51</t>
+          <t>2025-05-12 09:17:23</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>2025-05-12 09:21:51</t>
+          <t>2025-05-12 09:17:23</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>2025-05-13 07:10:42</t>
+          <t>2025-05-12 11:55:47</t>
         </is>
       </c>
       <c r="I42" t="n">
-        <v>17094</v>
+        <v>9662</v>
       </c>
       <c r="J42" t="inlineStr">
         <is>
@@ -3574,7 +3574,7 @@
         </is>
       </c>
       <c r="L42" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M42" t="n">
         <v>70</v>
@@ -3591,7 +3591,7 @@
         </is>
       </c>
       <c r="R42" s="1" t="n">
-        <v>-15.2991071428588</v>
+        <v>-14.49707422586805</v>
       </c>
       <c r="S42" t="n">
         <v>4</v>
@@ -3599,41 +3599,41 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>251424</v>
+        <v>235572</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="D43" t="n">
-        <v>158.3934426229508</v>
+        <v>155.59375</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>2025-05-12 09:04:30</t>
+          <t>2025-05-12 09:17:43</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>2025-05-12 09:34:30</t>
+          <t>2025-05-12 09:38:43</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>2025-05-12 09:34:30</t>
+          <t>2025-05-12 09:38:43</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>2025-05-12 12:12:54</t>
+          <t>2025-05-12 12:14:18</t>
         </is>
       </c>
       <c r="I43" t="n">
-        <v>9662</v>
+        <v>9958</v>
       </c>
       <c r="J43" t="inlineStr">
         <is>
@@ -3642,11 +3642,11 @@
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R6 ;R9</t>
         </is>
       </c>
       <c r="L43" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M43" t="n">
         <v>70</v>
@@ -3659,11 +3659,11 @@
       </c>
       <c r="Q43" t="inlineStr">
         <is>
-          <t>2025-04-28 00:00:00</t>
+          <t>2023-11-06 00:00:00</t>
         </is>
       </c>
       <c r="R43" s="1" t="n">
-        <v>-14.50895947177083</v>
+        <v>-553.5099392361111</v>
       </c>
       <c r="S43" t="n">
         <v>4</v>
@@ -3747,33 +3747,33 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>17</v>
+        <v>32.5</v>
       </c>
       <c r="D45" t="n">
-        <v>122.2676056338028</v>
+        <v>157.8363636363636</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>2025-05-12 10:37:51</t>
+          <t>2025-05-12 11:44:35</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>2025-05-12 10:54:51</t>
+          <t>2025-05-12 12:17:05</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>2025-05-12 10:54:51</t>
+          <t>2025-05-12 12:17:05</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>2025-05-12 12:57:07</t>
+          <t>2025-05-12 14:54:55</t>
         </is>
       </c>
       <c r="I45" t="n">
@@ -3807,7 +3807,7 @@
         </is>
       </c>
       <c r="R45" s="1" t="n">
-        <v>-12.53967136150463</v>
+        <v>-12.62147727273148</v>
       </c>
       <c r="S45" t="n">
         <v>4</v>
@@ -3819,33 +3819,33 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="D46" t="n">
-        <v>91.07042253521126</v>
+        <v>106</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>2025-05-12 11:09:59</t>
+          <t>2025-05-12 11:55:47</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>2025-05-12 11:54:59</t>
+          <t>2025-05-12 12:15:47</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>2025-05-12 11:54:59</t>
+          <t>2025-05-12 12:15:47</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>2025-05-12 13:26:03</t>
+          <t>2025-05-12 14:01:47</t>
         </is>
       </c>
       <c r="I46" t="n">
@@ -3879,7 +3879,7 @@
         </is>
       </c>
       <c r="R46" s="1" t="n">
-        <v>-5.559761345856481</v>
+        <v>-5.584574225868056</v>
       </c>
       <c r="S46" t="n">
         <v>4</v>
@@ -3891,33 +3891,33 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>32.5</v>
+        <v>32</v>
       </c>
       <c r="D47" t="n">
-        <v>78.36363636363636</v>
+        <v>60.70422535211268</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>2025-05-12 11:44:35</t>
+          <t>2025-05-12 11:57:57</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>2025-05-12 12:17:05</t>
+          <t>2025-05-12 12:29:57</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>2025-05-12 12:17:05</t>
+          <t>2025-05-12 12:29:57</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>2025-05-12 13:35:27</t>
+          <t>2025-05-12 13:30:39</t>
         </is>
       </c>
       <c r="I47" t="n">
@@ -3951,7 +3951,7 @@
         </is>
       </c>
       <c r="R47" s="1" t="n">
-        <v>-4.566287878784722</v>
+        <v>-4.562959702662037</v>
       </c>
       <c r="S47" t="n">
         <v>4</v>
@@ -3963,33 +3963,33 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>R3</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="D48" t="n">
-        <v>70.65573770491804</v>
+        <v>87.95918367346938</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>2025-05-12 12:12:54</t>
+          <t>2025-05-12 12:01:47</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>2025-05-12 12:32:54</t>
+          <t>2025-05-12 12:41:47</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>2025-05-12 12:32:54</t>
+          <t>2025-05-12 12:41:47</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>2025-05-12 13:43:33</t>
+          <t>2025-05-12 14:09:45</t>
         </is>
       </c>
       <c r="I48" t="n">
@@ -4023,7 +4023,7 @@
         </is>
       </c>
       <c r="R48" s="1" t="n">
-        <v>-4.571914845173612</v>
+        <v>-4.59010770974537</v>
       </c>
       <c r="S48" t="n">
         <v>4</v>
@@ -4035,33 +4035,33 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="D49" t="n">
-        <v>56.91803278688525</v>
+        <v>54.25</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>2025-05-12 12:16:42</t>
+          <t>2025-05-12 12:14:18</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>2025-05-12 12:58:42</t>
+          <t>2025-05-12 12:31:18</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>2025-05-12 12:58:42</t>
+          <t>2025-05-12 12:31:18</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>2025-05-12 13:55:37</t>
+          <t>2025-05-12 13:25:33</t>
         </is>
       </c>
       <c r="I49" t="n">
@@ -4095,7 +4095,7 @@
         </is>
       </c>
       <c r="R49" s="1" t="n">
-        <v>-4.580293715844907</v>
+        <v>-4.559418402777778</v>
       </c>
       <c r="S49" t="n">
         <v>4</v>
@@ -4107,33 +4107,33 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>BIMEC 4</t>
         </is>
       </c>
       <c r="C50" t="n">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="D50" t="n">
-        <v>168.375</v>
+        <v>176.655737704918</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>2025-05-12 12:56:16</t>
+          <t>2025-05-12 12:16:42</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>2025-05-12 13:31:16</t>
+          <t>2025-05-12 12:58:42</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>2025-05-12 13:31:16</t>
+          <t>2025-05-12 12:58:42</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>2025-05-13 08:19:39</t>
+          <t>2025-05-13 07:55:21</t>
         </is>
       </c>
       <c r="I50" t="n">
@@ -4179,33 +4179,33 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="C51" t="n">
-        <v>15</v>
+        <v>85</v>
       </c>
       <c r="D51" t="n">
         <v>122.2676056338028</v>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>2025-05-12 12:57:07</t>
+          <t>2025-05-12 12:46:35</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>2025-05-12 13:12:07</t>
+          <t>2025-05-12 14:11:35</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>2025-05-12 13:12:07</t>
+          <t>2025-05-12 14:11:35</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>2025-05-13 07:14:23</t>
+          <t>2025-05-13 08:13:51</t>
         </is>
       </c>
       <c r="I51" t="n">
@@ -4247,41 +4247,41 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>251109</v>
+        <v>250819</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C52" t="n">
-        <v>95</v>
+        <v>19</v>
       </c>
       <c r="D52" t="n">
-        <v>266.5915492957747</v>
+        <v>133.234375</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>2025-05-12 13:26:03</t>
+          <t>2025-05-12 13:25:33</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>2025-05-13 07:01:03</t>
+          <t>2025-05-12 13:44:33</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>2025-05-13 07:01:03</t>
+          <t>2025-05-12 13:44:33</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>2025-05-13 11:27:38</t>
+          <t>2025-05-13 07:57:47</t>
         </is>
       </c>
       <c r="I52" t="n">
-        <v>18928</v>
+        <v>8527</v>
       </c>
       <c r="J52" t="inlineStr">
         <is>
@@ -4290,11 +4290,11 @@
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L52" t="n">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="M52" t="n">
         <v>70</v>
@@ -4311,7 +4311,7 @@
         </is>
       </c>
       <c r="R52" s="1" t="n">
-        <v>-25.47753325508102</v>
+        <v>-25.33180338541667</v>
       </c>
       <c r="S52" t="n">
         <v>2</v>
@@ -4319,41 +4319,41 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>250819</v>
+        <v>251485</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C53" t="n">
-        <v>34.5</v>
+        <v>17</v>
       </c>
       <c r="D53" t="n">
-        <v>155.0363636363636</v>
+        <v>67.71830985915493</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>2025-05-12 13:35:27</t>
+          <t>2025-05-12 13:30:39</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>2025-05-12 14:09:57</t>
+          <t>2025-05-12 13:47:39</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>2025-05-12 14:09:57</t>
+          <t>2025-05-12 13:47:39</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>2025-05-13 08:44:59</t>
+          <t>2025-05-12 14:55:22</t>
         </is>
       </c>
       <c r="I53" t="n">
-        <v>8527</v>
+        <v>4808</v>
       </c>
       <c r="J53" t="inlineStr">
         <is>
@@ -4366,7 +4366,7 @@
         </is>
       </c>
       <c r="L53" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="M53" t="n">
         <v>70</v>
@@ -4379,11 +4379,11 @@
       </c>
       <c r="Q53" t="inlineStr">
         <is>
-          <t>2025-04-18 00:00:00</t>
+          <t>2025-04-23 00:00:00</t>
         </is>
       </c>
       <c r="R53" s="1" t="n">
-        <v>-25.36457702019676</v>
+        <v>-19.62179186228009</v>
       </c>
       <c r="S53" t="n">
         <v>2</v>
@@ -4391,41 +4391,41 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>251485</v>
+        <v>250670</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C54" t="n">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="D54" t="n">
-        <v>78.81967213114754</v>
+        <v>22.01408450704225</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>2025-05-12 13:43:33</t>
+          <t>2025-05-12 13:55:22</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>2025-05-12 14:08:33</t>
+          <t>2025-05-12 14:29:22</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>2025-05-12 14:08:33</t>
+          <t>2025-05-12 14:29:22</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>2025-05-13 07:27:22</t>
+          <t>2025-05-12 14:51:23</t>
         </is>
       </c>
       <c r="I54" t="n">
-        <v>4808</v>
+        <v>1563</v>
       </c>
       <c r="J54" t="inlineStr">
         <is>
@@ -4434,14 +4434,14 @@
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L54" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M54" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="O54" t="n">
         <v>0</v>
@@ -4451,11 +4451,11 @@
       </c>
       <c r="Q54" t="inlineStr">
         <is>
-          <t>2025-04-23 00:00:00</t>
+          <t>2025-05-05 00:00:00</t>
         </is>
       </c>
       <c r="R54" s="1" t="n">
-        <v>-20.31067850637731</v>
+        <v>-7.619023865416667</v>
       </c>
       <c r="S54" t="n">
         <v>2</v>
@@ -4467,33 +4467,33 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C55" t="n">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="D55" t="n">
         <v>63.26229508196721</v>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>2025-05-12 13:55:37</t>
+          <t>2025-05-12 14:01:47</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>2025-05-12 14:28:37</t>
+          <t>2025-05-12 14:41:47</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>2025-05-12 14:28:37</t>
+          <t>2025-05-12 14:41:47</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>2025-05-13 07:31:53</t>
+          <t>2025-05-13 07:45:02</t>
         </is>
       </c>
       <c r="I55" t="n">
@@ -4527,7 +4527,7 @@
         </is>
       </c>
       <c r="R55" s="1" t="n">
-        <v>-15.31380919854167</v>
+        <v>-15.32295081967592</v>
       </c>
       <c r="S55" t="n">
         <v>2</v>
@@ -4539,33 +4539,33 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>R9</t>
+          <t>R3</t>
         </is>
       </c>
       <c r="C56" t="n">
         <v>45</v>
       </c>
       <c r="D56" t="n">
-        <v>74.14492753623189</v>
+        <v>104.4081632653061</v>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>2025-05-12 14:50:21</t>
+          <t>2025-05-12 14:09:45</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>2025-05-13 07:35:21</t>
+          <t>2025-05-12 14:54:45</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>2025-05-13 07:35:21</t>
+          <t>2025-05-12 14:54:45</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>2025-05-13 08:49:30</t>
+          <t>2025-05-13 08:39:09</t>
         </is>
       </c>
       <c r="I56" t="n">
@@ -4599,7 +4599,7 @@
         </is>
       </c>
       <c r="R56" s="1" t="n">
-        <v>-15.36771336554398</v>
+        <v>-15.36053004534722</v>
       </c>
       <c r="S56" t="n">
         <v>2</v>
@@ -4607,41 +4607,41 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>250670</v>
+        <v>251259</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>R3</t>
+          <t>R9</t>
         </is>
       </c>
       <c r="C57" t="n">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="D57" t="n">
-        <v>31.89795918367347</v>
+        <v>72.46376811594203</v>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>2025-05-13 07:10:42</t>
+          <t>2025-05-12 14:50:21</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>2025-05-13 07:52:42</t>
+          <t>2025-05-13 07:20:21</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>2025-05-13 07:52:42</t>
+          <t>2025-05-13 07:20:21</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>2025-05-13 08:24:36</t>
+          <t>2025-05-13 08:32:49</t>
         </is>
       </c>
       <c r="I57" t="n">
-        <v>1563</v>
+        <v>5000</v>
       </c>
       <c r="J57" t="inlineStr">
         <is>
@@ -4650,14 +4650,14 @@
       </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L57" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="M57" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="O57" t="n">
         <v>0</v>
@@ -4667,11 +4667,11 @@
       </c>
       <c r="Q57" t="inlineStr">
         <is>
-          <t>2025-05-05 00:00:00</t>
+          <t>2025-05-06 00:00:00</t>
         </is>
       </c>
       <c r="R57" s="1" t="n">
-        <v>-8.350425170069444</v>
+        <v>-7.356129227048611</v>
       </c>
       <c r="S57" t="n">
         <v>2</v>
@@ -4679,41 +4679,41 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>251259</v>
+        <v>243335</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C58" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D58" t="n">
-        <v>70.4225352112676</v>
+        <v>464.8450704225352</v>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>2025-05-13 07:14:23</t>
+          <t>2025-05-12 14:51:23</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>2025-05-13 07:39:23</t>
+          <t>2025-05-13 07:21:23</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>2025-05-13 07:39:23</t>
+          <t>2025-05-13 07:21:23</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>2025-05-13 08:49:49</t>
+          <t>2025-05-14 07:06:14</t>
         </is>
       </c>
       <c r="I58" t="n">
-        <v>5000</v>
+        <v>33004</v>
       </c>
       <c r="J58" t="inlineStr">
         <is>
@@ -4722,14 +4722,14 @@
       </c>
       <c r="K58" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L58" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="M58" t="n">
-        <v>70</v>
+        <v>152</v>
       </c>
       <c r="O58" t="n">
         <v>0</v>
@@ -4739,53 +4739,53 @@
       </c>
       <c r="Q58" t="inlineStr">
         <is>
-          <t>2025-05-06 00:00:00</t>
+          <t>2024-08-02 00:00:00</t>
         </is>
       </c>
       <c r="R58" s="1" t="n">
-        <v>-7.367928403761574</v>
+        <v>-285.2959996087616</v>
       </c>
       <c r="S58" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>243335</v>
+        <v>251761</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C59" t="n">
-        <v>19</v>
+        <v>30.5</v>
       </c>
       <c r="D59" t="n">
-        <v>464.8450704225352</v>
+        <v>241.4363636363636</v>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>2025-05-13 07:17:44</t>
+          <t>2025-05-12 14:54:55</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>2025-05-13 07:36:44</t>
+          <t>2025-05-13 07:25:25</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>2025-05-13 07:36:44</t>
+          <t>2025-05-13 07:25:25</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>2025-05-14 07:21:35</t>
+          <t>2025-05-13 11:26:51</t>
         </is>
       </c>
       <c r="I59" t="n">
-        <v>33004</v>
+        <v>13279</v>
       </c>
       <c r="J59" t="inlineStr">
         <is>
@@ -4794,14 +4794,14 @@
       </c>
       <c r="K59" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L59" t="n">
         <v>4</v>
       </c>
       <c r="M59" t="n">
-        <v>152</v>
+        <v>70</v>
       </c>
       <c r="O59" t="n">
         <v>0</v>
@@ -4811,53 +4811,53 @@
       </c>
       <c r="Q59" t="inlineStr">
         <is>
-          <t>2024-08-02 00:00:00</t>
+          <t>2025-05-19 00:00:00</t>
         </is>
       </c>
       <c r="R59" s="1" t="n">
-        <v>-285.306660798125</v>
+        <v>0</v>
       </c>
       <c r="S59" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>251761</v>
+        <v>244023</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C60" t="n">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="D60" t="n">
-        <v>217.6885245901639</v>
+        <v>14.04225352112676</v>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>2025-05-13 07:27:22</t>
+          <t>2025-05-12 14:55:22</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>2025-05-13 07:52:22</t>
+          <t>2025-05-13 07:12:22</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>2025-05-13 07:52:22</t>
+          <t>2025-05-13 07:12:22</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>2025-05-13 11:30:03</t>
+          <t>2025-05-13 07:26:25</t>
         </is>
       </c>
       <c r="I60" t="n">
-        <v>13279</v>
+        <v>997</v>
       </c>
       <c r="J60" t="inlineStr">
         <is>
@@ -4870,7 +4870,7 @@
         </is>
       </c>
       <c r="L60" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M60" t="n">
         <v>70</v>
@@ -4883,53 +4883,53 @@
       </c>
       <c r="Q60" t="inlineStr">
         <is>
-          <t>2025-05-19 00:00:00</t>
+          <t>2024-09-30 00:00:00</t>
         </is>
       </c>
       <c r="R60" s="1" t="n">
-        <v>0</v>
+        <v>-225.310015649456</v>
       </c>
       <c r="S60" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>244023</v>
+        <v>251283</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C61" t="n">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="D61" t="n">
-        <v>16.34426229508197</v>
+        <v>10.61971830985915</v>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>2025-05-13 07:31:53</t>
+          <t>2025-05-13 07:26:25</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>2025-05-13 08:00:53</t>
+          <t>2025-05-13 07:41:25</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>2025-05-13 08:00:53</t>
+          <t>2025-05-13 07:41:25</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>2025-05-13 08:17:13</t>
+          <t>2025-05-13 07:52:02</t>
         </is>
       </c>
       <c r="I61" t="n">
-        <v>997</v>
+        <v>754</v>
       </c>
       <c r="J61" t="inlineStr">
         <is>
@@ -4938,7 +4938,7 @@
       </c>
       <c r="K61" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
         </is>
       </c>
       <c r="L61" t="n">
@@ -4955,11 +4955,11 @@
       </c>
       <c r="Q61" t="inlineStr">
         <is>
-          <t>2024-09-30 00:00:00</t>
+          <t>2025-03-18 00:00:00</t>
         </is>
       </c>
       <c r="R61" s="1" t="n">
-        <v>-225.3452982695833</v>
+        <v>-56.32780712049768</v>
       </c>
       <c r="S61" t="n">
         <v>1</v>
@@ -4967,37 +4967,37 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>251283</v>
+        <v>251245</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C62" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D62" t="n">
         <v>12.36065573770492</v>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>2025-05-13 08:17:13</t>
+          <t>2025-05-13 07:45:02</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>2025-05-13 08:42:13</t>
+          <t>2025-05-13 08:15:02</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>2025-05-13 08:42:13</t>
+          <t>2025-05-13 08:15:02</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>2025-05-13 08:54:35</t>
+          <t>2025-05-13 08:27:24</t>
         </is>
       </c>
       <c r="I62" t="n">
@@ -5027,11 +5027,11 @@
       </c>
       <c r="Q62" t="inlineStr">
         <is>
-          <t>2025-03-18 00:00:00</t>
+          <t>2025-03-28 00:00:00</t>
         </is>
       </c>
       <c r="R62" s="1" t="n">
-        <v>-56.37124316939815</v>
+        <v>-46.35236794171296</v>
       </c>
       <c r="S62" t="n">
         <v>1</v>
@@ -5039,41 +5039,41 @@
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>251245</v>
+        <v>251061</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C63" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D63" t="n">
-        <v>11.78125</v>
+        <v>337.9859154929578</v>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>2025-05-13 08:19:39</t>
+          <t>2025-05-13 07:52:02</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>2025-05-13 08:38:39</t>
+          <t>2025-05-13 08:07:02</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>2025-05-13 08:38:39</t>
+          <t>2025-05-13 08:07:02</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>2025-05-13 08:50:26</t>
+          <t>2025-05-13 13:45:01</t>
         </is>
       </c>
       <c r="I63" t="n">
-        <v>754</v>
+        <v>23997</v>
       </c>
       <c r="J63" t="inlineStr">
         <is>
@@ -5099,11 +5099,11 @@
       </c>
       <c r="Q63" t="inlineStr">
         <is>
-          <t>2025-03-28 00:00:00</t>
+          <t>2025-05-05 00:00:00</t>
         </is>
       </c>
       <c r="R63" s="1" t="n">
-        <v>-46.368359375</v>
+        <v>-8.572936228483796</v>
       </c>
       <c r="S63" t="n">
         <v>1</v>
@@ -5111,41 +5111,41 @@
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>251061</v>
+        <v>251247</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>R3</t>
+          <t>BIMEC 4</t>
         </is>
       </c>
       <c r="C64" t="n">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="D64" t="n">
-        <v>489.734693877551</v>
+        <v>441.5409836065574</v>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>2025-05-13 08:24:36</t>
+          <t>2025-05-13 07:55:21</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>2025-05-13 09:11:36</t>
+          <t>2025-05-13 08:24:21</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>2025-05-13 09:11:36</t>
+          <t>2025-05-13 08:24:21</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>2025-05-14 09:21:20</t>
+          <t>2025-05-14 07:45:54</t>
         </is>
       </c>
       <c r="I64" t="n">
-        <v>23997</v>
+        <v>26934</v>
       </c>
       <c r="J64" t="inlineStr">
         <is>
@@ -5171,11 +5171,11 @@
       </c>
       <c r="Q64" t="inlineStr">
         <is>
-          <t>2025-05-05 00:00:00</t>
+          <t>2025-05-09 00:00:00</t>
         </is>
       </c>
       <c r="R64" s="1" t="n">
-        <v>-9.389824263043982</v>
+        <v>-5.323542805104167</v>
       </c>
       <c r="S64" t="n">
         <v>1</v>
@@ -5183,41 +5183,41 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>251247</v>
+        <v>251246</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C65" t="n">
-        <v>30.5</v>
+        <v>15</v>
       </c>
       <c r="D65" t="n">
-        <v>489.7090909090909</v>
+        <v>187.53125</v>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>2025-05-13 08:44:59</t>
+          <t>2025-05-13 07:57:47</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>2025-05-13 09:15:29</t>
+          <t>2025-05-13 08:12:47</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>2025-05-13 09:15:29</t>
+          <t>2025-05-13 08:12:47</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>2025-05-14 09:25:12</t>
+          <t>2025-05-13 11:20:19</t>
         </is>
       </c>
       <c r="I65" t="n">
-        <v>26934</v>
+        <v>12002</v>
       </c>
       <c r="J65" t="inlineStr">
         <is>
@@ -5247,7 +5247,7 @@
         </is>
       </c>
       <c r="R65" s="1" t="n">
-        <v>-5.3925</v>
+        <v>-4.472450086805556</v>
       </c>
       <c r="S65" t="n">
         <v>1</v>
@@ -5255,41 +5255,41 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>251246</v>
+        <v>251109</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>R9</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="C66" t="n">
-        <v>25</v>
+        <v>95</v>
       </c>
       <c r="D66" t="n">
-        <v>173.9420289855072</v>
+        <v>266.5915492957747</v>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>2025-05-13 08:49:30</t>
+          <t>2025-05-13 08:13:51</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>2025-05-13 09:14:30</t>
+          <t>2025-05-13 09:48:51</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>2025-05-13 09:14:30</t>
+          <t>2025-05-13 09:48:51</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>2025-05-13 12:08:26</t>
+          <t>2025-05-13 14:15:27</t>
         </is>
       </c>
       <c r="I66" t="n">
-        <v>12002</v>
+        <v>18928</v>
       </c>
       <c r="J66" t="inlineStr">
         <is>
@@ -5298,11 +5298,11 @@
       </c>
       <c r="K66" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="L66" t="n">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="M66" t="n">
         <v>70</v>
@@ -5315,14 +5315,14 @@
       </c>
       <c r="Q66" t="inlineStr">
         <is>
-          <t>2025-05-09 00:00:00</t>
+          <t>2025-04-18 00:00:00</t>
         </is>
       </c>
       <c r="R66" s="1" t="n">
-        <v>-4.505867552337963</v>
+        <v>-25.59406298905093</v>
       </c>
       <c r="S66" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="67">
@@ -5331,33 +5331,33 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C67" t="n">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D67" t="n">
-        <v>78.40845070422536</v>
+        <v>91.26229508196721</v>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>2025-05-13 08:49:49</t>
+          <t>2025-05-13 08:27:24</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>2025-05-13 09:16:49</t>
+          <t>2025-05-13 09:02:24</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>2025-05-13 09:16:49</t>
+          <t>2025-05-13 09:02:24</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>2025-05-13 10:35:13</t>
+          <t>2025-05-13 10:33:40</t>
         </is>
       </c>
       <c r="I67" t="n">
@@ -5391,7 +5391,7 @@
         </is>
       </c>
       <c r="R67" s="1" t="n">
-        <v>-4.441128716747685</v>
+        <v>-4.440050091076388</v>
       </c>
       <c r="S67" t="n">
         <v>1</v>
@@ -5403,33 +5403,33 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>R9</t>
         </is>
       </c>
       <c r="C68" t="n">
-        <v>19</v>
+        <v>50</v>
       </c>
       <c r="D68" t="n">
-        <v>108.859375</v>
+        <v>100.9710144927536</v>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>2025-05-13 08:50:26</t>
+          <t>2025-05-13 08:32:49</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>2025-05-13 09:09:26</t>
+          <t>2025-05-13 09:22:49</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>2025-05-13 09:09:26</t>
+          <t>2025-05-13 09:22:49</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>2025-05-13 10:58:17</t>
+          <t>2025-05-13 11:03:47</t>
         </is>
       </c>
       <c r="I68" t="n">
@@ -5463,7 +5463,7 @@
         </is>
       </c>
       <c r="R68" s="1" t="n">
-        <v>-4.457150607638889</v>
+        <v>-4.460970209340278</v>
       </c>
       <c r="S68" t="n">
         <v>1</v>
@@ -5475,33 +5475,33 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>R3</t>
         </is>
       </c>
       <c r="C69" t="n">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="D69" t="n">
-        <v>117.2622950819672</v>
+        <v>145.9795918367347</v>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>2025-05-13 08:54:35</t>
+          <t>2025-05-13 08:39:09</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>2025-05-13 09:23:35</t>
+          <t>2025-05-13 09:24:09</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>2025-05-13 09:23:35</t>
+          <t>2025-05-13 09:24:09</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>2025-05-13 11:20:51</t>
+          <t>2025-05-13 11:50:08</t>
         </is>
       </c>
       <c r="I69" t="n">
@@ -5535,7 +5535,7 @@
         </is>
       </c>
       <c r="R69" s="1" t="n">
-        <v>-4.472814207650463</v>
+        <v>-4.493154761909723</v>
       </c>
       <c r="S69" t="n">
         <v>1</v>
@@ -5547,33 +5547,33 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C70" t="n">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="D70" t="n">
-        <v>87.69014084507042</v>
+        <v>102.0655737704918</v>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>2025-05-13 10:35:13</t>
+          <t>2025-05-13 10:33:40</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>2025-05-13 10:52:13</t>
+          <t>2025-05-13 10:58:40</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>2025-05-13 10:52:13</t>
+          <t>2025-05-13 10:58:40</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>2025-05-13 12:19:54</t>
+          <t>2025-05-13 12:40:44</t>
         </is>
       </c>
       <c r="I70" t="n">
@@ -5607,7 +5607,7 @@
         </is>
       </c>
       <c r="R70" s="1" t="n">
-        <v>-4.513830203437499</v>
+        <v>-4.528290072858796</v>
       </c>
       <c r="S70" t="n">
         <v>1</v>
@@ -5619,33 +5619,33 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>R9</t>
         </is>
       </c>
       <c r="C71" t="n">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="D71" t="n">
-        <v>97.28125</v>
+        <v>90.23188405797102</v>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>2025-05-13 10:58:17</t>
+          <t>2025-05-13 11:03:47</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>2025-05-13 11:17:17</t>
+          <t>2025-05-13 11:38:47</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>2025-05-13 11:17:17</t>
+          <t>2025-05-13 11:38:47</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>2025-05-13 12:54:34</t>
+          <t>2025-05-13 13:09:01</t>
         </is>
       </c>
       <c r="I71" t="n">
@@ -5679,7 +5679,7 @@
         </is>
       </c>
       <c r="R71" s="1" t="n">
-        <v>-4.537901475694444</v>
+        <v>-4.547936795486111</v>
       </c>
       <c r="S71" t="n">
         <v>1</v>
@@ -5691,33 +5691,33 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C72" t="n">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="D72" t="n">
-        <v>102.0655737704918</v>
+        <v>97.28125</v>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>2025-05-13 11:20:51</t>
+          <t>2025-05-13 11:20:19</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>2025-05-13 11:49:51</t>
+          <t>2025-05-13 11:43:19</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>2025-05-13 11:49:51</t>
+          <t>2025-05-13 11:43:19</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>2025-05-13 13:31:55</t>
+          <t>2025-05-13 13:20:36</t>
         </is>
       </c>
       <c r="I72" t="n">
@@ -5751,7 +5751,7 @@
         </is>
       </c>
       <c r="R72" s="1" t="n">
-        <v>-4.563831967210648</v>
+        <v>-4.555978732638889</v>
       </c>
       <c r="S72" t="n">
         <v>1</v>
@@ -5763,33 +5763,33 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C73" t="n">
-        <v>80</v>
+        <v>36.5</v>
       </c>
       <c r="D73" t="n">
-        <v>230.1408450704225</v>
+        <v>297.0909090909091</v>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>2025-05-13 11:27:38</t>
+          <t>2025-05-13 11:26:51</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>2025-05-13 12:47:38</t>
+          <t>2025-05-13 12:03:21</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>2025-05-13 12:47:38</t>
+          <t>2025-05-13 12:03:21</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>2025-05-14 08:37:47</t>
+          <t>2025-05-14 09:00:27</t>
         </is>
       </c>
       <c r="I73" t="n">
@@ -5823,7 +5823,7 @@
         </is>
       </c>
       <c r="R73" s="1" t="n">
-        <v>-2.359575508611111</v>
+        <v>-2.3753156565625</v>
       </c>
       <c r="S73" t="n">
         <v>1</v>
@@ -5835,33 +5835,33 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>R3</t>
         </is>
       </c>
       <c r="C74" t="n">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="D74" t="n">
-        <v>448.2459016393443</v>
+        <v>558.0204081632653</v>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>2025-05-13 11:30:03</t>
+          <t>2025-05-13 11:50:08</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>2025-05-13 12:05:03</t>
+          <t>2025-05-13 12:40:08</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>2025-05-13 12:05:03</t>
+          <t>2025-05-13 12:40:08</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>2025-05-14 11:33:18</t>
+          <t>2025-05-14 13:58:09</t>
         </is>
       </c>
       <c r="I74" t="n">
@@ -5907,33 +5907,33 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>R9</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C75" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="D75" t="n">
-        <v>103.6666666666667</v>
+        <v>117.2622950819672</v>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>2025-05-13 12:08:26</t>
+          <t>2025-05-13 12:40:44</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>2025-05-13 12:43:26</t>
+          <t>2025-05-13 13:10:44</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>2025-05-13 12:43:26</t>
+          <t>2025-05-13 13:10:44</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>2025-05-13 14:27:06</t>
+          <t>2025-05-14 07:08:00</t>
         </is>
       </c>
       <c r="I75" t="n">
@@ -5979,33 +5979,33 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>R9</t>
         </is>
       </c>
       <c r="C76" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="D76" t="n">
-        <v>94.43661971830986</v>
+        <v>97.17391304347827</v>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>2025-05-13 12:19:54</t>
+          <t>2025-05-13 13:09:01</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>2025-05-13 12:34:54</t>
+          <t>2025-05-13 13:34:01</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>2025-05-13 12:34:54</t>
+          <t>2025-05-13 13:34:01</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>2025-05-13 14:09:21</t>
+          <t>2025-05-14 07:11:12</t>
         </is>
       </c>
       <c r="I76" t="n">
@@ -6062,22 +6062,22 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>2025-05-13 12:54:34</t>
+          <t>2025-05-13 13:20:36</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>2025-05-13 13:09:34</t>
+          <t>2025-05-13 13:35:36</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>2025-05-13 13:09:34</t>
+          <t>2025-05-13 13:35:36</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>2025-05-14 07:16:47</t>
+          <t>2025-05-14 07:42:49</t>
         </is>
       </c>
       <c r="I77" t="n">
@@ -6123,33 +6123,33 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C78" t="n">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="D78" t="n">
-        <v>153.5901639344262</v>
+        <v>131.9577464788732</v>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>2025-05-13 13:31:55</t>
+          <t>2025-05-13 13:45:01</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>2025-05-13 14:04:55</t>
+          <t>2025-05-13 14:00:01</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>2025-05-13 14:04:55</t>
+          <t>2025-05-13 14:00:01</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>2025-05-14 08:38:30</t>
+          <t>2025-05-14 08:11:59</t>
         </is>
       </c>
       <c r="I78" t="n">
@@ -6191,41 +6191,41 @@
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>251062</v>
+        <v>251750</v>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C79" t="n">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="D79" t="n">
-        <v>318.6478873239437</v>
+        <v>54.80281690140845</v>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>2025-05-13 14:09:21</t>
+          <t>2025-05-14 07:06:14</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>2025-05-13 14:32:21</t>
+          <t>2025-05-14 07:23:14</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>2025-05-13 14:32:21</t>
+          <t>2025-05-14 07:23:14</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>2025-05-14 11:51:00</t>
+          <t>2025-05-14 08:18:02</t>
         </is>
       </c>
       <c r="I79" t="n">
-        <v>22624</v>
+        <v>3891</v>
       </c>
       <c r="J79" t="inlineStr">
         <is>
@@ -6234,14 +6234,14 @@
       </c>
       <c r="K79" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L79" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="M79" t="n">
-        <v>70</v>
+        <v>152</v>
       </c>
       <c r="O79" t="n">
         <v>0</v>
@@ -6251,7 +6251,7 @@
       </c>
       <c r="Q79" t="inlineStr">
         <is>
-          <t>2025-05-23 00:00:00</t>
+          <t>2025-05-26 00:00:00</t>
         </is>
       </c>
       <c r="R79" s="1" t="n">
@@ -6263,41 +6263,41 @@
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>251252</v>
+        <v>251062</v>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>R9</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C80" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="D80" t="n">
-        <v>218.5942028985507</v>
+        <v>370.8852459016393</v>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>2025-05-13 14:27:06</t>
+          <t>2025-05-14 07:08:00</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>2025-05-14 07:02:06</t>
+          <t>2025-05-14 07:38:00</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>2025-05-14 07:02:06</t>
+          <t>2025-05-14 07:38:00</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>2025-05-14 10:40:42</t>
+          <t>2025-05-14 13:48:53</t>
         </is>
       </c>
       <c r="I80" t="n">
-        <v>15083</v>
+        <v>22624</v>
       </c>
       <c r="J80" t="inlineStr">
         <is>
@@ -6335,41 +6335,41 @@
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>251251</v>
+        <v>251252</v>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>R9</t>
         </is>
       </c>
       <c r="C81" t="n">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="D81" t="n">
-        <v>247.8125</v>
+        <v>218.5942028985507</v>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>2025-05-14 07:16:47</t>
+          <t>2025-05-14 07:11:12</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>2025-05-14 07:39:47</t>
+          <t>2025-05-14 07:56:12</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>2025-05-14 07:39:47</t>
+          <t>2025-05-14 07:56:12</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>2025-05-14 11:47:36</t>
+          <t>2025-05-14 11:34:47</t>
         </is>
       </c>
       <c r="I81" t="n">
-        <v>15860</v>
+        <v>15083</v>
       </c>
       <c r="J81" t="inlineStr">
         <is>
@@ -6407,41 +6407,41 @@
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>251750</v>
+        <v>251251</v>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C82" t="n">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="D82" t="n">
-        <v>54.80281690140845</v>
+        <v>247.8125</v>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>2025-05-14 07:21:35</t>
+          <t>2025-05-14 07:42:49</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>2025-05-14 07:38:35</t>
+          <t>2025-05-14 08:05:49</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>2025-05-14 07:38:35</t>
+          <t>2025-05-14 08:05:49</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>2025-05-14 08:33:23</t>
+          <t>2025-05-14 12:13:38</t>
         </is>
       </c>
       <c r="I82" t="n">
-        <v>3891</v>
+        <v>15860</v>
       </c>
       <c r="J82" t="inlineStr">
         <is>
@@ -6450,14 +6450,14 @@
       </c>
       <c r="K82" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
         </is>
       </c>
       <c r="L82" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="M82" t="n">
-        <v>152</v>
+        <v>70</v>
       </c>
       <c r="O82" t="n">
         <v>0</v>
@@ -6467,7 +6467,7 @@
       </c>
       <c r="Q82" t="inlineStr">
         <is>
-          <t>2025-05-26 00:00:00</t>
+          <t>2025-05-23 00:00:00</t>
         </is>
       </c>
       <c r="R82" s="1" t="n">
@@ -6479,41 +6479,41 @@
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>251987</v>
+        <v>251249</v>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>BIMEC 4</t>
         </is>
       </c>
       <c r="C83" t="n">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="D83" t="n">
-        <v>2965.154929577465</v>
+        <v>78</v>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>2025-05-14 08:33:23</t>
+          <t>2025-05-14 07:45:54</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>2025-05-14 09:09:23</t>
+          <t>2025-05-14 08:10:54</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>2025-05-14 09:09:23</t>
+          <t>2025-05-14 08:10:54</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>2025-05-22 10:34:32</t>
+          <t>2025-05-14 09:28:54</t>
         </is>
       </c>
       <c r="I83" t="n">
-        <v>210526</v>
+        <v>4758</v>
       </c>
       <c r="J83" t="inlineStr">
         <is>
@@ -6522,14 +6522,14 @@
       </c>
       <c r="K83" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
         </is>
       </c>
       <c r="L83" t="n">
         <v>6</v>
       </c>
       <c r="M83" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="O83" t="n">
         <v>0</v>
@@ -6539,7 +6539,7 @@
       </c>
       <c r="Q83" t="inlineStr">
         <is>
-          <t>2025-09-01 00:00:00</t>
+          <t>2025-06-06 00:00:00</t>
         </is>
       </c>
       <c r="R83" s="1" t="n">
@@ -6551,41 +6551,41 @@
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>251249</v>
+        <v>251795</v>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C84" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="D84" t="n">
-        <v>78</v>
+        <v>263.9295774647887</v>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>2025-05-14 08:38:30</t>
+          <t>2025-05-14 08:11:59</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>2025-05-14 09:03:30</t>
+          <t>2025-05-14 08:26:59</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>2025-05-14 09:03:30</t>
+          <t>2025-05-14 08:26:59</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>2025-05-14 10:21:30</t>
+          <t>2025-05-14 12:50:54</t>
         </is>
       </c>
       <c r="I84" t="n">
-        <v>4758</v>
+        <v>18739</v>
       </c>
       <c r="J84" t="inlineStr">
         <is>
@@ -6594,7 +6594,7 @@
       </c>
       <c r="K84" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R9</t>
         </is>
       </c>
       <c r="L84" t="n">
@@ -6611,7 +6611,7 @@
       </c>
       <c r="Q84" t="inlineStr">
         <is>
-          <t>2025-06-06 00:00:00</t>
+          <t>2025-06-19 00:00:00</t>
         </is>
       </c>
       <c r="R84" s="1" t="n">
@@ -6623,41 +6623,41 @@
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>251795</v>
+        <v>251987</v>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C85" t="n">
-        <v>30.5</v>
+        <v>36</v>
       </c>
       <c r="D85" t="n">
-        <v>340.7090909090909</v>
+        <v>2965.154929577465</v>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>2025-05-14 09:25:12</t>
+          <t>2025-05-14 08:18:02</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>2025-05-14 09:55:42</t>
+          <t>2025-05-14 08:54:02</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>2025-05-14 09:55:42</t>
+          <t>2025-05-14 08:54:02</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>2025-05-15 07:36:24</t>
+          <t>2025-05-22 10:19:11</t>
         </is>
       </c>
       <c r="I85" t="n">
-        <v>18739</v>
+        <v>210526</v>
       </c>
       <c r="J85" t="inlineStr">
         <is>
@@ -6666,14 +6666,14 @@
       </c>
       <c r="K85" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R9</t>
         </is>
       </c>
       <c r="L85" t="n">
         <v>6</v>
       </c>
       <c r="M85" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="O85" t="n">
         <v>0</v>
@@ -6683,7 +6683,7 @@
       </c>
       <c r="Q85" t="inlineStr">
         <is>
-          <t>2025-06-19 00:00:00</t>
+          <t>2025-09-01 00:00:00</t>
         </is>
       </c>
       <c r="R85" s="1" t="n">
@@ -6710,22 +6710,22 @@
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>2025-05-14 10:21:30</t>
+          <t>2025-05-14 09:28:54</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>2025-05-14 11:03:30</t>
+          <t>2025-05-14 10:10:54</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>2025-05-14 11:03:30</t>
+          <t>2025-05-14 10:10:54</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>2025-06-09 08:14:17</t>
+          <t>2025-06-09 07:21:41</t>
         </is>
       </c>
       <c r="I86" t="n">
@@ -6782,22 +6782,22 @@
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>2025-05-14 10:40:42</t>
+          <t>2025-05-14 11:34:47</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>2025-05-14 11:20:42</t>
+          <t>2025-05-14 12:14:47</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>2025-05-14 11:20:42</t>
+          <t>2025-05-14 12:14:47</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>2025-05-20 08:58:27</t>
+          <t>2025-05-20 09:52:33</t>
         </is>
       </c>
       <c r="I87" t="n">

--- a/PS-VRP/Dati_output/euristico_post.xlsx
+++ b/PS-VRP/Dati_output/euristico_post.xlsx
@@ -2671,14 +2671,14 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D30" t="n">
         <v>461.9718309859155</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>2025-05-08 14:16:40</t>
+          <t>2025-05-08 14:14:40</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
@@ -2955,33 +2955,33 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>34.5</v>
+        <v>200</v>
       </c>
       <c r="D34" t="n">
-        <v>259.1818181818182</v>
+        <v>200.7746478873239</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>2025-05-09 12:37:35</t>
+          <t>2025-05-09 12:29:25</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>2025-05-09 13:12:05</t>
+          <t>2025-05-12 07:49:25</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>2025-05-09 13:12:05</t>
+          <t>2025-05-12 07:49:25</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>2025-05-12 09:31:16</t>
+          <t>2025-05-12 11:10:11</t>
         </is>
       </c>
       <c r="I34" t="n">
@@ -3015,7 +3015,7 @@
         </is>
       </c>
       <c r="R34" s="1" t="n">
-        <v>-7.396717171712963</v>
+        <v>-7.465414710486112</v>
       </c>
       <c r="S34" t="n">
         <v>7</v>
@@ -3027,33 +3027,33 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>25</v>
+        <v>40.5</v>
       </c>
       <c r="D35" t="n">
-        <v>186.7540983606557</v>
+        <v>207.1272727272727</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>2025-05-09 13:15:38</t>
+          <t>2025-05-09 12:37:35</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>2025-05-09 13:40:38</t>
+          <t>2025-05-09 13:18:05</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>2025-05-09 13:40:38</t>
+          <t>2025-05-09 13:18:05</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>2025-05-12 08:47:23</t>
+          <t>2025-05-12 08:45:13</t>
         </is>
       </c>
       <c r="I35" t="n">
@@ -3110,22 +3110,22 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>2025-05-09 13:19:51</t>
+          <t>2025-05-09 13:11:51</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>2025-05-09 13:51:51</t>
+          <t>2025-05-09 13:43:51</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>2025-05-09 13:51:51</t>
+          <t>2025-05-09 13:43:51</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>2025-05-12 09:17:43</t>
+          <t>2025-05-12 09:09:43</t>
         </is>
       </c>
       <c r="I36" t="n">
@@ -3171,33 +3171,33 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>R3</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="D37" t="n">
-        <v>348.8571428571428</v>
+        <v>280.2295081967213</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>2025-05-09 13:37:56</t>
+          <t>2025-05-09 13:15:38</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>2025-05-09 14:12:56</t>
+          <t>2025-05-09 13:45:38</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>2025-05-09 14:12:56</t>
+          <t>2025-05-09 13:45:38</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>2025-05-12 12:01:47</t>
+          <t>2025-05-12 10:25:52</t>
         </is>
       </c>
       <c r="I37" t="n">
@@ -3231,7 +3231,7 @@
         </is>
       </c>
       <c r="R37" s="1" t="n">
-        <v>-14.50124716553241</v>
+        <v>-14.4346311475463</v>
       </c>
       <c r="S37" t="n">
         <v>4</v>
@@ -3239,41 +3239,41 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>245275</v>
+        <v>251424</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>R3</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>65</v>
+        <v>40</v>
       </c>
       <c r="D38" t="n">
-        <v>342.1690140845071</v>
+        <v>197.1836734693877</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>2025-05-09 13:59:25</t>
+          <t>2025-05-09 13:37:56</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>2025-05-12 07:04:25</t>
+          <t>2025-05-09 14:17:56</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>2025-05-12 07:04:25</t>
+          <t>2025-05-09 14:17:56</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>2025-05-12 12:46:35</t>
+          <t>2025-05-12 09:35:07</t>
         </is>
       </c>
       <c r="I38" t="n">
-        <v>24294</v>
+        <v>9662</v>
       </c>
       <c r="J38" t="inlineStr">
         <is>
@@ -3282,11 +3282,11 @@
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;CASON ;R6</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L38" t="n">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="M38" t="n">
         <v>70</v>
@@ -3299,14 +3299,14 @@
       </c>
       <c r="Q38" t="inlineStr">
         <is>
-          <t>2025-12-31 00:00:00</t>
+          <t>2025-04-28 00:00:00</t>
         </is>
       </c>
       <c r="R38" s="1" t="n">
-        <v>0</v>
+        <v>-14.39939058957176</v>
       </c>
       <c r="S38" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="39">
@@ -3527,41 +3527,41 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>251424</v>
+        <v>245275</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>30</v>
+        <v>54.5</v>
       </c>
       <c r="D42" t="n">
-        <v>158.3934426229508</v>
+        <v>441.7090909090909</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>2025-05-12 08:47:23</t>
+          <t>2025-05-12 08:45:13</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>2025-05-12 09:17:23</t>
+          <t>2025-05-12 09:39:43</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>2025-05-12 09:17:23</t>
+          <t>2025-05-12 09:39:43</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>2025-05-12 11:55:47</t>
+          <t>2025-05-13 09:01:25</t>
         </is>
       </c>
       <c r="I42" t="n">
-        <v>9662</v>
+        <v>24294</v>
       </c>
       <c r="J42" t="inlineStr">
         <is>
@@ -3570,11 +3570,11 @@
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;CASON ;R6</t>
         </is>
       </c>
       <c r="L42" t="n">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="M42" t="n">
         <v>70</v>
@@ -3587,14 +3587,14 @@
       </c>
       <c r="Q42" t="inlineStr">
         <is>
-          <t>2025-04-28 00:00:00</t>
+          <t>2025-12-31 00:00:00</t>
         </is>
       </c>
       <c r="R42" s="1" t="n">
-        <v>-14.49707422586805</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="43">
@@ -3614,22 +3614,22 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>2025-05-12 09:17:43</t>
+          <t>2025-05-12 09:09:43</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>2025-05-12 09:38:43</t>
+          <t>2025-05-12 09:30:43</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>2025-05-12 09:38:43</t>
+          <t>2025-05-12 09:30:43</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>2025-05-12 12:14:18</t>
+          <t>2025-05-12 12:06:18</t>
         </is>
       </c>
       <c r="I43" t="n">
@@ -3663,7 +3663,7 @@
         </is>
       </c>
       <c r="R43" s="1" t="n">
-        <v>-553.5099392361111</v>
+        <v>-553.5043836805555</v>
       </c>
       <c r="S43" t="n">
         <v>4</v>
@@ -3675,33 +3675,33 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>R3</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>34.5</v>
+        <v>40</v>
       </c>
       <c r="D44" t="n">
-        <v>98.81818181818181</v>
+        <v>110.9183673469388</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>2025-05-12 09:31:16</t>
+          <t>2025-05-12 09:35:07</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>2025-05-12 10:05:46</t>
+          <t>2025-05-12 10:15:07</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>2025-05-12 10:05:46</t>
+          <t>2025-05-12 10:15:07</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>2025-05-12 11:44:35</t>
+          <t>2025-05-12 12:06:02</t>
         </is>
       </c>
       <c r="I44" t="n">
@@ -3735,7 +3735,7 @@
         </is>
       </c>
       <c r="R44" s="1" t="n">
-        <v>-14.48929924241898</v>
+        <v>-14.50419501134259</v>
       </c>
       <c r="S44" t="n">
         <v>4</v>
@@ -3747,33 +3747,33 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>32.5</v>
+        <v>25</v>
       </c>
       <c r="D45" t="n">
-        <v>157.8363636363636</v>
+        <v>142.3114754098361</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>2025-05-12 11:44:35</t>
+          <t>2025-05-12 10:25:52</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>2025-05-12 12:17:05</t>
+          <t>2025-05-12 10:50:52</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>2025-05-12 12:17:05</t>
+          <t>2025-05-12 10:50:52</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>2025-05-12 14:54:55</t>
+          <t>2025-05-12 13:13:10</t>
         </is>
       </c>
       <c r="I45" t="n">
@@ -3807,7 +3807,7 @@
         </is>
       </c>
       <c r="R45" s="1" t="n">
-        <v>-12.62147727273148</v>
+        <v>-12.55081967212963</v>
       </c>
       <c r="S45" t="n">
         <v>4</v>
@@ -3819,33 +3819,33 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="D46" t="n">
-        <v>106</v>
+        <v>91.07042253521126</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>2025-05-12 11:55:47</t>
+          <t>2025-05-12 11:10:11</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>2025-05-12 12:15:47</t>
+          <t>2025-05-12 11:50:11</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>2025-05-12 12:15:47</t>
+          <t>2025-05-12 11:50:11</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>2025-05-12 14:01:47</t>
+          <t>2025-05-12 13:21:16</t>
         </is>
       </c>
       <c r="I46" t="n">
@@ -3879,7 +3879,7 @@
         </is>
       </c>
       <c r="R46" s="1" t="n">
-        <v>-5.584574225868056</v>
+        <v>-5.55643583724537</v>
       </c>
       <c r="S46" t="n">
         <v>4</v>
@@ -3974,22 +3974,22 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>2025-05-12 12:01:47</t>
+          <t>2025-05-12 12:06:02</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>2025-05-12 12:41:47</t>
+          <t>2025-05-12 12:46:02</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>2025-05-12 12:41:47</t>
+          <t>2025-05-12 12:46:02</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>2025-05-12 14:09:45</t>
+          <t>2025-05-12 14:14:00</t>
         </is>
       </c>
       <c r="I48" t="n">
@@ -4023,7 +4023,7 @@
         </is>
       </c>
       <c r="R48" s="1" t="n">
-        <v>-4.59010770974537</v>
+        <v>-4.593055555555556</v>
       </c>
       <c r="S48" t="n">
         <v>4</v>
@@ -4046,22 +4046,22 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>2025-05-12 12:14:18</t>
+          <t>2025-05-12 12:06:18</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>2025-05-12 12:31:18</t>
+          <t>2025-05-12 12:23:18</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>2025-05-12 12:31:18</t>
+          <t>2025-05-12 12:23:18</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>2025-05-12 13:25:33</t>
+          <t>2025-05-12 13:17:33</t>
         </is>
       </c>
       <c r="I49" t="n">
@@ -4095,7 +4095,7 @@
         </is>
       </c>
       <c r="R49" s="1" t="n">
-        <v>-4.559418402777778</v>
+        <v>-4.553862847222222</v>
       </c>
       <c r="S49" t="n">
         <v>4</v>
@@ -4179,33 +4179,33 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C51" t="n">
-        <v>85</v>
+        <v>20</v>
       </c>
       <c r="D51" t="n">
-        <v>122.2676056338028</v>
+        <v>142.3114754098361</v>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>2025-05-12 12:46:35</t>
+          <t>2025-05-12 13:13:10</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>2025-05-12 14:11:35</t>
+          <t>2025-05-12 13:33:10</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>2025-05-12 14:11:35</t>
+          <t>2025-05-12 13:33:10</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>2025-05-13 08:13:51</t>
+          <t>2025-05-13 07:55:29</t>
         </is>
       </c>
       <c r="I51" t="n">
@@ -4262,22 +4262,22 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>2025-05-12 13:25:33</t>
+          <t>2025-05-12 13:17:33</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>2025-05-12 13:44:33</t>
+          <t>2025-05-12 13:36:33</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>2025-05-12 13:44:33</t>
+          <t>2025-05-12 13:36:33</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>2025-05-13 07:57:47</t>
+          <t>2025-05-13 07:49:47</t>
         </is>
       </c>
       <c r="I52" t="n">
@@ -4311,7 +4311,7 @@
         </is>
       </c>
       <c r="R52" s="1" t="n">
-        <v>-25.33180338541667</v>
+        <v>-25.32624782986111</v>
       </c>
       <c r="S52" t="n">
         <v>2</v>
@@ -4319,41 +4319,41 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>251485</v>
+        <v>251109</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="C53" t="n">
-        <v>17</v>
+        <v>95</v>
       </c>
       <c r="D53" t="n">
-        <v>67.71830985915493</v>
+        <v>266.5915492957747</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>2025-05-12 13:30:39</t>
+          <t>2025-05-12 13:21:16</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>2025-05-12 13:47:39</t>
+          <t>2025-05-12 14:56:16</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>2025-05-12 13:47:39</t>
+          <t>2025-05-12 14:56:16</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>2025-05-12 14:55:22</t>
+          <t>2025-05-13 11:22:51</t>
         </is>
       </c>
       <c r="I53" t="n">
-        <v>4808</v>
+        <v>18928</v>
       </c>
       <c r="J53" t="inlineStr">
         <is>
@@ -4362,11 +4362,11 @@
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="L53" t="n">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="M53" t="n">
         <v>70</v>
@@ -4379,11 +4379,11 @@
       </c>
       <c r="Q53" t="inlineStr">
         <is>
-          <t>2025-04-23 00:00:00</t>
+          <t>2025-04-18 00:00:00</t>
         </is>
       </c>
       <c r="R53" s="1" t="n">
-        <v>-19.62179186228009</v>
+        <v>-25.47420774648148</v>
       </c>
       <c r="S53" t="n">
         <v>2</v>
@@ -4391,41 +4391,41 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>250670</v>
+        <v>251485</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C54" t="n">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="D54" t="n">
-        <v>22.01408450704225</v>
+        <v>67.71830985915493</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>2025-05-12 13:55:22</t>
+          <t>2025-05-12 13:30:39</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>2025-05-12 14:29:22</t>
+          <t>2025-05-12 13:47:39</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>2025-05-12 14:29:22</t>
+          <t>2025-05-12 13:47:39</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>2025-05-12 14:51:23</t>
+          <t>2025-05-12 14:55:22</t>
         </is>
       </c>
       <c r="I54" t="n">
-        <v>1563</v>
+        <v>4808</v>
       </c>
       <c r="J54" t="inlineStr">
         <is>
@@ -4434,14 +4434,14 @@
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L54" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M54" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="O54" t="n">
         <v>0</v>
@@ -4451,11 +4451,11 @@
       </c>
       <c r="Q54" t="inlineStr">
         <is>
-          <t>2025-05-05 00:00:00</t>
+          <t>2025-04-23 00:00:00</t>
         </is>
       </c>
       <c r="R54" s="1" t="n">
-        <v>-7.619023865416667</v>
+        <v>-19.62179186228009</v>
       </c>
       <c r="S54" t="n">
         <v>2</v>
@@ -4463,41 +4463,41 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>251346</v>
+        <v>250670</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C55" t="n">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="D55" t="n">
-        <v>63.26229508196721</v>
+        <v>22.01408450704225</v>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>2025-05-12 14:01:47</t>
+          <t>2025-05-12 13:55:22</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>2025-05-12 14:41:47</t>
+          <t>2025-05-12 14:29:22</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>2025-05-12 14:41:47</t>
+          <t>2025-05-12 14:29:22</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>2025-05-13 07:45:02</t>
+          <t>2025-05-12 14:51:23</t>
         </is>
       </c>
       <c r="I55" t="n">
-        <v>3859</v>
+        <v>1563</v>
       </c>
       <c r="J55" t="inlineStr">
         <is>
@@ -4506,14 +4506,14 @@
       </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L55" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="M55" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="O55" t="n">
         <v>0</v>
@@ -4523,11 +4523,11 @@
       </c>
       <c r="Q55" t="inlineStr">
         <is>
-          <t>2025-04-28 00:00:00</t>
+          <t>2025-05-05 00:00:00</t>
         </is>
       </c>
       <c r="R55" s="1" t="n">
-        <v>-15.32295081967592</v>
+        <v>-7.619023865416667</v>
       </c>
       <c r="S55" t="n">
         <v>2</v>
@@ -4535,7 +4535,7 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>250641</v>
+        <v>251346</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
@@ -4543,33 +4543,33 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="D56" t="n">
-        <v>104.4081632653061</v>
+        <v>78.75510204081633</v>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>2025-05-12 14:09:45</t>
+          <t>2025-05-12 14:14:00</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>2025-05-12 14:54:45</t>
+          <t>2025-05-13 07:09:00</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>2025-05-12 14:54:45</t>
+          <t>2025-05-13 07:09:00</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>2025-05-13 08:39:09</t>
+          <t>2025-05-13 08:27:45</t>
         </is>
       </c>
       <c r="I56" t="n">
-        <v>5116</v>
+        <v>3859</v>
       </c>
       <c r="J56" t="inlineStr">
         <is>
@@ -4582,7 +4582,7 @@
         </is>
       </c>
       <c r="L56" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="M56" t="n">
         <v>70</v>
@@ -4599,7 +4599,7 @@
         </is>
       </c>
       <c r="R56" s="1" t="n">
-        <v>-15.36053004534722</v>
+        <v>-15.35260770974537</v>
       </c>
       <c r="S56" t="n">
         <v>2</v>
@@ -4607,7 +4607,7 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>251259</v>
+        <v>250641</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
@@ -4615,10 +4615,10 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="D57" t="n">
-        <v>72.46376811594203</v>
+        <v>74.14492753623189</v>
       </c>
       <c r="E57" t="inlineStr">
         <is>
@@ -4627,21 +4627,21 @@
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>2025-05-13 07:20:21</t>
+          <t>2025-05-13 07:35:21</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>2025-05-13 07:20:21</t>
+          <t>2025-05-13 07:35:21</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>2025-05-13 08:32:49</t>
+          <t>2025-05-13 08:49:30</t>
         </is>
       </c>
       <c r="I57" t="n">
-        <v>5000</v>
+        <v>5116</v>
       </c>
       <c r="J57" t="inlineStr">
         <is>
@@ -4654,7 +4654,7 @@
         </is>
       </c>
       <c r="L57" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="M57" t="n">
         <v>70</v>
@@ -4667,11 +4667,11 @@
       </c>
       <c r="Q57" t="inlineStr">
         <is>
-          <t>2025-05-06 00:00:00</t>
+          <t>2025-04-28 00:00:00</t>
         </is>
       </c>
       <c r="R57" s="1" t="n">
-        <v>-7.356129227048611</v>
+        <v>-15.36771336554398</v>
       </c>
       <c r="S57" t="n">
         <v>2</v>
@@ -4751,41 +4751,41 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>251761</v>
+        <v>251259</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C59" t="n">
-        <v>30.5</v>
+        <v>23</v>
       </c>
       <c r="D59" t="n">
-        <v>241.4363636363636</v>
+        <v>70.4225352112676</v>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>2025-05-12 14:54:55</t>
+          <t>2025-05-12 14:55:22</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>2025-05-13 07:25:25</t>
+          <t>2025-05-13 07:18:22</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>2025-05-13 07:25:25</t>
+          <t>2025-05-13 07:18:22</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>2025-05-13 11:26:51</t>
+          <t>2025-05-13 08:28:48</t>
         </is>
       </c>
       <c r="I59" t="n">
-        <v>13279</v>
+        <v>5000</v>
       </c>
       <c r="J59" t="inlineStr">
         <is>
@@ -4798,7 +4798,7 @@
         </is>
       </c>
       <c r="L59" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="M59" t="n">
         <v>70</v>
@@ -4811,11 +4811,11 @@
       </c>
       <c r="Q59" t="inlineStr">
         <is>
-          <t>2025-05-19 00:00:00</t>
+          <t>2025-05-06 00:00:00</t>
         </is>
       </c>
       <c r="R59" s="1" t="n">
-        <v>0</v>
+        <v>-7.353335289513889</v>
       </c>
       <c r="S59" t="n">
         <v>2</v>
@@ -4823,41 +4823,41 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>244023</v>
+        <v>251761</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C60" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D60" t="n">
-        <v>14.04225352112676</v>
+        <v>207.484375</v>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>2025-05-12 14:55:22</t>
+          <t>2025-05-13 07:49:47</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>2025-05-13 07:12:22</t>
+          <t>2025-05-13 08:08:47</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>2025-05-13 07:12:22</t>
+          <t>2025-05-13 08:08:47</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>2025-05-13 07:26:25</t>
+          <t>2025-05-13 11:36:16</t>
         </is>
       </c>
       <c r="I60" t="n">
-        <v>997</v>
+        <v>13279</v>
       </c>
       <c r="J60" t="inlineStr">
         <is>
@@ -4870,7 +4870,7 @@
         </is>
       </c>
       <c r="L60" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M60" t="n">
         <v>70</v>
@@ -4883,53 +4883,53 @@
       </c>
       <c r="Q60" t="inlineStr">
         <is>
-          <t>2024-09-30 00:00:00</t>
+          <t>2025-05-19 00:00:00</t>
         </is>
       </c>
       <c r="R60" s="1" t="n">
-        <v>-225.310015649456</v>
+        <v>0</v>
       </c>
       <c r="S60" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>251283</v>
+        <v>244023</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>BIMEC 4</t>
         </is>
       </c>
       <c r="C61" t="n">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="D61" t="n">
-        <v>10.61971830985915</v>
+        <v>16.34426229508197</v>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>2025-05-13 07:26:25</t>
+          <t>2025-05-13 07:55:21</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>2025-05-13 07:41:25</t>
+          <t>2025-05-13 08:24:21</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>2025-05-13 07:41:25</t>
+          <t>2025-05-13 08:24:21</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>2025-05-13 07:52:02</t>
+          <t>2025-05-13 08:40:42</t>
         </is>
       </c>
       <c r="I61" t="n">
-        <v>754</v>
+        <v>997</v>
       </c>
       <c r="J61" t="inlineStr">
         <is>
@@ -4938,7 +4938,7 @@
       </c>
       <c r="K61" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L61" t="n">
@@ -4955,11 +4955,11 @@
       </c>
       <c r="Q61" t="inlineStr">
         <is>
-          <t>2025-03-18 00:00:00</t>
+          <t>2024-09-30 00:00:00</t>
         </is>
       </c>
       <c r="R61" s="1" t="n">
-        <v>-56.32780712049768</v>
+        <v>-225.3616006375231</v>
       </c>
       <c r="S61" t="n">
         <v>1</v>
@@ -4967,7 +4967,7 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>251245</v>
+        <v>251283</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
@@ -4982,22 +4982,22 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>2025-05-13 07:45:02</t>
+          <t>2025-05-13 07:55:29</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>2025-05-13 08:15:02</t>
+          <t>2025-05-13 08:25:29</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>2025-05-13 08:15:02</t>
+          <t>2025-05-13 08:25:29</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>2025-05-13 08:27:24</t>
+          <t>2025-05-13 08:37:51</t>
         </is>
       </c>
       <c r="I62" t="n">
@@ -5027,11 +5027,11 @@
       </c>
       <c r="Q62" t="inlineStr">
         <is>
-          <t>2025-03-28 00:00:00</t>
+          <t>2025-03-18 00:00:00</t>
         </is>
       </c>
       <c r="R62" s="1" t="n">
-        <v>-46.35236794171296</v>
+        <v>-56.35961976320601</v>
       </c>
       <c r="S62" t="n">
         <v>1</v>
@@ -5039,41 +5039,41 @@
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>251061</v>
+        <v>251245</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>R3</t>
         </is>
       </c>
       <c r="C63" t="n">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="D63" t="n">
-        <v>337.9859154929578</v>
+        <v>15.38775510204082</v>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>2025-05-13 07:52:02</t>
+          <t>2025-05-13 08:27:45</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>2025-05-13 08:07:02</t>
+          <t>2025-05-13 09:12:45</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>2025-05-13 08:07:02</t>
+          <t>2025-05-13 09:12:45</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>2025-05-13 13:45:01</t>
+          <t>2025-05-13 09:28:08</t>
         </is>
       </c>
       <c r="I63" t="n">
-        <v>23997</v>
+        <v>754</v>
       </c>
       <c r="J63" t="inlineStr">
         <is>
@@ -5099,11 +5099,11 @@
       </c>
       <c r="Q63" t="inlineStr">
         <is>
-          <t>2025-05-05 00:00:00</t>
+          <t>2025-03-28 00:00:00</t>
         </is>
       </c>
       <c r="R63" s="1" t="n">
-        <v>-8.572936228483796</v>
+        <v>-46.39454365079861</v>
       </c>
       <c r="S63" t="n">
         <v>1</v>
@@ -5111,41 +5111,41 @@
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>251247</v>
+        <v>251061</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C64" t="n">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="D64" t="n">
-        <v>441.5409836065574</v>
+        <v>337.9859154929578</v>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>2025-05-13 07:55:21</t>
+          <t>2025-05-13 08:28:48</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>2025-05-13 08:24:21</t>
+          <t>2025-05-13 08:49:48</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>2025-05-13 08:24:21</t>
+          <t>2025-05-13 08:49:48</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>2025-05-14 07:45:54</t>
+          <t>2025-05-13 14:27:47</t>
         </is>
       </c>
       <c r="I64" t="n">
-        <v>26934</v>
+        <v>23997</v>
       </c>
       <c r="J64" t="inlineStr">
         <is>
@@ -5171,11 +5171,11 @@
       </c>
       <c r="Q64" t="inlineStr">
         <is>
-          <t>2025-05-09 00:00:00</t>
+          <t>2025-05-05 00:00:00</t>
         </is>
       </c>
       <c r="R64" s="1" t="n">
-        <v>-5.323542805104167</v>
+        <v>-8.602631064166665</v>
       </c>
       <c r="S64" t="n">
         <v>1</v>
@@ -5183,41 +5183,41 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>251246</v>
+        <v>251247</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C65" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D65" t="n">
-        <v>187.53125</v>
+        <v>441.5409836065574</v>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>2025-05-13 07:57:47</t>
+          <t>2025-05-13 08:37:51</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>2025-05-13 08:12:47</t>
+          <t>2025-05-13 08:57:51</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>2025-05-13 08:12:47</t>
+          <t>2025-05-13 08:57:51</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>2025-05-13 11:20:19</t>
+          <t>2025-05-14 08:19:23</t>
         </is>
       </c>
       <c r="I65" t="n">
-        <v>12002</v>
+        <v>26934</v>
       </c>
       <c r="J65" t="inlineStr">
         <is>
@@ -5247,7 +5247,7 @@
         </is>
       </c>
       <c r="R65" s="1" t="n">
-        <v>-4.472450086805556</v>
+        <v>-5.34680100181713</v>
       </c>
       <c r="S65" t="n">
         <v>1</v>
@@ -5255,41 +5255,41 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>251109</v>
+        <v>251246</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>BIMEC 4</t>
         </is>
       </c>
       <c r="C66" t="n">
-        <v>95</v>
+        <v>25</v>
       </c>
       <c r="D66" t="n">
-        <v>266.5915492957747</v>
+        <v>196.7540983606557</v>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>2025-05-13 08:13:51</t>
+          <t>2025-05-13 08:40:42</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>2025-05-13 09:48:51</t>
+          <t>2025-05-13 09:05:42</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>2025-05-13 09:48:51</t>
+          <t>2025-05-13 09:05:42</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>2025-05-13 14:15:27</t>
+          <t>2025-05-13 12:22:27</t>
         </is>
       </c>
       <c r="I66" t="n">
-        <v>18928</v>
+        <v>12002</v>
       </c>
       <c r="J66" t="inlineStr">
         <is>
@@ -5298,11 +5298,11 @@
       </c>
       <c r="K66" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
         </is>
       </c>
       <c r="L66" t="n">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="M66" t="n">
         <v>70</v>
@@ -5315,14 +5315,14 @@
       </c>
       <c r="Q66" t="inlineStr">
         <is>
-          <t>2025-04-18 00:00:00</t>
+          <t>2025-05-09 00:00:00</t>
         </is>
       </c>
       <c r="R66" s="1" t="n">
-        <v>-25.59406298905093</v>
+        <v>-4.515596539166667</v>
       </c>
       <c r="S66" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67">
@@ -5331,33 +5331,33 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>R9</t>
         </is>
       </c>
       <c r="C67" t="n">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="D67" t="n">
-        <v>91.26229508196721</v>
+        <v>80.68115942028986</v>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>2025-05-13 08:27:24</t>
+          <t>2025-05-13 08:49:30</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>2025-05-13 09:02:24</t>
+          <t>2025-05-13 09:29:30</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>2025-05-13 09:02:24</t>
+          <t>2025-05-13 09:29:30</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>2025-05-13 10:33:40</t>
+          <t>2025-05-13 10:50:11</t>
         </is>
       </c>
       <c r="I67" t="n">
@@ -5391,7 +5391,7 @@
         </is>
       </c>
       <c r="R67" s="1" t="n">
-        <v>-4.440050091076388</v>
+        <v>-4.45151972625</v>
       </c>
       <c r="S67" t="n">
         <v>1</v>
@@ -5403,33 +5403,33 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>R9</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C68" t="n">
-        <v>50</v>
+        <v>50.5</v>
       </c>
       <c r="D68" t="n">
-        <v>100.9710144927536</v>
+        <v>126.6727272727273</v>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>2025-05-13 08:32:49</t>
+          <t>2025-05-13 09:01:25</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>2025-05-13 09:22:49</t>
+          <t>2025-05-13 09:51:55</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>2025-05-13 09:22:49</t>
+          <t>2025-05-13 09:51:55</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>2025-05-13 11:03:47</t>
+          <t>2025-05-13 11:58:36</t>
         </is>
       </c>
       <c r="I68" t="n">
@@ -5463,7 +5463,7 @@
         </is>
       </c>
       <c r="R68" s="1" t="n">
-        <v>-4.460970209340278</v>
+        <v>-4.499027777777778</v>
       </c>
       <c r="S68" t="n">
         <v>1</v>
@@ -5486,22 +5486,22 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>2025-05-13 08:39:09</t>
+          <t>2025-05-13 09:28:08</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>2025-05-13 09:24:09</t>
+          <t>2025-05-13 10:13:08</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>2025-05-13 09:24:09</t>
+          <t>2025-05-13 10:13:08</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>2025-05-13 11:50:08</t>
+          <t>2025-05-13 12:39:07</t>
         </is>
       </c>
       <c r="I69" t="n">
@@ -5535,7 +5535,7 @@
         </is>
       </c>
       <c r="R69" s="1" t="n">
-        <v>-4.493154761909723</v>
+        <v>-4.527168367349537</v>
       </c>
       <c r="S69" t="n">
         <v>1</v>
@@ -5547,33 +5547,33 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>R9</t>
         </is>
       </c>
       <c r="C70" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D70" t="n">
-        <v>102.0655737704918</v>
+        <v>90.23188405797102</v>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>2025-05-13 10:33:40</t>
+          <t>2025-05-13 10:50:11</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>2025-05-13 10:58:40</t>
+          <t>2025-05-13 11:20:11</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>2025-05-13 10:58:40</t>
+          <t>2025-05-13 11:20:11</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>2025-05-13 12:40:44</t>
+          <t>2025-05-13 12:50:25</t>
         </is>
       </c>
       <c r="I70" t="n">
@@ -5607,7 +5607,7 @@
         </is>
       </c>
       <c r="R70" s="1" t="n">
-        <v>-4.528290072858796</v>
+        <v>-4.535014090173611</v>
       </c>
       <c r="S70" t="n">
         <v>1</v>
@@ -5619,33 +5619,33 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>R9</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="C71" t="n">
-        <v>35</v>
+        <v>105</v>
       </c>
       <c r="D71" t="n">
-        <v>90.23188405797102</v>
+        <v>87.69014084507042</v>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>2025-05-13 11:03:47</t>
+          <t>2025-05-13 11:22:51</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>2025-05-13 11:38:47</t>
+          <t>2025-05-13 13:07:51</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>2025-05-13 11:38:47</t>
+          <t>2025-05-13 13:07:51</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>2025-05-13 13:09:01</t>
+          <t>2025-05-13 14:35:32</t>
         </is>
       </c>
       <c r="I71" t="n">
@@ -5679,7 +5679,7 @@
         </is>
       </c>
       <c r="R71" s="1" t="n">
-        <v>-4.547936795486111</v>
+        <v>-4.608020344282407</v>
       </c>
       <c r="S71" t="n">
         <v>1</v>
@@ -5695,29 +5695,29 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D72" t="n">
         <v>97.28125</v>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>2025-05-13 11:20:19</t>
+          <t>2025-05-13 11:36:16</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>2025-05-13 11:43:19</t>
+          <t>2025-05-13 11:55:16</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>2025-05-13 11:43:19</t>
+          <t>2025-05-13 11:55:16</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>2025-05-13 13:20:36</t>
+          <t>2025-05-13 13:32:33</t>
         </is>
       </c>
       <c r="I72" t="n">
@@ -5751,7 +5751,7 @@
         </is>
       </c>
       <c r="R72" s="1" t="n">
-        <v>-4.555978732638889</v>
+        <v>-4.564279513888889</v>
       </c>
       <c r="S72" t="n">
         <v>1</v>
@@ -5774,22 +5774,22 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>2025-05-13 11:26:51</t>
+          <t>2025-05-13 11:58:36</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>2025-05-13 12:03:21</t>
+          <t>2025-05-13 12:35:06</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>2025-05-13 12:03:21</t>
+          <t>2025-05-13 12:35:06</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>2025-05-14 09:00:27</t>
+          <t>2025-05-14 09:32:11</t>
         </is>
       </c>
       <c r="I73" t="n">
@@ -5823,7 +5823,7 @@
         </is>
       </c>
       <c r="R73" s="1" t="n">
-        <v>-2.3753156565625</v>
+        <v>-2.397354797974537</v>
       </c>
       <c r="S73" t="n">
         <v>1</v>
@@ -5835,33 +5835,33 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>R3</t>
+          <t>BIMEC 4</t>
         </is>
       </c>
       <c r="C74" t="n">
-        <v>50</v>
+        <v>27</v>
       </c>
       <c r="D74" t="n">
-        <v>558.0204081632653</v>
+        <v>448.2459016393443</v>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>2025-05-13 11:50:08</t>
+          <t>2025-05-13 12:22:27</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>2025-05-13 12:40:08</t>
+          <t>2025-05-13 12:49:27</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>2025-05-13 12:40:08</t>
+          <t>2025-05-13 12:49:27</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>2025-05-14 13:58:09</t>
+          <t>2025-05-14 12:17:42</t>
         </is>
       </c>
       <c r="I74" t="n">
@@ -5907,33 +5907,33 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>R3</t>
         </is>
       </c>
       <c r="C75" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D75" t="n">
-        <v>117.2622950819672</v>
+        <v>145.9795918367347</v>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>2025-05-13 12:40:44</t>
+          <t>2025-05-13 12:39:07</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>2025-05-13 13:10:44</t>
+          <t>2025-05-13 13:14:07</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>2025-05-13 13:10:44</t>
+          <t>2025-05-13 13:14:07</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>2025-05-14 07:08:00</t>
+          <t>2025-05-14 07:40:06</t>
         </is>
       </c>
       <c r="I75" t="n">
@@ -5990,22 +5990,22 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>2025-05-13 13:09:01</t>
+          <t>2025-05-13 12:50:25</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>2025-05-13 13:34:01</t>
+          <t>2025-05-13 13:15:25</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>2025-05-13 13:34:01</t>
+          <t>2025-05-13 13:15:25</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>2025-05-14 07:11:12</t>
+          <t>2025-05-13 14:52:35</t>
         </is>
       </c>
       <c r="I76" t="n">
@@ -6062,22 +6062,22 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>2025-05-13 13:20:36</t>
+          <t>2025-05-13 13:32:33</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>2025-05-13 13:35:36</t>
+          <t>2025-05-13 13:47:33</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>2025-05-13 13:35:36</t>
+          <t>2025-05-13 13:47:33</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>2025-05-14 07:42:49</t>
+          <t>2025-05-14 07:54:46</t>
         </is>
       </c>
       <c r="I77" t="n">
@@ -6134,22 +6134,22 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>2025-05-13 13:45:01</t>
+          <t>2025-05-13 14:27:47</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>2025-05-13 14:00:01</t>
+          <t>2025-05-13 14:42:47</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>2025-05-13 14:00:01</t>
+          <t>2025-05-13 14:42:47</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>2025-05-14 08:11:59</t>
+          <t>2025-05-14 08:54:44</t>
         </is>
       </c>
       <c r="I78" t="n">
@@ -6191,41 +6191,41 @@
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>251750</v>
+        <v>251062</v>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>R9</t>
         </is>
       </c>
       <c r="C79" t="n">
-        <v>17</v>
+        <v>45</v>
       </c>
       <c r="D79" t="n">
-        <v>54.80281690140845</v>
+        <v>327.8840579710145</v>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>2025-05-14 07:06:14</t>
+          <t>2025-05-13 14:52:35</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>2025-05-14 07:23:14</t>
+          <t>2025-05-14 07:37:35</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>2025-05-14 07:23:14</t>
+          <t>2025-05-14 07:37:35</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>2025-05-14 08:18:02</t>
+          <t>2025-05-14 13:05:28</t>
         </is>
       </c>
       <c r="I79" t="n">
-        <v>3891</v>
+        <v>22624</v>
       </c>
       <c r="J79" t="inlineStr">
         <is>
@@ -6234,14 +6234,14 @@
       </c>
       <c r="K79" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
         </is>
       </c>
       <c r="L79" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="M79" t="n">
-        <v>152</v>
+        <v>70</v>
       </c>
       <c r="O79" t="n">
         <v>0</v>
@@ -6251,7 +6251,7 @@
       </c>
       <c r="Q79" t="inlineStr">
         <is>
-          <t>2025-05-26 00:00:00</t>
+          <t>2025-05-23 00:00:00</t>
         </is>
       </c>
       <c r="R79" s="1" t="n">
@@ -6263,41 +6263,41 @@
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>251062</v>
+        <v>251750</v>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C80" t="n">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="D80" t="n">
-        <v>370.8852459016393</v>
+        <v>54.80281690140845</v>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>2025-05-14 07:08:00</t>
+          <t>2025-05-14 07:06:14</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>2025-05-14 07:38:00</t>
+          <t>2025-05-14 07:23:14</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>2025-05-14 07:38:00</t>
+          <t>2025-05-14 07:23:14</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>2025-05-14 13:48:53</t>
+          <t>2025-05-14 08:18:02</t>
         </is>
       </c>
       <c r="I80" t="n">
-        <v>22624</v>
+        <v>3891</v>
       </c>
       <c r="J80" t="inlineStr">
         <is>
@@ -6306,14 +6306,14 @@
       </c>
       <c r="K80" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L80" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="M80" t="n">
-        <v>70</v>
+        <v>152</v>
       </c>
       <c r="O80" t="n">
         <v>0</v>
@@ -6323,7 +6323,7 @@
       </c>
       <c r="Q80" t="inlineStr">
         <is>
-          <t>2025-05-23 00:00:00</t>
+          <t>2025-05-26 00:00:00</t>
         </is>
       </c>
       <c r="R80" s="1" t="n">
@@ -6339,33 +6339,33 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>R9</t>
+          <t>R3</t>
         </is>
       </c>
       <c r="C81" t="n">
         <v>45</v>
       </c>
       <c r="D81" t="n">
-        <v>218.5942028985507</v>
+        <v>307.8163265306122</v>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>2025-05-14 07:11:12</t>
+          <t>2025-05-14 07:40:06</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>2025-05-14 07:56:12</t>
+          <t>2025-05-14 08:25:06</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>2025-05-14 07:56:12</t>
+          <t>2025-05-14 08:25:06</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>2025-05-14 11:34:47</t>
+          <t>2025-05-14 13:32:55</t>
         </is>
       </c>
       <c r="I81" t="n">
@@ -6422,22 +6422,22 @@
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>2025-05-14 07:42:49</t>
+          <t>2025-05-14 07:54:46</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>2025-05-14 08:05:49</t>
+          <t>2025-05-14 08:17:46</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>2025-05-14 08:05:49</t>
+          <t>2025-05-14 08:17:46</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>2025-05-14 12:13:38</t>
+          <t>2025-05-14 12:25:35</t>
         </is>
       </c>
       <c r="I82" t="n">
@@ -6479,41 +6479,41 @@
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>251249</v>
+        <v>251987</v>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C83" t="n">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="D83" t="n">
-        <v>78</v>
+        <v>2965.154929577465</v>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>2025-05-14 07:45:54</t>
+          <t>2025-05-14 08:18:02</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>2025-05-14 08:10:54</t>
+          <t>2025-05-14 08:54:02</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>2025-05-14 08:10:54</t>
+          <t>2025-05-14 08:54:02</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>2025-05-14 09:28:54</t>
+          <t>2025-05-22 10:19:11</t>
         </is>
       </c>
       <c r="I83" t="n">
-        <v>4758</v>
+        <v>210526</v>
       </c>
       <c r="J83" t="inlineStr">
         <is>
@@ -6522,14 +6522,14 @@
       </c>
       <c r="K83" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R9</t>
         </is>
       </c>
       <c r="L83" t="n">
         <v>6</v>
       </c>
       <c r="M83" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="O83" t="n">
         <v>0</v>
@@ -6539,7 +6539,7 @@
       </c>
       <c r="Q83" t="inlineStr">
         <is>
-          <t>2025-06-06 00:00:00</t>
+          <t>2025-09-01 00:00:00</t>
         </is>
       </c>
       <c r="R83" s="1" t="n">
@@ -6551,41 +6551,41 @@
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>251795</v>
+        <v>251249</v>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C84" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D84" t="n">
-        <v>263.9295774647887</v>
+        <v>78</v>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>2025-05-14 08:11:59</t>
+          <t>2025-05-14 08:19:23</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>2025-05-14 08:26:59</t>
+          <t>2025-05-14 08:39:23</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>2025-05-14 08:26:59</t>
+          <t>2025-05-14 08:39:23</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>2025-05-14 12:50:54</t>
+          <t>2025-05-14 09:57:23</t>
         </is>
       </c>
       <c r="I84" t="n">
-        <v>18739</v>
+        <v>4758</v>
       </c>
       <c r="J84" t="inlineStr">
         <is>
@@ -6594,7 +6594,7 @@
       </c>
       <c r="K84" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
         </is>
       </c>
       <c r="L84" t="n">
@@ -6611,7 +6611,7 @@
       </c>
       <c r="Q84" t="inlineStr">
         <is>
-          <t>2025-06-19 00:00:00</t>
+          <t>2025-06-06 00:00:00</t>
         </is>
       </c>
       <c r="R84" s="1" t="n">
@@ -6623,41 +6623,41 @@
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>251987</v>
+        <v>251795</v>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C85" t="n">
-        <v>36</v>
+        <v>15</v>
       </c>
       <c r="D85" t="n">
-        <v>2965.154929577465</v>
+        <v>263.9295774647887</v>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>2025-05-14 08:18:02</t>
+          <t>2025-05-14 08:54:44</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>2025-05-14 08:54:02</t>
+          <t>2025-05-14 09:09:44</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>2025-05-14 08:54:02</t>
+          <t>2025-05-14 09:09:44</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>2025-05-22 10:19:11</t>
+          <t>2025-05-14 13:33:40</t>
         </is>
       </c>
       <c r="I85" t="n">
-        <v>210526</v>
+        <v>18739</v>
       </c>
       <c r="J85" t="inlineStr">
         <is>
@@ -6666,14 +6666,14 @@
       </c>
       <c r="K85" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R9</t>
         </is>
       </c>
       <c r="L85" t="n">
         <v>6</v>
       </c>
       <c r="M85" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="O85" t="n">
         <v>0</v>
@@ -6683,7 +6683,7 @@
       </c>
       <c r="Q85" t="inlineStr">
         <is>
-          <t>2025-09-01 00:00:00</t>
+          <t>2025-06-19 00:00:00</t>
         </is>
       </c>
       <c r="R85" s="1" t="n">
@@ -6703,29 +6703,29 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D86" t="n">
         <v>8470.786885245901</v>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>2025-05-14 09:28:54</t>
+          <t>2025-05-14 12:17:42</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>2025-05-14 10:10:54</t>
+          <t>2025-05-14 13:01:42</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>2025-05-14 10:10:54</t>
+          <t>2025-05-14 13:01:42</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>2025-06-09 07:21:41</t>
+          <t>2025-06-09 10:12:29</t>
         </is>
       </c>
       <c r="I86" t="n">
@@ -6771,33 +6771,33 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>R9</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C87" t="n">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="D87" t="n">
-        <v>1777.753623188406</v>
+        <v>1916.640625</v>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>2025-05-14 11:34:47</t>
+          <t>2025-05-14 12:25:35</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>2025-05-14 12:14:47</t>
+          <t>2025-05-14 12:59:35</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>2025-05-14 12:14:47</t>
+          <t>2025-05-14 12:59:35</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>2025-05-20 09:52:33</t>
+          <t>2025-05-20 12:56:14</t>
         </is>
       </c>
       <c r="I87" t="n">

--- a/PS-VRP/Dati_output/euristico_post.xlsx
+++ b/PS-VRP/Dati_output/euristico_post.xlsx
@@ -416,7 +416,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S87"/>
+  <dimension ref="A1:S75"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -515,7 +515,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>251164</v>
+        <v>251219</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -523,33 +523,33 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="D2" t="n">
-        <v>156.25</v>
+        <v>107.5</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2025-05-07 07:00:00</t>
+          <t>2025-06-05 12:00:00</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2025-05-07 07:23:00</t>
+          <t>2025-06-05 12:36:00</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2025-05-07 07:23:00</t>
+          <t>2025-06-05 12:36:00</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2025-05-07 09:59:15</t>
+          <t>2025-06-05 14:23:30</t>
         </is>
       </c>
       <c r="I2" t="n">
-        <v>10000</v>
+        <v>6880</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
@@ -558,17 +558,17 @@
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L2" t="n">
         <v>6</v>
       </c>
       <c r="M2" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="N2" t="n">
-        <v>39749</v>
+        <v>39885</v>
       </c>
       <c r="O2" t="inlineStr">
         <is>
@@ -576,57 +576,57 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>39749</v>
+        <v>39885</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>2025-04-22 00:00:00</t>
+          <t>2025-05-09 00:00:00</t>
         </is>
       </c>
       <c r="R2" s="1" t="n">
-        <v>-0.4161458333333333</v>
+        <v>-0.5996527777777778</v>
       </c>
       <c r="S2" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>251371</v>
+        <v>251897</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>BIMEC 4</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>19</v>
+        <v>54</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>305.0327868852459</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2025-05-07 09:59:15</t>
+          <t>2025-06-05 07:00:00</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2025-05-07 10:18:15</t>
+          <t>2025-06-05 07:54:00</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>2025-05-07 10:18:15</t>
+          <t>2025-06-05 07:54:00</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2025-05-07 10:18:15</t>
+          <t>2025-06-05 12:59:01</t>
         </is>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>18607</v>
       </c>
       <c r="J3" t="inlineStr">
         <is>
@@ -635,18 +635,18 @@
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R6 ;R9</t>
         </is>
       </c>
       <c r="L3" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="M3" t="n">
         <v>70</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>39666 (esterno)</t>
+          <t>39891 (esterno)</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
@@ -655,57 +655,57 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>39666</v>
+        <v>39891</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>2025-04-24 00:00:00</t>
+          <t>2025-05-26 00:00:00</t>
         </is>
       </c>
       <c r="R3" s="1" t="n">
-        <v>-13.42934027777778</v>
+        <v>-10.54099499089121</v>
       </c>
       <c r="S3" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>251391</v>
+        <v>251218</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="D4" t="n">
-        <v>91.640625</v>
+        <v>96.90140845070422</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2025-05-07 10:18:15</t>
+          <t>2025-06-04 12:00:00</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2025-05-07 10:35:15</t>
+          <t>2025-06-04 12:23:00</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>2025-05-07 10:35:15</t>
+          <t>2025-06-04 12:23:00</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>2025-05-07 12:06:53</t>
+          <t>2025-06-04 13:59:54</t>
         </is>
       </c>
       <c r="I4" t="n">
-        <v>5865</v>
+        <v>6880</v>
       </c>
       <c r="J4" t="inlineStr">
         <is>
@@ -714,17 +714,17 @@
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L4" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M4" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="N4" t="n">
-        <v>39749</v>
+        <v>39885</v>
       </c>
       <c r="O4" t="inlineStr">
         <is>
@@ -732,57 +732,57 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>39749</v>
+        <v>39885</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>2025-04-23 00:00:00</t>
+          <t>2025-05-09 00:00:00</t>
         </is>
       </c>
       <c r="R4" s="1" t="n">
-        <v>-0.50478515625</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>251395</v>
+        <v>251752</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D5" t="n">
-        <v>35.34375</v>
+        <v>0</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2025-05-07 12:06:53</t>
+          <t>2025-06-04 13:59:54</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2025-05-07 12:23:53</t>
+          <t>2025-06-04 14:20:54</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>2025-05-07 12:23:53</t>
+          <t>2025-06-04 14:20:54</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>2025-05-07 12:59:14</t>
+          <t>2025-06-04 14:20:54</t>
         </is>
       </c>
       <c r="I5" t="n">
-        <v>2262</v>
+        <v>0</v>
       </c>
       <c r="J5" t="inlineStr">
         <is>
@@ -791,17 +791,17 @@
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L5" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="M5" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="N5" t="n">
-        <v>39749</v>
+        <v>39846</v>
       </c>
       <c r="O5" t="inlineStr">
         <is>
@@ -809,57 +809,57 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>39749</v>
+        <v>39846</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>2025-04-23 00:00:00</t>
+          <t>2025-05-20 00:00:00</t>
         </is>
       </c>
       <c r="R5" s="1" t="n">
-        <v>-0.5411349826388889</v>
+        <v>-0.5978482003125</v>
       </c>
       <c r="S5" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>251396</v>
+        <v>251500</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="D6" t="n">
-        <v>35.34375</v>
+        <v>139.3802816901408</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2025-05-07 12:59:14</t>
+          <t>2025-06-04 14:20:54</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2025-05-07 13:14:14</t>
+          <t>2025-06-04 14:52:54</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>2025-05-07 13:14:14</t>
+          <t>2025-06-04 14:52:54</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>2025-05-07 13:49:34</t>
+          <t>2025-06-05 09:12:16</t>
         </is>
       </c>
       <c r="I6" t="n">
-        <v>2262</v>
+        <v>9896</v>
       </c>
       <c r="J6" t="inlineStr">
         <is>
@@ -868,17 +868,17 @@
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R6 ;R9</t>
         </is>
       </c>
       <c r="L6" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M6" t="n">
         <v>70</v>
       </c>
       <c r="N6" t="n">
-        <v>39749</v>
+        <v>39885</v>
       </c>
       <c r="O6" t="inlineStr">
         <is>
@@ -886,57 +886,57 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>39749</v>
+        <v>39885</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>2025-05-02 00:00:00</t>
+          <t>2025-05-26 00:00:00</t>
         </is>
       </c>
       <c r="R6" s="1" t="n">
-        <v>-0.5760959201388889</v>
+        <v>-0.3835289514814815</v>
       </c>
       <c r="S6" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>251548</v>
+        <v>251565</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C7" t="n">
         <v>19</v>
       </c>
       <c r="D7" t="n">
-        <v>206.90625</v>
+        <v>176.7464788732394</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>2025-05-07 13:49:34</t>
+          <t>2025-06-05 09:12:16</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2025-05-07 14:08:34</t>
+          <t>2025-06-05 09:31:16</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>2025-05-07 14:08:34</t>
+          <t>2025-06-05 09:31:16</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>2025-05-08 09:35:29</t>
+          <t>2025-06-05 12:28:01</t>
         </is>
       </c>
       <c r="I7" t="n">
-        <v>13242</v>
+        <v>12549</v>
       </c>
       <c r="J7" t="inlineStr">
         <is>
@@ -949,13 +949,13 @@
         </is>
       </c>
       <c r="L7" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M7" t="n">
         <v>70</v>
       </c>
       <c r="N7" t="n">
-        <v>39749</v>
+        <v>39885</v>
       </c>
       <c r="O7" t="inlineStr">
         <is>
@@ -963,57 +963,57 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>39749</v>
+        <v>39885</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>2025-05-06 00:00:00</t>
+          <t>2025-06-10 00:00:00</t>
         </is>
       </c>
       <c r="R7" s="1" t="n">
-        <v>-1.399641927083333</v>
+        <v>-0.5194640062615741</v>
       </c>
       <c r="S7" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>251477</v>
+        <v>251180</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>32</v>
+        <v>32.5</v>
       </c>
       <c r="D8" t="n">
-        <v>468.734375</v>
+        <v>0</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>2025-05-08 09:35:29</t>
+          <t>2025-06-05 07:00:00</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2025-05-08 10:07:29</t>
+          <t>2025-06-05 07:32:30</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>2025-05-08 10:07:29</t>
+          <t>2025-06-05 07:32:30</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>2025-05-09 09:56:13</t>
+          <t>2025-06-05 07:32:30</t>
         </is>
       </c>
       <c r="I8" t="n">
-        <v>29999</v>
+        <v>0</v>
       </c>
       <c r="J8" t="inlineStr">
         <is>
@@ -1022,17 +1022,19 @@
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L8" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M8" t="n">
-        <v>76</v>
-      </c>
-      <c r="N8" t="n">
-        <v>39760</v>
+        <v>70</v>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>39887 (esterno)</t>
+        </is>
       </c>
       <c r="O8" t="inlineStr">
         <is>
@@ -1040,57 +1042,57 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>39760</v>
+        <v>39887</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>2025-04-28 00:00:00</t>
+          <t>2025-05-20 00:00:00</t>
         </is>
       </c>
       <c r="R8" s="1" t="n">
-        <v>-2.414040798611111</v>
+        <v>-16.31423611111111</v>
       </c>
       <c r="S8" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>251782</v>
+        <v>251070</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>15</v>
+        <v>34.5</v>
       </c>
       <c r="D9" t="n">
-        <v>188.640625</v>
+        <v>0</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>2025-05-09 09:56:13</t>
+          <t>2025-06-05 07:32:30</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>2025-05-09 10:11:13</t>
+          <t>2025-06-05 08:07:00</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>2025-05-09 10:11:13</t>
+          <t>2025-06-05 08:07:00</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>2025-05-09 13:19:51</t>
+          <t>2025-06-05 08:07:00</t>
         </is>
       </c>
       <c r="I9" t="n">
-        <v>12073</v>
+        <v>0</v>
       </c>
       <c r="J9" t="inlineStr">
         <is>
@@ -1099,17 +1101,17 @@
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R6 ;R9</t>
         </is>
       </c>
       <c r="L9" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="M9" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="N9" t="n">
-        <v>39754</v>
+        <v>39885</v>
       </c>
       <c r="O9" t="inlineStr">
         <is>
@@ -1117,57 +1119,57 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>39754</v>
+        <v>39885</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>2025-05-16 00:00:00</t>
+          <t>2025-03-28 00:00:00</t>
         </is>
       </c>
       <c r="R9" s="1" t="n">
-        <v>-0.5554578993055556</v>
+        <v>-0.3381944444444445</v>
       </c>
       <c r="S9" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>251651</v>
+        <v>251773</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>29</v>
+        <v>32.5</v>
       </c>
       <c r="D10" t="n">
-        <v>767.7049180327868</v>
+        <v>0</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>2025-05-09 07:00:00</t>
+          <t>2025-06-05 08:07:00</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>2025-05-09 07:29:00</t>
+          <t>2025-06-05 08:39:30</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>2025-05-09 07:29:00</t>
+          <t>2025-06-05 08:39:30</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>2025-05-12 12:16:42</t>
+          <t>2025-06-05 08:39:30</t>
         </is>
       </c>
       <c r="I10" t="n">
-        <v>46830</v>
+        <v>0</v>
       </c>
       <c r="J10" t="inlineStr">
         <is>
@@ -1176,73 +1178,75 @@
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
+          <t>CASON ;R6</t>
         </is>
       </c>
       <c r="L10" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="M10" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="N10" t="n">
-        <v>39755</v>
-      </c>
-      <c r="O10" t="n">
-        <v>0</v>
+        <v>39874</v>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>39874</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>2025-05-12 00:00:00</t>
+          <t>2025-05-25 00:00:00</t>
         </is>
       </c>
       <c r="R10" s="1" t="n">
-        <v>0</v>
+        <v>-0.3607638888888889</v>
       </c>
       <c r="S10" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>251225</v>
+        <v>251895</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>19</v>
+        <v>36.5</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>321.7090909090909</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>2025-05-08 07:00:00</t>
+          <t>2025-06-05 08:39:30</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>2025-05-08 07:19:00</t>
+          <t>2025-06-05 09:16:00</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>2025-05-08 07:19:00</t>
+          <t>2025-06-05 09:16:00</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>2025-05-08 07:19:00</t>
+          <t>2025-06-05 14:37:42</t>
         </is>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>17694</v>
       </c>
       <c r="J11" t="inlineStr">
         <is>
@@ -1251,75 +1255,77 @@
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R6 ;R9</t>
         </is>
       </c>
       <c r="L11" t="n">
+        <v>10</v>
+      </c>
+      <c r="M11" t="n">
+        <v>70</v>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>39891 (esterno)</t>
+        </is>
+      </c>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="P11" t="n">
+        <v>39891</v>
+      </c>
+      <c r="Q11" t="inlineStr">
+        <is>
+          <t>2025-05-26 00:00:00</t>
+        </is>
+      </c>
+      <c r="R11" s="1" t="n">
+        <v>-10.60952020202546</v>
+      </c>
+      <c r="S11" t="n">
         <v>4</v>
-      </c>
-      <c r="M11" t="n">
-        <v>76</v>
-      </c>
-      <c r="N11" t="n">
-        <v>39747</v>
-      </c>
-      <c r="O11" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="P11" t="n">
-        <v>39747</v>
-      </c>
-      <c r="Q11" t="inlineStr">
-        <is>
-          <t>2025-04-30 00:00:00</t>
-        </is>
-      </c>
-      <c r="R11" s="1" t="n">
-        <v>-0.3048611111111111</v>
-      </c>
-      <c r="S11" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>251456</v>
+        <v>251780</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>32</v>
+        <v>44.5</v>
       </c>
       <c r="D12" t="n">
-        <v>126.7464788732394</v>
+        <v>441.8</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>2025-05-08 07:19:00</t>
+          <t>2025-06-05 14:37:42</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>2025-05-08 07:51:00</t>
+          <t>2025-06-06 07:22:12</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>2025-05-08 07:51:00</t>
+          <t>2025-06-06 07:22:12</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>2025-05-08 09:57:44</t>
+          <t>2025-06-06 14:44:00</t>
         </is>
       </c>
       <c r="I12" t="n">
-        <v>8999</v>
+        <v>24299</v>
       </c>
       <c r="J12" t="inlineStr">
         <is>
@@ -1337,8 +1343,10 @@
       <c r="M12" t="n">
         <v>70</v>
       </c>
-      <c r="N12" t="n">
-        <v>39746</v>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>39887 (esterno)</t>
+        </is>
       </c>
       <c r="O12" t="inlineStr">
         <is>
@@ -1346,57 +1354,57 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>39746</v>
+        <v>39887</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>2025-05-09 00:00:00</t>
+          <t>2025-06-18 00:00:00</t>
         </is>
       </c>
       <c r="R12" s="1" t="n">
-        <v>-2.415101721435185</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>251455</v>
+        <v>252112</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D13" t="n">
-        <v>74.6056338028169</v>
+        <v>204.1475409836065</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>2025-05-08 09:57:44</t>
+          <t>2025-06-04 07:00:00</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>2025-05-08 10:14:44</t>
+          <t>2025-06-04 07:20:00</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>2025-05-08 10:14:44</t>
+          <t>2025-06-04 07:20:00</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>2025-05-08 11:29:21</t>
+          <t>2025-06-04 10:44:08</t>
         </is>
       </c>
       <c r="I13" t="n">
-        <v>5297</v>
+        <v>12453</v>
       </c>
       <c r="J13" t="inlineStr">
         <is>
@@ -1409,13 +1417,13 @@
         </is>
       </c>
       <c r="L13" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M13" t="n">
         <v>70</v>
       </c>
       <c r="N13" t="n">
-        <v>39749</v>
+        <v>39885</v>
       </c>
       <c r="O13" t="inlineStr">
         <is>
@@ -1423,57 +1431,57 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>39749</v>
+        <v>39885</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>2025-04-15 00:00:00</t>
+          <t>2025-06-06 00:00:00</t>
         </is>
       </c>
       <c r="R13" s="1" t="n">
-        <v>-1.478716744918982</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>251547</v>
+        <v>252282</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="D14" t="n">
-        <v>184.9154929577465</v>
+        <v>44.88524590163934</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>2025-05-08 11:29:21</t>
+          <t>2025-06-04 10:44:08</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>2025-05-08 11:44:21</t>
+          <t>2025-06-04 11:19:08</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>2025-05-08 11:44:21</t>
+          <t>2025-06-04 11:19:08</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>2025-05-08 14:49:16</t>
+          <t>2025-06-04 12:04:01</t>
         </is>
       </c>
       <c r="I14" t="n">
-        <v>13129</v>
+        <v>2738</v>
       </c>
       <c r="J14" t="inlineStr">
         <is>
@@ -1486,13 +1494,13 @@
         </is>
       </c>
       <c r="L14" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M14" t="n">
         <v>70</v>
       </c>
       <c r="N14" t="n">
-        <v>39749</v>
+        <v>39885</v>
       </c>
       <c r="O14" t="inlineStr">
         <is>
@@ -1500,57 +1508,57 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>39749</v>
+        <v>39885</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>2025-05-06 00:00:00</t>
+          <t>2025-06-09 00:00:00</t>
         </is>
       </c>
       <c r="R14" s="1" t="n">
-        <v>-1.617546948356481</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>250759</v>
+        <v>251984</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C15" t="n">
         <v>30</v>
       </c>
       <c r="D15" t="n">
-        <v>118.2816901408451</v>
+        <v>338.327868852459</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>2025-05-08 14:49:16</t>
+          <t>2025-06-04 12:04:01</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>2025-05-09 07:19:16</t>
+          <t>2025-06-04 12:34:01</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>2025-05-09 07:19:16</t>
+          <t>2025-06-04 12:34:01</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>2025-05-09 09:17:32</t>
+          <t>2025-06-05 10:12:21</t>
         </is>
       </c>
       <c r="I15" t="n">
-        <v>8398</v>
+        <v>20638</v>
       </c>
       <c r="J15" t="inlineStr">
         <is>
@@ -1559,17 +1567,17 @@
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L15" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M15" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="N15" t="n">
-        <v>39747</v>
+        <v>39874</v>
       </c>
       <c r="O15" t="inlineStr">
         <is>
@@ -1577,15 +1585,15 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>39747</v>
+        <v>39874</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>2025-03-13 00:00:00</t>
+          <t>2025-06-10 00:00:00</t>
         </is>
       </c>
       <c r="R15" s="1" t="n">
-        <v>-1.387187010949074</v>
+        <v>-0.4252504553703704</v>
       </c>
       <c r="S15" t="n">
         <v>1</v>
@@ -1593,41 +1601,41 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>250894</v>
+        <v>251362</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C16" t="n">
         <v>17</v>
       </c>
       <c r="D16" t="n">
-        <v>623.4084507042254</v>
+        <v>35.28169014084507</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>2025-05-09 09:17:32</t>
+          <t>2025-06-05 07:00:00</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>2025-05-09 09:34:32</t>
+          <t>2025-06-05 07:17:00</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>2025-05-09 09:34:32</t>
+          <t>2025-06-05 07:17:00</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>2025-05-12 11:57:57</t>
+          <t>2025-06-05 07:52:16</t>
         </is>
       </c>
       <c r="I16" t="n">
-        <v>44262</v>
+        <v>2505</v>
       </c>
       <c r="J16" t="inlineStr">
         <is>
@@ -1636,73 +1644,75 @@
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L16" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M16" t="n">
         <v>76</v>
       </c>
       <c r="N16" t="n">
-        <v>39755</v>
-      </c>
-      <c r="O16" t="n">
-        <v>0</v>
+        <v>39874</v>
+      </c>
+      <c r="O16" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>39874</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>2025-05-05 00:00:00</t>
+          <t>2025-04-24 00:00:00</t>
         </is>
       </c>
       <c r="R16" s="1" t="n">
-        <v>0</v>
+        <v>-0.3279733959259259</v>
       </c>
       <c r="S16" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>251284</v>
+        <v>251631</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>40.5</v>
+        <v>15</v>
       </c>
       <c r="D17" t="n">
-        <v>297.0909090909091</v>
+        <v>146.056338028169</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>2025-05-09 07:00:00</t>
+          <t>2025-06-05 07:52:16</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>2025-05-09 07:40:30</t>
+          <t>2025-06-05 08:07:16</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>2025-05-09 07:40:30</t>
+          <t>2025-06-05 08:07:16</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>2025-05-09 12:37:35</t>
+          <t>2025-06-05 10:33:20</t>
         </is>
       </c>
       <c r="I17" t="n">
-        <v>16340</v>
+        <v>10370</v>
       </c>
       <c r="J17" t="inlineStr">
         <is>
@@ -1711,17 +1721,17 @@
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>CASON ;R6</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L17" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="M17" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="N17" t="n">
-        <v>39747</v>
+        <v>39885</v>
       </c>
       <c r="O17" t="inlineStr">
         <is>
@@ -1729,57 +1739,57 @@
         </is>
       </c>
       <c r="P17" t="n">
-        <v>39747</v>
+        <v>39885</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>2025-05-12 00:00:00</t>
+          <t>2025-05-09 00:00:00</t>
         </is>
       </c>
       <c r="R17" s="1" t="n">
-        <v>-1.526104797974537</v>
+        <v>-0.4398180751157408</v>
       </c>
       <c r="S17" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>251742</v>
+        <v>251237</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="D18" t="n">
-        <v>134.8524590163935</v>
+        <v>565.3521126760563</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>2025-05-08 07:00:00</t>
+          <t>2025-06-05 10:33:20</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>2025-05-08 07:30:00</t>
+          <t>2025-06-05 11:09:20</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>2025-05-08 07:30:00</t>
+          <t>2025-06-05 11:09:20</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>2025-05-08 09:44:51</t>
+          <t>2025-06-06 12:34:41</t>
         </is>
       </c>
       <c r="I18" t="n">
-        <v>8226</v>
+        <v>40140</v>
       </c>
       <c r="J18" t="inlineStr">
         <is>
@@ -1788,17 +1798,17 @@
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>R12 ;R9</t>
         </is>
       </c>
       <c r="L18" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M18" t="n">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="N18" t="n">
-        <v>39749</v>
+        <v>39885</v>
       </c>
       <c r="O18" t="inlineStr">
         <is>
@@ -1806,57 +1816,57 @@
         </is>
       </c>
       <c r="P18" t="n">
-        <v>39749</v>
+        <v>39885</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>2025-05-15 00:00:00</t>
+          <t>2025-05-05 00:00:00</t>
         </is>
       </c>
       <c r="R18" s="1" t="n">
-        <v>-1.406147540983796</v>
+        <v>-1.524090375590278</v>
       </c>
       <c r="S18" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>251840</v>
+        <v>252084</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>R3</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="D19" t="n">
-        <v>93.67213114754098</v>
+        <v>797.9795918367347</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>2025-05-08 09:44:51</t>
+          <t>2025-06-04 07:00:00</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>2025-05-08 10:09:51</t>
+          <t>2025-06-04 07:40:00</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>2025-05-08 10:09:51</t>
+          <t>2025-06-04 07:40:00</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>2025-05-08 11:43:31</t>
+          <t>2025-06-05 12:57:58</t>
         </is>
       </c>
       <c r="I19" t="n">
-        <v>5714</v>
+        <v>39101</v>
       </c>
       <c r="J19" t="inlineStr">
         <is>
@@ -1869,13 +1879,13 @@
         </is>
       </c>
       <c r="L19" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="M19" t="n">
         <v>70</v>
       </c>
       <c r="N19" t="n">
-        <v>39758</v>
+        <v>39885</v>
       </c>
       <c r="O19" t="inlineStr">
         <is>
@@ -1883,57 +1893,57 @@
         </is>
       </c>
       <c r="P19" t="n">
-        <v>39758</v>
+        <v>39885</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>2025-05-09 00:00:00</t>
+          <t>2025-06-30 00:00:00</t>
         </is>
       </c>
       <c r="R19" s="1" t="n">
-        <v>-0.4885587431712963</v>
+        <v>-0.5402636054398148</v>
       </c>
       <c r="S19" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>251229</v>
+        <v>251655</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="D20" t="n">
-        <v>307.1967213114754</v>
+        <v>1617.211267605634</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>2025-05-08 11:43:31</t>
+          <t>2025-06-05 07:00:00</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>2025-05-08 12:08:31</t>
+          <t>2025-06-05 07:40:00</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>2025-05-08 12:08:31</t>
+          <t>2025-06-05 07:40:00</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>2025-05-09 09:15:43</t>
+          <t>2025-06-10 10:37:12</t>
         </is>
       </c>
       <c r="I20" t="n">
-        <v>18739</v>
+        <v>114822</v>
       </c>
       <c r="J20" t="inlineStr">
         <is>
@@ -1942,19 +1952,17 @@
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R6 ;R9</t>
         </is>
       </c>
       <c r="L20" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="M20" t="n">
         <v>70</v>
       </c>
-      <c r="N20" t="inlineStr">
-        <is>
-          <t>39723 (esterno)</t>
-        </is>
+      <c r="N20" t="n">
+        <v>39885</v>
       </c>
       <c r="O20" t="inlineStr">
         <is>
@@ -1962,57 +1970,57 @@
         </is>
       </c>
       <c r="P20" t="n">
-        <v>39723</v>
+        <v>39885</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>2025-05-15 00:00:00</t>
+          <t>2025-04-15 00:00:00</t>
         </is>
       </c>
       <c r="R20" s="1" t="n">
-        <v>0</v>
+        <v>-5.442507824722222</v>
       </c>
       <c r="S20" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>250923</v>
+        <v>251573</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>R9</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="D21" t="n">
-        <v>98.67605633802818</v>
+        <v>89.89855072463769</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>2025-05-08 12:00:00</t>
+          <t>2025-06-06 07:00:00</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>2025-05-08 12:21:00</t>
+          <t>2025-06-06 07:35:00</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>2025-05-08 12:21:00</t>
+          <t>2025-06-06 07:35:00</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>2025-05-08 13:59:40</t>
+          <t>2025-06-06 09:04:53</t>
         </is>
       </c>
       <c r="I21" t="n">
-        <v>7006</v>
+        <v>6203</v>
       </c>
       <c r="J21" t="inlineStr">
         <is>
@@ -2021,17 +2029,17 @@
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>R12 ;R9</t>
         </is>
       </c>
       <c r="L21" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M21" t="n">
-        <v>76</v>
+        <v>100</v>
       </c>
       <c r="N21" t="n">
-        <v>39749</v>
+        <v>39885</v>
       </c>
       <c r="O21" t="inlineStr">
         <is>
@@ -2039,53 +2047,53 @@
         </is>
       </c>
       <c r="P21" t="n">
-        <v>39749</v>
+        <v>39885</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>2025-04-07 00:00:00</t>
+          <t>2025-05-26 00:00:00</t>
         </is>
       </c>
       <c r="R21" s="1" t="n">
-        <v>-1.583108372453704</v>
+        <v>-1.378401771331018</v>
       </c>
       <c r="S21" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>251227</v>
+        <v>251082</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>T2</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>2025-05-08 13:59:40</t>
+          <t>2025-06-05 07:00:00</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>2025-05-08 14:16:40</t>
+          <t>2025-06-05 07:00:00</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>2025-05-08 14:16:40</t>
+          <t>2025-06-05 07:00:00</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>2025-05-08 14:16:40</t>
+          <t>2025-06-05 07:00:00</t>
         </is>
       </c>
       <c r="I22" t="n">
@@ -2093,22 +2101,22 @@
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>bobina</t>
+          <t>foglio</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>T1 ;T2 ;T8</t>
         </is>
       </c>
       <c r="L22" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>76</v>
+        <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>39746</v>
+        <v>39885</v>
       </c>
       <c r="O22" t="inlineStr">
         <is>
@@ -2116,76 +2124,73 @@
         </is>
       </c>
       <c r="P22" t="n">
-        <v>39746</v>
+        <v>39885</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>2025-05-05 00:00:00</t>
+          <t>2025-05-12 00:00:00</t>
         </is>
       </c>
       <c r="R22" s="1" t="n">
-        <v>-2.594913928009259</v>
+        <v>-0.2916666666666667</v>
       </c>
       <c r="S22" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>251416</v>
+        <v>252375</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>R3</t>
+          <t>T2</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>229.0204081632653</v>
+        <v>99.2063492063492</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>2025-05-08 07:00:00</t>
+          <t>2025-06-05 07:00:00</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>2025-05-08 07:35:00</t>
+          <t>2025-06-05 07:00:00</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>2025-05-08 07:35:00</t>
+          <t>2025-06-05 07:00:00</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>2025-05-08 11:24:01</t>
+          <t>2025-06-05 08:39:12</t>
         </is>
       </c>
       <c r="I23" t="n">
-        <v>11222</v>
+        <v>6250</v>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>bobina</t>
+          <t>foglio</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>T1 ;T2 ;T8</t>
         </is>
       </c>
       <c r="L23" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>70</v>
-      </c>
-      <c r="N23" t="n">
-        <v>39755</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
         <v>0</v>
@@ -2195,7 +2200,7 @@
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>2025-04-23 00:00:00</t>
+          <t>2025-07-04 00:00:00</t>
         </is>
       </c>
       <c r="R23" s="1" t="n">
@@ -2207,41 +2212,41 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>251050</v>
+        <v>251762</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>217</v>
+        <v>20</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>85.37704918032787</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>2025-05-09 07:00:00</t>
+          <t>2025-06-05 10:12:21</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>2025-05-09 10:37:00</t>
+          <t>2025-06-05 10:32:21</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>2025-05-09 10:37:00</t>
+          <t>2025-06-05 10:32:21</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>2025-05-09 10:37:00</t>
+          <t>2025-06-05 11:57:44</t>
         </is>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>5208</v>
       </c>
       <c r="J24" t="inlineStr">
         <is>
@@ -2250,75 +2255,70 @@
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L24" t="n">
-        <v>38</v>
+        <v>3</v>
       </c>
       <c r="M24" t="n">
         <v>70</v>
       </c>
-      <c r="N24" t="n">
-        <v>39747</v>
-      </c>
-      <c r="O24" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="O24" t="n">
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>39747</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>2025-04-16 00:00:00</t>
+          <t>2025-05-21 00:00:00</t>
         </is>
       </c>
       <c r="R24" s="1" t="n">
-        <v>-1.442361111111111</v>
+        <v>-15.49842896174768</v>
       </c>
       <c r="S24" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>251054</v>
+        <v>251911</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>153.6885245901639</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>2025-05-09 10:37:00</t>
+          <t>2025-06-05 11:57:44</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>2025-05-09 11:12:00</t>
+          <t>2025-06-05 12:22:44</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>2025-05-09 11:12:00</t>
+          <t>2025-06-05 12:22:44</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>2025-05-09 11:12:00</t>
+          <t>2025-06-05 14:56:25</t>
         </is>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>9375</v>
       </c>
       <c r="J25" t="inlineStr">
         <is>
@@ -2327,75 +2327,70 @@
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L25" t="n">
-        <v>38</v>
+        <v>4</v>
       </c>
       <c r="M25" t="n">
         <v>70</v>
       </c>
-      <c r="N25" t="n">
-        <v>39747</v>
-      </c>
-      <c r="O25" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="O25" t="n">
+        <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>39747</v>
+        <v>0</v>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>2025-04-16 00:00:00</t>
+          <t>2025-05-28 00:00:00</t>
         </is>
       </c>
       <c r="R25" s="1" t="n">
-        <v>-1.466666666666667</v>
+        <v>-8.622518214930556</v>
       </c>
       <c r="S25" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>251081</v>
+        <v>251910</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>125</v>
+        <v>15</v>
       </c>
       <c r="D26" t="n">
-        <v>42.42253521126761</v>
+        <v>186.5070422535211</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>2025-05-09 11:12:00</t>
+          <t>2025-06-05 12:28:01</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>2025-05-09 13:17:00</t>
+          <t>2025-06-05 12:43:01</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>2025-05-09 13:17:00</t>
+          <t>2025-06-05 12:43:01</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>2025-05-09 13:59:25</t>
+          <t>2025-06-06 07:49:32</t>
         </is>
       </c>
       <c r="I26" t="n">
-        <v>3012</v>
+        <v>13242</v>
       </c>
       <c r="J26" t="inlineStr">
         <is>
@@ -2404,114 +2399,100 @@
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L26" t="n">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="M26" t="n">
         <v>70</v>
       </c>
-      <c r="N26" t="inlineStr">
-        <is>
-          <t>39750 (esterno)</t>
-        </is>
-      </c>
-      <c r="O26" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="O26" t="n">
+        <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>39750</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
-          <t>2025-04-23 00:00:00</t>
+          <t>2025-05-28 00:00:00</t>
         </is>
       </c>
       <c r="R26" s="1" t="n">
-        <v>-16.58293231612268</v>
+        <v>-9.326066118935184</v>
       </c>
       <c r="S26" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>251706</v>
+        <v>251741</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>T3</t>
+          <t>R3</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="D27" t="n">
-        <v>50.79365079365079</v>
+        <v>110.9183673469388</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>2025-05-12 07:00:00</t>
+          <t>2025-06-05 12:57:58</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>2025-05-12 07:00:00</t>
+          <t>2025-06-05 13:42:58</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>2025-05-12 07:00:00</t>
+          <t>2025-06-05 13:42:58</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>2025-05-12 07:50:47</t>
+          <t>2025-06-06 07:33:53</t>
         </is>
       </c>
       <c r="I27" t="n">
-        <v>3200</v>
+        <v>5435</v>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>foglio</t>
+          <t>bobina</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>T3</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
-      </c>
-      <c r="N27" t="inlineStr">
-        <is>
-          <t>39764 (esterno)</t>
-        </is>
-      </c>
-      <c r="O27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>70</v>
+      </c>
+      <c r="O27" t="n">
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>39764</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
-          <t>2025-05-14 00:00:00</t>
+          <t>2025-05-28 00:00:00</t>
         </is>
       </c>
       <c r="R27" s="1" t="n">
-        <v>0</v>
+        <v>-9.315206916099537</v>
       </c>
       <c r="S27" t="n">
         <v>7</v>
@@ -2519,41 +2500,41 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>251561</v>
+        <v>251879</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>R3</t>
+          <t>BIMEC 4</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="D28" t="n">
-        <v>110.9183673469388</v>
+        <v>98.47540983606558</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>2025-05-08 11:24:01</t>
+          <t>2025-06-05 12:59:01</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>2025-05-08 12:14:01</t>
+          <t>2025-06-05 13:38:01</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>2025-05-08 12:14:01</t>
+          <t>2025-06-05 13:38:01</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>2025-05-08 14:04:56</t>
+          <t>2025-06-06 07:16:30</t>
         </is>
       </c>
       <c r="I28" t="n">
-        <v>5435</v>
+        <v>6007</v>
       </c>
       <c r="J28" t="inlineStr">
         <is>
@@ -2566,7 +2547,7 @@
         </is>
       </c>
       <c r="L28" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M28" t="n">
         <v>70</v>
@@ -2579,53 +2560,53 @@
       </c>
       <c r="Q28" t="inlineStr">
         <is>
-          <t>2025-05-07 00:00:00</t>
+          <t>2025-05-30 00:00:00</t>
         </is>
       </c>
       <c r="R28" s="1" t="n">
-        <v>-1.586763038553241</v>
+        <v>-7.303130692164352</v>
       </c>
       <c r="S28" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>251564</v>
+        <v>251943</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>R3</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="D29" t="n">
-        <v>55.44897959183673</v>
+        <v>92.234375</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>2025-05-08 14:04:56</t>
+          <t>2025-06-05 14:23:30</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>2025-05-08 14:49:56</t>
+          <t>2025-06-05 14:57:30</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>2025-05-08 14:49:56</t>
+          <t>2025-06-05 14:57:30</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>2025-05-09 07:45:23</t>
+          <t>2025-06-06 08:29:44</t>
         </is>
       </c>
       <c r="I29" t="n">
-        <v>2717</v>
+        <v>5903</v>
       </c>
       <c r="J29" t="inlineStr">
         <is>
@@ -2638,7 +2619,7 @@
         </is>
       </c>
       <c r="L29" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M29" t="n">
         <v>70</v>
@@ -2651,53 +2632,53 @@
       </c>
       <c r="Q29" t="inlineStr">
         <is>
-          <t>2025-05-07 00:00:00</t>
+          <t>2025-05-30 00:00:00</t>
         </is>
       </c>
       <c r="R29" s="1" t="n">
-        <v>-2.323185941041666</v>
+        <v>-7.353982204861111</v>
       </c>
       <c r="S29" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>251340</v>
+        <v>251978</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="D30" t="n">
-        <v>461.9718309859155</v>
+        <v>512.2950819672132</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>2025-05-08 14:14:40</t>
+          <t>2025-06-05 14:56:25</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>2025-05-08 14:35:40</t>
+          <t>2025-06-06 07:21:25</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>2025-05-08 14:35:40</t>
+          <t>2025-06-06 07:21:25</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>2025-05-09 14:17:38</t>
+          <t>2025-06-09 07:53:43</t>
         </is>
       </c>
       <c r="I30" t="n">
-        <v>32800</v>
+        <v>31250</v>
       </c>
       <c r="J30" t="inlineStr">
         <is>
@@ -2706,14 +2687,14 @@
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L30" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M30" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
@@ -2723,53 +2704,53 @@
       </c>
       <c r="Q30" t="inlineStr">
         <is>
-          <t>2025-04-28 00:00:00</t>
+          <t>2025-06-03 00:00:00</t>
         </is>
       </c>
       <c r="R30" s="1" t="n">
-        <v>-11.59558881063657</v>
+        <v>-6.328973132974538</v>
       </c>
       <c r="S30" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>251566</v>
+        <v>251445</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>R3</t>
+          <t>BIMEC 4</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="D31" t="n">
-        <v>140.5918367346939</v>
+        <v>445.4754098360656</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>2025-05-09 07:45:23</t>
+          <t>2025-06-06 07:16:30</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>2025-05-09 08:25:23</t>
+          <t>2025-06-06 07:41:30</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>2025-05-09 08:25:23</t>
+          <t>2025-06-06 07:41:30</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>2025-05-09 10:45:58</t>
+          <t>2025-06-09 07:06:59</t>
         </is>
       </c>
       <c r="I31" t="n">
-        <v>6889</v>
+        <v>27174</v>
       </c>
       <c r="J31" t="inlineStr">
         <is>
@@ -2782,7 +2763,7 @@
         </is>
       </c>
       <c r="L31" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M31" t="n">
         <v>70</v>
@@ -2795,53 +2776,53 @@
       </c>
       <c r="Q31" t="inlineStr">
         <is>
-          <t>2025-05-07 00:00:00</t>
+          <t>2025-06-04 00:00:00</t>
         </is>
       </c>
       <c r="R31" s="1" t="n">
-        <v>-2.448596938773148</v>
+        <v>-5.2965163934375</v>
       </c>
       <c r="S31" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>251626</v>
+        <v>251992</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>R3</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="D32" t="n">
-        <v>204.9180327868852</v>
+        <v>92.34693877551021</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>2025-05-09 09:15:43</t>
+          <t>2025-06-06 07:33:53</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>2025-05-09 09:50:43</t>
+          <t>2025-06-06 08:18:53</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>2025-05-09 09:50:43</t>
+          <t>2025-06-06 08:18:53</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>2025-05-09 13:15:38</t>
+          <t>2025-06-06 09:51:14</t>
         </is>
       </c>
       <c r="I32" t="n">
-        <v>12500</v>
+        <v>4525</v>
       </c>
       <c r="J32" t="inlineStr">
         <is>
@@ -2854,7 +2835,7 @@
         </is>
       </c>
       <c r="L32" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="M32" t="n">
         <v>70</v>
@@ -2867,11 +2848,11 @@
       </c>
       <c r="Q32" t="inlineStr">
         <is>
-          <t>2025-04-30 00:00:00</t>
+          <t>2025-06-04 00:00:00</t>
         </is>
       </c>
       <c r="R32" s="1" t="n">
-        <v>-9.552527322407407</v>
+        <v>-2.410586734699074</v>
       </c>
       <c r="S32" t="n">
         <v>7</v>
@@ -2879,41 +2860,41 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>251546</v>
+        <v>251390</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>R3</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="D33" t="n">
-        <v>131.9591836734694</v>
+        <v>30.35211267605634</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>2025-05-09 10:45:58</t>
+          <t>2025-06-06 07:49:32</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>2025-05-09 11:25:58</t>
+          <t>2025-06-06 08:04:32</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>2025-05-09 11:25:58</t>
+          <t>2025-06-06 08:04:32</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>2025-05-09 13:37:56</t>
+          <t>2025-06-06 08:34:53</t>
         </is>
       </c>
       <c r="I33" t="n">
-        <v>6466</v>
+        <v>2155</v>
       </c>
       <c r="J33" t="inlineStr">
         <is>
@@ -2926,7 +2907,7 @@
         </is>
       </c>
       <c r="L33" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M33" t="n">
         <v>70</v>
@@ -2939,11 +2920,11 @@
       </c>
       <c r="Q33" t="inlineStr">
         <is>
-          <t>2025-04-30 00:00:00</t>
+          <t>2025-06-09 00:00:00</t>
         </is>
       </c>
       <c r="R33" s="1" t="n">
-        <v>-9.568013038553241</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>7</v>
@@ -2951,41 +2932,41 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>251505</v>
+        <v>251519</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>200</v>
+        <v>19</v>
       </c>
       <c r="D34" t="n">
-        <v>200.7746478873239</v>
+        <v>205.859375</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>2025-05-09 12:29:25</t>
+          <t>2025-06-06 08:29:44</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>2025-05-12 07:49:25</t>
+          <t>2025-06-06 08:48:44</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>2025-05-12 07:49:25</t>
+          <t>2025-06-06 08:48:44</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>2025-05-12 11:10:11</t>
+          <t>2025-06-06 12:14:35</t>
         </is>
       </c>
       <c r="I34" t="n">
-        <v>14255</v>
+        <v>13175</v>
       </c>
       <c r="J34" t="inlineStr">
         <is>
@@ -2998,7 +2979,7 @@
         </is>
       </c>
       <c r="L34" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="M34" t="n">
         <v>70</v>
@@ -3011,11 +2992,11 @@
       </c>
       <c r="Q34" t="inlineStr">
         <is>
-          <t>2025-05-05 00:00:00</t>
+          <t>2025-06-10 00:00:00</t>
         </is>
       </c>
       <c r="R34" s="1" t="n">
-        <v>-7.465414710486112</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>7</v>
@@ -3023,41 +3004,41 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>251846</v>
+        <v>252156</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>40.5</v>
+        <v>17</v>
       </c>
       <c r="D35" t="n">
-        <v>207.1272727272727</v>
+        <v>723.5211267605633</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>2025-05-09 12:37:35</t>
+          <t>2025-06-06 08:34:53</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>2025-05-09 13:18:05</t>
+          <t>2025-06-06 08:51:53</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>2025-05-09 13:18:05</t>
+          <t>2025-06-06 08:51:53</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>2025-05-12 08:45:13</t>
+          <t>2025-06-09 12:55:24</t>
         </is>
       </c>
       <c r="I35" t="n">
-        <v>11392</v>
+        <v>51370</v>
       </c>
       <c r="J35" t="inlineStr">
         <is>
@@ -3070,7 +3051,7 @@
         </is>
       </c>
       <c r="L35" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="M35" t="n">
         <v>70</v>
@@ -3083,7 +3064,7 @@
       </c>
       <c r="Q35" t="inlineStr">
         <is>
-          <t>2025-05-30 00:00:00</t>
+          <t>2025-06-12 00:00:00</t>
         </is>
       </c>
       <c r="R35" s="1" t="n">
@@ -3095,41 +3076,41 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>251519</v>
+        <v>252235</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>R9</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="D36" t="n">
-        <v>205.859375</v>
+        <v>351.5652173913044</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>2025-05-09 13:11:51</t>
+          <t>2025-06-06 09:04:53</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>2025-05-09 13:43:51</t>
+          <t>2025-06-06 09:54:53</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>2025-05-09 13:43:51</t>
+          <t>2025-06-06 09:54:53</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>2025-05-12 09:09:43</t>
+          <t>2025-06-09 07:46:27</t>
         </is>
       </c>
       <c r="I36" t="n">
-        <v>13175</v>
+        <v>24258</v>
       </c>
       <c r="J36" t="inlineStr">
         <is>
@@ -3138,14 +3119,14 @@
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L36" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="M36" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
@@ -3155,7 +3136,7 @@
       </c>
       <c r="Q36" t="inlineStr">
         <is>
-          <t>2025-06-10 00:00:00</t>
+          <t>2025-06-15 00:00:00</t>
         </is>
       </c>
       <c r="R36" s="1" t="n">
@@ -3167,41 +3148,41 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>251373</v>
+        <v>252395</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>R3</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>30</v>
+        <v>57</v>
       </c>
       <c r="D37" t="n">
-        <v>280.2295081967213</v>
+        <v>1832.387755102041</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>2025-05-09 13:15:38</t>
+          <t>2025-06-06 09:51:14</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>2025-05-09 13:45:38</t>
+          <t>2025-06-06 10:48:14</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>2025-05-09 13:45:38</t>
+          <t>2025-06-06 10:48:14</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>2025-05-12 10:25:52</t>
+          <t>2025-06-12 09:20:37</t>
         </is>
       </c>
       <c r="I37" t="n">
-        <v>17094</v>
+        <v>89787</v>
       </c>
       <c r="J37" t="inlineStr">
         <is>
@@ -3210,14 +3191,14 @@
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L37" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="M37" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="O37" t="n">
         <v>0</v>
@@ -3227,53 +3208,53 @@
       </c>
       <c r="Q37" t="inlineStr">
         <is>
-          <t>2025-04-28 00:00:00</t>
+          <t>2025-08-04 00:00:00</t>
         </is>
       </c>
       <c r="R37" s="1" t="n">
-        <v>-14.4346311475463</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>251424</v>
+        <v>251935</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>R3</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="D38" t="n">
-        <v>197.1836734693877</v>
+        <v>104.515625</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>2025-05-09 13:37:56</t>
+          <t>2025-06-06 12:14:35</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>2025-05-09 14:17:56</t>
+          <t>2025-06-06 12:33:35</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>2025-05-09 14:17:56</t>
+          <t>2025-06-06 12:33:35</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>2025-05-12 09:35:07</t>
+          <t>2025-06-06 14:18:06</t>
         </is>
       </c>
       <c r="I38" t="n">
-        <v>9662</v>
+        <v>6689</v>
       </c>
       <c r="J38" t="inlineStr">
         <is>
@@ -3299,11 +3280,11 @@
       </c>
       <c r="Q38" t="inlineStr">
         <is>
-          <t>2025-04-28 00:00:00</t>
+          <t>2025-06-05 00:00:00</t>
         </is>
       </c>
       <c r="R38" s="1" t="n">
-        <v>-14.39939058957176</v>
+        <v>-1.595909288194445</v>
       </c>
       <c r="S38" t="n">
         <v>4</v>
@@ -3311,7 +3292,7 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>243569</v>
+        <v>251958</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
@@ -3319,33 +3300,33 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="D39" t="n">
-        <v>36.63380281690141</v>
+        <v>122.2676056338028</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>2025-05-09 14:17:38</t>
+          <t>2025-06-06 12:34:41</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>2025-05-09 14:34:38</t>
+          <t>2025-06-06 13:08:41</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>2025-05-09 14:34:38</t>
+          <t>2025-06-06 13:08:41</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>2025-05-12 07:11:16</t>
+          <t>2025-06-09 07:10:57</t>
         </is>
       </c>
       <c r="I39" t="n">
-        <v>2601</v>
+        <v>8681</v>
       </c>
       <c r="J39" t="inlineStr">
         <is>
@@ -3354,11 +3335,11 @@
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L39" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M39" t="n">
         <v>76</v>
@@ -3371,53 +3352,53 @@
       </c>
       <c r="Q39" t="inlineStr">
         <is>
-          <t>2024-09-16 00:00:00</t>
+          <t>2025-06-09 00:00:00</t>
         </is>
       </c>
       <c r="R39" s="1" t="n">
-        <v>-238.2995011737037</v>
+        <v>-0.2992762128356481</v>
       </c>
       <c r="S39" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>245350</v>
+        <v>251993</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>R9</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>65</v>
+        <v>15</v>
       </c>
       <c r="D40" t="n">
-        <v>405.3623188405797</v>
+        <v>189.890625</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>2025-05-12 07:00:00</t>
+          <t>2025-06-06 14:18:06</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>2025-05-12 08:05:00</t>
+          <t>2025-06-06 14:33:06</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>2025-05-12 08:05:00</t>
+          <t>2025-06-06 14:33:06</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>2025-05-12 14:50:21</t>
+          <t>2025-06-09 09:43:00</t>
         </is>
       </c>
       <c r="I40" t="n">
-        <v>27970</v>
+        <v>12153</v>
       </c>
       <c r="J40" t="inlineStr">
         <is>
@@ -3426,11 +3407,11 @@
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L40" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="M40" t="n">
         <v>70</v>
@@ -3443,53 +3424,53 @@
       </c>
       <c r="Q40" t="inlineStr">
         <is>
-          <t>2025-12-31 00:00:00</t>
+          <t>2025-06-09 00:00:00</t>
         </is>
       </c>
       <c r="R40" s="1" t="n">
-        <v>0</v>
+        <v>-0.4048611111111111</v>
       </c>
       <c r="S40" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>245623</v>
+        <v>251979</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>32</v>
+        <v>32.5</v>
       </c>
       <c r="D41" t="n">
-        <v>372.0985915492957</v>
+        <v>374.1090909090909</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>2025-05-12 07:11:16</t>
+          <t>2025-06-06 14:56:00</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>2025-05-12 07:43:16</t>
+          <t>2025-06-09 07:28:30</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>2025-05-12 07:43:16</t>
+          <t>2025-06-09 07:28:30</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>2025-05-12 13:55:22</t>
+          <t>2025-06-09 13:42:37</t>
         </is>
       </c>
       <c r="I41" t="n">
-        <v>26419</v>
+        <v>20576</v>
       </c>
       <c r="J41" t="inlineStr">
         <is>
@@ -3498,14 +3479,14 @@
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>CASON ;R6</t>
         </is>
       </c>
       <c r="L41" t="n">
         <v>2</v>
       </c>
       <c r="M41" t="n">
-        <v>152</v>
+        <v>70</v>
       </c>
       <c r="O41" t="n">
         <v>0</v>
@@ -3515,53 +3496,53 @@
       </c>
       <c r="Q41" t="inlineStr">
         <is>
-          <t>2025-01-25 00:00:00</t>
+          <t>2025-06-05 00:00:00</t>
         </is>
       </c>
       <c r="R41" s="1" t="n">
-        <v>-107.5801251956134</v>
+        <v>-4.571262626261574</v>
       </c>
       <c r="S41" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>245275</v>
+        <v>251747</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>BIMEC 4</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>54.5</v>
+        <v>25</v>
       </c>
       <c r="D42" t="n">
-        <v>441.7090909090909</v>
+        <v>255.016393442623</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>2025-05-12 08:45:13</t>
+          <t>2025-06-09 07:06:59</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>2025-05-12 09:39:43</t>
+          <t>2025-06-09 07:31:59</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>2025-05-12 09:39:43</t>
+          <t>2025-06-09 07:31:59</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>2025-05-13 09:01:25</t>
+          <t>2025-06-09 11:47:00</t>
         </is>
       </c>
       <c r="I42" t="n">
-        <v>24294</v>
+        <v>15556</v>
       </c>
       <c r="J42" t="inlineStr">
         <is>
@@ -3570,11 +3551,11 @@
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;CASON ;R6</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L42" t="n">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="M42" t="n">
         <v>70</v>
@@ -3587,53 +3568,53 @@
       </c>
       <c r="Q42" t="inlineStr">
         <is>
-          <t>2025-12-31 00:00:00</t>
+          <t>2025-06-16 00:00:00</t>
         </is>
       </c>
       <c r="R42" s="1" t="n">
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>235572</v>
+        <v>243569</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D43" t="n">
-        <v>155.59375</v>
+        <v>36.63380281690141</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>2025-05-12 09:09:43</t>
+          <t>2025-06-09 07:10:57</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>2025-05-12 09:30:43</t>
+          <t>2025-06-09 07:27:57</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>2025-05-12 09:30:43</t>
+          <t>2025-06-09 07:27:57</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>2025-05-12 12:06:18</t>
+          <t>2025-06-09 08:04:35</t>
         </is>
       </c>
       <c r="I43" t="n">
-        <v>9958</v>
+        <v>2601</v>
       </c>
       <c r="J43" t="inlineStr">
         <is>
@@ -3642,14 +3623,14 @@
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L43" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M43" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="O43" t="n">
         <v>0</v>
@@ -3659,53 +3640,53 @@
       </c>
       <c r="Q43" t="inlineStr">
         <is>
-          <t>2023-11-06 00:00:00</t>
+          <t>2024-09-16 00:00:00</t>
         </is>
       </c>
       <c r="R43" s="1" t="n">
-        <v>-553.5043836805555</v>
+        <v>-266.3365219092361</v>
       </c>
       <c r="S43" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>251397</v>
+        <v>245623</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>R3</t>
+          <t>R9</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="D44" t="n">
-        <v>110.9183673469388</v>
+        <v>382.8840579710145</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>2025-05-12 09:35:07</t>
+          <t>2025-06-09 07:46:27</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>2025-05-12 10:15:07</t>
+          <t>2025-06-09 08:46:27</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>2025-05-12 10:15:07</t>
+          <t>2025-06-09 08:46:27</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>2025-05-12 12:06:02</t>
+          <t>2025-06-10 07:09:20</t>
         </is>
       </c>
       <c r="I44" t="n">
-        <v>5435</v>
+        <v>26419</v>
       </c>
       <c r="J44" t="inlineStr">
         <is>
@@ -3714,14 +3695,14 @@
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L44" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M44" t="n">
-        <v>70</v>
+        <v>152</v>
       </c>
       <c r="O44" t="n">
         <v>0</v>
@@ -3731,19 +3712,19 @@
       </c>
       <c r="Q44" t="inlineStr">
         <is>
-          <t>2025-04-28 00:00:00</t>
+          <t>2025-01-25 00:00:00</t>
         </is>
       </c>
       <c r="R44" s="1" t="n">
-        <v>-14.50419501134259</v>
+        <v>-136.2981582125579</v>
       </c>
       <c r="S44" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>251475</v>
+        <v>251944</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
@@ -3751,33 +3732,33 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D45" t="n">
-        <v>142.3114754098361</v>
+        <v>668.327868852459</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>2025-05-12 10:25:52</t>
+          <t>2025-06-09 07:53:43</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>2025-05-12 10:50:52</t>
+          <t>2025-06-09 08:23:43</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>2025-05-12 10:50:52</t>
+          <t>2025-06-09 08:23:43</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>2025-05-12 13:13:10</t>
+          <t>2025-06-10 11:32:02</t>
         </is>
       </c>
       <c r="I45" t="n">
-        <v>8681</v>
+        <v>40768</v>
       </c>
       <c r="J45" t="inlineStr">
         <is>
@@ -3790,7 +3771,7 @@
         </is>
       </c>
       <c r="L45" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M45" t="n">
         <v>70</v>
@@ -3803,53 +3784,53 @@
       </c>
       <c r="Q45" t="inlineStr">
         <is>
-          <t>2025-04-30 00:00:00</t>
+          <t>2025-05-26 00:00:00</t>
         </is>
       </c>
       <c r="R45" s="1" t="n">
-        <v>-12.55081967212963</v>
+        <v>-15.48058970856481</v>
       </c>
       <c r="S45" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>251594</v>
+        <v>251792</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="D46" t="n">
-        <v>91.07042253521126</v>
+        <v>129.6338028169014</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>2025-05-12 11:10:11</t>
+          <t>2025-06-09 08:04:35</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>2025-05-12 11:50:11</t>
+          <t>2025-06-09 08:19:35</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>2025-05-12 11:50:11</t>
+          <t>2025-06-09 08:19:35</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>2025-05-12 13:21:16</t>
+          <t>2025-06-09 10:29:13</t>
         </is>
       </c>
       <c r="I46" t="n">
-        <v>6466</v>
+        <v>9204</v>
       </c>
       <c r="J46" t="inlineStr">
         <is>
@@ -3858,14 +3839,14 @@
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L46" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M46" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="O46" t="n">
         <v>0</v>
@@ -3875,53 +3856,53 @@
       </c>
       <c r="Q46" t="inlineStr">
         <is>
-          <t>2025-05-07 00:00:00</t>
+          <t>2025-05-26 00:00:00</t>
         </is>
       </c>
       <c r="R46" s="1" t="n">
-        <v>-5.55643583724537</v>
+        <v>-14.43696205008102</v>
       </c>
       <c r="S46" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>244354</v>
+        <v>251905</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D47" t="n">
-        <v>60.70422535211268</v>
+        <v>216.265625</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>2025-05-12 11:57:57</t>
+          <t>2025-06-09 09:43:00</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>2025-05-12 12:29:57</t>
+          <t>2025-06-09 10:17:00</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>2025-05-12 12:29:57</t>
+          <t>2025-06-09 10:17:00</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>2025-05-12 13:30:39</t>
+          <t>2025-06-09 13:53:15</t>
         </is>
       </c>
       <c r="I47" t="n">
-        <v>4310</v>
+        <v>13841</v>
       </c>
       <c r="J47" t="inlineStr">
         <is>
@@ -3930,14 +3911,14 @@
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L47" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M47" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="O47" t="n">
         <v>0</v>
@@ -3947,53 +3928,53 @@
       </c>
       <c r="Q47" t="inlineStr">
         <is>
-          <t>2025-05-08 00:00:00</t>
+          <t>2025-05-28 00:00:00</t>
         </is>
       </c>
       <c r="R47" s="1" t="n">
-        <v>-4.562959702662037</v>
+        <v>-12.57865668402778</v>
       </c>
       <c r="S47" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>244355</v>
+        <v>251898</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>R3</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="D48" t="n">
-        <v>87.95918367346938</v>
+        <v>93.02816901408451</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>2025-05-12 12:06:02</t>
+          <t>2025-06-09 10:29:13</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>2025-05-12 12:46:02</t>
+          <t>2025-06-09 10:46:13</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>2025-05-12 12:46:02</t>
+          <t>2025-06-09 10:46:13</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>2025-05-12 14:14:00</t>
+          <t>2025-06-09 12:19:15</t>
         </is>
       </c>
       <c r="I48" t="n">
-        <v>4310</v>
+        <v>6605</v>
       </c>
       <c r="J48" t="inlineStr">
         <is>
@@ -4002,14 +3983,14 @@
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L48" t="n">
         <v>4</v>
       </c>
       <c r="M48" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="O48" t="n">
         <v>0</v>
@@ -4019,53 +4000,53 @@
       </c>
       <c r="Q48" t="inlineStr">
         <is>
-          <t>2025-05-08 00:00:00</t>
+          <t>2025-06-06 00:00:00</t>
         </is>
       </c>
       <c r="R48" s="1" t="n">
-        <v>-4.593055555555556</v>
+        <v>-3.513370500787037</v>
       </c>
       <c r="S48" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>244204</v>
+        <v>252042</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>BIMEC 4</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="D49" t="n">
-        <v>54.25</v>
+        <v>125.9672131147541</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>2025-05-12 12:06:18</t>
+          <t>2025-06-09 11:47:00</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>2025-05-12 12:23:18</t>
+          <t>2025-06-09 12:14:00</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>2025-05-12 12:23:18</t>
+          <t>2025-06-09 12:14:00</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>2025-05-12 13:17:33</t>
+          <t>2025-06-09 14:19:58</t>
         </is>
       </c>
       <c r="I49" t="n">
-        <v>3472</v>
+        <v>7684</v>
       </c>
       <c r="J49" t="inlineStr">
         <is>
@@ -4078,7 +4059,7 @@
         </is>
       </c>
       <c r="L49" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M49" t="n">
         <v>70</v>
@@ -4091,53 +4072,53 @@
       </c>
       <c r="Q49" t="inlineStr">
         <is>
-          <t>2025-05-08 00:00:00</t>
+          <t>2025-05-30 00:00:00</t>
         </is>
       </c>
       <c r="R49" s="1" t="n">
-        <v>-4.553862847222222</v>
+        <v>-10.59719945355324</v>
       </c>
       <c r="S49" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>251743</v>
+        <v>251798</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C50" t="n">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="D50" t="n">
-        <v>176.655737704918</v>
+        <v>318.943661971831</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>2025-05-12 12:16:42</t>
+          <t>2025-06-09 12:19:15</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>2025-05-12 12:58:42</t>
+          <t>2025-06-09 12:34:15</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>2025-05-12 12:58:42</t>
+          <t>2025-06-09 12:34:15</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>2025-05-13 07:55:21</t>
+          <t>2025-06-10 09:53:11</t>
         </is>
       </c>
       <c r="I50" t="n">
-        <v>10776</v>
+        <v>22645</v>
       </c>
       <c r="J50" t="inlineStr">
         <is>
@@ -4146,14 +4127,14 @@
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L50" t="n">
         <v>4</v>
       </c>
       <c r="M50" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="O50" t="n">
         <v>0</v>
@@ -4163,53 +4144,53 @@
       </c>
       <c r="Q50" t="inlineStr">
         <is>
-          <t>2025-05-16 00:00:00</t>
+          <t>2025-06-15 00:00:00</t>
         </is>
       </c>
       <c r="R50" s="1" t="n">
         <v>0</v>
       </c>
       <c r="S50" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>251809</v>
+        <v>252058</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C51" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D51" t="n">
-        <v>142.3114754098361</v>
+        <v>74.64788732394366</v>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>2025-05-12 13:13:10</t>
+          <t>2025-06-09 12:55:24</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>2025-05-12 13:33:10</t>
+          <t>2025-06-09 13:10:24</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>2025-05-12 13:33:10</t>
+          <t>2025-06-09 13:10:24</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>2025-05-13 07:55:29</t>
+          <t>2025-06-09 14:25:03</t>
         </is>
       </c>
       <c r="I51" t="n">
-        <v>8681</v>
+        <v>5300</v>
       </c>
       <c r="J51" t="inlineStr">
         <is>
@@ -4222,7 +4203,7 @@
         </is>
       </c>
       <c r="L51" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M51" t="n">
         <v>70</v>
@@ -4235,53 +4216,53 @@
       </c>
       <c r="Q51" t="inlineStr">
         <is>
-          <t>2025-05-22 00:00:00</t>
+          <t>2025-06-09 00:00:00</t>
         </is>
       </c>
       <c r="R51" s="1" t="n">
-        <v>0</v>
+        <v>-0.6007335680787037</v>
       </c>
       <c r="S51" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>250819</v>
+        <v>252082</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C52" t="n">
-        <v>19</v>
+        <v>30.5</v>
       </c>
       <c r="D52" t="n">
-        <v>133.234375</v>
+        <v>816.1454545454545</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>2025-05-12 13:17:33</t>
+          <t>2025-06-09 13:42:37</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>2025-05-12 13:36:33</t>
+          <t>2025-06-09 14:13:07</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>2025-05-12 13:36:33</t>
+          <t>2025-06-09 14:13:07</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>2025-05-13 07:49:47</t>
+          <t>2025-06-11 11:49:15</t>
         </is>
       </c>
       <c r="I52" t="n">
-        <v>8527</v>
+        <v>44888</v>
       </c>
       <c r="J52" t="inlineStr">
         <is>
@@ -4294,7 +4275,7 @@
         </is>
       </c>
       <c r="L52" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="M52" t="n">
         <v>70</v>
@@ -4307,11 +4288,11 @@
       </c>
       <c r="Q52" t="inlineStr">
         <is>
-          <t>2025-04-18 00:00:00</t>
+          <t>2025-06-10 00:00:00</t>
         </is>
       </c>
       <c r="R52" s="1" t="n">
-        <v>-25.32624782986111</v>
+        <v>-1.492544191921296</v>
       </c>
       <c r="S52" t="n">
         <v>2</v>
@@ -4319,41 +4300,41 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>251109</v>
+        <v>252337</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C53" t="n">
-        <v>95</v>
+        <v>30</v>
       </c>
       <c r="D53" t="n">
-        <v>266.5915492957747</v>
+        <v>1488.09375</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>2025-05-12 13:21:16</t>
+          <t>2025-06-09 13:53:15</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>2025-05-12 14:56:16</t>
+          <t>2025-06-09 14:23:15</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>2025-05-12 14:56:16</t>
+          <t>2025-06-09 14:23:15</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>2025-05-13 11:22:51</t>
+          <t>2025-06-13 07:11:21</t>
         </is>
       </c>
       <c r="I53" t="n">
-        <v>18928</v>
+        <v>95238</v>
       </c>
       <c r="J53" t="inlineStr">
         <is>
@@ -4362,11 +4343,11 @@
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
         </is>
       </c>
       <c r="L53" t="n">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="M53" t="n">
         <v>70</v>
@@ -4379,11 +4360,11 @@
       </c>
       <c r="Q53" t="inlineStr">
         <is>
-          <t>2025-04-18 00:00:00</t>
+          <t>2025-07-02 00:00:00</t>
         </is>
       </c>
       <c r="R53" s="1" t="n">
-        <v>-25.47420774648148</v>
+        <v>0</v>
       </c>
       <c r="S53" t="n">
         <v>2</v>
@@ -4391,41 +4372,41 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>251485</v>
+        <v>243335</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>BIMEC 4</t>
         </is>
       </c>
       <c r="C54" t="n">
-        <v>17</v>
+        <v>44</v>
       </c>
       <c r="D54" t="n">
-        <v>67.71830985915493</v>
+        <v>541.0491803278688</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>2025-05-12 13:30:39</t>
+          <t>2025-06-09 14:19:58</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>2025-05-12 13:47:39</t>
+          <t>2025-06-10 07:03:58</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>2025-05-12 13:47:39</t>
+          <t>2025-06-10 07:03:58</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>2025-05-12 14:55:22</t>
+          <t>2025-06-11 08:05:00</t>
         </is>
       </c>
       <c r="I54" t="n">
-        <v>4808</v>
+        <v>33004</v>
       </c>
       <c r="J54" t="inlineStr">
         <is>
@@ -4434,14 +4415,14 @@
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L54" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M54" t="n">
-        <v>70</v>
+        <v>152</v>
       </c>
       <c r="O54" t="n">
         <v>0</v>
@@ -4451,53 +4432,53 @@
       </c>
       <c r="Q54" t="inlineStr">
         <is>
-          <t>2025-04-23 00:00:00</t>
+          <t>2024-08-02 00:00:00</t>
         </is>
       </c>
       <c r="R54" s="1" t="n">
-        <v>-19.62179186228009</v>
+        <v>-313.3368169398959</v>
       </c>
       <c r="S54" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>250670</v>
+        <v>244023</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C55" t="n">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="D55" t="n">
-        <v>22.01408450704225</v>
+        <v>14.04225352112676</v>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>2025-05-12 13:55:22</t>
+          <t>2025-06-09 14:25:03</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>2025-05-12 14:29:22</t>
+          <t>2025-06-09 14:42:03</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>2025-05-12 14:29:22</t>
+          <t>2025-06-09 14:42:03</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>2025-05-12 14:51:23</t>
+          <t>2025-06-09 14:56:05</t>
         </is>
       </c>
       <c r="I55" t="n">
-        <v>1563</v>
+        <v>997</v>
       </c>
       <c r="J55" t="inlineStr">
         <is>
@@ -4506,14 +4487,14 @@
       </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L55" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M55" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="O55" t="n">
         <v>0</v>
@@ -4523,53 +4504,53 @@
       </c>
       <c r="Q55" t="inlineStr">
         <is>
-          <t>2025-05-05 00:00:00</t>
+          <t>2024-09-30 00:00:00</t>
         </is>
       </c>
       <c r="R55" s="1" t="n">
-        <v>-7.619023865416667</v>
+        <v>-252.6222906885764</v>
       </c>
       <c r="S55" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>251346</v>
+        <v>251186</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>R3</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C56" t="n">
-        <v>55</v>
+        <v>19</v>
       </c>
       <c r="D56" t="n">
-        <v>78.75510204081633</v>
+        <v>359.3239436619718</v>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>2025-05-12 14:14:00</t>
+          <t>2025-06-09 14:56:05</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>2025-05-13 07:09:00</t>
+          <t>2025-06-10 07:15:05</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>2025-05-13 07:09:00</t>
+          <t>2025-06-10 07:15:05</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>2025-05-13 08:27:45</t>
+          <t>2025-06-10 13:14:25</t>
         </is>
       </c>
       <c r="I56" t="n">
-        <v>3859</v>
+        <v>25512</v>
       </c>
       <c r="J56" t="inlineStr">
         <is>
@@ -4582,7 +4563,7 @@
         </is>
       </c>
       <c r="L56" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="M56" t="n">
         <v>70</v>
@@ -4595,19 +4576,19 @@
       </c>
       <c r="Q56" t="inlineStr">
         <is>
-          <t>2025-04-28 00:00:00</t>
+          <t>2025-05-30 00:00:00</t>
         </is>
       </c>
       <c r="R56" s="1" t="n">
-        <v>-15.35260770974537</v>
+        <v>-11.55168231612268</v>
       </c>
       <c r="S56" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>250641</v>
+        <v>251972</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
@@ -4615,33 +4596,33 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="D57" t="n">
-        <v>74.14492753623189</v>
+        <v>70.26086956521739</v>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>2025-05-12 14:50:21</t>
+          <t>2025-06-10 07:09:20</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>2025-05-13 07:35:21</t>
+          <t>2025-06-10 07:49:20</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>2025-05-13 07:35:21</t>
+          <t>2025-06-10 07:49:20</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>2025-05-13 08:49:30</t>
+          <t>2025-06-10 08:59:36</t>
         </is>
       </c>
       <c r="I57" t="n">
-        <v>5116</v>
+        <v>4848</v>
       </c>
       <c r="J57" t="inlineStr">
         <is>
@@ -4650,14 +4631,14 @@
       </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L57" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M57" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="O57" t="n">
         <v>0</v>
@@ -4667,53 +4648,53 @@
       </c>
       <c r="Q57" t="inlineStr">
         <is>
-          <t>2025-04-28 00:00:00</t>
+          <t>2025-05-30 00:00:00</t>
         </is>
       </c>
       <c r="R57" s="1" t="n">
-        <v>-15.36771336554398</v>
+        <v>-11.37472826086806</v>
       </c>
       <c r="S57" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>243335</v>
+        <v>252111</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>R9</t>
         </is>
       </c>
       <c r="C58" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D58" t="n">
-        <v>464.8450704225352</v>
+        <v>263.5797101449276</v>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>2025-05-12 14:51:23</t>
+          <t>2025-06-10 08:59:36</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>2025-05-13 07:21:23</t>
+          <t>2025-06-10 09:34:36</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>2025-05-13 07:21:23</t>
+          <t>2025-06-10 09:34:36</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>2025-05-14 07:06:14</t>
+          <t>2025-06-10 13:58:11</t>
         </is>
       </c>
       <c r="I58" t="n">
-        <v>33004</v>
+        <v>18187</v>
       </c>
       <c r="J58" t="inlineStr">
         <is>
@@ -4722,14 +4703,14 @@
       </c>
       <c r="K58" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L58" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M58" t="n">
-        <v>152</v>
+        <v>70</v>
       </c>
       <c r="O58" t="n">
         <v>0</v>
@@ -4739,11 +4720,11 @@
       </c>
       <c r="Q58" t="inlineStr">
         <is>
-          <t>2024-08-02 00:00:00</t>
+          <t>2025-06-05 00:00:00</t>
         </is>
       </c>
       <c r="R58" s="1" t="n">
-        <v>-285.2959996087616</v>
+        <v>-5.582075281805555</v>
       </c>
       <c r="S58" t="n">
         <v>1</v>
@@ -4751,41 +4732,41 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>251259</v>
+        <v>245089</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C59" t="n">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="D59" t="n">
-        <v>70.4225352112676</v>
+        <v>1727.676056338028</v>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>2025-05-12 14:55:22</t>
+          <t>2025-06-10 09:53:11</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>2025-05-13 07:18:22</t>
+          <t>2025-06-10 10:08:11</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>2025-05-13 07:18:22</t>
+          <t>2025-06-10 10:08:11</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>2025-05-13 08:28:48</t>
+          <t>2025-06-13 14:55:52</t>
         </is>
       </c>
       <c r="I59" t="n">
-        <v>5000</v>
+        <v>122665</v>
       </c>
       <c r="J59" t="inlineStr">
         <is>
@@ -4794,14 +4775,14 @@
       </c>
       <c r="K59" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L59" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="M59" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="O59" t="n">
         <v>0</v>
@@ -4811,53 +4792,53 @@
       </c>
       <c r="Q59" t="inlineStr">
         <is>
-          <t>2025-05-06 00:00:00</t>
+          <t>2025-12-31 00:00:00</t>
         </is>
       </c>
       <c r="R59" s="1" t="n">
-        <v>-7.353335289513889</v>
+        <v>0</v>
       </c>
       <c r="S59" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>251761</v>
+        <v>251772</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="C60" t="n">
-        <v>19</v>
+        <v>40</v>
       </c>
       <c r="D60" t="n">
-        <v>207.484375</v>
+        <v>637.2112676056338</v>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>2025-05-13 07:49:47</t>
+          <t>2025-06-10 10:37:12</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>2025-05-13 08:08:47</t>
+          <t>2025-06-10 11:17:12</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>2025-05-13 08:08:47</t>
+          <t>2025-06-10 11:17:12</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>2025-05-13 11:36:16</t>
+          <t>2025-06-11 13:54:25</t>
         </is>
       </c>
       <c r="I60" t="n">
-        <v>13279</v>
+        <v>45242</v>
       </c>
       <c r="J60" t="inlineStr">
         <is>
@@ -4883,53 +4864,53 @@
       </c>
       <c r="Q60" t="inlineStr">
         <is>
-          <t>2025-05-19 00:00:00</t>
+          <t>2025-06-05 00:00:00</t>
         </is>
       </c>
       <c r="R60" s="1" t="n">
-        <v>0</v>
+        <v>-6.579460093900463</v>
       </c>
       <c r="S60" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>244023</v>
+        <v>252108</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C61" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D61" t="n">
-        <v>16.34426229508197</v>
+        <v>234.4426229508197</v>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>2025-05-13 07:55:21</t>
+          <t>2025-06-10 11:32:02</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>2025-05-13 08:24:21</t>
+          <t>2025-06-10 12:02:02</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>2025-05-13 08:24:21</t>
+          <t>2025-06-10 12:02:02</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>2025-05-13 08:40:42</t>
+          <t>2025-06-11 07:56:29</t>
         </is>
       </c>
       <c r="I61" t="n">
-        <v>997</v>
+        <v>14301</v>
       </c>
       <c r="J61" t="inlineStr">
         <is>
@@ -4942,7 +4923,7 @@
         </is>
       </c>
       <c r="L61" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="M61" t="n">
         <v>70</v>
@@ -4955,11 +4936,11 @@
       </c>
       <c r="Q61" t="inlineStr">
         <is>
-          <t>2024-09-30 00:00:00</t>
+          <t>2025-06-06 00:00:00</t>
         </is>
       </c>
       <c r="R61" s="1" t="n">
-        <v>-225.3616006375231</v>
+        <v>-5.330897085613426</v>
       </c>
       <c r="S61" t="n">
         <v>1</v>
@@ -4967,41 +4948,41 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>251283</v>
+        <v>251916</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C62" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="D62" t="n">
-        <v>12.36065573770492</v>
+        <v>660.2112676056338</v>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>2025-05-13 07:55:29</t>
+          <t>2025-06-10 13:14:25</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>2025-05-13 08:25:29</t>
+          <t>2025-06-10 13:29:25</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>2025-05-13 08:25:29</t>
+          <t>2025-06-10 13:29:25</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>2025-05-13 08:37:51</t>
+          <t>2025-06-12 08:29:38</t>
         </is>
       </c>
       <c r="I62" t="n">
-        <v>754</v>
+        <v>46875</v>
       </c>
       <c r="J62" t="inlineStr">
         <is>
@@ -5010,11 +4991,11 @@
       </c>
       <c r="K62" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L62" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M62" t="n">
         <v>70</v>
@@ -5027,11 +5008,11 @@
       </c>
       <c r="Q62" t="inlineStr">
         <is>
-          <t>2025-03-18 00:00:00</t>
+          <t>2025-06-13 00:00:00</t>
         </is>
       </c>
       <c r="R62" s="1" t="n">
-        <v>-56.35961976320601</v>
+        <v>0</v>
       </c>
       <c r="S62" t="n">
         <v>1</v>
@@ -5039,41 +5020,41 @@
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>251245</v>
+        <v>252196</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>R3</t>
+          <t>R9</t>
         </is>
       </c>
       <c r="C63" t="n">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="D63" t="n">
-        <v>15.38775510204082</v>
+        <v>682.4492753623189</v>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>2025-05-13 08:27:45</t>
+          <t>2025-06-10 13:58:11</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>2025-05-13 09:12:45</t>
+          <t>2025-06-10 14:33:11</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>2025-05-13 09:12:45</t>
+          <t>2025-06-10 14:33:11</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>2025-05-13 09:28:08</t>
+          <t>2025-06-12 09:55:38</t>
         </is>
       </c>
       <c r="I63" t="n">
-        <v>754</v>
+        <v>47089</v>
       </c>
       <c r="J63" t="inlineStr">
         <is>
@@ -5082,11 +5063,11 @@
       </c>
       <c r="K63" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L63" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="M63" t="n">
         <v>70</v>
@@ -5099,11 +5080,11 @@
       </c>
       <c r="Q63" t="inlineStr">
         <is>
-          <t>2025-03-28 00:00:00</t>
+          <t>2025-06-13 00:00:00</t>
         </is>
       </c>
       <c r="R63" s="1" t="n">
-        <v>-46.39454365079861</v>
+        <v>0</v>
       </c>
       <c r="S63" t="n">
         <v>1</v>
@@ -5111,41 +5092,41 @@
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>251061</v>
+        <v>252195</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C64" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D64" t="n">
-        <v>337.9859154929578</v>
+        <v>586.1147540983607</v>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>2025-05-13 08:28:48</t>
+          <t>2025-06-11 07:56:29</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>2025-05-13 08:49:48</t>
+          <t>2025-06-11 08:16:29</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>2025-05-13 08:49:48</t>
+          <t>2025-06-11 08:16:29</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>2025-05-13 14:27:47</t>
+          <t>2025-06-12 10:02:36</t>
         </is>
       </c>
       <c r="I64" t="n">
-        <v>23997</v>
+        <v>35753</v>
       </c>
       <c r="J64" t="inlineStr">
         <is>
@@ -5154,11 +5135,11 @@
       </c>
       <c r="K64" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L64" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="M64" t="n">
         <v>70</v>
@@ -5171,11 +5152,11 @@
       </c>
       <c r="Q64" t="inlineStr">
         <is>
-          <t>2025-05-05 00:00:00</t>
+          <t>2025-06-13 00:00:00</t>
         </is>
       </c>
       <c r="R64" s="1" t="n">
-        <v>-8.602631064166665</v>
+        <v>0</v>
       </c>
       <c r="S64" t="n">
         <v>1</v>
@@ -5183,41 +5164,41 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>251247</v>
+        <v>252110</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>BIMEC 4</t>
         </is>
       </c>
       <c r="C65" t="n">
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="D65" t="n">
-        <v>441.5409836065574</v>
+        <v>105.0819672131148</v>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>2025-05-13 08:37:51</t>
+          <t>2025-06-11 08:05:00</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>2025-05-13 08:57:51</t>
+          <t>2025-06-11 08:47:00</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>2025-05-13 08:57:51</t>
+          <t>2025-06-11 08:47:00</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>2025-05-14 08:19:23</t>
+          <t>2025-06-11 10:32:05</t>
         </is>
       </c>
       <c r="I65" t="n">
-        <v>26934</v>
+        <v>6410</v>
       </c>
       <c r="J65" t="inlineStr">
         <is>
@@ -5226,11 +5207,11 @@
       </c>
       <c r="K65" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L65" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="M65" t="n">
         <v>70</v>
@@ -5243,11 +5224,11 @@
       </c>
       <c r="Q65" t="inlineStr">
         <is>
-          <t>2025-05-09 00:00:00</t>
+          <t>2025-06-17 00:00:00</t>
         </is>
       </c>
       <c r="R65" s="1" t="n">
-        <v>-5.34680100181713</v>
+        <v>0</v>
       </c>
       <c r="S65" t="n">
         <v>1</v>
@@ -5255,7 +5236,7 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>251246</v>
+        <v>252121</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
@@ -5263,33 +5244,33 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D66" t="n">
-        <v>196.7540983606557</v>
+        <v>204.1475409836065</v>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>2025-05-13 08:40:42</t>
+          <t>2025-06-11 10:32:05</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>2025-05-13 09:05:42</t>
+          <t>2025-06-11 10:59:05</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>2025-05-13 09:05:42</t>
+          <t>2025-06-11 10:59:05</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>2025-05-13 12:22:27</t>
+          <t>2025-06-11 14:23:14</t>
         </is>
       </c>
       <c r="I66" t="n">
-        <v>12002</v>
+        <v>12453</v>
       </c>
       <c r="J66" t="inlineStr">
         <is>
@@ -5298,11 +5279,11 @@
       </c>
       <c r="K66" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L66" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="M66" t="n">
         <v>70</v>
@@ -5315,11 +5296,11 @@
       </c>
       <c r="Q66" t="inlineStr">
         <is>
-          <t>2025-05-09 00:00:00</t>
+          <t>2025-06-18 00:00:00</t>
         </is>
       </c>
       <c r="R66" s="1" t="n">
-        <v>-4.515596539166667</v>
+        <v>0</v>
       </c>
       <c r="S66" t="n">
         <v>1</v>
@@ -5327,41 +5308,41 @@
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>251466</v>
+        <v>252410</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>R9</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C67" t="n">
-        <v>40</v>
+        <v>38.5</v>
       </c>
       <c r="D67" t="n">
-        <v>80.68115942028986</v>
+        <v>137.1090909090909</v>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>2025-05-13 08:49:30</t>
+          <t>2025-06-11 11:49:15</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>2025-05-13 09:29:30</t>
+          <t>2025-06-11 12:27:45</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>2025-05-13 09:29:30</t>
+          <t>2025-06-11 12:27:45</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>2025-05-13 10:50:11</t>
+          <t>2025-06-11 14:44:52</t>
         </is>
       </c>
       <c r="I67" t="n">
-        <v>5567</v>
+        <v>7541</v>
       </c>
       <c r="J67" t="inlineStr">
         <is>
@@ -5370,11 +5351,11 @@
       </c>
       <c r="K67" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
         </is>
       </c>
       <c r="L67" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="M67" t="n">
         <v>70</v>
@@ -5387,11 +5368,11 @@
       </c>
       <c r="Q67" t="inlineStr">
         <is>
-          <t>2025-05-09 00:00:00</t>
+          <t>2025-06-18 00:00:00</t>
         </is>
       </c>
       <c r="R67" s="1" t="n">
-        <v>-4.45151972625</v>
+        <v>0</v>
       </c>
       <c r="S67" t="n">
         <v>1</v>
@@ -5399,41 +5380,41 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>251463</v>
+        <v>251680</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="C68" t="n">
-        <v>50.5</v>
+        <v>45</v>
       </c>
       <c r="D68" t="n">
-        <v>126.6727272727273</v>
+        <v>238.112676056338</v>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>2025-05-13 09:01:25</t>
+          <t>2025-06-11 13:54:25</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>2025-05-13 09:51:55</t>
+          <t>2025-06-11 14:39:25</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>2025-05-13 09:51:55</t>
+          <t>2025-06-11 14:39:25</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>2025-05-13 11:58:36</t>
+          <t>2025-06-12 10:37:32</t>
         </is>
       </c>
       <c r="I68" t="n">
-        <v>6967</v>
+        <v>16906</v>
       </c>
       <c r="J68" t="inlineStr">
         <is>
@@ -5446,7 +5427,7 @@
         </is>
       </c>
       <c r="L68" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M68" t="n">
         <v>70</v>
@@ -5459,11 +5440,11 @@
       </c>
       <c r="Q68" t="inlineStr">
         <is>
-          <t>2025-05-09 00:00:00</t>
+          <t>2025-06-18 00:00:00</t>
         </is>
       </c>
       <c r="R68" s="1" t="n">
-        <v>-4.499027777777778</v>
+        <v>0</v>
       </c>
       <c r="S68" t="n">
         <v>1</v>
@@ -5471,41 +5452,41 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>251464</v>
+        <v>252325</v>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>R3</t>
+          <t>BIMEC 4</t>
         </is>
       </c>
       <c r="C69" t="n">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="D69" t="n">
-        <v>145.9795918367347</v>
+        <v>296.7213114754098</v>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>2025-05-13 09:28:08</t>
+          <t>2025-06-11 14:23:14</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>2025-05-13 10:13:08</t>
+          <t>2025-06-11 14:56:14</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>2025-05-13 10:13:08</t>
+          <t>2025-06-11 14:56:14</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>2025-05-13 12:39:07</t>
+          <t>2025-06-12 11:52:58</t>
         </is>
       </c>
       <c r="I69" t="n">
-        <v>7153</v>
+        <v>18100</v>
       </c>
       <c r="J69" t="inlineStr">
         <is>
@@ -5514,11 +5495,11 @@
       </c>
       <c r="K69" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
         </is>
       </c>
       <c r="L69" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M69" t="n">
         <v>70</v>
@@ -5531,11 +5512,11 @@
       </c>
       <c r="Q69" t="inlineStr">
         <is>
-          <t>2025-05-09 00:00:00</t>
+          <t>2025-06-18 00:00:00</t>
         </is>
       </c>
       <c r="R69" s="1" t="n">
-        <v>-4.527168367349537</v>
+        <v>0</v>
       </c>
       <c r="S69" t="n">
         <v>1</v>
@@ -5543,41 +5524,41 @@
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>251465</v>
+        <v>251679</v>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>R9</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C70" t="n">
-        <v>30</v>
+        <v>30.5</v>
       </c>
       <c r="D70" t="n">
-        <v>90.23188405797102</v>
+        <v>288.3636363636364</v>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>2025-05-13 10:50:11</t>
+          <t>2025-06-11 14:44:52</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>2025-05-13 11:20:11</t>
+          <t>2025-06-12 07:15:22</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>2025-05-13 11:20:11</t>
+          <t>2025-06-12 07:15:22</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>2025-05-13 12:50:25</t>
+          <t>2025-06-12 12:03:44</t>
         </is>
       </c>
       <c r="I70" t="n">
-        <v>6226</v>
+        <v>15860</v>
       </c>
       <c r="J70" t="inlineStr">
         <is>
@@ -5586,11 +5567,11 @@
       </c>
       <c r="K70" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
         </is>
       </c>
       <c r="L70" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="M70" t="n">
         <v>70</v>
@@ -5603,11 +5584,11 @@
       </c>
       <c r="Q70" t="inlineStr">
         <is>
-          <t>2025-05-09 00:00:00</t>
+          <t>2025-06-18 00:00:00</t>
         </is>
       </c>
       <c r="R70" s="1" t="n">
-        <v>-4.535014090173611</v>
+        <v>0</v>
       </c>
       <c r="S70" t="n">
         <v>1</v>
@@ -5615,41 +5596,41 @@
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>251462</v>
+        <v>251681</v>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C71" t="n">
-        <v>105</v>
+        <v>17</v>
       </c>
       <c r="D71" t="n">
-        <v>87.69014084507042</v>
+        <v>56.12676056338028</v>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>2025-05-13 11:22:51</t>
+          <t>2025-06-12 08:29:38</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>2025-05-13 13:07:51</t>
+          <t>2025-06-12 08:46:38</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>2025-05-13 13:07:51</t>
+          <t>2025-06-12 08:46:38</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>2025-05-13 14:35:32</t>
+          <t>2025-06-12 09:42:45</t>
         </is>
       </c>
       <c r="I71" t="n">
-        <v>6226</v>
+        <v>3985</v>
       </c>
       <c r="J71" t="inlineStr">
         <is>
@@ -5662,7 +5643,7 @@
         </is>
       </c>
       <c r="L71" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="M71" t="n">
         <v>70</v>
@@ -5675,11 +5656,11 @@
       </c>
       <c r="Q71" t="inlineStr">
         <is>
-          <t>2025-05-09 00:00:00</t>
+          <t>2025-06-18 00:00:00</t>
         </is>
       </c>
       <c r="R71" s="1" t="n">
-        <v>-4.608020344282407</v>
+        <v>0</v>
       </c>
       <c r="S71" t="n">
         <v>1</v>
@@ -5687,41 +5668,41 @@
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>251467</v>
+        <v>251917</v>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>R3</t>
         </is>
       </c>
       <c r="C72" t="n">
-        <v>19</v>
+        <v>52</v>
       </c>
       <c r="D72" t="n">
-        <v>97.28125</v>
+        <v>46.75510204081633</v>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>2025-05-13 11:36:16</t>
+          <t>2025-06-12 09:20:37</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>2025-05-13 11:55:16</t>
+          <t>2025-06-12 10:12:37</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>2025-05-13 11:55:16</t>
+          <t>2025-06-12 10:12:37</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>2025-05-13 13:32:33</t>
+          <t>2025-06-12 10:59:23</t>
         </is>
       </c>
       <c r="I72" t="n">
-        <v>6226</v>
+        <v>2291</v>
       </c>
       <c r="J72" t="inlineStr">
         <is>
@@ -5734,7 +5715,7 @@
         </is>
       </c>
       <c r="L72" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="M72" t="n">
         <v>70</v>
@@ -5747,11 +5728,11 @@
       </c>
       <c r="Q72" t="inlineStr">
         <is>
-          <t>2025-05-09 00:00:00</t>
+          <t>2025-06-20 00:00:00</t>
         </is>
       </c>
       <c r="R72" s="1" t="n">
-        <v>-4.564279513888889</v>
+        <v>0</v>
       </c>
       <c r="S72" t="n">
         <v>1</v>
@@ -5759,41 +5740,41 @@
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>251520</v>
+        <v>252293</v>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C73" t="n">
-        <v>36.5</v>
+        <v>15</v>
       </c>
       <c r="D73" t="n">
-        <v>297.0909090909091</v>
+        <v>32.26760563380282</v>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>2025-05-13 11:58:36</t>
+          <t>2025-06-12 09:42:45</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>2025-05-13 12:35:06</t>
+          <t>2025-06-12 09:57:45</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>2025-05-13 12:35:06</t>
+          <t>2025-06-12 09:57:45</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>2025-05-14 09:32:11</t>
+          <t>2025-06-12 10:30:01</t>
         </is>
       </c>
       <c r="I73" t="n">
-        <v>16340</v>
+        <v>2291</v>
       </c>
       <c r="J73" t="inlineStr">
         <is>
@@ -5802,11 +5783,11 @@
       </c>
       <c r="K73" t="inlineStr">
         <is>
-          <t>CASON ;R6</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L73" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="M73" t="n">
         <v>70</v>
@@ -5819,11 +5800,11 @@
       </c>
       <c r="Q73" t="inlineStr">
         <is>
-          <t>2025-05-12 00:00:00</t>
+          <t>2025-06-20 00:00:00</t>
         </is>
       </c>
       <c r="R73" s="1" t="n">
-        <v>-2.397354797974537</v>
+        <v>0</v>
       </c>
       <c r="S73" t="n">
         <v>1</v>
@@ -5831,41 +5812,41 @@
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>251374</v>
+        <v>252326</v>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>R9</t>
         </is>
       </c>
       <c r="C74" t="n">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D74" t="n">
-        <v>448.2459016393443</v>
+        <v>371.6086956521739</v>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>2025-05-13 12:22:27</t>
+          <t>2025-06-12 09:55:38</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>2025-05-13 12:49:27</t>
+          <t>2025-06-12 10:25:38</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>2025-05-13 12:49:27</t>
+          <t>2025-06-12 10:25:38</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>2025-05-14 12:17:42</t>
+          <t>2025-06-13 08:37:14</t>
         </is>
       </c>
       <c r="I74" t="n">
-        <v>27343</v>
+        <v>25641</v>
       </c>
       <c r="J74" t="inlineStr">
         <is>
@@ -5878,7 +5859,7 @@
         </is>
       </c>
       <c r="L74" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="M74" t="n">
         <v>70</v>
@@ -5891,7 +5872,7 @@
       </c>
       <c r="Q74" t="inlineStr">
         <is>
-          <t>2025-05-15 00:00:00</t>
+          <t>2025-07-05 00:00:00</t>
         </is>
       </c>
       <c r="R74" s="1" t="n">
@@ -5903,41 +5884,41 @@
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>251580</v>
+        <v>251684</v>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>R3</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C75" t="n">
         <v>35</v>
       </c>
       <c r="D75" t="n">
-        <v>145.9795918367347</v>
+        <v>247.2622950819672</v>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>2025-05-13 12:39:07</t>
+          <t>2025-06-12 10:02:36</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>2025-05-13 13:14:07</t>
+          <t>2025-06-12 10:37:36</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>2025-05-13 13:14:07</t>
+          <t>2025-06-12 10:37:36</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>2025-05-14 07:40:06</t>
+          <t>2025-06-12 14:44:52</t>
         </is>
       </c>
       <c r="I75" t="n">
-        <v>7153</v>
+        <v>15083</v>
       </c>
       <c r="J75" t="inlineStr">
         <is>
@@ -5946,11 +5927,11 @@
       </c>
       <c r="K75" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
         </is>
       </c>
       <c r="L75" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M75" t="n">
         <v>70</v>
@@ -5963,877 +5944,13 @@
       </c>
       <c r="Q75" t="inlineStr">
         <is>
-          <t>2025-05-15 00:00:00</t>
+          <t>2025-07-15 00:00:00</t>
         </is>
       </c>
       <c r="R75" s="1" t="n">
         <v>0</v>
       </c>
       <c r="S75" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" t="n">
-        <v>251557</v>
-      </c>
-      <c r="B76" t="inlineStr">
-        <is>
-          <t>R9</t>
-        </is>
-      </c>
-      <c r="C76" t="n">
-        <v>25</v>
-      </c>
-      <c r="D76" t="n">
-        <v>97.17391304347827</v>
-      </c>
-      <c r="E76" t="inlineStr">
-        <is>
-          <t>2025-05-13 12:50:25</t>
-        </is>
-      </c>
-      <c r="F76" t="inlineStr">
-        <is>
-          <t>2025-05-13 13:15:25</t>
-        </is>
-      </c>
-      <c r="G76" t="inlineStr">
-        <is>
-          <t>2025-05-13 13:15:25</t>
-        </is>
-      </c>
-      <c r="H76" t="inlineStr">
-        <is>
-          <t>2025-05-13 14:52:35</t>
-        </is>
-      </c>
-      <c r="I76" t="n">
-        <v>6705</v>
-      </c>
-      <c r="J76" t="inlineStr">
-        <is>
-          <t>bobina</t>
-        </is>
-      </c>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
-        </is>
-      </c>
-      <c r="L76" t="n">
-        <v>2</v>
-      </c>
-      <c r="M76" t="n">
-        <v>70</v>
-      </c>
-      <c r="O76" t="n">
-        <v>0</v>
-      </c>
-      <c r="P76" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q76" t="inlineStr">
-        <is>
-          <t>2025-05-15 00:00:00</t>
-        </is>
-      </c>
-      <c r="R76" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="S76" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" t="n">
-        <v>251562</v>
-      </c>
-      <c r="B77" t="inlineStr">
-        <is>
-          <t>BIMEC 2</t>
-        </is>
-      </c>
-      <c r="C77" t="n">
-        <v>15</v>
-      </c>
-      <c r="D77" t="n">
-        <v>127.21875</v>
-      </c>
-      <c r="E77" t="inlineStr">
-        <is>
-          <t>2025-05-13 13:32:33</t>
-        </is>
-      </c>
-      <c r="F77" t="inlineStr">
-        <is>
-          <t>2025-05-13 13:47:33</t>
-        </is>
-      </c>
-      <c r="G77" t="inlineStr">
-        <is>
-          <t>2025-05-13 13:47:33</t>
-        </is>
-      </c>
-      <c r="H77" t="inlineStr">
-        <is>
-          <t>2025-05-14 07:54:46</t>
-        </is>
-      </c>
-      <c r="I77" t="n">
-        <v>8142</v>
-      </c>
-      <c r="J77" t="inlineStr">
-        <is>
-          <t>bobina</t>
-        </is>
-      </c>
-      <c r="K77" t="inlineStr">
-        <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
-        </is>
-      </c>
-      <c r="L77" t="n">
-        <v>2</v>
-      </c>
-      <c r="M77" t="n">
-        <v>70</v>
-      </c>
-      <c r="O77" t="n">
-        <v>0</v>
-      </c>
-      <c r="P77" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q77" t="inlineStr">
-        <is>
-          <t>2025-05-15 00:00:00</t>
-        </is>
-      </c>
-      <c r="R77" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="S77" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" t="n">
-        <v>251260</v>
-      </c>
-      <c r="B78" t="inlineStr">
-        <is>
-          <t>BIMEC 5</t>
-        </is>
-      </c>
-      <c r="C78" t="n">
-        <v>15</v>
-      </c>
-      <c r="D78" t="n">
-        <v>131.9577464788732</v>
-      </c>
-      <c r="E78" t="inlineStr">
-        <is>
-          <t>2025-05-13 14:27:47</t>
-        </is>
-      </c>
-      <c r="F78" t="inlineStr">
-        <is>
-          <t>2025-05-13 14:42:47</t>
-        </is>
-      </c>
-      <c r="G78" t="inlineStr">
-        <is>
-          <t>2025-05-13 14:42:47</t>
-        </is>
-      </c>
-      <c r="H78" t="inlineStr">
-        <is>
-          <t>2025-05-14 08:54:44</t>
-        </is>
-      </c>
-      <c r="I78" t="n">
-        <v>9369</v>
-      </c>
-      <c r="J78" t="inlineStr">
-        <is>
-          <t>bobina</t>
-        </is>
-      </c>
-      <c r="K78" t="inlineStr">
-        <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R9</t>
-        </is>
-      </c>
-      <c r="L78" t="n">
-        <v>6</v>
-      </c>
-      <c r="M78" t="n">
-        <v>70</v>
-      </c>
-      <c r="O78" t="n">
-        <v>0</v>
-      </c>
-      <c r="P78" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q78" t="inlineStr">
-        <is>
-          <t>2025-05-22 00:00:00</t>
-        </is>
-      </c>
-      <c r="R78" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="S78" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" t="n">
-        <v>251062</v>
-      </c>
-      <c r="B79" t="inlineStr">
-        <is>
-          <t>R9</t>
-        </is>
-      </c>
-      <c r="C79" t="n">
-        <v>45</v>
-      </c>
-      <c r="D79" t="n">
-        <v>327.8840579710145</v>
-      </c>
-      <c r="E79" t="inlineStr">
-        <is>
-          <t>2025-05-13 14:52:35</t>
-        </is>
-      </c>
-      <c r="F79" t="inlineStr">
-        <is>
-          <t>2025-05-14 07:37:35</t>
-        </is>
-      </c>
-      <c r="G79" t="inlineStr">
-        <is>
-          <t>2025-05-14 07:37:35</t>
-        </is>
-      </c>
-      <c r="H79" t="inlineStr">
-        <is>
-          <t>2025-05-14 13:05:28</t>
-        </is>
-      </c>
-      <c r="I79" t="n">
-        <v>22624</v>
-      </c>
-      <c r="J79" t="inlineStr">
-        <is>
-          <t>bobina</t>
-        </is>
-      </c>
-      <c r="K79" t="inlineStr">
-        <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
-        </is>
-      </c>
-      <c r="L79" t="n">
-        <v>6</v>
-      </c>
-      <c r="M79" t="n">
-        <v>70</v>
-      </c>
-      <c r="O79" t="n">
-        <v>0</v>
-      </c>
-      <c r="P79" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q79" t="inlineStr">
-        <is>
-          <t>2025-05-23 00:00:00</t>
-        </is>
-      </c>
-      <c r="R79" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="S79" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" t="n">
-        <v>251750</v>
-      </c>
-      <c r="B80" t="inlineStr">
-        <is>
-          <t>R12</t>
-        </is>
-      </c>
-      <c r="C80" t="n">
-        <v>17</v>
-      </c>
-      <c r="D80" t="n">
-        <v>54.80281690140845</v>
-      </c>
-      <c r="E80" t="inlineStr">
-        <is>
-          <t>2025-05-14 07:06:14</t>
-        </is>
-      </c>
-      <c r="F80" t="inlineStr">
-        <is>
-          <t>2025-05-14 07:23:14</t>
-        </is>
-      </c>
-      <c r="G80" t="inlineStr">
-        <is>
-          <t>2025-05-14 07:23:14</t>
-        </is>
-      </c>
-      <c r="H80" t="inlineStr">
-        <is>
-          <t>2025-05-14 08:18:02</t>
-        </is>
-      </c>
-      <c r="I80" t="n">
-        <v>3891</v>
-      </c>
-      <c r="J80" t="inlineStr">
-        <is>
-          <t>bobina</t>
-        </is>
-      </c>
-      <c r="K80" t="inlineStr">
-        <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
-        </is>
-      </c>
-      <c r="L80" t="n">
-        <v>3</v>
-      </c>
-      <c r="M80" t="n">
-        <v>152</v>
-      </c>
-      <c r="O80" t="n">
-        <v>0</v>
-      </c>
-      <c r="P80" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q80" t="inlineStr">
-        <is>
-          <t>2025-05-26 00:00:00</t>
-        </is>
-      </c>
-      <c r="R80" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="S80" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" t="n">
-        <v>251252</v>
-      </c>
-      <c r="B81" t="inlineStr">
-        <is>
-          <t>R3</t>
-        </is>
-      </c>
-      <c r="C81" t="n">
-        <v>45</v>
-      </c>
-      <c r="D81" t="n">
-        <v>307.8163265306122</v>
-      </c>
-      <c r="E81" t="inlineStr">
-        <is>
-          <t>2025-05-14 07:40:06</t>
-        </is>
-      </c>
-      <c r="F81" t="inlineStr">
-        <is>
-          <t>2025-05-14 08:25:06</t>
-        </is>
-      </c>
-      <c r="G81" t="inlineStr">
-        <is>
-          <t>2025-05-14 08:25:06</t>
-        </is>
-      </c>
-      <c r="H81" t="inlineStr">
-        <is>
-          <t>2025-05-14 13:32:55</t>
-        </is>
-      </c>
-      <c r="I81" t="n">
-        <v>15083</v>
-      </c>
-      <c r="J81" t="inlineStr">
-        <is>
-          <t>bobina</t>
-        </is>
-      </c>
-      <c r="K81" t="inlineStr">
-        <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
-        </is>
-      </c>
-      <c r="L81" t="n">
-        <v>6</v>
-      </c>
-      <c r="M81" t="n">
-        <v>70</v>
-      </c>
-      <c r="O81" t="n">
-        <v>0</v>
-      </c>
-      <c r="P81" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q81" t="inlineStr">
-        <is>
-          <t>2025-05-23 00:00:00</t>
-        </is>
-      </c>
-      <c r="R81" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="S81" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" t="n">
-        <v>251251</v>
-      </c>
-      <c r="B82" t="inlineStr">
-        <is>
-          <t>BIMEC 2</t>
-        </is>
-      </c>
-      <c r="C82" t="n">
-        <v>23</v>
-      </c>
-      <c r="D82" t="n">
-        <v>247.8125</v>
-      </c>
-      <c r="E82" t="inlineStr">
-        <is>
-          <t>2025-05-14 07:54:46</t>
-        </is>
-      </c>
-      <c r="F82" t="inlineStr">
-        <is>
-          <t>2025-05-14 08:17:46</t>
-        </is>
-      </c>
-      <c r="G82" t="inlineStr">
-        <is>
-          <t>2025-05-14 08:17:46</t>
-        </is>
-      </c>
-      <c r="H82" t="inlineStr">
-        <is>
-          <t>2025-05-14 12:25:35</t>
-        </is>
-      </c>
-      <c r="I82" t="n">
-        <v>15860</v>
-      </c>
-      <c r="J82" t="inlineStr">
-        <is>
-          <t>bobina</t>
-        </is>
-      </c>
-      <c r="K82" t="inlineStr">
-        <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
-        </is>
-      </c>
-      <c r="L82" t="n">
-        <v>6</v>
-      </c>
-      <c r="M82" t="n">
-        <v>70</v>
-      </c>
-      <c r="O82" t="n">
-        <v>0</v>
-      </c>
-      <c r="P82" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q82" t="inlineStr">
-        <is>
-          <t>2025-05-23 00:00:00</t>
-        </is>
-      </c>
-      <c r="R82" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="S82" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" t="n">
-        <v>251987</v>
-      </c>
-      <c r="B83" t="inlineStr">
-        <is>
-          <t>R12</t>
-        </is>
-      </c>
-      <c r="C83" t="n">
-        <v>36</v>
-      </c>
-      <c r="D83" t="n">
-        <v>2965.154929577465</v>
-      </c>
-      <c r="E83" t="inlineStr">
-        <is>
-          <t>2025-05-14 08:18:02</t>
-        </is>
-      </c>
-      <c r="F83" t="inlineStr">
-        <is>
-          <t>2025-05-14 08:54:02</t>
-        </is>
-      </c>
-      <c r="G83" t="inlineStr">
-        <is>
-          <t>2025-05-14 08:54:02</t>
-        </is>
-      </c>
-      <c r="H83" t="inlineStr">
-        <is>
-          <t>2025-05-22 10:19:11</t>
-        </is>
-      </c>
-      <c r="I83" t="n">
-        <v>210526</v>
-      </c>
-      <c r="J83" t="inlineStr">
-        <is>
-          <t>bobina</t>
-        </is>
-      </c>
-      <c r="K83" t="inlineStr">
-        <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R9</t>
-        </is>
-      </c>
-      <c r="L83" t="n">
-        <v>6</v>
-      </c>
-      <c r="M83" t="n">
-        <v>76</v>
-      </c>
-      <c r="O83" t="n">
-        <v>0</v>
-      </c>
-      <c r="P83" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q83" t="inlineStr">
-        <is>
-          <t>2025-09-01 00:00:00</t>
-        </is>
-      </c>
-      <c r="R83" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="S83" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" t="n">
-        <v>251249</v>
-      </c>
-      <c r="B84" t="inlineStr">
-        <is>
-          <t>R10</t>
-        </is>
-      </c>
-      <c r="C84" t="n">
-        <v>20</v>
-      </c>
-      <c r="D84" t="n">
-        <v>78</v>
-      </c>
-      <c r="E84" t="inlineStr">
-        <is>
-          <t>2025-05-14 08:19:23</t>
-        </is>
-      </c>
-      <c r="F84" t="inlineStr">
-        <is>
-          <t>2025-05-14 08:39:23</t>
-        </is>
-      </c>
-      <c r="G84" t="inlineStr">
-        <is>
-          <t>2025-05-14 08:39:23</t>
-        </is>
-      </c>
-      <c r="H84" t="inlineStr">
-        <is>
-          <t>2025-05-14 09:57:23</t>
-        </is>
-      </c>
-      <c r="I84" t="n">
-        <v>4758</v>
-      </c>
-      <c r="J84" t="inlineStr">
-        <is>
-          <t>bobina</t>
-        </is>
-      </c>
-      <c r="K84" t="inlineStr">
-        <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
-        </is>
-      </c>
-      <c r="L84" t="n">
-        <v>6</v>
-      </c>
-      <c r="M84" t="n">
-        <v>70</v>
-      </c>
-      <c r="O84" t="n">
-        <v>0</v>
-      </c>
-      <c r="P84" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q84" t="inlineStr">
-        <is>
-          <t>2025-06-06 00:00:00</t>
-        </is>
-      </c>
-      <c r="R84" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="S84" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" t="n">
-        <v>251795</v>
-      </c>
-      <c r="B85" t="inlineStr">
-        <is>
-          <t>BIMEC 5</t>
-        </is>
-      </c>
-      <c r="C85" t="n">
-        <v>15</v>
-      </c>
-      <c r="D85" t="n">
-        <v>263.9295774647887</v>
-      </c>
-      <c r="E85" t="inlineStr">
-        <is>
-          <t>2025-05-14 08:54:44</t>
-        </is>
-      </c>
-      <c r="F85" t="inlineStr">
-        <is>
-          <t>2025-05-14 09:09:44</t>
-        </is>
-      </c>
-      <c r="G85" t="inlineStr">
-        <is>
-          <t>2025-05-14 09:09:44</t>
-        </is>
-      </c>
-      <c r="H85" t="inlineStr">
-        <is>
-          <t>2025-05-14 13:33:40</t>
-        </is>
-      </c>
-      <c r="I85" t="n">
-        <v>18739</v>
-      </c>
-      <c r="J85" t="inlineStr">
-        <is>
-          <t>bobina</t>
-        </is>
-      </c>
-      <c r="K85" t="inlineStr">
-        <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R9</t>
-        </is>
-      </c>
-      <c r="L85" t="n">
-        <v>6</v>
-      </c>
-      <c r="M85" t="n">
-        <v>70</v>
-      </c>
-      <c r="O85" t="n">
-        <v>0</v>
-      </c>
-      <c r="P85" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q85" t="inlineStr">
-        <is>
-          <t>2025-06-19 00:00:00</t>
-        </is>
-      </c>
-      <c r="R85" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="S85" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" t="n">
-        <v>245090</v>
-      </c>
-      <c r="B86" t="inlineStr">
-        <is>
-          <t>BIMEC 4</t>
-        </is>
-      </c>
-      <c r="C86" t="n">
-        <v>44</v>
-      </c>
-      <c r="D86" t="n">
-        <v>8470.786885245901</v>
-      </c>
-      <c r="E86" t="inlineStr">
-        <is>
-          <t>2025-05-14 12:17:42</t>
-        </is>
-      </c>
-      <c r="F86" t="inlineStr">
-        <is>
-          <t>2025-05-14 13:01:42</t>
-        </is>
-      </c>
-      <c r="G86" t="inlineStr">
-        <is>
-          <t>2025-05-14 13:01:42</t>
-        </is>
-      </c>
-      <c r="H86" t="inlineStr">
-        <is>
-          <t>2025-06-09 10:12:29</t>
-        </is>
-      </c>
-      <c r="I86" t="n">
-        <v>516718</v>
-      </c>
-      <c r="J86" t="inlineStr">
-        <is>
-          <t>bobina</t>
-        </is>
-      </c>
-      <c r="K86" t="inlineStr">
-        <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
-        </is>
-      </c>
-      <c r="L86" t="n">
-        <v>5</v>
-      </c>
-      <c r="M86" t="n">
-        <v>76</v>
-      </c>
-      <c r="O86" t="n">
-        <v>0</v>
-      </c>
-      <c r="P86" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q86" t="inlineStr">
-        <is>
-          <t>2025-12-31 00:00:00</t>
-        </is>
-      </c>
-      <c r="R86" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="S86" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" t="n">
-        <v>245089</v>
-      </c>
-      <c r="B87" t="inlineStr">
-        <is>
-          <t>BIMEC 2</t>
-        </is>
-      </c>
-      <c r="C87" t="n">
-        <v>34</v>
-      </c>
-      <c r="D87" t="n">
-        <v>1916.640625</v>
-      </c>
-      <c r="E87" t="inlineStr">
-        <is>
-          <t>2025-05-14 12:25:35</t>
-        </is>
-      </c>
-      <c r="F87" t="inlineStr">
-        <is>
-          <t>2025-05-14 12:59:35</t>
-        </is>
-      </c>
-      <c r="G87" t="inlineStr">
-        <is>
-          <t>2025-05-14 12:59:35</t>
-        </is>
-      </c>
-      <c r="H87" t="inlineStr">
-        <is>
-          <t>2025-05-20 12:56:14</t>
-        </is>
-      </c>
-      <c r="I87" t="n">
-        <v>122665</v>
-      </c>
-      <c r="J87" t="inlineStr">
-        <is>
-          <t>bobina</t>
-        </is>
-      </c>
-      <c r="K87" t="inlineStr">
-        <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
-        </is>
-      </c>
-      <c r="L87" t="n">
-        <v>4</v>
-      </c>
-      <c r="M87" t="n">
-        <v>76</v>
-      </c>
-      <c r="O87" t="n">
-        <v>0</v>
-      </c>
-      <c r="P87" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q87" t="inlineStr">
-        <is>
-          <t>2025-12-31 00:00:00</t>
-        </is>
-      </c>
-      <c r="R87" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="S87" t="n">
         <v>1</v>
       </c>
     </row>

--- a/PS-VRP/Dati_output/euristico_post.xlsx
+++ b/PS-VRP/Dati_output/euristico_post.xlsx
@@ -671,7 +671,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>251218</v>
+        <v>251752</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -679,10 +679,10 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="D4" t="n">
-        <v>96.90140845070422</v>
+        <v>0</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -691,21 +691,21 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2025-06-04 12:23:00</t>
+          <t>2025-06-04 12:17:00</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>2025-06-04 12:23:00</t>
+          <t>2025-06-04 12:17:00</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>2025-06-04 13:59:54</t>
+          <t>2025-06-04 12:17:00</t>
         </is>
       </c>
       <c r="I4" t="n">
-        <v>6880</v>
+        <v>0</v>
       </c>
       <c r="J4" t="inlineStr">
         <is>
@@ -714,17 +714,17 @@
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L4" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="M4" t="n">
         <v>76</v>
       </c>
       <c r="N4" t="n">
-        <v>39885</v>
+        <v>39846</v>
       </c>
       <c r="O4" t="inlineStr">
         <is>
@@ -732,15 +732,15 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>39885</v>
+        <v>39846</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>2025-05-09 00:00:00</t>
+          <t>2025-05-20 00:00:00</t>
         </is>
       </c>
       <c r="R4" s="1" t="n">
-        <v>0</v>
+        <v>-0.5118055555555555</v>
       </c>
       <c r="S4" t="n">
         <v>1</v>
@@ -748,7 +748,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>251752</v>
+        <v>251218</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -759,30 +759,30 @@
         <v>21</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>96.90140845070422</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2025-06-04 13:59:54</t>
+          <t>2025-06-04 12:17:00</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2025-06-04 14:20:54</t>
+          <t>2025-06-04 12:38:00</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>2025-06-04 14:20:54</t>
+          <t>2025-06-04 12:38:00</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>2025-06-04 14:20:54</t>
+          <t>2025-06-04 14:14:54</t>
         </is>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>6880</v>
       </c>
       <c r="J5" t="inlineStr">
         <is>
@@ -791,17 +791,17 @@
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L5" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="M5" t="n">
         <v>76</v>
       </c>
       <c r="N5" t="n">
-        <v>39846</v>
+        <v>39885</v>
       </c>
       <c r="O5" t="inlineStr">
         <is>
@@ -809,15 +809,15 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>39846</v>
+        <v>39885</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>2025-05-20 00:00:00</t>
+          <t>2025-05-09 00:00:00</t>
         </is>
       </c>
       <c r="R5" s="1" t="n">
-        <v>-0.5978482003125</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>1</v>
@@ -825,7 +825,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>251500</v>
+        <v>251565</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -833,14 +833,14 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="D6" t="n">
-        <v>139.3802816901408</v>
+        <v>176.7464788732394</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2025-06-04 14:20:54</t>
+          <t>2025-06-04 14:14:54</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -855,11 +855,11 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>2025-06-05 09:12:16</t>
+          <t>2025-06-05 09:49:38</t>
         </is>
       </c>
       <c r="I6" t="n">
-        <v>9896</v>
+        <v>12549</v>
       </c>
       <c r="J6" t="inlineStr">
         <is>
@@ -868,11 +868,11 @@
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L6" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M6" t="n">
         <v>70</v>
@@ -890,19 +890,19 @@
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>2025-05-26 00:00:00</t>
+          <t>2025-06-10 00:00:00</t>
         </is>
       </c>
       <c r="R6" s="1" t="n">
-        <v>-0.3835289514814815</v>
+        <v>-0.409477699525463</v>
       </c>
       <c r="S6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>251565</v>
+        <v>251500</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
@@ -913,21 +913,21 @@
         <v>19</v>
       </c>
       <c r="D7" t="n">
-        <v>176.7464788732394</v>
+        <v>139.3802816901408</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>2025-06-05 09:12:16</t>
+          <t>2025-06-05 09:49:38</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2025-06-05 09:31:16</t>
+          <t>2025-06-05 10:08:38</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>2025-06-05 09:31:16</t>
+          <t>2025-06-05 10:08:38</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
@@ -936,7 +936,7 @@
         </is>
       </c>
       <c r="I7" t="n">
-        <v>12549</v>
+        <v>9896</v>
       </c>
       <c r="J7" t="inlineStr">
         <is>
@@ -945,11 +945,11 @@
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R6 ;R9</t>
         </is>
       </c>
       <c r="L7" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M7" t="n">
         <v>70</v>
@@ -967,19 +967,19 @@
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>2025-06-10 00:00:00</t>
+          <t>2025-05-26 00:00:00</t>
         </is>
       </c>
       <c r="R7" s="1" t="n">
         <v>-0.5194640062615741</v>
       </c>
       <c r="S7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>251180</v>
+        <v>251070</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
@@ -987,7 +987,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>32.5</v>
+        <v>36.5</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -999,17 +999,17 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2025-06-05 07:32:30</t>
+          <t>2025-06-05 07:36:30</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>2025-06-05 07:32:30</t>
+          <t>2025-06-05 07:36:30</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>2025-06-05 07:32:30</t>
+          <t>2025-06-05 07:36:30</t>
         </is>
       </c>
       <c r="I8" t="n">
@@ -1022,19 +1022,17 @@
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R6 ;R9</t>
         </is>
       </c>
       <c r="L8" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M8" t="n">
         <v>70</v>
       </c>
-      <c r="N8" t="inlineStr">
-        <is>
-          <t>39887 (esterno)</t>
-        </is>
+      <c r="N8" t="n">
+        <v>39885</v>
       </c>
       <c r="O8" t="inlineStr">
         <is>
@@ -1042,23 +1040,23 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>39887</v>
+        <v>39885</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>2025-05-20 00:00:00</t>
+          <t>2025-03-28 00:00:00</t>
         </is>
       </c>
       <c r="R8" s="1" t="n">
-        <v>-16.31423611111111</v>
+        <v>-0.3170138888888889</v>
       </c>
       <c r="S8" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>251070</v>
+        <v>251773</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
@@ -1066,29 +1064,29 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>34.5</v>
+        <v>32.5</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>2025-06-05 07:32:30</t>
+          <t>2025-06-05 07:36:30</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>2025-06-05 08:07:00</t>
+          <t>2025-06-05 08:09:00</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>2025-06-05 08:07:00</t>
+          <t>2025-06-05 08:09:00</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>2025-06-05 08:07:00</t>
+          <t>2025-06-05 08:09:00</t>
         </is>
       </c>
       <c r="I9" t="n">
@@ -1101,17 +1099,17 @@
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R6 ;R9</t>
+          <t>CASON ;R6</t>
         </is>
       </c>
       <c r="L9" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="M9" t="n">
         <v>70</v>
       </c>
       <c r="N9" t="n">
-        <v>39885</v>
+        <v>39874</v>
       </c>
       <c r="O9" t="inlineStr">
         <is>
@@ -1119,23 +1117,23 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>39885</v>
+        <v>39874</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>2025-03-28 00:00:00</t>
+          <t>2025-05-25 00:00:00</t>
         </is>
       </c>
       <c r="R9" s="1" t="n">
-        <v>-0.3381944444444445</v>
+        <v>-0.3395833333333333</v>
       </c>
       <c r="S9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>251773</v>
+        <v>251180</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
@@ -1143,29 +1141,29 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>32.5</v>
+        <v>36.5</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>2025-06-05 08:07:00</t>
+          <t>2025-06-05 08:09:00</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>2025-06-05 08:39:30</t>
+          <t>2025-06-05 08:45:30</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>2025-06-05 08:39:30</t>
+          <t>2025-06-05 08:45:30</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>2025-06-05 08:39:30</t>
+          <t>2025-06-05 08:45:30</t>
         </is>
       </c>
       <c r="I10" t="n">
@@ -1178,17 +1176,19 @@
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>CASON ;R6</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L10" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="M10" t="n">
         <v>70</v>
       </c>
-      <c r="N10" t="n">
-        <v>39874</v>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>39887 (esterno)</t>
+        </is>
       </c>
       <c r="O10" t="inlineStr">
         <is>
@@ -1196,18 +1196,18 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>39874</v>
+        <v>39887</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>2025-05-25 00:00:00</t>
+          <t>2025-05-20 00:00:00</t>
         </is>
       </c>
       <c r="R10" s="1" t="n">
-        <v>-0.3607638888888889</v>
+        <v>-16.36493055555556</v>
       </c>
       <c r="S10" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11">
@@ -1220,29 +1220,29 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>36.5</v>
+        <v>42.5</v>
       </c>
       <c r="D11" t="n">
         <v>321.7090909090909</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>2025-06-05 08:39:30</t>
+          <t>2025-06-05 08:45:30</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>2025-06-05 09:16:00</t>
+          <t>2025-06-05 09:28:00</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>2025-06-05 09:16:00</t>
+          <t>2025-06-05 09:28:00</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>2025-06-05 14:37:42</t>
+          <t>2025-06-05 14:49:42</t>
         </is>
       </c>
       <c r="I11" t="n">
@@ -1283,7 +1283,7 @@
         </is>
       </c>
       <c r="R11" s="1" t="n">
-        <v>-10.60952020202546</v>
+        <v>-10.6178535353588</v>
       </c>
       <c r="S11" t="n">
         <v>4</v>
@@ -1306,22 +1306,22 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>2025-06-05 14:37:42</t>
+          <t>2025-06-05 14:49:42</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>2025-06-06 07:22:12</t>
+          <t>2025-06-06 07:34:12</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>2025-06-06 07:22:12</t>
+          <t>2025-06-06 07:34:12</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>2025-06-06 14:44:00</t>
+          <t>2025-06-06 14:56:00</t>
         </is>
       </c>
       <c r="I12" t="n">

--- a/PS-VRP/Dati_output/euristico_post.xlsx
+++ b/PS-VRP/Dati_output/euristico_post.xlsx
@@ -671,7 +671,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>251752</v>
+        <v>251362</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -682,7 +682,7 @@
         <v>17</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>35.28169014084507</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -701,11 +701,11 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>2025-06-04 12:17:00</t>
+          <t>2025-06-04 12:52:16</t>
         </is>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>2505</v>
       </c>
       <c r="J4" t="inlineStr">
         <is>
@@ -714,7 +714,7 @@
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L4" t="n">
@@ -724,7 +724,7 @@
         <v>76</v>
       </c>
       <c r="N4" t="n">
-        <v>39846</v>
+        <v>39874</v>
       </c>
       <c r="O4" t="inlineStr">
         <is>
@@ -732,23 +732,23 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>39846</v>
+        <v>39874</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>2025-05-20 00:00:00</t>
+          <t>2025-04-24 00:00:00</t>
         </is>
       </c>
       <c r="R4" s="1" t="n">
-        <v>-0.5118055555555555</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>251218</v>
+        <v>251895</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -756,33 +756,33 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>21</v>
+        <v>44</v>
       </c>
       <c r="D5" t="n">
-        <v>96.90140845070422</v>
+        <v>249.2112676056338</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2025-06-04 12:17:00</t>
+          <t>2025-06-04 12:52:16</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2025-06-04 12:38:00</t>
+          <t>2025-06-04 13:36:16</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>2025-06-04 12:38:00</t>
+          <t>2025-06-04 13:36:16</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>2025-06-04 14:14:54</t>
+          <t>2025-06-05 09:45:29</t>
         </is>
       </c>
       <c r="I5" t="n">
-        <v>6880</v>
+        <v>17694</v>
       </c>
       <c r="J5" t="inlineStr">
         <is>
@@ -791,17 +791,19 @@
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R6 ;R9</t>
         </is>
       </c>
       <c r="L5" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="M5" t="n">
-        <v>76</v>
-      </c>
-      <c r="N5" t="n">
-        <v>39885</v>
+        <v>70</v>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>39891 (esterno)</t>
+        </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
@@ -809,23 +811,23 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>39885</v>
+        <v>39891</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>2025-05-09 00:00:00</t>
+          <t>2025-05-26 00:00:00</t>
         </is>
       </c>
       <c r="R5" s="1" t="n">
-        <v>0</v>
+        <v>-10.40659233177083</v>
       </c>
       <c r="S5" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>251565</v>
+        <v>251218</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -836,30 +838,30 @@
         <v>38</v>
       </c>
       <c r="D6" t="n">
-        <v>176.7464788732394</v>
+        <v>96.90140845070422</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2025-06-04 14:14:54</t>
+          <t>2025-06-05 09:45:29</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2025-06-04 14:52:54</t>
+          <t>2025-06-05 10:23:29</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>2025-06-04 14:52:54</t>
+          <t>2025-06-05 10:23:29</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>2025-06-05 09:49:38</t>
+          <t>2025-06-05 12:00:23</t>
         </is>
       </c>
       <c r="I6" t="n">
-        <v>12549</v>
+        <v>6880</v>
       </c>
       <c r="J6" t="inlineStr">
         <is>
@@ -868,14 +870,14 @@
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L6" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="M6" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="N6" t="n">
         <v>39885</v>
@@ -890,11 +892,11 @@
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>2025-06-10 00:00:00</t>
+          <t>2025-05-09 00:00:00</t>
         </is>
       </c>
       <c r="R6" s="1" t="n">
-        <v>-0.409477699525463</v>
+        <v>-0.5002738654166667</v>
       </c>
       <c r="S6" t="n">
         <v>1</v>
@@ -902,7 +904,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>251500</v>
+        <v>251752</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
@@ -910,33 +912,33 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D7" t="n">
-        <v>139.3802816901408</v>
+        <v>0</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>2025-06-05 09:49:38</t>
+          <t>2025-06-05 12:00:23</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2025-06-05 10:08:38</t>
+          <t>2025-06-05 12:21:23</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>2025-06-05 10:08:38</t>
+          <t>2025-06-05 12:21:23</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>2025-06-05 12:28:01</t>
+          <t>2025-06-05 12:21:23</t>
         </is>
       </c>
       <c r="I7" t="n">
-        <v>9896</v>
+        <v>0</v>
       </c>
       <c r="J7" t="inlineStr">
         <is>
@@ -945,17 +947,17 @@
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L7" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M7" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="N7" t="n">
-        <v>39885</v>
+        <v>39846</v>
       </c>
       <c r="O7" t="inlineStr">
         <is>
@@ -963,57 +965,57 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>39885</v>
+        <v>39846</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>2025-05-26 00:00:00</t>
+          <t>2025-05-20 00:00:00</t>
         </is>
       </c>
       <c r="R7" s="1" t="n">
-        <v>-0.5194640062615741</v>
+        <v>-1.51485719875</v>
       </c>
       <c r="S7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>251070</v>
+        <v>251565</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>36.5</v>
+        <v>32</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>176.7464788732394</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>2025-06-05 07:00:00</t>
+          <t>2025-06-05 12:21:23</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2025-06-05 07:36:30</t>
+          <t>2025-06-05 12:53:23</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>2025-06-05 07:36:30</t>
+          <t>2025-06-05 12:53:23</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>2025-06-05 07:36:30</t>
+          <t>2025-06-06 07:50:08</t>
         </is>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>12549</v>
       </c>
       <c r="J8" t="inlineStr">
         <is>
@@ -1022,11 +1024,11 @@
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L8" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="M8" t="n">
         <v>70</v>
@@ -1044,53 +1046,53 @@
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>2025-03-28 00:00:00</t>
+          <t>2025-06-10 00:00:00</t>
         </is>
       </c>
       <c r="R8" s="1" t="n">
-        <v>-0.3170138888888889</v>
+        <v>-1.326486697962963</v>
       </c>
       <c r="S8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>251773</v>
+        <v>251780</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>32.5</v>
+        <v>17</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>342.2394366197183</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>2025-06-05 07:36:30</t>
+          <t>2025-06-06 07:50:08</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>2025-06-05 08:09:00</t>
+          <t>2025-06-06 08:07:08</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>2025-06-05 08:09:00</t>
+          <t>2025-06-06 08:07:08</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>2025-06-05 08:09:00</t>
+          <t>2025-06-06 13:49:22</t>
         </is>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>24299</v>
       </c>
       <c r="J9" t="inlineStr">
         <is>
@@ -1099,17 +1101,19 @@
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>CASON ;R6</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L9" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="M9" t="n">
         <v>70</v>
       </c>
-      <c r="N9" t="n">
-        <v>39874</v>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>39887 (esterno)</t>
+        </is>
       </c>
       <c r="O9" t="inlineStr">
         <is>
@@ -1117,23 +1121,23 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>39874</v>
+        <v>39887</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>2025-05-25 00:00:00</t>
+          <t>2025-06-18 00:00:00</t>
         </is>
       </c>
       <c r="R9" s="1" t="n">
-        <v>-0.3395833333333333</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>251180</v>
+        <v>251070</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
@@ -1148,22 +1152,22 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>2025-06-05 08:09:00</t>
+          <t>2025-06-05 07:00:00</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>2025-06-05 08:45:30</t>
+          <t>2025-06-05 07:36:30</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>2025-06-05 08:45:30</t>
+          <t>2025-06-05 07:36:30</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>2025-06-05 08:45:30</t>
+          <t>2025-06-05 07:36:30</t>
         </is>
       </c>
       <c r="I10" t="n">
@@ -1176,19 +1180,17 @@
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R6 ;R9</t>
         </is>
       </c>
       <c r="L10" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M10" t="n">
         <v>70</v>
       </c>
-      <c r="N10" t="inlineStr">
-        <is>
-          <t>39887 (esterno)</t>
-        </is>
+      <c r="N10" t="n">
+        <v>39885</v>
       </c>
       <c r="O10" t="inlineStr">
         <is>
@@ -1196,23 +1198,23 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>39887</v>
+        <v>39885</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>2025-05-20 00:00:00</t>
+          <t>2025-03-28 00:00:00</t>
         </is>
       </c>
       <c r="R10" s="1" t="n">
-        <v>-16.36493055555556</v>
+        <v>-0.3170138888888889</v>
       </c>
       <c r="S10" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>251895</v>
+        <v>251500</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
@@ -1220,33 +1222,33 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>42.5</v>
+        <v>34.5</v>
       </c>
       <c r="D11" t="n">
-        <v>321.7090909090909</v>
+        <v>179.9272727272727</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>2025-06-05 08:45:30</t>
+          <t>2025-06-05 07:36:30</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>2025-06-05 09:28:00</t>
+          <t>2025-06-05 08:11:00</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>2025-06-05 09:28:00</t>
+          <t>2025-06-05 08:11:00</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>2025-06-05 14:49:42</t>
+          <t>2025-06-05 11:10:55</t>
         </is>
       </c>
       <c r="I11" t="n">
-        <v>17694</v>
+        <v>9896</v>
       </c>
       <c r="J11" t="inlineStr">
         <is>
@@ -1259,15 +1261,13 @@
         </is>
       </c>
       <c r="L11" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="M11" t="n">
         <v>70</v>
       </c>
-      <c r="N11" t="inlineStr">
-        <is>
-          <t>39891 (esterno)</t>
-        </is>
+      <c r="N11" t="n">
+        <v>39885</v>
       </c>
       <c r="O11" t="inlineStr">
         <is>
@@ -1275,7 +1275,7 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>39891</v>
+        <v>39885</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
@@ -1283,15 +1283,15 @@
         </is>
       </c>
       <c r="R11" s="1" t="n">
-        <v>-10.6178535353588</v>
+        <v>-0.4659217171759259</v>
       </c>
       <c r="S11" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>251780</v>
+        <v>251773</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
@@ -1299,33 +1299,33 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>44.5</v>
+        <v>36.5</v>
       </c>
       <c r="D12" t="n">
-        <v>441.8</v>
+        <v>0</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>2025-06-05 14:49:42</t>
+          <t>2025-06-05 11:10:55</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>2025-06-06 07:34:12</t>
+          <t>2025-06-05 11:47:25</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>2025-06-06 07:34:12</t>
+          <t>2025-06-05 11:47:25</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>2025-06-06 14:56:00</t>
+          <t>2025-06-05 11:47:25</t>
         </is>
       </c>
       <c r="I12" t="n">
-        <v>24299</v>
+        <v>0</v>
       </c>
       <c r="J12" t="inlineStr">
         <is>
@@ -1334,19 +1334,17 @@
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>CASON ;R6</t>
         </is>
       </c>
       <c r="L12" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="M12" t="n">
         <v>70</v>
       </c>
-      <c r="N12" t="inlineStr">
-        <is>
-          <t>39887 (esterno)</t>
-        </is>
+      <c r="N12" t="n">
+        <v>39874</v>
       </c>
       <c r="O12" t="inlineStr">
         <is>
@@ -1354,23 +1352,23 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>39887</v>
+        <v>39874</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>2025-06-18 00:00:00</t>
+          <t>2025-05-25 00:00:00</t>
         </is>
       </c>
       <c r="R12" s="1" t="n">
-        <v>0</v>
+        <v>-0.4912689393981481</v>
       </c>
       <c r="S12" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>252112</v>
+        <v>251180</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
@@ -1378,10 +1376,10 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="D13" t="n">
-        <v>204.1475409836065</v>
+        <v>0</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
@@ -1390,21 +1388,21 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>2025-06-04 07:20:00</t>
+          <t>2025-06-04 07:30:00</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>2025-06-04 07:20:00</t>
+          <t>2025-06-04 07:30:00</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>2025-06-04 10:44:08</t>
+          <t>2025-06-04 07:30:00</t>
         </is>
       </c>
       <c r="I13" t="n">
-        <v>12453</v>
+        <v>0</v>
       </c>
       <c r="J13" t="inlineStr">
         <is>
@@ -1417,13 +1415,15 @@
         </is>
       </c>
       <c r="L13" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M13" t="n">
         <v>70</v>
       </c>
-      <c r="N13" t="n">
-        <v>39885</v>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>39887 (esterno)</t>
+        </is>
       </c>
       <c r="O13" t="inlineStr">
         <is>
@@ -1431,23 +1431,23 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>39885</v>
+        <v>39887</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>2025-06-06 00:00:00</t>
+          <t>2025-05-20 00:00:00</t>
         </is>
       </c>
       <c r="R13" s="1" t="n">
-        <v>0</v>
+        <v>-15.3125</v>
       </c>
       <c r="S13" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>252282</v>
+        <v>252084</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
@@ -1455,33 +1455,33 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="D14" t="n">
-        <v>44.88524590163934</v>
+        <v>641</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>2025-06-04 10:44:08</t>
+          <t>2025-06-04 07:30:00</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>2025-06-04 11:19:08</t>
+          <t>2025-06-04 08:00:00</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>2025-06-04 11:19:08</t>
+          <t>2025-06-04 08:00:00</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>2025-06-04 12:04:01</t>
+          <t>2025-06-05 10:41:00</t>
         </is>
       </c>
       <c r="I14" t="n">
-        <v>2738</v>
+        <v>39101</v>
       </c>
       <c r="J14" t="inlineStr">
         <is>
@@ -1494,7 +1494,7 @@
         </is>
       </c>
       <c r="L14" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="M14" t="n">
         <v>70</v>
@@ -1512,19 +1512,19 @@
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>2025-06-09 00:00:00</t>
+          <t>2025-06-30 00:00:00</t>
         </is>
       </c>
       <c r="R14" s="1" t="n">
-        <v>0</v>
+        <v>-0.4451388888888889</v>
       </c>
       <c r="S14" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>251984</v>
+        <v>252282</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
@@ -1532,33 +1532,33 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D15" t="n">
-        <v>338.327868852459</v>
+        <v>44.88524590163934</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>2025-06-04 12:04:01</t>
+          <t>2025-06-05 10:41:00</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>2025-06-04 12:34:01</t>
+          <t>2025-06-05 11:16:00</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>2025-06-04 12:34:01</t>
+          <t>2025-06-05 11:16:00</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>2025-06-05 10:12:21</t>
+          <t>2025-06-05 12:00:53</t>
         </is>
       </c>
       <c r="I15" t="n">
-        <v>20638</v>
+        <v>2738</v>
       </c>
       <c r="J15" t="inlineStr">
         <is>
@@ -1571,13 +1571,13 @@
         </is>
       </c>
       <c r="L15" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M15" t="n">
         <v>70</v>
       </c>
       <c r="N15" t="n">
-        <v>39874</v>
+        <v>39885</v>
       </c>
       <c r="O15" t="inlineStr">
         <is>
@@ -1585,15 +1585,15 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>39874</v>
+        <v>39885</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>2025-06-10 00:00:00</t>
+          <t>2025-06-09 00:00:00</t>
         </is>
       </c>
       <c r="R15" s="1" t="n">
-        <v>-0.4252504553703704</v>
+        <v>-0.5006147540972222</v>
       </c>
       <c r="S15" t="n">
         <v>1</v>
@@ -1601,41 +1601,41 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>251362</v>
+        <v>251984</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="D16" t="n">
-        <v>35.28169014084507</v>
+        <v>338.327868852459</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>2025-06-05 07:00:00</t>
+          <t>2025-06-05 12:00:53</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>2025-06-05 07:17:00</t>
+          <t>2025-06-05 12:30:53</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>2025-06-05 07:17:00</t>
+          <t>2025-06-05 12:30:53</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>2025-06-05 07:52:16</t>
+          <t>2025-06-06 10:09:12</t>
         </is>
       </c>
       <c r="I16" t="n">
-        <v>2505</v>
+        <v>20638</v>
       </c>
       <c r="J16" t="inlineStr">
         <is>
@@ -1644,14 +1644,14 @@
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L16" t="n">
         <v>3</v>
       </c>
       <c r="M16" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="N16" t="n">
         <v>39874</v>
@@ -1666,14 +1666,14 @@
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>2025-04-24 00:00:00</t>
+          <t>2025-06-10 00:00:00</t>
         </is>
       </c>
       <c r="R16" s="1" t="n">
-        <v>-0.3279733959259259</v>
+        <v>-1.423064663020833</v>
       </c>
       <c r="S16" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17">
@@ -1686,29 +1686,29 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D17" t="n">
         <v>146.056338028169</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>2025-06-05 07:52:16</t>
+          <t>2025-06-05 07:00:00</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>2025-06-05 08:07:16</t>
+          <t>2025-06-05 07:17:00</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>2025-06-05 08:07:16</t>
+          <t>2025-06-05 07:17:00</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>2025-06-05 10:33:20</t>
+          <t>2025-06-05 09:43:03</t>
         </is>
       </c>
       <c r="I17" t="n">
@@ -1747,7 +1747,7 @@
         </is>
       </c>
       <c r="R17" s="1" t="n">
-        <v>-0.4398180751157408</v>
+        <v>-0.4049002347453703</v>
       </c>
       <c r="S17" t="n">
         <v>2</v>
@@ -1770,22 +1770,22 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>2025-06-05 10:33:20</t>
+          <t>2025-06-05 09:43:03</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>2025-06-05 11:09:20</t>
+          <t>2025-06-05 10:19:03</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>2025-06-05 11:09:20</t>
+          <t>2025-06-05 10:19:03</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>2025-06-06 12:34:41</t>
+          <t>2025-06-06 11:44:24</t>
         </is>
       </c>
       <c r="I18" t="n">
@@ -1824,7 +1824,7 @@
         </is>
       </c>
       <c r="R18" s="1" t="n">
-        <v>-1.524090375590278</v>
+        <v>-1.489172535208333</v>
       </c>
       <c r="S18" t="n">
         <v>1</v>
@@ -1832,7 +1832,7 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>252084</v>
+        <v>252112</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
@@ -1843,7 +1843,7 @@
         <v>40</v>
       </c>
       <c r="D19" t="n">
-        <v>797.9795918367347</v>
+        <v>254.1428571428571</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
@@ -1862,11 +1862,11 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>2025-06-05 12:57:58</t>
+          <t>2025-06-04 11:54:08</t>
         </is>
       </c>
       <c r="I19" t="n">
-        <v>39101</v>
+        <v>12453</v>
       </c>
       <c r="J19" t="inlineStr">
         <is>
@@ -1897,14 +1897,14 @@
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>2025-06-30 00:00:00</t>
+          <t>2025-06-06 00:00:00</t>
         </is>
       </c>
       <c r="R19" s="1" t="n">
-        <v>-0.5402636054398148</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20">
@@ -2216,33 +2216,33 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="D24" t="n">
-        <v>85.37704918032787</v>
+        <v>73.35211267605634</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>2025-06-05 10:12:21</t>
+          <t>2025-06-05 12:15:23</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>2025-06-05 10:32:21</t>
+          <t>2025-06-05 12:51:23</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>2025-06-05 10:32:21</t>
+          <t>2025-06-05 12:51:23</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>2025-06-05 11:57:44</t>
+          <t>2025-06-05 14:04:44</t>
         </is>
       </c>
       <c r="I24" t="n">
@@ -2276,7 +2276,7 @@
         </is>
       </c>
       <c r="R24" s="1" t="n">
-        <v>-15.49842896174768</v>
+        <v>-15.58662949921296</v>
       </c>
       <c r="S24" t="n">
         <v>7</v>
@@ -2288,33 +2288,33 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>R3</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="D25" t="n">
-        <v>153.6885245901639</v>
+        <v>191.3265306122449</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>2025-06-05 11:57:44</t>
+          <t>2025-06-05 12:45:02</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>2025-06-05 12:22:44</t>
+          <t>2025-06-05 13:30:02</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>2025-06-05 12:22:44</t>
+          <t>2025-06-05 13:30:02</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>2025-06-05 14:56:25</t>
+          <t>2025-06-06 08:41:22</t>
         </is>
       </c>
       <c r="I25" t="n">
@@ -2348,7 +2348,7 @@
         </is>
       </c>
       <c r="R25" s="1" t="n">
-        <v>-8.622518214930556</v>
+        <v>-9.362060657592592</v>
       </c>
       <c r="S25" t="n">
         <v>7</v>
@@ -2360,33 +2360,33 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>BIMEC 4</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="D26" t="n">
-        <v>186.5070422535211</v>
+        <v>217.0819672131148</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>2025-06-05 12:28:01</t>
+          <t>2025-06-05 12:59:01</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>2025-06-05 12:43:01</t>
+          <t>2025-06-05 13:36:01</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>2025-06-05 12:43:01</t>
+          <t>2025-06-05 13:36:01</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>2025-06-06 07:49:32</t>
+          <t>2025-06-06 09:13:06</t>
         </is>
       </c>
       <c r="I26" t="n">
@@ -2420,7 +2420,7 @@
         </is>
       </c>
       <c r="R26" s="1" t="n">
-        <v>-9.326066118935184</v>
+        <v>-9.384107468125</v>
       </c>
       <c r="S26" t="n">
         <v>7</v>
@@ -2432,33 +2432,33 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>R3</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>45</v>
+        <v>17</v>
       </c>
       <c r="D27" t="n">
-        <v>110.9183673469388</v>
+        <v>76.54929577464789</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>2025-06-05 12:57:58</t>
+          <t>2025-06-05 14:04:44</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>2025-06-05 13:42:58</t>
+          <t>2025-06-05 14:21:44</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>2025-06-05 13:42:58</t>
+          <t>2025-06-05 14:21:44</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>2025-06-06 07:33:53</t>
+          <t>2025-06-06 07:38:17</t>
         </is>
       </c>
       <c r="I27" t="n">
@@ -2492,7 +2492,7 @@
         </is>
       </c>
       <c r="R27" s="1" t="n">
-        <v>-9.315206916099537</v>
+        <v>-9.318260954618054</v>
       </c>
       <c r="S27" t="n">
         <v>7</v>
@@ -2504,33 +2504,33 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="D28" t="n">
-        <v>98.47540983606558</v>
+        <v>93.859375</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>2025-06-05 12:59:01</t>
+          <t>2025-06-05 14:23:30</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>2025-06-05 13:38:01</t>
+          <t>2025-06-05 14:59:30</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>2025-06-05 13:38:01</t>
+          <t>2025-06-05 14:59:30</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>2025-06-06 07:16:30</t>
+          <t>2025-06-06 08:33:21</t>
         </is>
       </c>
       <c r="I28" t="n">
@@ -2564,7 +2564,7 @@
         </is>
       </c>
       <c r="R28" s="1" t="n">
-        <v>-7.303130692164352</v>
+        <v>-7.356499565972222</v>
       </c>
       <c r="S28" t="n">
         <v>7</v>
@@ -2576,33 +2576,33 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="D29" t="n">
-        <v>92.234375</v>
+        <v>83.14084507042253</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>2025-06-05 14:23:30</t>
+          <t>2025-06-06 07:38:17</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>2025-06-05 14:57:30</t>
+          <t>2025-06-06 07:53:17</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>2025-06-05 14:57:30</t>
+          <t>2025-06-06 07:53:17</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>2025-06-06 08:29:44</t>
+          <t>2025-06-06 09:16:26</t>
         </is>
       </c>
       <c r="I29" t="n">
@@ -2636,7 +2636,7 @@
         </is>
       </c>
       <c r="R29" s="1" t="n">
-        <v>-7.353982204861111</v>
+        <v>-7.386414319247685</v>
       </c>
       <c r="S29" t="n">
         <v>7</v>
@@ -2648,33 +2648,33 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>25</v>
+        <v>32.5</v>
       </c>
       <c r="D30" t="n">
-        <v>512.2950819672132</v>
+        <v>568.1818181818181</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>2025-06-05 14:56:25</t>
+          <t>2025-06-06 08:08:05</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>2025-06-06 07:21:25</t>
+          <t>2025-06-06 08:40:35</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>2025-06-06 07:21:25</t>
+          <t>2025-06-06 08:40:35</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>2025-06-09 07:53:43</t>
+          <t>2025-06-09 10:08:46</t>
         </is>
       </c>
       <c r="I30" t="n">
@@ -2708,7 +2708,7 @@
         </is>
       </c>
       <c r="R30" s="1" t="n">
-        <v>-6.328973132974538</v>
+        <v>-6.422758838379629</v>
       </c>
       <c r="S30" t="n">
         <v>7</v>
@@ -2720,33 +2720,33 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="D31" t="n">
-        <v>445.4754098360656</v>
+        <v>424.59375</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>2025-06-06 07:16:30</t>
+          <t>2025-06-06 08:33:21</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>2025-06-06 07:41:30</t>
+          <t>2025-06-06 08:48:21</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>2025-06-06 07:41:30</t>
+          <t>2025-06-06 08:48:21</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>2025-06-09 07:06:59</t>
+          <t>2025-06-09 07:52:57</t>
         </is>
       </c>
       <c r="I31" t="n">
@@ -2780,7 +2780,7 @@
         </is>
       </c>
       <c r="R31" s="1" t="n">
-        <v>-5.2965163934375</v>
+        <v>-5.328439670138889</v>
       </c>
       <c r="S31" t="n">
         <v>7</v>
@@ -2803,22 +2803,22 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>2025-06-06 07:33:53</t>
+          <t>2025-06-06 08:41:22</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>2025-06-06 08:18:53</t>
+          <t>2025-06-06 09:26:22</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>2025-06-06 08:18:53</t>
+          <t>2025-06-06 09:26:22</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>2025-06-06 09:51:14</t>
+          <t>2025-06-06 10:58:42</t>
         </is>
       </c>
       <c r="I32" t="n">
@@ -2852,7 +2852,7 @@
         </is>
       </c>
       <c r="R32" s="1" t="n">
-        <v>-2.410586734699074</v>
+        <v>-2.45744047619213</v>
       </c>
       <c r="S32" t="n">
         <v>7</v>
@@ -2864,33 +2864,33 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>R9</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="D33" t="n">
-        <v>30.35211267605634</v>
+        <v>31.23188405797102</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>2025-06-06 07:49:32</t>
+          <t>2025-06-06 09:04:53</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>2025-06-06 08:04:32</t>
+          <t>2025-06-06 09:34:53</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>2025-06-06 08:04:32</t>
+          <t>2025-06-06 09:34:53</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>2025-06-06 08:34:53</t>
+          <t>2025-06-06 10:06:07</t>
         </is>
       </c>
       <c r="I33" t="n">
@@ -2936,33 +2936,33 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>BIMEC 4</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="D34" t="n">
-        <v>205.859375</v>
+        <v>215.983606557377</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>2025-06-06 08:29:44</t>
+          <t>2025-06-06 09:13:06</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>2025-06-06 08:48:44</t>
+          <t>2025-06-06 09:42:06</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>2025-06-06 08:48:44</t>
+          <t>2025-06-06 09:42:06</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>2025-06-06 12:14:35</t>
+          <t>2025-06-06 13:18:05</t>
         </is>
       </c>
       <c r="I34" t="n">
@@ -3019,22 +3019,22 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>2025-06-06 08:34:53</t>
+          <t>2025-06-06 09:16:26</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>2025-06-06 08:51:53</t>
+          <t>2025-06-06 09:33:26</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>2025-06-06 08:51:53</t>
+          <t>2025-06-06 09:33:26</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>2025-06-09 12:55:24</t>
+          <t>2025-06-09 13:36:57</t>
         </is>
       </c>
       <c r="I35" t="n">
@@ -3076,41 +3076,41 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>252235</v>
+        <v>251935</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>R9</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="D36" t="n">
-        <v>351.5652173913044</v>
+        <v>109.655737704918</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>2025-06-06 09:04:53</t>
+          <t>2025-06-06 09:49:12</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>2025-06-06 09:54:53</t>
+          <t>2025-06-06 10:14:12</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>2025-06-06 09:54:53</t>
+          <t>2025-06-06 10:14:12</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>2025-06-09 07:46:27</t>
+          <t>2025-06-06 12:03:52</t>
         </is>
       </c>
       <c r="I36" t="n">
-        <v>24258</v>
+        <v>6689</v>
       </c>
       <c r="J36" t="inlineStr">
         <is>
@@ -3119,14 +3119,14 @@
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L36" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="M36" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
@@ -3136,53 +3136,53 @@
       </c>
       <c r="Q36" t="inlineStr">
         <is>
-          <t>2025-06-15 00:00:00</t>
+          <t>2025-06-05 00:00:00</t>
         </is>
       </c>
       <c r="R36" s="1" t="n">
-        <v>0</v>
+        <v>-1.502686703101852</v>
       </c>
       <c r="S36" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>252395</v>
+        <v>252235</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>R3</t>
+          <t>R9</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="D37" t="n">
-        <v>1832.387755102041</v>
+        <v>351.5652173913044</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>2025-06-06 09:51:14</t>
+          <t>2025-06-06 10:06:07</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>2025-06-06 10:48:14</t>
+          <t>2025-06-06 10:56:07</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>2025-06-06 10:48:14</t>
+          <t>2025-06-06 10:56:07</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>2025-06-12 09:20:37</t>
+          <t>2025-06-09 08:47:41</t>
         </is>
       </c>
       <c r="I37" t="n">
-        <v>89787</v>
+        <v>24258</v>
       </c>
       <c r="J37" t="inlineStr">
         <is>
@@ -3191,11 +3191,11 @@
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L37" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="M37" t="n">
         <v>76</v>
@@ -3208,7 +3208,7 @@
       </c>
       <c r="Q37" t="inlineStr">
         <is>
-          <t>2025-08-04 00:00:00</t>
+          <t>2025-06-15 00:00:00</t>
         </is>
       </c>
       <c r="R37" s="1" t="n">
@@ -3220,41 +3220,41 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>251935</v>
+        <v>252395</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>R3</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>19</v>
+        <v>57</v>
       </c>
       <c r="D38" t="n">
-        <v>104.515625</v>
+        <v>1832.387755102041</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>2025-06-06 12:14:35</t>
+          <t>2025-06-06 10:58:42</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>2025-06-06 12:33:35</t>
+          <t>2025-06-06 11:55:42</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>2025-06-06 12:33:35</t>
+          <t>2025-06-06 11:55:42</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>2025-06-06 14:18:06</t>
+          <t>2025-06-12 10:28:06</t>
         </is>
       </c>
       <c r="I38" t="n">
-        <v>6689</v>
+        <v>89787</v>
       </c>
       <c r="J38" t="inlineStr">
         <is>
@@ -3263,14 +3263,14 @@
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L38" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M38" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="O38" t="n">
         <v>0</v>
@@ -3280,14 +3280,14 @@
       </c>
       <c r="Q38" t="inlineStr">
         <is>
-          <t>2025-06-05 00:00:00</t>
+          <t>2025-08-04 00:00:00</t>
         </is>
       </c>
       <c r="R38" s="1" t="n">
-        <v>-1.595909288194445</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="39">
@@ -3307,22 +3307,22 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>2025-06-06 12:34:41</t>
+          <t>2025-06-06 11:44:24</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>2025-06-06 13:08:41</t>
+          <t>2025-06-06 12:18:24</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>2025-06-06 13:08:41</t>
+          <t>2025-06-06 12:18:24</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>2025-06-09 07:10:57</t>
+          <t>2025-06-06 14:20:40</t>
         </is>
       </c>
       <c r="I39" t="n">
@@ -3356,7 +3356,7 @@
         </is>
       </c>
       <c r="R39" s="1" t="n">
-        <v>-0.2992762128356481</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>4</v>
@@ -3368,33 +3368,33 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D40" t="n">
-        <v>189.890625</v>
+        <v>199.2295081967213</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>2025-06-06 14:18:06</t>
+          <t>2025-06-06 12:03:52</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>2025-06-06 14:33:06</t>
+          <t>2025-06-06 12:23:52</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>2025-06-06 14:33:06</t>
+          <t>2025-06-06 12:23:52</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>2025-06-09 09:43:00</t>
+          <t>2025-06-09 07:43:05</t>
         </is>
       </c>
       <c r="I40" t="n">
@@ -3428,7 +3428,7 @@
         </is>
       </c>
       <c r="R40" s="1" t="n">
-        <v>-0.4048611111111111</v>
+        <v>-0.3215960837847222</v>
       </c>
       <c r="S40" t="n">
         <v>4</v>
@@ -3436,41 +3436,41 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>251979</v>
+        <v>251747</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>BIMEC 4</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>32.5</v>
+        <v>27</v>
       </c>
       <c r="D41" t="n">
-        <v>374.1090909090909</v>
+        <v>255.016393442623</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>2025-06-06 14:56:00</t>
+          <t>2025-06-06 13:18:05</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>2025-06-09 07:28:30</t>
+          <t>2025-06-06 13:45:05</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>2025-06-09 07:28:30</t>
+          <t>2025-06-06 13:45:05</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>2025-06-09 13:42:37</t>
+          <t>2025-06-09 10:00:06</t>
         </is>
       </c>
       <c r="I41" t="n">
-        <v>20576</v>
+        <v>15556</v>
       </c>
       <c r="J41" t="inlineStr">
         <is>
@@ -3479,11 +3479,11 @@
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>CASON ;R6</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L41" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M41" t="n">
         <v>70</v>
@@ -3496,53 +3496,53 @@
       </c>
       <c r="Q41" t="inlineStr">
         <is>
-          <t>2025-06-05 00:00:00</t>
+          <t>2025-06-16 00:00:00</t>
         </is>
       </c>
       <c r="R41" s="1" t="n">
-        <v>-4.571262626261574</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>251747</v>
+        <v>243569</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="D42" t="n">
-        <v>255.016393442623</v>
+        <v>36.63380281690141</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>2025-06-09 07:06:59</t>
+          <t>2025-06-06 14:20:40</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>2025-06-09 07:31:59</t>
+          <t>2025-06-06 14:37:40</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>2025-06-09 07:31:59</t>
+          <t>2025-06-06 14:37:40</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>2025-06-09 11:47:00</t>
+          <t>2025-06-09 07:14:18</t>
         </is>
       </c>
       <c r="I42" t="n">
-        <v>15556</v>
+        <v>2601</v>
       </c>
       <c r="J42" t="inlineStr">
         <is>
@@ -3551,14 +3551,14 @@
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L42" t="n">
         <v>3</v>
       </c>
       <c r="M42" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
@@ -3568,19 +3568,19 @@
       </c>
       <c r="Q42" t="inlineStr">
         <is>
-          <t>2025-06-16 00:00:00</t>
+          <t>2024-09-16 00:00:00</t>
         </is>
       </c>
       <c r="R42" s="1" t="n">
-        <v>0</v>
+        <v>-266.3016040688542</v>
       </c>
       <c r="S42" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>243569</v>
+        <v>245623</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
@@ -3588,33 +3588,33 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="D43" t="n">
-        <v>36.63380281690141</v>
+        <v>372.0985915492957</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>2025-06-09 07:10:57</t>
+          <t>2025-06-09 07:14:18</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>2025-06-09 07:27:57</t>
+          <t>2025-06-09 07:46:18</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>2025-06-09 07:27:57</t>
+          <t>2025-06-09 07:46:18</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>2025-06-09 08:04:35</t>
+          <t>2025-06-09 13:58:24</t>
         </is>
       </c>
       <c r="I43" t="n">
-        <v>2601</v>
+        <v>26419</v>
       </c>
       <c r="J43" t="inlineStr">
         <is>
@@ -3627,10 +3627,10 @@
         </is>
       </c>
       <c r="L43" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M43" t="n">
-        <v>76</v>
+        <v>152</v>
       </c>
       <c r="O43" t="n">
         <v>0</v>
@@ -3640,11 +3640,11 @@
       </c>
       <c r="Q43" t="inlineStr">
         <is>
-          <t>2024-09-16 00:00:00</t>
+          <t>2025-01-25 00:00:00</t>
         </is>
       </c>
       <c r="R43" s="1" t="n">
-        <v>-266.3365219092361</v>
+        <v>-135.5822280907639</v>
       </c>
       <c r="S43" t="n">
         <v>2</v>
@@ -3652,41 +3652,41 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>245623</v>
+        <v>251944</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>R9</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>60</v>
+        <v>25</v>
       </c>
       <c r="D44" t="n">
-        <v>382.8840579710145</v>
+        <v>668.327868852459</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>2025-06-09 07:46:27</t>
+          <t>2025-06-09 07:43:05</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>2025-06-09 08:46:27</t>
+          <t>2025-06-09 08:08:05</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>2025-06-09 08:46:27</t>
+          <t>2025-06-09 08:08:05</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>2025-06-10 07:09:20</t>
+          <t>2025-06-10 11:16:25</t>
         </is>
       </c>
       <c r="I44" t="n">
-        <v>26419</v>
+        <v>40768</v>
       </c>
       <c r="J44" t="inlineStr">
         <is>
@@ -3695,14 +3695,14 @@
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L44" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="M44" t="n">
-        <v>152</v>
+        <v>70</v>
       </c>
       <c r="O44" t="n">
         <v>0</v>
@@ -3712,11 +3712,11 @@
       </c>
       <c r="Q44" t="inlineStr">
         <is>
-          <t>2025-01-25 00:00:00</t>
+          <t>2025-05-26 00:00:00</t>
         </is>
       </c>
       <c r="R44" s="1" t="n">
-        <v>-136.2981582125579</v>
+        <v>-15.46974043715278</v>
       </c>
       <c r="S44" t="n">
         <v>2</v>
@@ -3724,41 +3724,41 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>251944</v>
+        <v>251792</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C45" t="n">
         <v>30</v>
       </c>
       <c r="D45" t="n">
-        <v>668.327868852459</v>
+        <v>143.8125</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>2025-06-09 07:53:43</t>
+          <t>2025-06-09 07:52:57</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>2025-06-09 08:23:43</t>
+          <t>2025-06-09 08:22:57</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>2025-06-09 08:23:43</t>
+          <t>2025-06-09 08:22:57</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>2025-06-10 11:32:02</t>
+          <t>2025-06-09 10:46:45</t>
         </is>
       </c>
       <c r="I45" t="n">
-        <v>40768</v>
+        <v>9204</v>
       </c>
       <c r="J45" t="inlineStr">
         <is>
@@ -3767,14 +3767,14 @@
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L45" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M45" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
@@ -3788,7 +3788,7 @@
         </is>
       </c>
       <c r="R45" s="1" t="n">
-        <v>-15.48058970856481</v>
+        <v>-14.44914279513889</v>
       </c>
       <c r="S45" t="n">
         <v>2</v>
@@ -3796,41 +3796,41 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>251792</v>
+        <v>251905</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>R9</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="D46" t="n">
-        <v>129.6338028169014</v>
+        <v>200.5942028985507</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>2025-06-09 08:04:35</t>
+          <t>2025-06-09 08:47:41</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>2025-06-09 08:19:35</t>
+          <t>2025-06-09 09:22:41</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>2025-06-09 08:19:35</t>
+          <t>2025-06-09 09:22:41</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>2025-06-09 10:29:13</t>
+          <t>2025-06-09 12:43:17</t>
         </is>
       </c>
       <c r="I46" t="n">
-        <v>9204</v>
+        <v>13841</v>
       </c>
       <c r="J46" t="inlineStr">
         <is>
@@ -3839,11 +3839,11 @@
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L46" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="M46" t="n">
         <v>76</v>
@@ -3856,11 +3856,11 @@
       </c>
       <c r="Q46" t="inlineStr">
         <is>
-          <t>2025-05-26 00:00:00</t>
+          <t>2025-05-28 00:00:00</t>
         </is>
       </c>
       <c r="R46" s="1" t="n">
-        <v>-14.43696205008102</v>
+        <v>-12.53006239935185</v>
       </c>
       <c r="S46" t="n">
         <v>2</v>
@@ -3868,41 +3868,41 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>251905</v>
+        <v>252042</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>BIMEC 4</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="D47" t="n">
-        <v>216.265625</v>
+        <v>125.9672131147541</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>2025-06-09 09:43:00</t>
+          <t>2025-06-09 10:00:06</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>2025-06-09 10:17:00</t>
+          <t>2025-06-09 10:27:06</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>2025-06-09 10:17:00</t>
+          <t>2025-06-09 10:27:06</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>2025-06-09 13:53:15</t>
+          <t>2025-06-09 12:33:04</t>
         </is>
       </c>
       <c r="I47" t="n">
-        <v>13841</v>
+        <v>7684</v>
       </c>
       <c r="J47" t="inlineStr">
         <is>
@@ -3911,14 +3911,14 @@
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L47" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="M47" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="O47" t="n">
         <v>0</v>
@@ -3928,11 +3928,11 @@
       </c>
       <c r="Q47" t="inlineStr">
         <is>
-          <t>2025-05-28 00:00:00</t>
+          <t>2025-05-30 00:00:00</t>
         </is>
       </c>
       <c r="R47" s="1" t="n">
-        <v>-12.57865668402778</v>
+        <v>-10.52297358834491</v>
       </c>
       <c r="S47" t="n">
         <v>2</v>
@@ -3940,41 +3940,41 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>251898</v>
+        <v>251979</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>17</v>
+        <v>32.5</v>
       </c>
       <c r="D48" t="n">
-        <v>93.02816901408451</v>
+        <v>374.1090909090909</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>2025-06-09 10:29:13</t>
+          <t>2025-06-09 10:08:46</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>2025-06-09 10:46:13</t>
+          <t>2025-06-09 10:41:16</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>2025-06-09 10:46:13</t>
+          <t>2025-06-09 10:41:16</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>2025-06-09 12:19:15</t>
+          <t>2025-06-10 08:55:22</t>
         </is>
       </c>
       <c r="I48" t="n">
-        <v>6605</v>
+        <v>20576</v>
       </c>
       <c r="J48" t="inlineStr">
         <is>
@@ -3983,14 +3983,14 @@
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
+          <t>CASON ;R6</t>
         </is>
       </c>
       <c r="L48" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M48" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="O48" t="n">
         <v>0</v>
@@ -4000,53 +4000,53 @@
       </c>
       <c r="Q48" t="inlineStr">
         <is>
-          <t>2025-06-06 00:00:00</t>
+          <t>2025-06-05 00:00:00</t>
         </is>
       </c>
       <c r="R48" s="1" t="n">
-        <v>-3.513370500787037</v>
+        <v>-5.371792929293981</v>
       </c>
       <c r="S48" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>252042</v>
+        <v>251898</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="D49" t="n">
-        <v>125.9672131147541</v>
+        <v>103.203125</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>2025-06-09 11:47:00</t>
+          <t>2025-06-09 10:46:45</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>2025-06-09 12:14:00</t>
+          <t>2025-06-09 11:03:45</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>2025-06-09 12:14:00</t>
+          <t>2025-06-09 11:03:45</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>2025-06-09 14:19:58</t>
+          <t>2025-06-09 12:46:58</t>
         </is>
       </c>
       <c r="I49" t="n">
-        <v>7684</v>
+        <v>6605</v>
       </c>
       <c r="J49" t="inlineStr">
         <is>
@@ -4055,14 +4055,14 @@
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L49" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M49" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="O49" t="n">
         <v>0</v>
@@ -4072,11 +4072,11 @@
       </c>
       <c r="Q49" t="inlineStr">
         <is>
-          <t>2025-05-30 00:00:00</t>
+          <t>2025-06-06 00:00:00</t>
         </is>
       </c>
       <c r="R49" s="1" t="n">
-        <v>-10.59719945355324</v>
+        <v>-3.5326171875</v>
       </c>
       <c r="S49" t="n">
         <v>2</v>
@@ -4084,41 +4084,41 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>251798</v>
+        <v>252058</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>BIMEC 4</t>
         </is>
       </c>
       <c r="C50" t="n">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="D50" t="n">
-        <v>318.943661971831</v>
+        <v>86.88524590163935</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>2025-06-09 12:19:15</t>
+          <t>2025-06-09 12:33:04</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>2025-06-09 12:34:15</t>
+          <t>2025-06-09 13:04:04</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>2025-06-09 12:34:15</t>
+          <t>2025-06-09 13:04:04</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>2025-06-10 09:53:11</t>
+          <t>2025-06-09 14:30:58</t>
         </is>
       </c>
       <c r="I50" t="n">
-        <v>22645</v>
+        <v>5300</v>
       </c>
       <c r="J50" t="inlineStr">
         <is>
@@ -4127,14 +4127,14 @@
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L50" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M50" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="O50" t="n">
         <v>0</v>
@@ -4144,11 +4144,11 @@
       </c>
       <c r="Q50" t="inlineStr">
         <is>
-          <t>2025-06-15 00:00:00</t>
+          <t>2025-06-09 00:00:00</t>
         </is>
       </c>
       <c r="R50" s="1" t="n">
-        <v>0</v>
+        <v>-0.6048383424421296</v>
       </c>
       <c r="S50" t="n">
         <v>2</v>
@@ -4156,41 +4156,41 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>252058</v>
+        <v>252082</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>R9</t>
         </is>
       </c>
       <c r="C51" t="n">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="D51" t="n">
-        <v>74.64788732394366</v>
+        <v>650.5507246376811</v>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>2025-06-09 12:55:24</t>
+          <t>2025-06-09 12:43:17</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>2025-06-09 13:10:24</t>
+          <t>2025-06-09 13:33:17</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>2025-06-09 13:10:24</t>
+          <t>2025-06-09 13:33:17</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>2025-06-09 14:25:03</t>
+          <t>2025-06-11 08:23:50</t>
         </is>
       </c>
       <c r="I51" t="n">
-        <v>5300</v>
+        <v>44888</v>
       </c>
       <c r="J51" t="inlineStr">
         <is>
@@ -4203,7 +4203,7 @@
         </is>
       </c>
       <c r="L51" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="M51" t="n">
         <v>70</v>
@@ -4216,11 +4216,11 @@
       </c>
       <c r="Q51" t="inlineStr">
         <is>
-          <t>2025-06-09 00:00:00</t>
+          <t>2025-06-10 00:00:00</t>
         </is>
       </c>
       <c r="R51" s="1" t="n">
-        <v>-0.6007335680787037</v>
+        <v>-1.349889291469907</v>
       </c>
       <c r="S51" t="n">
         <v>2</v>
@@ -4228,41 +4228,41 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>252082</v>
+        <v>251798</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C52" t="n">
-        <v>30.5</v>
+        <v>15</v>
       </c>
       <c r="D52" t="n">
-        <v>816.1454545454545</v>
+        <v>353.828125</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>2025-06-09 13:42:37</t>
+          <t>2025-06-09 12:46:58</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>2025-06-09 14:13:07</t>
+          <t>2025-06-09 13:01:58</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>2025-06-09 14:13:07</t>
+          <t>2025-06-09 13:01:58</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>2025-06-11 11:49:15</t>
+          <t>2025-06-10 10:55:47</t>
         </is>
       </c>
       <c r="I52" t="n">
-        <v>44888</v>
+        <v>22645</v>
       </c>
       <c r="J52" t="inlineStr">
         <is>
@@ -4271,14 +4271,14 @@
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L52" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M52" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="O52" t="n">
         <v>0</v>
@@ -4288,11 +4288,11 @@
       </c>
       <c r="Q52" t="inlineStr">
         <is>
-          <t>2025-06-10 00:00:00</t>
+          <t>2025-06-15 00:00:00</t>
         </is>
       </c>
       <c r="R52" s="1" t="n">
-        <v>-1.492544191921296</v>
+        <v>0</v>
       </c>
       <c r="S52" t="n">
         <v>2</v>
@@ -4304,33 +4304,33 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C53" t="n">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="D53" t="n">
-        <v>1488.09375</v>
+        <v>1341.380281690141</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>2025-06-09 13:53:15</t>
+          <t>2025-06-09 13:36:57</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>2025-06-09 14:23:15</t>
+          <t>2025-06-09 13:53:57</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>2025-06-09 14:23:15</t>
+          <t>2025-06-09 13:53:57</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>2025-06-13 07:11:21</t>
+          <t>2025-06-12 12:15:20</t>
         </is>
       </c>
       <c r="I53" t="n">
@@ -4376,33 +4376,33 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C54" t="n">
-        <v>44</v>
+        <v>19</v>
       </c>
       <c r="D54" t="n">
-        <v>541.0491803278688</v>
+        <v>464.8450704225352</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>2025-06-09 14:19:58</t>
+          <t>2025-06-09 13:58:24</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>2025-06-10 07:03:58</t>
+          <t>2025-06-09 14:17:24</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>2025-06-10 07:03:58</t>
+          <t>2025-06-09 14:17:24</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>2025-06-11 08:05:00</t>
+          <t>2025-06-10 14:02:15</t>
         </is>
       </c>
       <c r="I54" t="n">
@@ -4436,7 +4436,7 @@
         </is>
       </c>
       <c r="R54" s="1" t="n">
-        <v>-313.3368169398959</v>
+        <v>-312.5848982785648</v>
       </c>
       <c r="S54" t="n">
         <v>1</v>
@@ -4448,33 +4448,33 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>BIMEC 4</t>
         </is>
       </c>
       <c r="C55" t="n">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="D55" t="n">
-        <v>14.04225352112676</v>
+        <v>16.34426229508197</v>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>2025-06-09 14:25:03</t>
+          <t>2025-06-09 14:30:58</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>2025-06-09 14:42:03</t>
+          <t>2025-06-09 14:57:58</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>2025-06-09 14:42:03</t>
+          <t>2025-06-09 14:57:58</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>2025-06-09 14:56:05</t>
+          <t>2025-06-10 07:14:18</t>
         </is>
       </c>
       <c r="I55" t="n">
@@ -4508,7 +4508,7 @@
         </is>
       </c>
       <c r="R55" s="1" t="n">
-        <v>-252.6222906885764</v>
+        <v>-253.3016051912616</v>
       </c>
       <c r="S55" t="n">
         <v>1</v>
@@ -4520,33 +4520,33 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>BIMEC 4</t>
         </is>
       </c>
       <c r="C56" t="n">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="D56" t="n">
-        <v>359.3239436619718</v>
+        <v>418.2295081967213</v>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>2025-06-09 14:56:05</t>
+          <t>2025-06-10 07:14:18</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>2025-06-10 07:15:05</t>
+          <t>2025-06-10 07:43:18</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>2025-06-10 07:15:05</t>
+          <t>2025-06-10 07:43:18</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>2025-06-10 13:14:25</t>
+          <t>2025-06-10 14:41:32</t>
         </is>
       </c>
       <c r="I56" t="n">
@@ -4580,7 +4580,7 @@
         </is>
       </c>
       <c r="R56" s="1" t="n">
-        <v>-11.55168231612268</v>
+        <v>-11.61218123861111</v>
       </c>
       <c r="S56" t="n">
         <v>1</v>
@@ -4588,41 +4588,41 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>251972</v>
+        <v>252111</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>R9</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C57" t="n">
-        <v>40</v>
+        <v>32.5</v>
       </c>
       <c r="D57" t="n">
-        <v>70.26086956521739</v>
+        <v>330.6727272727273</v>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>2025-06-10 07:09:20</t>
+          <t>2025-06-10 08:55:22</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>2025-06-10 07:49:20</t>
+          <t>2025-06-10 09:27:52</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>2025-06-10 07:49:20</t>
+          <t>2025-06-10 09:27:52</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>2025-06-10 08:59:36</t>
+          <t>2025-06-10 14:58:33</t>
         </is>
       </c>
       <c r="I57" t="n">
-        <v>4848</v>
+        <v>18187</v>
       </c>
       <c r="J57" t="inlineStr">
         <is>
@@ -4631,14 +4631,14 @@
       </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L57" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M57" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="O57" t="n">
         <v>0</v>
@@ -4648,11 +4648,11 @@
       </c>
       <c r="Q57" t="inlineStr">
         <is>
-          <t>2025-05-30 00:00:00</t>
+          <t>2025-06-05 00:00:00</t>
         </is>
       </c>
       <c r="R57" s="1" t="n">
-        <v>-11.37472826086806</v>
+        <v>-5.623996212118056</v>
       </c>
       <c r="S57" t="n">
         <v>1</v>
@@ -4660,41 +4660,41 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>252111</v>
+        <v>251772</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>R9</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="C58" t="n">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="D58" t="n">
-        <v>263.5797101449276</v>
+        <v>637.2112676056338</v>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>2025-06-10 08:59:36</t>
+          <t>2025-06-10 10:37:12</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>2025-06-10 09:34:36</t>
+          <t>2025-06-10 11:17:12</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>2025-06-10 09:34:36</t>
+          <t>2025-06-10 11:17:12</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>2025-06-10 13:58:11</t>
+          <t>2025-06-11 13:54:25</t>
         </is>
       </c>
       <c r="I58" t="n">
-        <v>18187</v>
+        <v>45242</v>
       </c>
       <c r="J58" t="inlineStr">
         <is>
@@ -4707,7 +4707,7 @@
         </is>
       </c>
       <c r="L58" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M58" t="n">
         <v>70</v>
@@ -4724,7 +4724,7 @@
         </is>
       </c>
       <c r="R58" s="1" t="n">
-        <v>-5.582075281805555</v>
+        <v>-6.579460093900463</v>
       </c>
       <c r="S58" t="n">
         <v>1</v>
@@ -4732,41 +4732,41 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>245089</v>
+        <v>251972</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C59" t="n">
         <v>15</v>
       </c>
       <c r="D59" t="n">
-        <v>1727.676056338028</v>
+        <v>75.75</v>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>2025-06-10 09:53:11</t>
+          <t>2025-06-10 10:55:47</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>2025-06-10 10:08:11</t>
+          <t>2025-06-10 11:10:47</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>2025-06-10 10:08:11</t>
+          <t>2025-06-10 11:10:47</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>2025-06-13 14:55:52</t>
+          <t>2025-06-10 12:26:32</t>
         </is>
       </c>
       <c r="I59" t="n">
-        <v>122665</v>
+        <v>4848</v>
       </c>
       <c r="J59" t="inlineStr">
         <is>
@@ -4792,11 +4792,11 @@
       </c>
       <c r="Q59" t="inlineStr">
         <is>
-          <t>2025-12-31 00:00:00</t>
+          <t>2025-05-30 00:00:00</t>
         </is>
       </c>
       <c r="R59" s="1" t="n">
-        <v>0</v>
+        <v>-11.51843532986111</v>
       </c>
       <c r="S59" t="n">
         <v>1</v>
@@ -4804,41 +4804,41 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>251772</v>
+        <v>252108</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C60" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="D60" t="n">
-        <v>637.2112676056338</v>
+        <v>234.4426229508197</v>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>2025-06-10 10:37:12</t>
+          <t>2025-06-10 11:16:25</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>2025-06-10 11:17:12</t>
+          <t>2025-06-10 11:46:25</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>2025-06-10 11:17:12</t>
+          <t>2025-06-10 11:46:25</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>2025-06-11 13:54:25</t>
+          <t>2025-06-11 07:40:52</t>
         </is>
       </c>
       <c r="I60" t="n">
-        <v>45242</v>
+        <v>14301</v>
       </c>
       <c r="J60" t="inlineStr">
         <is>
@@ -4851,7 +4851,7 @@
         </is>
       </c>
       <c r="L60" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M60" t="n">
         <v>70</v>
@@ -4864,11 +4864,11 @@
       </c>
       <c r="Q60" t="inlineStr">
         <is>
-          <t>2025-06-05 00:00:00</t>
+          <t>2025-06-06 00:00:00</t>
         </is>
       </c>
       <c r="R60" s="1" t="n">
-        <v>-6.579460093900463</v>
+        <v>-5.320047814212963</v>
       </c>
       <c r="S60" t="n">
         <v>1</v>
@@ -4876,41 +4876,41 @@
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>252108</v>
+        <v>251916</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C61" t="n">
         <v>30</v>
       </c>
       <c r="D61" t="n">
-        <v>234.4426229508197</v>
+        <v>732.421875</v>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>2025-06-10 11:32:02</t>
+          <t>2025-06-10 12:26:32</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>2025-06-10 12:02:02</t>
+          <t>2025-06-10 12:56:32</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>2025-06-10 12:02:02</t>
+          <t>2025-06-10 12:56:32</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>2025-06-11 07:56:29</t>
+          <t>2025-06-12 09:08:58</t>
         </is>
       </c>
       <c r="I61" t="n">
-        <v>14301</v>
+        <v>46875</v>
       </c>
       <c r="J61" t="inlineStr">
         <is>
@@ -4923,7 +4923,7 @@
         </is>
       </c>
       <c r="L61" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M61" t="n">
         <v>70</v>
@@ -4936,11 +4936,11 @@
       </c>
       <c r="Q61" t="inlineStr">
         <is>
-          <t>2025-06-06 00:00:00</t>
+          <t>2025-06-13 00:00:00</t>
         </is>
       </c>
       <c r="R61" s="1" t="n">
-        <v>-5.330897085613426</v>
+        <v>0</v>
       </c>
       <c r="S61" t="n">
         <v>1</v>
@@ -4948,41 +4948,41 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>251916</v>
+        <v>245089</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C62" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="D62" t="n">
-        <v>660.2112676056338</v>
+        <v>1727.676056338028</v>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>2025-06-10 13:14:25</t>
+          <t>2025-06-10 14:02:15</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>2025-06-10 13:29:25</t>
+          <t>2025-06-10 14:32:15</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>2025-06-10 13:29:25</t>
+          <t>2025-06-10 14:32:15</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>2025-06-12 08:29:38</t>
+          <t>2025-06-16 11:19:55</t>
         </is>
       </c>
       <c r="I62" t="n">
-        <v>46875</v>
+        <v>122665</v>
       </c>
       <c r="J62" t="inlineStr">
         <is>
@@ -4991,14 +4991,14 @@
       </c>
       <c r="K62" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L62" t="n">
         <v>4</v>
       </c>
       <c r="M62" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="O62" t="n">
         <v>0</v>
@@ -5008,7 +5008,7 @@
       </c>
       <c r="Q62" t="inlineStr">
         <is>
-          <t>2025-06-13 00:00:00</t>
+          <t>2025-12-31 00:00:00</t>
         </is>
       </c>
       <c r="R62" s="1" t="n">
@@ -5024,33 +5024,33 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>R9</t>
+          <t>BIMEC 4</t>
         </is>
       </c>
       <c r="C63" t="n">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D63" t="n">
-        <v>682.4492753623189</v>
+        <v>771.9508196721312</v>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>2025-06-10 13:58:11</t>
+          <t>2025-06-10 14:41:32</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>2025-06-10 14:33:11</t>
+          <t>2025-06-11 07:08:32</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>2025-06-10 14:33:11</t>
+          <t>2025-06-11 07:08:32</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>2025-06-12 09:55:38</t>
+          <t>2025-06-12 12:00:29</t>
         </is>
       </c>
       <c r="I63" t="n">
@@ -5096,33 +5096,33 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C64" t="n">
-        <v>20</v>
+        <v>30.5</v>
       </c>
       <c r="D64" t="n">
-        <v>586.1147540983607</v>
+        <v>650.0545454545454</v>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>2025-06-11 07:56:29</t>
+          <t>2025-06-10 14:58:33</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>2025-06-11 08:16:29</t>
+          <t>2025-06-11 07:29:03</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>2025-06-11 08:16:29</t>
+          <t>2025-06-11 07:29:03</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>2025-06-12 10:02:36</t>
+          <t>2025-06-12 10:19:06</t>
         </is>
       </c>
       <c r="I64" t="n">
@@ -5168,33 +5168,33 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C65" t="n">
-        <v>42</v>
+        <v>20</v>
       </c>
       <c r="D65" t="n">
         <v>105.0819672131148</v>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>2025-06-11 08:05:00</t>
+          <t>2025-06-11 07:40:52</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>2025-06-11 08:47:00</t>
+          <t>2025-06-11 08:00:52</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>2025-06-11 08:47:00</t>
+          <t>2025-06-11 08:00:52</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>2025-06-11 10:32:05</t>
+          <t>2025-06-11 09:45:57</t>
         </is>
       </c>
       <c r="I65" t="n">
@@ -5240,33 +5240,33 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>R9</t>
         </is>
       </c>
       <c r="C66" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D66" t="n">
-        <v>204.1475409836065</v>
+        <v>180.4782608695652</v>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>2025-06-11 10:32:05</t>
+          <t>2025-06-11 08:23:50</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>2025-06-11 10:59:05</t>
+          <t>2025-06-11 08:48:50</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>2025-06-11 10:59:05</t>
+          <t>2025-06-11 08:48:50</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>2025-06-11 14:23:14</t>
+          <t>2025-06-11 11:49:19</t>
         </is>
       </c>
       <c r="I66" t="n">
@@ -5312,33 +5312,33 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C67" t="n">
-        <v>38.5</v>
+        <v>35</v>
       </c>
       <c r="D67" t="n">
-        <v>137.1090909090909</v>
+        <v>123.6229508196721</v>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>2025-06-11 11:49:15</t>
+          <t>2025-06-11 09:45:57</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>2025-06-11 12:27:45</t>
+          <t>2025-06-11 10:20:57</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>2025-06-11 12:27:45</t>
+          <t>2025-06-11 10:20:57</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>2025-06-11 14:44:52</t>
+          <t>2025-06-11 12:24:34</t>
         </is>
       </c>
       <c r="I67" t="n">
@@ -5380,41 +5380,41 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>251680</v>
+        <v>252325</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>R9</t>
         </is>
       </c>
       <c r="C68" t="n">
         <v>45</v>
       </c>
       <c r="D68" t="n">
-        <v>238.112676056338</v>
+        <v>262.3188405797101</v>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>2025-06-11 13:54:25</t>
+          <t>2025-06-11 11:49:19</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>2025-06-11 14:39:25</t>
+          <t>2025-06-11 12:34:19</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>2025-06-11 14:39:25</t>
+          <t>2025-06-11 12:34:19</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>2025-06-12 10:37:32</t>
+          <t>2025-06-12 08:56:38</t>
         </is>
       </c>
       <c r="I68" t="n">
-        <v>16906</v>
+        <v>18100</v>
       </c>
       <c r="J68" t="inlineStr">
         <is>
@@ -5423,7 +5423,7 @@
       </c>
       <c r="K68" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
         </is>
       </c>
       <c r="L68" t="n">
@@ -5452,41 +5452,41 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>252325</v>
+        <v>251680</v>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C69" t="n">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="D69" t="n">
-        <v>296.7213114754098</v>
+        <v>277.1475409836066</v>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>2025-06-11 14:23:14</t>
+          <t>2025-06-11 12:24:34</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>2025-06-11 14:56:14</t>
+          <t>2025-06-11 12:44:34</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>2025-06-11 14:56:14</t>
+          <t>2025-06-11 12:44:34</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>2025-06-12 11:52:58</t>
+          <t>2025-06-12 09:21:43</t>
         </is>
       </c>
       <c r="I69" t="n">
-        <v>18100</v>
+        <v>16906</v>
       </c>
       <c r="J69" t="inlineStr">
         <is>
@@ -5495,7 +5495,7 @@
       </c>
       <c r="K69" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L69" t="n">
@@ -5524,41 +5524,41 @@
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>251679</v>
+        <v>251681</v>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="C70" t="n">
-        <v>30.5</v>
+        <v>40</v>
       </c>
       <c r="D70" t="n">
-        <v>288.3636363636364</v>
+        <v>56.12676056338028</v>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>2025-06-11 14:44:52</t>
+          <t>2025-06-11 13:54:25</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>2025-06-12 07:15:22</t>
+          <t>2025-06-11 14:34:25</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>2025-06-12 07:15:22</t>
+          <t>2025-06-11 14:34:25</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>2025-06-12 12:03:44</t>
+          <t>2025-06-12 07:30:32</t>
         </is>
       </c>
       <c r="I70" t="n">
-        <v>15860</v>
+        <v>3985</v>
       </c>
       <c r="J70" t="inlineStr">
         <is>
@@ -5567,11 +5567,11 @@
       </c>
       <c r="K70" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L70" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="M70" t="n">
         <v>70</v>
@@ -5596,41 +5596,41 @@
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>251681</v>
+        <v>251917</v>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="C71" t="n">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="D71" t="n">
-        <v>56.12676056338028</v>
+        <v>32.26760563380282</v>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>2025-06-12 08:29:38</t>
+          <t>2025-06-12 07:30:32</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>2025-06-12 08:46:38</t>
+          <t>2025-06-12 08:05:32</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>2025-06-12 08:46:38</t>
+          <t>2025-06-12 08:05:32</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>2025-06-12 09:42:45</t>
+          <t>2025-06-12 08:37:49</t>
         </is>
       </c>
       <c r="I71" t="n">
-        <v>3985</v>
+        <v>2291</v>
       </c>
       <c r="J71" t="inlineStr">
         <is>
@@ -5656,7 +5656,7 @@
       </c>
       <c r="Q71" t="inlineStr">
         <is>
-          <t>2025-06-18 00:00:00</t>
+          <t>2025-06-20 00:00:00</t>
         </is>
       </c>
       <c r="R71" s="1" t="n">
@@ -5668,37 +5668,37 @@
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>251917</v>
+    